--- a/Data/DWA_FS.xlsx
+++ b/Data/DWA_FS.xlsx
@@ -2321,7 +2321,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2329,10 +2329,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BB12"/>
+  <dimension ref="A1:BB11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2552,14 +2552,163 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:54" s="2" customFormat="1" ht="15">
-      <c r="U2" s="3"/>
-      <c r="AY2" s="3"/>
-      <c r="BA2" s="15"/>
+    <row r="2" spans="1:54" s="4" customFormat="1" ht="15">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>44732</v>
+      </c>
+      <c r="C2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="4">
+        <v>21</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" s="9">
+        <v>777</v>
+      </c>
+      <c r="J2" s="9">
+        <v>777</v>
+      </c>
+      <c r="K2" s="7">
+        <v>777</v>
+      </c>
+      <c r="L2" t="s">
+        <v>78</v>
+      </c>
+      <c r="M2"/>
+      <c r="N2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O2" t="s">
+        <v>98</v>
+      </c>
+      <c r="P2" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>112</v>
+      </c>
+      <c r="R2" t="s">
+        <v>111</v>
+      </c>
+      <c r="T2" t="s">
+        <v>118</v>
+      </c>
+      <c r="U2" s="5"/>
+      <c r="V2" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="W2" t="s">
+        <v>136</v>
+      </c>
+      <c r="X2" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>164</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>170</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>186</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>388</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>208</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>216</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>218</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>227</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>233</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>242</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>249</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>262</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>263</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>264</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>265</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>266</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>294</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>295</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>296</v>
+      </c>
+      <c r="AT2" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>392</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>328</v>
+      </c>
+      <c r="AW2">
+        <v>888</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>329</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>330</v>
+      </c>
+      <c r="AZ2" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="BA2" s="10" t="s">
+        <v>367</v>
+      </c>
     </row>
-    <row r="3" spans="1:54" s="4" customFormat="1" ht="15">
-      <c r="A3" s="4">
-        <v>1</v>
+    <row r="3" spans="1:54" ht="15">
+      <c r="A3">
+        <v>2</v>
       </c>
       <c r="B3" s="6">
         <v>44732</v>
@@ -2570,142 +2719,140 @@
       <c r="D3" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="4">
-        <v>21</v>
+      <c r="E3">
+        <v>23</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H3" t="s">
         <v>68</v>
       </c>
-      <c r="I3" s="9">
-        <v>777</v>
-      </c>
-      <c r="J3" s="9">
-        <v>777</v>
-      </c>
-      <c r="K3" s="7">
-        <v>777</v>
+      <c r="I3" s="8">
+        <v>27</v>
+      </c>
+      <c r="J3" s="8">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>69</v>
       </c>
       <c r="L3" t="s">
-        <v>78</v>
-      </c>
-      <c r="M3"/>
+        <v>79</v>
+      </c>
       <c r="N3" t="s">
         <v>90</v>
       </c>
       <c r="O3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="P3" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>112</v>
-      </c>
-      <c r="R3" t="s">
-        <v>111</v>
+        <v>386</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>113</v>
       </c>
       <c r="T3" t="s">
-        <v>118</v>
-      </c>
-      <c r="U3" s="5"/>
-      <c r="V3" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="V3" t="s">
         <v>127</v>
       </c>
       <c r="W3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="X3" t="s">
-        <v>146</v>
-      </c>
-      <c r="Y3" s="7" t="s">
-        <v>387</v>
+        <v>147</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>155</v>
       </c>
       <c r="Z3" t="s">
         <v>164</v>
       </c>
       <c r="AA3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AB3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AC3" t="s">
         <v>186</v>
       </c>
       <c r="AD3" t="s">
-        <v>388</v>
+        <v>194</v>
       </c>
       <c r="AE3" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="AF3" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="AG3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AH3" t="s">
         <v>227</v>
       </c>
       <c r="AI3" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="AJ3" t="s">
         <v>242</v>
       </c>
       <c r="AK3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AL3" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="AM3" t="s">
         <v>263</v>
       </c>
       <c r="AN3" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="AO3" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="AP3" t="s">
         <v>266</v>
       </c>
       <c r="AQ3" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="AR3" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="AS3" t="s">
-        <v>296</v>
-      </c>
-      <c r="AT3" s="7" t="s">
-        <v>297</v>
+        <v>326</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>300</v>
       </c>
       <c r="AU3" t="s">
-        <v>392</v>
+        <v>331</v>
       </c>
       <c r="AV3" t="s">
-        <v>328</v>
-      </c>
-      <c r="AW3">
-        <v>888</v>
+        <v>332</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>333</v>
       </c>
       <c r="AX3" t="s">
-        <v>329</v>
+        <v>361</v>
       </c>
       <c r="AY3" t="s">
-        <v>330</v>
+        <v>364</v>
       </c>
       <c r="AZ3" s="13" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="BA3" s="10" t="s">
         <v>367</v>
@@ -2713,7 +2860,7 @@
     </row>
     <row r="4" spans="1:54" ht="15">
       <c r="A4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="6">
         <v>44732</v>
@@ -2725,147 +2872,144 @@
         <v>55</v>
       </c>
       <c r="E4">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H4" t="s">
         <v>68</v>
       </c>
       <c r="I4" s="8">
-        <v>27</v>
+        <v>27.2</v>
       </c>
       <c r="J4" s="8">
         <v>55</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P4" t="s">
-        <v>386</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="R4" s="7" t="s">
-        <v>113</v>
+        <v>100</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>107</v>
       </c>
       <c r="T4" t="s">
-        <v>55</v>
+        <v>119</v>
       </c>
       <c r="V4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="W4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X4" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="Y4" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="Z4" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="AA4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AB4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AC4" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="AD4" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="AE4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AH4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AI4" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="AJ4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AK4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AL4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AM4" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="AN4" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="AO4" t="s">
-        <v>268</v>
+        <v>292</v>
       </c>
       <c r="AP4" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="AQ4" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="AR4" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="AS4" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AT4" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="AU4" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="AV4" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="AW4" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="AX4" t="s">
-        <v>361</v>
+        <v>329</v>
       </c>
       <c r="AY4" t="s">
-        <v>364</v>
+        <v>337</v>
       </c>
       <c r="AZ4" s="13" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="BA4" s="10" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="5" spans="1:54" ht="15">
       <c r="A5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="6">
         <v>44732</v>
@@ -2874,147 +3018,153 @@
         <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E5">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H5" t="s">
         <v>68</v>
       </c>
       <c r="I5" s="8">
-        <v>27.2</v>
+        <v>26</v>
       </c>
       <c r="J5" s="8">
-        <v>55</v>
+        <v>54.55</v>
       </c>
       <c r="K5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L5" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="M5" t="s">
+        <v>88</v>
       </c>
       <c r="N5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P5" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>107</v>
+        <v>101</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="S5" t="s">
+        <v>89</v>
       </c>
       <c r="T5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="V5" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="W5" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="X5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Y5" t="s">
-        <v>163</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>169</v>
+        <v>156</v>
+      </c>
+      <c r="Z5" s="11" t="s">
+        <v>168</v>
       </c>
       <c r="AA5" t="s">
-        <v>172</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>181</v>
+        <v>173</v>
+      </c>
+      <c r="AB5" s="11" t="s">
+        <v>168</v>
       </c>
       <c r="AC5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AD5" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="AE5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AF5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG5" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AH5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AI5" t="s">
-        <v>234</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>243</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>251</v>
+        <v>235</v>
+      </c>
+      <c r="AJ5" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="AK5" s="11" t="s">
+        <v>168</v>
       </c>
       <c r="AL5" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AM5" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="AN5" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="AO5" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="AP5" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="AQ5" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="AR5" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="AS5" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="AT5" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="AU5" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="AV5" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="AW5" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="AX5" t="s">
-        <v>329</v>
+        <v>362</v>
       </c>
       <c r="AY5" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="AZ5" s="13" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="BA5" s="10" t="s">
-        <v>370</v>
+        <v>391</v>
       </c>
     </row>
-    <row r="6" spans="1:54" ht="15">
+    <row r="6" spans="1:54">
       <c r="A6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="6">
         <v>44732</v>
@@ -3023,153 +3173,156 @@
         <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E6">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H6" t="s">
         <v>68</v>
       </c>
       <c r="I6" s="8">
-        <v>26</v>
+        <v>26.5</v>
       </c>
       <c r="J6" s="8">
-        <v>54.55</v>
+        <v>54.5</v>
       </c>
       <c r="K6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N6" t="s">
         <v>92</v>
       </c>
       <c r="O6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="P6" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="S6" t="s">
-        <v>89</v>
+        <v>102</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>115</v>
+      </c>
+      <c r="R6" t="s">
+        <v>114</v>
       </c>
       <c r="T6" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="V6" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="W6" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="X6" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="Y6" t="s">
-        <v>156</v>
-      </c>
-      <c r="Z6" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>173</v>
-      </c>
-      <c r="AB6" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>192</v>
+        <v>157</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA6">
+        <v>999</v>
+      </c>
+      <c r="AB6">
+        <v>999</v>
+      </c>
+      <c r="AC6">
+        <v>999</v>
       </c>
       <c r="AD6" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>202</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>211</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>221</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>229</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>235</v>
-      </c>
-      <c r="AJ6" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="AK6" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>257</v>
+        <v>196</v>
+      </c>
+      <c r="AE6">
+        <v>999</v>
+      </c>
+      <c r="AF6">
+        <v>999</v>
+      </c>
+      <c r="AG6">
+        <v>999</v>
+      </c>
+      <c r="AH6">
+        <v>999</v>
+      </c>
+      <c r="AI6">
+        <v>999</v>
+      </c>
+      <c r="AJ6">
+        <v>999</v>
+      </c>
+      <c r="AK6">
+        <v>999</v>
+      </c>
+      <c r="AL6">
+        <v>999</v>
       </c>
       <c r="AM6" t="s">
-        <v>272</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>291</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>273</v>
-      </c>
-      <c r="AP6" t="s">
-        <v>274</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>304</v>
-      </c>
-      <c r="AR6" t="s">
-        <v>305</v>
-      </c>
-      <c r="AS6" t="s">
-        <v>306</v>
-      </c>
-      <c r="AT6" t="s">
-        <v>307</v>
-      </c>
-      <c r="AU6" t="s">
-        <v>338</v>
-      </c>
-      <c r="AV6" t="s">
-        <v>339</v>
-      </c>
-      <c r="AW6" t="s">
-        <v>340</v>
-      </c>
-      <c r="AX6" t="s">
-        <v>362</v>
-      </c>
-      <c r="AY6" t="s">
-        <v>341</v>
+        <v>275</v>
+      </c>
+      <c r="AN6">
+        <v>999</v>
+      </c>
+      <c r="AO6">
+        <v>999</v>
+      </c>
+      <c r="AP6">
+        <v>999</v>
+      </c>
+      <c r="AQ6">
+        <v>999</v>
+      </c>
+      <c r="AR6">
+        <v>999</v>
+      </c>
+      <c r="AS6">
+        <v>999</v>
+      </c>
+      <c r="AT6">
+        <v>999</v>
+      </c>
+      <c r="AU6">
+        <v>999</v>
+      </c>
+      <c r="AV6">
+        <v>999</v>
+      </c>
+      <c r="AW6">
+        <v>999</v>
+      </c>
+      <c r="AX6">
+        <v>999</v>
+      </c>
+      <c r="AY6">
+        <v>999</v>
       </c>
       <c r="AZ6" s="13" t="s">
-        <v>371</v>
-      </c>
-      <c r="BA6" s="10" t="s">
-        <v>391</v>
+        <v>372</v>
+      </c>
+      <c r="BA6" s="10">
+        <v>999</v>
       </c>
     </row>
-    <row r="7" spans="1:54">
+    <row r="7" spans="1:54" ht="15">
       <c r="A7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="6">
         <v>44732</v>
@@ -3184,25 +3337,25 @@
         <v>16</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H7" t="s">
         <v>68</v>
       </c>
       <c r="I7" s="8">
-        <v>26.5</v>
+        <v>25.5</v>
       </c>
       <c r="J7" s="8">
         <v>54.5</v>
       </c>
       <c r="K7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M7" t="s">
         <v>89</v>
@@ -3211,123 +3364,120 @@
         <v>92</v>
       </c>
       <c r="O7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="R7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="T7" t="s">
         <v>121</v>
       </c>
-      <c r="U7" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="V7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="W7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="X7" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="Y7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Z7" t="s">
-        <v>165</v>
-      </c>
-      <c r="AA7">
-        <v>999</v>
-      </c>
-      <c r="AB7">
-        <v>999</v>
-      </c>
-      <c r="AC7">
-        <v>999</v>
+        <v>119</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>187</v>
       </c>
       <c r="AD7" t="s">
-        <v>196</v>
-      </c>
-      <c r="AE7">
-        <v>999</v>
-      </c>
-      <c r="AF7">
-        <v>999</v>
-      </c>
-      <c r="AG7">
-        <v>999</v>
-      </c>
-      <c r="AH7">
-        <v>999</v>
-      </c>
-      <c r="AI7">
-        <v>999</v>
-      </c>
-      <c r="AJ7">
-        <v>999</v>
-      </c>
-      <c r="AK7">
-        <v>999</v>
-      </c>
-      <c r="AL7">
-        <v>999</v>
+        <v>168</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>203</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>212</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>222</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>168</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>236</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>168</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>168</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>168</v>
       </c>
       <c r="AM7" t="s">
-        <v>275</v>
-      </c>
-      <c r="AN7">
-        <v>999</v>
-      </c>
-      <c r="AO7">
-        <v>999</v>
-      </c>
-      <c r="AP7">
-        <v>999</v>
-      </c>
-      <c r="AQ7">
-        <v>999</v>
-      </c>
-      <c r="AR7">
-        <v>999</v>
-      </c>
-      <c r="AS7">
-        <v>999</v>
-      </c>
-      <c r="AT7">
-        <v>999</v>
-      </c>
-      <c r="AU7">
-        <v>999</v>
-      </c>
-      <c r="AV7">
-        <v>999</v>
-      </c>
-      <c r="AW7">
-        <v>999</v>
-      </c>
-      <c r="AX7">
-        <v>999</v>
-      </c>
-      <c r="AY7">
-        <v>999</v>
+        <v>272</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>168</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>293</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>274</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>308</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>168</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>309</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>168</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>342</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>343</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>168</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>168</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>365</v>
       </c>
       <c r="AZ7" s="13" t="s">
-        <v>372</v>
-      </c>
-      <c r="BA7" s="10">
-        <v>999</v>
+        <v>373</v>
+      </c>
+      <c r="BA7" s="10" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:54" ht="15">
       <c r="A8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="6">
         <v>44732</v>
@@ -3339,150 +3489,150 @@
         <v>57</v>
       </c>
       <c r="E8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H8" t="s">
         <v>68</v>
       </c>
       <c r="I8" s="8">
-        <v>25.5</v>
+        <v>26</v>
       </c>
       <c r="J8" s="8">
         <v>54.5</v>
       </c>
       <c r="K8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M8" t="s">
         <v>89</v>
       </c>
       <c r="N8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q8" t="s">
-        <v>117</v>
-      </c>
-      <c r="R8" t="s">
-        <v>116</v>
-      </c>
-      <c r="T8" t="s">
-        <v>121</v>
-      </c>
-      <c r="V8" t="s">
-        <v>130</v>
-      </c>
-      <c r="W8" t="s">
-        <v>144</v>
-      </c>
-      <c r="X8" t="s">
-        <v>119</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>158</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>119</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>174</v>
-      </c>
-      <c r="AB8" t="s">
+        <v>108</v>
+      </c>
+      <c r="T8" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="V8" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="W8" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="X8" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y8" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z8" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA8" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB8" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC8" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="AD8" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="AC8" t="s">
-        <v>187</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>168</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>203</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>212</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>222</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>168</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>236</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>168</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>168</v>
-      </c>
-      <c r="AL8" t="s">
-        <v>168</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>272</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>168</v>
-      </c>
-      <c r="AO8" t="s">
-        <v>293</v>
-      </c>
-      <c r="AP8" t="s">
-        <v>274</v>
-      </c>
-      <c r="AQ8" t="s">
-        <v>308</v>
-      </c>
-      <c r="AR8" t="s">
-        <v>168</v>
-      </c>
-      <c r="AS8" t="s">
-        <v>309</v>
-      </c>
-      <c r="AT8" t="s">
-        <v>168</v>
-      </c>
-      <c r="AU8" t="s">
-        <v>342</v>
-      </c>
-      <c r="AV8" t="s">
-        <v>343</v>
-      </c>
-      <c r="AW8" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX8" t="s">
-        <v>168</v>
-      </c>
-      <c r="AY8" t="s">
-        <v>365</v>
-      </c>
-      <c r="AZ8" s="13" t="s">
-        <v>373</v>
+      <c r="AE8" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="AF8" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="AG8" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH8" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="AI8" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="AJ8" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="AK8" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="AL8" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="AM8" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="AN8" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="AO8" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="AP8" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="AQ8" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="AR8" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="AS8" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="AT8" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="AU8" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="AV8" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="AW8" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="AX8" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="AY8" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="AZ8" s="14" t="s">
+        <v>374</v>
       </c>
       <c r="BA8" s="10" t="s">
-        <v>168</v>
+        <v>375</v>
       </c>
     </row>
     <row r="9" spans="1:54" ht="15">
       <c r="A9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="6">
         <v>44732</v>
@@ -3497,10 +3647,10 @@
         <v>17</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H9" t="s">
         <v>68</v>
@@ -3509,135 +3659,135 @@
         <v>26</v>
       </c>
       <c r="J9" s="8">
-        <v>54.5</v>
+        <v>54.55</v>
       </c>
       <c r="K9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M9" t="s">
         <v>89</v>
       </c>
       <c r="N9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O9" t="s">
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>108</v>
+        <v>105</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="S9" t="s">
+        <v>382</v>
       </c>
       <c r="T9" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="U9" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="V9" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="W9" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="X9" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y9" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Z9" s="7" t="s">
         <v>166</v>
       </c>
       <c r="AA9" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AB9" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AC9" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="AD9" s="7" t="s">
-        <v>168</v>
+        <v>193</v>
+      </c>
+      <c r="AD9">
+        <v>999</v>
       </c>
       <c r="AE9" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AF9" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AG9" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AH9" s="7" t="s">
         <v>230</v>
       </c>
       <c r="AI9" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="AJ9" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AK9" s="7" t="s">
-        <v>390</v>
+        <v>252</v>
       </c>
       <c r="AL9" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AM9" s="7" t="s">
-        <v>389</v>
+        <v>279</v>
       </c>
       <c r="AN9" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="AO9" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="AP9" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="AQ9" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="AR9" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="AS9" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="AT9" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="AU9" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AV9" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="AW9" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="AX9" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="AY9" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="AZ9" s="14" t="s">
-        <v>374</v>
+        <v>363</v>
+      </c>
+      <c r="AY9" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="AZ9" s="7" t="s">
+        <v>376</v>
       </c>
       <c r="BA9" s="10" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
     </row>
     <row r="10" spans="1:54" ht="15">
       <c r="A10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="6">
         <v>44732</v>
@@ -3649,31 +3799,28 @@
         <v>57</v>
       </c>
       <c r="E10">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H10" t="s">
         <v>68</v>
       </c>
       <c r="I10" s="8">
-        <v>26</v>
+        <v>6.2</v>
       </c>
       <c r="J10" s="8">
-        <v>54.55</v>
+        <v>4.5</v>
       </c>
       <c r="K10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L10" t="s">
-        <v>85</v>
-      </c>
-      <c r="M10" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="N10" t="s">
         <v>92</v>
@@ -3682,117 +3829,117 @@
         <v>94</v>
       </c>
       <c r="P10" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="S10" t="s">
-        <v>382</v>
+        <v>385</v>
+      </c>
+      <c r="R10" t="s">
+        <v>109</v>
       </c>
       <c r="T10" s="10" t="s">
-        <v>120</v>
+        <v>124</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="V10" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="W10" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="X10" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y10" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Z10" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AA10" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AB10" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AC10" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="AD10">
-        <v>999</v>
+        <v>189</v>
+      </c>
+      <c r="AD10" s="7" t="s">
+        <v>197</v>
       </c>
       <c r="AE10" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AF10" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="AG10" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AH10" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AI10" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AJ10" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AK10" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AL10" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AM10" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="AN10" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="AO10" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="AP10" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="AQ10" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="AR10" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="AS10" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AT10" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="AU10" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="AV10" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="AW10" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="AX10" s="7" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="AY10" s="1" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="AZ10" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="BA10" s="10" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="11" spans="1:54" ht="15">
       <c r="A11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="6">
         <v>44732</v>
@@ -3804,28 +3951,28 @@
         <v>57</v>
       </c>
       <c r="E11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H11" t="s">
         <v>68</v>
       </c>
       <c r="I11" s="8">
-        <v>6.2</v>
+        <v>26.3</v>
       </c>
       <c r="J11" s="8">
-        <v>4.5</v>
+        <v>54.5</v>
       </c>
       <c r="K11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N11" t="s">
         <v>92</v>
@@ -3834,260 +3981,108 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>385</v>
-      </c>
-      <c r="R11" t="s">
-        <v>109</v>
+        <v>106</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>110</v>
       </c>
       <c r="T11" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="V11" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="W11" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="X11" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Y11" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Z11" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AA11" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AB11" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="AC11" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
+      </c>
+      <c r="AC11" s="12" t="s">
+        <v>190</v>
       </c>
       <c r="AD11" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AE11" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AF11" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AG11" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AH11" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AI11" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AJ11" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AK11" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AL11" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AM11" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="AN11" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="AO11" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="AP11" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="AQ11" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="AR11" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AS11" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AT11" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="AU11" s="7" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="AV11" s="7" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="AW11" s="7" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="AX11" s="7" t="s">
-        <v>355</v>
+        <v>329</v>
       </c>
       <c r="AY11" s="1" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="AZ11" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="BA11" s="10" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="12" spans="1:54" ht="15">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" s="6">
-        <v>44732</v>
-      </c>
-      <c r="C12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12">
-        <v>20</v>
-      </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
-      <c r="G12" t="s">
-        <v>67</v>
-      </c>
-      <c r="H12" t="s">
-        <v>68</v>
-      </c>
-      <c r="I12" s="8">
-        <v>26.3</v>
-      </c>
-      <c r="J12" s="8">
-        <v>54.5</v>
-      </c>
-      <c r="K12" t="s">
-        <v>77</v>
-      </c>
-      <c r="L12" t="s">
-        <v>87</v>
-      </c>
-      <c r="N12" t="s">
-        <v>92</v>
-      </c>
-      <c r="O12" t="s">
-        <v>94</v>
-      </c>
-      <c r="P12" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>110</v>
-      </c>
-      <c r="T12" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="V12" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="W12" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="X12" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Y12" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Z12" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA12" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="AB12" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="AC12" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="AD12" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="AE12" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="AF12" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="AG12" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="AH12" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="AI12" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="AJ12" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="AK12" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="AL12" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="AM12" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="AN12" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="AO12" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="AP12" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="AQ12" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="AR12" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="AS12" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="AT12" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="AU12" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="AV12" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="AW12" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="AX12" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="AY12" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="AZ12" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="BA12" s="10" t="s">
         <v>380</v>
       </c>
     </row>

--- a/Data/DWA_FS.xlsx
+++ b/Data/DWA_FS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="430">
   <si>
     <t>ID</t>
   </si>
@@ -168,9 +168,6 @@
     <t>Zusatz Info.</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Anmerkung</t>
   </si>
   <si>
@@ -181,6 +178,1154 @@
   </si>
   <si>
     <t>Koord_links</t>
+  </si>
+  <si>
+    <t>FS</t>
+  </si>
+  <si>
+    <t>a''</t>
+  </si>
+  <si>
+    <t>III_17_0001</t>
+  </si>
+  <si>
+    <t>Y2</t>
+  </si>
+  <si>
+    <t>x-h</t>
+  </si>
+  <si>
+    <t>Strüth</t>
+  </si>
+  <si>
+    <t>[M]etkirch</t>
+  </si>
+  <si>
+    <t>Omeisela</t>
+  </si>
+  <si>
+    <t>Begrabnis</t>
+  </si>
+  <si>
+    <t>Brumbeera</t>
+  </si>
+  <si>
+    <t>Disel</t>
+  </si>
+  <si>
+    <t>Agersta</t>
+  </si>
+  <si>
+    <t>Fladermüs</t>
+  </si>
+  <si>
+    <t>Muga</t>
+  </si>
+  <si>
+    <t>Amt</t>
+  </si>
+  <si>
+    <t>Gagumera</t>
+  </si>
+  <si>
+    <t>Gugel, Huan</t>
+  </si>
+  <si>
+    <t>Hebamma</t>
+  </si>
+  <si>
+    <t>Roli</t>
+  </si>
+  <si>
+    <t>Schar</t>
+  </si>
+  <si>
+    <t>Ria[w]a</t>
+  </si>
+  <si>
+    <t>Merla</t>
+  </si>
+  <si>
+    <t>Geta</t>
+  </si>
+  <si>
+    <t>Riama</t>
+  </si>
+  <si>
+    <t>Pfluma</t>
+  </si>
+  <si>
+    <t>schalta</t>
+  </si>
+  <si>
+    <t>Spatz</t>
+  </si>
+  <si>
+    <t>Grüselbeere</t>
+  </si>
+  <si>
+    <t>Gufa</t>
+  </si>
+  <si>
+    <t>Strecknodla</t>
+  </si>
+  <si>
+    <t>Tassa, Taler</t>
+  </si>
+  <si>
+    <t>Tomata</t>
+  </si>
+  <si>
+    <t>verarda</t>
+  </si>
+  <si>
+    <t>Geis</t>
+  </si>
+  <si>
+    <t>Holdra</t>
+  </si>
+  <si>
+    <t>Schwegertochter</t>
+  </si>
+  <si>
+    <t>III_17_0003</t>
+  </si>
+  <si>
+    <t>Y1</t>
+  </si>
+  <si>
+    <t>x-l</t>
+  </si>
+  <si>
+    <t>Altkirch</t>
+  </si>
+  <si>
+    <t>Elsass</t>
+  </si>
+  <si>
+    <t>Überstraß</t>
+  </si>
+  <si>
+    <t>Adolf Stahlberger</t>
+  </si>
+  <si>
+    <t>Strassburg</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Marie Johanna Herzog</t>
+  </si>
+  <si>
+    <t>Omeisala (s', s)</t>
+  </si>
+  <si>
+    <t>Licht, Vergräbnis (d', w)</t>
+  </si>
+  <si>
+    <t>Brümbäre (d', w)</t>
+  </si>
+  <si>
+    <t>Disel (der, m)</t>
+  </si>
+  <si>
+    <t>Agerschta (d', w)</t>
+  </si>
+  <si>
+    <t>Galger (der, m)</t>
+  </si>
+  <si>
+    <t>Fladermüs (d', w)</t>
+  </si>
+  <si>
+    <t>Mucka (d', w)</t>
+  </si>
+  <si>
+    <t>Amd (s', s)</t>
+  </si>
+  <si>
+    <t>Gagumera (d', w)</t>
+  </si>
+  <si>
+    <t>Buttla (d', w)</t>
+  </si>
+  <si>
+    <t>Guckel (der, m), Huehn (d', w)</t>
+  </si>
+  <si>
+    <t>Hebamma (d', w)</t>
+  </si>
+  <si>
+    <t>Hartäpfel (d', w)</t>
+  </si>
+  <si>
+    <t>Har[t]epfel</t>
+  </si>
+  <si>
+    <t>Rolli (der, m)</t>
+  </si>
+  <si>
+    <t>Schormüs (d', w)</t>
+  </si>
+  <si>
+    <t>Kalriewa (d', w)</t>
+  </si>
+  <si>
+    <t>Mora (d', w)</t>
+  </si>
+  <si>
+    <t>Geta (der, m)</t>
+  </si>
+  <si>
+    <t>Rieme (der, m)</t>
+  </si>
+  <si>
+    <t>Pflüma (d', w)</t>
+  </si>
+  <si>
+    <t>Spatz (der, m)</t>
+  </si>
+  <si>
+    <t>Stachelbära (d', w)</t>
+  </si>
+  <si>
+    <t>Gufa (d', w)</t>
+  </si>
+  <si>
+    <t>Stricknodla (d', w)</t>
+  </si>
+  <si>
+    <t>Tassala (s', s)</t>
+  </si>
+  <si>
+    <t>artiger Hafa (m)</t>
+  </si>
+  <si>
+    <t>Schwegertochter(d', w)</t>
+  </si>
+  <si>
+    <t>zwiega</t>
+  </si>
+  <si>
+    <t>Zünkinigla (s', s)</t>
+  </si>
+  <si>
+    <t>Holundara (d', w)</t>
+  </si>
+  <si>
+    <t>III_17_0004</t>
+  </si>
+  <si>
+    <t>x-v, u+</t>
+  </si>
+  <si>
+    <t>Riespach, Feldbach</t>
+  </si>
+  <si>
+    <t>[??] [Ph]ilipps</t>
+  </si>
+  <si>
+    <t>Rittershofen</t>
+  </si>
+  <si>
+    <t>u Els</t>
+  </si>
+  <si>
+    <t xml:space="preserve">von Riespach und Feldbach </t>
+  </si>
+  <si>
+    <t>Omeisele (s)</t>
+  </si>
+  <si>
+    <t>Vergräbnis (w)</t>
+  </si>
+  <si>
+    <t>Brumbeeri (w)</t>
+  </si>
+  <si>
+    <t>Dissel (w)</t>
+  </si>
+  <si>
+    <t>Agerschde (w)</t>
+  </si>
+  <si>
+    <t>Ratsch (m)</t>
+  </si>
+  <si>
+    <t>Fladermüs (w)</t>
+  </si>
+  <si>
+    <t>Mugge (w)</t>
+  </si>
+  <si>
+    <t>Ä[h]mt</t>
+  </si>
+  <si>
+    <t>Gagummese (w)</t>
+  </si>
+  <si>
+    <t>[D]udde (w)</t>
+  </si>
+  <si>
+    <t>Guggel, Hühn</t>
+  </si>
+  <si>
+    <t>Hebamme</t>
+  </si>
+  <si>
+    <t>Hollere (m)</t>
+  </si>
+  <si>
+    <t>Hardepfel (m)</t>
+  </si>
+  <si>
+    <t>Rulli (m)</t>
+  </si>
+  <si>
+    <t>Schar (m)</t>
+  </si>
+  <si>
+    <t>Galrüewe (w)</t>
+  </si>
+  <si>
+    <t>Moh[z] (w)</t>
+  </si>
+  <si>
+    <t>Geddi (m)</t>
+  </si>
+  <si>
+    <r>
+      <t>Ri</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ë</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>me (m)</t>
+    </r>
+  </si>
+  <si>
+    <t>Chriache (w)</t>
+  </si>
+  <si>
+    <t>larme</t>
+  </si>
+  <si>
+    <t>Spatz (m)</t>
+  </si>
+  <si>
+    <t>Grüselsbeeri (w)</t>
+  </si>
+  <si>
+    <t>Gufe (w)</t>
+  </si>
+  <si>
+    <t>Schwiegerdochter</t>
+  </si>
+  <si>
+    <t>Streggnodle (w)</t>
+  </si>
+  <si>
+    <t>Schessele, Dallerle</t>
+  </si>
+  <si>
+    <t>Hafe (m)</t>
+  </si>
+  <si>
+    <t>zwiege</t>
+  </si>
+  <si>
+    <t>Geiß</t>
+  </si>
+  <si>
+    <t>III_17_0006</t>
+  </si>
+  <si>
+    <t>x-o</t>
+  </si>
+  <si>
+    <t>Rüderbach</t>
+  </si>
+  <si>
+    <t>Elsaß</t>
+  </si>
+  <si>
+    <t>Altkirch &lt;[OG] Alsaß&gt;</t>
+  </si>
+  <si>
+    <t>Fritz [?]o[?]uer</t>
+  </si>
+  <si>
+    <t>Menzenschwand</t>
+  </si>
+  <si>
+    <t>Neustadt</t>
+  </si>
+  <si>
+    <t>A[hw]arz[w].</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>gemeinsam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omeisala  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vergräbnis  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dissel  </t>
+  </si>
+  <si>
+    <t>Agesta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratsch  </t>
+  </si>
+  <si>
+    <t>Mucka</t>
+  </si>
+  <si>
+    <t>Ahms</t>
+  </si>
+  <si>
+    <t>Hogabutta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G[o]gummera </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guckel  </t>
+  </si>
+  <si>
+    <t>Hebamm</t>
+  </si>
+  <si>
+    <t>Holera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hardepfel  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rolli  </t>
+  </si>
+  <si>
+    <t>Koleraba, Galariaba</t>
+  </si>
+  <si>
+    <t>M[o]r</t>
+  </si>
+  <si>
+    <t>Gätta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pflüma  </t>
+  </si>
+  <si>
+    <t>schalda</t>
+  </si>
+  <si>
+    <t>Spotz</t>
+  </si>
+  <si>
+    <t>Schwigertocher, [Sun]st[ra]</t>
+  </si>
+  <si>
+    <t>Grüsselbeera</t>
+  </si>
+  <si>
+    <t>Stecknodla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stricknodla  </t>
+  </si>
+  <si>
+    <t>T[h]sala</t>
+  </si>
+  <si>
+    <t>H[u]fa</t>
+  </si>
+  <si>
+    <t>zwiga</t>
+  </si>
+  <si>
+    <t>III_17_0007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y2 </t>
+  </si>
+  <si>
+    <t>x-q</t>
+  </si>
+  <si>
+    <t>Grenzingen</t>
+  </si>
+  <si>
+    <t>Sittler</t>
+  </si>
+  <si>
+    <t>Hessenheim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omeisele  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Licht  </t>
+  </si>
+  <si>
+    <t>Br[o]mbeere</t>
+  </si>
+  <si>
+    <t>Dissel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agerst </t>
+  </si>
+  <si>
+    <t>Ratscher</t>
+  </si>
+  <si>
+    <t>Fledermaus</t>
+  </si>
+  <si>
+    <t>Meücke</t>
+  </si>
+  <si>
+    <t>Ohmet</t>
+  </si>
+  <si>
+    <t>Gakummer</t>
+  </si>
+  <si>
+    <t>Butten</t>
+  </si>
+  <si>
+    <t>Guckel</t>
+  </si>
+  <si>
+    <t>Holara</t>
+  </si>
+  <si>
+    <t>Hartepfel</t>
+  </si>
+  <si>
+    <t>Rolli</t>
+  </si>
+  <si>
+    <t>Scharmus</t>
+  </si>
+  <si>
+    <t>gelbe Rübe</t>
+  </si>
+  <si>
+    <t>Meohr</t>
+  </si>
+  <si>
+    <t>Gett[?]</t>
+  </si>
+  <si>
+    <t>Riemen</t>
+  </si>
+  <si>
+    <t>Pflüma</t>
+  </si>
+  <si>
+    <t>lärmen</t>
+  </si>
+  <si>
+    <t>Schwiegertochter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grüselsbeera </t>
+  </si>
+  <si>
+    <t>Guffa</t>
+  </si>
+  <si>
+    <t>Stricknadel</t>
+  </si>
+  <si>
+    <t>Tasse</t>
+  </si>
+  <si>
+    <t>Hafen</t>
+  </si>
+  <si>
+    <t>eigla</t>
+  </si>
+  <si>
+    <t>III_17_0008</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>H-X {oder x-x]</t>
+  </si>
+  <si>
+    <t>Roppenzweiler</t>
+  </si>
+  <si>
+    <t>Els.</t>
+  </si>
+  <si>
+    <t>Ida Fritig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kolmar </t>
+  </si>
+  <si>
+    <t>i. E. {Elsass}</t>
+  </si>
+  <si>
+    <t>von Roppenzweiler</t>
+  </si>
+  <si>
+    <t>Schwegerdochter (w)</t>
+  </si>
+  <si>
+    <t>Holra (w)</t>
+  </si>
+  <si>
+    <t>Omaisale (s)</t>
+  </si>
+  <si>
+    <t>Liicht (w)</t>
+  </si>
+  <si>
+    <t>Brumbäri (w)</t>
+  </si>
+  <si>
+    <t>Dissel (m)</t>
+  </si>
+  <si>
+    <t>Agerschta (w)</t>
+  </si>
+  <si>
+    <t>Fladermüs (m)</t>
+  </si>
+  <si>
+    <t>Mugga (w)</t>
+  </si>
+  <si>
+    <t>Ähmt (s)</t>
+  </si>
+  <si>
+    <t>Gågumra (w)</t>
+  </si>
+  <si>
+    <t>Budda (w)</t>
+  </si>
+  <si>
+    <t>Guckel (m), Gluckeri (w)</t>
+  </si>
+  <si>
+    <t>Hebåmm (w)</t>
+  </si>
+  <si>
+    <t>Hardäpfel (m)</t>
+  </si>
+  <si>
+    <t>Rolli (m)</t>
+  </si>
+  <si>
+    <t>Scharrmüs (w)</t>
+  </si>
+  <si>
+    <t>Durlibs (m)</t>
+  </si>
+  <si>
+    <t>Mohr (w)</t>
+  </si>
+  <si>
+    <t>Gäddi (m)</t>
+  </si>
+  <si>
+    <t>Riama (m)</t>
+  </si>
+  <si>
+    <t>Pflühma (w)</t>
+  </si>
+  <si>
+    <t>schempfa</t>
+  </si>
+  <si>
+    <t>Spåtz (m)</t>
+  </si>
+  <si>
+    <t>Schtåchelbäri (w)</t>
+  </si>
+  <si>
+    <t>Schtrecknodla (w)</t>
+  </si>
+  <si>
+    <t>Dallerle (s), Schessale (s)</t>
+  </si>
+  <si>
+    <t>Håfa (m)</t>
+  </si>
+  <si>
+    <t>Guufa (w)</t>
+  </si>
+  <si>
+    <t>nb {auf Bogen steht ?}</t>
+  </si>
+  <si>
+    <t>Gaiss (w)</t>
+  </si>
+  <si>
+    <t>III_17_0010</t>
+  </si>
+  <si>
+    <t>x-C</t>
+  </si>
+  <si>
+    <t>Köstlach</t>
+  </si>
+  <si>
+    <t>Oberelsass</t>
+  </si>
+  <si>
+    <t>A. Geiler</t>
+  </si>
+  <si>
+    <t>Kehl</t>
+  </si>
+  <si>
+    <t>der Oberklasse</t>
+  </si>
+  <si>
+    <t>Begräbnis (s)</t>
+  </si>
+  <si>
+    <t>Brumbä̂re (w)</t>
+  </si>
+  <si>
+    <t>Ägerschde (w)</t>
+  </si>
+  <si>
+    <t>Flädrmüs (w)</t>
+  </si>
+  <si>
+    <t>Rätsch (m)</t>
+  </si>
+  <si>
+    <t>Ähmd (s)</t>
+  </si>
+  <si>
+    <t>Gågummere</t>
+  </si>
+  <si>
+    <t>Buddä (w)</t>
+  </si>
+  <si>
+    <t>Huggl, Huän</t>
+  </si>
+  <si>
+    <t>Hallåra (w)</t>
+  </si>
+  <si>
+    <t>Hebamm (w)</t>
+  </si>
+  <si>
+    <t>Härdepfel (m)</t>
+  </si>
+  <si>
+    <t>Schär (m)</t>
+  </si>
+  <si>
+    <t>Gållråbe (w)</t>
+  </si>
+  <si>
+    <t>Gedda (m)</t>
+  </si>
+  <si>
+    <t>Riême (m)</t>
+  </si>
+  <si>
+    <t>Pflûme</t>
+  </si>
+  <si>
+    <t>ábriäle</t>
+  </si>
+  <si>
+    <t>Schwigerdochter {e über dem i, vermutlich Variante}</t>
+  </si>
+  <si>
+    <t>Schbatz (m) {o über dem a, vermutlich Variante}</t>
+  </si>
+  <si>
+    <t>Chroschbela (w)</t>
+  </si>
+  <si>
+    <t>Gufa (w)</t>
+  </si>
+  <si>
+    <t>Schtriggnodle (w)</t>
+  </si>
+  <si>
+    <t>Tässele</t>
+  </si>
+  <si>
+    <t>Zwiega</t>
+  </si>
+  <si>
+    <t>Gaiß (w)</t>
+  </si>
+  <si>
+    <t>III_17_0011</t>
+  </si>
+  <si>
+    <t>x-B</t>
+  </si>
+  <si>
+    <t>Ober[888]</t>
+  </si>
+  <si>
+    <t>Mörnach {auf vierter Seite Mornach}</t>
+  </si>
+  <si>
+    <t>Josef Geiss</t>
+  </si>
+  <si>
+    <t>Fislis</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Beer[?]igung</t>
+  </si>
+  <si>
+    <t>Brumbeere</t>
+  </si>
+  <si>
+    <t>Egerste</t>
+  </si>
+  <si>
+    <t>Ratsch</t>
+  </si>
+  <si>
+    <t>Mucke</t>
+  </si>
+  <si>
+    <t>Öhmt</t>
+  </si>
+  <si>
+    <t>Gagumere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Butte </t>
+  </si>
+  <si>
+    <t>Guckel, Huhn</t>
+  </si>
+  <si>
+    <t>Holder</t>
+  </si>
+  <si>
+    <t>Herdäpfel</t>
+  </si>
+  <si>
+    <t>Schermaus</t>
+  </si>
+  <si>
+    <t>Mohrrübe</t>
+  </si>
+  <si>
+    <t>Moor</t>
+  </si>
+  <si>
+    <t>Getti</t>
+  </si>
+  <si>
+    <t>Pflaume</t>
+  </si>
+  <si>
+    <t>schelten, schimpfen</t>
+  </si>
+  <si>
+    <t>Sohnsfrau</t>
+  </si>
+  <si>
+    <t>Stachelbeere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gufe </t>
+  </si>
+  <si>
+    <t>Unterteller</t>
+  </si>
+  <si>
+    <t>Zweigen</t>
+  </si>
+  <si>
+    <t>III_17_0012</t>
+  </si>
+  <si>
+    <t>x-A</t>
+  </si>
+  <si>
+    <t>Moos</t>
+  </si>
+  <si>
+    <t>Scherrer</t>
+  </si>
+  <si>
+    <t>Omeisala (s)</t>
+  </si>
+  <si>
+    <t>Licht (w)</t>
+  </si>
+  <si>
+    <t>Brumbeera (w)</t>
+  </si>
+  <si>
+    <t>Ag[r]sta (w)</t>
+  </si>
+  <si>
+    <t>Fladrmüs (w)</t>
+  </si>
+  <si>
+    <t>Ämt (s)</t>
+  </si>
+  <si>
+    <t>Gugummra (w)</t>
+  </si>
+  <si>
+    <t>Budda (m)</t>
+  </si>
+  <si>
+    <t>Guggl (m), Hüahn (w)</t>
+  </si>
+  <si>
+    <t>Hardäpfl (m)</t>
+  </si>
+  <si>
+    <t>Hollra (w)</t>
+  </si>
+  <si>
+    <t>Galriaba (m)</t>
+  </si>
+  <si>
+    <t>Gädda (m)</t>
+  </si>
+  <si>
+    <t>[sch]larma</t>
+  </si>
+  <si>
+    <t>Suhnsfraui (w)</t>
+  </si>
+  <si>
+    <t>Spätz (m)</t>
+  </si>
+  <si>
+    <t>Chroschbalu (w)</t>
+  </si>
+  <si>
+    <t>Strignodla (w)</t>
+  </si>
+  <si>
+    <t>Schissala (w)</t>
+  </si>
+  <si>
+    <t>hardigr H[ä]f[a] (m)</t>
+  </si>
+  <si>
+    <t>Geiß (w)</t>
+  </si>
+  <si>
+    <t>III_17_0013</t>
+  </si>
+  <si>
+    <t>Y {könnte auch y sein]</t>
+  </si>
+  <si>
+    <t>x-[t]</t>
+  </si>
+  <si>
+    <t>Bisel</t>
+  </si>
+  <si>
+    <t>Wilhelm Tschan</t>
+  </si>
+  <si>
+    <t>Baden</t>
+  </si>
+  <si>
+    <t>Offenburg</t>
+  </si>
+  <si>
+    <t>Vath Rocklin Oser Irma Mattler</t>
+  </si>
+  <si>
+    <t>Omeisala</t>
+  </si>
+  <si>
+    <t>Licht</t>
+  </si>
+  <si>
+    <t>Brumbära</t>
+  </si>
+  <si>
+    <t>Anta</t>
+  </si>
+  <si>
+    <t>Ahmt</t>
+  </si>
+  <si>
+    <t>Gakummera</t>
+  </si>
+  <si>
+    <t>Butta</t>
+  </si>
+  <si>
+    <t>Guckel, Hüahn</t>
+  </si>
+  <si>
+    <t>Hebam (d')</t>
+  </si>
+  <si>
+    <t>Hollara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hardäpfel  </t>
+  </si>
+  <si>
+    <t>Scharmüs</t>
+  </si>
+  <si>
+    <t>Gelerübe</t>
+  </si>
+  <si>
+    <t>Mor</t>
+  </si>
+  <si>
+    <t>Gätte</t>
+  </si>
+  <si>
+    <t>Groschbala</t>
+  </si>
+  <si>
+    <t>Streknotla</t>
+  </si>
+  <si>
+    <t>Dasala</t>
+  </si>
+  <si>
+    <t>Hafa</t>
+  </si>
+  <si>
+    <t>x-z</t>
+  </si>
+  <si>
+    <t>Niederse[?]t</t>
+  </si>
+  <si>
+    <t>Arnold</t>
+  </si>
+  <si>
+    <t>Ko[s]tlach</t>
+  </si>
+  <si>
+    <t>Omeisele</t>
+  </si>
+  <si>
+    <t>Vergräbnis</t>
+  </si>
+  <si>
+    <t>Brumbäre</t>
+  </si>
+  <si>
+    <t>Di[tt]el</t>
+  </si>
+  <si>
+    <t>Agarschte</t>
+  </si>
+  <si>
+    <t>Ente</t>
+  </si>
+  <si>
+    <t>Mücke</t>
+  </si>
+  <si>
+    <t>Gågūmmere &lt;concombre franz.&gt;</t>
+  </si>
+  <si>
+    <t>Butte</t>
+  </si>
+  <si>
+    <t>Guggel, Gluckere</t>
+  </si>
+  <si>
+    <t>Hollere &lt;Holdere&gt;</t>
+  </si>
+  <si>
+    <t>Hardäpfel</t>
+  </si>
+  <si>
+    <t>Gaaleriawe</t>
+  </si>
+  <si>
+    <t>Mohre</t>
+  </si>
+  <si>
+    <t>Gette</t>
+  </si>
+  <si>
+    <t>Riame</t>
+  </si>
+  <si>
+    <t>Pflüme</t>
+  </si>
+  <si>
+    <t>schalte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suhnsfrau  </t>
+  </si>
+  <si>
+    <t>Spâtz</t>
+  </si>
+  <si>
+    <t>Grütelbäre</t>
+  </si>
+  <si>
+    <t>Gufe</t>
+  </si>
+  <si>
+    <t>Stricknodle</t>
+  </si>
+  <si>
+    <t>Tâ[tt]e</t>
+  </si>
+  <si>
+    <t>Hâfe</t>
+  </si>
+  <si>
+    <t>zwige</t>
+  </si>
+  <si>
+    <t>Geiss</t>
+  </si>
+  <si>
+    <t>III_17_0014</t>
   </si>
 </sst>
 </file>
@@ -220,11 +1365,10 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -235,7 +1379,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -247,6 +1391,15 @@
       <left/>
       <right style="thin">
         <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -264,13 +1417,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading" xfId="1"/>
@@ -581,7 +1743,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -589,213 +1751,2035 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BB5"/>
+  <dimension ref="A1:BB12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="3" width="10.75" customWidth="1"/>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="2" max="2" width="10.75" style="11" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="17.625" customWidth="1"/>
     <col min="5" max="5" width="17.375" customWidth="1"/>
     <col min="6" max="6" width="15.875" customWidth="1"/>
-    <col min="7" max="11" width="10.75" customWidth="1"/>
-    <col min="12" max="12" width="19.75" customWidth="1"/>
+    <col min="7" max="7" width="10.75" customWidth="1"/>
+    <col min="8" max="8" width="20.375" customWidth="1"/>
+    <col min="9" max="9" width="10.75" style="9" customWidth="1"/>
+    <col min="10" max="10" width="24.875" style="9" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
+    <col min="12" max="12" width="30.25" customWidth="1"/>
     <col min="13" max="13" width="10.75" customWidth="1"/>
-    <col min="14" max="14" width="15.875" customWidth="1"/>
+    <col min="14" max="14" width="18.875" customWidth="1"/>
     <col min="15" max="15" width="15.25" customWidth="1"/>
     <col min="16" max="16" width="14.875" customWidth="1"/>
-    <col min="17" max="19" width="18.25" customWidth="1"/>
+    <col min="17" max="17" width="18.25" customWidth="1"/>
+    <col min="18" max="18" width="22.5" customWidth="1"/>
+    <col min="19" max="19" width="23.75" customWidth="1"/>
     <col min="20" max="20" width="15.5" customWidth="1"/>
-    <col min="21" max="21" width="15.5" style="3" customWidth="1"/>
+    <col min="21" max="21" width="38.75" style="1" customWidth="1"/>
     <col min="22" max="22" width="15.5" customWidth="1"/>
-    <col min="23" max="23" width="10.75" customWidth="1"/>
+    <col min="23" max="23" width="20.75" customWidth="1"/>
     <col min="24" max="24" width="17.125" customWidth="1"/>
-    <col min="25" max="31" width="10.75" customWidth="1"/>
+    <col min="25" max="25" width="11.875" customWidth="1"/>
+    <col min="26" max="26" width="14.875" customWidth="1"/>
+    <col min="27" max="27" width="17.125" customWidth="1"/>
+    <col min="28" max="28" width="16" customWidth="1"/>
+    <col min="29" max="29" width="15.75" customWidth="1"/>
+    <col min="30" max="30" width="28.75" customWidth="1"/>
+    <col min="31" max="31" width="28.625" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="16.625" customWidth="1"/>
-    <col min="33" max="33" width="10.75" customWidth="1"/>
-    <col min="34" max="34" width="21.25" customWidth="1"/>
-    <col min="35" max="50" width="10.75" customWidth="1"/>
-    <col min="51" max="51" width="10.75" style="3" customWidth="1"/>
-    <col min="52" max="52" width="10.75" customWidth="1"/>
-    <col min="53" max="53" width="19" style="3" customWidth="1"/>
+    <col min="33" max="33" width="25.75" customWidth="1"/>
+    <col min="34" max="34" width="57.75" customWidth="1"/>
+    <col min="35" max="35" width="13.375" customWidth="1"/>
+    <col min="36" max="36" width="16.375" customWidth="1"/>
+    <col min="37" max="37" width="15.5" customWidth="1"/>
+    <col min="38" max="38" width="16.875" customWidth="1"/>
+    <col min="39" max="39" width="17.875" customWidth="1"/>
+    <col min="40" max="40" width="13.125" customWidth="1"/>
+    <col min="41" max="42" width="13.375" customWidth="1"/>
+    <col min="43" max="43" width="17.625" customWidth="1"/>
+    <col min="44" max="44" width="42.125" customWidth="1"/>
+    <col min="45" max="45" width="16.625" customWidth="1"/>
+    <col min="46" max="46" width="13" customWidth="1"/>
+    <col min="47" max="47" width="15.375" customWidth="1"/>
+    <col min="48" max="48" width="22.5" customWidth="1"/>
+    <col min="49" max="49" width="18.75" customWidth="1"/>
+    <col min="50" max="50" width="20" customWidth="1"/>
+    <col min="51" max="51" width="14" style="1" customWidth="1"/>
+    <col min="52" max="52" width="16.5" customWidth="1"/>
+    <col min="53" max="53" width="45.5" style="1" customWidth="1"/>
     <col min="54" max="1023" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" s="4" customFormat="1" ht="15">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:54" s="2" customFormat="1" ht="15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AT1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AU1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AV1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AX1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AY1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AZ1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="BA1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="BB1" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:54" s="4" customFormat="1">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>44735</v>
+      </c>
+      <c r="C2" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="4" t="s">
+      <c r="D2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="4">
         <v>9</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" s="8">
+        <v>24.4</v>
+      </c>
+      <c r="J2" s="9">
+        <v>47.3</v>
+      </c>
+      <c r="K2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M2" s="4">
+        <v>999</v>
+      </c>
+      <c r="N2" t="s">
+        <v>60</v>
+      </c>
+      <c r="O2" s="4">
+        <v>999</v>
+      </c>
+      <c r="P2" s="4">
+        <v>999</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>999</v>
+      </c>
+      <c r="R2" s="4">
+        <v>999</v>
+      </c>
+      <c r="S2" s="4">
+        <v>999</v>
+      </c>
+      <c r="T2" s="4">
+        <v>999</v>
+      </c>
+      <c r="U2" s="5">
+        <v>999</v>
+      </c>
+      <c r="V2" t="s">
+        <v>61</v>
+      </c>
+      <c r="W2" t="s">
+        <v>62</v>
+      </c>
+      <c r="X2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA2" s="4">
+        <v>999</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF2" s="4">
+        <v>999</v>
+      </c>
+      <c r="AG2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AZ2" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BB2" s="4">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:54">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6">
+        <v>44736</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3">
+        <v>9</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I3" s="9">
+        <v>24.4</v>
+      </c>
+      <c r="J3" s="9">
+        <v>47.3</v>
+      </c>
+      <c r="K3" t="s">
+        <v>92</v>
+      </c>
+      <c r="L3" t="s">
+        <v>95</v>
+      </c>
+      <c r="M3">
+        <v>999</v>
+      </c>
+      <c r="N3" t="s">
+        <v>93</v>
+      </c>
+      <c r="O3" t="s">
+        <v>94</v>
+      </c>
+      <c r="P3" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>97</v>
+      </c>
+      <c r="R3">
+        <v>999</v>
+      </c>
+      <c r="S3" t="s">
+        <v>94</v>
+      </c>
+      <c r="T3" t="s">
+        <v>98</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="V3" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="W3" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="X3" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y3" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z3" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA3" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB3" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC3" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD3" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE3" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF3" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG3" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH3" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI3" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ3" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK3" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="AL3" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="AM3" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="AN3" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="AO3" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="AP3" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ3" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR3" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="AS3" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="AT3" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="AU3" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="AV3" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="AW3" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="AX3" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="AY3" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AZ3" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="BA3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="BB3">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:54" ht="15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6">
+        <v>44736</v>
+      </c>
+      <c r="C4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4">
         <v>10</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AO1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AP1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AQ1" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AR1" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AS1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AT1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AU1" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="AV1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AW1" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="AX1" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AY1" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AZ1" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="BA1" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="BB1" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:54" s="1" customFormat="1" ht="15">
-      <c r="U2" s="2"/>
-      <c r="AY2" s="2"/>
-      <c r="BA2" s="2"/>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I4" s="9">
+        <v>24.5</v>
+      </c>
+      <c r="J4" s="9">
+        <v>47.3</v>
+      </c>
+      <c r="K4" t="s">
+        <v>133</v>
+      </c>
+      <c r="L4" t="s">
+        <v>134</v>
+      </c>
+      <c r="M4">
+        <v>999</v>
+      </c>
+      <c r="N4" t="s">
+        <v>93</v>
+      </c>
+      <c r="O4" t="s">
+        <v>94</v>
+      </c>
+      <c r="P4" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>136</v>
+      </c>
+      <c r="R4">
+        <v>999</v>
+      </c>
+      <c r="S4" t="s">
+        <v>137</v>
+      </c>
+      <c r="T4" t="s">
+        <v>98</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="V4" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="W4" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="X4" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y4" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z4" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA4" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB4" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC4" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD4" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AE4" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="AF4" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="AG4" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="AH4" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="AI4" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="AJ4" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="AK4" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="AL4" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="AM4" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="AN4" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="AO4" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="AP4" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="AQ4" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="AR4" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="AS4" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="AT4" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="AU4" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="AV4" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="AW4" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="AX4" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="AY4" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>152</v>
+      </c>
+      <c r="BA4" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="BB4">
+        <v>999</v>
+      </c>
     </row>
     <row r="5" spans="1:54">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6">
+        <v>44736</v>
+      </c>
+      <c r="C5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5" t="s">
+        <v>171</v>
+      </c>
+      <c r="H5" t="s">
+        <v>372</v>
+      </c>
+      <c r="I5" s="9">
+        <v>24.5</v>
+      </c>
+      <c r="J5" s="9">
+        <v>47.3</v>
+      </c>
+      <c r="K5" t="s">
+        <v>172</v>
+      </c>
+      <c r="L5" t="s">
+        <v>173</v>
+      </c>
+      <c r="M5">
+        <v>999</v>
+      </c>
+      <c r="N5" t="s">
+        <v>175</v>
+      </c>
+      <c r="O5" t="s">
+        <v>174</v>
+      </c>
+      <c r="P5" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>177</v>
+      </c>
+      <c r="R5" t="s">
+        <v>178</v>
+      </c>
+      <c r="S5" t="s">
+        <v>179</v>
+      </c>
+      <c r="T5" t="s">
+        <v>180</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="V5" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="W5" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="X5" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y5" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z5" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="AA5" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="AB5" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC5" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="AD5" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="AE5" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="AF5" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="AG5" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="AH5" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="AI5" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="AJ5" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="AK5" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL5" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="AM5" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="AN5" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO5" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP5" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="AQ5" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="AR5" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="AS5" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="AT5" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="AU5" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="AV5" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="AW5" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX5" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="AY5" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="AZ5" t="s">
-        <v>50</v>
+        <v>193</v>
+      </c>
+      <c r="BA5" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="BB5">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:54">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6">
+        <v>44736</v>
+      </c>
+      <c r="C6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>209</v>
+      </c>
+      <c r="H6" t="s">
+        <v>210</v>
+      </c>
+      <c r="I6" s="9">
+        <v>24.5</v>
+      </c>
+      <c r="J6" s="9">
+        <v>47.3</v>
+      </c>
+      <c r="K6" t="s">
+        <v>211</v>
+      </c>
+      <c r="L6" t="s">
+        <v>212</v>
+      </c>
+      <c r="M6">
+        <v>999</v>
+      </c>
+      <c r="N6" t="s">
+        <v>93</v>
+      </c>
+      <c r="O6" t="s">
+        <v>94</v>
+      </c>
+      <c r="P6" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>214</v>
+      </c>
+      <c r="R6">
+        <v>999</v>
+      </c>
+      <c r="S6">
+        <v>999</v>
+      </c>
+      <c r="T6">
+        <v>999</v>
+      </c>
+      <c r="U6" s="1">
+        <v>999</v>
+      </c>
+      <c r="V6" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="W6" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="X6" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y6" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z6" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="AA6" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="AB6" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="AC6" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="AD6" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="AE6" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="AF6" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="AG6" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="AH6" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="AI6" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="AJ6" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="AK6" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="AL6" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="AM6" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN6" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="AO6" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="AP6" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="AQ6" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="AR6" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS6" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="AT6" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="AU6" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="AV6" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="AW6" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="AX6" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="AY6" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>227</v>
+      </c>
+      <c r="BA6" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="BB6">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:54">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6">
+        <v>44736</v>
+      </c>
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+      <c r="G7" t="s">
+        <v>244</v>
+      </c>
+      <c r="H7" t="s">
+        <v>245</v>
+      </c>
+      <c r="I7" s="9">
+        <v>24.5</v>
+      </c>
+      <c r="J7" s="9">
+        <v>47.3</v>
+      </c>
+      <c r="K7" t="s">
+        <v>246</v>
+      </c>
+      <c r="L7" t="s">
+        <v>247</v>
+      </c>
+      <c r="M7">
+        <v>999</v>
+      </c>
+      <c r="N7" t="s">
+        <v>93</v>
+      </c>
+      <c r="O7" t="s">
+        <v>248</v>
+      </c>
+      <c r="P7" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>250</v>
+      </c>
+      <c r="R7">
+        <v>999</v>
+      </c>
+      <c r="S7" t="s">
+        <v>251</v>
+      </c>
+      <c r="T7" t="s">
+        <v>98</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="V7" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="W7" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="X7" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="Y7" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="Z7" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="AA7" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB7" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="AC7" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="AD7" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="AE7" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="AF7" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="AG7" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="AH7" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="AI7" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="AJ7" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="AK7" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="AL7" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="AM7" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="AN7" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="AO7" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="AP7" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="AQ7" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="AR7" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="AS7" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="AT7" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="AU7" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="AV7" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="AW7" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="AX7" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="AY7" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>254</v>
+      </c>
+      <c r="BA7" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="BB7">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:54">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6">
+        <v>44736</v>
+      </c>
+      <c r="C8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>9</v>
+      </c>
+      <c r="G8" t="s">
+        <v>284</v>
+      </c>
+      <c r="H8" t="s">
+        <v>91</v>
+      </c>
+      <c r="I8" s="9">
+        <v>24.5</v>
+      </c>
+      <c r="J8" s="9">
+        <v>47.3</v>
+      </c>
+      <c r="K8" t="s">
+        <v>285</v>
+      </c>
+      <c r="L8" t="s">
+        <v>286</v>
+      </c>
+      <c r="M8">
+        <v>999</v>
+      </c>
+      <c r="N8" t="s">
+        <v>93</v>
+      </c>
+      <c r="O8" t="s">
+        <v>287</v>
+      </c>
+      <c r="P8" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>289</v>
+      </c>
+      <c r="R8">
+        <v>999</v>
+      </c>
+      <c r="S8">
+        <v>999</v>
+      </c>
+      <c r="T8" t="s">
+        <v>98</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="V8" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="W8" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="X8" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y8" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="Z8" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="AA8" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="AB8" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="AC8" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD8" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="AE8" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="AF8" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="AG8" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="AH8" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="AI8" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="AJ8" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="AK8" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="AL8" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="AM8" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="AN8" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="AO8" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="AP8" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="AQ8" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="AR8" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="AS8" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="AT8" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="AU8" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="AV8" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="AW8" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="AX8" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="AY8" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>300</v>
+      </c>
+      <c r="BA8" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="BB8">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:54">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6">
+        <v>44736</v>
+      </c>
+      <c r="C9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s">
+        <v>317</v>
+      </c>
+      <c r="H9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" s="9">
+        <v>24.5</v>
+      </c>
+      <c r="J9" s="9">
+        <v>47.3</v>
+      </c>
+      <c r="K9" t="s">
+        <v>318</v>
+      </c>
+      <c r="L9" t="s">
+        <v>320</v>
+      </c>
+      <c r="M9">
+        <v>999</v>
+      </c>
+      <c r="N9" t="s">
+        <v>93</v>
+      </c>
+      <c r="O9" t="s">
+        <v>319</v>
+      </c>
+      <c r="P9" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>322</v>
+      </c>
+      <c r="R9">
+        <v>999</v>
+      </c>
+      <c r="S9">
+        <v>999</v>
+      </c>
+      <c r="T9" t="s">
+        <v>323</v>
+      </c>
+      <c r="U9" s="1">
+        <v>999</v>
+      </c>
+      <c r="V9" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="W9" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="X9" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="Y9" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z9" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="AA9" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="AB9" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC9" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="AD9" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="AE9" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="AF9" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="AG9" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="AH9" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="AI9" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="AJ9" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="AK9" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="AL9" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="AM9" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="AN9" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="AO9" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="AP9" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="AQ9" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="AR9" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS9" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="AT9" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="AU9" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="AV9" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="AW9" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="AX9" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="AY9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>333</v>
+      </c>
+      <c r="BA9" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="BB9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:54">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6">
+        <v>44736</v>
+      </c>
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>11</v>
+      </c>
+      <c r="G10" t="s">
+        <v>346</v>
+      </c>
+      <c r="H10" t="s">
+        <v>91</v>
+      </c>
+      <c r="I10" s="9">
+        <v>24.5</v>
+      </c>
+      <c r="J10" s="9">
+        <v>47.3</v>
+      </c>
+      <c r="K10" t="s">
+        <v>347</v>
+      </c>
+      <c r="L10" t="s">
+        <v>348</v>
+      </c>
+      <c r="M10">
+        <v>999</v>
+      </c>
+      <c r="N10" t="s">
+        <v>93</v>
+      </c>
+      <c r="O10">
+        <v>999</v>
+      </c>
+      <c r="P10" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>250</v>
+      </c>
+      <c r="R10">
+        <v>999</v>
+      </c>
+      <c r="S10">
+        <v>999</v>
+      </c>
+      <c r="T10" t="s">
+        <v>323</v>
+      </c>
+      <c r="U10" s="1">
+        <v>999</v>
+      </c>
+      <c r="V10" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="W10" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="X10" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="Y10" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="Z10" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="AA10" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB10" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="AC10" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="AD10" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="AE10" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="AF10" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="AG10" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="AH10" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="AI10" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="AJ10" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="AK10" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="AL10" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="AM10" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="AN10" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="AO10" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="AP10" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="AQ10" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="AR10" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="AS10" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="AT10" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="AU10" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="AV10" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="AW10" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="AX10" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="AY10" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>360</v>
+      </c>
+      <c r="BA10" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="BB10">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:54">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6">
+        <v>44736</v>
+      </c>
+      <c r="C11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>371</v>
+      </c>
+      <c r="H11" t="s">
+        <v>91</v>
+      </c>
+      <c r="I11" s="9">
+        <v>24.5</v>
+      </c>
+      <c r="J11" s="9">
+        <v>47.3</v>
+      </c>
+      <c r="K11" t="s">
+        <v>373</v>
+      </c>
+      <c r="L11" t="s">
+        <v>374</v>
+      </c>
+      <c r="M11">
+        <v>999</v>
+      </c>
+      <c r="N11" t="s">
+        <v>93</v>
+      </c>
+      <c r="O11" t="s">
+        <v>174</v>
+      </c>
+      <c r="P11" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>377</v>
+      </c>
+      <c r="R11">
+        <v>999</v>
+      </c>
+      <c r="S11" t="s">
+        <v>376</v>
+      </c>
+      <c r="T11">
+        <v>999</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="V11" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="W11" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="X11" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="Y11" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z11" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA11" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="AB11" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC11" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="AD11" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="AE11" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="AF11" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="AG11" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="AH11" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="AI11" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="AJ11" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK11" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="AL11" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="AM11" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="AN11" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="AO11" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP11" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="AQ11" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="AR11" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS11" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="AT11" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU11" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="AV11" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="AW11" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="AX11" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="AY11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>388</v>
+      </c>
+      <c r="BA11" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BB11">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:54">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="14">
+        <v>44736</v>
+      </c>
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s">
+        <v>429</v>
+      </c>
+      <c r="H12" t="s">
+        <v>245</v>
+      </c>
+      <c r="I12" s="9">
+        <v>24.5</v>
+      </c>
+      <c r="J12" s="9">
+        <v>47.3</v>
+      </c>
+      <c r="K12" t="s">
+        <v>398</v>
+      </c>
+      <c r="L12" t="s">
+        <v>399</v>
+      </c>
+      <c r="M12">
+        <v>999</v>
+      </c>
+      <c r="N12" t="s">
+        <v>93</v>
+      </c>
+      <c r="O12" t="s">
+        <v>174</v>
+      </c>
+      <c r="P12" t="s">
+        <v>400</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>401</v>
+      </c>
+      <c r="R12">
+        <v>999</v>
+      </c>
+      <c r="S12">
+        <v>999</v>
+      </c>
+      <c r="T12" t="s">
+        <v>180</v>
+      </c>
+      <c r="U12" s="1">
+        <v>999</v>
+      </c>
+      <c r="V12" s="12" t="s">
+        <v>402</v>
+      </c>
+      <c r="W12" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="X12" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y12" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="Z12" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="AA12" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="AB12" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC12" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="AD12" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="AE12" s="12" t="s">
+        <v>409</v>
+      </c>
+      <c r="AF12" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="AG12" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="AH12" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="AI12" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="AJ12" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="AK12" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="AL12" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="AM12" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="AN12" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="AO12" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="AP12" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="AQ12" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="AR12" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="AS12" s="12" t="s">
+        <v>422</v>
+      </c>
+      <c r="AT12" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="AU12" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="AV12" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="AW12" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="AX12" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="AY12" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="AZ12" t="s">
+        <v>412</v>
+      </c>
+      <c r="BA12" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="BB12">
+        <v>999</v>
       </c>
     </row>
   </sheetData>

--- a/Data/DWA_FS.xlsx
+++ b/Data/DWA_FS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="727">
   <si>
     <t>ID</t>
   </si>
@@ -271,9 +271,6 @@
   </si>
   <si>
     <t>Tassa, Taler</t>
-  </si>
-  <si>
-    <t>Tomata</t>
   </si>
   <si>
     <t>verarda</t>
@@ -1327,12 +1324,934 @@
   <si>
     <t>III_17_0014</t>
   </si>
+  <si>
+    <t>III_17_0015</t>
+  </si>
+  <si>
+    <t>x-E {E könnte auch F sein, ist aber durchgestrichen}</t>
+  </si>
+  <si>
+    <t>Werenzhausen</t>
+  </si>
+  <si>
+    <t>Ober-Elsass</t>
+  </si>
+  <si>
+    <t>Emil Eberlin</t>
+  </si>
+  <si>
+    <t>Orschweier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omaisale  </t>
+  </si>
+  <si>
+    <t>Brommera</t>
+  </si>
+  <si>
+    <t>Agerschta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fladrmüs  </t>
+  </si>
+  <si>
+    <t>Mugga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ähmt  </t>
+  </si>
+  <si>
+    <t>Guggumera</t>
+  </si>
+  <si>
+    <t>Gogl, Hühn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hardäpfl  </t>
+  </si>
+  <si>
+    <t>Schahr</t>
+  </si>
+  <si>
+    <t>Hollera</t>
+  </si>
+  <si>
+    <t>Gallriawa</t>
+  </si>
+  <si>
+    <t>Mohr</t>
+  </si>
+  <si>
+    <t>Gätti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suhnsfraui  </t>
+  </si>
+  <si>
+    <t>Schpatz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grüssela  </t>
+  </si>
+  <si>
+    <t>Schtricknodla</t>
+  </si>
+  <si>
+    <t>Tassle</t>
+  </si>
+  <si>
+    <t>Kehrle</t>
+  </si>
+  <si>
+    <t>umzwiega</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gais  </t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;Bem. 1) ā</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Nasallaut, dumpfes a; 2) î = zwischen i und e; Schluss= e ist stumm zwischen [e] {könnte auch n sein} [a]nd[a]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>III_17_0016</t>
+  </si>
+  <si>
+    <t>x-H, G+</t>
+  </si>
+  <si>
+    <t>Bettlach</t>
+  </si>
+  <si>
+    <t>August Bitsch</t>
+  </si>
+  <si>
+    <t>Niederburnhaupt</t>
+  </si>
+  <si>
+    <t>Kreis Tann</t>
+  </si>
+  <si>
+    <t>V'rgräbnis (s)</t>
+  </si>
+  <si>
+    <t>Brumbära (w)</t>
+  </si>
+  <si>
+    <t>Āgerschta (w)</t>
+  </si>
+  <si>
+    <t>Anta (w)</t>
+  </si>
+  <si>
+    <t>Mucka (w)</t>
+  </si>
+  <si>
+    <t>Gugumm'ra (w)</t>
+  </si>
+  <si>
+    <t>Butta (w)</t>
+  </si>
+  <si>
+    <t>Guckel (m), Hüān (w)</t>
+  </si>
+  <si>
+    <t>Hebãmm (w)</t>
+  </si>
+  <si>
+    <t>Holl'ra (w)</t>
+  </si>
+  <si>
+    <t>C̃hãt[z̄] (w) {Tilde über C und h zusammen}</t>
+  </si>
+  <si>
+    <t>&lt;Bemerkungen: ã= a in frz. Fr[aue] (nicht nasal), ā= lang ausgesprochen, î= geschlossenes i, ī= lang ausgesprochen, ch̃= Gaumen ch {Tilde über C und h zusammen}&gt;</t>
+  </si>
+  <si>
+    <t>Schār (m)</t>
+  </si>
+  <si>
+    <t>Galrieble (s)</t>
+  </si>
+  <si>
+    <t>Moor (w)</t>
+  </si>
+  <si>
+    <t>Gätti (m)</t>
+  </si>
+  <si>
+    <t>Pflüma (w)</t>
+  </si>
+  <si>
+    <t>handla</t>
+  </si>
+  <si>
+    <t>Suhnsfrãj (w)</t>
+  </si>
+  <si>
+    <t>Spãtz (m)</t>
+  </si>
+  <si>
+    <t>C̃hrüselbära (w) {Tilde über C und h zusammen}</t>
+  </si>
+  <si>
+    <t>Gūfa (w)</t>
+  </si>
+  <si>
+    <t>Strîcknodla (w)</t>
+  </si>
+  <si>
+    <t>Dãssa (w), Dassale (s)</t>
+  </si>
+  <si>
+    <t>hardiga Hãfa (m)</t>
+  </si>
+  <si>
+    <t>zwīga, eigla</t>
+  </si>
+  <si>
+    <t>III_17_0017</t>
+  </si>
+  <si>
+    <t>x-k {könnte auch K sein}</t>
+  </si>
+  <si>
+    <t>Niederhagental</t>
+  </si>
+  <si>
+    <t>Mülhausen</t>
+  </si>
+  <si>
+    <t>Oskar Hoppe</t>
+  </si>
+  <si>
+    <t>Heidelberg</t>
+  </si>
+  <si>
+    <t>Omeisele (d., w)</t>
+  </si>
+  <si>
+    <t>Licht (w) {Strich über dem i}</t>
+  </si>
+  <si>
+    <t>Dissel (m) {Strich über dem i]</t>
+  </si>
+  <si>
+    <t>Retzägeschter (w)</t>
+  </si>
+  <si>
+    <t>Flēdermūs (w)</t>
+  </si>
+  <si>
+    <t>Mucke (w)</t>
+  </si>
+  <si>
+    <t>Öhmd (s)</t>
+  </si>
+  <si>
+    <t>Gugummere (w)</t>
+  </si>
+  <si>
+    <t>Butte (w)</t>
+  </si>
+  <si>
+    <t>Guckel, Glucke</t>
+  </si>
+  <si>
+    <t>Hebamme (w)</t>
+  </si>
+  <si>
+    <t>Holler (m)</t>
+  </si>
+  <si>
+    <t>Herdäpfel (m)</t>
+  </si>
+  <si>
+    <t>Schermūs (w)</t>
+  </si>
+  <si>
+    <t>Gelbe Rübe (w)</t>
+  </si>
+  <si>
+    <t>Götti (m)</t>
+  </si>
+  <si>
+    <t>Rieme (m)</t>
+  </si>
+  <si>
+    <t>Pflūme (w)</t>
+  </si>
+  <si>
+    <t>händle</t>
+  </si>
+  <si>
+    <t>Sohnsfrau (w)</t>
+  </si>
+  <si>
+    <t>Chrüselbeeri (w)</t>
+  </si>
+  <si>
+    <t>Steckgūfe (w)</t>
+  </si>
+  <si>
+    <t>Stricknōdle (w)</t>
+  </si>
+  <si>
+    <t>Schüsseli (w)</t>
+  </si>
+  <si>
+    <t>Hafen (m)</t>
+  </si>
+  <si>
+    <t>III_17_0018</t>
+  </si>
+  <si>
+    <t>x-T</t>
+  </si>
+  <si>
+    <t>Mülhausen, Oberelsaß</t>
+  </si>
+  <si>
+    <t>[A]ttenschweiler</t>
+  </si>
+  <si>
+    <t>Eugen Birg</t>
+  </si>
+  <si>
+    <t>Oberelsaß</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N[eu]dorf </t>
+  </si>
+  <si>
+    <t>A[u]meisa (w)</t>
+  </si>
+  <si>
+    <t>Licht {Strich über dem i}</t>
+  </si>
+  <si>
+    <t>Braumala (w)</t>
+  </si>
+  <si>
+    <t>Ag'rschda (w)</t>
+  </si>
+  <si>
+    <t>Fliaga, Moga (w)</t>
+  </si>
+  <si>
+    <t>Ämd (w)</t>
+  </si>
+  <si>
+    <t>Gågo[rw]ra</t>
+  </si>
+  <si>
+    <t>Boda (w)</t>
+  </si>
+  <si>
+    <t>Gogel (m), Hüan (w)</t>
+  </si>
+  <si>
+    <t>Häjbåm (w)</t>
+  </si>
+  <si>
+    <t>Hollara (w)</t>
+  </si>
+  <si>
+    <t>Roll[e] (m)</t>
+  </si>
+  <si>
+    <t>Riaba (w)</t>
+  </si>
+  <si>
+    <t>Maur (w)</t>
+  </si>
+  <si>
+    <t>Gäde (m)</t>
+  </si>
+  <si>
+    <t>Pfl[ü]ma (w)</t>
+  </si>
+  <si>
+    <t>Sohnsfroj</t>
+  </si>
+  <si>
+    <t>Ståchelbäjri (w)</t>
+  </si>
+  <si>
+    <t>Gofa</t>
+  </si>
+  <si>
+    <t>Schdregnaudla (w)</t>
+  </si>
+  <si>
+    <t>Dassle (s)</t>
+  </si>
+  <si>
+    <t>III_17_0019</t>
+  </si>
+  <si>
+    <t>x-O</t>
+  </si>
+  <si>
+    <t>Ober Elsaß</t>
+  </si>
+  <si>
+    <t>Volk[?]sberg</t>
+  </si>
+  <si>
+    <t>M. [F]aninger</t>
+  </si>
+  <si>
+    <t>Pfirt</t>
+  </si>
+  <si>
+    <t>L,A</t>
+  </si>
+  <si>
+    <t>und [?]u[???????] [?]a[?]k</t>
+  </si>
+  <si>
+    <t>Ameise (w)</t>
+  </si>
+  <si>
+    <t>Bromele (w)</t>
+  </si>
+  <si>
+    <t>[?]gerste (w)</t>
+  </si>
+  <si>
+    <t>Fledermaus (w)</t>
+  </si>
+  <si>
+    <t>Mücke (w)</t>
+  </si>
+  <si>
+    <t>Gagumere (w)</t>
+  </si>
+  <si>
+    <t>Guckel (m), Huhn (s)</t>
+  </si>
+  <si>
+    <t>Hebam̄e (w)</t>
+  </si>
+  <si>
+    <t>Holdere (w)</t>
+  </si>
+  <si>
+    <t>Scharmaus (w)</t>
+  </si>
+  <si>
+    <t>Gelerübe (w)</t>
+  </si>
+  <si>
+    <t>G[ä]tti (m)</t>
+  </si>
+  <si>
+    <t>Riemen (m)</t>
+  </si>
+  <si>
+    <t>Pflaume (w)</t>
+  </si>
+  <si>
+    <t>Sohnfra[r] (w)</t>
+  </si>
+  <si>
+    <t>D[o]rusbutten (w)</t>
+  </si>
+  <si>
+    <t>G[uren] (w)</t>
+  </si>
+  <si>
+    <t>Stricknadel (w)</t>
+  </si>
+  <si>
+    <t>Tasse, Unterteller</t>
+  </si>
+  <si>
+    <t>H[a]fen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zweige  </t>
+  </si>
+  <si>
+    <t>Gei[ß] (w)</t>
+  </si>
+  <si>
+    <t>III_17_0020</t>
+  </si>
+  <si>
+    <t>x-D</t>
+  </si>
+  <si>
+    <t>Buchzweiler</t>
+  </si>
+  <si>
+    <t>O/Els.</t>
+  </si>
+  <si>
+    <t>Anton Riether</t>
+  </si>
+  <si>
+    <t>Niedermüspach</t>
+  </si>
+  <si>
+    <t>Kreis Altkirch</t>
+  </si>
+  <si>
+    <t>A.  Riether</t>
+  </si>
+  <si>
+    <t>Omeisela (w)</t>
+  </si>
+  <si>
+    <t>Liecht (w)</t>
+  </si>
+  <si>
+    <t>Brumbeere (w)</t>
+  </si>
+  <si>
+    <t>Anteratsch (m)</t>
+  </si>
+  <si>
+    <t>Fliaga, Mucka (w)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ähmd   </t>
+  </si>
+  <si>
+    <t>Gagummere</t>
+  </si>
+  <si>
+    <t>Guckel (m), Huhn (w)</t>
+  </si>
+  <si>
+    <t>Hollere (w)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scharmüs (w), Schar </t>
+  </si>
+  <si>
+    <t>Gelbrübe (w)</t>
+  </si>
+  <si>
+    <t>Mūr (w)</t>
+  </si>
+  <si>
+    <t>Riama, Riemen (m)</t>
+  </si>
+  <si>
+    <t>schallte</t>
+  </si>
+  <si>
+    <t>Shrüselbeere (w)</t>
+  </si>
+  <si>
+    <t>Stricknodel (w)</t>
+  </si>
+  <si>
+    <t>Tassli (s)</t>
+  </si>
+  <si>
+    <t>Geiss (w)</t>
+  </si>
+  <si>
+    <t>x-S</t>
+  </si>
+  <si>
+    <t>Obermichelbach</t>
+  </si>
+  <si>
+    <t>Überlingen</t>
+  </si>
+  <si>
+    <t>Bodensee</t>
+  </si>
+  <si>
+    <t>Kee[u]r</t>
+  </si>
+  <si>
+    <t>Omeise</t>
+  </si>
+  <si>
+    <t>Brombel[ee]</t>
+  </si>
+  <si>
+    <t>[Ä]rgeste</t>
+  </si>
+  <si>
+    <t>Fledermus</t>
+  </si>
+  <si>
+    <t>Retsch</t>
+  </si>
+  <si>
+    <t>Fliage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Öhmd </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gugummere  </t>
+  </si>
+  <si>
+    <t>Bütte</t>
+  </si>
+  <si>
+    <t>Hohn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schār  </t>
+  </si>
+  <si>
+    <t>Stachnoadal</t>
+  </si>
+  <si>
+    <t>Stricknoadla</t>
+  </si>
+  <si>
+    <t>Tossa</t>
+  </si>
+  <si>
+    <t>abzwiaga</t>
+  </si>
+  <si>
+    <t>III_17_0022</t>
+  </si>
+  <si>
+    <t>III_17_0021</t>
+  </si>
+  <si>
+    <t>Oberhagental</t>
+  </si>
+  <si>
+    <t>Meistratzheim</t>
+  </si>
+  <si>
+    <t>Unt./ Els.</t>
+  </si>
+  <si>
+    <t>[G}rau</t>
+  </si>
+  <si>
+    <t>[G]rau Edmund</t>
+  </si>
+  <si>
+    <t>Omeisele (w)</t>
+  </si>
+  <si>
+    <t>Begrabnis (s)</t>
+  </si>
+  <si>
+    <t>Bromere (w)</t>
+  </si>
+  <si>
+    <t>Ratzageschte (m)</t>
+  </si>
+  <si>
+    <t>Gagommere (w)</t>
+  </si>
+  <si>
+    <t>Buttene (w)</t>
+  </si>
+  <si>
+    <t>x-[G]</t>
+  </si>
+  <si>
+    <t>Guckel (m), Glukere (w)</t>
+  </si>
+  <si>
+    <t>Holdere (m)</t>
+  </si>
+  <si>
+    <t>Ardäpfel (m)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scharmüs (w)  </t>
+  </si>
+  <si>
+    <t>Rübe (w)</t>
+  </si>
+  <si>
+    <t>M[a]nre (w)</t>
+  </si>
+  <si>
+    <t>Getti (m)</t>
+  </si>
+  <si>
+    <t>Pflüme (w)</t>
+  </si>
+  <si>
+    <t>schalten</t>
+  </si>
+  <si>
+    <t>Schwiegertochter (f)</t>
+  </si>
+  <si>
+    <t>Spotz (m)</t>
+  </si>
+  <si>
+    <t>Grüselbeere (f)</t>
+  </si>
+  <si>
+    <t>Stecknadel (f)</t>
+  </si>
+  <si>
+    <t>Strecknadel (f)</t>
+  </si>
+  <si>
+    <t>Tasse (f)</t>
+  </si>
+  <si>
+    <t>Topf (m)</t>
+  </si>
+  <si>
+    <t>Geiß (f)</t>
+  </si>
+  <si>
+    <t>III_17_0023</t>
+  </si>
+  <si>
+    <t>x-[U] {könnte auch M sein]</t>
+  </si>
+  <si>
+    <t>Müspach</t>
+  </si>
+  <si>
+    <t>Ler Tröscher</t>
+  </si>
+  <si>
+    <t>K[e]nzingen</t>
+  </si>
+  <si>
+    <t>Ldkr. Freiburg</t>
+  </si>
+  <si>
+    <t>i. Be.</t>
+  </si>
+  <si>
+    <t>Tröscher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brumbäri  </t>
+  </si>
+  <si>
+    <t>Fliege</t>
+  </si>
+  <si>
+    <t>Ähmd</t>
+  </si>
+  <si>
+    <t>Gaggum[a]ra</t>
+  </si>
+  <si>
+    <t>Gukel, Hüen</t>
+  </si>
+  <si>
+    <t>Chatz</t>
+  </si>
+  <si>
+    <t>Schär, Schar</t>
+  </si>
+  <si>
+    <t>Galriba (w)</t>
+  </si>
+  <si>
+    <t>Muhr (w)</t>
+  </si>
+  <si>
+    <t>Riema (m)</t>
+  </si>
+  <si>
+    <t>Pfluma (w)</t>
+  </si>
+  <si>
+    <t>häudla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schbatz (m)  </t>
+  </si>
+  <si>
+    <t>Chruselbeeri (w)</t>
+  </si>
+  <si>
+    <t>Schtrecknodal (w)</t>
+  </si>
+  <si>
+    <t>Dassale (s)</t>
+  </si>
+  <si>
+    <t>Schessla (w)</t>
+  </si>
+  <si>
+    <t>III_17_0024</t>
+  </si>
+  <si>
+    <t>x-R</t>
+  </si>
+  <si>
+    <t>Oberanspach</t>
+  </si>
+  <si>
+    <t>Joh. Flieganf</t>
+  </si>
+  <si>
+    <t>Der Lehrer mit den Schülern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ameise </t>
+  </si>
+  <si>
+    <t>Begräbnis, Leiche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bromele, Brombeere </t>
+  </si>
+  <si>
+    <t>Deichsel</t>
+  </si>
+  <si>
+    <t>Elster</t>
+  </si>
+  <si>
+    <t>nb</t>
+  </si>
+  <si>
+    <t>Ohmt</t>
+  </si>
+  <si>
+    <t>Concomb[r]e</t>
+  </si>
+  <si>
+    <t>La B[usse]</t>
+  </si>
+  <si>
+    <t>Gockel</t>
+  </si>
+  <si>
+    <t>Holunder</t>
+  </si>
+  <si>
+    <t>Erdäpfel</t>
+  </si>
+  <si>
+    <t>Gelbe Rübe, Ro[h]srüben</t>
+  </si>
+  <si>
+    <t>[?]ern[?] krieche</t>
+  </si>
+  <si>
+    <t>&lt;(Grüsel)&gt;beere</t>
+  </si>
+  <si>
+    <t>Stucknackl</t>
+  </si>
+  <si>
+    <t>Tasse, Tellerchen</t>
+  </si>
+  <si>
+    <t>III_17_0025</t>
+  </si>
+  <si>
+    <t>x-Q</t>
+  </si>
+  <si>
+    <t>Knöringen</t>
+  </si>
+  <si>
+    <t>Mülhausen i. E.</t>
+  </si>
+  <si>
+    <t>Hermann Schäfer</t>
+  </si>
+  <si>
+    <t>Karsruhe</t>
+  </si>
+  <si>
+    <t>S,A</t>
+  </si>
+  <si>
+    <t>und Erwachsene</t>
+  </si>
+  <si>
+    <t>Omeisala (w)</t>
+  </si>
+  <si>
+    <t>Bromala (w)</t>
+  </si>
+  <si>
+    <t>Agerschda (w)</t>
+  </si>
+  <si>
+    <t>Fladermüüs (w)</t>
+  </si>
+  <si>
+    <t>Ähmd (s), Zweitschnett (m)</t>
+  </si>
+  <si>
+    <t>Gagummara (w) {o über dem ersten a}</t>
+  </si>
+  <si>
+    <t>Buda (w)</t>
+  </si>
+  <si>
+    <t>Guggel (m), Hüan (w)</t>
+  </si>
+  <si>
+    <t>Hebamm (w) {o über dem a}</t>
+  </si>
+  <si>
+    <t>Gallariaba (w) {o über dem ersten a}</t>
+  </si>
+  <si>
+    <t>Gädi (m)</t>
+  </si>
+  <si>
+    <t>Schbatz (m) {o über dem a}</t>
+  </si>
+  <si>
+    <t>Chrüselbäri (w)</t>
+  </si>
+  <si>
+    <t>Schdregnodla (w)</t>
+  </si>
+  <si>
+    <t>Dallerle (s) &lt;= Untertasse&gt;, Dassale (s) &lt;= Obertasse&gt;</t>
+  </si>
+  <si>
+    <t>Hafa (m) {o über dem a}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1369,6 +2288,17 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1743,7 +2673,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1751,10 +2681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BB12"/>
+  <dimension ref="A1:BB23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1769,7 +2699,7 @@
     <col min="8" max="8" width="20.375" customWidth="1"/>
     <col min="9" max="9" width="10.75" style="9" customWidth="1"/>
     <col min="10" max="10" width="24.875" style="9" customWidth="1"/>
-    <col min="11" max="11" width="13" customWidth="1"/>
+    <col min="11" max="11" width="43.75" customWidth="1"/>
     <col min="12" max="12" width="30.25" customWidth="1"/>
     <col min="13" max="13" width="10.75" customWidth="1"/>
     <col min="14" max="14" width="18.875" customWidth="1"/>
@@ -1781,9 +2711,9 @@
     <col min="20" max="20" width="15.5" customWidth="1"/>
     <col min="21" max="21" width="38.75" style="1" customWidth="1"/>
     <col min="22" max="22" width="15.5" customWidth="1"/>
-    <col min="23" max="23" width="20.75" customWidth="1"/>
+    <col min="23" max="23" width="26.125" customWidth="1"/>
     <col min="24" max="24" width="17.125" customWidth="1"/>
-    <col min="25" max="25" width="11.875" customWidth="1"/>
+    <col min="25" max="25" width="25.25" customWidth="1"/>
     <col min="26" max="26" width="14.875" customWidth="1"/>
     <col min="27" max="27" width="17.125" customWidth="1"/>
     <col min="28" max="28" width="16" customWidth="1"/>
@@ -1794,24 +2724,25 @@
     <col min="33" max="33" width="25.75" customWidth="1"/>
     <col min="34" max="34" width="57.75" customWidth="1"/>
     <col min="35" max="35" width="13.375" customWidth="1"/>
-    <col min="36" max="36" width="16.375" customWidth="1"/>
-    <col min="37" max="37" width="15.5" customWidth="1"/>
+    <col min="36" max="36" width="37.25" customWidth="1"/>
+    <col min="37" max="37" width="19.625" customWidth="1"/>
     <col min="38" max="38" width="16.875" customWidth="1"/>
     <col min="39" max="39" width="17.875" customWidth="1"/>
     <col min="40" max="40" width="13.125" customWidth="1"/>
     <col min="41" max="42" width="13.375" customWidth="1"/>
     <col min="43" max="43" width="17.625" customWidth="1"/>
     <col min="44" max="44" width="42.125" customWidth="1"/>
-    <col min="45" max="45" width="16.625" customWidth="1"/>
+    <col min="45" max="45" width="40.875" customWidth="1"/>
     <col min="46" max="46" width="13" customWidth="1"/>
     <col min="47" max="47" width="15.375" customWidth="1"/>
-    <col min="48" max="48" width="22.5" customWidth="1"/>
+    <col min="48" max="48" width="47" customWidth="1"/>
     <col min="49" max="49" width="18.75" customWidth="1"/>
     <col min="50" max="50" width="20" customWidth="1"/>
     <col min="51" max="51" width="14" style="1" customWidth="1"/>
     <col min="52" max="52" width="16.5" customWidth="1"/>
     <col min="53" max="53" width="45.5" style="1" customWidth="1"/>
-    <col min="54" max="1023" width="10.75" customWidth="1"/>
+    <col min="54" max="54" width="103.25" customWidth="1"/>
+    <col min="55" max="1023" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:54" s="2" customFormat="1" ht="15">
@@ -2082,7 +3013,7 @@
         <v>71</v>
       </c>
       <c r="AI2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AJ2" t="s">
         <v>72</v>
@@ -2124,19 +3055,19 @@
         <v>84</v>
       </c>
       <c r="AW2" t="s">
+        <v>396</v>
+      </c>
+      <c r="AX2" t="s">
         <v>85</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="AY2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="AY2" s="1" t="s">
+      <c r="AZ2" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="AZ2" s="12" t="s">
+      <c r="BA2" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="BA2" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="BB2" s="4">
         <v>999</v>
@@ -2162,10 +3093,10 @@
         <v>4</v>
       </c>
       <c r="G3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H3" t="s">
         <v>90</v>
-      </c>
-      <c r="H3" t="s">
-        <v>91</v>
       </c>
       <c r="I3" s="9">
         <v>24.4</v>
@@ -2174,133 +3105,133 @@
         <v>47.3</v>
       </c>
       <c r="K3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L3" t="s">
+        <v>94</v>
+      </c>
+      <c r="M3">
+        <v>999</v>
+      </c>
+      <c r="N3" t="s">
         <v>92</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
+        <v>93</v>
+      </c>
+      <c r="P3" t="s">
         <v>95</v>
       </c>
-      <c r="M3">
-        <v>999</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="Q3" t="s">
+        <v>96</v>
+      </c>
+      <c r="R3">
+        <v>999</v>
+      </c>
+      <c r="S3" t="s">
         <v>93</v>
       </c>
-      <c r="O3" t="s">
-        <v>94</v>
-      </c>
-      <c r="P3" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q3" t="s">
+      <c r="T3" t="s">
         <v>97</v>
       </c>
-      <c r="R3">
-        <v>999</v>
-      </c>
-      <c r="S3" t="s">
-        <v>94</v>
-      </c>
-      <c r="T3" t="s">
+      <c r="U3" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="V3" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="V3" s="12" t="s">
+      <c r="W3" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="W3" s="12" t="s">
+      <c r="X3" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="X3" s="12" t="s">
+      <c r="Y3" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="Y3" s="12" t="s">
+      <c r="Z3" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="Z3" s="12" t="s">
+      <c r="AA3" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="AA3" s="12" t="s">
+      <c r="AB3" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="AB3" s="12" t="s">
+      <c r="AC3" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="AC3" s="12" t="s">
+      <c r="AD3" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="AD3" s="12" t="s">
+      <c r="AE3" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="AE3" s="12" t="s">
+      <c r="AF3" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="AF3" s="12" t="s">
+      <c r="AG3" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="AG3" s="12" t="s">
+      <c r="AH3" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="AH3" s="12" t="s">
+      <c r="AI3" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="AI3" s="12" t="s">
-        <v>113</v>
-      </c>
       <c r="AJ3" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="AK3" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="AK3" s="12" t="s">
+      <c r="AL3" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="AL3" s="12" t="s">
+      <c r="AM3" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="AM3" s="12" t="s">
+      <c r="AN3" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="AN3" s="12" t="s">
+      <c r="AO3" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="AO3" s="12" t="s">
+      <c r="AP3" s="12" t="s">
         <v>120</v>
-      </c>
-      <c r="AP3" s="12" t="s">
-        <v>121</v>
       </c>
       <c r="AQ3" s="12" t="s">
         <v>79</v>
       </c>
       <c r="AR3" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="AS3" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="AS3" s="12" t="s">
+      <c r="AT3" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="AT3" s="12" t="s">
+      <c r="AU3" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="AU3" s="12" t="s">
+      <c r="AV3" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="AV3" s="12" t="s">
+      <c r="AW3" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="AW3" s="12" t="s">
+      <c r="AX3" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="AY3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AZ3" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="BA3" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="AX3" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="AY3" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AZ3" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="BA3" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="BB3">
         <v>999</v>
@@ -2326,10 +3257,10 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I4" s="9">
         <v>24.5</v>
@@ -2338,133 +3269,133 @@
         <v>47.3</v>
       </c>
       <c r="K4" t="s">
+        <v>132</v>
+      </c>
+      <c r="L4" t="s">
         <v>133</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4">
+        <v>999</v>
+      </c>
+      <c r="N4" t="s">
+        <v>92</v>
+      </c>
+      <c r="O4" t="s">
+        <v>93</v>
+      </c>
+      <c r="P4" t="s">
         <v>134</v>
       </c>
-      <c r="M4">
-        <v>999</v>
-      </c>
-      <c r="N4" t="s">
-        <v>93</v>
-      </c>
-      <c r="O4" t="s">
-        <v>94</v>
-      </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>135</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4">
+        <v>999</v>
+      </c>
+      <c r="S4" t="s">
         <v>136</v>
       </c>
-      <c r="R4">
-        <v>999</v>
-      </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
+        <v>97</v>
+      </c>
+      <c r="U4" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="T4" t="s">
-        <v>98</v>
-      </c>
-      <c r="U4" s="1" t="s">
+      <c r="V4" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="V4" s="12" t="s">
+      <c r="W4" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="W4" s="12" t="s">
+      <c r="X4" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="X4" s="12" t="s">
+      <c r="Y4" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="Y4" s="12" t="s">
+      <c r="Z4" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="Z4" s="12" t="s">
+      <c r="AA4" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="AA4" s="12" t="s">
+      <c r="AB4" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="AB4" s="12" t="s">
+      <c r="AC4" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="AC4" s="12" t="s">
+      <c r="AD4" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="AD4" s="12" t="s">
+      <c r="AE4" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="AE4" s="12" t="s">
+      <c r="AF4" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="AF4" s="12" t="s">
+      <c r="AG4" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="AG4" s="12" t="s">
+      <c r="AH4" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="AH4" s="12" t="s">
+      <c r="AI4" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="AJ4" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="AK4" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="AL4" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="AM4" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="AN4" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="AO4" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="AP4" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="AQ4" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="AR4" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="AS4" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="AT4" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="AU4" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="AV4" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="AW4" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="AX4" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="AY4" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="AZ4" t="s">
         <v>151</v>
       </c>
-      <c r="AI4" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="AJ4" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="AK4" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="AL4" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="AM4" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="AN4" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="AO4" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="AP4" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="AQ4" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="AR4" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="AS4" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="AT4" s="12" t="s">
+      <c r="BA4" s="13" t="s">
         <v>164</v>
-      </c>
-      <c r="AU4" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="AV4" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="AW4" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX4" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="AY4" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>152</v>
-      </c>
-      <c r="BA4" s="13" t="s">
-        <v>165</v>
       </c>
       <c r="BB4">
         <v>999</v>
@@ -2490,10 +3421,10 @@
         <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I5" s="9">
         <v>24.5</v>
@@ -2502,133 +3433,133 @@
         <v>47.3</v>
       </c>
       <c r="K5" t="s">
+        <v>171</v>
+      </c>
+      <c r="L5" t="s">
         <v>172</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5">
+        <v>999</v>
+      </c>
+      <c r="N5" t="s">
+        <v>174</v>
+      </c>
+      <c r="O5" t="s">
         <v>173</v>
       </c>
-      <c r="M5">
-        <v>999</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="P5" t="s">
         <v>175</v>
       </c>
-      <c r="O5" t="s">
-        <v>174</v>
-      </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>176</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>177</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>178</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>179</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="U5" s="1" t="s">
+      <c r="V5" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="V5" s="12" t="s">
+      <c r="W5" s="12" t="s">
         <v>182</v>
-      </c>
-      <c r="W5" s="12" t="s">
-        <v>183</v>
       </c>
       <c r="X5" s="12" t="s">
         <v>63</v>
       </c>
       <c r="Y5" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z5" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="Z5" s="12" t="s">
+      <c r="AA5" s="12" t="s">
         <v>185</v>
-      </c>
-      <c r="AA5" s="12" t="s">
-        <v>186</v>
       </c>
       <c r="AB5" s="12" t="s">
         <v>66</v>
       </c>
       <c r="AC5" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="AD5" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="AD5" s="12" t="s">
+      <c r="AE5" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="AF5" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="AE5" s="12" t="s">
+      <c r="AG5" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="AF5" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="AG5" s="12" t="s">
+      <c r="AH5" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="AH5" s="12" t="s">
-        <v>192</v>
-      </c>
       <c r="AI5" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="AJ5" s="12" t="s">
         <v>194</v>
-      </c>
-      <c r="AJ5" s="12" t="s">
-        <v>195</v>
       </c>
       <c r="AK5" s="12" t="s">
         <v>73</v>
       </c>
       <c r="AL5" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="AM5" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="AM5" s="12" t="s">
+      <c r="AN5" s="12" t="s">
         <v>197</v>
-      </c>
-      <c r="AN5" s="12" t="s">
-        <v>198</v>
       </c>
       <c r="AO5" s="12" t="s">
         <v>77</v>
       </c>
       <c r="AP5" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="AQ5" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="AQ5" s="12" t="s">
+      <c r="AR5" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="AR5" s="12" t="s">
+      <c r="AS5" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="AT5" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="AU5" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="AV5" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="AW5" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="AX5" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="AY5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>192</v>
+      </c>
+      <c r="BA5" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="AS5" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="AT5" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="AU5" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="AV5" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="AW5" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX5" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="AY5" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AZ5" t="s">
-        <v>193</v>
-      </c>
-      <c r="BA5" s="1" t="s">
-        <v>202</v>
       </c>
       <c r="BB5">
         <v>999</v>
@@ -2654,10 +3585,10 @@
         <v>5</v>
       </c>
       <c r="G6" t="s">
+        <v>208</v>
+      </c>
+      <c r="H6" t="s">
         <v>209</v>
-      </c>
-      <c r="H6" t="s">
-        <v>210</v>
       </c>
       <c r="I6" s="9">
         <v>24.5</v>
@@ -2666,133 +3597,133 @@
         <v>47.3</v>
       </c>
       <c r="K6" t="s">
+        <v>210</v>
+      </c>
+      <c r="L6" t="s">
         <v>211</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6">
+        <v>999</v>
+      </c>
+      <c r="N6" t="s">
+        <v>92</v>
+      </c>
+      <c r="O6" t="s">
+        <v>93</v>
+      </c>
+      <c r="P6" t="s">
         <v>212</v>
       </c>
-      <c r="M6">
-        <v>999</v>
-      </c>
-      <c r="N6" t="s">
-        <v>93</v>
-      </c>
-      <c r="O6" t="s">
-        <v>94</v>
-      </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>213</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6">
+        <v>999</v>
+      </c>
+      <c r="S6">
+        <v>999</v>
+      </c>
+      <c r="T6">
+        <v>999</v>
+      </c>
+      <c r="U6" s="1">
+        <v>999</v>
+      </c>
+      <c r="V6" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="R6">
-        <v>999</v>
-      </c>
-      <c r="S6">
-        <v>999</v>
-      </c>
-      <c r="T6">
-        <v>999</v>
-      </c>
-      <c r="U6" s="1">
-        <v>999</v>
-      </c>
-      <c r="V6" s="12" t="s">
+      <c r="W6" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="W6" s="12" t="s">
+      <c r="X6" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="X6" s="12" t="s">
+      <c r="Y6" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="Y6" s="12" t="s">
+      <c r="Z6" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="Z6" s="12" t="s">
+      <c r="AA6" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="AA6" s="12" t="s">
+      <c r="AB6" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="AB6" s="12" t="s">
+      <c r="AC6" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="AC6" s="12" t="s">
+      <c r="AD6" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="AD6" s="12" t="s">
+      <c r="AE6" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="AE6" s="12" t="s">
+      <c r="AF6" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="AF6" s="12" t="s">
+      <c r="AG6" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="AG6" s="12" t="s">
-        <v>226</v>
-      </c>
       <c r="AH6" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AI6" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="AJ6" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="AJ6" s="12" t="s">
+      <c r="AK6" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="AK6" s="12" t="s">
+      <c r="AL6" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="AL6" s="12" t="s">
+      <c r="AM6" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="AM6" s="12" t="s">
+      <c r="AN6" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="AN6" s="12" t="s">
+      <c r="AO6" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="AO6" s="12" t="s">
+      <c r="AP6" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="AP6" s="12" t="s">
+      <c r="AQ6" s="12" t="s">
         <v>235</v>
-      </c>
-      <c r="AQ6" s="12" t="s">
-        <v>236</v>
       </c>
       <c r="AR6" s="12" t="s">
         <v>80</v>
       </c>
       <c r="AS6" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="AT6" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="AT6" s="12" t="s">
+      <c r="AU6" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="AU6" s="12" t="s">
+      <c r="AV6" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="AV6" s="12" t="s">
+      <c r="AW6" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="AW6" s="12" t="s">
+      <c r="AX6" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="AX6" s="12" t="s">
-        <v>243</v>
-      </c>
       <c r="AY6" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AZ6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="BA6" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BB6">
         <v>999</v>
@@ -2818,10 +3749,10 @@
         <v>7</v>
       </c>
       <c r="G7" t="s">
+        <v>243</v>
+      </c>
+      <c r="H7" t="s">
         <v>244</v>
-      </c>
-      <c r="H7" t="s">
-        <v>245</v>
       </c>
       <c r="I7" s="9">
         <v>24.5</v>
@@ -2830,133 +3761,133 @@
         <v>47.3</v>
       </c>
       <c r="K7" t="s">
+        <v>245</v>
+      </c>
+      <c r="L7" t="s">
         <v>246</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7">
+        <v>999</v>
+      </c>
+      <c r="N7" t="s">
+        <v>92</v>
+      </c>
+      <c r="O7" t="s">
         <v>247</v>
       </c>
-      <c r="M7">
-        <v>999</v>
-      </c>
-      <c r="N7" t="s">
-        <v>93</v>
-      </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>248</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>249</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7">
+        <v>999</v>
+      </c>
+      <c r="S7" t="s">
         <v>250</v>
       </c>
-      <c r="R7">
-        <v>999</v>
-      </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
+        <v>97</v>
+      </c>
+      <c r="U7" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="T7" t="s">
-        <v>98</v>
-      </c>
-      <c r="U7" s="1" t="s">
+      <c r="V7" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="W7" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="X7" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="Y7" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="Z7" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="AA7" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB7" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="AC7" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="AD7" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="AE7" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="AF7" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="AG7" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="AH7" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="AI7" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="AJ7" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="AK7" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="AL7" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="AM7" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="AN7" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="AO7" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="AP7" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="AQ7" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="AR7" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="AS7" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="AT7" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="AU7" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="AV7" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="AW7" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="AX7" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="AY7" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>253</v>
+      </c>
+      <c r="BA7" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="V7" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="W7" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="X7" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="Y7" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="Z7" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="AA7" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="AB7" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="AC7" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="AD7" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="AE7" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="AF7" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="AG7" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="AH7" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="AI7" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="AJ7" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="AK7" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="AL7" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="AM7" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="AN7" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="AO7" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AP7" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="AQ7" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="AR7" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="AS7" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="AT7" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="AU7" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="AV7" s="12" t="s">
-        <v>279</v>
-      </c>
-      <c r="AW7" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="AX7" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="AY7" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="AZ7" t="s">
-        <v>254</v>
-      </c>
-      <c r="BA7" s="1" t="s">
-        <v>253</v>
       </c>
       <c r="BB7">
         <v>999</v>
@@ -2982,10 +3913,10 @@
         <v>9</v>
       </c>
       <c r="G8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I8" s="9">
         <v>24.5</v>
@@ -2994,133 +3925,133 @@
         <v>47.3</v>
       </c>
       <c r="K8" t="s">
+        <v>284</v>
+      </c>
+      <c r="L8" t="s">
         <v>285</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8">
+        <v>999</v>
+      </c>
+      <c r="N8" t="s">
+        <v>92</v>
+      </c>
+      <c r="O8" t="s">
         <v>286</v>
       </c>
-      <c r="M8">
-        <v>999</v>
-      </c>
-      <c r="N8" t="s">
-        <v>93</v>
-      </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>287</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>288</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8">
+        <v>999</v>
+      </c>
+      <c r="S8">
+        <v>999</v>
+      </c>
+      <c r="T8" t="s">
+        <v>97</v>
+      </c>
+      <c r="U8" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="R8">
-        <v>999</v>
-      </c>
-      <c r="S8">
-        <v>999</v>
-      </c>
-      <c r="T8" t="s">
-        <v>98</v>
-      </c>
-      <c r="U8" s="1" t="s">
+      <c r="V8" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="W8" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="V8" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="W8" s="12" t="s">
+      <c r="X8" s="12" t="s">
         <v>291</v>
       </c>
-      <c r="X8" s="12" t="s">
+      <c r="Y8" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="Z8" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="Y8" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="Z8" s="12" t="s">
+      <c r="AA8" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="AB8" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="AA8" s="12" t="s">
+      <c r="AC8" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="AD8" s="12" t="s">
         <v>295</v>
       </c>
-      <c r="AB8" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="AC8" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="AD8" s="12" t="s">
+      <c r="AE8" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="AE8" s="12" t="s">
+      <c r="AF8" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="AF8" s="12" t="s">
+      <c r="AG8" s="12" t="s">
         <v>298</v>
       </c>
-      <c r="AG8" s="12" t="s">
+      <c r="AH8" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI8" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="AJ8" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="AK8" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="AL8" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="AM8" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="AN8" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="AO8" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="AP8" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="AQ8" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR8" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="AS8" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="AT8" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="AU8" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="AV8" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="AW8" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="AX8" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="AY8" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="AZ8" t="s">
         <v>299</v>
       </c>
-      <c r="AH8" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="AI8" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="AJ8" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="AK8" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="AL8" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="AM8" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="AN8" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="AO8" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="AP8" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="AQ8" s="12" t="s">
+      <c r="BA8" s="1" t="s">
         <v>308</v>
-      </c>
-      <c r="AR8" s="12" t="s">
-        <v>310</v>
-      </c>
-      <c r="AS8" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="AT8" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="AU8" s="12" t="s">
-        <v>313</v>
-      </c>
-      <c r="AV8" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="AW8" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="AX8" s="12" t="s">
-        <v>315</v>
-      </c>
-      <c r="AY8" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="AZ8" t="s">
-        <v>300</v>
-      </c>
-      <c r="BA8" s="1" t="s">
-        <v>309</v>
       </c>
       <c r="BB8">
         <v>999</v>
@@ -3146,7 +4077,7 @@
         <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H9" t="s">
         <v>57</v>
@@ -3158,34 +4089,34 @@
         <v>47.3</v>
       </c>
       <c r="K9" t="s">
+        <v>317</v>
+      </c>
+      <c r="L9" t="s">
+        <v>319</v>
+      </c>
+      <c r="M9">
+        <v>999</v>
+      </c>
+      <c r="N9" t="s">
+        <v>92</v>
+      </c>
+      <c r="O9" t="s">
         <v>318</v>
       </c>
-      <c r="L9" t="s">
+      <c r="P9" t="s">
         <v>320</v>
       </c>
-      <c r="M9">
-        <v>999</v>
-      </c>
-      <c r="N9" t="s">
-        <v>93</v>
-      </c>
-      <c r="O9" t="s">
-        <v>319</v>
-      </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>321</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9">
+        <v>999</v>
+      </c>
+      <c r="S9">
+        <v>999</v>
+      </c>
+      <c r="T9" t="s">
         <v>322</v>
-      </c>
-      <c r="R9">
-        <v>999</v>
-      </c>
-      <c r="S9">
-        <v>999</v>
-      </c>
-      <c r="T9" t="s">
-        <v>323</v>
       </c>
       <c r="U9" s="1">
         <v>999</v>
@@ -3194,97 +4125,97 @@
         <v>61</v>
       </c>
       <c r="W9" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="X9" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="X9" s="12" t="s">
+      <c r="Y9" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="Z9" s="12" t="s">
         <v>325</v>
       </c>
-      <c r="Y9" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="Z9" s="12" t="s">
+      <c r="AA9" s="12" t="s">
         <v>326</v>
-      </c>
-      <c r="AA9" s="12" t="s">
-        <v>327</v>
       </c>
       <c r="AB9" s="12" t="s">
         <v>66</v>
       </c>
       <c r="AC9" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="AD9" s="12" t="s">
         <v>328</v>
       </c>
-      <c r="AD9" s="12" t="s">
+      <c r="AE9" s="12" t="s">
         <v>329</v>
       </c>
-      <c r="AE9" s="12" t="s">
+      <c r="AF9" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="AF9" s="12" t="s">
+      <c r="AG9" s="12" t="s">
         <v>331</v>
       </c>
-      <c r="AG9" s="12" t="s">
-        <v>332</v>
-      </c>
       <c r="AH9" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AI9" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="AJ9" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="AK9" s="12" t="s">
         <v>334</v>
       </c>
-      <c r="AJ9" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="AK9" s="12" t="s">
+      <c r="AL9" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="AL9" s="12" t="s">
+      <c r="AM9" s="12" t="s">
         <v>336</v>
       </c>
-      <c r="AM9" s="12" t="s">
+      <c r="AN9" s="12" t="s">
         <v>337</v>
       </c>
-      <c r="AN9" s="12" t="s">
+      <c r="AO9" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="AP9" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="AO9" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="AP9" s="12" t="s">
+      <c r="AQ9" s="12" t="s">
         <v>339</v>
-      </c>
-      <c r="AQ9" s="12" t="s">
-        <v>340</v>
       </c>
       <c r="AR9" s="12" t="s">
         <v>80</v>
       </c>
       <c r="AS9" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="AT9" s="12" t="s">
         <v>342</v>
       </c>
-      <c r="AT9" s="12" t="s">
+      <c r="AU9" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="AV9" s="12" t="s">
         <v>343</v>
       </c>
-      <c r="AU9" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="AV9" s="12" t="s">
+      <c r="AW9" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="AX9" s="12" t="s">
         <v>344</v>
       </c>
-      <c r="AW9" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="AX9" s="12" t="s">
-        <v>345</v>
-      </c>
       <c r="AY9" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AZ9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="BA9" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="BB9">
         <v>999</v>
@@ -3310,10 +4241,10 @@
         <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I10" s="9">
         <v>24.5</v>
@@ -3322,133 +4253,133 @@
         <v>47.3</v>
       </c>
       <c r="K10" t="s">
+        <v>346</v>
+      </c>
+      <c r="L10" t="s">
         <v>347</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10">
+        <v>999</v>
+      </c>
+      <c r="N10" t="s">
+        <v>92</v>
+      </c>
+      <c r="O10">
+        <v>999</v>
+      </c>
+      <c r="P10" t="s">
         <v>348</v>
       </c>
-      <c r="M10">
-        <v>999</v>
-      </c>
-      <c r="N10" t="s">
-        <v>93</v>
-      </c>
-      <c r="O10">
-        <v>999</v>
-      </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
+        <v>249</v>
+      </c>
+      <c r="R10">
+        <v>999</v>
+      </c>
+      <c r="S10">
+        <v>999</v>
+      </c>
+      <c r="T10" t="s">
+        <v>322</v>
+      </c>
+      <c r="U10" s="1">
+        <v>999</v>
+      </c>
+      <c r="V10" s="12" t="s">
         <v>349</v>
       </c>
-      <c r="Q10" t="s">
-        <v>250</v>
-      </c>
-      <c r="R10">
-        <v>999</v>
-      </c>
-      <c r="S10">
-        <v>999</v>
-      </c>
-      <c r="T10" t="s">
-        <v>323</v>
-      </c>
-      <c r="U10" s="1">
-        <v>999</v>
-      </c>
-      <c r="V10" s="12" t="s">
+      <c r="W10" s="12" t="s">
         <v>350</v>
       </c>
-      <c r="W10" s="12" t="s">
+      <c r="X10" s="12" t="s">
         <v>351</v>
       </c>
-      <c r="X10" s="12" t="s">
+      <c r="Y10" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="Z10" s="12" t="s">
         <v>352</v>
       </c>
-      <c r="Y10" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="Z10" s="12" t="s">
+      <c r="AA10" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB10" s="12" t="s">
         <v>353</v>
       </c>
-      <c r="AA10" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="AB10" s="12" t="s">
+      <c r="AC10" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="AD10" s="12" t="s">
         <v>354</v>
       </c>
-      <c r="AC10" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="AD10" s="12" t="s">
+      <c r="AE10" s="12" t="s">
         <v>355</v>
       </c>
-      <c r="AE10" s="12" t="s">
+      <c r="AF10" s="12" t="s">
         <v>356</v>
       </c>
-      <c r="AF10" s="12" t="s">
+      <c r="AG10" s="12" t="s">
         <v>357</v>
       </c>
-      <c r="AG10" s="12" t="s">
+      <c r="AH10" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI10" s="12" t="s">
         <v>358</v>
       </c>
-      <c r="AH10" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="AI10" s="12" t="s">
+      <c r="AJ10" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="AK10" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="AL10" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="AM10" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="AN10" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="AO10" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="AP10" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="AQ10" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="AR10" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="AS10" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="AT10" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="AU10" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="AV10" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="AW10" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="AX10" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="AY10" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="AZ10" t="s">
         <v>359</v>
       </c>
-      <c r="AJ10" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="AK10" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="AL10" s="12" t="s">
-        <v>361</v>
-      </c>
-      <c r="AM10" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="AN10" s="12" t="s">
-        <v>362</v>
-      </c>
-      <c r="AO10" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AP10" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="AQ10" s="12" t="s">
+      <c r="BA10" s="1" t="s">
         <v>363</v>
-      </c>
-      <c r="AR10" s="12" t="s">
-        <v>365</v>
-      </c>
-      <c r="AS10" s="12" t="s">
-        <v>366</v>
-      </c>
-      <c r="AT10" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="AU10" s="12" t="s">
-        <v>367</v>
-      </c>
-      <c r="AV10" s="12" t="s">
-        <v>368</v>
-      </c>
-      <c r="AW10" s="12" t="s">
-        <v>369</v>
-      </c>
-      <c r="AX10" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="AY10" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="AZ10" t="s">
-        <v>360</v>
-      </c>
-      <c r="BA10" s="1" t="s">
-        <v>364</v>
       </c>
       <c r="BB10">
         <v>999</v>
@@ -3474,10 +4405,10 @@
         <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I11" s="9">
         <v>24.5</v>
@@ -3486,133 +4417,133 @@
         <v>47.3</v>
       </c>
       <c r="K11" t="s">
+        <v>372</v>
+      </c>
+      <c r="L11" t="s">
         <v>373</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11">
+        <v>999</v>
+      </c>
+      <c r="N11" t="s">
+        <v>92</v>
+      </c>
+      <c r="O11" t="s">
+        <v>173</v>
+      </c>
+      <c r="P11" t="s">
         <v>374</v>
       </c>
-      <c r="M11">
-        <v>999</v>
-      </c>
-      <c r="N11" t="s">
-        <v>93</v>
-      </c>
-      <c r="O11" t="s">
-        <v>174</v>
-      </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
+        <v>376</v>
+      </c>
+      <c r="R11">
+        <v>999</v>
+      </c>
+      <c r="S11" t="s">
         <v>375</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="T11">
+        <v>999</v>
+      </c>
+      <c r="U11" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="R11">
-        <v>999</v>
-      </c>
-      <c r="S11" t="s">
-        <v>376</v>
-      </c>
-      <c r="T11">
-        <v>999</v>
-      </c>
-      <c r="U11" s="1" t="s">
+      <c r="V11" s="12" t="s">
         <v>378</v>
       </c>
-      <c r="V11" s="12" t="s">
+      <c r="W11" s="12" t="s">
         <v>379</v>
       </c>
-      <c r="W11" s="12" t="s">
+      <c r="X11" s="12" t="s">
         <v>380</v>
       </c>
-      <c r="X11" s="12" t="s">
-        <v>381</v>
-      </c>
       <c r="Y11" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Z11" s="12" t="s">
         <v>65</v>
       </c>
       <c r="AA11" s="12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AB11" s="12" t="s">
         <v>66</v>
       </c>
       <c r="AC11" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AD11" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="AE11" s="12" t="s">
         <v>383</v>
       </c>
-      <c r="AE11" s="12" t="s">
+      <c r="AF11" s="12" t="s">
         <v>384</v>
       </c>
-      <c r="AF11" s="12" t="s">
+      <c r="AG11" s="12" t="s">
         <v>385</v>
       </c>
-      <c r="AG11" s="12" t="s">
+      <c r="AH11" s="12" t="s">
         <v>386</v>
       </c>
-      <c r="AH11" s="12" t="s">
-        <v>387</v>
-      </c>
       <c r="AI11" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AJ11" s="12" t="s">
         <v>72</v>
       </c>
       <c r="AK11" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="AL11" s="12" t="s">
         <v>390</v>
       </c>
-      <c r="AL11" s="12" t="s">
+      <c r="AM11" s="12" t="s">
         <v>391</v>
       </c>
-      <c r="AM11" s="12" t="s">
+      <c r="AN11" s="12" t="s">
         <v>392</v>
-      </c>
-      <c r="AN11" s="12" t="s">
-        <v>393</v>
       </c>
       <c r="AO11" s="12" t="s">
         <v>77</v>
       </c>
       <c r="AP11" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AQ11" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AR11" s="12" t="s">
         <v>80</v>
       </c>
       <c r="AS11" s="12" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AT11" s="12" t="s">
         <v>82</v>
       </c>
       <c r="AU11" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="AV11" s="12" t="s">
         <v>395</v>
       </c>
-      <c r="AV11" s="12" t="s">
+      <c r="AW11" s="12" t="s">
         <v>396</v>
       </c>
-      <c r="AW11" s="12" t="s">
-        <v>397</v>
-      </c>
       <c r="AX11" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AY11" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AZ11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="BA11" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="BB11">
         <v>999</v>
@@ -3638,10 +4569,10 @@
         <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I12" s="9">
         <v>24.5</v>
@@ -3650,135 +4581,1930 @@
         <v>47.3</v>
       </c>
       <c r="K12" t="s">
+        <v>397</v>
+      </c>
+      <c r="L12" t="s">
         <v>398</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12">
+        <v>999</v>
+      </c>
+      <c r="N12" t="s">
+        <v>92</v>
+      </c>
+      <c r="O12" t="s">
+        <v>173</v>
+      </c>
+      <c r="P12" t="s">
         <v>399</v>
       </c>
-      <c r="M12">
-        <v>999</v>
-      </c>
-      <c r="N12" t="s">
-        <v>93</v>
-      </c>
-      <c r="O12" t="s">
-        <v>174</v>
-      </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>400</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12">
+        <v>999</v>
+      </c>
+      <c r="S12">
+        <v>999</v>
+      </c>
+      <c r="T12" t="s">
+        <v>179</v>
+      </c>
+      <c r="U12" s="1">
+        <v>999</v>
+      </c>
+      <c r="V12" s="12" t="s">
         <v>401</v>
       </c>
-      <c r="R12">
-        <v>999</v>
-      </c>
-      <c r="S12">
-        <v>999</v>
-      </c>
-      <c r="T12" t="s">
-        <v>180</v>
-      </c>
-      <c r="U12" s="1">
-        <v>999</v>
-      </c>
-      <c r="V12" s="12" t="s">
+      <c r="W12" s="12" t="s">
         <v>402</v>
       </c>
-      <c r="W12" s="12" t="s">
+      <c r="X12" s="12" t="s">
         <v>403</v>
       </c>
-      <c r="X12" s="12" t="s">
+      <c r="Y12" s="12" t="s">
         <v>404</v>
       </c>
-      <c r="Y12" s="12" t="s">
+      <c r="Z12" s="12" t="s">
         <v>405</v>
       </c>
-      <c r="Z12" s="12" t="s">
+      <c r="AA12" s="12" t="s">
         <v>406</v>
-      </c>
-      <c r="AA12" s="12" t="s">
-        <v>407</v>
       </c>
       <c r="AB12" s="12" t="s">
         <v>66</v>
       </c>
       <c r="AC12" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="AD12" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="AE12" s="12" t="s">
         <v>408</v>
       </c>
-      <c r="AD12" s="12" t="s">
-        <v>383</v>
-      </c>
-      <c r="AE12" s="12" t="s">
+      <c r="AF12" s="12" t="s">
         <v>409</v>
       </c>
-      <c r="AF12" s="12" t="s">
+      <c r="AG12" s="12" t="s">
         <v>410</v>
       </c>
-      <c r="AG12" s="12" t="s">
+      <c r="AH12" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="AI12" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="AJ12" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="AK12" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="AL12" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="AM12" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="AN12" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="AO12" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="AP12" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="AQ12" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="AR12" s="12" t="s">
+        <v>420</v>
+      </c>
+      <c r="AS12" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="AT12" s="12" t="s">
+        <v>422</v>
+      </c>
+      <c r="AU12" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="AV12" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="AW12" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="AX12" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="AY12" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="AZ12" t="s">
         <v>411</v>
       </c>
-      <c r="AH12" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="AI12" s="12" t="s">
-        <v>413</v>
-      </c>
-      <c r="AJ12" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="AK12" s="12" t="s">
-        <v>390</v>
-      </c>
-      <c r="AL12" s="12" t="s">
-        <v>414</v>
-      </c>
-      <c r="AM12" s="12" t="s">
-        <v>415</v>
-      </c>
-      <c r="AN12" s="12" t="s">
-        <v>416</v>
-      </c>
-      <c r="AO12" s="12" t="s">
-        <v>417</v>
-      </c>
-      <c r="AP12" s="12" t="s">
-        <v>418</v>
-      </c>
-      <c r="AQ12" s="12" t="s">
+      <c r="BA12" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="AR12" s="12" t="s">
-        <v>421</v>
-      </c>
-      <c r="AS12" s="12" t="s">
+      <c r="BB12" s="12" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="13" spans="1:54">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="14">
+        <v>44739</v>
+      </c>
+      <c r="C13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13">
+        <v>11</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>429</v>
+      </c>
+      <c r="H13" t="s">
+        <v>90</v>
+      </c>
+      <c r="I13" s="9">
+        <v>25</v>
+      </c>
+      <c r="J13" s="9">
+        <v>47.3</v>
+      </c>
+      <c r="K13" t="s">
+        <v>430</v>
+      </c>
+      <c r="L13" t="s">
+        <v>431</v>
+      </c>
+      <c r="M13">
+        <v>999</v>
+      </c>
+      <c r="N13" t="s">
+        <v>92</v>
+      </c>
+      <c r="O13" t="s">
+        <v>432</v>
+      </c>
+      <c r="P13" t="s">
+        <v>433</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>434</v>
+      </c>
+      <c r="R13">
+        <v>999</v>
+      </c>
+      <c r="S13" t="s">
+        <v>432</v>
+      </c>
+      <c r="T13" t="s">
+        <v>322</v>
+      </c>
+      <c r="U13" s="1">
+        <v>999</v>
+      </c>
+      <c r="V13" s="12" t="s">
+        <v>435</v>
+      </c>
+      <c r="W13" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="X13" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="Y13" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="Z13" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="AA13" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="AB13" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="AC13" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="AD13" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="AE13" s="12" t="s">
+        <v>441</v>
+      </c>
+      <c r="AF13" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="AG13" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="AH13" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="AI13" s="12" t="s">
+        <v>443</v>
+      </c>
+      <c r="AJ13" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="AK13" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="AL13" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="AM13" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="AN13" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="AO13" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP13" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="AQ13" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR13" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="AS13" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="AT13" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU13" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="AV13" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="AW13" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="AX13" s="12" t="s">
+        <v>455</v>
+      </c>
+      <c r="AY13" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>445</v>
+      </c>
+      <c r="BA13" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="BB13">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:54">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="14">
+        <v>44739</v>
+      </c>
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14">
+        <v>11</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>458</v>
+      </c>
+      <c r="H14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I14" s="9">
+        <v>25</v>
+      </c>
+      <c r="J14" s="9">
+        <v>47.3</v>
+      </c>
+      <c r="K14" t="s">
+        <v>459</v>
+      </c>
+      <c r="L14" t="s">
+        <v>460</v>
+      </c>
+      <c r="M14">
+        <v>999</v>
+      </c>
+      <c r="N14" t="s">
+        <v>92</v>
+      </c>
+      <c r="O14" t="s">
+        <v>173</v>
+      </c>
+      <c r="P14" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>462</v>
+      </c>
+      <c r="R14" t="s">
+        <v>463</v>
+      </c>
+      <c r="S14" t="s">
+        <v>173</v>
+      </c>
+      <c r="T14" t="s">
+        <v>97</v>
+      </c>
+      <c r="U14" s="1">
+        <v>999</v>
+      </c>
+      <c r="V14" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="W14" s="12" t="s">
+        <v>464</v>
+      </c>
+      <c r="X14" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="Y14" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="Z14" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="AA14" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="AB14" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC14" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="AD14" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="AE14" s="12" t="s">
+        <v>469</v>
+      </c>
+      <c r="AF14" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="AG14" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="AH14" s="12" t="s">
+        <v>472</v>
+      </c>
+      <c r="AI14" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="AJ14" s="12" t="s">
+        <v>474</v>
+      </c>
+      <c r="AK14" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="AL14" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="AM14" s="12" t="s">
+        <v>478</v>
+      </c>
+      <c r="AN14" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="AO14" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="AP14" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="AQ14" s="12" t="s">
+        <v>481</v>
+      </c>
+      <c r="AR14" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="AS14" s="12" t="s">
+        <v>484</v>
+      </c>
+      <c r="AT14" s="12" t="s">
+        <v>485</v>
+      </c>
+      <c r="AU14" s="12" t="s">
+        <v>486</v>
+      </c>
+      <c r="AV14" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="AW14" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="AX14" s="12" t="s">
+        <v>489</v>
+      </c>
+      <c r="AY14" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="AZ14" t="s">
+        <v>473</v>
+      </c>
+      <c r="BA14" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="BB14" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="15" spans="1:54">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="14">
+        <v>44739</v>
+      </c>
+      <c r="C15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15">
+        <v>11</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15" t="s">
+        <v>490</v>
+      </c>
+      <c r="H15" t="s">
+        <v>90</v>
+      </c>
+      <c r="I15" s="9">
+        <v>25</v>
+      </c>
+      <c r="J15" s="9">
+        <v>47.3</v>
+      </c>
+      <c r="K15" t="s">
+        <v>491</v>
+      </c>
+      <c r="L15" t="s">
+        <v>492</v>
+      </c>
+      <c r="M15">
+        <v>999</v>
+      </c>
+      <c r="N15" t="s">
+        <v>493</v>
+      </c>
+      <c r="O15" t="s">
+        <v>173</v>
+      </c>
+      <c r="P15" t="s">
+        <v>494</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>495</v>
+      </c>
+      <c r="R15">
+        <v>999</v>
+      </c>
+      <c r="S15">
+        <v>999</v>
+      </c>
+      <c r="T15" t="s">
+        <v>97</v>
+      </c>
+      <c r="U15" s="1">
+        <v>999</v>
+      </c>
+      <c r="V15" s="12" t="s">
+        <v>496</v>
+      </c>
+      <c r="W15" s="12" t="s">
+        <v>497</v>
+      </c>
+      <c r="X15" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y15" s="12" t="s">
+        <v>498</v>
+      </c>
+      <c r="Z15" s="12" t="s">
+        <v>499</v>
+      </c>
+      <c r="AA15" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="AB15" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="AC15" s="12" t="s">
+        <v>501</v>
+      </c>
+      <c r="AD15" s="12" t="s">
+        <v>502</v>
+      </c>
+      <c r="AE15" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="AF15" s="12" t="s">
+        <v>504</v>
+      </c>
+      <c r="AG15" s="12" t="s">
+        <v>505</v>
+      </c>
+      <c r="AH15" s="12" t="s">
+        <v>506</v>
+      </c>
+      <c r="AI15" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="AJ15" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="AK15" s="12" t="s">
+        <v>509</v>
+      </c>
+      <c r="AL15" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="AM15" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="AN15" s="12" t="s">
+        <v>511</v>
+      </c>
+      <c r="AO15" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="AP15" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="AQ15" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="AR15" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="AS15" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="AT15" s="12" t="s">
+        <v>517</v>
+      </c>
+      <c r="AU15" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="AV15" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="AW15" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="AX15" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="AY15" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="AZ15" t="s">
+        <v>507</v>
+      </c>
+      <c r="BA15" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="BB15">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:54">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="14">
+        <v>44739</v>
+      </c>
+      <c r="C16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16">
+        <v>11</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="G16" t="s">
+        <v>521</v>
+      </c>
+      <c r="H16" t="s">
+        <v>57</v>
+      </c>
+      <c r="I16" s="9">
+        <v>25</v>
+      </c>
+      <c r="J16" s="9">
+        <v>47.3</v>
+      </c>
+      <c r="K16" t="s">
+        <v>522</v>
+      </c>
+      <c r="L16" t="s">
+        <v>524</v>
+      </c>
+      <c r="M16">
+        <v>999</v>
+      </c>
+      <c r="N16" t="s">
+        <v>523</v>
+      </c>
+      <c r="O16" t="s">
+        <v>173</v>
+      </c>
+      <c r="P16" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>527</v>
+      </c>
+      <c r="R16" t="s">
+        <v>526</v>
+      </c>
+      <c r="S16">
+        <v>999</v>
+      </c>
+      <c r="T16" t="s">
+        <v>97</v>
+      </c>
+      <c r="U16" s="1">
+        <v>999</v>
+      </c>
+      <c r="V16" s="12" t="s">
+        <v>528</v>
+      </c>
+      <c r="W16" s="12" t="s">
+        <v>529</v>
+      </c>
+      <c r="X16" s="12" t="s">
+        <v>530</v>
+      </c>
+      <c r="Y16" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="Z16" s="12" t="s">
+        <v>531</v>
+      </c>
+      <c r="AA16" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB16" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC16" s="12" t="s">
+        <v>532</v>
+      </c>
+      <c r="AD16" s="12" t="s">
+        <v>533</v>
+      </c>
+      <c r="AE16" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="AF16" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="AG16" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="AH16" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="AI16" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="AJ16" s="12" t="s">
+        <v>539</v>
+      </c>
+      <c r="AK16" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="AL16" s="12" t="s">
+        <v>540</v>
+      </c>
+      <c r="AM16" s="12" t="s">
+        <v>541</v>
+      </c>
+      <c r="AN16" s="12" t="s">
+        <v>542</v>
+      </c>
+      <c r="AO16" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="AP16" s="12" t="s">
+        <v>543</v>
+      </c>
+      <c r="AQ16" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="AR16" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="AS16" s="12" t="s">
+        <v>545</v>
+      </c>
+      <c r="AT16" s="12" t="s">
+        <v>546</v>
+      </c>
+      <c r="AU16" s="12" t="s">
+        <v>547</v>
+      </c>
+      <c r="AV16" s="12" t="s">
+        <v>548</v>
+      </c>
+      <c r="AW16" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="AX16" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="AY16" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="AZ16" t="s">
+        <v>538</v>
+      </c>
+      <c r="BA16" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="BB16">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:54">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="14">
+        <v>44739</v>
+      </c>
+      <c r="C17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17">
+        <v>11</v>
+      </c>
+      <c r="F17">
+        <v>5</v>
+      </c>
+      <c r="G17" t="s">
+        <v>549</v>
+      </c>
+      <c r="H17" t="s">
+        <v>57</v>
+      </c>
+      <c r="I17" s="9">
+        <v>25</v>
+      </c>
+      <c r="J17" s="9">
+        <v>47.3</v>
+      </c>
+      <c r="K17" t="s">
+        <v>550</v>
+      </c>
+      <c r="L17" t="s">
+        <v>552</v>
+      </c>
+      <c r="M17">
+        <v>999</v>
+      </c>
+      <c r="N17" t="s">
+        <v>493</v>
+      </c>
+      <c r="O17" t="s">
+        <v>551</v>
+      </c>
+      <c r="P17" t="s">
+        <v>553</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>554</v>
+      </c>
+      <c r="R17">
+        <v>999</v>
+      </c>
+      <c r="S17" t="s">
+        <v>173</v>
+      </c>
+      <c r="T17" t="s">
+        <v>555</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="V17" s="12" t="s">
+        <v>557</v>
+      </c>
+      <c r="W17" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="X17" s="12" t="s">
+        <v>558</v>
+      </c>
+      <c r="Y17" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="Z17" s="12" t="s">
+        <v>559</v>
+      </c>
+      <c r="AA17" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB17" s="12" t="s">
+        <v>560</v>
+      </c>
+      <c r="AC17" s="12" t="s">
+        <v>561</v>
+      </c>
+      <c r="AD17" s="12" t="s">
+        <v>502</v>
+      </c>
+      <c r="AE17" s="12" t="s">
+        <v>562</v>
+      </c>
+      <c r="AF17" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="AG17" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="AH17" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="AI17" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="AJ17" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="AK17" s="12" t="s">
+        <v>566</v>
+      </c>
+      <c r="AL17" s="12" t="s">
+        <v>567</v>
+      </c>
+      <c r="AM17" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="AN17" s="12" t="s">
+        <v>568</v>
+      </c>
+      <c r="AO17" s="12" t="s">
+        <v>569</v>
+      </c>
+      <c r="AP17" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="AQ17" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="AR17" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="AS17" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="AT17" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="AU17" s="12" t="s">
+        <v>574</v>
+      </c>
+      <c r="AV17" s="12" t="s">
+        <v>575</v>
+      </c>
+      <c r="AW17" s="12" t="s">
+        <v>576</v>
+      </c>
+      <c r="AX17" s="12" t="s">
+        <v>577</v>
+      </c>
+      <c r="AY17" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="AZ17" t="s">
+        <v>565</v>
+      </c>
+      <c r="BA17" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="BB17">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:54">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="14">
+        <v>44739</v>
+      </c>
+      <c r="C18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18">
+        <v>11</v>
+      </c>
+      <c r="F18">
+        <v>6</v>
+      </c>
+      <c r="G18" t="s">
+        <v>579</v>
+      </c>
+      <c r="H18" t="s">
+        <v>244</v>
+      </c>
+      <c r="I18" s="9">
+        <v>25</v>
+      </c>
+      <c r="J18" s="9">
+        <v>47.3</v>
+      </c>
+      <c r="K18" t="s">
+        <v>580</v>
+      </c>
+      <c r="L18" t="s">
+        <v>581</v>
+      </c>
+      <c r="M18">
+        <v>999</v>
+      </c>
+      <c r="N18" t="s">
+        <v>92</v>
+      </c>
+      <c r="O18" t="s">
+        <v>582</v>
+      </c>
+      <c r="P18" t="s">
+        <v>583</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>584</v>
+      </c>
+      <c r="R18" t="s">
+        <v>585</v>
+      </c>
+      <c r="S18">
+        <v>999</v>
+      </c>
+      <c r="T18" t="s">
+        <v>322</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="V18" s="12" t="s">
+        <v>587</v>
+      </c>
+      <c r="W18" s="12" t="s">
+        <v>588</v>
+      </c>
+      <c r="X18" s="12" t="s">
+        <v>589</v>
+      </c>
+      <c r="Y18" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="Z18" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="AA18" s="12" t="s">
+        <v>590</v>
+      </c>
+      <c r="AB18" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC18" s="12" t="s">
+        <v>591</v>
+      </c>
+      <c r="AD18" s="12" t="s">
+        <v>592</v>
+      </c>
+      <c r="AE18" s="12" t="s">
+        <v>593</v>
+      </c>
+      <c r="AF18" s="12" t="s">
+        <v>504</v>
+      </c>
+      <c r="AG18" s="12" t="s">
+        <v>594</v>
+      </c>
+      <c r="AH18" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI18" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="AJ18" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="AK18" s="12" t="s">
+        <v>596</v>
+      </c>
+      <c r="AL18" s="12" t="s">
+        <v>597</v>
+      </c>
+      <c r="AM18" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="AN18" s="12" t="s">
+        <v>511</v>
+      </c>
+      <c r="AO18" s="12" t="s">
+        <v>599</v>
+      </c>
+      <c r="AQ18" s="12" t="s">
+        <v>600</v>
+      </c>
+      <c r="AR18" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="AS18" s="12" t="s">
+        <v>601</v>
+      </c>
+      <c r="AT18" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="AU18" s="12" t="s">
+        <v>602</v>
+      </c>
+      <c r="AV18" s="12" t="s">
+        <v>603</v>
+      </c>
+      <c r="AW18" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="AX18" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="AY18" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="AZ18" t="s">
+        <v>595</v>
+      </c>
+      <c r="BA18" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="BB18">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:54">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="14">
+        <v>44739</v>
+      </c>
+      <c r="C19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19">
+        <v>11</v>
+      </c>
+      <c r="F19">
+        <v>8</v>
+      </c>
+      <c r="G19" t="s">
+        <v>626</v>
+      </c>
+      <c r="H19" t="s">
+        <v>244</v>
+      </c>
+      <c r="I19" s="9">
+        <v>25</v>
+      </c>
+      <c r="J19" s="9">
+        <v>47.3</v>
+      </c>
+      <c r="K19" t="s">
+        <v>605</v>
+      </c>
+      <c r="L19" t="s">
+        <v>606</v>
+      </c>
+      <c r="M19">
+        <v>999</v>
+      </c>
+      <c r="N19" t="s">
+        <v>493</v>
+      </c>
+      <c r="O19" t="s">
+        <v>173</v>
+      </c>
+      <c r="P19" t="s">
+        <v>609</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>607</v>
+      </c>
+      <c r="R19">
+        <v>999</v>
+      </c>
+      <c r="S19" t="s">
+        <v>608</v>
+      </c>
+      <c r="T19" t="s">
+        <v>179</v>
+      </c>
+      <c r="V19" s="12" t="s">
+        <v>610</v>
+      </c>
+      <c r="W19" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="X19" s="12" t="s">
+        <v>611</v>
+      </c>
+      <c r="Y19" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z19" s="12" t="s">
+        <v>612</v>
+      </c>
+      <c r="AA19" s="12" t="s">
+        <v>614</v>
+      </c>
+      <c r="AB19" s="12" t="s">
+        <v>613</v>
+      </c>
+      <c r="AC19" s="12" t="s">
+        <v>615</v>
+      </c>
+      <c r="AD19" s="12" t="s">
+        <v>616</v>
+      </c>
+      <c r="AE19" s="12" t="s">
+        <v>617</v>
+      </c>
+      <c r="AF19" s="12" t="s">
+        <v>618</v>
+      </c>
+      <c r="AG19" s="12" t="s">
+        <v>619</v>
+      </c>
+      <c r="AH19" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="AI19" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="AJ19" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="AK19" s="12" t="s">
+        <v>620</v>
+      </c>
+      <c r="AL19">
+        <v>999</v>
+      </c>
+      <c r="AM19" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="AN19" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="AO19" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP19" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="AQ19" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR19" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS19">
+        <v>999</v>
+      </c>
+      <c r="AT19" s="12" t="s">
+        <v>621</v>
+      </c>
+      <c r="AU19" s="12" t="s">
+        <v>622</v>
+      </c>
+      <c r="AV19" s="12" t="s">
+        <v>623</v>
+      </c>
+      <c r="AW19" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="AX19" s="12" t="s">
+        <v>624</v>
+      </c>
+      <c r="AY19" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="AZ19" t="s">
+        <v>332</v>
+      </c>
+      <c r="BA19" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="BB19">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:54">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="14">
+        <v>44739</v>
+      </c>
+      <c r="C20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20">
+        <v>11</v>
+      </c>
+      <c r="F20">
+        <v>9</v>
+      </c>
+      <c r="G20" t="s">
+        <v>625</v>
+      </c>
+      <c r="H20" t="s">
+        <v>57</v>
+      </c>
+      <c r="I20" s="9">
+        <v>25</v>
+      </c>
+      <c r="J20" s="9">
+        <v>47.3</v>
+      </c>
+      <c r="K20" t="s">
+        <v>638</v>
+      </c>
+      <c r="L20" t="s">
+        <v>627</v>
+      </c>
+      <c r="M20">
+        <v>999</v>
+      </c>
+      <c r="N20" t="s">
+        <v>493</v>
+      </c>
+      <c r="O20" t="s">
+        <v>432</v>
+      </c>
+      <c r="P20" t="s">
+        <v>631</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>628</v>
+      </c>
+      <c r="R20">
+        <v>999</v>
+      </c>
+      <c r="S20" t="s">
+        <v>629</v>
+      </c>
+      <c r="T20" t="s">
+        <v>322</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="V20" s="12" t="s">
+        <v>632</v>
+      </c>
+      <c r="W20" s="12" t="s">
+        <v>633</v>
+      </c>
+      <c r="X20" s="12" t="s">
+        <v>634</v>
+      </c>
+      <c r="Y20" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z20" s="12" t="s">
+        <v>635</v>
+      </c>
+      <c r="AA20" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB20" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC20" s="12" t="s">
+        <v>501</v>
+      </c>
+      <c r="AD20" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="AE20" s="12" t="s">
+        <v>636</v>
+      </c>
+      <c r="AF20" s="12" t="s">
+        <v>637</v>
+      </c>
+      <c r="AG20" s="12" t="s">
+        <v>639</v>
+      </c>
+      <c r="AH20" s="12" t="s">
+        <v>506</v>
+      </c>
+      <c r="AI20" s="12" t="s">
+        <v>641</v>
+      </c>
+      <c r="AJ20" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="AK20" s="12" t="s">
+        <v>642</v>
+      </c>
+      <c r="AL20" s="12" t="s">
+        <v>643</v>
+      </c>
+      <c r="AM20" s="12" t="s">
+        <v>644</v>
+      </c>
+      <c r="AN20" s="12" t="s">
+        <v>645</v>
+      </c>
+      <c r="AO20" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="AP20" s="12" t="s">
+        <v>646</v>
+      </c>
+      <c r="AQ20" s="12" t="s">
+        <v>647</v>
+      </c>
+      <c r="AR20" s="12" t="s">
+        <v>649</v>
+      </c>
+      <c r="AS20" s="12" t="s">
+        <v>650</v>
+      </c>
+      <c r="AT20" s="12" t="s">
+        <v>651</v>
+      </c>
+      <c r="AU20" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="AV20" s="12" t="s">
+        <v>653</v>
+      </c>
+      <c r="AW20" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="AX20" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="AY20" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="AZ20" t="s">
+        <v>640</v>
+      </c>
+      <c r="BA20" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="BB20">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:54">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="14">
+        <v>44739</v>
+      </c>
+      <c r="C21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21">
+        <v>11</v>
+      </c>
+      <c r="F21">
+        <v>11</v>
+      </c>
+      <c r="G21" t="s">
+        <v>656</v>
+      </c>
+      <c r="H21" t="s">
+        <v>90</v>
+      </c>
+      <c r="I21" s="9">
+        <v>25</v>
+      </c>
+      <c r="J21" s="9">
+        <v>47.3</v>
+      </c>
+      <c r="K21" t="s">
+        <v>657</v>
+      </c>
+      <c r="L21" t="s">
+        <v>658</v>
+      </c>
+      <c r="M21">
+        <v>999</v>
+      </c>
+      <c r="N21" t="s">
+        <v>92</v>
+      </c>
+      <c r="O21" t="s">
+        <v>375</v>
+      </c>
+      <c r="P21" t="s">
+        <v>659</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>660</v>
+      </c>
+      <c r="R21" t="s">
+        <v>661</v>
+      </c>
+      <c r="S21" t="s">
+        <v>662</v>
+      </c>
+      <c r="T21" t="s">
+        <v>322</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="V21" s="12" t="s">
+        <v>610</v>
+      </c>
+      <c r="W21" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="X21" s="12" t="s">
+        <v>664</v>
+      </c>
+      <c r="Y21" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z21" s="12" t="s">
+        <v>691</v>
+      </c>
+      <c r="AA21" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="AB21" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC21" s="12" t="s">
+        <v>665</v>
+      </c>
+      <c r="AD21" s="12" t="s">
+        <v>666</v>
+      </c>
+      <c r="AE21" s="12" t="s">
+        <v>667</v>
+      </c>
+      <c r="AF21" s="12" t="s">
+        <v>409</v>
+      </c>
+      <c r="AG21" s="12" t="s">
+        <v>668</v>
+      </c>
+      <c r="AH21" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI21" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="AJ21" s="12" t="s">
+        <v>669</v>
+      </c>
+      <c r="AK21" s="12" t="s">
+        <v>670</v>
+      </c>
+      <c r="AL21" s="12" t="s">
+        <v>671</v>
+      </c>
+      <c r="AM21" s="12" t="s">
+        <v>672</v>
+      </c>
+      <c r="AN21" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="AO21" s="12" t="s">
+        <v>673</v>
+      </c>
+      <c r="AP21" s="12" t="s">
+        <v>674</v>
+      </c>
+      <c r="AQ21" s="12" t="s">
+        <v>675</v>
+      </c>
+      <c r="AR21" s="12" t="s">
+        <v>676</v>
+      </c>
+      <c r="AS21" s="12" t="s">
+        <v>677</v>
+      </c>
+      <c r="AT21" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="AU21" s="12" t="s">
+        <v>678</v>
+      </c>
+      <c r="AV21" s="12" t="s">
+        <v>679</v>
+      </c>
+      <c r="AW21" s="12" t="s">
+        <v>680</v>
+      </c>
+      <c r="AX21" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="AY21" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="AZ21" t="s">
+        <v>445</v>
+      </c>
+      <c r="BA21" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="BB21">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:54">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="14">
+        <v>44739</v>
+      </c>
+      <c r="C22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22">
+        <v>11</v>
+      </c>
+      <c r="F22">
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>681</v>
+      </c>
+      <c r="H22" t="s">
+        <v>244</v>
+      </c>
+      <c r="I22" s="9">
+        <v>25</v>
+      </c>
+      <c r="J22" s="9">
+        <v>47.3</v>
+      </c>
+      <c r="K22" t="s">
+        <v>682</v>
+      </c>
+      <c r="L22" t="s">
+        <v>683</v>
+      </c>
+      <c r="M22">
+        <v>999</v>
+      </c>
+      <c r="N22" t="s">
+        <v>493</v>
+      </c>
+      <c r="O22" t="s">
+        <v>93</v>
+      </c>
+      <c r="P22" t="s">
+        <v>684</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>694</v>
+      </c>
+      <c r="R22">
+        <v>999</v>
+      </c>
+      <c r="S22">
+        <v>999</v>
+      </c>
+      <c r="T22" t="s">
+        <v>179</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="V22" s="12" t="s">
+        <v>686</v>
+      </c>
+      <c r="W22" s="12" t="s">
+        <v>687</v>
+      </c>
+      <c r="X22" s="12" t="s">
+        <v>688</v>
+      </c>
+      <c r="Y22" s="12" t="s">
+        <v>689</v>
+      </c>
+      <c r="Z22" s="12" t="s">
+        <v>690</v>
+      </c>
+      <c r="AA22" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="AB22" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="AC22" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="AD22" s="12" t="s">
+        <v>692</v>
+      </c>
+      <c r="AE22" s="12" t="s">
+        <v>693</v>
+      </c>
+      <c r="AF22" s="12" t="s">
+        <v>409</v>
+      </c>
+      <c r="AG22" s="12" t="s">
+        <v>695</v>
+      </c>
+      <c r="AH22" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="AI22" s="12" t="s">
+        <v>697</v>
+      </c>
+      <c r="AJ22" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="AK22" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL22" s="12" t="s">
+        <v>698</v>
+      </c>
+      <c r="AM22" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="AN22" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="AO22" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="AP22" s="12" t="s">
+        <v>699</v>
+      </c>
+      <c r="AQ22" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="AR22" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS22" s="12" t="s">
+        <v>700</v>
+      </c>
+      <c r="AT22" s="12" t="s">
         <v>422</v>
       </c>
-      <c r="AT12" s="12" t="s">
-        <v>423</v>
-      </c>
-      <c r="AU12" s="12" t="s">
-        <v>424</v>
-      </c>
-      <c r="AV12" s="12" t="s">
-        <v>425</v>
-      </c>
-      <c r="AW12" s="12" t="s">
-        <v>426</v>
-      </c>
-      <c r="AX12" s="12" t="s">
-        <v>427</v>
-      </c>
-      <c r="AY12" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="AZ12" t="s">
-        <v>412</v>
-      </c>
-      <c r="BA12" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="BB12">
+      <c r="AU22" s="12" t="s">
+        <v>701</v>
+      </c>
+      <c r="AV22" s="12" t="s">
+        <v>702</v>
+      </c>
+      <c r="AW22" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="AX22" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="AY22" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AZ22" t="s">
+        <v>696</v>
+      </c>
+      <c r="BA22" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="BB22">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:54">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="14">
+        <v>44739</v>
+      </c>
+      <c r="C23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23">
+        <v>11</v>
+      </c>
+      <c r="F23">
+        <v>14</v>
+      </c>
+      <c r="G23" t="s">
+        <v>703</v>
+      </c>
+      <c r="H23" t="s">
+        <v>244</v>
+      </c>
+      <c r="I23" s="9">
+        <v>25</v>
+      </c>
+      <c r="J23" s="9">
+        <v>47.3</v>
+      </c>
+      <c r="K23" t="s">
+        <v>704</v>
+      </c>
+      <c r="L23" t="s">
+        <v>705</v>
+      </c>
+      <c r="M23">
+        <v>999</v>
+      </c>
+      <c r="N23" t="s">
+        <v>706</v>
+      </c>
+      <c r="O23" t="s">
+        <v>173</v>
+      </c>
+      <c r="P23" t="s">
+        <v>707</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>708</v>
+      </c>
+      <c r="R23">
+        <v>999</v>
+      </c>
+      <c r="S23" t="s">
+        <v>375</v>
+      </c>
+      <c r="T23" t="s">
+        <v>709</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="V23" s="12" t="s">
+        <v>711</v>
+      </c>
+      <c r="W23" s="12" t="s">
+        <v>588</v>
+      </c>
+      <c r="X23" s="12" t="s">
+        <v>712</v>
+      </c>
+      <c r="Y23" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="Z23" s="12" t="s">
+        <v>713</v>
+      </c>
+      <c r="AA23" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB23" s="12" t="s">
+        <v>714</v>
+      </c>
+      <c r="AC23" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="AD23" s="12" t="s">
+        <v>715</v>
+      </c>
+      <c r="AE23" s="12" t="s">
+        <v>716</v>
+      </c>
+      <c r="AF23" s="12" t="s">
+        <v>717</v>
+      </c>
+      <c r="AG23" s="12" t="s">
+        <v>718</v>
+      </c>
+      <c r="AH23" s="12" t="s">
+        <v>719</v>
+      </c>
+      <c r="AI23" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="AJ23" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="AK23" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="AL23" s="12" t="s">
+        <v>720</v>
+      </c>
+      <c r="AM23" s="12" t="s">
+        <v>478</v>
+      </c>
+      <c r="AN23" s="12" t="s">
+        <v>721</v>
+      </c>
+      <c r="AO23" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="AP23" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="AQ23" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="AR23" s="12" t="s">
+        <v>722</v>
+      </c>
+      <c r="AS23" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="AT23" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="AU23" s="12" t="s">
+        <v>724</v>
+      </c>
+      <c r="AV23" s="12" t="s">
+        <v>725</v>
+      </c>
+      <c r="AW23" s="12" t="s">
+        <v>726</v>
+      </c>
+      <c r="AX23" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="AY23" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="AZ23" t="s">
+        <v>538</v>
+      </c>
+      <c r="BB23">
         <v>999</v>
       </c>
     </row>

--- a/Data/DWA_FS.xlsx
+++ b/Data/DWA_FS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="727">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445" uniqueCount="955">
   <si>
     <t>ID</t>
   </si>
@@ -403,9 +403,6 @@
   </si>
   <si>
     <t>zwiega</t>
-  </si>
-  <si>
-    <t>Zünkinigla (s', s)</t>
   </si>
   <si>
     <t>Holundara (d', w)</t>
@@ -2245,6 +2242,693 @@
   </si>
   <si>
     <t>Hafa (m) {o über dem a}</t>
+  </si>
+  <si>
+    <t>III_17_0026</t>
+  </si>
+  <si>
+    <t>x-x</t>
+  </si>
+  <si>
+    <t>Häsingen</t>
+  </si>
+  <si>
+    <t>Iselin</t>
+  </si>
+  <si>
+    <t>Lör[r]ach</t>
+  </si>
+  <si>
+    <t>Aumeisala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liicht  </t>
+  </si>
+  <si>
+    <t>Brombeyri</t>
+  </si>
+  <si>
+    <t>Disl</t>
+  </si>
+  <si>
+    <t>Elschter</t>
+  </si>
+  <si>
+    <t>Ehmt</t>
+  </si>
+  <si>
+    <t>Gagumara</t>
+  </si>
+  <si>
+    <t>Gugel, Huehn</t>
+  </si>
+  <si>
+    <t>Holari</t>
+  </si>
+  <si>
+    <t>Hardepfel</t>
+  </si>
+  <si>
+    <t>Scha[a]rmüs</t>
+  </si>
+  <si>
+    <t>Durleps</t>
+  </si>
+  <si>
+    <t>Chrüsselberi</t>
+  </si>
+  <si>
+    <t>Stregnodla</t>
+  </si>
+  <si>
+    <t>Tasle</t>
+  </si>
+  <si>
+    <t>Zwiga</t>
+  </si>
+  <si>
+    <t>Sunsfräu (w)</t>
+  </si>
+  <si>
+    <t>III_17_0027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x-V  </t>
+  </si>
+  <si>
+    <t>Buschweiler</t>
+  </si>
+  <si>
+    <t>Starck</t>
+  </si>
+  <si>
+    <t>Attenschweiler</t>
+  </si>
+  <si>
+    <t>Kr. Mülhausen</t>
+  </si>
+  <si>
+    <t>Licht (a), Begräbnis</t>
+  </si>
+  <si>
+    <t>Brombeeri</t>
+  </si>
+  <si>
+    <t>Agasta</t>
+  </si>
+  <si>
+    <t>Muka</t>
+  </si>
+  <si>
+    <t>Guckel, Gluckeri</t>
+  </si>
+  <si>
+    <t>Halara</t>
+  </si>
+  <si>
+    <t>Mo[tt]a</t>
+  </si>
+  <si>
+    <t>Ketti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riema  </t>
+  </si>
+  <si>
+    <t>schal[a]</t>
+  </si>
+  <si>
+    <t>Stachelbeeri</t>
+  </si>
+  <si>
+    <t>Stechnodel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stricknodel  </t>
+  </si>
+  <si>
+    <t>Schiessele</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Topf  </t>
+  </si>
+  <si>
+    <t>Geiß (d')</t>
+  </si>
+  <si>
+    <t>III_17_0028</t>
+  </si>
+  <si>
+    <t>x-U</t>
+  </si>
+  <si>
+    <t>Neuweiler</t>
+  </si>
+  <si>
+    <t>Johann Heinemann</t>
+  </si>
+  <si>
+    <t>Kirchhofen bei Freiburg</t>
+  </si>
+  <si>
+    <t>Ameisala &lt;A fast wie O gesprochen&gt;</t>
+  </si>
+  <si>
+    <t>Liecht (d', w), Beärdigung (w)</t>
+  </si>
+  <si>
+    <t>Brombeeri (w)</t>
+  </si>
+  <si>
+    <t>Ägerscht[ä] (w) {könnte auch eï sein}</t>
+  </si>
+  <si>
+    <t>Flädermüs (w)</t>
+  </si>
+  <si>
+    <t>Fliegä (w)</t>
+  </si>
+  <si>
+    <t>Gagummere (w)</t>
+  </si>
+  <si>
+    <t>Budä (w)</t>
+  </si>
+  <si>
+    <t>Geggel (d', m), Huehn (w)</t>
+  </si>
+  <si>
+    <t>Galriebli (s)</t>
+  </si>
+  <si>
+    <t>Riäme (m)</t>
+  </si>
+  <si>
+    <t>händle, wiete</t>
+  </si>
+  <si>
+    <t>Chrieselbeeri (w)</t>
+  </si>
+  <si>
+    <t>Gufä (w)</t>
+  </si>
+  <si>
+    <t>Schtricknodel (w)</t>
+  </si>
+  <si>
+    <t>Schisseli (s)</t>
+  </si>
+  <si>
+    <t>III_17_0029</t>
+  </si>
+  <si>
+    <t>Waldighofen</t>
+  </si>
+  <si>
+    <t>x-w</t>
+  </si>
+  <si>
+    <t>Cecilie Cetty</t>
+  </si>
+  <si>
+    <t>Leiche</t>
+  </si>
+  <si>
+    <t>Fladen</t>
+  </si>
+  <si>
+    <t>Ageschte</t>
+  </si>
+  <si>
+    <t>Mücke (eine)</t>
+  </si>
+  <si>
+    <t>Ehmternte (die)</t>
+  </si>
+  <si>
+    <t>Gagomere (die)</t>
+  </si>
+  <si>
+    <t>Guckel (der), Huhn (die)</t>
+  </si>
+  <si>
+    <t>Hollera (die)</t>
+  </si>
+  <si>
+    <t>Erdäpfel (die)</t>
+  </si>
+  <si>
+    <t>Rolli (der)</t>
+  </si>
+  <si>
+    <t>Scheermaus (die)</t>
+  </si>
+  <si>
+    <t>Mohr (die)</t>
+  </si>
+  <si>
+    <t>Getti (der)</t>
+  </si>
+  <si>
+    <t>Riemen (der)</t>
+  </si>
+  <si>
+    <t>Spatz (der)</t>
+  </si>
+  <si>
+    <t>Krüselbeere (die)</t>
+  </si>
+  <si>
+    <t>Gufa (die)</t>
+  </si>
+  <si>
+    <t>Hafen (der)</t>
+  </si>
+  <si>
+    <t>zweigen</t>
+  </si>
+  <si>
+    <t>Geiß (die)</t>
+  </si>
+  <si>
+    <t>III_17_0030</t>
+  </si>
+  <si>
+    <t>x-m</t>
+  </si>
+  <si>
+    <t>Largitzen</t>
+  </si>
+  <si>
+    <t>Georg Wörz</t>
+  </si>
+  <si>
+    <t>Karlsruhe</t>
+  </si>
+  <si>
+    <t>Liich</t>
+  </si>
+  <si>
+    <t>Dißl</t>
+  </si>
+  <si>
+    <t>Ägerste</t>
+  </si>
+  <si>
+    <t>Flädermüs</t>
+  </si>
+  <si>
+    <t>Ahmd</t>
+  </si>
+  <si>
+    <t>Budde (w)</t>
+  </si>
+  <si>
+    <t>Guggl, Huen</t>
+  </si>
+  <si>
+    <t>Holder (m)</t>
+  </si>
+  <si>
+    <t>Schaer (m)</t>
+  </si>
+  <si>
+    <t>Gelrübe (w)</t>
+  </si>
+  <si>
+    <t>Godde (m)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pflume </t>
+  </si>
+  <si>
+    <t>lärme, a[b]rüle, händle</t>
+  </si>
+  <si>
+    <t>Sschbatz</t>
+  </si>
+  <si>
+    <t>Grüslbeere {ist in Klammern}</t>
+  </si>
+  <si>
+    <t>Stupfnodl</t>
+  </si>
+  <si>
+    <t>Stricknodl</t>
+  </si>
+  <si>
+    <t>Schüssl</t>
+  </si>
+  <si>
+    <t>umzwiege</t>
+  </si>
+  <si>
+    <t>III_17_0031</t>
+  </si>
+  <si>
+    <t>Pfetterhausen</t>
+  </si>
+  <si>
+    <t>Peter Morand</t>
+  </si>
+  <si>
+    <t>Bromelen, Brombeeren</t>
+  </si>
+  <si>
+    <t>Agerste</t>
+  </si>
+  <si>
+    <t>Gagummer[e]</t>
+  </si>
+  <si>
+    <t>Schaar</t>
+  </si>
+  <si>
+    <t>Gett[i] {könnte auch a sein}</t>
+  </si>
+  <si>
+    <t>schelten, verplappern {in Klammern}</t>
+  </si>
+  <si>
+    <t>[Re]äuselbeeren</t>
+  </si>
+  <si>
+    <t>[?]nter Tellerlein</t>
+  </si>
+  <si>
+    <t>III_17_0032</t>
+  </si>
+  <si>
+    <t>x-F</t>
+  </si>
+  <si>
+    <t>Ob. Elsaß</t>
+  </si>
+  <si>
+    <t>Theodor Loewert</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> i. Els.</t>
+  </si>
+  <si>
+    <t>Th. Loewert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Licht (eine), Leiche </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bromere  </t>
+  </si>
+  <si>
+    <t>Agerschte</t>
+  </si>
+  <si>
+    <t>Entengaager, Ratsch</t>
+  </si>
+  <si>
+    <t>Ähmt, Ohmt</t>
+  </si>
+  <si>
+    <t>Gugumere</t>
+  </si>
+  <si>
+    <t>Hewamme</t>
+  </si>
+  <si>
+    <t>Gückel, Huhn</t>
+  </si>
+  <si>
+    <t>Hollere</t>
+  </si>
+  <si>
+    <t>Hardäpfel &lt;Erd…&gt;</t>
+  </si>
+  <si>
+    <t>Rollli</t>
+  </si>
+  <si>
+    <t>Gälrübe</t>
+  </si>
+  <si>
+    <t>Riěme</t>
+  </si>
+  <si>
+    <t>schelten</t>
+  </si>
+  <si>
+    <t>Grüßele</t>
+  </si>
+  <si>
+    <t>Guffe</t>
+  </si>
+  <si>
+    <t>Stricknodel</t>
+  </si>
+  <si>
+    <t>Tasse, Schissele</t>
+  </si>
+  <si>
+    <t>III_17_0033</t>
+  </si>
+  <si>
+    <t>x-L</t>
+  </si>
+  <si>
+    <t>Steinsulz</t>
+  </si>
+  <si>
+    <t>Sundgau, Elsaß</t>
+  </si>
+  <si>
+    <t>Kurt Thielemann</t>
+  </si>
+  <si>
+    <t>Ravensburg</t>
+  </si>
+  <si>
+    <t>Württ.</t>
+  </si>
+  <si>
+    <t>K. Thielmann und Schüler</t>
+  </si>
+  <si>
+    <t>Omaiserle (s)</t>
+  </si>
+  <si>
+    <t>vergröbe</t>
+  </si>
+  <si>
+    <t>Disel (w)</t>
+  </si>
+  <si>
+    <t>Brumbäre (w)</t>
+  </si>
+  <si>
+    <t>Ōgerste (w)</t>
+  </si>
+  <si>
+    <t>Ōnderatsch (m)</t>
+  </si>
+  <si>
+    <t>Flōdermüs (w)</t>
+  </si>
+  <si>
+    <t>Gugumme[re] (w)</t>
+  </si>
+  <si>
+    <t>Gockel (m), Hüen (w)</t>
+  </si>
+  <si>
+    <t>Hebomm (w)</t>
+  </si>
+  <si>
+    <t>Schoor (m) {Strich über beide Os}</t>
+  </si>
+  <si>
+    <t>Gallerüebe (w)</t>
+  </si>
+  <si>
+    <t>Müedersoi (w)</t>
+  </si>
+  <si>
+    <t>Gedde (m)</t>
+  </si>
+  <si>
+    <t>Pflüeme (w)</t>
+  </si>
+  <si>
+    <t>Suhnsfräu (w)</t>
+  </si>
+  <si>
+    <t>Krüselbeere (w)</t>
+  </si>
+  <si>
+    <t>Gufer (w)</t>
+  </si>
+  <si>
+    <t>Dassele (s)</t>
+  </si>
+  <si>
+    <t>Hōfe (m)</t>
+  </si>
+  <si>
+    <t>III_17_0034</t>
+  </si>
+  <si>
+    <t>x-P</t>
+  </si>
+  <si>
+    <t>Wenzweiler</t>
+  </si>
+  <si>
+    <t>Mülhausen  Ob. Elsaß</t>
+  </si>
+  <si>
+    <t>H. N[ut]zger</t>
+  </si>
+  <si>
+    <t>Geisingen</t>
+  </si>
+  <si>
+    <t>Amt Donauerdingen</t>
+  </si>
+  <si>
+    <t>Bernhard Manner</t>
+  </si>
+  <si>
+    <t>Aumaisala</t>
+  </si>
+  <si>
+    <t>Brom[el]a</t>
+  </si>
+  <si>
+    <t>Agarsta</t>
+  </si>
+  <si>
+    <t>G[u]ger</t>
+  </si>
+  <si>
+    <t>Ämd</t>
+  </si>
+  <si>
+    <t>Gågumere</t>
+  </si>
+  <si>
+    <t>Bute</t>
+  </si>
+  <si>
+    <t>Gukel, Huen</t>
+  </si>
+  <si>
+    <t>Choleraba</t>
+  </si>
+  <si>
+    <t>Pflaume, Chriecha {in Klammern}</t>
+  </si>
+  <si>
+    <t>Geti</t>
+  </si>
+  <si>
+    <t>Chriselbeere</t>
+  </si>
+  <si>
+    <t>Stricknodla</t>
+  </si>
+  <si>
+    <t>Schisali, Dallerli</t>
+  </si>
+  <si>
+    <t>Håfe</t>
+  </si>
+  <si>
+    <t>zwig[e]</t>
+  </si>
+  <si>
+    <t>&lt;å ist a das nach o klingt&gt;, &lt;å ist a das auch o ist&gt;</t>
+  </si>
+  <si>
+    <t>III_17_0035</t>
+  </si>
+  <si>
+    <t>x-W</t>
+  </si>
+  <si>
+    <t>Hegenheim</t>
+  </si>
+  <si>
+    <t>[Torrin] Mohr</t>
+  </si>
+  <si>
+    <t>Unterschwarzach</t>
+  </si>
+  <si>
+    <t>Gabriele Schmitt</t>
+  </si>
+  <si>
+    <t>Aumasala</t>
+  </si>
+  <si>
+    <t>Brumbeiri</t>
+  </si>
+  <si>
+    <t>Begräbnis, Bear[d]igung</t>
+  </si>
+  <si>
+    <t>[?]nda, Ratsch</t>
+  </si>
+  <si>
+    <t>Öemt, Ä</t>
+  </si>
+  <si>
+    <t>Ga[o]gumara</t>
+  </si>
+  <si>
+    <t>Gugel, Glugeri</t>
+  </si>
+  <si>
+    <t>Heibaom</t>
+  </si>
+  <si>
+    <t>Hia[ne]räug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hartäpfel  </t>
+  </si>
+  <si>
+    <t>Maurre[a]ba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maur  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gädi  </t>
+  </si>
+  <si>
+    <t>Reima</t>
+  </si>
+  <si>
+    <t>Pfüma</t>
+  </si>
+  <si>
+    <t>Spaotz</t>
+  </si>
+  <si>
+    <t>Chrüselbeiri</t>
+  </si>
+  <si>
+    <t>Streknaudla</t>
+  </si>
+  <si>
+    <t>Steknaudla</t>
+  </si>
+  <si>
+    <t>Taosa</t>
+  </si>
+  <si>
+    <t>ardiga Haofa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;Merke: das o spricht sich "au" aus. z.B. Brot= Braut. Das K wird ch: z.B. Kaba = Chaba.&gt; </t>
   </si>
 </sst>
 </file>
@@ -2347,7 +3031,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2363,6 +3047,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading" xfId="1"/>
@@ -2673,7 +3358,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2681,10 +3366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BB23"/>
+  <dimension ref="A1:BB33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2704,18 +3389,18 @@
     <col min="13" max="13" width="10.75" customWidth="1"/>
     <col min="14" max="14" width="18.875" customWidth="1"/>
     <col min="15" max="15" width="15.25" customWidth="1"/>
-    <col min="16" max="16" width="14.875" customWidth="1"/>
-    <col min="17" max="17" width="18.25" customWidth="1"/>
+    <col min="16" max="16" width="17.5" customWidth="1"/>
+    <col min="17" max="17" width="19.875" customWidth="1"/>
     <col min="18" max="18" width="22.5" customWidth="1"/>
     <col min="19" max="19" width="23.75" customWidth="1"/>
     <col min="20" max="20" width="15.5" customWidth="1"/>
     <col min="21" max="21" width="38.75" style="1" customWidth="1"/>
-    <col min="22" max="22" width="15.5" customWidth="1"/>
+    <col min="22" max="22" width="31.375" customWidth="1"/>
     <col min="23" max="23" width="26.125" customWidth="1"/>
-    <col min="24" max="24" width="17.125" customWidth="1"/>
+    <col min="24" max="24" width="20" customWidth="1"/>
     <col min="25" max="25" width="25.25" customWidth="1"/>
-    <col min="26" max="26" width="14.875" customWidth="1"/>
-    <col min="27" max="27" width="17.125" customWidth="1"/>
+    <col min="26" max="26" width="30.375" customWidth="1"/>
+    <col min="27" max="27" width="19" customWidth="1"/>
     <col min="28" max="28" width="16" customWidth="1"/>
     <col min="29" max="29" width="15.75" customWidth="1"/>
     <col min="30" max="30" width="28.75" customWidth="1"/>
@@ -2723,14 +3408,15 @@
     <col min="32" max="32" width="16.625" customWidth="1"/>
     <col min="33" max="33" width="25.75" customWidth="1"/>
     <col min="34" max="34" width="57.75" customWidth="1"/>
-    <col min="35" max="35" width="13.375" customWidth="1"/>
+    <col min="35" max="35" width="17" customWidth="1"/>
     <col min="36" max="36" width="37.25" customWidth="1"/>
-    <col min="37" max="37" width="19.625" customWidth="1"/>
+    <col min="37" max="37" width="29.375" customWidth="1"/>
     <col min="38" max="38" width="16.875" customWidth="1"/>
     <col min="39" max="39" width="17.875" customWidth="1"/>
-    <col min="40" max="40" width="13.125" customWidth="1"/>
-    <col min="41" max="42" width="13.375" customWidth="1"/>
-    <col min="43" max="43" width="17.625" customWidth="1"/>
+    <col min="40" max="40" width="23.625" customWidth="1"/>
+    <col min="41" max="41" width="13.375" customWidth="1"/>
+    <col min="42" max="42" width="32.875" customWidth="1"/>
+    <col min="43" max="43" width="30.375" customWidth="1"/>
     <col min="44" max="44" width="42.125" customWidth="1"/>
     <col min="45" max="45" width="40.875" customWidth="1"/>
     <col min="46" max="46" width="13" customWidth="1"/>
@@ -3055,7 +3741,7 @@
         <v>84</v>
       </c>
       <c r="AW2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AX2" t="s">
         <v>85</v>
@@ -3225,10 +3911,10 @@
         <v>128</v>
       </c>
       <c r="AY3" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="AZ3" s="12" t="s">
         <v>129</v>
-      </c>
-      <c r="AZ3" s="12" t="s">
-        <v>130</v>
       </c>
       <c r="BA3" s="1" t="s">
         <v>127</v>
@@ -3257,7 +3943,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H4" t="s">
         <v>90</v>
@@ -3269,10 +3955,10 @@
         <v>47.3</v>
       </c>
       <c r="K4" t="s">
+        <v>131</v>
+      </c>
+      <c r="L4" t="s">
         <v>132</v>
-      </c>
-      <c r="L4" t="s">
-        <v>133</v>
       </c>
       <c r="M4">
         <v>999</v>
@@ -3284,118 +3970,118 @@
         <v>93</v>
       </c>
       <c r="P4" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q4" t="s">
         <v>134</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4">
+        <v>999</v>
+      </c>
+      <c r="S4" t="s">
         <v>135</v>
-      </c>
-      <c r="R4">
-        <v>999</v>
-      </c>
-      <c r="S4" t="s">
-        <v>136</v>
       </c>
       <c r="T4" t="s">
         <v>97</v>
       </c>
       <c r="U4" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="V4" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="V4" s="12" t="s">
+      <c r="W4" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="W4" s="12" t="s">
+      <c r="X4" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="X4" s="12" t="s">
+      <c r="Y4" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="Y4" s="12" t="s">
+      <c r="Z4" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="Z4" s="12" t="s">
+      <c r="AA4" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="AA4" s="12" t="s">
+      <c r="AB4" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="AB4" s="12" t="s">
+      <c r="AC4" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="AC4" s="12" t="s">
+      <c r="AD4" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="AD4" s="12" t="s">
+      <c r="AE4" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="AE4" s="12" t="s">
+      <c r="AF4" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="AF4" s="12" t="s">
+      <c r="AG4" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="AG4" s="12" t="s">
+      <c r="AH4" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="AH4" s="12" t="s">
+      <c r="AI4" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="AJ4" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="AK4" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="AL4" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="AM4" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="AN4" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="AO4" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="AP4" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="AQ4" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="AR4" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="AS4" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="AT4" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="AU4" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="AV4" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="AW4" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="AX4" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="AY4" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="AZ4" t="s">
         <v>150</v>
       </c>
-      <c r="AI4" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="AJ4" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="AK4" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="AL4" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="AM4" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="AN4" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="AO4" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="AP4" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="AQ4" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="AR4" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="AS4" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="AT4" s="12" t="s">
+      <c r="BA4" s="13" t="s">
         <v>163</v>
-      </c>
-      <c r="AU4" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="AV4" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="AW4" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="AX4" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="AY4" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>151</v>
-      </c>
-      <c r="BA4" s="13" t="s">
-        <v>164</v>
       </c>
       <c r="BB4">
         <v>999</v>
@@ -3421,10 +4107,10 @@
         <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I5" s="9">
         <v>24.5</v>
@@ -3433,133 +4119,133 @@
         <v>47.3</v>
       </c>
       <c r="K5" t="s">
+        <v>170</v>
+      </c>
+      <c r="L5" t="s">
         <v>171</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5">
+        <v>999</v>
+      </c>
+      <c r="N5" t="s">
+        <v>173</v>
+      </c>
+      <c r="O5" t="s">
         <v>172</v>
       </c>
-      <c r="M5">
-        <v>999</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="P5" t="s">
         <v>174</v>
       </c>
-      <c r="O5" t="s">
-        <v>173</v>
-      </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>175</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>176</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>177</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>178</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="U5" s="1" t="s">
+      <c r="V5" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="V5" s="12" t="s">
+      <c r="W5" s="12" t="s">
         <v>181</v>
-      </c>
-      <c r="W5" s="12" t="s">
-        <v>182</v>
       </c>
       <c r="X5" s="12" t="s">
         <v>63</v>
       </c>
       <c r="Y5" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="Z5" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="Z5" s="12" t="s">
+      <c r="AA5" s="12" t="s">
         <v>184</v>
-      </c>
-      <c r="AA5" s="12" t="s">
-        <v>185</v>
       </c>
       <c r="AB5" s="12" t="s">
         <v>66</v>
       </c>
       <c r="AC5" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="AD5" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="AD5" s="12" t="s">
+      <c r="AE5" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="AF5" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="AE5" s="12" t="s">
+      <c r="AG5" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="AF5" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="AG5" s="12" t="s">
+      <c r="AH5" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="AH5" s="12" t="s">
-        <v>191</v>
-      </c>
       <c r="AI5" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="AJ5" s="12" t="s">
         <v>193</v>
-      </c>
-      <c r="AJ5" s="12" t="s">
-        <v>194</v>
       </c>
       <c r="AK5" s="12" t="s">
         <v>73</v>
       </c>
       <c r="AL5" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="AM5" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="AM5" s="12" t="s">
+      <c r="AN5" s="12" t="s">
         <v>196</v>
-      </c>
-      <c r="AN5" s="12" t="s">
-        <v>197</v>
       </c>
       <c r="AO5" s="12" t="s">
         <v>77</v>
       </c>
       <c r="AP5" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="AQ5" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="AQ5" s="12" t="s">
+      <c r="AR5" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="AR5" s="12" t="s">
-        <v>200</v>
-      </c>
       <c r="AS5" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="AT5" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="AT5" s="12" t="s">
+      <c r="AU5" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="AU5" s="12" t="s">
+      <c r="AV5" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="AV5" s="12" t="s">
+      <c r="AW5" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="AW5" s="12" t="s">
+      <c r="AX5" s="12" t="s">
         <v>206</v>
-      </c>
-      <c r="AX5" s="12" t="s">
-        <v>207</v>
       </c>
       <c r="AY5" s="1" t="s">
         <v>86</v>
       </c>
       <c r="AZ5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="BA5" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="BB5">
         <v>999</v>
@@ -3585,10 +4271,10 @@
         <v>5</v>
       </c>
       <c r="G6" t="s">
+        <v>207</v>
+      </c>
+      <c r="H6" t="s">
         <v>208</v>
-      </c>
-      <c r="H6" t="s">
-        <v>209</v>
       </c>
       <c r="I6" s="9">
         <v>24.5</v>
@@ -3597,10 +4283,10 @@
         <v>47.3</v>
       </c>
       <c r="K6" t="s">
+        <v>209</v>
+      </c>
+      <c r="L6" t="s">
         <v>210</v>
-      </c>
-      <c r="L6" t="s">
-        <v>211</v>
       </c>
       <c r="M6">
         <v>999</v>
@@ -3612,118 +4298,118 @@
         <v>93</v>
       </c>
       <c r="P6" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q6" t="s">
         <v>212</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6">
+        <v>999</v>
+      </c>
+      <c r="S6">
+        <v>999</v>
+      </c>
+      <c r="T6">
+        <v>999</v>
+      </c>
+      <c r="U6" s="1">
+        <v>999</v>
+      </c>
+      <c r="V6" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="R6">
-        <v>999</v>
-      </c>
-      <c r="S6">
-        <v>999</v>
-      </c>
-      <c r="T6">
-        <v>999</v>
-      </c>
-      <c r="U6" s="1">
-        <v>999</v>
-      </c>
-      <c r="V6" s="12" t="s">
+      <c r="W6" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="W6" s="12" t="s">
+      <c r="X6" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="X6" s="12" t="s">
+      <c r="Y6" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="Y6" s="12" t="s">
+      <c r="Z6" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="Z6" s="12" t="s">
+      <c r="AA6" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="AA6" s="12" t="s">
+      <c r="AB6" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="AB6" s="12" t="s">
+      <c r="AC6" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="AC6" s="12" t="s">
+      <c r="AD6" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="AD6" s="12" t="s">
+      <c r="AE6" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="AE6" s="12" t="s">
+      <c r="AF6" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="AF6" s="12" t="s">
+      <c r="AG6" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="AG6" s="12" t="s">
-        <v>225</v>
-      </c>
       <c r="AH6" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AI6" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="AJ6" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="AJ6" s="12" t="s">
+      <c r="AK6" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="AK6" s="12" t="s">
+      <c r="AL6" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="AL6" s="12" t="s">
+      <c r="AM6" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="AM6" s="12" t="s">
+      <c r="AN6" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="AN6" s="12" t="s">
+      <c r="AO6" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="AO6" s="12" t="s">
+      <c r="AP6" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="AP6" s="12" t="s">
+      <c r="AQ6" s="12" t="s">
         <v>234</v>
-      </c>
-      <c r="AQ6" s="12" t="s">
-        <v>235</v>
       </c>
       <c r="AR6" s="12" t="s">
         <v>80</v>
       </c>
       <c r="AS6" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="AT6" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="AT6" s="12" t="s">
+      <c r="AU6" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="AU6" s="12" t="s">
+      <c r="AV6" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="AV6" s="12" t="s">
+      <c r="AW6" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="AW6" s="12" t="s">
+      <c r="AX6" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="AX6" s="12" t="s">
-        <v>242</v>
-      </c>
       <c r="AY6" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AZ6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="BA6" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BB6">
         <v>999</v>
@@ -3749,10 +4435,10 @@
         <v>7</v>
       </c>
       <c r="G7" t="s">
+        <v>242</v>
+      </c>
+      <c r="H7" t="s">
         <v>243</v>
-      </c>
-      <c r="H7" t="s">
-        <v>244</v>
       </c>
       <c r="I7" s="9">
         <v>24.5</v>
@@ -3761,10 +4447,10 @@
         <v>47.3</v>
       </c>
       <c r="K7" t="s">
+        <v>244</v>
+      </c>
+      <c r="L7" t="s">
         <v>245</v>
-      </c>
-      <c r="L7" t="s">
-        <v>246</v>
       </c>
       <c r="M7">
         <v>999</v>
@@ -3773,121 +4459,121 @@
         <v>92</v>
       </c>
       <c r="O7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P7" t="s">
         <v>247</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>248</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7">
+        <v>999</v>
+      </c>
+      <c r="S7" t="s">
         <v>249</v>
-      </c>
-      <c r="R7">
-        <v>999</v>
-      </c>
-      <c r="S7" t="s">
-        <v>250</v>
       </c>
       <c r="T7" t="s">
         <v>97</v>
       </c>
       <c r="U7" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="V7" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="W7" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="X7" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y7" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="Z7" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="AA7" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB7" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="AC7" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="AD7" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="AE7" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="AF7" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="AG7" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="AH7" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="AI7" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="AJ7" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="AK7" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="AL7" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="AM7" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="AN7" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="AO7" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="AP7" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="AQ7" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="AR7" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="AS7" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="AT7" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="AU7" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="AV7" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="AW7" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="AX7" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="AY7" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>252</v>
+      </c>
+      <c r="BA7" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="V7" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="W7" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="X7" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="Y7" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="Z7" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="AA7" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="AB7" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="AC7" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="AD7" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="AE7" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="AF7" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="AG7" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="AH7" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="AI7" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="AJ7" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="AK7" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="AL7" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="AM7" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="AN7" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="AO7" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="AP7" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AQ7" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="AR7" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="AS7" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="AT7" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="AU7" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="AV7" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="AW7" s="12" t="s">
-        <v>279</v>
-      </c>
-      <c r="AX7" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="AY7" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="AZ7" t="s">
-        <v>253</v>
-      </c>
-      <c r="BA7" s="1" t="s">
-        <v>252</v>
       </c>
       <c r="BB7">
         <v>999</v>
@@ -3913,7 +4599,7 @@
         <v>9</v>
       </c>
       <c r="G8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H8" t="s">
         <v>90</v>
@@ -3925,10 +4611,10 @@
         <v>47.3</v>
       </c>
       <c r="K8" t="s">
+        <v>283</v>
+      </c>
+      <c r="L8" t="s">
         <v>284</v>
-      </c>
-      <c r="L8" t="s">
-        <v>285</v>
       </c>
       <c r="M8">
         <v>999</v>
@@ -3937,13 +4623,13 @@
         <v>92</v>
       </c>
       <c r="O8" t="s">
+        <v>285</v>
+      </c>
+      <c r="P8" t="s">
         <v>286</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>287</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>288</v>
       </c>
       <c r="R8">
         <v>999</v>
@@ -3955,103 +4641,103 @@
         <v>97</v>
       </c>
       <c r="U8" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="V8" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="W8" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="V8" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="W8" s="12" t="s">
+      <c r="X8" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="X8" s="12" t="s">
+      <c r="Y8" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="Z8" s="12" t="s">
         <v>291</v>
       </c>
-      <c r="Y8" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="Z8" s="12" t="s">
+      <c r="AA8" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="AB8" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="AA8" s="12" t="s">
+      <c r="AC8" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD8" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="AB8" s="12" t="s">
-        <v>293</v>
-      </c>
-      <c r="AC8" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="AD8" s="12" t="s">
+      <c r="AE8" s="12" t="s">
         <v>295</v>
       </c>
-      <c r="AE8" s="12" t="s">
+      <c r="AF8" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="AF8" s="12" t="s">
+      <c r="AG8" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="AG8" s="12" t="s">
+      <c r="AH8" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="AI8" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="AJ8" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="AK8" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="AL8" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="AM8" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="AN8" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="AO8" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="AP8" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="AQ8" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="AR8" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="AS8" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="AT8" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="AU8" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="AV8" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="AW8" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="AX8" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="AY8" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="AZ8" t="s">
         <v>298</v>
       </c>
-      <c r="AH8" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="AI8" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="AJ8" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="AK8" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="AL8" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="AM8" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="AN8" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="AO8" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="AP8" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="AQ8" s="12" t="s">
+      <c r="BA8" s="1" t="s">
         <v>307</v>
-      </c>
-      <c r="AR8" s="12" t="s">
-        <v>309</v>
-      </c>
-      <c r="AS8" s="12" t="s">
-        <v>310</v>
-      </c>
-      <c r="AT8" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="AU8" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="AV8" s="12" t="s">
-        <v>313</v>
-      </c>
-      <c r="AW8" s="12" t="s">
-        <v>279</v>
-      </c>
-      <c r="AX8" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="AY8" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="AZ8" t="s">
-        <v>299</v>
-      </c>
-      <c r="BA8" s="1" t="s">
-        <v>308</v>
       </c>
       <c r="BB8">
         <v>999</v>
@@ -4077,7 +4763,7 @@
         <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H9" t="s">
         <v>57</v>
@@ -4089,10 +4775,10 @@
         <v>47.3</v>
       </c>
       <c r="K9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="L9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="M9">
         <v>999</v>
@@ -4101,22 +4787,22 @@
         <v>92</v>
       </c>
       <c r="O9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="P9" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q9" t="s">
         <v>320</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9">
+        <v>999</v>
+      </c>
+      <c r="S9">
+        <v>999</v>
+      </c>
+      <c r="T9" t="s">
         <v>321</v>
-      </c>
-      <c r="R9">
-        <v>999</v>
-      </c>
-      <c r="S9">
-        <v>999</v>
-      </c>
-      <c r="T9" t="s">
-        <v>322</v>
       </c>
       <c r="U9" s="1">
         <v>999</v>
@@ -4125,97 +4811,97 @@
         <v>61</v>
       </c>
       <c r="W9" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="X9" s="12" t="s">
         <v>323</v>
       </c>
-      <c r="X9" s="12" t="s">
+      <c r="Y9" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z9" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="Y9" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="Z9" s="12" t="s">
+      <c r="AA9" s="12" t="s">
         <v>325</v>
-      </c>
-      <c r="AA9" s="12" t="s">
-        <v>326</v>
       </c>
       <c r="AB9" s="12" t="s">
         <v>66</v>
       </c>
       <c r="AC9" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="AD9" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="AD9" s="12" t="s">
+      <c r="AE9" s="12" t="s">
         <v>328</v>
       </c>
-      <c r="AE9" s="12" t="s">
+      <c r="AF9" s="12" t="s">
         <v>329</v>
       </c>
-      <c r="AF9" s="12" t="s">
+      <c r="AG9" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="AG9" s="12" t="s">
-        <v>331</v>
-      </c>
       <c r="AH9" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AI9" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="AJ9" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="AK9" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="AJ9" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="AK9" s="12" t="s">
+      <c r="AL9" s="12" t="s">
         <v>334</v>
       </c>
-      <c r="AL9" s="12" t="s">
+      <c r="AM9" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="AM9" s="12" t="s">
+      <c r="AN9" s="12" t="s">
         <v>336</v>
       </c>
-      <c r="AN9" s="12" t="s">
+      <c r="AO9" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="AP9" s="12" t="s">
         <v>337</v>
       </c>
-      <c r="AO9" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="AP9" s="12" t="s">
+      <c r="AQ9" s="12" t="s">
         <v>338</v>
-      </c>
-      <c r="AQ9" s="12" t="s">
-        <v>339</v>
       </c>
       <c r="AR9" s="12" t="s">
         <v>80</v>
       </c>
       <c r="AS9" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="AT9" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="AT9" s="12" t="s">
+      <c r="AU9" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="AV9" s="12" t="s">
         <v>342</v>
       </c>
-      <c r="AU9" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="AV9" s="12" t="s">
+      <c r="AW9" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="AX9" s="12" t="s">
         <v>343</v>
-      </c>
-      <c r="AW9" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="AX9" s="12" t="s">
-        <v>344</v>
       </c>
       <c r="AY9" s="1" t="s">
         <v>86</v>
       </c>
       <c r="AZ9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="BA9" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="BB9">
         <v>999</v>
@@ -4241,7 +4927,7 @@
         <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H10" t="s">
         <v>90</v>
@@ -4253,10 +4939,10 @@
         <v>47.3</v>
       </c>
       <c r="K10" t="s">
+        <v>345</v>
+      </c>
+      <c r="L10" t="s">
         <v>346</v>
-      </c>
-      <c r="L10" t="s">
-        <v>347</v>
       </c>
       <c r="M10">
         <v>999</v>
@@ -4268,118 +4954,118 @@
         <v>999</v>
       </c>
       <c r="P10" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>248</v>
+      </c>
+      <c r="R10">
+        <v>999</v>
+      </c>
+      <c r="S10">
+        <v>999</v>
+      </c>
+      <c r="T10" t="s">
+        <v>321</v>
+      </c>
+      <c r="U10" s="1">
+        <v>999</v>
+      </c>
+      <c r="V10" s="12" t="s">
         <v>348</v>
       </c>
-      <c r="Q10" t="s">
-        <v>249</v>
-      </c>
-      <c r="R10">
-        <v>999</v>
-      </c>
-      <c r="S10">
-        <v>999</v>
-      </c>
-      <c r="T10" t="s">
-        <v>322</v>
-      </c>
-      <c r="U10" s="1">
-        <v>999</v>
-      </c>
-      <c r="V10" s="12" t="s">
+      <c r="W10" s="12" t="s">
         <v>349</v>
       </c>
-      <c r="W10" s="12" t="s">
+      <c r="X10" s="12" t="s">
         <v>350</v>
       </c>
-      <c r="X10" s="12" t="s">
+      <c r="Y10" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="Z10" s="12" t="s">
         <v>351</v>
       </c>
-      <c r="Y10" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="Z10" s="12" t="s">
+      <c r="AA10" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB10" s="12" t="s">
         <v>352</v>
       </c>
-      <c r="AA10" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="AB10" s="12" t="s">
+      <c r="AC10" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="AD10" s="12" t="s">
         <v>353</v>
       </c>
-      <c r="AC10" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="AD10" s="12" t="s">
+      <c r="AE10" s="12" t="s">
         <v>354</v>
       </c>
-      <c r="AE10" s="12" t="s">
+      <c r="AF10" s="12" t="s">
         <v>355</v>
       </c>
-      <c r="AF10" s="12" t="s">
+      <c r="AG10" s="12" t="s">
         <v>356</v>
       </c>
-      <c r="AG10" s="12" t="s">
+      <c r="AH10" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="AI10" s="12" t="s">
         <v>357</v>
       </c>
-      <c r="AH10" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="AI10" s="12" t="s">
+      <c r="AJ10" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="AK10" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="AL10" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="AM10" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="AN10" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="AO10" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="AP10" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="AQ10" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="AR10" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="AS10" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="AT10" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="AU10" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="AV10" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="AW10" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="AX10" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="AY10" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="AZ10" t="s">
         <v>358</v>
       </c>
-      <c r="AJ10" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="AK10" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="AL10" s="12" t="s">
-        <v>360</v>
-      </c>
-      <c r="AM10" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="AN10" s="12" t="s">
-        <v>361</v>
-      </c>
-      <c r="AO10" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="AP10" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="AQ10" s="12" t="s">
+      <c r="BA10" s="1" t="s">
         <v>362</v>
-      </c>
-      <c r="AR10" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="AS10" s="12" t="s">
-        <v>365</v>
-      </c>
-      <c r="AT10" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="AU10" s="12" t="s">
-        <v>366</v>
-      </c>
-      <c r="AV10" s="12" t="s">
-        <v>367</v>
-      </c>
-      <c r="AW10" s="12" t="s">
-        <v>368</v>
-      </c>
-      <c r="AX10" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="AY10" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="AZ10" t="s">
-        <v>359</v>
-      </c>
-      <c r="BA10" s="1" t="s">
-        <v>363</v>
       </c>
       <c r="BB10">
         <v>999</v>
@@ -4405,7 +5091,7 @@
         <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H11" t="s">
         <v>90</v>
@@ -4417,10 +5103,10 @@
         <v>47.3</v>
       </c>
       <c r="K11" t="s">
+        <v>371</v>
+      </c>
+      <c r="L11" t="s">
         <v>372</v>
-      </c>
-      <c r="L11" t="s">
-        <v>373</v>
       </c>
       <c r="M11">
         <v>999</v>
@@ -4429,118 +5115,118 @@
         <v>92</v>
       </c>
       <c r="O11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P11" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>375</v>
+      </c>
+      <c r="R11">
+        <v>999</v>
+      </c>
+      <c r="S11" t="s">
         <v>374</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="T11">
+        <v>999</v>
+      </c>
+      <c r="U11" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="R11">
-        <v>999</v>
-      </c>
-      <c r="S11" t="s">
-        <v>375</v>
-      </c>
-      <c r="T11">
-        <v>999</v>
-      </c>
-      <c r="U11" s="1" t="s">
+      <c r="V11" s="12" t="s">
         <v>377</v>
       </c>
-      <c r="V11" s="12" t="s">
+      <c r="W11" s="12" t="s">
         <v>378</v>
       </c>
-      <c r="W11" s="12" t="s">
+      <c r="X11" s="12" t="s">
         <v>379</v>
       </c>
-      <c r="X11" s="12" t="s">
-        <v>380</v>
-      </c>
       <c r="Y11" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Z11" s="12" t="s">
         <v>65</v>
       </c>
       <c r="AA11" s="12" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AB11" s="12" t="s">
         <v>66</v>
       </c>
       <c r="AC11" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AD11" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="AE11" s="12" t="s">
         <v>382</v>
       </c>
-      <c r="AE11" s="12" t="s">
+      <c r="AF11" s="12" t="s">
         <v>383</v>
       </c>
-      <c r="AF11" s="12" t="s">
+      <c r="AG11" s="12" t="s">
         <v>384</v>
       </c>
-      <c r="AG11" s="12" t="s">
+      <c r="AH11" s="12" t="s">
         <v>385</v>
       </c>
-      <c r="AH11" s="12" t="s">
-        <v>386</v>
-      </c>
       <c r="AI11" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AJ11" s="12" t="s">
         <v>72</v>
       </c>
       <c r="AK11" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="AL11" s="12" t="s">
         <v>389</v>
       </c>
-      <c r="AL11" s="12" t="s">
+      <c r="AM11" s="12" t="s">
         <v>390</v>
       </c>
-      <c r="AM11" s="12" t="s">
+      <c r="AN11" s="12" t="s">
         <v>391</v>
-      </c>
-      <c r="AN11" s="12" t="s">
-        <v>392</v>
       </c>
       <c r="AO11" s="12" t="s">
         <v>77</v>
       </c>
       <c r="AP11" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AQ11" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AR11" s="12" t="s">
         <v>80</v>
       </c>
       <c r="AS11" s="12" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AT11" s="12" t="s">
         <v>82</v>
       </c>
       <c r="AU11" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="AV11" s="12" t="s">
         <v>394</v>
       </c>
-      <c r="AV11" s="12" t="s">
+      <c r="AW11" s="12" t="s">
         <v>395</v>
       </c>
-      <c r="AW11" s="12" t="s">
-        <v>396</v>
-      </c>
       <c r="AX11" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AY11" s="1" t="s">
         <v>86</v>
       </c>
       <c r="AZ11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="BA11" s="1" t="s">
         <v>88</v>
@@ -4569,10 +5255,10 @@
         <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I12" s="9">
         <v>24.5</v>
@@ -4581,10 +5267,10 @@
         <v>47.3</v>
       </c>
       <c r="K12" t="s">
+        <v>396</v>
+      </c>
+      <c r="L12" t="s">
         <v>397</v>
-      </c>
-      <c r="L12" t="s">
-        <v>398</v>
       </c>
       <c r="M12">
         <v>999</v>
@@ -4593,124 +5279,124 @@
         <v>92</v>
       </c>
       <c r="O12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P12" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q12" t="s">
         <v>399</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12">
+        <v>999</v>
+      </c>
+      <c r="S12">
+        <v>999</v>
+      </c>
+      <c r="T12" t="s">
+        <v>178</v>
+      </c>
+      <c r="U12" s="1">
+        <v>999</v>
+      </c>
+      <c r="V12" s="12" t="s">
         <v>400</v>
       </c>
-      <c r="R12">
-        <v>999</v>
-      </c>
-      <c r="S12">
-        <v>999</v>
-      </c>
-      <c r="T12" t="s">
-        <v>179</v>
-      </c>
-      <c r="U12" s="1">
-        <v>999</v>
-      </c>
-      <c r="V12" s="12" t="s">
+      <c r="W12" s="12" t="s">
         <v>401</v>
       </c>
-      <c r="W12" s="12" t="s">
+      <c r="X12" s="12" t="s">
         <v>402</v>
       </c>
-      <c r="X12" s="12" t="s">
+      <c r="Y12" s="12" t="s">
         <v>403</v>
       </c>
-      <c r="Y12" s="12" t="s">
+      <c r="Z12" s="12" t="s">
         <v>404</v>
       </c>
-      <c r="Z12" s="12" t="s">
+      <c r="AA12" s="12" t="s">
         <v>405</v>
-      </c>
-      <c r="AA12" s="12" t="s">
-        <v>406</v>
       </c>
       <c r="AB12" s="12" t="s">
         <v>66</v>
       </c>
       <c r="AC12" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="AD12" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="AE12" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="AD12" s="12" t="s">
-        <v>382</v>
-      </c>
-      <c r="AE12" s="12" t="s">
+      <c r="AF12" s="12" t="s">
         <v>408</v>
       </c>
-      <c r="AF12" s="12" t="s">
+      <c r="AG12" s="12" t="s">
         <v>409</v>
       </c>
-      <c r="AG12" s="12" t="s">
+      <c r="AH12" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="AI12" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="AJ12" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="AK12" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="AL12" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="AM12" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="AN12" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="AO12" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="AP12" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="AQ12" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="AR12" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="AS12" s="12" t="s">
+        <v>420</v>
+      </c>
+      <c r="AT12" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="AU12" s="12" t="s">
+        <v>422</v>
+      </c>
+      <c r="AV12" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="AW12" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="AX12" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="AY12" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="AZ12" t="s">
         <v>410</v>
       </c>
-      <c r="AH12" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="AI12" s="12" t="s">
-        <v>412</v>
-      </c>
-      <c r="AJ12" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="AK12" s="12" t="s">
-        <v>389</v>
-      </c>
-      <c r="AL12" s="12" t="s">
-        <v>413</v>
-      </c>
-      <c r="AM12" s="12" t="s">
-        <v>414</v>
-      </c>
-      <c r="AN12" s="12" t="s">
-        <v>415</v>
-      </c>
-      <c r="AO12" s="12" t="s">
-        <v>416</v>
-      </c>
-      <c r="AP12" s="12" t="s">
-        <v>417</v>
-      </c>
-      <c r="AQ12" s="12" t="s">
+      <c r="BA12" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="AR12" s="12" t="s">
-        <v>420</v>
-      </c>
-      <c r="AS12" s="12" t="s">
-        <v>421</v>
-      </c>
-      <c r="AT12" s="12" t="s">
-        <v>422</v>
-      </c>
-      <c r="AU12" s="12" t="s">
-        <v>423</v>
-      </c>
-      <c r="AV12" s="12" t="s">
-        <v>424</v>
-      </c>
-      <c r="AW12" s="12" t="s">
-        <v>425</v>
-      </c>
-      <c r="AX12" s="12" t="s">
-        <v>426</v>
-      </c>
-      <c r="AY12" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="AZ12" t="s">
-        <v>411</v>
-      </c>
-      <c r="BA12" s="1" t="s">
-        <v>419</v>
-      </c>
       <c r="BB12" s="12" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="13" spans="1:54">
@@ -4733,7 +5419,7 @@
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H13" t="s">
         <v>90</v>
@@ -4745,10 +5431,10 @@
         <v>47.3</v>
       </c>
       <c r="K13" t="s">
+        <v>429</v>
+      </c>
+      <c r="L13" t="s">
         <v>430</v>
-      </c>
-      <c r="L13" t="s">
-        <v>431</v>
       </c>
       <c r="M13">
         <v>999</v>
@@ -4757,121 +5443,121 @@
         <v>92</v>
       </c>
       <c r="O13" t="s">
+        <v>431</v>
+      </c>
+      <c r="P13" t="s">
         <v>432</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>433</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13">
+        <v>999</v>
+      </c>
+      <c r="S13" t="s">
+        <v>431</v>
+      </c>
+      <c r="T13" t="s">
+        <v>321</v>
+      </c>
+      <c r="U13" s="1">
+        <v>999</v>
+      </c>
+      <c r="V13" s="12" t="s">
         <v>434</v>
       </c>
-      <c r="R13">
-        <v>999</v>
-      </c>
-      <c r="S13" t="s">
-        <v>432</v>
-      </c>
-      <c r="T13" t="s">
-        <v>322</v>
-      </c>
-      <c r="U13" s="1">
-        <v>999</v>
-      </c>
-      <c r="V13" s="12" t="s">
+      <c r="W13" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="X13" s="12" t="s">
         <v>435</v>
       </c>
-      <c r="W13" s="12" t="s">
-        <v>379</v>
-      </c>
-      <c r="X13" s="12" t="s">
+      <c r="Y13" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z13" s="12" t="s">
         <v>436</v>
       </c>
-      <c r="Y13" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="Z13" s="12" t="s">
+      <c r="AA13" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="AB13" s="12" t="s">
         <v>437</v>
       </c>
-      <c r="AA13" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="AB13" s="12" t="s">
+      <c r="AC13" s="12" t="s">
         <v>438</v>
       </c>
-      <c r="AC13" s="12" t="s">
+      <c r="AD13" s="12" t="s">
         <v>439</v>
       </c>
-      <c r="AD13" s="12" t="s">
+      <c r="AE13" s="12" t="s">
         <v>440</v>
       </c>
-      <c r="AE13" s="12" t="s">
+      <c r="AF13" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="AG13" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="AF13" s="12" t="s">
-        <v>384</v>
-      </c>
-      <c r="AG13" s="12" t="s">
+      <c r="AH13" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="AI13" s="12" t="s">
         <v>442</v>
       </c>
-      <c r="AH13" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="AI13" s="12" t="s">
+      <c r="AJ13" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="AK13" s="12" t="s">
         <v>443</v>
       </c>
-      <c r="AJ13" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="AK13" s="12" t="s">
-        <v>444</v>
-      </c>
       <c r="AL13" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="AM13" s="12" t="s">
         <v>446</v>
       </c>
-      <c r="AM13" s="12" t="s">
+      <c r="AN13" s="12" t="s">
         <v>447</v>
-      </c>
-      <c r="AN13" s="12" t="s">
-        <v>448</v>
       </c>
       <c r="AO13" s="12" t="s">
         <v>77</v>
       </c>
       <c r="AP13" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AQ13" s="12" t="s">
         <v>79</v>
       </c>
       <c r="AR13" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="AS13" s="12" t="s">
         <v>450</v>
-      </c>
-      <c r="AS13" s="12" t="s">
-        <v>451</v>
       </c>
       <c r="AT13" s="12" t="s">
         <v>82</v>
       </c>
       <c r="AU13" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="AV13" s="12" t="s">
         <v>452</v>
       </c>
-      <c r="AV13" s="12" t="s">
+      <c r="AW13" s="12" t="s">
         <v>453</v>
       </c>
-      <c r="AW13" s="12" t="s">
+      <c r="AX13" s="12" t="s">
         <v>454</v>
       </c>
-      <c r="AX13" s="12" t="s">
+      <c r="AY13" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="AY13" s="1" t="s">
-        <v>456</v>
-      </c>
       <c r="AZ13" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="BA13" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="BB13">
         <v>999</v>
@@ -4897,7 +5583,7 @@
         <v>2</v>
       </c>
       <c r="G14" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H14" t="s">
         <v>90</v>
@@ -4909,10 +5595,10 @@
         <v>47.3</v>
       </c>
       <c r="K14" t="s">
+        <v>458</v>
+      </c>
+      <c r="L14" t="s">
         <v>459</v>
-      </c>
-      <c r="L14" t="s">
-        <v>460</v>
       </c>
       <c r="M14">
         <v>999</v>
@@ -4921,19 +5607,19 @@
         <v>92</v>
       </c>
       <c r="O14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P14" t="s">
+        <v>460</v>
+      </c>
+      <c r="Q14" t="s">
         <v>461</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>462</v>
       </c>
-      <c r="R14" t="s">
-        <v>463</v>
-      </c>
       <c r="S14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="T14" t="s">
         <v>97</v>
@@ -4942,103 +5628,103 @@
         <v>999</v>
       </c>
       <c r="V14" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="W14" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="X14" s="12" t="s">
         <v>464</v>
       </c>
-      <c r="X14" s="12" t="s">
+      <c r="Y14" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="Z14" s="12" t="s">
         <v>465</v>
       </c>
-      <c r="Y14" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="Z14" s="12" t="s">
+      <c r="AA14" s="12" t="s">
         <v>466</v>
       </c>
-      <c r="AA14" s="12" t="s">
+      <c r="AB14" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC14" s="12" t="s">
         <v>467</v>
       </c>
-      <c r="AB14" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="AC14" s="12" t="s">
+      <c r="AD14" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="AE14" s="12" t="s">
         <v>468</v>
       </c>
-      <c r="AD14" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="AE14" s="12" t="s">
+      <c r="AF14" s="12" t="s">
         <v>469</v>
       </c>
-      <c r="AF14" s="12" t="s">
+      <c r="AG14" s="12" t="s">
         <v>470</v>
       </c>
-      <c r="AG14" s="12" t="s">
+      <c r="AH14" s="12" t="s">
         <v>471</v>
       </c>
-      <c r="AH14" s="12" t="s">
+      <c r="AI14" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="AJ14" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="AK14" s="12" t="s">
+        <v>475</v>
+      </c>
+      <c r="AL14" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="AM14" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="AN14" s="12" t="s">
+        <v>478</v>
+      </c>
+      <c r="AO14" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="AP14" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="AQ14" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="AR14" s="12" t="s">
+        <v>482</v>
+      </c>
+      <c r="AS14" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="AT14" s="12" t="s">
+        <v>484</v>
+      </c>
+      <c r="AU14" s="12" t="s">
+        <v>485</v>
+      </c>
+      <c r="AV14" s="12" t="s">
+        <v>486</v>
+      </c>
+      <c r="AW14" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="AX14" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="AY14" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="AZ14" t="s">
         <v>472</v>
       </c>
-      <c r="AI14" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="AJ14" s="12" t="s">
+      <c r="BA14" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="BB14" t="s">
         <v>474</v>
-      </c>
-      <c r="AK14" s="12" t="s">
-        <v>476</v>
-      </c>
-      <c r="AL14" s="12" t="s">
-        <v>477</v>
-      </c>
-      <c r="AM14" s="12" t="s">
-        <v>478</v>
-      </c>
-      <c r="AN14" s="12" t="s">
-        <v>479</v>
-      </c>
-      <c r="AO14" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="AP14" s="12" t="s">
-        <v>480</v>
-      </c>
-      <c r="AQ14" s="12" t="s">
-        <v>481</v>
-      </c>
-      <c r="AR14" s="12" t="s">
-        <v>483</v>
-      </c>
-      <c r="AS14" s="12" t="s">
-        <v>484</v>
-      </c>
-      <c r="AT14" s="12" t="s">
-        <v>485</v>
-      </c>
-      <c r="AU14" s="12" t="s">
-        <v>486</v>
-      </c>
-      <c r="AV14" s="12" t="s">
-        <v>487</v>
-      </c>
-      <c r="AW14" s="12" t="s">
-        <v>488</v>
-      </c>
-      <c r="AX14" s="12" t="s">
-        <v>489</v>
-      </c>
-      <c r="AY14" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="AZ14" t="s">
-        <v>473</v>
-      </c>
-      <c r="BA14" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="BB14" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="15" spans="1:54">
@@ -5061,7 +5747,7 @@
         <v>3</v>
       </c>
       <c r="G15" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H15" t="s">
         <v>90</v>
@@ -5073,25 +5759,25 @@
         <v>47.3</v>
       </c>
       <c r="K15" t="s">
+        <v>490</v>
+      </c>
+      <c r="L15" t="s">
         <v>491</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15">
+        <v>999</v>
+      </c>
+      <c r="N15" t="s">
         <v>492</v>
       </c>
-      <c r="M15">
-        <v>999</v>
-      </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
+        <v>172</v>
+      </c>
+      <c r="P15" t="s">
         <v>493</v>
       </c>
-      <c r="O15" t="s">
-        <v>173</v>
-      </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>494</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>495</v>
       </c>
       <c r="R15">
         <v>999</v>
@@ -5106,100 +5792,100 @@
         <v>999</v>
       </c>
       <c r="V15" s="12" t="s">
+        <v>495</v>
+      </c>
+      <c r="W15" s="12" t="s">
         <v>496</v>
       </c>
-      <c r="W15" s="12" t="s">
+      <c r="X15" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y15" s="12" t="s">
         <v>497</v>
       </c>
-      <c r="X15" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="Y15" s="12" t="s">
+      <c r="Z15" s="12" t="s">
         <v>498</v>
       </c>
-      <c r="Z15" s="12" t="s">
+      <c r="AA15" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="AB15" s="12" t="s">
         <v>499</v>
       </c>
-      <c r="AA15" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="AB15" s="12" t="s">
+      <c r="AC15" s="12" t="s">
         <v>500</v>
       </c>
-      <c r="AC15" s="12" t="s">
+      <c r="AD15" s="12" t="s">
         <v>501</v>
       </c>
-      <c r="AD15" s="12" t="s">
+      <c r="AE15" s="12" t="s">
         <v>502</v>
       </c>
-      <c r="AE15" s="12" t="s">
+      <c r="AF15" s="12" t="s">
         <v>503</v>
       </c>
-      <c r="AF15" s="12" t="s">
+      <c r="AG15" s="12" t="s">
         <v>504</v>
       </c>
-      <c r="AG15" s="12" t="s">
+      <c r="AH15" s="12" t="s">
         <v>505</v>
       </c>
-      <c r="AH15" s="12" t="s">
+      <c r="AI15" s="12" t="s">
+        <v>507</v>
+      </c>
+      <c r="AJ15" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="AK15" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="AL15" s="12" t="s">
+        <v>509</v>
+      </c>
+      <c r="AM15" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="AN15" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="AO15" s="12" t="s">
+        <v>511</v>
+      </c>
+      <c r="AP15" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="AQ15" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="AR15" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="AS15" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="AT15" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="AU15" s="12" t="s">
+        <v>517</v>
+      </c>
+      <c r="AV15" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="AW15" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="AX15" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="AY15" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="AZ15" t="s">
         <v>506</v>
       </c>
-      <c r="AI15" s="12" t="s">
-        <v>508</v>
-      </c>
-      <c r="AJ15" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="AK15" s="12" t="s">
-        <v>509</v>
-      </c>
-      <c r="AL15" s="12" t="s">
-        <v>510</v>
-      </c>
-      <c r="AM15" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="AN15" s="12" t="s">
-        <v>511</v>
-      </c>
-      <c r="AO15" s="12" t="s">
-        <v>512</v>
-      </c>
-      <c r="AP15" s="12" t="s">
-        <v>513</v>
-      </c>
-      <c r="AQ15" s="12" t="s">
+      <c r="BA15" s="1" t="s">
         <v>514</v>
-      </c>
-      <c r="AR15" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="AS15" s="12" t="s">
-        <v>516</v>
-      </c>
-      <c r="AT15" s="12" t="s">
-        <v>517</v>
-      </c>
-      <c r="AU15" s="12" t="s">
-        <v>518</v>
-      </c>
-      <c r="AV15" s="12" t="s">
-        <v>519</v>
-      </c>
-      <c r="AW15" s="12" t="s">
-        <v>520</v>
-      </c>
-      <c r="AX15" s="12" t="s">
-        <v>426</v>
-      </c>
-      <c r="AY15" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="AZ15" t="s">
-        <v>507</v>
-      </c>
-      <c r="BA15" s="1" t="s">
-        <v>515</v>
       </c>
       <c r="BB15">
         <v>999</v>
@@ -5225,7 +5911,7 @@
         <v>4</v>
       </c>
       <c r="G16" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H16" t="s">
         <v>57</v>
@@ -5237,28 +5923,28 @@
         <v>47.3</v>
       </c>
       <c r="K16" t="s">
+        <v>521</v>
+      </c>
+      <c r="L16" t="s">
+        <v>523</v>
+      </c>
+      <c r="M16">
+        <v>999</v>
+      </c>
+      <c r="N16" t="s">
         <v>522</v>
       </c>
-      <c r="L16" t="s">
+      <c r="O16" t="s">
+        <v>172</v>
+      </c>
+      <c r="P16" t="s">
         <v>524</v>
       </c>
-      <c r="M16">
-        <v>999</v>
-      </c>
-      <c r="N16" t="s">
-        <v>523</v>
-      </c>
-      <c r="O16" t="s">
-        <v>173</v>
-      </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
+        <v>526</v>
+      </c>
+      <c r="R16" t="s">
         <v>525</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>527</v>
-      </c>
-      <c r="R16" t="s">
-        <v>526</v>
       </c>
       <c r="S16">
         <v>999</v>
@@ -5270,100 +5956,100 @@
         <v>999</v>
       </c>
       <c r="V16" s="12" t="s">
+        <v>527</v>
+      </c>
+      <c r="W16" s="12" t="s">
         <v>528</v>
       </c>
-      <c r="W16" s="12" t="s">
+      <c r="X16" s="12" t="s">
         <v>529</v>
       </c>
-      <c r="X16" s="12" t="s">
+      <c r="Y16" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="Z16" s="12" t="s">
         <v>530</v>
       </c>
-      <c r="Y16" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="Z16" s="12" t="s">
+      <c r="AA16" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB16" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC16" s="12" t="s">
         <v>531</v>
       </c>
-      <c r="AA16" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="AB16" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="AC16" s="12" t="s">
+      <c r="AD16" s="12" t="s">
         <v>532</v>
       </c>
-      <c r="AD16" s="12" t="s">
+      <c r="AE16" s="12" t="s">
         <v>533</v>
       </c>
-      <c r="AE16" s="12" t="s">
+      <c r="AF16" s="12" t="s">
         <v>534</v>
       </c>
-      <c r="AF16" s="12" t="s">
+      <c r="AG16" s="12" t="s">
         <v>535</v>
       </c>
-      <c r="AG16" s="12" t="s">
+      <c r="AH16" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="AH16" s="12" t="s">
-        <v>537</v>
-      </c>
       <c r="AI16" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AJ16" s="12" t="s">
+        <v>538</v>
+      </c>
+      <c r="AK16" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="AL16" s="12" t="s">
         <v>539</v>
       </c>
-      <c r="AK16" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="AL16" s="12" t="s">
+      <c r="AM16" s="12" t="s">
         <v>540</v>
       </c>
-      <c r="AM16" s="12" t="s">
+      <c r="AN16" s="12" t="s">
         <v>541</v>
       </c>
-      <c r="AN16" s="12" t="s">
+      <c r="AO16" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="AP16" s="12" t="s">
         <v>542</v>
       </c>
-      <c r="AO16" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="AP16" s="12" t="s">
-        <v>543</v>
-      </c>
       <c r="AQ16" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AR16" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AS16" s="12" t="s">
+        <v>544</v>
+      </c>
+      <c r="AT16" s="12" t="s">
         <v>545</v>
       </c>
-      <c r="AT16" s="12" t="s">
+      <c r="AU16" s="12" t="s">
         <v>546</v>
       </c>
-      <c r="AU16" s="12" t="s">
+      <c r="AV16" s="12" t="s">
         <v>547</v>
       </c>
-      <c r="AV16" s="12" t="s">
-        <v>548</v>
-      </c>
       <c r="AW16" s="12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AX16" s="12" t="s">
         <v>128</v>
       </c>
       <c r="AY16" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AZ16" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="BA16" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="BB16">
         <v>999</v>
@@ -5389,7 +6075,7 @@
         <v>5</v>
       </c>
       <c r="G17" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H17" t="s">
         <v>57</v>
@@ -5401,133 +6087,133 @@
         <v>47.3</v>
       </c>
       <c r="K17" t="s">
+        <v>549</v>
+      </c>
+      <c r="L17" t="s">
+        <v>551</v>
+      </c>
+      <c r="M17">
+        <v>999</v>
+      </c>
+      <c r="N17" t="s">
+        <v>492</v>
+      </c>
+      <c r="O17" t="s">
         <v>550</v>
       </c>
-      <c r="L17" t="s">
+      <c r="P17" t="s">
         <v>552</v>
       </c>
-      <c r="M17">
-        <v>999</v>
-      </c>
-      <c r="N17" t="s">
-        <v>493</v>
-      </c>
-      <c r="O17" t="s">
-        <v>551</v>
-      </c>
-      <c r="P17" t="s">
+      <c r="Q17" t="s">
         <v>553</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="R17">
+        <v>999</v>
+      </c>
+      <c r="S17" t="s">
+        <v>172</v>
+      </c>
+      <c r="T17" t="s">
         <v>554</v>
       </c>
-      <c r="R17">
-        <v>999</v>
-      </c>
-      <c r="S17" t="s">
-        <v>173</v>
-      </c>
-      <c r="T17" t="s">
+      <c r="U17" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="U17" s="1" t="s">
+      <c r="V17" s="12" t="s">
         <v>556</v>
       </c>
-      <c r="V17" s="12" t="s">
+      <c r="W17" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="X17" s="12" t="s">
         <v>557</v>
       </c>
-      <c r="W17" s="12" t="s">
-        <v>350</v>
-      </c>
-      <c r="X17" s="12" t="s">
+      <c r="Y17" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="Z17" s="12" t="s">
         <v>558</v>
       </c>
-      <c r="Y17" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="Z17" s="12" t="s">
+      <c r="AA17" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB17" s="12" t="s">
         <v>559</v>
       </c>
-      <c r="AA17" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="AB17" s="12" t="s">
+      <c r="AC17" s="12" t="s">
         <v>560</v>
       </c>
-      <c r="AC17" s="12" t="s">
+      <c r="AD17" s="12" t="s">
+        <v>501</v>
+      </c>
+      <c r="AE17" s="12" t="s">
         <v>561</v>
       </c>
-      <c r="AD17" s="12" t="s">
-        <v>502</v>
-      </c>
-      <c r="AE17" s="12" t="s">
+      <c r="AF17" s="12" t="s">
+        <v>571</v>
+      </c>
+      <c r="AG17" s="12" t="s">
         <v>562</v>
       </c>
-      <c r="AF17" s="12" t="s">
+      <c r="AH17" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="AI17" s="12" t="s">
+        <v>507</v>
+      </c>
+      <c r="AJ17" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="AK17" s="12" t="s">
+        <v>565</v>
+      </c>
+      <c r="AL17" s="12" t="s">
+        <v>566</v>
+      </c>
+      <c r="AM17" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="AN17" s="12" t="s">
+        <v>567</v>
+      </c>
+      <c r="AO17" s="12" t="s">
+        <v>568</v>
+      </c>
+      <c r="AP17" s="12" t="s">
+        <v>569</v>
+      </c>
+      <c r="AQ17" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="AR17" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="AS17" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="AT17" s="12" t="s">
         <v>572</v>
       </c>
-      <c r="AG17" s="12" t="s">
-        <v>563</v>
-      </c>
-      <c r="AH17" s="12" t="s">
+      <c r="AU17" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="AV17" s="12" t="s">
+        <v>574</v>
+      </c>
+      <c r="AW17" s="12" t="s">
+        <v>575</v>
+      </c>
+      <c r="AX17" s="12" t="s">
+        <v>576</v>
+      </c>
+      <c r="AY17" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="AZ17" t="s">
         <v>564</v>
       </c>
-      <c r="AI17" s="12" t="s">
-        <v>508</v>
-      </c>
-      <c r="AJ17" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="AK17" s="12" t="s">
-        <v>566</v>
-      </c>
-      <c r="AL17" s="12" t="s">
-        <v>567</v>
-      </c>
-      <c r="AM17" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="AN17" s="12" t="s">
-        <v>568</v>
-      </c>
-      <c r="AO17" s="12" t="s">
-        <v>569</v>
-      </c>
-      <c r="AP17" s="12" t="s">
+      <c r="BA17" s="1" t="s">
         <v>570</v>
-      </c>
-      <c r="AQ17" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="AR17" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="AS17" s="12" t="s">
-        <v>516</v>
-      </c>
-      <c r="AT17" s="12" t="s">
-        <v>573</v>
-      </c>
-      <c r="AU17" s="12" t="s">
-        <v>574</v>
-      </c>
-      <c r="AV17" s="12" t="s">
-        <v>575</v>
-      </c>
-      <c r="AW17" s="12" t="s">
-        <v>576</v>
-      </c>
-      <c r="AX17" s="12" t="s">
-        <v>577</v>
-      </c>
-      <c r="AY17" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="AZ17" t="s">
-        <v>565</v>
-      </c>
-      <c r="BA17" s="1" t="s">
-        <v>571</v>
       </c>
       <c r="BB17">
         <v>999</v>
@@ -5553,10 +6239,10 @@
         <v>6</v>
       </c>
       <c r="G18" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I18" s="9">
         <v>25</v>
@@ -5565,10 +6251,10 @@
         <v>47.3</v>
       </c>
       <c r="K18" t="s">
+        <v>579</v>
+      </c>
+      <c r="L18" t="s">
         <v>580</v>
-      </c>
-      <c r="L18" t="s">
-        <v>581</v>
       </c>
       <c r="M18">
         <v>999</v>
@@ -5577,118 +6263,118 @@
         <v>92</v>
       </c>
       <c r="O18" t="s">
+        <v>581</v>
+      </c>
+      <c r="P18" t="s">
         <v>582</v>
       </c>
-      <c r="P18" t="s">
+      <c r="Q18" t="s">
         <v>583</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="R18" t="s">
         <v>584</v>
       </c>
-      <c r="R18" t="s">
+      <c r="S18">
+        <v>999</v>
+      </c>
+      <c r="T18" t="s">
+        <v>321</v>
+      </c>
+      <c r="U18" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="S18">
-        <v>999</v>
-      </c>
-      <c r="T18" t="s">
-        <v>322</v>
-      </c>
-      <c r="U18" s="1" t="s">
+      <c r="V18" s="12" t="s">
         <v>586</v>
       </c>
-      <c r="V18" s="12" t="s">
+      <c r="W18" s="12" t="s">
         <v>587</v>
       </c>
-      <c r="W18" s="12" t="s">
+      <c r="X18" s="12" t="s">
         <v>588</v>
       </c>
-      <c r="X18" s="12" t="s">
+      <c r="Y18" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="Z18" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="AA18" s="12" t="s">
         <v>589</v>
-      </c>
-      <c r="Y18" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="Z18" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="AA18" s="12" t="s">
-        <v>590</v>
       </c>
       <c r="AB18" s="12" t="s">
         <v>66</v>
       </c>
       <c r="AC18" s="12" t="s">
+        <v>590</v>
+      </c>
+      <c r="AD18" s="12" t="s">
         <v>591</v>
       </c>
-      <c r="AD18" s="12" t="s">
+      <c r="AE18" s="12" t="s">
         <v>592</v>
       </c>
-      <c r="AE18" s="12" t="s">
+      <c r="AF18" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="AG18" s="12" t="s">
         <v>593</v>
       </c>
-      <c r="AF18" s="12" t="s">
-        <v>504</v>
-      </c>
-      <c r="AG18" s="12" t="s">
+      <c r="AH18" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="AI18" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="AJ18" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="AK18" s="12" t="s">
+        <v>595</v>
+      </c>
+      <c r="AL18" s="12" t="s">
+        <v>596</v>
+      </c>
+      <c r="AM18" s="12" t="s">
+        <v>597</v>
+      </c>
+      <c r="AN18" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="AO18" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="AQ18" s="12" t="s">
+        <v>599</v>
+      </c>
+      <c r="AR18" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="AS18" s="12" t="s">
+        <v>600</v>
+      </c>
+      <c r="AT18" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="AU18" s="12" t="s">
+        <v>601</v>
+      </c>
+      <c r="AV18" s="12" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW18" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="AX18" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="AY18" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="AZ18" t="s">
         <v>594</v>
       </c>
-      <c r="AH18" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="AI18" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="AJ18" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="AK18" s="12" t="s">
-        <v>596</v>
-      </c>
-      <c r="AL18" s="12" t="s">
-        <v>597</v>
-      </c>
-      <c r="AM18" s="12" t="s">
-        <v>598</v>
-      </c>
-      <c r="AN18" s="12" t="s">
-        <v>511</v>
-      </c>
-      <c r="AO18" s="12" t="s">
-        <v>599</v>
-      </c>
-      <c r="AQ18" s="12" t="s">
-        <v>600</v>
-      </c>
-      <c r="AR18" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="AS18" s="12" t="s">
-        <v>601</v>
-      </c>
-      <c r="AT18" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="AU18" s="12" t="s">
-        <v>602</v>
-      </c>
-      <c r="AV18" s="12" t="s">
-        <v>603</v>
-      </c>
-      <c r="AW18" s="12" t="s">
-        <v>520</v>
-      </c>
-      <c r="AX18" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="AY18" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="AZ18" t="s">
-        <v>595</v>
-      </c>
       <c r="BA18" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="BB18">
         <v>999</v>
@@ -5714,10 +6400,10 @@
         <v>8</v>
       </c>
       <c r="G19" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H19" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I19" s="9">
         <v>25</v>
@@ -5726,97 +6412,97 @@
         <v>47.3</v>
       </c>
       <c r="K19" t="s">
+        <v>604</v>
+      </c>
+      <c r="L19" t="s">
         <v>605</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19">
+        <v>999</v>
+      </c>
+      <c r="N19" t="s">
+        <v>492</v>
+      </c>
+      <c r="O19" t="s">
+        <v>172</v>
+      </c>
+      <c r="P19" t="s">
+        <v>608</v>
+      </c>
+      <c r="Q19" t="s">
         <v>606</v>
       </c>
-      <c r="M19">
-        <v>999</v>
-      </c>
-      <c r="N19" t="s">
-        <v>493</v>
-      </c>
-      <c r="O19" t="s">
-        <v>173</v>
-      </c>
-      <c r="P19" t="s">
+      <c r="R19">
+        <v>999</v>
+      </c>
+      <c r="S19" t="s">
+        <v>607</v>
+      </c>
+      <c r="T19" t="s">
+        <v>178</v>
+      </c>
+      <c r="V19" s="12" t="s">
         <v>609</v>
       </c>
-      <c r="Q19" t="s">
-        <v>607</v>
-      </c>
-      <c r="R19">
-        <v>999</v>
-      </c>
-      <c r="S19" t="s">
-        <v>608</v>
-      </c>
-      <c r="T19" t="s">
-        <v>179</v>
-      </c>
-      <c r="V19" s="12" t="s">
+      <c r="W19" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="X19" s="12" t="s">
         <v>610</v>
-      </c>
-      <c r="W19" s="12" t="s">
-        <v>379</v>
-      </c>
-      <c r="X19" s="12" t="s">
-        <v>611</v>
       </c>
       <c r="Y19" s="12" t="s">
         <v>64</v>
       </c>
       <c r="Z19" s="12" t="s">
+        <v>611</v>
+      </c>
+      <c r="AA19" s="12" t="s">
+        <v>613</v>
+      </c>
+      <c r="AB19" s="12" t="s">
         <v>612</v>
       </c>
-      <c r="AA19" s="12" t="s">
+      <c r="AC19" s="12" t="s">
         <v>614</v>
       </c>
-      <c r="AB19" s="12" t="s">
-        <v>613</v>
-      </c>
-      <c r="AC19" s="12" t="s">
+      <c r="AD19" s="12" t="s">
         <v>615</v>
       </c>
-      <c r="AD19" s="12" t="s">
+      <c r="AE19" s="12" t="s">
         <v>616</v>
       </c>
-      <c r="AE19" s="12" t="s">
+      <c r="AF19" s="12" t="s">
         <v>617</v>
       </c>
-      <c r="AF19" s="12" t="s">
+      <c r="AG19" s="12" t="s">
         <v>618</v>
       </c>
-      <c r="AG19" s="12" t="s">
+      <c r="AH19" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="AI19" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="AJ19" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="AK19" s="12" t="s">
         <v>619</v>
       </c>
-      <c r="AH19" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="AI19" s="12" t="s">
-        <v>412</v>
-      </c>
-      <c r="AJ19" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="AK19" s="12" t="s">
-        <v>620</v>
-      </c>
       <c r="AL19">
         <v>999</v>
       </c>
       <c r="AM19" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="AN19" s="12" t="s">
         <v>447</v>
-      </c>
-      <c r="AN19" s="12" t="s">
-        <v>448</v>
       </c>
       <c r="AO19" s="12" t="s">
         <v>77</v>
       </c>
       <c r="AP19" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AQ19" s="12" t="s">
         <v>79</v>
@@ -5828,28 +6514,28 @@
         <v>999</v>
       </c>
       <c r="AT19" s="12" t="s">
+        <v>620</v>
+      </c>
+      <c r="AU19" s="12" t="s">
         <v>621</v>
       </c>
-      <c r="AU19" s="12" t="s">
+      <c r="AV19" s="12" t="s">
         <v>622</v>
       </c>
-      <c r="AV19" s="12" t="s">
+      <c r="AW19" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="AX19" s="12" t="s">
         <v>623</v>
       </c>
-      <c r="AW19" s="12" t="s">
-        <v>396</v>
-      </c>
-      <c r="AX19" s="12" t="s">
-        <v>624</v>
-      </c>
       <c r="AY19" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AZ19" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="BA19" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BB19">
         <v>999</v>
@@ -5875,7 +6561,7 @@
         <v>9</v>
       </c>
       <c r="G20" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H20" t="s">
         <v>57</v>
@@ -5887,133 +6573,133 @@
         <v>47.3</v>
       </c>
       <c r="K20" t="s">
+        <v>637</v>
+      </c>
+      <c r="L20" t="s">
+        <v>626</v>
+      </c>
+      <c r="M20">
+        <v>999</v>
+      </c>
+      <c r="N20" t="s">
+        <v>492</v>
+      </c>
+      <c r="O20" t="s">
+        <v>431</v>
+      </c>
+      <c r="P20" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>627</v>
+      </c>
+      <c r="R20">
+        <v>999</v>
+      </c>
+      <c r="S20" t="s">
+        <v>628</v>
+      </c>
+      <c r="T20" t="s">
+        <v>321</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="V20" s="12" t="s">
+        <v>631</v>
+      </c>
+      <c r="W20" s="12" t="s">
+        <v>632</v>
+      </c>
+      <c r="X20" s="12" t="s">
+        <v>633</v>
+      </c>
+      <c r="Y20" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z20" s="12" t="s">
+        <v>634</v>
+      </c>
+      <c r="AA20" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB20" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC20" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="AD20" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="AE20" s="12" t="s">
+        <v>635</v>
+      </c>
+      <c r="AF20" s="12" t="s">
+        <v>636</v>
+      </c>
+      <c r="AG20" s="12" t="s">
         <v>638</v>
       </c>
-      <c r="L20" t="s">
-        <v>627</v>
-      </c>
-      <c r="M20">
-        <v>999</v>
-      </c>
-      <c r="N20" t="s">
-        <v>493</v>
-      </c>
-      <c r="O20" t="s">
-        <v>432</v>
-      </c>
-      <c r="P20" t="s">
-        <v>631</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>628</v>
-      </c>
-      <c r="R20">
-        <v>999</v>
-      </c>
-      <c r="S20" t="s">
-        <v>629</v>
-      </c>
-      <c r="T20" t="s">
-        <v>322</v>
-      </c>
-      <c r="U20" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="V20" s="12" t="s">
-        <v>632</v>
-      </c>
-      <c r="W20" s="12" t="s">
-        <v>633</v>
-      </c>
-      <c r="X20" s="12" t="s">
-        <v>634</v>
-      </c>
-      <c r="Y20" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z20" s="12" t="s">
-        <v>635</v>
-      </c>
-      <c r="AA20" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="AB20" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="AC20" s="12" t="s">
-        <v>501</v>
-      </c>
-      <c r="AD20" s="12" t="s">
-        <v>354</v>
-      </c>
-      <c r="AE20" s="12" t="s">
-        <v>636</v>
-      </c>
-      <c r="AF20" s="12" t="s">
-        <v>637</v>
-      </c>
-      <c r="AG20" s="12" t="s">
+      <c r="AH20" s="12" t="s">
+        <v>505</v>
+      </c>
+      <c r="AI20" s="12" t="s">
+        <v>640</v>
+      </c>
+      <c r="AJ20" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="AK20" s="12" t="s">
+        <v>641</v>
+      </c>
+      <c r="AL20" s="12" t="s">
+        <v>642</v>
+      </c>
+      <c r="AM20" s="12" t="s">
+        <v>643</v>
+      </c>
+      <c r="AN20" s="12" t="s">
+        <v>644</v>
+      </c>
+      <c r="AO20" s="12" t="s">
+        <v>511</v>
+      </c>
+      <c r="AP20" s="12" t="s">
+        <v>645</v>
+      </c>
+      <c r="AQ20" s="12" t="s">
+        <v>646</v>
+      </c>
+      <c r="AR20" s="12" t="s">
+        <v>648</v>
+      </c>
+      <c r="AS20" s="12" t="s">
+        <v>649</v>
+      </c>
+      <c r="AT20" s="12" t="s">
+        <v>650</v>
+      </c>
+      <c r="AU20" s="12" t="s">
+        <v>651</v>
+      </c>
+      <c r="AV20" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="AW20" s="12" t="s">
+        <v>653</v>
+      </c>
+      <c r="AX20" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="AY20" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="AZ20" t="s">
         <v>639</v>
       </c>
-      <c r="AH20" s="12" t="s">
-        <v>506</v>
-      </c>
-      <c r="AI20" s="12" t="s">
-        <v>641</v>
-      </c>
-      <c r="AJ20" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="AK20" s="12" t="s">
-        <v>642</v>
-      </c>
-      <c r="AL20" s="12" t="s">
-        <v>643</v>
-      </c>
-      <c r="AM20" s="12" t="s">
-        <v>644</v>
-      </c>
-      <c r="AN20" s="12" t="s">
-        <v>645</v>
-      </c>
-      <c r="AO20" s="12" t="s">
-        <v>512</v>
-      </c>
-      <c r="AP20" s="12" t="s">
-        <v>646</v>
-      </c>
-      <c r="AQ20" s="12" t="s">
+      <c r="BA20" s="1" t="s">
         <v>647</v>
-      </c>
-      <c r="AR20" s="12" t="s">
-        <v>649</v>
-      </c>
-      <c r="AS20" s="12" t="s">
-        <v>650</v>
-      </c>
-      <c r="AT20" s="12" t="s">
-        <v>651</v>
-      </c>
-      <c r="AU20" s="12" t="s">
-        <v>652</v>
-      </c>
-      <c r="AV20" s="12" t="s">
-        <v>653</v>
-      </c>
-      <c r="AW20" s="12" t="s">
-        <v>654</v>
-      </c>
-      <c r="AX20" s="12" t="s">
-        <v>426</v>
-      </c>
-      <c r="AY20" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="AZ20" t="s">
-        <v>640</v>
-      </c>
-      <c r="BA20" s="1" t="s">
-        <v>648</v>
       </c>
       <c r="BB20">
         <v>999</v>
@@ -6039,7 +6725,7 @@
         <v>11</v>
       </c>
       <c r="G21" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H21" t="s">
         <v>90</v>
@@ -6051,10 +6737,10 @@
         <v>47.3</v>
       </c>
       <c r="K21" t="s">
+        <v>656</v>
+      </c>
+      <c r="L21" t="s">
         <v>657</v>
-      </c>
-      <c r="L21" t="s">
-        <v>658</v>
       </c>
       <c r="M21">
         <v>999</v>
@@ -6063,121 +6749,121 @@
         <v>92</v>
       </c>
       <c r="O21" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P21" t="s">
+        <v>658</v>
+      </c>
+      <c r="Q21" t="s">
         <v>659</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="R21" t="s">
         <v>660</v>
       </c>
-      <c r="R21" t="s">
+      <c r="S21" t="s">
         <v>661</v>
       </c>
-      <c r="S21" t="s">
+      <c r="T21" t="s">
+        <v>321</v>
+      </c>
+      <c r="U21" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="T21" t="s">
-        <v>322</v>
-      </c>
-      <c r="U21" s="1" t="s">
+      <c r="V21" s="12" t="s">
+        <v>609</v>
+      </c>
+      <c r="W21" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="X21" s="12" t="s">
         <v>663</v>
       </c>
-      <c r="V21" s="12" t="s">
-        <v>610</v>
-      </c>
-      <c r="W21" s="12" t="s">
-        <v>379</v>
-      </c>
-      <c r="X21" s="12" t="s">
-        <v>664</v>
-      </c>
       <c r="Y21" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Z21" s="12" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="AA21" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AB21" s="12" t="s">
         <v>66</v>
       </c>
       <c r="AC21" s="12" t="s">
+        <v>664</v>
+      </c>
+      <c r="AD21" s="12" t="s">
         <v>665</v>
       </c>
-      <c r="AD21" s="12" t="s">
+      <c r="AE21" s="12" t="s">
         <v>666</v>
       </c>
-      <c r="AE21" s="12" t="s">
+      <c r="AF21" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="AG21" s="12" t="s">
         <v>667</v>
       </c>
-      <c r="AF21" s="12" t="s">
-        <v>409</v>
-      </c>
-      <c r="AG21" s="12" t="s">
+      <c r="AH21" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="AI21" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="AJ21" s="12" t="s">
         <v>668</v>
       </c>
-      <c r="AH21" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="AI21" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="AJ21" s="12" t="s">
+      <c r="AK21" s="12" t="s">
         <v>669</v>
       </c>
-      <c r="AK21" s="12" t="s">
+      <c r="AL21" s="12" t="s">
         <v>670</v>
       </c>
-      <c r="AL21" s="12" t="s">
+      <c r="AM21" s="12" t="s">
         <v>671</v>
       </c>
-      <c r="AM21" s="12" t="s">
+      <c r="AN21" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="AO21" s="12" t="s">
         <v>672</v>
       </c>
-      <c r="AN21" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="AO21" s="12" t="s">
+      <c r="AP21" s="12" t="s">
         <v>673</v>
       </c>
-      <c r="AP21" s="12" t="s">
+      <c r="AQ21" s="12" t="s">
         <v>674</v>
       </c>
-      <c r="AQ21" s="12" t="s">
+      <c r="AR21" s="12" t="s">
         <v>675</v>
       </c>
-      <c r="AR21" s="12" t="s">
+      <c r="AS21" s="12" t="s">
         <v>676</v>
       </c>
-      <c r="AS21" s="12" t="s">
+      <c r="AT21" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="AU21" s="12" t="s">
         <v>677</v>
       </c>
-      <c r="AT21" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="AU21" s="12" t="s">
+      <c r="AV21" s="12" t="s">
         <v>678</v>
       </c>
-      <c r="AV21" s="12" t="s">
+      <c r="AW21" s="12" t="s">
         <v>679</v>
-      </c>
-      <c r="AW21" s="12" t="s">
-        <v>680</v>
       </c>
       <c r="AX21" s="12" t="s">
         <v>128</v>
       </c>
       <c r="AY21" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AZ21" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="BA21" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="BB21">
         <v>999</v>
@@ -6203,10 +6889,10 @@
         <v>12</v>
       </c>
       <c r="G22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H22" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I22" s="9">
         <v>25</v>
@@ -6215,133 +6901,133 @@
         <v>47.3</v>
       </c>
       <c r="K22" t="s">
+        <v>681</v>
+      </c>
+      <c r="L22" t="s">
         <v>682</v>
       </c>
-      <c r="L22" t="s">
-        <v>683</v>
-      </c>
       <c r="M22">
         <v>999</v>
       </c>
       <c r="N22" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="O22" t="s">
         <v>93</v>
       </c>
       <c r="P22" t="s">
+        <v>683</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>693</v>
+      </c>
+      <c r="R22">
+        <v>999</v>
+      </c>
+      <c r="S22">
+        <v>999</v>
+      </c>
+      <c r="T22" t="s">
+        <v>178</v>
+      </c>
+      <c r="U22" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="V22" s="12" t="s">
+        <v>685</v>
+      </c>
+      <c r="W22" s="12" t="s">
+        <v>686</v>
+      </c>
+      <c r="X22" s="12" t="s">
+        <v>687</v>
+      </c>
+      <c r="Y22" s="12" t="s">
+        <v>688</v>
+      </c>
+      <c r="Z22" s="12" t="s">
+        <v>689</v>
+      </c>
+      <c r="AA22" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="AB22" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="AC22" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="AD22" s="12" t="s">
+        <v>691</v>
+      </c>
+      <c r="AE22" s="12" t="s">
+        <v>692</v>
+      </c>
+      <c r="AF22" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="AG22" s="12" t="s">
         <v>694</v>
       </c>
-      <c r="R22">
-        <v>999</v>
-      </c>
-      <c r="S22">
-        <v>999</v>
-      </c>
-      <c r="T22" t="s">
-        <v>179</v>
-      </c>
-      <c r="U22" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="V22" s="12" t="s">
-        <v>686</v>
-      </c>
-      <c r="W22" s="12" t="s">
-        <v>687</v>
-      </c>
-      <c r="X22" s="12" t="s">
-        <v>688</v>
-      </c>
-      <c r="Y22" s="12" t="s">
-        <v>689</v>
-      </c>
-      <c r="Z22" s="12" t="s">
-        <v>690</v>
-      </c>
-      <c r="AA22" s="12" t="s">
-        <v>326</v>
-      </c>
-      <c r="AB22" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="AC22" s="12" t="s">
-        <v>407</v>
-      </c>
-      <c r="AD22" s="12" t="s">
-        <v>692</v>
-      </c>
-      <c r="AE22" s="12" t="s">
-        <v>693</v>
-      </c>
-      <c r="AF22" s="12" t="s">
-        <v>409</v>
-      </c>
-      <c r="AG22" s="12" t="s">
-        <v>695</v>
-      </c>
       <c r="AH22" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AI22" s="12" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="AJ22" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AK22" s="12" t="s">
         <v>73</v>
       </c>
       <c r="AL22" s="12" t="s">
+        <v>697</v>
+      </c>
+      <c r="AM22" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="AN22" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="AO22" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="AP22" s="12" t="s">
         <v>698</v>
       </c>
-      <c r="AM22" s="12" t="s">
-        <v>447</v>
-      </c>
-      <c r="AN22" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="AO22" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="AP22" s="12" t="s">
-        <v>699</v>
-      </c>
       <c r="AQ22" s="12" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AR22" s="12" t="s">
         <v>80</v>
       </c>
       <c r="AS22" s="12" t="s">
+        <v>699</v>
+      </c>
+      <c r="AT22" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="AU22" s="12" t="s">
         <v>700</v>
       </c>
-      <c r="AT22" s="12" t="s">
-        <v>422</v>
-      </c>
-      <c r="AU22" s="12" t="s">
+      <c r="AV22" s="12" t="s">
         <v>701</v>
       </c>
-      <c r="AV22" s="12" t="s">
-        <v>702</v>
-      </c>
       <c r="AW22" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AX22" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AY22" s="1" t="s">
         <v>86</v>
       </c>
       <c r="AZ22" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="BA22" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BB22">
         <v>999</v>
@@ -6367,10 +7053,10 @@
         <v>14</v>
       </c>
       <c r="G23" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H23" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I23" s="9">
         <v>25</v>
@@ -6379,133 +7065,1773 @@
         <v>47.3</v>
       </c>
       <c r="K23" t="s">
+        <v>703</v>
+      </c>
+      <c r="L23" t="s">
         <v>704</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23">
+        <v>999</v>
+      </c>
+      <c r="N23" t="s">
         <v>705</v>
       </c>
-      <c r="M23">
-        <v>999</v>
-      </c>
-      <c r="N23" t="s">
+      <c r="O23" t="s">
+        <v>172</v>
+      </c>
+      <c r="P23" t="s">
         <v>706</v>
       </c>
-      <c r="O23" t="s">
-        <v>173</v>
-      </c>
-      <c r="P23" t="s">
+      <c r="Q23" t="s">
         <v>707</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="R23">
+        <v>999</v>
+      </c>
+      <c r="S23" t="s">
+        <v>374</v>
+      </c>
+      <c r="T23" t="s">
         <v>708</v>
       </c>
-      <c r="R23">
-        <v>999</v>
-      </c>
-      <c r="S23" t="s">
-        <v>375</v>
-      </c>
-      <c r="T23" t="s">
+      <c r="U23" s="1" t="s">
         <v>709</v>
       </c>
-      <c r="U23" s="1" t="s">
+      <c r="V23" s="12" t="s">
         <v>710</v>
       </c>
-      <c r="V23" s="12" t="s">
+      <c r="W23" s="12" t="s">
+        <v>587</v>
+      </c>
+      <c r="X23" s="12" t="s">
         <v>711</v>
       </c>
-      <c r="W23" s="12" t="s">
-        <v>588</v>
-      </c>
-      <c r="X23" s="12" t="s">
+      <c r="Y23" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="Z23" s="12" t="s">
         <v>712</v>
       </c>
-      <c r="Y23" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="Z23" s="12" t="s">
+      <c r="AA23" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB23" s="12" t="s">
         <v>713</v>
       </c>
-      <c r="AA23" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="AB23" s="12" t="s">
+      <c r="AC23" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="AD23" s="12" t="s">
         <v>714</v>
       </c>
-      <c r="AC23" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="AD23" s="12" t="s">
+      <c r="AE23" s="12" t="s">
         <v>715</v>
       </c>
-      <c r="AE23" s="12" t="s">
+      <c r="AF23" s="12" t="s">
         <v>716</v>
       </c>
-      <c r="AF23" s="12" t="s">
+      <c r="AG23" s="12" t="s">
         <v>717</v>
       </c>
-      <c r="AG23" s="12" t="s">
+      <c r="AH23" s="12" t="s">
         <v>718</v>
       </c>
-      <c r="AH23" s="12" t="s">
+      <c r="AI23" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="AJ23" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="AK23" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="AL23" s="12" t="s">
         <v>719</v>
       </c>
-      <c r="AI23" s="12" t="s">
+      <c r="AM23" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="AN23" s="12" t="s">
+        <v>720</v>
+      </c>
+      <c r="AO23" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="AP23" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="AQ23" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="AR23" s="12" t="s">
+        <v>721</v>
+      </c>
+      <c r="AS23" s="12" t="s">
+        <v>722</v>
+      </c>
+      <c r="AT23" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="AU23" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="AV23" s="12" t="s">
+        <v>724</v>
+      </c>
+      <c r="AW23" s="12" t="s">
+        <v>725</v>
+      </c>
+      <c r="AX23" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="AY23" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="AZ23" t="s">
+        <v>537</v>
+      </c>
+      <c r="BA23" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="BB23">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:54">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="14">
+        <v>44740</v>
+      </c>
+      <c r="C24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24">
+        <v>12</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>726</v>
+      </c>
+      <c r="H24" t="s">
+        <v>243</v>
+      </c>
+      <c r="I24" s="9">
+        <v>25.1</v>
+      </c>
+      <c r="J24" s="9">
+        <v>47.3</v>
+      </c>
+      <c r="K24" t="s">
+        <v>727</v>
+      </c>
+      <c r="L24" t="s">
+        <v>728</v>
+      </c>
+      <c r="M24">
+        <v>999</v>
+      </c>
+      <c r="N24" t="s">
+        <v>492</v>
+      </c>
+      <c r="O24" t="s">
+        <v>93</v>
+      </c>
+      <c r="P24" t="s">
+        <v>729</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>730</v>
+      </c>
+      <c r="R24">
+        <v>999</v>
+      </c>
+      <c r="S24">
+        <v>999</v>
+      </c>
+      <c r="T24" t="s">
+        <v>97</v>
+      </c>
+      <c r="U24" s="1">
+        <v>999</v>
+      </c>
+      <c r="V24" s="12" t="s">
+        <v>731</v>
+      </c>
+      <c r="W24" s="12" t="s">
+        <v>732</v>
+      </c>
+      <c r="X24" s="12" t="s">
+        <v>733</v>
+      </c>
+      <c r="Y24" s="12" t="s">
+        <v>734</v>
+      </c>
+      <c r="Z24" s="12" t="s">
+        <v>735</v>
+      </c>
+      <c r="AA24" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="AB24" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC24" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="AD24" s="12" t="s">
+        <v>736</v>
+      </c>
+      <c r="AE24" s="12" t="s">
+        <v>737</v>
+      </c>
+      <c r="AF24" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="AG24" s="12" t="s">
+        <v>738</v>
+      </c>
+      <c r="AH24" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="AI24" s="12" t="s">
+        <v>740</v>
+      </c>
+      <c r="AJ24" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="AK24" s="12" t="s">
+        <v>741</v>
+      </c>
+      <c r="AL24" s="12" t="s">
+        <v>742</v>
+      </c>
+      <c r="AM24" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="AN24" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="AO24" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP24" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ24" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="AR24" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS24" s="12" t="s">
+        <v>743</v>
+      </c>
+      <c r="AT24" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU24" s="12" t="s">
+        <v>744</v>
+      </c>
+      <c r="AV24" s="12" t="s">
+        <v>745</v>
+      </c>
+      <c r="AW24" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="AX24" s="12" t="s">
+        <v>746</v>
+      </c>
+      <c r="AY24" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="AZ24" t="s">
+        <v>739</v>
+      </c>
+      <c r="BA24" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BB24">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:54">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="14">
+        <v>44740</v>
+      </c>
+      <c r="C25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25">
+        <v>12</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+      <c r="G25" t="s">
+        <v>748</v>
+      </c>
+      <c r="H25" t="s">
+        <v>57</v>
+      </c>
+      <c r="I25" s="9">
+        <v>25.1</v>
+      </c>
+      <c r="J25" s="9">
+        <v>47.3</v>
+      </c>
+      <c r="K25" t="s">
+        <v>749</v>
+      </c>
+      <c r="L25" t="s">
+        <v>750</v>
+      </c>
+      <c r="M25">
+        <v>999</v>
+      </c>
+      <c r="N25" t="s">
+        <v>492</v>
+      </c>
+      <c r="O25" t="s">
+        <v>93</v>
+      </c>
+      <c r="P25" t="s">
+        <v>751</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>752</v>
+      </c>
+      <c r="R25" t="s">
+        <v>753</v>
+      </c>
+      <c r="S25">
+        <v>999</v>
+      </c>
+      <c r="T25" t="s">
+        <v>321</v>
+      </c>
+      <c r="U25" s="1">
+        <v>999</v>
+      </c>
+      <c r="V25" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="W25" s="12" t="s">
+        <v>754</v>
+      </c>
+      <c r="X25" s="12" t="s">
+        <v>755</v>
+      </c>
+      <c r="Y25" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z25" s="12" t="s">
+        <v>756</v>
+      </c>
+      <c r="AA25" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="AB25" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC25" s="12" t="s">
+        <v>757</v>
+      </c>
+      <c r="AD25" s="12" t="s">
+        <v>691</v>
+      </c>
+      <c r="AE25" s="12" t="s">
+        <v>737</v>
+      </c>
+      <c r="AF25">
+        <v>999</v>
+      </c>
+      <c r="AG25" s="12" t="s">
+        <v>758</v>
+      </c>
+      <c r="AH25" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="AI25" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="AJ25" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="AK25" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="AL25" s="12" t="s">
+        <v>760</v>
+      </c>
+      <c r="AM25" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="AN25" s="12" t="s">
+        <v>761</v>
+      </c>
+      <c r="AO25" s="12" t="s">
+        <v>762</v>
+      </c>
+      <c r="AP25" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ25" s="12" t="s">
+        <v>763</v>
+      </c>
+      <c r="AR25" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS25" s="12" t="s">
+        <v>764</v>
+      </c>
+      <c r="AT25" s="12" t="s">
+        <v>765</v>
+      </c>
+      <c r="AU25" s="12" t="s">
+        <v>766</v>
+      </c>
+      <c r="AV25" s="12" t="s">
+        <v>767</v>
+      </c>
+      <c r="AW25" s="12" t="s">
+        <v>768</v>
+      </c>
+      <c r="AX25" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="AY25" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="AZ25" t="s">
+        <v>759</v>
+      </c>
+      <c r="BA25" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="BB25">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:54">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="14">
+        <v>44740</v>
+      </c>
+      <c r="C26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26">
+        <v>12</v>
+      </c>
+      <c r="F26">
+        <v>5</v>
+      </c>
+      <c r="G26" t="s">
+        <v>770</v>
+      </c>
+      <c r="H26" t="s">
+        <v>90</v>
+      </c>
+      <c r="I26" s="9">
+        <v>25.1</v>
+      </c>
+      <c r="J26" s="9">
+        <v>47.3</v>
+      </c>
+      <c r="K26" t="s">
+        <v>771</v>
+      </c>
+      <c r="L26" t="s">
+        <v>772</v>
+      </c>
+      <c r="M26">
+        <v>999</v>
+      </c>
+      <c r="N26" t="s">
+        <v>492</v>
+      </c>
+      <c r="O26" t="s">
+        <v>172</v>
+      </c>
+      <c r="P26" t="s">
+        <v>773</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>774</v>
+      </c>
+      <c r="R26">
+        <v>999</v>
+      </c>
+      <c r="S26" t="s">
+        <v>374</v>
+      </c>
+      <c r="T26" t="s">
+        <v>97</v>
+      </c>
+      <c r="U26" s="1">
+        <v>999</v>
+      </c>
+      <c r="V26" s="12" t="s">
+        <v>775</v>
+      </c>
+      <c r="W26" s="12" t="s">
+        <v>776</v>
+      </c>
+      <c r="X26" s="12" t="s">
+        <v>777</v>
+      </c>
+      <c r="Y26" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="Z26" s="12" t="s">
+        <v>778</v>
+      </c>
+      <c r="AA26" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="AB26" s="12" t="s">
+        <v>779</v>
+      </c>
+      <c r="AC26" s="12" t="s">
+        <v>780</v>
+      </c>
+      <c r="AD26" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="AE26" s="12" t="s">
+        <v>781</v>
+      </c>
+      <c r="AF26" s="12" t="s">
+        <v>782</v>
+      </c>
+      <c r="AG26" s="12" t="s">
+        <v>783</v>
+      </c>
+      <c r="AH26" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="AI26" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="AJ26" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="AJ23" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="AK23" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="AL23" s="12" t="s">
-        <v>720</v>
-      </c>
-      <c r="AM23" s="12" t="s">
-        <v>478</v>
-      </c>
-      <c r="AN23" s="12" t="s">
-        <v>721</v>
-      </c>
-      <c r="AO23" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="AP23" s="12" t="s">
+      <c r="AK26" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="AL26" s="12" t="s">
+        <v>784</v>
+      </c>
+      <c r="AM26" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="AN26" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="AO26" s="12" t="s">
+        <v>785</v>
+      </c>
+      <c r="AP26" s="12" t="s">
+        <v>645</v>
+      </c>
+      <c r="AQ26" s="12" t="s">
+        <v>786</v>
+      </c>
+      <c r="AR26" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="AS26" s="12" t="s">
+        <v>787</v>
+      </c>
+      <c r="AT26" s="12" t="s">
+        <v>788</v>
+      </c>
+      <c r="AU26" s="12" t="s">
+        <v>789</v>
+      </c>
+      <c r="AV26" s="12" t="s">
+        <v>790</v>
+      </c>
+      <c r="AW26" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="AX26" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="AY26" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="AZ26" t="s">
+        <v>386</v>
+      </c>
+      <c r="BA26" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="BB26">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:54">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="14">
+        <v>44740</v>
+      </c>
+      <c r="C27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27">
+        <v>10</v>
+      </c>
+      <c r="F27">
+        <v>6</v>
+      </c>
+      <c r="G27" t="s">
+        <v>791</v>
+      </c>
+      <c r="H27" t="s">
+        <v>243</v>
+      </c>
+      <c r="I27" s="9">
+        <v>24.5</v>
+      </c>
+      <c r="J27" s="9">
+        <v>47.3</v>
+      </c>
+      <c r="K27" t="s">
+        <v>793</v>
+      </c>
+      <c r="L27" t="s">
+        <v>792</v>
+      </c>
+      <c r="M27">
+        <v>999</v>
+      </c>
+      <c r="N27" t="s">
+        <v>92</v>
+      </c>
+      <c r="O27" t="s">
+        <v>431</v>
+      </c>
+      <c r="P27" t="s">
+        <v>794</v>
+      </c>
+      <c r="Q27">
+        <v>999</v>
+      </c>
+      <c r="R27">
+        <v>999</v>
+      </c>
+      <c r="S27">
+        <v>999</v>
+      </c>
+      <c r="T27" t="s">
+        <v>321</v>
+      </c>
+      <c r="U27" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="V27" s="12">
+        <v>999</v>
+      </c>
+      <c r="W27" s="12" t="s">
+        <v>795</v>
+      </c>
+      <c r="X27" s="12" t="s">
+        <v>796</v>
+      </c>
+      <c r="Y27">
+        <v>999</v>
+      </c>
+      <c r="Z27" s="12" t="s">
+        <v>797</v>
+      </c>
+      <c r="AA27">
+        <v>999</v>
+      </c>
+      <c r="AB27">
+        <v>999</v>
+      </c>
+      <c r="AC27" s="12" t="s">
+        <v>798</v>
+      </c>
+      <c r="AD27" s="12" t="s">
+        <v>799</v>
+      </c>
+      <c r="AE27" s="12" t="s">
+        <v>800</v>
+      </c>
+      <c r="AF27">
+        <v>999</v>
+      </c>
+      <c r="AG27" s="12" t="s">
+        <v>801</v>
+      </c>
+      <c r="AH27">
+        <v>999</v>
+      </c>
+      <c r="AI27" s="12" t="s">
+        <v>803</v>
+      </c>
+      <c r="AJ27" s="12" t="s">
+        <v>804</v>
+      </c>
+      <c r="AK27" s="12" t="s">
+        <v>805</v>
+      </c>
+      <c r="AL27">
+        <v>999</v>
+      </c>
+      <c r="AM27" s="12" t="s">
+        <v>806</v>
+      </c>
+      <c r="AN27" s="12" t="s">
+        <v>807</v>
+      </c>
+      <c r="AO27" s="12" t="s">
+        <v>808</v>
+      </c>
+      <c r="AP27">
+        <v>999</v>
+      </c>
+      <c r="AQ27">
+        <v>999</v>
+      </c>
+      <c r="AR27" s="12" t="s">
+        <v>809</v>
+      </c>
+      <c r="AS27" s="12" t="s">
+        <v>810</v>
+      </c>
+      <c r="AT27" s="12" t="s">
+        <v>811</v>
+      </c>
+      <c r="AU27">
+        <v>999</v>
+      </c>
+      <c r="AV27">
+        <v>999</v>
+      </c>
+      <c r="AW27" s="12" t="s">
+        <v>812</v>
+      </c>
+      <c r="AX27" s="12" t="s">
+        <v>813</v>
+      </c>
+      <c r="AY27" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="AZ27" t="s">
+        <v>802</v>
+      </c>
+      <c r="BA27" s="1">
+        <v>999</v>
+      </c>
+      <c r="BB27">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:54">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="14">
+        <v>44740</v>
+      </c>
+      <c r="C28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28">
+        <v>10</v>
+      </c>
+      <c r="F28">
+        <v>4</v>
+      </c>
+      <c r="G28" t="s">
+        <v>815</v>
+      </c>
+      <c r="H28" t="s">
+        <v>243</v>
+      </c>
+      <c r="I28" s="9">
+        <v>24.5</v>
+      </c>
+      <c r="J28" s="9">
+        <v>47.3</v>
+      </c>
+      <c r="K28" t="s">
+        <v>816</v>
+      </c>
+      <c r="L28" t="s">
+        <v>817</v>
+      </c>
+      <c r="M28">
+        <v>999</v>
+      </c>
+      <c r="N28" t="s">
+        <v>92</v>
+      </c>
+      <c r="O28" t="s">
+        <v>172</v>
+      </c>
+      <c r="P28" t="s">
+        <v>818</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>819</v>
+      </c>
+      <c r="R28">
+        <v>999</v>
+      </c>
+      <c r="S28" t="s">
+        <v>374</v>
+      </c>
+      <c r="T28" t="s">
+        <v>97</v>
+      </c>
+      <c r="U28" s="1">
+        <v>999</v>
+      </c>
+      <c r="V28" s="12" t="s">
+        <v>609</v>
+      </c>
+      <c r="W28" s="12" t="s">
+        <v>820</v>
+      </c>
+      <c r="X28" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="Y28" s="12" t="s">
+        <v>821</v>
+      </c>
+      <c r="Z28" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="AA28">
+        <v>999</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>823</v>
+      </c>
+      <c r="AC28" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="AD28" s="12" t="s">
+        <v>824</v>
+      </c>
+      <c r="AE28" s="12" t="s">
+        <v>592</v>
+      </c>
+      <c r="AF28" s="12" t="s">
+        <v>825</v>
+      </c>
+      <c r="AG28" s="12" t="s">
+        <v>826</v>
+      </c>
+      <c r="AH28" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="AI28" s="12" t="s">
+        <v>507</v>
+      </c>
+      <c r="AJ28" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="AK28" s="12" t="s">
+        <v>828</v>
+      </c>
+      <c r="AL28" s="12" t="s">
+        <v>829</v>
+      </c>
+      <c r="AM28" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="AN28" s="12" t="s">
+        <v>830</v>
+      </c>
+      <c r="AO28" s="12" t="s">
+        <v>672</v>
+      </c>
+      <c r="AP28" s="12" t="s">
+        <v>831</v>
+      </c>
+      <c r="AQ28" s="12" t="s">
+        <v>832</v>
+      </c>
+      <c r="AR28" s="12" t="s">
+        <v>833</v>
+      </c>
+      <c r="AS28" s="12" t="s">
+        <v>834</v>
+      </c>
+      <c r="AT28" s="12" t="s">
+        <v>835</v>
+      </c>
+      <c r="AU28" s="12" t="s">
+        <v>836</v>
+      </c>
+      <c r="AV28" s="12" t="s">
+        <v>837</v>
+      </c>
+      <c r="AW28" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="AX28" s="12" t="s">
+        <v>838</v>
+      </c>
+      <c r="AY28" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="AZ28" t="s">
+        <v>827</v>
+      </c>
+      <c r="BA28" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="BB28">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:54">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="14">
+        <v>44740</v>
+      </c>
+      <c r="C29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29">
+        <v>10</v>
+      </c>
+      <c r="F29">
+        <v>13</v>
+      </c>
+      <c r="G29" t="s">
+        <v>839</v>
+      </c>
+      <c r="H29" t="s">
+        <v>243</v>
+      </c>
+      <c r="I29" s="9">
+        <v>24.5</v>
+      </c>
+      <c r="J29" s="9">
+        <v>47.3</v>
+      </c>
+      <c r="K29" t="s">
+        <v>396</v>
+      </c>
+      <c r="L29" t="s">
+        <v>840</v>
+      </c>
+      <c r="M29">
+        <v>999</v>
+      </c>
+      <c r="N29" t="s">
+        <v>92</v>
+      </c>
+      <c r="O29" t="s">
+        <v>172</v>
+      </c>
+      <c r="P29" t="s">
+        <v>841</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>583</v>
+      </c>
+      <c r="R29">
+        <v>999</v>
+      </c>
+      <c r="S29">
+        <v>999</v>
+      </c>
+      <c r="T29" t="s">
+        <v>321</v>
+      </c>
+      <c r="U29" s="1">
+        <v>999</v>
+      </c>
+      <c r="V29" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="W29" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="X29" s="12" t="s">
+        <v>842</v>
+      </c>
+      <c r="Y29" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z29" s="12" t="s">
+        <v>843</v>
+      </c>
+      <c r="AA29" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="AB29" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="AC29" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="AD29" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="AE29" s="12" t="s">
+        <v>844</v>
+      </c>
+      <c r="AF29" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="AG29" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="AH29" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="AI29" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="AJ29" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="AK29" s="12" t="s">
+        <v>845</v>
+      </c>
+      <c r="AL29">
+        <v>999</v>
+      </c>
+      <c r="AM29" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="AN29" s="12" t="s">
+        <v>846</v>
+      </c>
+      <c r="AO29" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="AP29" s="12" t="s">
+        <v>919</v>
+      </c>
+      <c r="AQ29" s="12" t="s">
+        <v>847</v>
+      </c>
+      <c r="AR29" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS29" s="12" t="s">
+        <v>848</v>
+      </c>
+      <c r="AT29">
+        <v>999</v>
+      </c>
+      <c r="AU29" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="AV29" s="12" t="s">
+        <v>849</v>
+      </c>
+      <c r="AW29" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="AX29" s="12" t="s">
+        <v>813</v>
+      </c>
+      <c r="AY29" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="AZ29" t="s">
+        <v>386</v>
+      </c>
+      <c r="BA29" s="1">
+        <v>999</v>
+      </c>
+      <c r="BB29">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:54">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="14">
+        <v>44740</v>
+      </c>
+      <c r="C30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30">
+        <v>11</v>
+      </c>
+      <c r="F30">
+        <v>7</v>
+      </c>
+      <c r="G30" t="s">
+        <v>850</v>
+      </c>
+      <c r="H30" t="s">
+        <v>243</v>
+      </c>
+      <c r="I30" s="9">
+        <v>25</v>
+      </c>
+      <c r="J30" s="9">
+        <v>47.3</v>
+      </c>
+      <c r="K30" t="s">
+        <v>851</v>
+      </c>
+      <c r="L30" t="s">
+        <v>320</v>
+      </c>
+      <c r="M30">
+        <v>999</v>
+      </c>
+      <c r="N30" t="s">
+        <v>92</v>
+      </c>
+      <c r="O30" t="s">
+        <v>852</v>
+      </c>
+      <c r="P30" t="s">
+        <v>853</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>492</v>
+      </c>
+      <c r="S30" t="s">
+        <v>854</v>
+      </c>
+      <c r="T30" t="s">
+        <v>321</v>
+      </c>
+      <c r="U30" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="V30" s="12" t="s">
+        <v>609</v>
+      </c>
+      <c r="W30" s="12" t="s">
+        <v>856</v>
+      </c>
+      <c r="X30" s="12" t="s">
+        <v>857</v>
+      </c>
+      <c r="Y30" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z30" s="12" t="s">
+        <v>858</v>
+      </c>
+      <c r="AA30" s="12" t="s">
+        <v>859</v>
+      </c>
+      <c r="AB30" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC30" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="AD30" s="12" t="s">
+        <v>860</v>
+      </c>
+      <c r="AE30" s="12" t="s">
+        <v>861</v>
+      </c>
+      <c r="AF30" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="AG30" s="12" t="s">
+        <v>863</v>
+      </c>
+      <c r="AH30" s="12" t="s">
+        <v>862</v>
+      </c>
+      <c r="AI30" s="12" t="s">
+        <v>865</v>
+      </c>
+      <c r="AJ30" s="12" t="s">
+        <v>866</v>
+      </c>
+      <c r="AK30" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="AL30" s="12" t="s">
+        <v>867</v>
+      </c>
+      <c r="AM30" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="AN30" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="AO30" s="12" t="s">
+        <v>868</v>
+      </c>
+      <c r="AP30" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="AQ30" s="12" t="s">
+        <v>869</v>
+      </c>
+      <c r="AR30" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS30" s="12" t="s">
+        <v>870</v>
+      </c>
+      <c r="AT30" t="s">
+        <v>871</v>
+      </c>
+      <c r="AU30" s="12" t="s">
+        <v>872</v>
+      </c>
+      <c r="AV30" s="12" t="s">
+        <v>873</v>
+      </c>
+      <c r="AW30" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="AX30" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="AY30" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="AZ30" t="s">
+        <v>864</v>
+      </c>
+      <c r="BA30" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="BB30">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:54">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="14">
+        <v>44740</v>
+      </c>
+      <c r="C31" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" t="s">
+        <v>55</v>
+      </c>
+      <c r="E31">
+        <v>11</v>
+      </c>
+      <c r="F31">
+        <v>10</v>
+      </c>
+      <c r="G31" t="s">
+        <v>874</v>
+      </c>
+      <c r="H31" t="s">
+        <v>243</v>
+      </c>
+      <c r="I31" s="9">
+        <v>25</v>
+      </c>
+      <c r="J31" s="9">
+        <v>47.3</v>
+      </c>
+      <c r="K31" t="s">
+        <v>875</v>
+      </c>
+      <c r="L31" t="s">
+        <v>876</v>
+      </c>
+      <c r="M31">
+        <v>999</v>
+      </c>
+      <c r="N31" t="s">
+        <v>92</v>
+      </c>
+      <c r="O31" t="s">
+        <v>877</v>
+      </c>
+      <c r="P31" t="s">
+        <v>878</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>879</v>
+      </c>
+      <c r="R31">
+        <v>999</v>
+      </c>
+      <c r="S31" t="s">
+        <v>880</v>
+      </c>
+      <c r="T31" t="s">
+        <v>178</v>
+      </c>
+      <c r="U31" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="V31" s="12" t="s">
+        <v>882</v>
+      </c>
+      <c r="W31" s="12" t="s">
+        <v>883</v>
+      </c>
+      <c r="X31" s="12" t="s">
+        <v>885</v>
+      </c>
+      <c r="Y31" s="12" t="s">
+        <v>884</v>
+      </c>
+      <c r="Z31" s="12" t="s">
+        <v>886</v>
+      </c>
+      <c r="AA31" s="15" t="s">
+        <v>887</v>
+      </c>
+      <c r="AB31" s="15" t="s">
+        <v>888</v>
+      </c>
+      <c r="AC31" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD31" s="15" t="s">
+        <v>501</v>
+      </c>
+      <c r="AE31" s="15" t="s">
+        <v>889</v>
+      </c>
+      <c r="AF31" s="15" t="s">
+        <v>825</v>
+      </c>
+      <c r="AG31" s="15" t="s">
+        <v>890</v>
+      </c>
+      <c r="AH31" s="15" t="s">
+        <v>891</v>
+      </c>
+      <c r="AI31" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="AJ31" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="AK31" s="15" t="s">
+        <v>892</v>
+      </c>
+      <c r="AL31" s="15" t="s">
+        <v>893</v>
+      </c>
+      <c r="AM31" s="15" t="s">
+        <v>894</v>
+      </c>
+      <c r="AN31" s="15" t="s">
+        <v>895</v>
+      </c>
+      <c r="AO31" s="15" t="s">
+        <v>511</v>
+      </c>
+      <c r="AP31" s="15" t="s">
+        <v>896</v>
+      </c>
+      <c r="AQ31" s="15" t="s">
+        <v>513</v>
+      </c>
+      <c r="AR31" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="AS31" s="15" t="s">
+        <v>898</v>
+      </c>
+      <c r="AT31" s="15" t="s">
+        <v>899</v>
+      </c>
+      <c r="AU31" s="15" t="s">
+        <v>601</v>
+      </c>
+      <c r="AV31" s="15" t="s">
+        <v>900</v>
+      </c>
+      <c r="AW31" s="15" t="s">
+        <v>901</v>
+      </c>
+      <c r="AX31" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="AY31" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="AZ31" t="s">
+        <v>594</v>
+      </c>
+      <c r="BA31" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="BB31">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:54">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="14">
+        <v>44740</v>
+      </c>
+      <c r="C32" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32">
+        <v>11</v>
+      </c>
+      <c r="F32">
+        <v>13</v>
+      </c>
+      <c r="G32" t="s">
+        <v>902</v>
+      </c>
+      <c r="H32" t="s">
+        <v>243</v>
+      </c>
+      <c r="I32" s="9">
+        <v>25</v>
+      </c>
+      <c r="J32" s="9">
+        <v>47.3</v>
+      </c>
+      <c r="K32" t="s">
+        <v>903</v>
+      </c>
+      <c r="L32" t="s">
+        <v>904</v>
+      </c>
+      <c r="M32">
+        <v>999</v>
+      </c>
+      <c r="N32" t="s">
+        <v>905</v>
+      </c>
+      <c r="O32" t="s">
+        <v>172</v>
+      </c>
+      <c r="P32" t="s">
+        <v>906</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>907</v>
+      </c>
+      <c r="R32" t="s">
+        <v>908</v>
+      </c>
+      <c r="S32" t="s">
+        <v>374</v>
+      </c>
+      <c r="T32" t="s">
+        <v>97</v>
+      </c>
+      <c r="U32" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="V32" s="12" t="s">
+        <v>910</v>
+      </c>
+      <c r="W32" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="X32" s="12" t="s">
+        <v>911</v>
+      </c>
+      <c r="Y32" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z32" s="12" t="s">
+        <v>912</v>
+      </c>
+      <c r="AA32" s="15" t="s">
+        <v>913</v>
+      </c>
+      <c r="AB32" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC32" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD32" s="15" t="s">
+        <v>914</v>
+      </c>
+      <c r="AE32" s="15" t="s">
+        <v>915</v>
+      </c>
+      <c r="AF32" s="15" t="s">
+        <v>916</v>
+      </c>
+      <c r="AG32" s="15" t="s">
+        <v>917</v>
+      </c>
+      <c r="AH32" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="AI32" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="AJ32" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="AK32" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="AL32" s="15" t="s">
+        <v>918</v>
+      </c>
+      <c r="AM32" s="15" t="s">
+        <v>390</v>
+      </c>
+      <c r="AN32" s="15" t="s">
+        <v>920</v>
+      </c>
+      <c r="AO32" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP32" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="AQ32" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR32" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS32" s="15" t="s">
+        <v>921</v>
+      </c>
+      <c r="AT32" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU32" s="15" t="s">
+        <v>922</v>
+      </c>
+      <c r="AV32" s="15" t="s">
+        <v>923</v>
+      </c>
+      <c r="AW32" s="15" t="s">
+        <v>924</v>
+      </c>
+      <c r="AX32" s="15" t="s">
+        <v>925</v>
+      </c>
+      <c r="AY32" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="AZ32" t="s">
+        <v>444</v>
+      </c>
+      <c r="BA32" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="BB32" s="12" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="33" spans="1:54">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="14">
+        <v>44740</v>
+      </c>
+      <c r="C33" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" t="s">
+        <v>55</v>
+      </c>
+      <c r="E33">
+        <v>12</v>
+      </c>
+      <c r="F33">
+        <v>3</v>
+      </c>
+      <c r="G33" t="s">
+        <v>927</v>
+      </c>
+      <c r="H33" t="s">
+        <v>243</v>
+      </c>
+      <c r="I33" s="9">
+        <v>25.1</v>
+      </c>
+      <c r="J33" s="9">
+        <v>47.3</v>
+      </c>
+      <c r="K33" t="s">
+        <v>928</v>
+      </c>
+      <c r="L33" t="s">
+        <v>929</v>
+      </c>
+      <c r="M33">
+        <v>999</v>
+      </c>
+      <c r="N33" t="s">
+        <v>492</v>
+      </c>
+      <c r="O33" t="s">
+        <v>93</v>
+      </c>
+      <c r="P33" t="s">
+        <v>930</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>931</v>
+      </c>
+      <c r="R33">
+        <v>999</v>
+      </c>
+      <c r="S33">
+        <v>999</v>
+      </c>
+      <c r="T33" t="s">
+        <v>97</v>
+      </c>
+      <c r="U33" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="V33" s="12" t="s">
+        <v>933</v>
+      </c>
+      <c r="W33" s="12" t="s">
+        <v>935</v>
+      </c>
+      <c r="X33" s="12" t="s">
+        <v>934</v>
+      </c>
+      <c r="Y33" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z33" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA33" s="15" t="s">
+        <v>936</v>
+      </c>
+      <c r="AB33" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC33" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD33" s="15" t="s">
+        <v>937</v>
+      </c>
+      <c r="AE33" s="15" t="s">
+        <v>938</v>
+      </c>
+      <c r="AF33" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="AG33" s="15" t="s">
+        <v>939</v>
+      </c>
+      <c r="AH33" s="15" t="s">
+        <v>940</v>
+      </c>
+      <c r="AI33" s="15" t="s">
+        <v>942</v>
+      </c>
+      <c r="AJ33" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK33" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="AL33" s="15" t="s">
+        <v>943</v>
+      </c>
+      <c r="AM33" s="15" t="s">
+        <v>944</v>
+      </c>
+      <c r="AN33" s="15" t="s">
+        <v>945</v>
+      </c>
+      <c r="AO33" s="15" t="s">
+        <v>946</v>
+      </c>
+      <c r="AP33" s="15" t="s">
+        <v>947</v>
+      </c>
+      <c r="AQ33" s="15" t="s">
         <v>480</v>
       </c>
-      <c r="AQ23" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="AR23" s="12" t="s">
-        <v>722</v>
-      </c>
-      <c r="AS23" s="12" t="s">
-        <v>723</v>
-      </c>
-      <c r="AT23" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="AU23" s="12" t="s">
-        <v>724</v>
-      </c>
-      <c r="AV23" s="12" t="s">
-        <v>725</v>
-      </c>
-      <c r="AW23" s="12" t="s">
-        <v>726</v>
-      </c>
-      <c r="AX23" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="AY23" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="AZ23" t="s">
-        <v>538</v>
-      </c>
-      <c r="BB23">
-        <v>999</v>
+      <c r="AR33" s="15" t="s">
+        <v>948</v>
+      </c>
+      <c r="AS33" s="15" t="s">
+        <v>949</v>
+      </c>
+      <c r="AT33" s="15" t="s">
+        <v>951</v>
+      </c>
+      <c r="AU33" s="15" t="s">
+        <v>950</v>
+      </c>
+      <c r="AV33" s="15" t="s">
+        <v>952</v>
+      </c>
+      <c r="AW33" s="15" t="s">
+        <v>953</v>
+      </c>
+      <c r="AX33" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="AY33" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AZ33" t="s">
+        <v>941</v>
+      </c>
+      <c r="BA33" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BB33" t="s">
+        <v>954</v>
       </c>
     </row>
   </sheetData>

--- a/Data/DWA_FS.xlsx
+++ b/Data/DWA_FS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445" uniqueCount="955">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1875" uniqueCount="1195">
   <si>
     <t>ID</t>
   </si>
@@ -821,18 +821,12 @@
     <t>Ähmt (s)</t>
   </si>
   <si>
-    <t>Gågumra (w)</t>
-  </si>
-  <si>
     <t>Budda (w)</t>
   </si>
   <si>
     <t>Guckel (m), Gluckeri (w)</t>
   </si>
   <si>
-    <t>Hebåmm (w)</t>
-  </si>
-  <si>
     <t>Hardäpfel (m)</t>
   </si>
   <si>
@@ -860,21 +854,12 @@
     <t>schempfa</t>
   </si>
   <si>
-    <t>Spåtz (m)</t>
-  </si>
-  <si>
-    <t>Schtåchelbäri (w)</t>
-  </si>
-  <si>
     <t>Schtrecknodla (w)</t>
   </si>
   <si>
     <t>Dallerle (s), Schessale (s)</t>
   </si>
   <si>
-    <t>Håfa (m)</t>
-  </si>
-  <si>
     <t>Guufa (w)</t>
   </si>
   <si>
@@ -923,18 +908,12 @@
     <t>Ähmd (s)</t>
   </si>
   <si>
-    <t>Gågummere</t>
-  </si>
-  <si>
     <t>Buddä (w)</t>
   </si>
   <si>
     <t>Huggl, Huän</t>
   </si>
   <si>
-    <t>Hallåra (w)</t>
-  </si>
-  <si>
     <t>Hebamm (w)</t>
   </si>
   <si>
@@ -944,9 +923,6 @@
     <t>Schär (m)</t>
   </si>
   <si>
-    <t>Gållråbe (w)</t>
-  </si>
-  <si>
     <t>Gedda (m)</t>
   </si>
   <si>
@@ -1257,9 +1233,6 @@
   </si>
   <si>
     <t>Mücke</t>
-  </si>
-  <si>
-    <t>Gågūmmere &lt;concombre franz.&gt;</t>
   </si>
   <si>
     <t>Butte</t>
@@ -1665,18 +1638,12 @@
     <t>Ämd (w)</t>
   </si>
   <si>
-    <t>Gågo[rw]ra</t>
-  </si>
-  <si>
     <t>Boda (w)</t>
   </si>
   <si>
     <t>Gogel (m), Hüan (w)</t>
   </si>
   <si>
-    <t>Häjbåm (w)</t>
-  </si>
-  <si>
     <t>Hollara (w)</t>
   </si>
   <si>
@@ -1698,9 +1665,6 @@
     <t>Sohnsfroj</t>
   </si>
   <si>
-    <t>Ståchelbäjri (w)</t>
-  </si>
-  <si>
     <t>Gofa</t>
   </si>
   <si>
@@ -2400,9 +2364,6 @@
     <t>Brombeeri (w)</t>
   </si>
   <si>
-    <t>Ägerscht[ä] (w) {könnte auch eï sein}</t>
-  </si>
-  <si>
     <t>Flädermüs (w)</t>
   </si>
   <si>
@@ -2811,9 +2772,6 @@
     <t>Ämd</t>
   </si>
   <si>
-    <t>Gågumere</t>
-  </si>
-  <si>
     <t>Bute</t>
   </si>
   <si>
@@ -2838,15 +2796,9 @@
     <t>Schisali, Dallerli</t>
   </si>
   <si>
-    <t>Håfe</t>
-  </si>
-  <si>
     <t>zwig[e]</t>
   </si>
   <si>
-    <t>&lt;å ist a das nach o klingt&gt;, &lt;å ist a das auch o ist&gt;</t>
-  </si>
-  <si>
     <t>III_17_0035</t>
   </si>
   <si>
@@ -2929,6 +2881,774 @@
   </si>
   <si>
     <t xml:space="preserve">&lt;Merke: das o spricht sich "au" aus. z.B. Brot= Braut. Das K wird ch: z.B. Kaba = Chaba.&gt; </t>
+  </si>
+  <si>
+    <t>Gågumra (w)</t>
+  </si>
+  <si>
+    <t>Hebåmm (w)</t>
+  </si>
+  <si>
+    <t>Spåtz (m)</t>
+  </si>
+  <si>
+    <t>Schtåchelbäri (w)</t>
+  </si>
+  <si>
+    <t>Håfa (m)</t>
+  </si>
+  <si>
+    <t>Gågummere</t>
+  </si>
+  <si>
+    <t>Gållråbe (w)</t>
+  </si>
+  <si>
+    <t>Hallåra (w)</t>
+  </si>
+  <si>
+    <t>Gågūmmere &lt;concombre franz.&gt;</t>
+  </si>
+  <si>
+    <t>Gågo[rw]ra</t>
+  </si>
+  <si>
+    <t>Häjbåm (w)</t>
+  </si>
+  <si>
+    <t>Ståchelbäjri (w)</t>
+  </si>
+  <si>
+    <t>Gågumere</t>
+  </si>
+  <si>
+    <t>Håfe</t>
+  </si>
+  <si>
+    <t>&lt;å ist a das nach o klingt&gt;, &lt;å ist a das auch o ist&gt;</t>
+  </si>
+  <si>
+    <t>Ägerscht[ä] (w) {könnte auch eï sein}</t>
+  </si>
+  <si>
+    <t>III_17_0036</t>
+  </si>
+  <si>
+    <t>x-Y</t>
+  </si>
+  <si>
+    <t>Burgfelden</t>
+  </si>
+  <si>
+    <t>Landkreis Mülhausen</t>
+  </si>
+  <si>
+    <t>Josef G[u]nten</t>
+  </si>
+  <si>
+    <t>Beringen &lt;Schweiz&gt;, &lt;Anstellungsort: Bergalingen, Landkreis Säckingen&gt;</t>
+  </si>
+  <si>
+    <t>Ameise</t>
+  </si>
+  <si>
+    <t>Beärdigung, Licht (a)</t>
+  </si>
+  <si>
+    <t>Brummberi</t>
+  </si>
+  <si>
+    <t>G[r]ab[b]</t>
+  </si>
+  <si>
+    <t>Gager</t>
+  </si>
+  <si>
+    <t>Fl[ü]dermus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mugge  </t>
+  </si>
+  <si>
+    <t>Butte (d')</t>
+  </si>
+  <si>
+    <t>Gigel (d'), Huen (d')</t>
+  </si>
+  <si>
+    <t>Gugummere</t>
+  </si>
+  <si>
+    <t>Hebamm (d')</t>
+  </si>
+  <si>
+    <t>Holdere (d')</t>
+  </si>
+  <si>
+    <t>Hürdöpfel (d')</t>
+  </si>
+  <si>
+    <t>Kaz (d'), Kazerolli (d')</t>
+  </si>
+  <si>
+    <t>Schärmus (d')</t>
+  </si>
+  <si>
+    <t>Mohre (d')</t>
+  </si>
+  <si>
+    <t>Gotte</t>
+  </si>
+  <si>
+    <t>Rieme</t>
+  </si>
+  <si>
+    <t>Pflume (d')</t>
+  </si>
+  <si>
+    <t>schempfe</t>
+  </si>
+  <si>
+    <t>Schwiegertochter (d')</t>
+  </si>
+  <si>
+    <t>Spatz (d')</t>
+  </si>
+  <si>
+    <t>Krüselbeere</t>
+  </si>
+  <si>
+    <t>Gufe (d')</t>
+  </si>
+  <si>
+    <t>[D]asse (u), Dellerli</t>
+  </si>
+  <si>
+    <t>Hafe (u)</t>
+  </si>
+  <si>
+    <t>Gais</t>
+  </si>
+  <si>
+    <t>III_17_0038</t>
+  </si>
+  <si>
+    <t>y-a</t>
+  </si>
+  <si>
+    <t>Lörrach</t>
+  </si>
+  <si>
+    <t>Hermann Roob</t>
+  </si>
+  <si>
+    <t>Felleringen</t>
+  </si>
+  <si>
+    <t>Wyhlen</t>
+  </si>
+  <si>
+    <t>Brumberri</t>
+  </si>
+  <si>
+    <t>Âgerste</t>
+  </si>
+  <si>
+    <t>Fled[e]rmaus</t>
+  </si>
+  <si>
+    <t>Öhmd</t>
+  </si>
+  <si>
+    <t>Hagebutte</t>
+  </si>
+  <si>
+    <t>Hebamm[e]</t>
+  </si>
+  <si>
+    <t>Herdäpfel, Grumbe[rre]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gelbrübe  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Götti  </t>
+  </si>
+  <si>
+    <t>Geißle</t>
+  </si>
+  <si>
+    <t>schimpfen</t>
+  </si>
+  <si>
+    <t>Schwigertochter</t>
+  </si>
+  <si>
+    <t>Grüselbeeri</t>
+  </si>
+  <si>
+    <t>Schissle</t>
+  </si>
+  <si>
+    <t>III_17_0041</t>
+  </si>
+  <si>
+    <t>Degerfelden</t>
+  </si>
+  <si>
+    <t>Gau Baden</t>
+  </si>
+  <si>
+    <t>H. Treing[ä]stuer</t>
+  </si>
+  <si>
+    <t>des 7.Schuljahres</t>
+  </si>
+  <si>
+    <t>Beardigung (w)</t>
+  </si>
+  <si>
+    <t>Dichsle (w)</t>
+  </si>
+  <si>
+    <t>Agerschter (m)</t>
+  </si>
+  <si>
+    <t>Anterich (m)</t>
+  </si>
+  <si>
+    <t>Fliege (w)</t>
+  </si>
+  <si>
+    <t>Ehmd (s)</t>
+  </si>
+  <si>
+    <t>Hagebutte (w)</t>
+  </si>
+  <si>
+    <t>Gückel, Huehn (m)</t>
+  </si>
+  <si>
+    <t>Hartäpfel (m)</t>
+  </si>
+  <si>
+    <t>Scharmus (w)</t>
+  </si>
+  <si>
+    <t>Galleruebe (w)</t>
+  </si>
+  <si>
+    <t>Geihsle (w)</t>
+  </si>
+  <si>
+    <t>Pflume (w)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">schimpfe  </t>
+  </si>
+  <si>
+    <t>Schwiegertochter (w)</t>
+  </si>
+  <si>
+    <t>Stac[h]elbeeri (w)</t>
+  </si>
+  <si>
+    <t>[G]ufe (w) {könnte auch H sein}</t>
+  </si>
+  <si>
+    <t>Schüsseli, Tallerle (s)</t>
+  </si>
+  <si>
+    <t>zweje</t>
+  </si>
+  <si>
+    <t>III_17_0043</t>
+  </si>
+  <si>
+    <t>[T]-R</t>
+  </si>
+  <si>
+    <t>Warmbach</t>
+  </si>
+  <si>
+    <t>S[??] kingen</t>
+  </si>
+  <si>
+    <t>M. Grau</t>
+  </si>
+  <si>
+    <t>[??]ümhin</t>
+  </si>
+  <si>
+    <t>Ambeise</t>
+  </si>
+  <si>
+    <t>Lich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brumbeeri  </t>
+  </si>
+  <si>
+    <t>Dixlä</t>
+  </si>
+  <si>
+    <t>Ägesta</t>
+  </si>
+  <si>
+    <t>Enterich</t>
+  </si>
+  <si>
+    <t>Fläderratte</t>
+  </si>
+  <si>
+    <t>Flüige</t>
+  </si>
+  <si>
+    <t>emde</t>
+  </si>
+  <si>
+    <t>Güggel, Huen</t>
+  </si>
+  <si>
+    <t>weise Frau, Storchentante</t>
+  </si>
+  <si>
+    <t>Härdäpfel</t>
+  </si>
+  <si>
+    <t>Mulwurf</t>
+  </si>
+  <si>
+    <t>Gälruabe</t>
+  </si>
+  <si>
+    <t>Mutterschwein</t>
+  </si>
+  <si>
+    <t>Götti</t>
+  </si>
+  <si>
+    <t>Geißel</t>
+  </si>
+  <si>
+    <t>Pflume</t>
+  </si>
+  <si>
+    <t>schimpfe</t>
+  </si>
+  <si>
+    <t>gufa</t>
+  </si>
+  <si>
+    <t>Schüsseli</t>
+  </si>
+  <si>
+    <t>zweie</t>
+  </si>
+  <si>
+    <t>III_17_0044</t>
+  </si>
+  <si>
+    <t>[7],30</t>
+  </si>
+  <si>
+    <t>y-ea</t>
+  </si>
+  <si>
+    <t>Rheinfelden</t>
+  </si>
+  <si>
+    <t>[hand] Baden</t>
+  </si>
+  <si>
+    <t>[Lober] täckingen</t>
+  </si>
+  <si>
+    <t>Dr. [888]infried [888]</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Beerdigung (w)</t>
+  </si>
+  <si>
+    <t>Brumbeeri</t>
+  </si>
+  <si>
+    <t>Diechsel (w)</t>
+  </si>
+  <si>
+    <t>Elster (w)</t>
+  </si>
+  <si>
+    <t>Enterich (m)</t>
+  </si>
+  <si>
+    <t>Fledermus (w)</t>
+  </si>
+  <si>
+    <t>Gugummer (w)</t>
+  </si>
+  <si>
+    <t>Gückel (m), Huhn (w)</t>
+  </si>
+  <si>
+    <t>Rolli (w)</t>
+  </si>
+  <si>
+    <t>Gelberübe (w)</t>
+  </si>
+  <si>
+    <t>Mor (w)</t>
+  </si>
+  <si>
+    <t>Götte (m)</t>
+  </si>
+  <si>
+    <t>Geißel (w)</t>
+  </si>
+  <si>
+    <t>Pflume (8)</t>
+  </si>
+  <si>
+    <t>schimpfe (n)</t>
+  </si>
+  <si>
+    <t>Schwiegertocht[e]r (w) {das letzte e ist in Klammern}</t>
+  </si>
+  <si>
+    <t>Gemeinschaftsarbeit mit 2 Mittel[888]</t>
+  </si>
+  <si>
+    <t>Stachelbeeri (w)</t>
+  </si>
+  <si>
+    <t>Gufe (w), Stecknodel (w) {in Klammern}</t>
+  </si>
+  <si>
+    <t>Tassa (w), Unterteller (m)</t>
+  </si>
+  <si>
+    <t>Hafe&lt;n&gt; (m) {n in Klammern}</t>
+  </si>
+  <si>
+    <t>zwei&lt;g&gt;e&lt;n&gt; {g und n in Klammern}</t>
+  </si>
+  <si>
+    <t>&lt;Bem. Rheinfelden/Stadt als junger Industrieort mit starkem Zuzug hat wenig [B]odenstündiges der benachbarten Mundart.&gt;</t>
+  </si>
+  <si>
+    <t>III_17_0045</t>
+  </si>
+  <si>
+    <t>Säckingen</t>
+  </si>
+  <si>
+    <t>[Rheinfelden] {Stempel Schulamt Rheinfelden Baden}</t>
+  </si>
+  <si>
+    <t>[888]. Schneider</t>
+  </si>
+  <si>
+    <t>Oberlauchringen</t>
+  </si>
+  <si>
+    <t>Bera[n̄]sle</t>
+  </si>
+  <si>
+    <t>Brumbeerli</t>
+  </si>
+  <si>
+    <t>Diegsle</t>
+  </si>
+  <si>
+    <t>Flädermus</t>
+  </si>
+  <si>
+    <t>Mugge</t>
+  </si>
+  <si>
+    <t>Emt</t>
+  </si>
+  <si>
+    <t>Hagebutze, Butten[e]</t>
+  </si>
+  <si>
+    <t>Storchetante</t>
+  </si>
+  <si>
+    <t>Huludr</t>
+  </si>
+  <si>
+    <t>Herdöpfel</t>
+  </si>
+  <si>
+    <t>Katzerolli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schärmus  </t>
+  </si>
+  <si>
+    <t>Gelrüebe</t>
+  </si>
+  <si>
+    <t>Schwigrdochtr</t>
+  </si>
+  <si>
+    <t>Rützele</t>
+  </si>
+  <si>
+    <t>Stecknodle</t>
+  </si>
+  <si>
+    <t>Kaffischüsseli</t>
+  </si>
+  <si>
+    <t>Hafe</t>
+  </si>
+  <si>
+    <t>vredle</t>
+  </si>
+  <si>
+    <t>sehr gut lesbar und ordentlich in Kurrentschrift geschrieben</t>
+  </si>
+  <si>
+    <t>III_17_0046</t>
+  </si>
+  <si>
+    <t>G. Fielter</t>
+  </si>
+  <si>
+    <t>Aachkarren</t>
+  </si>
+  <si>
+    <t>Beransle</t>
+  </si>
+  <si>
+    <t>Liech</t>
+  </si>
+  <si>
+    <t>Flüge, Mugge</t>
+  </si>
+  <si>
+    <t>Öhmtä</t>
+  </si>
+  <si>
+    <t>Hagäbutze, Buttenä</t>
+  </si>
+  <si>
+    <t>Guhl, Güggel, Huehn</t>
+  </si>
+  <si>
+    <t>Storchätande</t>
+  </si>
+  <si>
+    <t>Hulundr</t>
+  </si>
+  <si>
+    <t>Erdöpfel</t>
+  </si>
+  <si>
+    <t>Schermuuß</t>
+  </si>
+  <si>
+    <t>Gellärübe</t>
+  </si>
+  <si>
+    <t>Gödi</t>
+  </si>
+  <si>
+    <t>Geißle (n)</t>
+  </si>
+  <si>
+    <t>Rutzele</t>
+  </si>
+  <si>
+    <t>Schüßle</t>
+  </si>
+  <si>
+    <t>Geiß, Gitz &lt;=eli&gt;</t>
+  </si>
+  <si>
+    <t>III_17_0047</t>
+  </si>
+  <si>
+    <t>y-f</t>
+  </si>
+  <si>
+    <t>Wallbach</t>
+  </si>
+  <si>
+    <t>Stiefvater</t>
+  </si>
+  <si>
+    <t>Kirchhafen b. Frbg.</t>
+  </si>
+  <si>
+    <t>Umbeisä, Beramsle</t>
+  </si>
+  <si>
+    <t>Beerdigung, Liech</t>
+  </si>
+  <si>
+    <t>Brumbeer</t>
+  </si>
+  <si>
+    <t>Hätzlä</t>
+  </si>
+  <si>
+    <t>Endä</t>
+  </si>
+  <si>
+    <t>Dussel</t>
+  </si>
+  <si>
+    <t>Flädermuus</t>
+  </si>
+  <si>
+    <t>Fliäge</t>
+  </si>
+  <si>
+    <t>[Ö]hmd</t>
+  </si>
+  <si>
+    <t>Gugumerä</t>
+  </si>
+  <si>
+    <t>Güggel</t>
+  </si>
+  <si>
+    <t>Härdöpfel</t>
+  </si>
+  <si>
+    <t>Reuel</t>
+  </si>
+  <si>
+    <t>Mohrrüebe</t>
+  </si>
+  <si>
+    <t>Plume</t>
+  </si>
+  <si>
+    <t>sch[e]öre, gosche, deufle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chrüselbeeri  </t>
+  </si>
+  <si>
+    <t>Steckgufä</t>
+  </si>
+  <si>
+    <t>Dässli</t>
+  </si>
+  <si>
+    <t>Bäkchi</t>
+  </si>
+  <si>
+    <t>zweigä</t>
+  </si>
+  <si>
+    <t>Geis, Diedi</t>
+  </si>
+  <si>
+    <t>III_17_0048</t>
+  </si>
+  <si>
+    <t>y-g</t>
+  </si>
+  <si>
+    <t>Schwobthaler</t>
+  </si>
+  <si>
+    <t>i. Breisg.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Freiburg </t>
+  </si>
+  <si>
+    <t>Bäramsle</t>
+  </si>
+  <si>
+    <t>Beerdigung</t>
+  </si>
+  <si>
+    <t>Härzle</t>
+  </si>
+  <si>
+    <t>Stubefliege</t>
+  </si>
+  <si>
+    <t>Oehmd</t>
+  </si>
+  <si>
+    <t>Hagebudde</t>
+  </si>
+  <si>
+    <t>Güggel, Hunn</t>
+  </si>
+  <si>
+    <t>Kater, Rolli</t>
+  </si>
+  <si>
+    <t>Schermus</t>
+  </si>
+  <si>
+    <t>Gelrüebli</t>
+  </si>
+  <si>
+    <t>Sau</t>
+  </si>
+  <si>
+    <t>Peitsche</t>
+  </si>
+  <si>
+    <t>Sperling</t>
+  </si>
+  <si>
+    <t>veredle</t>
+  </si>
+  <si>
+    <t>III_17_0049</t>
+  </si>
+  <si>
+    <t>F. [B]äbele</t>
+  </si>
+  <si>
+    <t>Murg</t>
+  </si>
+  <si>
+    <t>Liich, Beerdigung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dichsle  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ägerst  </t>
+  </si>
+  <si>
+    <t>Fledermuus</t>
+  </si>
+  <si>
+    <t>Herd[ö]pfel</t>
+  </si>
+  <si>
+    <t>Pfl[ä]ume</t>
+  </si>
+  <si>
+    <t>Schwiegertocher</t>
+  </si>
+  <si>
+    <t>Grüs[e]lbeeri</t>
+  </si>
+  <si>
+    <t>Strecknodle</t>
+  </si>
+  <si>
+    <t>Kaffeeschüßle</t>
+  </si>
+  <si>
+    <t>Topf</t>
   </si>
 </sst>
 </file>
@@ -3358,7 +4078,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3366,11 +4086,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BB33"/>
+  <dimension ref="A1:BB43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
@@ -3385,12 +4103,12 @@
     <col min="9" max="9" width="10.75" style="9" customWidth="1"/>
     <col min="10" max="10" width="24.875" style="9" customWidth="1"/>
     <col min="11" max="11" width="43.75" customWidth="1"/>
-    <col min="12" max="12" width="30.25" customWidth="1"/>
-    <col min="13" max="13" width="10.75" customWidth="1"/>
+    <col min="12" max="12" width="45" customWidth="1"/>
+    <col min="13" max="13" width="19" customWidth="1"/>
     <col min="14" max="14" width="18.875" customWidth="1"/>
     <col min="15" max="15" width="15.25" customWidth="1"/>
     <col min="16" max="16" width="17.5" customWidth="1"/>
-    <col min="17" max="17" width="19.875" customWidth="1"/>
+    <col min="17" max="17" width="61.375" customWidth="1"/>
     <col min="18" max="18" width="22.5" customWidth="1"/>
     <col min="19" max="19" width="23.75" customWidth="1"/>
     <col min="20" max="20" width="15.5" customWidth="1"/>
@@ -3405,10 +4123,10 @@
     <col min="29" max="29" width="15.75" customWidth="1"/>
     <col min="30" max="30" width="28.75" customWidth="1"/>
     <col min="31" max="31" width="28.625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.625" customWidth="1"/>
+    <col min="32" max="32" width="17.875" customWidth="1"/>
     <col min="33" max="33" width="25.75" customWidth="1"/>
     <col min="34" max="34" width="57.75" customWidth="1"/>
-    <col min="35" max="35" width="17" customWidth="1"/>
+    <col min="35" max="35" width="21" customWidth="1"/>
     <col min="36" max="36" width="37.25" customWidth="1"/>
     <col min="37" max="37" width="29.375" customWidth="1"/>
     <col min="38" max="38" width="16.875" customWidth="1"/>
@@ -3419,12 +4137,12 @@
     <col min="43" max="43" width="30.375" customWidth="1"/>
     <col min="44" max="44" width="42.125" customWidth="1"/>
     <col min="45" max="45" width="40.875" customWidth="1"/>
-    <col min="46" max="46" width="13" customWidth="1"/>
+    <col min="46" max="46" width="33.125" customWidth="1"/>
     <col min="47" max="47" width="15.375" customWidth="1"/>
     <col min="48" max="48" width="47" customWidth="1"/>
-    <col min="49" max="49" width="18.75" customWidth="1"/>
-    <col min="50" max="50" width="20" customWidth="1"/>
-    <col min="51" max="51" width="14" style="1" customWidth="1"/>
+    <col min="49" max="49" width="25.375" customWidth="1"/>
+    <col min="50" max="50" width="31.625" customWidth="1"/>
+    <col min="51" max="51" width="20.75" style="1" customWidth="1"/>
     <col min="52" max="52" width="16.5" customWidth="1"/>
     <col min="53" max="53" width="45.5" style="1" customWidth="1"/>
     <col min="54" max="54" width="103.25" customWidth="1"/>
@@ -3741,7 +4459,7 @@
         <v>84</v>
       </c>
       <c r="AW2" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="AX2" t="s">
         <v>85</v>
@@ -3911,7 +4629,7 @@
         <v>128</v>
       </c>
       <c r="AY3" s="1" t="s">
-        <v>769</v>
+        <v>757</v>
       </c>
       <c r="AZ3" s="12" t="s">
         <v>129</v>
@@ -4110,7 +4828,7 @@
         <v>169</v>
       </c>
       <c r="H5" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="I5" s="9">
         <v>24.5</v>
@@ -4507,67 +5225,67 @@
         <v>260</v>
       </c>
       <c r="AE7" s="12" t="s">
+        <v>939</v>
+      </c>
+      <c r="AF7" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="AF7" s="12" t="s">
+      <c r="AG7" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="AG7" s="12" t="s">
+      <c r="AH7" s="12" t="s">
+        <v>940</v>
+      </c>
+      <c r="AI7" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="AH7" s="12" t="s">
+      <c r="AJ7" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="AI7" s="12" t="s">
+      <c r="AK7" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="AJ7" s="12" t="s">
+      <c r="AL7" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="AK7" s="12" t="s">
+      <c r="AM7" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="AL7" s="12" t="s">
+      <c r="AN7" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="AM7" s="12" t="s">
+      <c r="AO7" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="AN7" s="12" t="s">
+      <c r="AP7" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="AO7" s="12" t="s">
+      <c r="AQ7" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="AP7" s="12" t="s">
+      <c r="AR7" s="12" t="s">
+        <v>941</v>
+      </c>
+      <c r="AS7" s="12" t="s">
+        <v>942</v>
+      </c>
+      <c r="AT7" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="AU7" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="AQ7" s="12" t="s">
+      <c r="AV7" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="AR7" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="AS7" s="12" t="s">
+      <c r="AW7" s="12" t="s">
+        <v>943</v>
+      </c>
+      <c r="AX7" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="AT7" s="12" t="s">
-        <v>279</v>
-      </c>
-      <c r="AU7" s="12" t="s">
+      <c r="AY7" s="1" t="s">
         <v>276</v>
-      </c>
-      <c r="AV7" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="AW7" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="AX7" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="AY7" s="1" t="s">
-        <v>281</v>
       </c>
       <c r="AZ7" t="s">
         <v>252</v>
@@ -4599,7 +5317,7 @@
         <v>9</v>
       </c>
       <c r="G8" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="H8" t="s">
         <v>90</v>
@@ -4611,10 +5329,10 @@
         <v>47.3</v>
       </c>
       <c r="K8" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="L8" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="M8">
         <v>999</v>
@@ -4623,13 +5341,13 @@
         <v>92</v>
       </c>
       <c r="O8" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="P8" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="Q8" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="R8">
         <v>999</v>
@@ -4641,103 +5359,103 @@
         <v>97</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="V8" s="12" t="s">
         <v>137</v>
       </c>
       <c r="W8" s="12" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="X8" s="12" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="Y8" s="12" t="s">
         <v>256</v>
       </c>
       <c r="Z8" s="12" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="AA8" s="12" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="AB8" s="12" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="AC8" s="12" t="s">
         <v>144</v>
       </c>
       <c r="AD8" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="AE8" s="12" t="s">
+        <v>944</v>
+      </c>
+      <c r="AF8" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="AG8" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="AH8" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="AI8" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="AJ8" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="AK8" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="AE8" s="12" t="s">
+      <c r="AL8" s="12" t="s">
+        <v>945</v>
+      </c>
+      <c r="AM8" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="AN8" s="12" t="s">
         <v>295</v>
       </c>
-      <c r="AF8" s="12" t="s">
+      <c r="AO8" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="AG8" s="12" t="s">
+      <c r="AP8" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="AH8" s="12" t="s">
+      <c r="AQ8" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="AR8" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="AS8" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="AT8" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="AU8" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="AV8" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="AW8" s="12" t="s">
+        <v>943</v>
+      </c>
+      <c r="AX8" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="AY8" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>946</v>
+      </c>
+      <c r="BA8" s="1" t="s">
         <v>299</v>
-      </c>
-      <c r="AI8" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="AJ8" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="AK8" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="AL8" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="AM8" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="AN8" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="AO8" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="AP8" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="AQ8" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="AR8" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="AS8" s="12" t="s">
-        <v>309</v>
-      </c>
-      <c r="AT8" s="12" t="s">
-        <v>310</v>
-      </c>
-      <c r="AU8" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="AV8" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="AW8" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="AX8" s="12" t="s">
-        <v>313</v>
-      </c>
-      <c r="AY8" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="AZ8" t="s">
-        <v>298</v>
-      </c>
-      <c r="BA8" s="1" t="s">
-        <v>307</v>
       </c>
       <c r="BB8">
         <v>999</v>
@@ -4763,7 +5481,7 @@
         <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="H9" t="s">
         <v>57</v>
@@ -4775,10 +5493,10 @@
         <v>47.3</v>
       </c>
       <c r="K9" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="L9" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="M9">
         <v>999</v>
@@ -4787,13 +5505,13 @@
         <v>92</v>
       </c>
       <c r="O9" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="P9" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="Q9" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="R9">
         <v>999</v>
@@ -4802,7 +5520,7 @@
         <v>999</v>
       </c>
       <c r="T9" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="U9" s="1">
         <v>999</v>
@@ -4811,97 +5529,97 @@
         <v>61</v>
       </c>
       <c r="W9" s="12" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="X9" s="12" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="Y9" s="12" t="s">
         <v>216</v>
       </c>
       <c r="Z9" s="12" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="AA9" s="12" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="AB9" s="12" t="s">
         <v>66</v>
       </c>
       <c r="AC9" s="12" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="AD9" s="12" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="AE9" s="12" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="AF9" s="12" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="AG9" s="12" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="AH9" s="12" t="s">
         <v>149</v>
       </c>
       <c r="AI9" s="12" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="AJ9" s="12" t="s">
         <v>227</v>
       </c>
       <c r="AK9" s="12" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="AL9" s="12" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="AM9" s="12" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="AN9" s="12" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="AO9" s="12" t="s">
         <v>232</v>
       </c>
       <c r="AP9" s="12" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="AQ9" s="12" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="AR9" s="12" t="s">
         <v>80</v>
       </c>
       <c r="AS9" s="12" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="AT9" s="12" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="AU9" s="12" t="s">
         <v>238</v>
       </c>
       <c r="AV9" s="12" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="AW9" s="12" t="s">
         <v>240</v>
       </c>
       <c r="AX9" s="12" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="AY9" s="1" t="s">
         <v>86</v>
       </c>
       <c r="AZ9" t="s">
+        <v>323</v>
+      </c>
+      <c r="BA9" s="1" t="s">
         <v>331</v>
-      </c>
-      <c r="BA9" s="1" t="s">
-        <v>339</v>
       </c>
       <c r="BB9">
         <v>999</v>
@@ -4927,7 +5645,7 @@
         <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="H10" t="s">
         <v>90</v>
@@ -4939,10 +5657,10 @@
         <v>47.3</v>
       </c>
       <c r="K10" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="L10" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="M10">
         <v>999</v>
@@ -4954,7 +5672,7 @@
         <v>999</v>
       </c>
       <c r="P10" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="Q10" t="s">
         <v>248</v>
@@ -4966,106 +5684,106 @@
         <v>999</v>
       </c>
       <c r="T10" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="U10" s="1">
         <v>999</v>
       </c>
       <c r="V10" s="12" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="W10" s="12" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="X10" s="12" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="Y10" s="12" t="s">
         <v>256</v>
       </c>
       <c r="Z10" s="12" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="AA10" s="12" t="s">
         <v>142</v>
       </c>
       <c r="AB10" s="12" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="AC10" s="12" t="s">
         <v>259</v>
       </c>
       <c r="AD10" s="12" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="AE10" s="12" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="AF10" s="12" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="AG10" s="12" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="AH10" s="12" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="AI10" s="12" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="AJ10" s="12" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AK10" s="12" t="s">
         <v>153</v>
       </c>
       <c r="AL10" s="12" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="AM10" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="AN10" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="AO10" s="12" t="s">
         <v>269</v>
-      </c>
-      <c r="AN10" s="12" t="s">
-        <v>360</v>
-      </c>
-      <c r="AO10" s="12" t="s">
-        <v>271</v>
       </c>
       <c r="AP10" s="12" t="s">
         <v>233</v>
       </c>
       <c r="AQ10" s="12" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="AR10" s="12" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="AS10" s="12" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="AT10" s="12" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="AU10" s="12" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="AV10" s="12" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="AW10" s="12" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="AX10" s="12" t="s">
         <v>206</v>
       </c>
       <c r="AY10" s="1" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="AZ10" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="BA10" s="1" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="BB10">
         <v>999</v>
@@ -5091,7 +5809,7 @@
         <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H11" t="s">
         <v>90</v>
@@ -5103,10 +5821,10 @@
         <v>47.3</v>
       </c>
       <c r="K11" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="L11" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="M11">
         <v>999</v>
@@ -5118,31 +5836,31 @@
         <v>172</v>
       </c>
       <c r="P11" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="Q11" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="R11">
         <v>999</v>
       </c>
       <c r="S11" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="T11">
         <v>999</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="V11" s="12" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="W11" s="12" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="X11" s="12" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="Y11" s="12" t="s">
         <v>216</v>
@@ -5151,7 +5869,7 @@
         <v>65</v>
       </c>
       <c r="AA11" s="12" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="AB11" s="12" t="s">
         <v>66</v>
@@ -5160,37 +5878,37 @@
         <v>185</v>
       </c>
       <c r="AD11" s="12" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="AE11" s="12" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="AF11" s="12" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="AG11" s="12" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="AH11" s="12" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="AI11" s="12" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="AJ11" s="12" t="s">
         <v>72</v>
       </c>
       <c r="AK11" s="12" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="AL11" s="12" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="AM11" s="12" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="AN11" s="12" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="AO11" s="12" t="s">
         <v>77</v>
@@ -5205,19 +5923,19 @@
         <v>80</v>
       </c>
       <c r="AS11" s="12" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="AT11" s="12" t="s">
         <v>82</v>
       </c>
       <c r="AU11" s="12" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="AV11" s="12" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="AW11" s="12" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="AX11" s="12" t="s">
         <v>206</v>
@@ -5226,7 +5944,7 @@
         <v>86</v>
       </c>
       <c r="AZ11" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="BA11" s="1" t="s">
         <v>88</v>
@@ -5255,7 +5973,7 @@
         <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="H12" t="s">
         <v>243</v>
@@ -5267,10 +5985,10 @@
         <v>47.3</v>
       </c>
       <c r="K12" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="L12" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="M12">
         <v>999</v>
@@ -5282,10 +6000,10 @@
         <v>172</v>
       </c>
       <c r="P12" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="Q12" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="R12">
         <v>999</v>
@@ -5300,103 +6018,103 @@
         <v>999</v>
       </c>
       <c r="V12" s="12" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="W12" s="12" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="X12" s="12" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="Y12" s="12" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="Z12" s="12" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="AA12" s="12" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="AB12" s="12" t="s">
         <v>66</v>
       </c>
       <c r="AC12" s="12" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="AD12" s="12" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="AE12" s="12" t="s">
-        <v>407</v>
+        <v>947</v>
       </c>
       <c r="AF12" s="12" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="AG12" s="12" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="AH12" s="12" t="s">
         <v>149</v>
       </c>
       <c r="AI12" s="12" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="AJ12" s="12" t="s">
         <v>227</v>
       </c>
       <c r="AK12" s="12" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="AL12" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="AM12" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="AN12" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="AO12" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="AP12" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="AQ12" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="AR12" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="AS12" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="AT12" s="12" t="s">
         <v>412</v>
       </c>
-      <c r="AM12" s="12" t="s">
+      <c r="AU12" s="12" t="s">
         <v>413</v>
       </c>
-      <c r="AN12" s="12" t="s">
+      <c r="AV12" s="12" t="s">
         <v>414</v>
       </c>
-      <c r="AO12" s="12" t="s">
+      <c r="AW12" s="12" t="s">
         <v>415</v>
       </c>
-      <c r="AP12" s="12" t="s">
+      <c r="AX12" s="12" t="s">
         <v>416</v>
       </c>
-      <c r="AQ12" s="12" t="s">
+      <c r="AY12" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="AR12" s="12" t="s">
-        <v>419</v>
-      </c>
-      <c r="AS12" s="12" t="s">
-        <v>420</v>
-      </c>
-      <c r="AT12" s="12" t="s">
-        <v>421</v>
-      </c>
-      <c r="AU12" s="12" t="s">
-        <v>422</v>
-      </c>
-      <c r="AV12" s="12" t="s">
-        <v>423</v>
-      </c>
-      <c r="AW12" s="12" t="s">
-        <v>424</v>
-      </c>
-      <c r="AX12" s="12" t="s">
-        <v>425</v>
-      </c>
-      <c r="AY12" s="1" t="s">
-        <v>426</v>
-      </c>
       <c r="AZ12" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="BA12" s="1" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="BB12" s="12" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
     </row>
     <row r="13" spans="1:54">
@@ -5419,7 +6137,7 @@
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="H13" t="s">
         <v>90</v>
@@ -5431,10 +6149,10 @@
         <v>47.3</v>
       </c>
       <c r="K13" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="L13" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="M13">
         <v>999</v>
@@ -5443,82 +6161,82 @@
         <v>92</v>
       </c>
       <c r="O13" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="P13" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="Q13" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="R13">
         <v>999</v>
       </c>
       <c r="S13" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="T13" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="U13" s="1">
         <v>999</v>
       </c>
       <c r="V13" s="12" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="W13" s="12" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="X13" s="12" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="Y13" s="12" t="s">
         <v>216</v>
       </c>
       <c r="Z13" s="12" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="AA13" s="12" t="s">
         <v>218</v>
       </c>
       <c r="AB13" s="12" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="AC13" s="12" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="AD13" s="12" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="AE13" s="12" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="AF13" s="12" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="AG13" s="12" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="AH13" s="12" t="s">
         <v>190</v>
       </c>
       <c r="AI13" s="12" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="AJ13" s="12" t="s">
         <v>227</v>
       </c>
       <c r="AK13" s="12" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="AL13" s="12" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="AM13" s="12" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="AN13" s="12" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="AO13" s="12" t="s">
         <v>77</v>
@@ -5530,34 +6248,34 @@
         <v>79</v>
       </c>
       <c r="AR13" s="12" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="AS13" s="12" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="AT13" s="12" t="s">
         <v>82</v>
       </c>
       <c r="AU13" s="12" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="AV13" s="12" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="AW13" s="12" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="AX13" s="12" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="AY13" s="1" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="AZ13" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="BA13" s="1" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="BB13">
         <v>999</v>
@@ -5583,7 +6301,7 @@
         <v>2</v>
       </c>
       <c r="G14" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="H14" t="s">
         <v>90</v>
@@ -5595,10 +6313,10 @@
         <v>47.3</v>
       </c>
       <c r="K14" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="L14" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="M14">
         <v>999</v>
@@ -5610,13 +6328,13 @@
         <v>172</v>
       </c>
       <c r="P14" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="Q14" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="R14" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="S14" t="s">
         <v>172</v>
@@ -5628,103 +6346,103 @@
         <v>999</v>
       </c>
       <c r="V14" s="12" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="W14" s="12" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="X14" s="12" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="Y14" s="12" t="s">
         <v>256</v>
       </c>
       <c r="Z14" s="12" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="AA14" s="12" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="AB14" s="12" t="s">
         <v>143</v>
       </c>
       <c r="AC14" s="12" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="AD14" s="12" t="s">
         <v>260</v>
       </c>
       <c r="AE14" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="AF14" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="AG14" s="12" t="s">
+        <v>461</v>
+      </c>
+      <c r="AH14" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="AI14" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="AJ14" s="12" t="s">
+        <v>464</v>
+      </c>
+      <c r="AK14" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="AL14" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="AM14" s="12" t="s">
         <v>468</v>
       </c>
-      <c r="AF14" s="12" t="s">
+      <c r="AN14" s="12" t="s">
         <v>469</v>
       </c>
-      <c r="AG14" s="12" t="s">
+      <c r="AO14" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="AP14" s="12" t="s">
         <v>470</v>
       </c>
-      <c r="AH14" s="12" t="s">
+      <c r="AQ14" s="12" t="s">
         <v>471</v>
       </c>
-      <c r="AI14" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="AJ14" s="12" t="s">
+      <c r="AR14" s="12" t="s">
         <v>473</v>
       </c>
-      <c r="AK14" s="12" t="s">
+      <c r="AS14" s="12" t="s">
+        <v>474</v>
+      </c>
+      <c r="AT14" s="12" t="s">
         <v>475</v>
       </c>
-      <c r="AL14" s="12" t="s">
+      <c r="AU14" s="12" t="s">
         <v>476</v>
       </c>
-      <c r="AM14" s="12" t="s">
+      <c r="AV14" s="12" t="s">
         <v>477</v>
       </c>
-      <c r="AN14" s="12" t="s">
+      <c r="AW14" s="12" t="s">
         <v>478</v>
       </c>
-      <c r="AO14" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="AP14" s="12" t="s">
+      <c r="AX14" s="12" t="s">
         <v>479</v>
       </c>
-      <c r="AQ14" s="12" t="s">
-        <v>480</v>
-      </c>
-      <c r="AR14" s="12" t="s">
-        <v>482</v>
-      </c>
-      <c r="AS14" s="12" t="s">
-        <v>483</v>
-      </c>
-      <c r="AT14" s="12" t="s">
-        <v>484</v>
-      </c>
-      <c r="AU14" s="12" t="s">
-        <v>485</v>
-      </c>
-      <c r="AV14" s="12" t="s">
-        <v>486</v>
-      </c>
-      <c r="AW14" s="12" t="s">
-        <v>487</v>
-      </c>
-      <c r="AX14" s="12" t="s">
-        <v>488</v>
-      </c>
       <c r="AY14" s="1" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="AZ14" t="s">
+        <v>463</v>
+      </c>
+      <c r="BA14" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="BA14" s="1" t="s">
-        <v>481</v>
-      </c>
       <c r="BB14" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
     </row>
     <row r="15" spans="1:54">
@@ -5747,7 +6465,7 @@
         <v>3</v>
       </c>
       <c r="G15" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="H15" t="s">
         <v>90</v>
@@ -5759,25 +6477,25 @@
         <v>47.3</v>
       </c>
       <c r="K15" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="L15" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="M15">
         <v>999</v>
       </c>
       <c r="N15" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="O15" t="s">
         <v>172</v>
       </c>
       <c r="P15" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="Q15" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="R15">
         <v>999</v>
@@ -5792,100 +6510,100 @@
         <v>999</v>
       </c>
       <c r="V15" s="12" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="W15" s="12" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="X15" s="12" t="s">
         <v>139</v>
       </c>
       <c r="Y15" s="12" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="Z15" s="12" t="s">
+        <v>489</v>
+      </c>
+      <c r="AA15" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="AB15" s="12" t="s">
+        <v>490</v>
+      </c>
+      <c r="AC15" s="12" t="s">
+        <v>491</v>
+      </c>
+      <c r="AD15" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="AE15" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="AF15" s="12" t="s">
+        <v>494</v>
+      </c>
+      <c r="AG15" s="12" t="s">
+        <v>495</v>
+      </c>
+      <c r="AH15" s="12" t="s">
+        <v>496</v>
+      </c>
+      <c r="AI15" s="12" t="s">
         <v>498</v>
       </c>
-      <c r="AA15" s="12" t="s">
-        <v>293</v>
-      </c>
-      <c r="AB15" s="12" t="s">
+      <c r="AJ15" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="AK15" s="12" t="s">
         <v>499</v>
       </c>
-      <c r="AC15" s="12" t="s">
+      <c r="AL15" s="12" t="s">
         <v>500</v>
       </c>
-      <c r="AD15" s="12" t="s">
+      <c r="AM15" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="AN15" s="12" t="s">
         <v>501</v>
       </c>
-      <c r="AE15" s="12" t="s">
+      <c r="AO15" s="12" t="s">
         <v>502</v>
       </c>
-      <c r="AF15" s="12" t="s">
+      <c r="AP15" s="12" t="s">
         <v>503</v>
       </c>
-      <c r="AG15" s="12" t="s">
+      <c r="AQ15" s="12" t="s">
         <v>504</v>
-      </c>
-      <c r="AH15" s="12" t="s">
-        <v>505</v>
-      </c>
-      <c r="AI15" s="12" t="s">
-        <v>507</v>
-      </c>
-      <c r="AJ15" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="AK15" s="12" t="s">
-        <v>508</v>
-      </c>
-      <c r="AL15" s="12" t="s">
-        <v>509</v>
-      </c>
-      <c r="AM15" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="AN15" s="12" t="s">
-        <v>510</v>
-      </c>
-      <c r="AO15" s="12" t="s">
-        <v>511</v>
-      </c>
-      <c r="AP15" s="12" t="s">
-        <v>512</v>
-      </c>
-      <c r="AQ15" s="12" t="s">
-        <v>513</v>
       </c>
       <c r="AR15" s="12" t="s">
         <v>160</v>
       </c>
       <c r="AS15" s="12" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AT15" s="12" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="AU15" s="12" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="AV15" s="12" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="AW15" s="12" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="AX15" s="12" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="AY15" s="1" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="AZ15" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="BA15" s="1" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="BB15">
         <v>999</v>
@@ -5911,7 +6629,7 @@
         <v>4</v>
       </c>
       <c r="G16" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="H16" t="s">
         <v>57</v>
@@ -5923,28 +6641,28 @@
         <v>47.3</v>
       </c>
       <c r="K16" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="L16" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="M16">
         <v>999</v>
       </c>
       <c r="N16" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="O16" t="s">
         <v>172</v>
       </c>
       <c r="P16" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="Q16" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="R16" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="S16">
         <v>999</v>
@@ -5956,19 +6674,19 @@
         <v>999</v>
       </c>
       <c r="V16" s="12" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="W16" s="12" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="X16" s="12" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="Y16" s="12" t="s">
         <v>256</v>
       </c>
       <c r="Z16" s="12" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="AA16" s="12" t="s">
         <v>142</v>
@@ -5977,79 +6695,79 @@
         <v>143</v>
       </c>
       <c r="AC16" s="12" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="AD16" s="12" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="AE16" s="12" t="s">
-        <v>533</v>
+        <v>948</v>
       </c>
       <c r="AF16" s="12" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="AG16" s="12" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="AH16" s="12" t="s">
-        <v>536</v>
+        <v>949</v>
       </c>
       <c r="AI16" s="12" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AJ16" s="12" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="AK16" s="12" t="s">
         <v>153</v>
       </c>
       <c r="AL16" s="12" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="AM16" s="12" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="AN16" s="12" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="AO16" s="12" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AP16" s="12" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="AQ16" s="12" t="s">
         <v>198</v>
       </c>
       <c r="AR16" s="12" t="s">
-        <v>274</v>
+        <v>941</v>
       </c>
       <c r="AS16" s="12" t="s">
-        <v>544</v>
+        <v>950</v>
       </c>
       <c r="AT16" s="12" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="AU16" s="12" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="AV16" s="12" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="AW16" s="12" t="s">
-        <v>278</v>
+        <v>943</v>
       </c>
       <c r="AX16" s="12" t="s">
         <v>128</v>
       </c>
       <c r="AY16" s="1" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="AZ16" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="BA16" s="1" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="BB16">
         <v>999</v>
@@ -6075,7 +6793,7 @@
         <v>5</v>
       </c>
       <c r="G17" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="H17" t="s">
         <v>57</v>
@@ -6087,25 +6805,25 @@
         <v>47.3</v>
       </c>
       <c r="K17" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="L17" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="M17">
         <v>999</v>
       </c>
       <c r="N17" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="O17" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="P17" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="Q17" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="R17">
         <v>999</v>
@@ -6114,73 +6832,73 @@
         <v>172</v>
       </c>
       <c r="T17" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="V17" s="12" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="W17" s="12" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="X17" s="12" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="Y17" s="12" t="s">
         <v>256</v>
       </c>
       <c r="Z17" s="12" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="AA17" s="12" t="s">
         <v>142</v>
       </c>
       <c r="AB17" s="12" t="s">
+        <v>547</v>
+      </c>
+      <c r="AC17" s="12" t="s">
+        <v>548</v>
+      </c>
+      <c r="AD17" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="AE17" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="AF17" s="12" t="s">
         <v>559</v>
       </c>
-      <c r="AC17" s="12" t="s">
-        <v>560</v>
-      </c>
-      <c r="AD17" s="12" t="s">
-        <v>501</v>
-      </c>
-      <c r="AE17" s="12" t="s">
-        <v>561</v>
-      </c>
-      <c r="AF17" s="12" t="s">
-        <v>571</v>
-      </c>
       <c r="AG17" s="12" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="AH17" s="12" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="AI17" s="12" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="AJ17" s="12" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AK17" s="12" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="AL17" s="12" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="AM17" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AN17" s="12" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="AO17" s="12" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="AP17" s="12" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="AQ17" s="12" t="s">
         <v>234</v>
@@ -6189,31 +6907,31 @@
         <v>160</v>
       </c>
       <c r="AS17" s="12" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AT17" s="12" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="AU17" s="12" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="AV17" s="12" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="AW17" s="12" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="AX17" s="12" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="AY17" s="1" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="AZ17" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="BA17" s="1" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
       <c r="BB17">
         <v>999</v>
@@ -6239,7 +6957,7 @@
         <v>6</v>
       </c>
       <c r="G18" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="H18" t="s">
         <v>243</v>
@@ -6251,10 +6969,10 @@
         <v>47.3</v>
       </c>
       <c r="K18" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="L18" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="M18">
         <v>999</v>
@@ -6263,34 +6981,34 @@
         <v>92</v>
       </c>
       <c r="O18" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="P18" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="Q18" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="R18" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="S18">
         <v>999</v>
       </c>
       <c r="T18" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="V18" s="12" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="W18" s="12" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
       <c r="X18" s="12" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
       <c r="Y18" s="12" t="s">
         <v>256</v>
@@ -6299,82 +7017,82 @@
         <v>257</v>
       </c>
       <c r="AA18" s="12" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="AB18" s="12" t="s">
         <v>66</v>
       </c>
       <c r="AC18" s="12" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="AD18" s="12" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="AE18" s="12" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="AF18" s="12" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="AG18" s="12" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="AH18" s="12" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="AI18" s="12" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AJ18" s="12" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AK18" s="12" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="AL18" s="12" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="AM18" s="12" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
       <c r="AN18" s="12" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="AO18" s="12" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="AQ18" s="12" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="AR18" s="12" t="s">
         <v>160</v>
       </c>
       <c r="AS18" s="12" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="AT18" s="12" t="s">
         <v>162</v>
       </c>
       <c r="AU18" s="12" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="AV18" s="12" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="AW18" s="12" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="AX18" s="12" t="s">
         <v>167</v>
       </c>
       <c r="AY18" s="1" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="AZ18" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="BA18" s="1" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="BB18">
         <v>999</v>
@@ -6400,7 +7118,7 @@
         <v>8</v>
       </c>
       <c r="G19" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
       <c r="H19" t="s">
         <v>243</v>
@@ -6412,91 +7130,91 @@
         <v>47.3</v>
       </c>
       <c r="K19" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="L19" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="M19">
         <v>999</v>
       </c>
       <c r="N19" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="O19" t="s">
         <v>172</v>
       </c>
       <c r="P19" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
       <c r="Q19" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
       <c r="R19">
         <v>999</v>
       </c>
       <c r="S19" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
       <c r="T19" t="s">
         <v>178</v>
       </c>
       <c r="V19" s="12" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="W19" s="12" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="X19" s="12" t="s">
-        <v>610</v>
+        <v>598</v>
       </c>
       <c r="Y19" s="12" t="s">
         <v>64</v>
       </c>
       <c r="Z19" s="12" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
       <c r="AA19" s="12" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="AB19" s="12" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
       <c r="AC19" s="12" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
       <c r="AD19" s="12" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="AE19" s="12" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="AF19" s="12" t="s">
-        <v>617</v>
+        <v>605</v>
       </c>
       <c r="AG19" s="12" t="s">
-        <v>618</v>
+        <v>606</v>
       </c>
       <c r="AH19" s="12" t="s">
         <v>190</v>
       </c>
       <c r="AI19" s="12" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="AJ19" s="12" t="s">
         <v>227</v>
       </c>
       <c r="AK19" s="12" t="s">
-        <v>619</v>
+        <v>607</v>
       </c>
       <c r="AL19">
         <v>999</v>
       </c>
       <c r="AM19" s="12" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="AN19" s="12" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="AO19" s="12" t="s">
         <v>77</v>
@@ -6514,25 +7232,25 @@
         <v>999</v>
       </c>
       <c r="AT19" s="12" t="s">
-        <v>620</v>
+        <v>608</v>
       </c>
       <c r="AU19" s="12" t="s">
-        <v>621</v>
+        <v>609</v>
       </c>
       <c r="AV19" s="12" t="s">
-        <v>622</v>
+        <v>610</v>
       </c>
       <c r="AW19" s="12" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="AX19" s="12" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
       <c r="AY19" s="1" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="AZ19" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="BA19" s="1" t="s">
         <v>235</v>
@@ -6561,7 +7279,7 @@
         <v>9</v>
       </c>
       <c r="G20" t="s">
-        <v>624</v>
+        <v>612</v>
       </c>
       <c r="H20" t="s">
         <v>57</v>
@@ -6573,52 +7291,52 @@
         <v>47.3</v>
       </c>
       <c r="K20" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="L20" t="s">
-        <v>626</v>
+        <v>614</v>
       </c>
       <c r="M20">
         <v>999</v>
       </c>
       <c r="N20" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="O20" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="P20" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
       <c r="Q20" t="s">
-        <v>627</v>
+        <v>615</v>
       </c>
       <c r="R20">
         <v>999</v>
       </c>
       <c r="S20" t="s">
-        <v>628</v>
+        <v>616</v>
       </c>
       <c r="T20" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="V20" s="12" t="s">
-        <v>631</v>
+        <v>619</v>
       </c>
       <c r="W20" s="12" t="s">
-        <v>632</v>
+        <v>620</v>
       </c>
       <c r="X20" s="12" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="Y20" s="12" t="s">
         <v>140</v>
       </c>
       <c r="Z20" s="12" t="s">
-        <v>634</v>
+        <v>622</v>
       </c>
       <c r="AA20" s="12" t="s">
         <v>142</v>
@@ -6627,79 +7345,79 @@
         <v>143</v>
       </c>
       <c r="AC20" s="12" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="AD20" s="12" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="AE20" s="12" t="s">
+        <v>623</v>
+      </c>
+      <c r="AF20" s="12" t="s">
+        <v>624</v>
+      </c>
+      <c r="AG20" s="12" t="s">
+        <v>626</v>
+      </c>
+      <c r="AH20" s="12" t="s">
+        <v>496</v>
+      </c>
+      <c r="AI20" s="12" t="s">
+        <v>628</v>
+      </c>
+      <c r="AJ20" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="AK20" s="12" t="s">
+        <v>629</v>
+      </c>
+      <c r="AL20" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="AM20" s="12" t="s">
+        <v>631</v>
+      </c>
+      <c r="AN20" s="12" t="s">
+        <v>632</v>
+      </c>
+      <c r="AO20" s="12" t="s">
+        <v>502</v>
+      </c>
+      <c r="AP20" s="12" t="s">
+        <v>633</v>
+      </c>
+      <c r="AQ20" s="12" t="s">
+        <v>634</v>
+      </c>
+      <c r="AR20" s="12" t="s">
+        <v>636</v>
+      </c>
+      <c r="AS20" s="12" t="s">
+        <v>637</v>
+      </c>
+      <c r="AT20" s="12" t="s">
+        <v>638</v>
+      </c>
+      <c r="AU20" s="12" t="s">
+        <v>639</v>
+      </c>
+      <c r="AV20" s="12" t="s">
+        <v>640</v>
+      </c>
+      <c r="AW20" s="12" t="s">
+        <v>641</v>
+      </c>
+      <c r="AX20" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="AY20" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AZ20" t="s">
+        <v>627</v>
+      </c>
+      <c r="BA20" s="1" t="s">
         <v>635</v>
-      </c>
-      <c r="AF20" s="12" t="s">
-        <v>636</v>
-      </c>
-      <c r="AG20" s="12" t="s">
-        <v>638</v>
-      </c>
-      <c r="AH20" s="12" t="s">
-        <v>505</v>
-      </c>
-      <c r="AI20" s="12" t="s">
-        <v>640</v>
-      </c>
-      <c r="AJ20" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="AK20" s="12" t="s">
-        <v>641</v>
-      </c>
-      <c r="AL20" s="12" t="s">
-        <v>642</v>
-      </c>
-      <c r="AM20" s="12" t="s">
-        <v>643</v>
-      </c>
-      <c r="AN20" s="12" t="s">
-        <v>644</v>
-      </c>
-      <c r="AO20" s="12" t="s">
-        <v>511</v>
-      </c>
-      <c r="AP20" s="12" t="s">
-        <v>645</v>
-      </c>
-      <c r="AQ20" s="12" t="s">
-        <v>646</v>
-      </c>
-      <c r="AR20" s="12" t="s">
-        <v>648</v>
-      </c>
-      <c r="AS20" s="12" t="s">
-        <v>649</v>
-      </c>
-      <c r="AT20" s="12" t="s">
-        <v>650</v>
-      </c>
-      <c r="AU20" s="12" t="s">
-        <v>651</v>
-      </c>
-      <c r="AV20" s="12" t="s">
-        <v>652</v>
-      </c>
-      <c r="AW20" s="12" t="s">
-        <v>653</v>
-      </c>
-      <c r="AX20" s="12" t="s">
-        <v>425</v>
-      </c>
-      <c r="AY20" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="AZ20" t="s">
-        <v>639</v>
-      </c>
-      <c r="BA20" s="1" t="s">
-        <v>647</v>
       </c>
       <c r="BB20">
         <v>999</v>
@@ -6725,7 +7443,7 @@
         <v>11</v>
       </c>
       <c r="G21" t="s">
-        <v>655</v>
+        <v>643</v>
       </c>
       <c r="H21" t="s">
         <v>90</v>
@@ -6737,10 +7455,10 @@
         <v>47.3</v>
       </c>
       <c r="K21" t="s">
-        <v>656</v>
+        <v>644</v>
       </c>
       <c r="L21" t="s">
-        <v>657</v>
+        <v>645</v>
       </c>
       <c r="M21">
         <v>999</v>
@@ -6749,118 +7467,118 @@
         <v>92</v>
       </c>
       <c r="O21" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="P21" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
       <c r="Q21" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="R21" t="s">
-        <v>660</v>
+        <v>648</v>
       </c>
       <c r="S21" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
       <c r="T21" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>662</v>
+        <v>650</v>
       </c>
       <c r="V21" s="12" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="W21" s="12" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="X21" s="12" t="s">
-        <v>663</v>
+        <v>651</v>
       </c>
       <c r="Y21" s="12" t="s">
         <v>140</v>
       </c>
       <c r="Z21" s="12" t="s">
-        <v>690</v>
+        <v>678</v>
       </c>
       <c r="AA21" s="12" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="AB21" s="12" t="s">
         <v>66</v>
       </c>
       <c r="AC21" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="AD21" s="12" t="s">
+        <v>653</v>
+      </c>
+      <c r="AE21" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="AF21" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="AG21" s="12" t="s">
+        <v>655</v>
+      </c>
+      <c r="AH21" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="AI21" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="AJ21" s="12" t="s">
+        <v>656</v>
+      </c>
+      <c r="AK21" s="12" t="s">
+        <v>657</v>
+      </c>
+      <c r="AL21" s="12" t="s">
+        <v>658</v>
+      </c>
+      <c r="AM21" s="12" t="s">
+        <v>659</v>
+      </c>
+      <c r="AN21" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="AO21" s="12" t="s">
+        <v>660</v>
+      </c>
+      <c r="AP21" s="12" t="s">
+        <v>661</v>
+      </c>
+      <c r="AQ21" s="12" t="s">
+        <v>662</v>
+      </c>
+      <c r="AR21" s="12" t="s">
+        <v>663</v>
+      </c>
+      <c r="AS21" s="12" t="s">
         <v>664</v>
       </c>
-      <c r="AD21" s="12" t="s">
+      <c r="AT21" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="AU21" s="12" t="s">
         <v>665</v>
       </c>
-      <c r="AE21" s="12" t="s">
+      <c r="AV21" s="12" t="s">
         <v>666</v>
       </c>
-      <c r="AF21" s="12" t="s">
-        <v>408</v>
-      </c>
-      <c r="AG21" s="12" t="s">
+      <c r="AW21" s="12" t="s">
         <v>667</v>
-      </c>
-      <c r="AH21" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="AI21" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="AJ21" s="12" t="s">
-        <v>668</v>
-      </c>
-      <c r="AK21" s="12" t="s">
-        <v>669</v>
-      </c>
-      <c r="AL21" s="12" t="s">
-        <v>670</v>
-      </c>
-      <c r="AM21" s="12" t="s">
-        <v>671</v>
-      </c>
-      <c r="AN21" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="AO21" s="12" t="s">
-        <v>672</v>
-      </c>
-      <c r="AP21" s="12" t="s">
-        <v>673</v>
-      </c>
-      <c r="AQ21" s="12" t="s">
-        <v>674</v>
-      </c>
-      <c r="AR21" s="12" t="s">
-        <v>675</v>
-      </c>
-      <c r="AS21" s="12" t="s">
-        <v>676</v>
-      </c>
-      <c r="AT21" s="12" t="s">
-        <v>310</v>
-      </c>
-      <c r="AU21" s="12" t="s">
-        <v>677</v>
-      </c>
-      <c r="AV21" s="12" t="s">
-        <v>678</v>
-      </c>
-      <c r="AW21" s="12" t="s">
-        <v>679</v>
       </c>
       <c r="AX21" s="12" t="s">
         <v>128</v>
       </c>
       <c r="AY21" s="1" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="AZ21" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="BA21" s="1" t="s">
         <v>251</v>
@@ -6889,7 +7607,7 @@
         <v>12</v>
       </c>
       <c r="G22" t="s">
-        <v>680</v>
+        <v>668</v>
       </c>
       <c r="H22" t="s">
         <v>243</v>
@@ -6901,25 +7619,25 @@
         <v>47.3</v>
       </c>
       <c r="K22" t="s">
-        <v>681</v>
+        <v>669</v>
       </c>
       <c r="L22" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="M22">
         <v>999</v>
       </c>
       <c r="N22" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="O22" t="s">
         <v>93</v>
       </c>
       <c r="P22" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="Q22" t="s">
-        <v>693</v>
+        <v>681</v>
       </c>
       <c r="R22">
         <v>999</v>
@@ -6931,49 +7649,49 @@
         <v>178</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="V22" s="12" t="s">
-        <v>685</v>
+        <v>673</v>
       </c>
       <c r="W22" s="12" t="s">
-        <v>686</v>
+        <v>674</v>
       </c>
       <c r="X22" s="12" t="s">
-        <v>687</v>
+        <v>675</v>
       </c>
       <c r="Y22" s="12" t="s">
-        <v>688</v>
+        <v>676</v>
       </c>
       <c r="Z22" s="12" t="s">
-        <v>689</v>
+        <v>677</v>
       </c>
       <c r="AA22" s="12" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="AB22" s="12" t="s">
         <v>219</v>
       </c>
       <c r="AC22" s="12" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="AD22" s="12" t="s">
-        <v>691</v>
+        <v>679</v>
       </c>
       <c r="AE22" s="12" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="AF22" s="12" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="AG22" s="12" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
       <c r="AH22" s="12" t="s">
         <v>149</v>
       </c>
       <c r="AI22" s="12" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="AJ22" s="12" t="s">
         <v>227</v>
@@ -6982,37 +7700,37 @@
         <v>73</v>
       </c>
       <c r="AL22" s="12" t="s">
-        <v>697</v>
+        <v>685</v>
       </c>
       <c r="AM22" s="12" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="AN22" s="12" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="AO22" s="12" t="s">
         <v>232</v>
       </c>
       <c r="AP22" s="12" t="s">
-        <v>698</v>
+        <v>686</v>
       </c>
       <c r="AQ22" s="12" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="AR22" s="12" t="s">
         <v>80</v>
       </c>
       <c r="AS22" s="12" t="s">
-        <v>699</v>
+        <v>687</v>
       </c>
       <c r="AT22" s="12" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="AU22" s="12" t="s">
-        <v>700</v>
+        <v>688</v>
       </c>
       <c r="AV22" s="12" t="s">
-        <v>701</v>
+        <v>689</v>
       </c>
       <c r="AW22" s="12" t="s">
         <v>240</v>
@@ -7024,7 +7742,7 @@
         <v>86</v>
       </c>
       <c r="AZ22" t="s">
-        <v>695</v>
+        <v>683</v>
       </c>
       <c r="BA22" s="1" t="s">
         <v>235</v>
@@ -7053,7 +7771,7 @@
         <v>14</v>
       </c>
       <c r="G23" t="s">
-        <v>702</v>
+        <v>690</v>
       </c>
       <c r="H23" t="s">
         <v>243</v>
@@ -7065,133 +7783,133 @@
         <v>47.3</v>
       </c>
       <c r="K23" t="s">
-        <v>703</v>
+        <v>691</v>
       </c>
       <c r="L23" t="s">
-        <v>704</v>
+        <v>692</v>
       </c>
       <c r="M23">
         <v>999</v>
       </c>
       <c r="N23" t="s">
-        <v>705</v>
+        <v>693</v>
       </c>
       <c r="O23" t="s">
         <v>172</v>
       </c>
       <c r="P23" t="s">
-        <v>706</v>
+        <v>694</v>
       </c>
       <c r="Q23" t="s">
-        <v>707</v>
+        <v>695</v>
       </c>
       <c r="R23">
         <v>999</v>
       </c>
       <c r="S23" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="T23" t="s">
-        <v>708</v>
+        <v>696</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>709</v>
+        <v>697</v>
       </c>
       <c r="V23" s="12" t="s">
-        <v>710</v>
+        <v>698</v>
       </c>
       <c r="W23" s="12" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
       <c r="X23" s="12" t="s">
-        <v>711</v>
+        <v>699</v>
       </c>
       <c r="Y23" s="12" t="s">
         <v>256</v>
       </c>
       <c r="Z23" s="12" t="s">
-        <v>712</v>
+        <v>700</v>
       </c>
       <c r="AA23" s="12" t="s">
         <v>142</v>
       </c>
       <c r="AB23" s="12" t="s">
-        <v>713</v>
+        <v>701</v>
       </c>
       <c r="AC23" s="12" t="s">
         <v>259</v>
       </c>
       <c r="AD23" s="12" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
       <c r="AE23" s="12" t="s">
-        <v>715</v>
+        <v>703</v>
       </c>
       <c r="AF23" s="12" t="s">
-        <v>716</v>
+        <v>704</v>
       </c>
       <c r="AG23" s="12" t="s">
-        <v>717</v>
+        <v>705</v>
       </c>
       <c r="AH23" s="12" t="s">
-        <v>718</v>
+        <v>706</v>
       </c>
       <c r="AI23" s="12" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AJ23" s="12" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AK23" s="12" t="s">
         <v>153</v>
       </c>
       <c r="AL23" s="12" t="s">
-        <v>719</v>
+        <v>707</v>
       </c>
       <c r="AM23" s="12" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="AN23" s="12" t="s">
-        <v>720</v>
+        <v>708</v>
       </c>
       <c r="AO23" s="12" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AP23" s="12" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="AQ23" s="12" t="s">
         <v>198</v>
       </c>
       <c r="AR23" s="12" t="s">
-        <v>721</v>
+        <v>709</v>
       </c>
       <c r="AS23" s="12" t="s">
-        <v>722</v>
+        <v>710</v>
       </c>
       <c r="AT23" s="12" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="AU23" s="12" t="s">
-        <v>723</v>
+        <v>711</v>
       </c>
       <c r="AV23" s="12" t="s">
-        <v>724</v>
+        <v>712</v>
       </c>
       <c r="AW23" s="12" t="s">
-        <v>725</v>
+        <v>713</v>
       </c>
       <c r="AX23" s="12" t="s">
         <v>206</v>
       </c>
       <c r="AY23" s="1" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="AZ23" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="BA23" s="1" t="s">
-        <v>747</v>
+        <v>735</v>
       </c>
       <c r="BB23">
         <v>999</v>
@@ -7217,7 +7935,7 @@
         <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="H24" t="s">
         <v>243</v>
@@ -7229,25 +7947,25 @@
         <v>47.3</v>
       </c>
       <c r="K24" t="s">
-        <v>727</v>
+        <v>715</v>
       </c>
       <c r="L24" t="s">
-        <v>728</v>
+        <v>716</v>
       </c>
       <c r="M24">
         <v>999</v>
       </c>
       <c r="N24" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="O24" t="s">
         <v>93</v>
       </c>
       <c r="P24" t="s">
-        <v>729</v>
+        <v>717</v>
       </c>
       <c r="Q24" t="s">
-        <v>730</v>
+        <v>718</v>
       </c>
       <c r="R24">
         <v>999</v>
@@ -7262,22 +7980,22 @@
         <v>999</v>
       </c>
       <c r="V24" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="W24" s="12" t="s">
-        <v>732</v>
+        <v>720</v>
       </c>
       <c r="X24" s="12" t="s">
-        <v>733</v>
+        <v>721</v>
       </c>
       <c r="Y24" s="12" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="Z24" s="12" t="s">
-        <v>735</v>
+        <v>723</v>
       </c>
       <c r="AA24" s="12" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="AB24" s="12" t="s">
         <v>66</v>
@@ -7286,37 +8004,37 @@
         <v>185</v>
       </c>
       <c r="AD24" s="12" t="s">
-        <v>736</v>
+        <v>724</v>
       </c>
       <c r="AE24" s="12" t="s">
-        <v>737</v>
+        <v>725</v>
       </c>
       <c r="AF24" s="12" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="AG24" s="12" t="s">
-        <v>738</v>
+        <v>726</v>
       </c>
       <c r="AH24" s="12" t="s">
         <v>190</v>
       </c>
       <c r="AI24" s="12" t="s">
-        <v>740</v>
+        <v>728</v>
       </c>
       <c r="AJ24" s="12" t="s">
         <v>227</v>
       </c>
       <c r="AK24" s="12" t="s">
-        <v>741</v>
+        <v>729</v>
       </c>
       <c r="AL24" s="12" t="s">
-        <v>742</v>
+        <v>730</v>
       </c>
       <c r="AM24" s="12" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="AN24" s="12" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="AO24" s="12" t="s">
         <v>77</v>
@@ -7325,34 +8043,34 @@
         <v>78</v>
       </c>
       <c r="AQ24" s="12" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="AR24" s="12" t="s">
         <v>80</v>
       </c>
       <c r="AS24" s="12" t="s">
-        <v>743</v>
+        <v>731</v>
       </c>
       <c r="AT24" s="12" t="s">
         <v>82</v>
       </c>
       <c r="AU24" s="12" t="s">
-        <v>744</v>
+        <v>732</v>
       </c>
       <c r="AV24" s="12" t="s">
-        <v>745</v>
+        <v>733</v>
       </c>
       <c r="AW24" s="12" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="AX24" s="12" t="s">
-        <v>746</v>
+        <v>734</v>
       </c>
       <c r="AY24" s="1" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="AZ24" t="s">
-        <v>739</v>
+        <v>727</v>
       </c>
       <c r="BA24" s="1" t="s">
         <v>88</v>
@@ -7381,7 +8099,7 @@
         <v>4</v>
       </c>
       <c r="G25" t="s">
-        <v>748</v>
+        <v>736</v>
       </c>
       <c r="H25" t="s">
         <v>57</v>
@@ -7393,34 +8111,34 @@
         <v>47.3</v>
       </c>
       <c r="K25" t="s">
-        <v>749</v>
+        <v>737</v>
       </c>
       <c r="L25" t="s">
-        <v>750</v>
+        <v>738</v>
       </c>
       <c r="M25">
         <v>999</v>
       </c>
       <c r="N25" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="O25" t="s">
         <v>93</v>
       </c>
       <c r="P25" t="s">
-        <v>751</v>
+        <v>739</v>
       </c>
       <c r="Q25" t="s">
-        <v>752</v>
+        <v>740</v>
       </c>
       <c r="R25" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="S25">
         <v>999</v>
       </c>
       <c r="T25" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="U25" s="1">
         <v>999</v>
@@ -7429,94 +8147,94 @@
         <v>61</v>
       </c>
       <c r="W25" s="12" t="s">
-        <v>754</v>
+        <v>742</v>
       </c>
       <c r="X25" s="12" t="s">
-        <v>755</v>
+        <v>743</v>
       </c>
       <c r="Y25" s="12" t="s">
         <v>216</v>
       </c>
       <c r="Z25" s="12" t="s">
-        <v>756</v>
+        <v>744</v>
       </c>
       <c r="AA25" s="12" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="AB25" s="12" t="s">
         <v>66</v>
       </c>
       <c r="AC25" s="12" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="AD25" s="12" t="s">
-        <v>691</v>
+        <v>679</v>
       </c>
       <c r="AE25" s="12" t="s">
-        <v>737</v>
+        <v>725</v>
       </c>
       <c r="AF25">
         <v>999</v>
       </c>
       <c r="AG25" s="12" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
       <c r="AH25" s="12" t="s">
         <v>190</v>
       </c>
       <c r="AI25" s="12" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="AJ25" s="12" t="s">
         <v>227</v>
       </c>
       <c r="AK25" s="12" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="AL25" s="12" t="s">
-        <v>760</v>
+        <v>748</v>
       </c>
       <c r="AM25" s="12" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="AN25" s="12" t="s">
-        <v>761</v>
+        <v>749</v>
       </c>
       <c r="AO25" s="12" t="s">
-        <v>762</v>
+        <v>750</v>
       </c>
       <c r="AP25" s="12" t="s">
         <v>78</v>
       </c>
       <c r="AQ25" s="12" t="s">
-        <v>763</v>
+        <v>751</v>
       </c>
       <c r="AR25" s="12" t="s">
         <v>80</v>
       </c>
       <c r="AS25" s="12" t="s">
-        <v>764</v>
+        <v>752</v>
       </c>
       <c r="AT25" s="12" t="s">
-        <v>765</v>
+        <v>753</v>
       </c>
       <c r="AU25" s="12" t="s">
-        <v>766</v>
+        <v>754</v>
       </c>
       <c r="AV25" s="12" t="s">
-        <v>767</v>
+        <v>755</v>
       </c>
       <c r="AW25" s="12" t="s">
-        <v>768</v>
+        <v>756</v>
       </c>
       <c r="AX25" s="12" t="s">
         <v>128</v>
       </c>
       <c r="AY25" s="1" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="AZ25" t="s">
-        <v>759</v>
+        <v>747</v>
       </c>
       <c r="BA25" s="1" t="s">
         <v>235</v>
@@ -7545,7 +8263,7 @@
         <v>5</v>
       </c>
       <c r="G26" t="s">
-        <v>770</v>
+        <v>758</v>
       </c>
       <c r="H26" t="s">
         <v>90</v>
@@ -7557,31 +8275,31 @@
         <v>47.3</v>
       </c>
       <c r="K26" t="s">
-        <v>771</v>
+        <v>759</v>
       </c>
       <c r="L26" t="s">
-        <v>772</v>
+        <v>760</v>
       </c>
       <c r="M26">
         <v>999</v>
       </c>
       <c r="N26" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="O26" t="s">
         <v>172</v>
       </c>
       <c r="P26" t="s">
-        <v>773</v>
+        <v>761</v>
       </c>
       <c r="Q26" t="s">
-        <v>774</v>
+        <v>762</v>
       </c>
       <c r="R26">
         <v>999</v>
       </c>
       <c r="S26" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="T26" t="s">
         <v>97</v>
@@ -7590,85 +8308,85 @@
         <v>999</v>
       </c>
       <c r="V26" s="12" t="s">
-        <v>775</v>
+        <v>763</v>
       </c>
       <c r="W26" s="12" t="s">
-        <v>776</v>
+        <v>764</v>
       </c>
       <c r="X26" s="12" t="s">
-        <v>777</v>
+        <v>765</v>
       </c>
       <c r="Y26" s="12" t="s">
         <v>256</v>
       </c>
       <c r="Z26" s="12" t="s">
-        <v>778</v>
+        <v>954</v>
       </c>
       <c r="AA26" s="12" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="AB26" s="12" t="s">
-        <v>779</v>
+        <v>766</v>
       </c>
       <c r="AC26" s="12" t="s">
-        <v>780</v>
+        <v>767</v>
       </c>
       <c r="AD26" s="12" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="AE26" s="12" t="s">
-        <v>781</v>
+        <v>768</v>
       </c>
       <c r="AF26" s="12" t="s">
-        <v>782</v>
+        <v>769</v>
       </c>
       <c r="AG26" s="12" t="s">
-        <v>783</v>
+        <v>770</v>
       </c>
       <c r="AH26" s="12" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="AI26" s="12" t="s">
         <v>151</v>
       </c>
       <c r="AJ26" s="12" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AK26" s="12" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="AL26" s="12" t="s">
-        <v>784</v>
+        <v>771</v>
       </c>
       <c r="AM26" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AN26" s="12" t="s">
         <v>156</v>
       </c>
       <c r="AO26" s="12" t="s">
-        <v>785</v>
+        <v>772</v>
       </c>
       <c r="AP26" s="12" t="s">
-        <v>645</v>
+        <v>633</v>
       </c>
       <c r="AQ26" s="12" t="s">
-        <v>786</v>
+        <v>773</v>
       </c>
       <c r="AR26" s="12" t="s">
         <v>160</v>
       </c>
       <c r="AS26" s="12" t="s">
-        <v>787</v>
+        <v>774</v>
       </c>
       <c r="AT26" s="12" t="s">
-        <v>788</v>
+        <v>775</v>
       </c>
       <c r="AU26" s="12" t="s">
-        <v>789</v>
+        <v>776</v>
       </c>
       <c r="AV26" s="12" t="s">
-        <v>790</v>
+        <v>777</v>
       </c>
       <c r="AW26" s="12" t="s">
         <v>166</v>
@@ -7677,10 +8395,10 @@
         <v>167</v>
       </c>
       <c r="AY26" s="1" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="AZ26" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="BA26" s="1" t="s">
         <v>235</v>
@@ -7709,7 +8427,7 @@
         <v>6</v>
       </c>
       <c r="G27" t="s">
-        <v>791</v>
+        <v>778</v>
       </c>
       <c r="H27" t="s">
         <v>243</v>
@@ -7721,10 +8439,10 @@
         <v>47.3</v>
       </c>
       <c r="K27" t="s">
-        <v>793</v>
+        <v>780</v>
       </c>
       <c r="L27" t="s">
-        <v>792</v>
+        <v>779</v>
       </c>
       <c r="M27">
         <v>999</v>
@@ -7733,118 +8451,118 @@
         <v>92</v>
       </c>
       <c r="O27" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="P27" t="s">
+        <v>781</v>
+      </c>
+      <c r="Q27">
+        <v>999</v>
+      </c>
+      <c r="R27">
+        <v>999</v>
+      </c>
+      <c r="S27">
+        <v>999</v>
+      </c>
+      <c r="T27" t="s">
+        <v>313</v>
+      </c>
+      <c r="U27" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="V27" s="12">
+        <v>999</v>
+      </c>
+      <c r="W27" s="12" t="s">
+        <v>782</v>
+      </c>
+      <c r="X27" s="12" t="s">
+        <v>783</v>
+      </c>
+      <c r="Y27">
+        <v>999</v>
+      </c>
+      <c r="Z27" s="12" t="s">
+        <v>784</v>
+      </c>
+      <c r="AA27">
+        <v>999</v>
+      </c>
+      <c r="AB27">
+        <v>999</v>
+      </c>
+      <c r="AC27" s="12" t="s">
+        <v>785</v>
+      </c>
+      <c r="AD27" s="12" t="s">
+        <v>786</v>
+      </c>
+      <c r="AE27" s="12" t="s">
+        <v>787</v>
+      </c>
+      <c r="AF27">
+        <v>999</v>
+      </c>
+      <c r="AG27" s="12" t="s">
+        <v>788</v>
+      </c>
+      <c r="AH27">
+        <v>999</v>
+      </c>
+      <c r="AI27" s="12" t="s">
+        <v>790</v>
+      </c>
+      <c r="AJ27" s="12" t="s">
+        <v>791</v>
+      </c>
+      <c r="AK27" s="12" t="s">
+        <v>792</v>
+      </c>
+      <c r="AL27">
+        <v>999</v>
+      </c>
+      <c r="AM27" s="12" t="s">
+        <v>793</v>
+      </c>
+      <c r="AN27" s="12" t="s">
         <v>794</v>
       </c>
-      <c r="Q27">
-        <v>999</v>
-      </c>
-      <c r="R27">
-        <v>999</v>
-      </c>
-      <c r="S27">
-        <v>999</v>
-      </c>
-      <c r="T27" t="s">
-        <v>321</v>
-      </c>
-      <c r="U27" s="1" t="s">
-        <v>794</v>
-      </c>
-      <c r="V27" s="12">
-        <v>999</v>
-      </c>
-      <c r="W27" s="12" t="s">
+      <c r="AO27" s="12" t="s">
         <v>795</v>
       </c>
-      <c r="X27" s="12" t="s">
+      <c r="AP27">
+        <v>999</v>
+      </c>
+      <c r="AQ27">
+        <v>999</v>
+      </c>
+      <c r="AR27" s="12" t="s">
         <v>796</v>
       </c>
-      <c r="Y27">
-        <v>999</v>
-      </c>
-      <c r="Z27" s="12" t="s">
+      <c r="AS27" s="12" t="s">
         <v>797</v>
       </c>
-      <c r="AA27">
-        <v>999</v>
-      </c>
-      <c r="AB27">
-        <v>999</v>
-      </c>
-      <c r="AC27" s="12" t="s">
+      <c r="AT27" s="12" t="s">
         <v>798</v>
       </c>
-      <c r="AD27" s="12" t="s">
+      <c r="AU27">
+        <v>999</v>
+      </c>
+      <c r="AV27">
+        <v>999</v>
+      </c>
+      <c r="AW27" s="12" t="s">
         <v>799</v>
       </c>
-      <c r="AE27" s="12" t="s">
+      <c r="AX27" s="12" t="s">
         <v>800</v>
       </c>
-      <c r="AF27">
-        <v>999</v>
-      </c>
-      <c r="AG27" s="12" t="s">
+      <c r="AY27" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="AH27">
-        <v>999</v>
-      </c>
-      <c r="AI27" s="12" t="s">
-        <v>803</v>
-      </c>
-      <c r="AJ27" s="12" t="s">
-        <v>804</v>
-      </c>
-      <c r="AK27" s="12" t="s">
-        <v>805</v>
-      </c>
-      <c r="AL27">
-        <v>999</v>
-      </c>
-      <c r="AM27" s="12" t="s">
-        <v>806</v>
-      </c>
-      <c r="AN27" s="12" t="s">
-        <v>807</v>
-      </c>
-      <c r="AO27" s="12" t="s">
-        <v>808</v>
-      </c>
-      <c r="AP27">
-        <v>999</v>
-      </c>
-      <c r="AQ27">
-        <v>999</v>
-      </c>
-      <c r="AR27" s="12" t="s">
-        <v>809</v>
-      </c>
-      <c r="AS27" s="12" t="s">
-        <v>810</v>
-      </c>
-      <c r="AT27" s="12" t="s">
-        <v>811</v>
-      </c>
-      <c r="AU27">
-        <v>999</v>
-      </c>
-      <c r="AV27">
-        <v>999</v>
-      </c>
-      <c r="AW27" s="12" t="s">
-        <v>812</v>
-      </c>
-      <c r="AX27" s="12" t="s">
-        <v>813</v>
-      </c>
-      <c r="AY27" s="1" t="s">
-        <v>814</v>
-      </c>
       <c r="AZ27" t="s">
-        <v>802</v>
+        <v>789</v>
       </c>
       <c r="BA27" s="1">
         <v>999</v>
@@ -7873,7 +8591,7 @@
         <v>4</v>
       </c>
       <c r="G28" t="s">
-        <v>815</v>
+        <v>802</v>
       </c>
       <c r="H28" t="s">
         <v>243</v>
@@ -7885,10 +8603,10 @@
         <v>47.3</v>
       </c>
       <c r="K28" t="s">
-        <v>816</v>
+        <v>803</v>
       </c>
       <c r="L28" t="s">
-        <v>817</v>
+        <v>804</v>
       </c>
       <c r="M28">
         <v>999</v>
@@ -7900,16 +8618,16 @@
         <v>172</v>
       </c>
       <c r="P28" t="s">
-        <v>818</v>
+        <v>805</v>
       </c>
       <c r="Q28" t="s">
-        <v>819</v>
+        <v>806</v>
       </c>
       <c r="R28">
         <v>999</v>
       </c>
       <c r="S28" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="T28" t="s">
         <v>97</v>
@@ -7918,100 +8636,100 @@
         <v>999</v>
       </c>
       <c r="V28" s="12" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="W28" s="12" t="s">
-        <v>820</v>
+        <v>807</v>
       </c>
       <c r="X28" s="12" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="Y28" s="12" t="s">
-        <v>821</v>
+        <v>808</v>
       </c>
       <c r="Z28" s="12" t="s">
-        <v>822</v>
+        <v>809</v>
       </c>
       <c r="AA28">
         <v>999</v>
       </c>
       <c r="AB28" t="s">
-        <v>823</v>
+        <v>810</v>
       </c>
       <c r="AC28" s="12" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="AD28" s="12" t="s">
-        <v>824</v>
+        <v>811</v>
       </c>
       <c r="AE28" s="12" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="AF28" s="12" t="s">
-        <v>825</v>
+        <v>812</v>
       </c>
       <c r="AG28" s="12" t="s">
-        <v>826</v>
+        <v>813</v>
       </c>
       <c r="AH28" s="12" t="s">
         <v>190</v>
       </c>
       <c r="AI28" s="12" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="AJ28" s="12" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AK28" s="12" t="s">
-        <v>828</v>
+        <v>815</v>
       </c>
       <c r="AL28" s="12" t="s">
-        <v>829</v>
+        <v>816</v>
       </c>
       <c r="AM28" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AN28" s="12" t="s">
-        <v>830</v>
+        <v>817</v>
       </c>
       <c r="AO28" s="12" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="AP28" s="12" t="s">
-        <v>831</v>
+        <v>818</v>
       </c>
       <c r="AQ28" s="12" t="s">
-        <v>832</v>
+        <v>819</v>
       </c>
       <c r="AR28" s="12" t="s">
-        <v>833</v>
+        <v>820</v>
       </c>
       <c r="AS28" s="12" t="s">
-        <v>834</v>
+        <v>821</v>
       </c>
       <c r="AT28" s="12" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="AU28" s="12" t="s">
-        <v>836</v>
+        <v>823</v>
       </c>
       <c r="AV28" s="12" t="s">
-        <v>837</v>
+        <v>824</v>
       </c>
       <c r="AW28" s="12" t="s">
         <v>240</v>
       </c>
       <c r="AX28" s="12" t="s">
-        <v>838</v>
+        <v>825</v>
       </c>
       <c r="AY28" s="1" t="s">
         <v>168</v>
       </c>
       <c r="AZ28" t="s">
-        <v>827</v>
+        <v>814</v>
       </c>
       <c r="BA28" s="1" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="BB28">
         <v>999</v>
@@ -8037,7 +8755,7 @@
         <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>839</v>
+        <v>826</v>
       </c>
       <c r="H29" t="s">
         <v>243</v>
@@ -8049,10 +8767,10 @@
         <v>47.3</v>
       </c>
       <c r="K29" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="L29" t="s">
-        <v>840</v>
+        <v>827</v>
       </c>
       <c r="M29">
         <v>999</v>
@@ -8064,10 +8782,10 @@
         <v>172</v>
       </c>
       <c r="P29" t="s">
-        <v>841</v>
+        <v>828</v>
       </c>
       <c r="Q29" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="R29">
         <v>999</v>
@@ -8076,7 +8794,7 @@
         <v>999</v>
       </c>
       <c r="T29" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="U29" s="1">
         <v>999</v>
@@ -8085,73 +8803,73 @@
         <v>61</v>
       </c>
       <c r="W29" s="12" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="X29" s="12" t="s">
-        <v>842</v>
+        <v>829</v>
       </c>
       <c r="Y29" s="12" t="s">
         <v>216</v>
       </c>
       <c r="Z29" s="12" t="s">
-        <v>843</v>
+        <v>830</v>
       </c>
       <c r="AA29" s="12" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="AB29" s="12" t="s">
         <v>219</v>
       </c>
       <c r="AC29" s="12" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="AD29" s="12" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="AE29" s="12" t="s">
-        <v>844</v>
+        <v>831</v>
       </c>
       <c r="AF29" s="12" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="AG29" s="12" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="AH29" s="12" t="s">
         <v>190</v>
       </c>
       <c r="AI29" s="12" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="AJ29" s="12" t="s">
         <v>227</v>
       </c>
       <c r="AK29" s="12" t="s">
-        <v>845</v>
+        <v>832</v>
       </c>
       <c r="AL29">
         <v>999</v>
       </c>
       <c r="AM29" s="12" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="AN29" s="12" t="s">
-        <v>846</v>
+        <v>833</v>
       </c>
       <c r="AO29" s="12" t="s">
         <v>232</v>
       </c>
       <c r="AP29" s="12" t="s">
-        <v>919</v>
+        <v>905</v>
       </c>
       <c r="AQ29" s="12" t="s">
-        <v>847</v>
+        <v>834</v>
       </c>
       <c r="AR29" s="12" t="s">
         <v>80</v>
       </c>
       <c r="AS29" s="12" t="s">
-        <v>848</v>
+        <v>835</v>
       </c>
       <c r="AT29">
         <v>999</v>
@@ -8160,19 +8878,19 @@
         <v>238</v>
       </c>
       <c r="AV29" s="12" t="s">
-        <v>849</v>
+        <v>836</v>
       </c>
       <c r="AW29" s="12" t="s">
         <v>240</v>
       </c>
       <c r="AX29" s="12" t="s">
-        <v>813</v>
+        <v>800</v>
       </c>
       <c r="AY29" s="1" t="s">
         <v>168</v>
       </c>
       <c r="AZ29" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="BA29" s="1">
         <v>999</v>
@@ -8201,7 +8919,7 @@
         <v>7</v>
       </c>
       <c r="G30" t="s">
-        <v>850</v>
+        <v>837</v>
       </c>
       <c r="H30" t="s">
         <v>243</v>
@@ -8213,10 +8931,10 @@
         <v>47.3</v>
       </c>
       <c r="K30" t="s">
-        <v>851</v>
+        <v>838</v>
       </c>
       <c r="L30" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="M30">
         <v>999</v>
@@ -8225,103 +8943,103 @@
         <v>92</v>
       </c>
       <c r="O30" t="s">
-        <v>852</v>
+        <v>839</v>
       </c>
       <c r="P30" t="s">
-        <v>853</v>
+        <v>840</v>
       </c>
       <c r="Q30" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="S30" t="s">
-        <v>854</v>
+        <v>841</v>
       </c>
       <c r="T30" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>855</v>
+        <v>842</v>
       </c>
       <c r="V30" s="12" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="W30" s="12" t="s">
-        <v>856</v>
+        <v>843</v>
       </c>
       <c r="X30" s="12" t="s">
-        <v>857</v>
+        <v>844</v>
       </c>
       <c r="Y30" s="12" t="s">
         <v>216</v>
       </c>
       <c r="Z30" s="12" t="s">
-        <v>858</v>
+        <v>845</v>
       </c>
       <c r="AA30" s="12" t="s">
-        <v>859</v>
+        <v>846</v>
       </c>
       <c r="AB30" s="12" t="s">
         <v>66</v>
       </c>
       <c r="AC30" s="12" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="AD30" s="12" t="s">
-        <v>860</v>
+        <v>847</v>
       </c>
       <c r="AE30" s="12" t="s">
-        <v>861</v>
+        <v>848</v>
       </c>
       <c r="AF30" s="12" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="AG30" s="12" t="s">
-        <v>863</v>
+        <v>850</v>
       </c>
       <c r="AH30" s="12" t="s">
-        <v>862</v>
+        <v>849</v>
       </c>
       <c r="AI30" s="12" t="s">
-        <v>865</v>
+        <v>852</v>
       </c>
       <c r="AJ30" s="12" t="s">
-        <v>866</v>
+        <v>853</v>
       </c>
       <c r="AK30" s="12" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="AL30" s="12" t="s">
-        <v>867</v>
+        <v>854</v>
       </c>
       <c r="AM30" s="12" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="AN30" s="12" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="AO30" s="12" t="s">
-        <v>868</v>
+        <v>855</v>
       </c>
       <c r="AP30" s="12" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="AQ30" s="12" t="s">
-        <v>869</v>
+        <v>856</v>
       </c>
       <c r="AR30" s="12" t="s">
         <v>80</v>
       </c>
       <c r="AS30" s="12" t="s">
-        <v>870</v>
+        <v>857</v>
       </c>
       <c r="AT30" t="s">
-        <v>871</v>
+        <v>858</v>
       </c>
       <c r="AU30" s="12" t="s">
-        <v>872</v>
+        <v>859</v>
       </c>
       <c r="AV30" s="12" t="s">
-        <v>873</v>
+        <v>860</v>
       </c>
       <c r="AW30" s="12" t="s">
         <v>240</v>
@@ -8333,10 +9051,10 @@
         <v>168</v>
       </c>
       <c r="AZ30" t="s">
-        <v>864</v>
+        <v>851</v>
       </c>
       <c r="BA30" s="1" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="BB30">
         <v>999</v>
@@ -8362,7 +9080,7 @@
         <v>10</v>
       </c>
       <c r="G31" t="s">
-        <v>874</v>
+        <v>861</v>
       </c>
       <c r="H31" t="s">
         <v>243</v>
@@ -8374,10 +9092,10 @@
         <v>47.3</v>
       </c>
       <c r="K31" t="s">
-        <v>875</v>
+        <v>862</v>
       </c>
       <c r="L31" t="s">
-        <v>876</v>
+        <v>863</v>
       </c>
       <c r="M31">
         <v>999</v>
@@ -8386,121 +9104,121 @@
         <v>92</v>
       </c>
       <c r="O31" t="s">
-        <v>877</v>
+        <v>864</v>
       </c>
       <c r="P31" t="s">
-        <v>878</v>
+        <v>865</v>
       </c>
       <c r="Q31" t="s">
-        <v>879</v>
+        <v>866</v>
       </c>
       <c r="R31">
         <v>999</v>
       </c>
       <c r="S31" t="s">
-        <v>880</v>
+        <v>867</v>
       </c>
       <c r="T31" t="s">
         <v>178</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>881</v>
+        <v>868</v>
       </c>
       <c r="V31" s="12" t="s">
-        <v>882</v>
+        <v>869</v>
       </c>
       <c r="W31" s="12" t="s">
-        <v>883</v>
+        <v>870</v>
       </c>
       <c r="X31" s="12" t="s">
-        <v>885</v>
+        <v>872</v>
       </c>
       <c r="Y31" s="12" t="s">
-        <v>884</v>
+        <v>871</v>
       </c>
       <c r="Z31" s="12" t="s">
-        <v>886</v>
+        <v>873</v>
       </c>
       <c r="AA31" s="15" t="s">
-        <v>887</v>
+        <v>874</v>
       </c>
       <c r="AB31" s="15" t="s">
-        <v>888</v>
+        <v>875</v>
       </c>
       <c r="AC31" s="15" t="s">
         <v>144</v>
       </c>
       <c r="AD31" s="15" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="AE31" s="15" t="s">
-        <v>889</v>
+        <v>876</v>
       </c>
       <c r="AF31" s="15" t="s">
-        <v>825</v>
+        <v>812</v>
       </c>
       <c r="AG31" s="15" t="s">
-        <v>890</v>
+        <v>877</v>
       </c>
       <c r="AH31" s="15" t="s">
-        <v>891</v>
+        <v>878</v>
       </c>
       <c r="AI31" s="15" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AJ31" s="15" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AK31" s="15" t="s">
-        <v>892</v>
+        <v>879</v>
       </c>
       <c r="AL31" s="15" t="s">
-        <v>893</v>
+        <v>880</v>
       </c>
       <c r="AM31" s="15" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
       <c r="AN31" s="15" t="s">
-        <v>895</v>
+        <v>882</v>
       </c>
       <c r="AO31" s="15" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="AP31" s="15" t="s">
-        <v>896</v>
+        <v>883</v>
       </c>
       <c r="AQ31" s="15" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="AR31" s="15" t="s">
         <v>160</v>
       </c>
       <c r="AS31" s="15" t="s">
-        <v>898</v>
+        <v>885</v>
       </c>
       <c r="AT31" s="15" t="s">
-        <v>899</v>
+        <v>886</v>
       </c>
       <c r="AU31" s="15" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="AV31" s="15" t="s">
-        <v>900</v>
+        <v>887</v>
       </c>
       <c r="AW31" s="15" t="s">
-        <v>901</v>
+        <v>888</v>
       </c>
       <c r="AX31" s="15" t="s">
         <v>167</v>
       </c>
       <c r="AY31" s="1" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="AZ31" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="BA31" s="1" t="s">
-        <v>897</v>
+        <v>884</v>
       </c>
       <c r="BB31">
         <v>999</v>
@@ -8526,7 +9244,7 @@
         <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>902</v>
+        <v>889</v>
       </c>
       <c r="H32" t="s">
         <v>243</v>
@@ -8538,55 +9256,55 @@
         <v>47.3</v>
       </c>
       <c r="K32" t="s">
-        <v>903</v>
+        <v>890</v>
       </c>
       <c r="L32" t="s">
-        <v>904</v>
+        <v>891</v>
       </c>
       <c r="M32">
         <v>999</v>
       </c>
       <c r="N32" t="s">
-        <v>905</v>
+        <v>892</v>
       </c>
       <c r="O32" t="s">
         <v>172</v>
       </c>
       <c r="P32" t="s">
-        <v>906</v>
+        <v>893</v>
       </c>
       <c r="Q32" t="s">
-        <v>907</v>
+        <v>894</v>
       </c>
       <c r="R32" t="s">
-        <v>908</v>
+        <v>895</v>
       </c>
       <c r="S32" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="T32" t="s">
         <v>97</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>909</v>
+        <v>896</v>
       </c>
       <c r="V32" s="12" t="s">
-        <v>910</v>
+        <v>897</v>
       </c>
       <c r="W32" s="12" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="X32" s="12" t="s">
-        <v>911</v>
+        <v>898</v>
       </c>
       <c r="Y32" s="12" t="s">
         <v>64</v>
       </c>
       <c r="Z32" s="12" t="s">
-        <v>912</v>
+        <v>899</v>
       </c>
       <c r="AA32" s="15" t="s">
-        <v>913</v>
+        <v>900</v>
       </c>
       <c r="AB32" s="15" t="s">
         <v>66</v>
@@ -8595,37 +9313,37 @@
         <v>67</v>
       </c>
       <c r="AD32" s="15" t="s">
-        <v>914</v>
+        <v>901</v>
       </c>
       <c r="AE32" s="15" t="s">
-        <v>915</v>
+        <v>951</v>
       </c>
       <c r="AF32" s="15" t="s">
-        <v>916</v>
+        <v>902</v>
       </c>
       <c r="AG32" s="15" t="s">
-        <v>917</v>
+        <v>903</v>
       </c>
       <c r="AH32" s="15" t="s">
         <v>190</v>
       </c>
       <c r="AI32" s="15" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="AJ32" s="15" t="s">
         <v>227</v>
       </c>
       <c r="AK32" s="15" t="s">
-        <v>388</v>
+        <v>228</v>
       </c>
       <c r="AL32" s="15" t="s">
-        <v>918</v>
+        <v>904</v>
       </c>
       <c r="AM32" s="15" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="AN32" s="15" t="s">
-        <v>920</v>
+        <v>906</v>
       </c>
       <c r="AO32" s="15" t="s">
         <v>77</v>
@@ -8640,34 +9358,34 @@
         <v>80</v>
       </c>
       <c r="AS32" s="15" t="s">
-        <v>921</v>
+        <v>907</v>
       </c>
       <c r="AT32" s="15" t="s">
         <v>82</v>
       </c>
       <c r="AU32" s="15" t="s">
-        <v>922</v>
+        <v>908</v>
       </c>
       <c r="AV32" s="15" t="s">
-        <v>923</v>
+        <v>909</v>
       </c>
       <c r="AW32" s="15" t="s">
-        <v>924</v>
+        <v>952</v>
       </c>
       <c r="AX32" s="15" t="s">
-        <v>925</v>
+        <v>910</v>
       </c>
       <c r="AY32" s="1" t="s">
         <v>168</v>
       </c>
       <c r="AZ32" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="BA32" s="1" t="s">
         <v>235</v>
       </c>
       <c r="BB32" s="12" t="s">
-        <v>926</v>
+        <v>953</v>
       </c>
     </row>
     <row r="33" spans="1:54">
@@ -8690,7 +9408,7 @@
         <v>3</v>
       </c>
       <c r="G33" t="s">
-        <v>927</v>
+        <v>911</v>
       </c>
       <c r="H33" t="s">
         <v>243</v>
@@ -8702,25 +9420,25 @@
         <v>47.3</v>
       </c>
       <c r="K33" t="s">
-        <v>928</v>
+        <v>912</v>
       </c>
       <c r="L33" t="s">
-        <v>929</v>
+        <v>913</v>
       </c>
       <c r="M33">
         <v>999</v>
       </c>
       <c r="N33" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="O33" t="s">
         <v>93</v>
       </c>
       <c r="P33" t="s">
-        <v>930</v>
+        <v>914</v>
       </c>
       <c r="Q33" t="s">
-        <v>931</v>
+        <v>915</v>
       </c>
       <c r="R33">
         <v>999</v>
@@ -8732,16 +9450,16 @@
         <v>97</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>932</v>
+        <v>916</v>
       </c>
       <c r="V33" s="12" t="s">
-        <v>933</v>
+        <v>917</v>
       </c>
       <c r="W33" s="12" t="s">
-        <v>935</v>
+        <v>919</v>
       </c>
       <c r="X33" s="12" t="s">
-        <v>934</v>
+        <v>918</v>
       </c>
       <c r="Y33" s="12" t="s">
         <v>216</v>
@@ -8750,7 +9468,7 @@
         <v>65</v>
       </c>
       <c r="AA33" s="15" t="s">
-        <v>936</v>
+        <v>920</v>
       </c>
       <c r="AB33" s="15" t="s">
         <v>66</v>
@@ -8759,64 +9477,64 @@
         <v>67</v>
       </c>
       <c r="AD33" s="15" t="s">
-        <v>937</v>
+        <v>921</v>
       </c>
       <c r="AE33" s="15" t="s">
-        <v>938</v>
+        <v>922</v>
       </c>
       <c r="AF33" s="15" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="AG33" s="15" t="s">
-        <v>939</v>
+        <v>923</v>
       </c>
       <c r="AH33" s="15" t="s">
-        <v>940</v>
+        <v>924</v>
       </c>
       <c r="AI33" s="15" t="s">
-        <v>942</v>
+        <v>926</v>
       </c>
       <c r="AJ33" s="15" t="s">
         <v>72</v>
       </c>
       <c r="AK33" s="15" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="AL33" s="15" t="s">
-        <v>943</v>
+        <v>927</v>
       </c>
       <c r="AM33" s="15" t="s">
-        <v>944</v>
+        <v>928</v>
       </c>
       <c r="AN33" s="15" t="s">
-        <v>945</v>
+        <v>929</v>
       </c>
       <c r="AO33" s="15" t="s">
-        <v>946</v>
+        <v>930</v>
       </c>
       <c r="AP33" s="15" t="s">
-        <v>947</v>
+        <v>931</v>
       </c>
       <c r="AQ33" s="15" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="AR33" s="15" t="s">
-        <v>948</v>
+        <v>932</v>
       </c>
       <c r="AS33" s="15" t="s">
-        <v>949</v>
+        <v>933</v>
       </c>
       <c r="AT33" s="15" t="s">
-        <v>951</v>
+        <v>935</v>
       </c>
       <c r="AU33" s="15" t="s">
-        <v>950</v>
+        <v>934</v>
       </c>
       <c r="AV33" s="15" t="s">
-        <v>952</v>
+        <v>936</v>
       </c>
       <c r="AW33" s="15" t="s">
-        <v>953</v>
+        <v>937</v>
       </c>
       <c r="AX33" s="15" t="s">
         <v>206</v>
@@ -8825,13 +9543,1653 @@
         <v>86</v>
       </c>
       <c r="AZ33" t="s">
-        <v>941</v>
+        <v>925</v>
       </c>
       <c r="BA33" s="1" t="s">
         <v>88</v>
       </c>
       <c r="BB33" t="s">
-        <v>954</v>
+        <v>938</v>
+      </c>
+    </row>
+    <row r="34" spans="1:54">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="14">
+        <v>44743</v>
+      </c>
+      <c r="C34" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" t="s">
+        <v>55</v>
+      </c>
+      <c r="E34">
+        <v>12</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34" t="s">
+        <v>955</v>
+      </c>
+      <c r="H34" t="s">
+        <v>243</v>
+      </c>
+      <c r="I34" s="9">
+        <v>25.1</v>
+      </c>
+      <c r="J34" s="9">
+        <v>47.3</v>
+      </c>
+      <c r="K34" t="s">
+        <v>956</v>
+      </c>
+      <c r="L34" t="s">
+        <v>957</v>
+      </c>
+      <c r="M34">
+        <v>999</v>
+      </c>
+      <c r="N34" t="s">
+        <v>958</v>
+      </c>
+      <c r="O34" t="s">
+        <v>172</v>
+      </c>
+      <c r="P34" t="s">
+        <v>959</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>960</v>
+      </c>
+      <c r="R34">
+        <v>999</v>
+      </c>
+      <c r="S34">
+        <v>999</v>
+      </c>
+      <c r="T34" t="s">
+        <v>313</v>
+      </c>
+      <c r="U34" s="1">
+        <v>999</v>
+      </c>
+      <c r="V34" s="12" t="s">
+        <v>961</v>
+      </c>
+      <c r="W34" s="12" t="s">
+        <v>962</v>
+      </c>
+      <c r="X34" s="12" t="s">
+        <v>963</v>
+      </c>
+      <c r="Y34" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z34" s="12" t="s">
+        <v>964</v>
+      </c>
+      <c r="AA34" s="15" t="s">
+        <v>965</v>
+      </c>
+      <c r="AB34" s="15" t="s">
+        <v>966</v>
+      </c>
+      <c r="AC34" s="15" t="s">
+        <v>967</v>
+      </c>
+      <c r="AD34" s="15" t="s">
+        <v>653</v>
+      </c>
+      <c r="AE34" s="15" t="s">
+        <v>970</v>
+      </c>
+      <c r="AF34" s="15" t="s">
+        <v>968</v>
+      </c>
+      <c r="AG34" s="15" t="s">
+        <v>969</v>
+      </c>
+      <c r="AH34" s="15" t="s">
+        <v>971</v>
+      </c>
+      <c r="AI34" s="15" t="s">
+        <v>973</v>
+      </c>
+      <c r="AJ34" s="15" t="s">
+        <v>974</v>
+      </c>
+      <c r="AK34" s="15" t="s">
+        <v>975</v>
+      </c>
+      <c r="AL34" s="15" t="s">
+        <v>678</v>
+      </c>
+      <c r="AM34" s="15" t="s">
+        <v>976</v>
+      </c>
+      <c r="AN34" s="15" t="s">
+        <v>977</v>
+      </c>
+      <c r="AO34" s="15" t="s">
+        <v>978</v>
+      </c>
+      <c r="AP34" s="15" t="s">
+        <v>979</v>
+      </c>
+      <c r="AQ34" s="15" t="s">
+        <v>980</v>
+      </c>
+      <c r="AR34" s="15" t="s">
+        <v>982</v>
+      </c>
+      <c r="AS34" s="15" t="s">
+        <v>983</v>
+      </c>
+      <c r="AT34" s="15" t="s">
+        <v>984</v>
+      </c>
+      <c r="AU34" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="AV34" s="15" t="s">
+        <v>985</v>
+      </c>
+      <c r="AW34" s="15" t="s">
+        <v>986</v>
+      </c>
+      <c r="AX34" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="AY34" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="AZ34" t="s">
+        <v>972</v>
+      </c>
+      <c r="BA34" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="BB34">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:54">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="14">
+        <v>44743</v>
+      </c>
+      <c r="C35" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35">
+        <v>13</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="s">
+        <v>988</v>
+      </c>
+      <c r="H35" t="s">
+        <v>57</v>
+      </c>
+      <c r="I35" s="11">
+        <v>520</v>
+      </c>
+      <c r="J35" s="11">
+        <v>730</v>
+      </c>
+      <c r="K35" t="s">
+        <v>989</v>
+      </c>
+      <c r="L35" t="s">
+        <v>993</v>
+      </c>
+      <c r="M35">
+        <v>999</v>
+      </c>
+      <c r="N35" t="s">
+        <v>990</v>
+      </c>
+      <c r="O35" t="s">
+        <v>366</v>
+      </c>
+      <c r="P35" t="s">
+        <v>991</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>992</v>
+      </c>
+      <c r="R35">
+        <v>999</v>
+      </c>
+      <c r="S35" t="s">
+        <v>172</v>
+      </c>
+      <c r="T35" t="s">
+        <v>313</v>
+      </c>
+      <c r="U35" s="1">
+        <v>999</v>
+      </c>
+      <c r="V35" s="12" t="s">
+        <v>961</v>
+      </c>
+      <c r="W35" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="X35" s="12" t="s">
+        <v>994</v>
+      </c>
+      <c r="Y35" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z35" s="12" t="s">
+        <v>995</v>
+      </c>
+      <c r="AA35" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="AB35" s="15" t="s">
+        <v>996</v>
+      </c>
+      <c r="AC35" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="AD35" s="15" t="s">
+        <v>997</v>
+      </c>
+      <c r="AE35" s="15" t="s">
+        <v>970</v>
+      </c>
+      <c r="AF35" s="15" t="s">
+        <v>998</v>
+      </c>
+      <c r="AG35" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="AH35" s="15" t="s">
+        <v>999</v>
+      </c>
+      <c r="AI35" s="15" t="s">
+        <v>1000</v>
+      </c>
+      <c r="AJ35" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="AK35" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="AL35" s="15" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AM35" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="AN35" s="15" t="s">
+        <v>1002</v>
+      </c>
+      <c r="AO35" s="15" t="s">
+        <v>1003</v>
+      </c>
+      <c r="AP35" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="AQ35" s="15" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AR35" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS35" s="15" t="s">
+        <v>1006</v>
+      </c>
+      <c r="AT35" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="AU35" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="AV35" s="15" t="s">
+        <v>1007</v>
+      </c>
+      <c r="AW35" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="AX35" s="15" t="s">
+        <v>800</v>
+      </c>
+      <c r="AY35" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="AZ35" t="s">
+        <v>323</v>
+      </c>
+      <c r="BA35" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="BB35">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:54">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="14">
+        <v>44743</v>
+      </c>
+      <c r="C36" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" t="s">
+        <v>55</v>
+      </c>
+      <c r="E36">
+        <v>13</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36" t="s">
+        <v>1008</v>
+      </c>
+      <c r="H36" t="s">
+        <v>57</v>
+      </c>
+      <c r="I36" s="9">
+        <v>25.2</v>
+      </c>
+      <c r="J36" s="9">
+        <v>47.3</v>
+      </c>
+      <c r="K36" t="s">
+        <v>989</v>
+      </c>
+      <c r="L36" t="s">
+        <v>1009</v>
+      </c>
+      <c r="M36">
+        <v>999</v>
+      </c>
+      <c r="N36" t="s">
+        <v>990</v>
+      </c>
+      <c r="O36" t="s">
+        <v>1010</v>
+      </c>
+      <c r="P36" t="s">
+        <v>1011</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>96</v>
+      </c>
+      <c r="R36">
+        <v>999</v>
+      </c>
+      <c r="S36" t="s">
+        <v>93</v>
+      </c>
+      <c r="T36" t="s">
+        <v>97</v>
+      </c>
+      <c r="U36" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="V36" s="12" t="s">
+        <v>544</v>
+      </c>
+      <c r="W36" s="12" t="s">
+        <v>1013</v>
+      </c>
+      <c r="X36" s="12" t="s">
+        <v>765</v>
+      </c>
+      <c r="Y36" s="12" t="s">
+        <v>1014</v>
+      </c>
+      <c r="Z36" s="12" t="s">
+        <v>1015</v>
+      </c>
+      <c r="AA36" s="15" t="s">
+        <v>1016</v>
+      </c>
+      <c r="AB36" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC36" s="15" t="s">
+        <v>1017</v>
+      </c>
+      <c r="AD36" s="15" t="s">
+        <v>1018</v>
+      </c>
+      <c r="AE36" s="15" t="s">
+        <v>493</v>
+      </c>
+      <c r="AF36" s="15" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AG36" s="15" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AH36" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="AI36" s="15" t="s">
+        <v>1021</v>
+      </c>
+      <c r="AJ36" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="AK36" s="15" t="s">
+        <v>1022</v>
+      </c>
+      <c r="AL36" s="15" t="s">
+        <v>1023</v>
+      </c>
+      <c r="AM36" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="AN36" s="15" t="s">
+        <v>501</v>
+      </c>
+      <c r="AO36" s="15" t="s">
+        <v>1024</v>
+      </c>
+      <c r="AP36" s="15" t="s">
+        <v>1025</v>
+      </c>
+      <c r="AQ36" s="15" t="s">
+        <v>1026</v>
+      </c>
+      <c r="AR36" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="AS36" s="15" t="s">
+        <v>1028</v>
+      </c>
+      <c r="AT36" s="15" t="s">
+        <v>1029</v>
+      </c>
+      <c r="AU36" s="15" t="s">
+        <v>589</v>
+      </c>
+      <c r="AV36" s="15" t="s">
+        <v>1030</v>
+      </c>
+      <c r="AW36" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="AX36" s="15" t="s">
+        <v>1031</v>
+      </c>
+      <c r="AY36" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="AZ36" t="s">
+        <v>814</v>
+      </c>
+      <c r="BA36" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="BB36">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:54">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="14">
+        <v>44743</v>
+      </c>
+      <c r="C37" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" t="s">
+        <v>55</v>
+      </c>
+      <c r="E37">
+        <v>13</v>
+      </c>
+      <c r="F37">
+        <v>4</v>
+      </c>
+      <c r="G37" t="s">
+        <v>1032</v>
+      </c>
+      <c r="H37" t="s">
+        <v>57</v>
+      </c>
+      <c r="I37" s="9">
+        <v>25.2</v>
+      </c>
+      <c r="J37" s="9">
+        <v>47.3</v>
+      </c>
+      <c r="K37" t="s">
+        <v>1033</v>
+      </c>
+      <c r="L37" t="s">
+        <v>1034</v>
+      </c>
+      <c r="M37">
+        <v>999</v>
+      </c>
+      <c r="N37" t="s">
+        <v>1035</v>
+      </c>
+      <c r="O37" t="s">
+        <v>366</v>
+      </c>
+      <c r="P37" t="s">
+        <v>1036</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>1037</v>
+      </c>
+      <c r="R37">
+        <v>999</v>
+      </c>
+      <c r="S37">
+        <v>999</v>
+      </c>
+      <c r="T37" t="s">
+        <v>97</v>
+      </c>
+      <c r="U37" s="1">
+        <v>999</v>
+      </c>
+      <c r="V37" s="12" t="s">
+        <v>1038</v>
+      </c>
+      <c r="W37" s="12" t="s">
+        <v>1039</v>
+      </c>
+      <c r="X37" s="12" t="s">
+        <v>1040</v>
+      </c>
+      <c r="Y37" s="12" t="s">
+        <v>1041</v>
+      </c>
+      <c r="Z37" s="12" t="s">
+        <v>1042</v>
+      </c>
+      <c r="AA37" s="15" t="s">
+        <v>1043</v>
+      </c>
+      <c r="AB37" s="15" t="s">
+        <v>1044</v>
+      </c>
+      <c r="AC37" s="15" t="s">
+        <v>1045</v>
+      </c>
+      <c r="AD37" s="15" t="s">
+        <v>1046</v>
+      </c>
+      <c r="AE37" s="15" t="s">
+        <v>848</v>
+      </c>
+      <c r="AF37" s="15" t="s">
+        <v>998</v>
+      </c>
+      <c r="AG37" s="15" t="s">
+        <v>1047</v>
+      </c>
+      <c r="AH37" s="15" t="s">
+        <v>1048</v>
+      </c>
+      <c r="AI37" s="15" t="s">
+        <v>1049</v>
+      </c>
+      <c r="AJ37" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="AK37" s="15" t="s">
+        <v>1050</v>
+      </c>
+      <c r="AL37" s="15" t="s">
+        <v>1051</v>
+      </c>
+      <c r="AM37" s="15" t="s">
+        <v>1052</v>
+      </c>
+      <c r="AN37" s="15" t="s">
+        <v>1053</v>
+      </c>
+      <c r="AO37" s="15" t="s">
+        <v>1054</v>
+      </c>
+      <c r="AP37" s="15" t="s">
+        <v>1055</v>
+      </c>
+      <c r="AQ37" s="15" t="s">
+        <v>1056</v>
+      </c>
+      <c r="AR37" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS37" s="15" t="s">
+        <v>752</v>
+      </c>
+      <c r="AT37" s="15" t="s">
+        <v>1057</v>
+      </c>
+      <c r="AU37" s="15" t="s">
+        <v>859</v>
+      </c>
+      <c r="AV37" s="15" t="s">
+        <v>1058</v>
+      </c>
+      <c r="AW37" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="AX37" s="15" t="s">
+        <v>1059</v>
+      </c>
+      <c r="AY37" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="AZ37" t="s">
+        <v>323</v>
+      </c>
+      <c r="BA37" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="BB37">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:54">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="14">
+        <v>44743</v>
+      </c>
+      <c r="C38" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" t="s">
+        <v>55</v>
+      </c>
+      <c r="E38">
+        <v>13</v>
+      </c>
+      <c r="F38">
+        <v>5</v>
+      </c>
+      <c r="G38" t="s">
+        <v>1060</v>
+      </c>
+      <c r="H38" t="s">
+        <v>243</v>
+      </c>
+      <c r="I38" s="9">
+        <v>5.2</v>
+      </c>
+      <c r="J38" s="9" t="s">
+        <v>1061</v>
+      </c>
+      <c r="K38" t="s">
+        <v>1062</v>
+      </c>
+      <c r="L38" t="s">
+        <v>1063</v>
+      </c>
+      <c r="M38">
+        <v>999</v>
+      </c>
+      <c r="N38" t="s">
+        <v>1065</v>
+      </c>
+      <c r="O38" t="s">
+        <v>1064</v>
+      </c>
+      <c r="P38" t="s">
+        <v>1066</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>806</v>
+      </c>
+      <c r="R38">
+        <v>999</v>
+      </c>
+      <c r="S38">
+        <v>999</v>
+      </c>
+      <c r="T38" t="s">
+        <v>1067</v>
+      </c>
+      <c r="U38" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="V38" s="12" t="s">
+        <v>544</v>
+      </c>
+      <c r="W38" s="12" t="s">
+        <v>1068</v>
+      </c>
+      <c r="X38" s="12" t="s">
+        <v>1069</v>
+      </c>
+      <c r="Y38" s="12" t="s">
+        <v>1070</v>
+      </c>
+      <c r="Z38" s="12" t="s">
+        <v>1071</v>
+      </c>
+      <c r="AA38" s="15" t="s">
+        <v>1072</v>
+      </c>
+      <c r="AB38" s="15" t="s">
+        <v>1073</v>
+      </c>
+      <c r="AC38" s="15" t="s">
+        <v>1017</v>
+      </c>
+      <c r="AD38" s="15" t="s">
+        <v>492</v>
+      </c>
+      <c r="AE38" s="15" t="s">
+        <v>1074</v>
+      </c>
+      <c r="AF38" s="15" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AG38" s="15" t="s">
+        <v>1075</v>
+      </c>
+      <c r="AH38" s="15" t="s">
+        <v>496</v>
+      </c>
+      <c r="AI38" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="AJ38" s="15" t="s">
+        <v>1076</v>
+      </c>
+      <c r="AK38" s="15" t="s">
+        <v>1022</v>
+      </c>
+      <c r="AL38" s="15" t="s">
+        <v>1077</v>
+      </c>
+      <c r="AM38" s="15" t="s">
+        <v>1078</v>
+      </c>
+      <c r="AN38" s="15" t="s">
+        <v>1079</v>
+      </c>
+      <c r="AO38" s="15" t="s">
+        <v>1080</v>
+      </c>
+      <c r="AP38" s="15" t="s">
+        <v>1081</v>
+      </c>
+      <c r="AQ38" s="15" t="s">
+        <v>1082</v>
+      </c>
+      <c r="AR38" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="AS38" s="15" t="s">
+        <v>1085</v>
+      </c>
+      <c r="AT38" s="15" t="s">
+        <v>1086</v>
+      </c>
+      <c r="AU38" s="15" t="s">
+        <v>589</v>
+      </c>
+      <c r="AV38" s="15" t="s">
+        <v>1087</v>
+      </c>
+      <c r="AW38" s="15" t="s">
+        <v>1088</v>
+      </c>
+      <c r="AX38" s="15" t="s">
+        <v>1089</v>
+      </c>
+      <c r="AY38" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="AZ38" t="s">
+        <v>814</v>
+      </c>
+      <c r="BA38" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="BB38" s="12" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="39" spans="1:54">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="14">
+        <v>44743</v>
+      </c>
+      <c r="C39" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39">
+        <v>999</v>
+      </c>
+      <c r="E39">
+        <v>999</v>
+      </c>
+      <c r="F39">
+        <v>999</v>
+      </c>
+      <c r="G39" t="s">
+        <v>1091</v>
+      </c>
+      <c r="H39">
+        <v>999</v>
+      </c>
+      <c r="I39" s="11">
+        <v>999</v>
+      </c>
+      <c r="J39" s="11">
+        <v>999</v>
+      </c>
+      <c r="K39">
+        <v>999</v>
+      </c>
+      <c r="L39" t="s">
+        <v>1093</v>
+      </c>
+      <c r="M39">
+        <v>999</v>
+      </c>
+      <c r="N39" t="s">
+        <v>1092</v>
+      </c>
+      <c r="O39">
+        <v>999</v>
+      </c>
+      <c r="P39" t="s">
+        <v>1094</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>1095</v>
+      </c>
+      <c r="R39">
+        <v>999</v>
+      </c>
+      <c r="S39">
+        <v>999</v>
+      </c>
+      <c r="T39" t="s">
+        <v>97</v>
+      </c>
+      <c r="U39" s="1">
+        <v>999</v>
+      </c>
+      <c r="V39" s="12" t="s">
+        <v>1096</v>
+      </c>
+      <c r="W39" s="12" t="s">
+        <v>1039</v>
+      </c>
+      <c r="X39" s="12" t="s">
+        <v>1097</v>
+      </c>
+      <c r="Y39" s="12" t="s">
+        <v>1098</v>
+      </c>
+      <c r="Z39">
+        <v>999</v>
+      </c>
+      <c r="AA39" s="15" t="s">
+        <v>601</v>
+      </c>
+      <c r="AB39" s="15" t="s">
+        <v>1099</v>
+      </c>
+      <c r="AC39" s="15" t="s">
+        <v>1100</v>
+      </c>
+      <c r="AD39" s="15" t="s">
+        <v>1101</v>
+      </c>
+      <c r="AE39" s="15" t="s">
+        <v>970</v>
+      </c>
+      <c r="AF39" s="15" t="s">
+        <v>1102</v>
+      </c>
+      <c r="AG39" s="15" t="s">
+        <v>726</v>
+      </c>
+      <c r="AH39" s="15" t="s">
+        <v>1103</v>
+      </c>
+      <c r="AI39" s="15" t="s">
+        <v>1105</v>
+      </c>
+      <c r="AJ39" s="15" t="s">
+        <v>1106</v>
+      </c>
+      <c r="AK39" s="15" t="s">
+        <v>1107</v>
+      </c>
+      <c r="AL39" s="15" t="s">
+        <v>1108</v>
+      </c>
+      <c r="AM39" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="AN39" s="15" t="s">
+        <v>1053</v>
+      </c>
+      <c r="AO39" s="15" t="s">
+        <v>1003</v>
+      </c>
+      <c r="AP39" s="15" t="s">
+        <v>1055</v>
+      </c>
+      <c r="AQ39" s="15" t="s">
+        <v>1056</v>
+      </c>
+      <c r="AR39" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS39" s="15" t="s">
+        <v>1110</v>
+      </c>
+      <c r="AT39" s="15" t="s">
+        <v>1111</v>
+      </c>
+      <c r="AU39" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="AV39" s="15" t="s">
+        <v>1112</v>
+      </c>
+      <c r="AW39" s="15" t="s">
+        <v>1113</v>
+      </c>
+      <c r="AX39" s="15" t="s">
+        <v>1114</v>
+      </c>
+      <c r="AY39" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="AZ39" t="s">
+        <v>1104</v>
+      </c>
+      <c r="BA39" s="1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="BB39" s="12" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="40" spans="1:54">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="14">
+        <v>44743</v>
+      </c>
+      <c r="C40" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40">
+        <v>999</v>
+      </c>
+      <c r="E40">
+        <v>999</v>
+      </c>
+      <c r="F40">
+        <v>999</v>
+      </c>
+      <c r="G40" t="s">
+        <v>1116</v>
+      </c>
+      <c r="H40">
+        <v>999</v>
+      </c>
+      <c r="I40" s="11">
+        <v>999</v>
+      </c>
+      <c r="J40" s="11">
+        <v>999</v>
+      </c>
+      <c r="K40" s="11">
+        <v>999</v>
+      </c>
+      <c r="L40" t="s">
+        <v>1093</v>
+      </c>
+      <c r="M40">
+        <v>999</v>
+      </c>
+      <c r="N40" t="s">
+        <v>1092</v>
+      </c>
+      <c r="O40">
+        <v>999</v>
+      </c>
+      <c r="P40" t="s">
+        <v>1117</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>1118</v>
+      </c>
+      <c r="R40">
+        <v>999</v>
+      </c>
+      <c r="S40">
+        <v>999</v>
+      </c>
+      <c r="T40" t="s">
+        <v>97</v>
+      </c>
+      <c r="U40" s="1">
+        <v>999</v>
+      </c>
+      <c r="V40" s="12" t="s">
+        <v>1119</v>
+      </c>
+      <c r="W40" s="12" t="s">
+        <v>1120</v>
+      </c>
+      <c r="X40" s="12" t="s">
+        <v>1097</v>
+      </c>
+      <c r="Y40" s="12" t="s">
+        <v>1098</v>
+      </c>
+      <c r="Z40">
+        <v>999</v>
+      </c>
+      <c r="AA40" s="15" t="s">
+        <v>601</v>
+      </c>
+      <c r="AB40" s="15" t="s">
+        <v>1099</v>
+      </c>
+      <c r="AC40" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="AD40" s="15" t="s">
+        <v>1122</v>
+      </c>
+      <c r="AE40" s="15" t="s">
+        <v>970</v>
+      </c>
+      <c r="AF40" s="15" t="s">
+        <v>1123</v>
+      </c>
+      <c r="AG40" s="15" t="s">
+        <v>1124</v>
+      </c>
+      <c r="AH40" s="15" t="s">
+        <v>1125</v>
+      </c>
+      <c r="AI40" s="15" t="s">
+        <v>1127</v>
+      </c>
+      <c r="AJ40" s="15" t="s">
+        <v>1106</v>
+      </c>
+      <c r="AK40" s="15" t="s">
+        <v>1128</v>
+      </c>
+      <c r="AL40" s="15" t="s">
+        <v>1129</v>
+      </c>
+      <c r="AM40" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="AN40" s="15" t="s">
+        <v>1130</v>
+      </c>
+      <c r="AO40" s="15" t="s">
+        <v>1131</v>
+      </c>
+      <c r="AP40" s="15" t="s">
+        <v>1055</v>
+      </c>
+      <c r="AQ40" s="15" t="s">
+        <v>1056</v>
+      </c>
+      <c r="AR40" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS40" s="15" t="s">
+        <v>1132</v>
+      </c>
+      <c r="AT40" s="15" t="s">
+        <v>1111</v>
+      </c>
+      <c r="AU40" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="AV40" s="15" t="s">
+        <v>1133</v>
+      </c>
+      <c r="AW40" s="15" t="s">
+        <v>1113</v>
+      </c>
+      <c r="AX40" s="15" t="s">
+        <v>1114</v>
+      </c>
+      <c r="AY40" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="AZ40" t="s">
+        <v>1126</v>
+      </c>
+      <c r="BA40" s="1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="BB40" s="12" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="41" spans="1:54">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="14">
+        <v>44743</v>
+      </c>
+      <c r="C41" t="s">
+        <v>54</v>
+      </c>
+      <c r="D41" t="s">
+        <v>55</v>
+      </c>
+      <c r="E41">
+        <v>14</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H41" t="s">
+        <v>243</v>
+      </c>
+      <c r="I41" s="9">
+        <v>5.3</v>
+      </c>
+      <c r="J41" s="9">
+        <v>7.3</v>
+      </c>
+      <c r="K41" s="11" t="s">
+        <v>1136</v>
+      </c>
+      <c r="L41" s="11" t="s">
+        <v>1137</v>
+      </c>
+      <c r="M41">
+        <v>999</v>
+      </c>
+      <c r="N41" t="s">
+        <v>1092</v>
+      </c>
+      <c r="O41" t="s">
+        <v>366</v>
+      </c>
+      <c r="P41" t="s">
+        <v>1138</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>1139</v>
+      </c>
+      <c r="R41">
+        <v>999</v>
+      </c>
+      <c r="S41">
+        <v>999</v>
+      </c>
+      <c r="T41" t="s">
+        <v>178</v>
+      </c>
+      <c r="U41" s="1">
+        <v>999</v>
+      </c>
+      <c r="V41" s="12" t="s">
+        <v>1140</v>
+      </c>
+      <c r="W41" s="12" t="s">
+        <v>1141</v>
+      </c>
+      <c r="X41" s="12" t="s">
+        <v>1142</v>
+      </c>
+      <c r="Y41" s="12" t="s">
+        <v>1145</v>
+      </c>
+      <c r="Z41" s="12" t="s">
+        <v>1143</v>
+      </c>
+      <c r="AA41" s="12" t="s">
+        <v>1144</v>
+      </c>
+      <c r="AB41" s="15" t="s">
+        <v>1146</v>
+      </c>
+      <c r="AC41" s="15" t="s">
+        <v>1147</v>
+      </c>
+      <c r="AD41" s="15" t="s">
+        <v>1148</v>
+      </c>
+      <c r="AE41" s="15" t="s">
+        <v>1149</v>
+      </c>
+      <c r="AF41" s="15" t="s">
+        <v>998</v>
+      </c>
+      <c r="AG41" s="15" t="s">
+        <v>1150</v>
+      </c>
+      <c r="AH41" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="AI41" s="15" t="s">
+        <v>1151</v>
+      </c>
+      <c r="AJ41" s="15" t="s">
+        <v>1152</v>
+      </c>
+      <c r="AK41" s="15" t="s">
+        <v>1050</v>
+      </c>
+      <c r="AL41" s="15" t="s">
+        <v>1153</v>
+      </c>
+      <c r="AM41" s="15" t="s">
+        <v>437</v>
+      </c>
+      <c r="AN41" s="15" t="s">
+        <v>1130</v>
+      </c>
+      <c r="AO41" s="15" t="s">
+        <v>1003</v>
+      </c>
+      <c r="AP41" s="15" t="s">
+        <v>1154</v>
+      </c>
+      <c r="AQ41" s="15" t="s">
+        <v>1155</v>
+      </c>
+      <c r="AR41" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS41" s="15" t="s">
+        <v>1156</v>
+      </c>
+      <c r="AT41" s="15" t="s">
+        <v>1157</v>
+      </c>
+      <c r="AU41" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="AV41" s="15" t="s">
+        <v>1158</v>
+      </c>
+      <c r="AW41" s="15" t="s">
+        <v>1159</v>
+      </c>
+      <c r="AX41" s="15" t="s">
+        <v>1160</v>
+      </c>
+      <c r="AY41" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="AZ41" t="s">
+        <v>323</v>
+      </c>
+      <c r="BA41" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="BB41" s="12" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="42" spans="1:54">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="14">
+        <v>44743</v>
+      </c>
+      <c r="C42" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42" t="s">
+        <v>55</v>
+      </c>
+      <c r="E42">
+        <v>14</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+      <c r="G42" t="s">
+        <v>1162</v>
+      </c>
+      <c r="H42" t="s">
+        <v>57</v>
+      </c>
+      <c r="I42" s="11">
+        <v>530</v>
+      </c>
+      <c r="J42" s="11">
+        <v>730</v>
+      </c>
+      <c r="K42" s="11" t="s">
+        <v>1163</v>
+      </c>
+      <c r="L42" s="11" t="s">
+        <v>1092</v>
+      </c>
+      <c r="M42">
+        <v>999</v>
+      </c>
+      <c r="N42" t="s">
+        <v>1092</v>
+      </c>
+      <c r="O42" t="s">
+        <v>366</v>
+      </c>
+      <c r="P42" t="s">
+        <v>1164</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>1166</v>
+      </c>
+      <c r="R42">
+        <v>999</v>
+      </c>
+      <c r="S42" t="s">
+        <v>1165</v>
+      </c>
+      <c r="T42" t="s">
+        <v>97</v>
+      </c>
+      <c r="U42" s="1">
+        <v>999</v>
+      </c>
+      <c r="V42" s="12" t="s">
+        <v>1167</v>
+      </c>
+      <c r="W42" s="12" t="s">
+        <v>1168</v>
+      </c>
+      <c r="X42" s="12" t="s">
+        <v>743</v>
+      </c>
+      <c r="Y42" s="12" t="s">
+        <v>1098</v>
+      </c>
+      <c r="Z42" s="12" t="s">
+        <v>1169</v>
+      </c>
+      <c r="AA42" s="12" t="s">
+        <v>1043</v>
+      </c>
+      <c r="AB42" s="15" t="s">
+        <v>600</v>
+      </c>
+      <c r="AC42" s="15" t="s">
+        <v>1170</v>
+      </c>
+      <c r="AD42" s="15" t="s">
+        <v>1171</v>
+      </c>
+      <c r="AE42" s="15" t="s">
+        <v>848</v>
+      </c>
+      <c r="AF42" s="15" t="s">
+        <v>1172</v>
+      </c>
+      <c r="AG42" s="15" t="s">
+        <v>1173</v>
+      </c>
+      <c r="AH42" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="AI42" s="15" t="s">
+        <v>1105</v>
+      </c>
+      <c r="AJ42" s="15" t="s">
+        <v>1174</v>
+      </c>
+      <c r="AK42" s="15" t="s">
+        <v>1175</v>
+      </c>
+      <c r="AL42" s="15" t="s">
+        <v>1176</v>
+      </c>
+      <c r="AM42" s="15" t="s">
+        <v>1177</v>
+      </c>
+      <c r="AN42" s="15" t="s">
+        <v>1053</v>
+      </c>
+      <c r="AO42" s="15" t="s">
+        <v>1178</v>
+      </c>
+      <c r="AP42" s="15" t="s">
+        <v>1055</v>
+      </c>
+      <c r="AQ42" s="15" t="s">
+        <v>1056</v>
+      </c>
+      <c r="AR42" s="15" t="s">
+        <v>1179</v>
+      </c>
+      <c r="AS42" s="15" t="s">
+        <v>752</v>
+      </c>
+      <c r="AT42" s="15" t="s">
+        <v>1111</v>
+      </c>
+      <c r="AU42" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="AV42" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="AW42" s="15" t="s">
+        <v>1113</v>
+      </c>
+      <c r="AX42" s="15" t="s">
+        <v>1180</v>
+      </c>
+      <c r="AY42" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AZ42" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="BA42" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="BB42" s="12" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="43" spans="1:54">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="14">
+        <v>44743</v>
+      </c>
+      <c r="C43" t="s">
+        <v>54</v>
+      </c>
+      <c r="D43" t="s">
+        <v>55</v>
+      </c>
+      <c r="E43">
+        <v>14</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+      <c r="G43" t="s">
+        <v>1181</v>
+      </c>
+      <c r="H43" t="s">
+        <v>243</v>
+      </c>
+      <c r="I43" s="9">
+        <v>25.3</v>
+      </c>
+      <c r="J43" s="9">
+        <v>47.3</v>
+      </c>
+      <c r="K43" s="11" t="s">
+        <v>1163</v>
+      </c>
+      <c r="L43" t="s">
+        <v>1093</v>
+      </c>
+      <c r="M43">
+        <v>999</v>
+      </c>
+      <c r="N43" t="s">
+        <v>1092</v>
+      </c>
+      <c r="O43">
+        <v>999</v>
+      </c>
+      <c r="P43" t="s">
+        <v>1182</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>1183</v>
+      </c>
+      <c r="R43">
+        <v>999</v>
+      </c>
+      <c r="S43">
+        <v>999</v>
+      </c>
+      <c r="T43" t="s">
+        <v>97</v>
+      </c>
+      <c r="U43" s="1">
+        <v>999</v>
+      </c>
+      <c r="V43" s="12" t="s">
+        <v>961</v>
+      </c>
+      <c r="W43" s="12" t="s">
+        <v>1184</v>
+      </c>
+      <c r="X43" s="12" t="s">
+        <v>743</v>
+      </c>
+      <c r="Y43" s="12" t="s">
+        <v>1185</v>
+      </c>
+      <c r="Z43" s="12" t="s">
+        <v>1186</v>
+      </c>
+      <c r="AA43" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="AB43" s="15" t="s">
+        <v>1187</v>
+      </c>
+      <c r="AC43" s="15" t="s">
+        <v>1100</v>
+      </c>
+      <c r="AD43" s="15" t="s">
+        <v>997</v>
+      </c>
+      <c r="AE43" s="15" t="s">
+        <v>848</v>
+      </c>
+      <c r="AF43" s="15" t="s">
+        <v>1172</v>
+      </c>
+      <c r="AG43" s="15" t="s">
+        <v>850</v>
+      </c>
+      <c r="AH43" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="AI43" s="15" t="s">
+        <v>1188</v>
+      </c>
+      <c r="AJ43" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="AK43" s="15" t="s">
+        <v>1050</v>
+      </c>
+      <c r="AL43" s="15" t="s">
+        <v>1108</v>
+      </c>
+      <c r="AM43" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="AN43" s="15" t="s">
+        <v>1053</v>
+      </c>
+      <c r="AO43" s="15" t="s">
+        <v>1003</v>
+      </c>
+      <c r="AP43" s="15" t="s">
+        <v>1189</v>
+      </c>
+      <c r="AQ43" s="15" t="s">
+        <v>1056</v>
+      </c>
+      <c r="AR43" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS43" s="15" t="s">
+        <v>1191</v>
+      </c>
+      <c r="AT43" s="15" t="s">
+        <v>1192</v>
+      </c>
+      <c r="AU43" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="AV43" s="15" t="s">
+        <v>1193</v>
+      </c>
+      <c r="AW43" s="15" t="s">
+        <v>1194</v>
+      </c>
+      <c r="AX43" s="15" t="s">
+        <v>1059</v>
+      </c>
+      <c r="AY43" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="AZ43" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="BA43" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="BB43">
+        <v>999</v>
       </c>
     </row>
   </sheetData>

--- a/Data/DWA_FS.xlsx
+++ b/Data/DWA_FS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1875" uniqueCount="1195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2307" uniqueCount="1358">
   <si>
     <t>ID</t>
   </si>
@@ -2748,12 +2748,6 @@
     <t>H. N[ut]zger</t>
   </si>
   <si>
-    <t>Geisingen</t>
-  </si>
-  <si>
-    <t>Amt Donauerdingen</t>
-  </si>
-  <si>
     <t>Bernhard Manner</t>
   </si>
   <si>
@@ -3649,6 +3643,501 @@
   </si>
   <si>
     <t>Topf</t>
+  </si>
+  <si>
+    <t>III_17_0050</t>
+  </si>
+  <si>
+    <t>Triberg</t>
+  </si>
+  <si>
+    <t>[888]</t>
+  </si>
+  <si>
+    <t>Lieche (die) {ich g[a]ng zur Liech}</t>
+  </si>
+  <si>
+    <t>Bromberi</t>
+  </si>
+  <si>
+    <t>Diechsle</t>
+  </si>
+  <si>
+    <t>Elster, Eg[o]ste</t>
+  </si>
+  <si>
+    <t>Gugum̄ere</t>
+  </si>
+  <si>
+    <t>Hia̠fe</t>
+  </si>
+  <si>
+    <t>Herdäpfel &lt;Erdäpfel&gt;</t>
+  </si>
+  <si>
+    <t>Gelbrübe</t>
+  </si>
+  <si>
+    <t>Mutterschwein, Moor</t>
+  </si>
+  <si>
+    <t>Geisel</t>
+  </si>
+  <si>
+    <t>schelten, sch[n]öre</t>
+  </si>
+  <si>
+    <t>Sp[o]tz</t>
+  </si>
+  <si>
+    <t>Unterteller, Schüssele</t>
+  </si>
+  <si>
+    <t>H[o]fe</t>
+  </si>
+  <si>
+    <t>zweihe</t>
+  </si>
+  <si>
+    <t>Ge[e]ß</t>
+  </si>
+  <si>
+    <t>Hindenburgschule Säckingen u. Sch[r]lettrelung Öbersäckingen</t>
+  </si>
+  <si>
+    <t>III_17_0051</t>
+  </si>
+  <si>
+    <t>Waldshut</t>
+  </si>
+  <si>
+    <t>H. Winter[eg]</t>
+  </si>
+  <si>
+    <t>Bäramsele</t>
+  </si>
+  <si>
+    <t>Bäramsele (die)</t>
+  </si>
+  <si>
+    <t>Liich (ü)</t>
+  </si>
+  <si>
+    <t>Speckfresser</t>
+  </si>
+  <si>
+    <t>Güggel, Hüen</t>
+  </si>
+  <si>
+    <t>Schärmuus</t>
+  </si>
+  <si>
+    <t>Gälbrüebe</t>
+  </si>
+  <si>
+    <t>Göddi</t>
+  </si>
+  <si>
+    <t>Geißlä</t>
+  </si>
+  <si>
+    <t>schimbfe</t>
+  </si>
+  <si>
+    <t>Schbadz</t>
+  </si>
+  <si>
+    <t>Schtachelbeeri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schtriggnodle  </t>
+  </si>
+  <si>
+    <t>Schüßle, Underdellerli</t>
+  </si>
+  <si>
+    <t>Haafe</t>
+  </si>
+  <si>
+    <t>zwaie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gaiß  </t>
+  </si>
+  <si>
+    <t>Hätzle</t>
+  </si>
+  <si>
+    <t>Fädermus</t>
+  </si>
+  <si>
+    <t>Rölli</t>
+  </si>
+  <si>
+    <t>Schärmus</t>
+  </si>
+  <si>
+    <t>Fuedderübe</t>
+  </si>
+  <si>
+    <t>Pfluume</t>
+  </si>
+  <si>
+    <t>Strick[?]nodle</t>
+  </si>
+  <si>
+    <t>Schüsseli, Tellerli</t>
+  </si>
+  <si>
+    <t>Krueg</t>
+  </si>
+  <si>
+    <t>Gu[w]e {könnte auch r sein}</t>
+  </si>
+  <si>
+    <t>G[a]iß</t>
+  </si>
+  <si>
+    <t>III_17_0052</t>
+  </si>
+  <si>
+    <t>Liicht</t>
+  </si>
+  <si>
+    <t>G[ü]ggel, Huen</t>
+  </si>
+  <si>
+    <t>Fu[u]derrüebe</t>
+  </si>
+  <si>
+    <t>Gaißle</t>
+  </si>
+  <si>
+    <t>Stachelberi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gu[w]e  </t>
+  </si>
+  <si>
+    <t>Gaiß</t>
+  </si>
+  <si>
+    <t>III_17_0053</t>
+  </si>
+  <si>
+    <t>Liich ([ä])</t>
+  </si>
+  <si>
+    <t>Speckfrässer</t>
+  </si>
+  <si>
+    <t>Gälrüebe</t>
+  </si>
+  <si>
+    <t>Schtriggnodle</t>
+  </si>
+  <si>
+    <t>Schüßle, Unterdellerli</t>
+  </si>
+  <si>
+    <t>III_17_0054</t>
+  </si>
+  <si>
+    <t>Schwobsthaler</t>
+  </si>
+  <si>
+    <t>i. Br.</t>
+  </si>
+  <si>
+    <t>Häzle</t>
+  </si>
+  <si>
+    <t>III_27_0058</t>
+  </si>
+  <si>
+    <t>y-l</t>
+  </si>
+  <si>
+    <t>[888]ishofen</t>
+  </si>
+  <si>
+    <t>Otto Schi[e]h[r]</t>
+  </si>
+  <si>
+    <t>Liich (d'), Liichg[u]g (de)</t>
+  </si>
+  <si>
+    <t>Diëchsle (w)</t>
+  </si>
+  <si>
+    <t>Ägeste (w)</t>
+  </si>
+  <si>
+    <t>Flädermus (w)</t>
+  </si>
+  <si>
+    <t>Fliëge</t>
+  </si>
+  <si>
+    <t>Hagebudde (w)</t>
+  </si>
+  <si>
+    <t>Gückel (m), Huen (w)</t>
+  </si>
+  <si>
+    <t>Heba[nde] (w)</t>
+  </si>
+  <si>
+    <t>Herdöpfel (m)</t>
+  </si>
+  <si>
+    <t>Rölli, Chatzeröll[i] (m)</t>
+  </si>
+  <si>
+    <t>Schärmuus (w), Schär (m)</t>
+  </si>
+  <si>
+    <t>Gälrüebe (w)</t>
+  </si>
+  <si>
+    <t>Göti (m)</t>
+  </si>
+  <si>
+    <t>Gaisle (w)</t>
+  </si>
+  <si>
+    <t>Pfluume (w)</t>
+  </si>
+  <si>
+    <t>Stachelbeeri, Kruselbeeri</t>
+  </si>
+  <si>
+    <t>Güfeli (s)</t>
+  </si>
+  <si>
+    <t>Chaffeschüsseli, Dellerli (s)</t>
+  </si>
+  <si>
+    <t>Hafe, Hüfeli</t>
+  </si>
+  <si>
+    <t>III_17_0059</t>
+  </si>
+  <si>
+    <t>y-[m]</t>
+  </si>
+  <si>
+    <t>Niederhof</t>
+  </si>
+  <si>
+    <t>Karl Gerst</t>
+  </si>
+  <si>
+    <t>Lahn, Bd.</t>
+  </si>
+  <si>
+    <t>K. Gert</t>
+  </si>
+  <si>
+    <t>L,S</t>
+  </si>
+  <si>
+    <t>Bäramsele (w)</t>
+  </si>
+  <si>
+    <t>Bromberi (w)</t>
+  </si>
+  <si>
+    <t>Elstere (w)</t>
+  </si>
+  <si>
+    <t>Fledermuus (w)</t>
+  </si>
+  <si>
+    <t>Guggumer (w)</t>
+  </si>
+  <si>
+    <t>hagebutte (w, m)</t>
+  </si>
+  <si>
+    <t>Güggel (m), Hühnli (s)</t>
+  </si>
+  <si>
+    <t>Hebamm (m)</t>
+  </si>
+  <si>
+    <t>Chatz (m), Bussi (s)</t>
+  </si>
+  <si>
+    <t>Schermus (w)</t>
+  </si>
+  <si>
+    <t>Gäihlrübli (s)</t>
+  </si>
+  <si>
+    <t>Mohr (s)</t>
+  </si>
+  <si>
+    <t>Göddi (m)</t>
+  </si>
+  <si>
+    <t>Geißle (s)</t>
+  </si>
+  <si>
+    <t>Schwiegerdochter (w)</t>
+  </si>
+  <si>
+    <t>Kruselbeeri (w)</t>
+  </si>
+  <si>
+    <t>Güfili (s)</t>
+  </si>
+  <si>
+    <t>Stricknoodle (w)</t>
+  </si>
+  <si>
+    <t>Schüsseli (f)</t>
+  </si>
+  <si>
+    <t>Haafe (m)</t>
+  </si>
+  <si>
+    <t>źweije</t>
+  </si>
+  <si>
+    <t>III_17_0061</t>
+  </si>
+  <si>
+    <t>y-o</t>
+  </si>
+  <si>
+    <t>Laufenburg</t>
+  </si>
+  <si>
+    <t>Adolf Wie[h]s  &lt;Oberlehrer&gt;</t>
+  </si>
+  <si>
+    <t>H. Wint[e][?][e] &lt;Rektor&gt;</t>
+  </si>
+  <si>
+    <t>Wyhlen &lt;Amt Lörrach&gt;</t>
+  </si>
+  <si>
+    <t>Geisingen &lt;Amt Donauerdingen&gt;</t>
+  </si>
+  <si>
+    <t>Be̠ramsle (w)</t>
+  </si>
+  <si>
+    <t>Beerdigung, Liich &lt;Leiche&gt;</t>
+  </si>
+  <si>
+    <t>Brumbeeri (f)</t>
+  </si>
+  <si>
+    <t>Fliëge (w)</t>
+  </si>
+  <si>
+    <t>Öhmd (s), Ehmd (s)</t>
+  </si>
+  <si>
+    <t>G[a]gummere (w)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hagebutte </t>
+  </si>
+  <si>
+    <t>Gückel, Huën</t>
+  </si>
+  <si>
+    <t>Holder, Holunder</t>
+  </si>
+  <si>
+    <t>Herdöpfel (m) &lt;Erdapfel&gt;</t>
+  </si>
+  <si>
+    <t>Kater (m)</t>
+  </si>
+  <si>
+    <t>Schärmus (w)</t>
+  </si>
+  <si>
+    <t>Gelrüëbe (w)</t>
+  </si>
+  <si>
+    <t>Geißle (w)</t>
+  </si>
+  <si>
+    <t>Schwiegertochter, Sohnfrau[?]</t>
+  </si>
+  <si>
+    <t>Stachelbeeri, Chruselbeeri (s)</t>
+  </si>
+  <si>
+    <t>Guufe (w)</t>
+  </si>
+  <si>
+    <t>Stricknodle (w)</t>
+  </si>
+  <si>
+    <t>Schüssele, Obertasse (s)</t>
+  </si>
+  <si>
+    <t>Geiß, Gais</t>
+  </si>
+  <si>
+    <t>III_17_0062</t>
+  </si>
+  <si>
+    <t>y-p</t>
+  </si>
+  <si>
+    <t>Binzgen</t>
+  </si>
+  <si>
+    <t>Otto Martin</t>
+  </si>
+  <si>
+    <t>Herdwangen</t>
+  </si>
+  <si>
+    <t>Bäramsel (w)</t>
+  </si>
+  <si>
+    <t>Diechsle (w)</t>
+  </si>
+  <si>
+    <t>Fladermus (w)</t>
+  </si>
+  <si>
+    <t>Guckummere (w)</t>
+  </si>
+  <si>
+    <t>Gückel (m), Hu[n] (f)</t>
+  </si>
+  <si>
+    <t>Hebant (w)</t>
+  </si>
+  <si>
+    <t>Häerdöpfel (m))</t>
+  </si>
+  <si>
+    <t>Scheermus (m)</t>
+  </si>
+  <si>
+    <t>Gällrüebe (w)</t>
+  </si>
+  <si>
+    <t>Gaisel (w)</t>
+  </si>
+  <si>
+    <t>Liesmenodel (w)</t>
+  </si>
+  <si>
+    <t>Schüsseli (s)</t>
+  </si>
+  <si>
+    <t>zweien</t>
   </si>
 </sst>
 </file>
@@ -3751,7 +4240,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -3768,6 +4257,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading" xfId="1"/>
@@ -4078,7 +4568,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4086,9 +4576,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BB43"/>
+  <dimension ref="A1:BB53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
@@ -4107,14 +4599,14 @@
     <col min="13" max="13" width="19" customWidth="1"/>
     <col min="14" max="14" width="18.875" customWidth="1"/>
     <col min="15" max="15" width="15.25" customWidth="1"/>
-    <col min="16" max="16" width="17.5" customWidth="1"/>
+    <col min="16" max="16" width="23.75" customWidth="1"/>
     <col min="17" max="17" width="61.375" customWidth="1"/>
     <col min="18" max="18" width="22.5" customWidth="1"/>
     <col min="19" max="19" width="23.75" customWidth="1"/>
     <col min="20" max="20" width="15.5" customWidth="1"/>
     <col min="21" max="21" width="38.75" style="1" customWidth="1"/>
     <col min="22" max="22" width="31.375" customWidth="1"/>
-    <col min="23" max="23" width="26.125" customWidth="1"/>
+    <col min="23" max="23" width="28.5" customWidth="1"/>
     <col min="24" max="24" width="20" customWidth="1"/>
     <col min="25" max="25" width="25.25" customWidth="1"/>
     <col min="26" max="26" width="30.375" customWidth="1"/>
@@ -5225,7 +5717,7 @@
         <v>260</v>
       </c>
       <c r="AE7" s="12" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="AF7" s="12" t="s">
         <v>261</v>
@@ -5234,7 +5726,7 @@
         <v>262</v>
       </c>
       <c r="AH7" s="12" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="AI7" s="12" t="s">
         <v>263</v>
@@ -5264,10 +5756,10 @@
         <v>271</v>
       </c>
       <c r="AR7" s="12" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="AS7" s="12" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="AT7" s="12" t="s">
         <v>274</v>
@@ -5279,7 +5771,7 @@
         <v>273</v>
       </c>
       <c r="AW7" s="12" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="AX7" s="12" t="s">
         <v>275</v>
@@ -5389,7 +5881,7 @@
         <v>289</v>
       </c>
       <c r="AE8" s="12" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="AF8" s="12" t="s">
         <v>290</v>
@@ -5410,7 +5902,7 @@
         <v>294</v>
       </c>
       <c r="AL8" s="12" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="AM8" s="12" t="s">
         <v>267</v>
@@ -5443,7 +5935,7 @@
         <v>304</v>
       </c>
       <c r="AW8" s="12" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="AX8" s="12" t="s">
         <v>305</v>
@@ -5452,7 +5944,7 @@
         <v>306</v>
       </c>
       <c r="AZ8" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="BA8" s="1" t="s">
         <v>299</v>
@@ -6045,7 +6537,7 @@
         <v>373</v>
       </c>
       <c r="AE12" s="12" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="AF12" s="12" t="s">
         <v>399</v>
@@ -6701,7 +7193,7 @@
         <v>523</v>
       </c>
       <c r="AE16" s="12" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="AF16" s="12" t="s">
         <v>524</v>
@@ -6710,7 +7202,7 @@
         <v>525</v>
       </c>
       <c r="AH16" s="12" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="AI16" s="12" t="s">
         <v>263</v>
@@ -6740,10 +7232,10 @@
         <v>198</v>
       </c>
       <c r="AR16" s="12" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="AS16" s="12" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="AT16" s="12" t="s">
         <v>533</v>
@@ -6755,7 +7247,7 @@
         <v>535</v>
       </c>
       <c r="AW16" s="12" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="AX16" s="12" t="s">
         <v>128</v>
@@ -8320,7 +8812,7 @@
         <v>256</v>
       </c>
       <c r="Z26" s="12" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="AA26" s="12" t="s">
         <v>288</v>
@@ -8860,7 +9352,7 @@
         <v>232</v>
       </c>
       <c r="AP29" s="12" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="AQ29" s="12" t="s">
         <v>834</v>
@@ -9274,10 +9766,10 @@
         <v>893</v>
       </c>
       <c r="Q32" t="s">
-        <v>894</v>
-      </c>
-      <c r="R32" t="s">
-        <v>895</v>
+        <v>1319</v>
+      </c>
+      <c r="R32">
+        <v>999</v>
       </c>
       <c r="S32" t="s">
         <v>366</v>
@@ -9286,25 +9778,25 @@
         <v>97</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="V32" s="12" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="W32" s="12" t="s">
         <v>370</v>
       </c>
       <c r="X32" s="12" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="Y32" s="12" t="s">
         <v>64</v>
       </c>
       <c r="Z32" s="12" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="AA32" s="15" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="AB32" s="15" t="s">
         <v>66</v>
@@ -9313,16 +9805,16 @@
         <v>67</v>
       </c>
       <c r="AD32" s="15" t="s">
+        <v>899</v>
+      </c>
+      <c r="AE32" s="15" t="s">
+        <v>949</v>
+      </c>
+      <c r="AF32" s="15" t="s">
+        <v>900</v>
+      </c>
+      <c r="AG32" s="15" t="s">
         <v>901</v>
-      </c>
-      <c r="AE32" s="15" t="s">
-        <v>951</v>
-      </c>
-      <c r="AF32" s="15" t="s">
-        <v>902</v>
-      </c>
-      <c r="AG32" s="15" t="s">
-        <v>903</v>
       </c>
       <c r="AH32" s="15" t="s">
         <v>190</v>
@@ -9337,13 +9829,13 @@
         <v>228</v>
       </c>
       <c r="AL32" s="15" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="AM32" s="15" t="s">
         <v>382</v>
       </c>
       <c r="AN32" s="15" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="AO32" s="15" t="s">
         <v>77</v>
@@ -9358,22 +9850,22 @@
         <v>80</v>
       </c>
       <c r="AS32" s="15" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="AT32" s="15" t="s">
         <v>82</v>
       </c>
       <c r="AU32" s="15" t="s">
+        <v>906</v>
+      </c>
+      <c r="AV32" s="15" t="s">
+        <v>907</v>
+      </c>
+      <c r="AW32" s="15" t="s">
+        <v>950</v>
+      </c>
+      <c r="AX32" s="15" t="s">
         <v>908</v>
-      </c>
-      <c r="AV32" s="15" t="s">
-        <v>909</v>
-      </c>
-      <c r="AW32" s="15" t="s">
-        <v>952</v>
-      </c>
-      <c r="AX32" s="15" t="s">
-        <v>910</v>
       </c>
       <c r="AY32" s="1" t="s">
         <v>168</v>
@@ -9385,7 +9877,7 @@
         <v>235</v>
       </c>
       <c r="BB32" s="12" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
     </row>
     <row r="33" spans="1:54">
@@ -9408,7 +9900,7 @@
         <v>3</v>
       </c>
       <c r="G33" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="H33" t="s">
         <v>243</v>
@@ -9420,10 +9912,10 @@
         <v>47.3</v>
       </c>
       <c r="K33" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="L33" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="M33">
         <v>999</v>
@@ -9435,10 +9927,10 @@
         <v>93</v>
       </c>
       <c r="P33" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="Q33" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="R33">
         <v>999</v>
@@ -9450,16 +9942,16 @@
         <v>97</v>
       </c>
       <c r="U33" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="V33" s="12" t="s">
+        <v>915</v>
+      </c>
+      <c r="W33" s="12" t="s">
+        <v>917</v>
+      </c>
+      <c r="X33" s="12" t="s">
         <v>916</v>
-      </c>
-      <c r="V33" s="12" t="s">
-        <v>917</v>
-      </c>
-      <c r="W33" s="12" t="s">
-        <v>919</v>
-      </c>
-      <c r="X33" s="12" t="s">
-        <v>918</v>
       </c>
       <c r="Y33" s="12" t="s">
         <v>216</v>
@@ -9468,7 +9960,7 @@
         <v>65</v>
       </c>
       <c r="AA33" s="15" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="AB33" s="15" t="s">
         <v>66</v>
@@ -9477,22 +9969,22 @@
         <v>67</v>
       </c>
       <c r="AD33" s="15" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="AE33" s="15" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="AF33" s="15" t="s">
         <v>375</v>
       </c>
       <c r="AG33" s="15" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="AH33" s="15" t="s">
+        <v>922</v>
+      </c>
+      <c r="AI33" s="15" t="s">
         <v>924</v>
-      </c>
-      <c r="AI33" s="15" t="s">
-        <v>926</v>
       </c>
       <c r="AJ33" s="15" t="s">
         <v>72</v>
@@ -9501,40 +9993,40 @@
         <v>380</v>
       </c>
       <c r="AL33" s="15" t="s">
+        <v>925</v>
+      </c>
+      <c r="AM33" s="15" t="s">
+        <v>926</v>
+      </c>
+      <c r="AN33" s="15" t="s">
         <v>927</v>
       </c>
-      <c r="AM33" s="15" t="s">
+      <c r="AO33" s="15" t="s">
         <v>928</v>
       </c>
-      <c r="AN33" s="15" t="s">
+      <c r="AP33" s="15" t="s">
         <v>929</v>
-      </c>
-      <c r="AO33" s="15" t="s">
-        <v>930</v>
-      </c>
-      <c r="AP33" s="15" t="s">
-        <v>931</v>
       </c>
       <c r="AQ33" s="15" t="s">
         <v>471</v>
       </c>
       <c r="AR33" s="15" t="s">
+        <v>930</v>
+      </c>
+      <c r="AS33" s="15" t="s">
+        <v>931</v>
+      </c>
+      <c r="AT33" s="15" t="s">
+        <v>933</v>
+      </c>
+      <c r="AU33" s="15" t="s">
         <v>932</v>
       </c>
-      <c r="AS33" s="15" t="s">
-        <v>933</v>
-      </c>
-      <c r="AT33" s="15" t="s">
+      <c r="AV33" s="15" t="s">
+        <v>934</v>
+      </c>
+      <c r="AW33" s="15" t="s">
         <v>935</v>
-      </c>
-      <c r="AU33" s="15" t="s">
-        <v>934</v>
-      </c>
-      <c r="AV33" s="15" t="s">
-        <v>936</v>
-      </c>
-      <c r="AW33" s="15" t="s">
-        <v>937</v>
       </c>
       <c r="AX33" s="15" t="s">
         <v>206</v>
@@ -9543,13 +10035,13 @@
         <v>86</v>
       </c>
       <c r="AZ33" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="BA33" s="1" t="s">
         <v>88</v>
       </c>
       <c r="BB33" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
     <row r="34" spans="1:54">
@@ -9572,7 +10064,7 @@
         <v>2</v>
       </c>
       <c r="G34" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="H34" t="s">
         <v>243</v>
@@ -9584,25 +10076,25 @@
         <v>47.3</v>
       </c>
       <c r="K34" t="s">
+        <v>954</v>
+      </c>
+      <c r="L34" t="s">
+        <v>955</v>
+      </c>
+      <c r="M34">
+        <v>999</v>
+      </c>
+      <c r="N34" t="s">
         <v>956</v>
-      </c>
-      <c r="L34" t="s">
-        <v>957</v>
-      </c>
-      <c r="M34">
-        <v>999</v>
-      </c>
-      <c r="N34" t="s">
-        <v>958</v>
       </c>
       <c r="O34" t="s">
         <v>172</v>
       </c>
       <c r="P34" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="Q34" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="R34">
         <v>999</v>
@@ -9617,100 +10109,100 @@
         <v>999</v>
       </c>
       <c r="V34" s="12" t="s">
+        <v>959</v>
+      </c>
+      <c r="W34" s="12" t="s">
+        <v>960</v>
+      </c>
+      <c r="X34" s="12" t="s">
         <v>961</v>
-      </c>
-      <c r="W34" s="12" t="s">
-        <v>962</v>
-      </c>
-      <c r="X34" s="12" t="s">
-        <v>963</v>
       </c>
       <c r="Y34" s="12" t="s">
         <v>216</v>
       </c>
       <c r="Z34" s="12" t="s">
+        <v>962</v>
+      </c>
+      <c r="AA34" s="15" t="s">
+        <v>963</v>
+      </c>
+      <c r="AB34" s="15" t="s">
         <v>964</v>
       </c>
-      <c r="AA34" s="15" t="s">
+      <c r="AC34" s="15" t="s">
         <v>965</v>
-      </c>
-      <c r="AB34" s="15" t="s">
-        <v>966</v>
-      </c>
-      <c r="AC34" s="15" t="s">
-        <v>967</v>
       </c>
       <c r="AD34" s="15" t="s">
         <v>653</v>
       </c>
       <c r="AE34" s="15" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="AF34" s="15" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="AG34" s="15" t="s">
+        <v>967</v>
+      </c>
+      <c r="AH34" s="15" t="s">
         <v>969</v>
       </c>
-      <c r="AH34" s="15" t="s">
+      <c r="AI34" s="15" t="s">
         <v>971</v>
       </c>
-      <c r="AI34" s="15" t="s">
+      <c r="AJ34" s="15" t="s">
+        <v>972</v>
+      </c>
+      <c r="AK34" s="15" t="s">
         <v>973</v>
-      </c>
-      <c r="AJ34" s="15" t="s">
-        <v>974</v>
-      </c>
-      <c r="AK34" s="15" t="s">
-        <v>975</v>
       </c>
       <c r="AL34" s="15" t="s">
         <v>678</v>
       </c>
       <c r="AM34" s="15" t="s">
+        <v>974</v>
+      </c>
+      <c r="AN34" s="15" t="s">
+        <v>975</v>
+      </c>
+      <c r="AO34" s="15" t="s">
         <v>976</v>
       </c>
-      <c r="AN34" s="15" t="s">
+      <c r="AP34" s="15" t="s">
         <v>977</v>
       </c>
-      <c r="AO34" s="15" t="s">
+      <c r="AQ34" s="15" t="s">
         <v>978</v>
       </c>
-      <c r="AP34" s="15" t="s">
-        <v>979</v>
-      </c>
-      <c r="AQ34" s="15" t="s">
+      <c r="AR34" s="15" t="s">
         <v>980</v>
       </c>
-      <c r="AR34" s="15" t="s">
+      <c r="AS34" s="15" t="s">
+        <v>981</v>
+      </c>
+      <c r="AT34" s="15" t="s">
         <v>982</v>
-      </c>
-      <c r="AS34" s="15" t="s">
-        <v>983</v>
-      </c>
-      <c r="AT34" s="15" t="s">
-        <v>984</v>
       </c>
       <c r="AU34" s="15" t="s">
         <v>413</v>
       </c>
       <c r="AV34" s="15" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="AW34" s="15" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="AX34" s="15" t="s">
         <v>167</v>
       </c>
       <c r="AY34" s="1" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="AZ34" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="BA34" s="1" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="BB34">
         <v>999</v>
@@ -9736,7 +10228,7 @@
         <v>1</v>
       </c>
       <c r="G35" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="H35" t="s">
         <v>57</v>
@@ -9748,25 +10240,25 @@
         <v>730</v>
       </c>
       <c r="K35" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="L35" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="M35">
         <v>999</v>
       </c>
       <c r="N35" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="O35" t="s">
         <v>366</v>
       </c>
       <c r="P35" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="Q35" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="R35">
         <v>999</v>
@@ -9781,46 +10273,46 @@
         <v>999</v>
       </c>
       <c r="V35" s="12" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="W35" s="12" t="s">
         <v>370</v>
       </c>
       <c r="X35" s="12" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="Y35" s="12" t="s">
         <v>216</v>
       </c>
       <c r="Z35" s="12" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="AA35" s="15" t="s">
         <v>218</v>
       </c>
       <c r="AB35" s="15" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="AC35" s="15" t="s">
         <v>318</v>
       </c>
       <c r="AD35" s="15" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="AE35" s="15" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="AF35" s="15" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="AG35" s="15" t="s">
         <v>322</v>
       </c>
       <c r="AH35" s="15" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="AI35" s="15" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="AJ35" s="15" t="s">
         <v>227</v>
@@ -9829,28 +10321,28 @@
         <v>228</v>
       </c>
       <c r="AL35" s="15" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="AM35" s="15" t="s">
         <v>327</v>
       </c>
       <c r="AN35" s="15" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="AO35" s="15" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="AP35" s="15" t="s">
         <v>329</v>
       </c>
       <c r="AQ35" s="15" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="AR35" s="15" t="s">
         <v>80</v>
       </c>
       <c r="AS35" s="15" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="AT35" s="15" t="s">
         <v>412</v>
@@ -9859,7 +10351,7 @@
         <v>238</v>
       </c>
       <c r="AV35" s="15" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="AW35" s="15" t="s">
         <v>240</v>
@@ -9874,7 +10366,7 @@
         <v>323</v>
       </c>
       <c r="BA35" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="BB35">
         <v>999</v>
@@ -9900,7 +10392,7 @@
         <v>2</v>
       </c>
       <c r="G36" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="H36" t="s">
         <v>57</v>
@@ -9912,22 +10404,22 @@
         <v>47.3</v>
       </c>
       <c r="K36" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="L36" t="s">
+        <v>1007</v>
+      </c>
+      <c r="M36">
+        <v>999</v>
+      </c>
+      <c r="N36" t="s">
+        <v>988</v>
+      </c>
+      <c r="O36" t="s">
+        <v>1008</v>
+      </c>
+      <c r="P36" t="s">
         <v>1009</v>
-      </c>
-      <c r="M36">
-        <v>999</v>
-      </c>
-      <c r="N36" t="s">
-        <v>990</v>
-      </c>
-      <c r="O36" t="s">
-        <v>1010</v>
-      </c>
-      <c r="P36" t="s">
-        <v>1011</v>
       </c>
       <c r="Q36" t="s">
         <v>96</v>
@@ -9942,58 +10434,58 @@
         <v>97</v>
       </c>
       <c r="U36" s="1" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="V36" s="12" t="s">
         <v>544</v>
       </c>
       <c r="W36" s="12" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="X36" s="12" t="s">
         <v>765</v>
       </c>
       <c r="Y36" s="12" t="s">
+        <v>1012</v>
+      </c>
+      <c r="Z36" s="12" t="s">
+        <v>1013</v>
+      </c>
+      <c r="AA36" s="15" t="s">
         <v>1014</v>
-      </c>
-      <c r="Z36" s="12" t="s">
-        <v>1015</v>
-      </c>
-      <c r="AA36" s="15" t="s">
-        <v>1016</v>
       </c>
       <c r="AB36" s="15" t="s">
         <v>143</v>
       </c>
       <c r="AC36" s="15" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="AD36" s="15" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="AE36" s="15" t="s">
         <v>493</v>
       </c>
       <c r="AF36" s="15" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="AG36" s="15" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="AH36" s="15" t="s">
         <v>292</v>
       </c>
       <c r="AI36" s="15" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="AJ36" s="15" t="s">
         <v>264</v>
       </c>
       <c r="AK36" s="15" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="AL36" s="15" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="AM36" s="15" t="s">
         <v>267</v>
@@ -10002,34 +10494,34 @@
         <v>501</v>
       </c>
       <c r="AO36" s="15" t="s">
+        <v>1022</v>
+      </c>
+      <c r="AP36" s="15" t="s">
+        <v>1023</v>
+      </c>
+      <c r="AQ36" s="15" t="s">
         <v>1024</v>
-      </c>
-      <c r="AP36" s="15" t="s">
-        <v>1025</v>
-      </c>
-      <c r="AQ36" s="15" t="s">
-        <v>1026</v>
       </c>
       <c r="AR36" s="15" t="s">
         <v>160</v>
       </c>
       <c r="AS36" s="15" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="AT36" s="15" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="AU36" s="15" t="s">
         <v>589</v>
       </c>
       <c r="AV36" s="15" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="AW36" s="15" t="s">
         <v>166</v>
       </c>
       <c r="AX36" s="15" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="AY36" s="1" t="s">
         <v>360</v>
@@ -10038,7 +10530,7 @@
         <v>814</v>
       </c>
       <c r="BA36" s="1" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="BB36">
         <v>999</v>
@@ -10064,7 +10556,7 @@
         <v>4</v>
       </c>
       <c r="G37" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="H37" t="s">
         <v>57</v>
@@ -10076,25 +10568,25 @@
         <v>47.3</v>
       </c>
       <c r="K37" t="s">
+        <v>1031</v>
+      </c>
+      <c r="L37" t="s">
+        <v>1032</v>
+      </c>
+      <c r="M37">
+        <v>999</v>
+      </c>
+      <c r="N37" t="s">
         <v>1033</v>
-      </c>
-      <c r="L37" t="s">
-        <v>1034</v>
-      </c>
-      <c r="M37">
-        <v>999</v>
-      </c>
-      <c r="N37" t="s">
-        <v>1035</v>
       </c>
       <c r="O37" t="s">
         <v>366</v>
       </c>
       <c r="P37" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="Q37" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="R37">
         <v>999</v>
@@ -10109,70 +10601,70 @@
         <v>999</v>
       </c>
       <c r="V37" s="12" t="s">
+        <v>1036</v>
+      </c>
+      <c r="W37" s="12" t="s">
+        <v>1037</v>
+      </c>
+      <c r="X37" s="12" t="s">
         <v>1038</v>
       </c>
-      <c r="W37" s="12" t="s">
+      <c r="Y37" s="12" t="s">
         <v>1039</v>
       </c>
-      <c r="X37" s="12" t="s">
+      <c r="Z37" s="12" t="s">
         <v>1040</v>
       </c>
-      <c r="Y37" s="12" t="s">
+      <c r="AA37" s="15" t="s">
         <v>1041</v>
       </c>
-      <c r="Z37" s="12" t="s">
+      <c r="AB37" s="15" t="s">
         <v>1042</v>
       </c>
-      <c r="AA37" s="15" t="s">
+      <c r="AC37" s="15" t="s">
         <v>1043</v>
       </c>
-      <c r="AB37" s="15" t="s">
+      <c r="AD37" s="15" t="s">
         <v>1044</v>
-      </c>
-      <c r="AC37" s="15" t="s">
-        <v>1045</v>
-      </c>
-      <c r="AD37" s="15" t="s">
-        <v>1046</v>
       </c>
       <c r="AE37" s="15" t="s">
         <v>848</v>
       </c>
       <c r="AF37" s="15" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="AG37" s="15" t="s">
+        <v>1045</v>
+      </c>
+      <c r="AH37" s="15" t="s">
+        <v>1046</v>
+      </c>
+      <c r="AI37" s="15" t="s">
         <v>1047</v>
-      </c>
-      <c r="AH37" s="15" t="s">
-        <v>1048</v>
-      </c>
-      <c r="AI37" s="15" t="s">
-        <v>1049</v>
       </c>
       <c r="AJ37" s="15" t="s">
         <v>227</v>
       </c>
       <c r="AK37" s="15" t="s">
+        <v>1048</v>
+      </c>
+      <c r="AL37" s="15" t="s">
+        <v>1049</v>
+      </c>
+      <c r="AM37" s="15" t="s">
         <v>1050</v>
       </c>
-      <c r="AL37" s="15" t="s">
+      <c r="AN37" s="15" t="s">
         <v>1051</v>
       </c>
-      <c r="AM37" s="15" t="s">
+      <c r="AO37" s="15" t="s">
         <v>1052</v>
       </c>
-      <c r="AN37" s="15" t="s">
+      <c r="AP37" s="15" t="s">
         <v>1053</v>
       </c>
-      <c r="AO37" s="15" t="s">
+      <c r="AQ37" s="15" t="s">
         <v>1054</v>
-      </c>
-      <c r="AP37" s="15" t="s">
-        <v>1055</v>
-      </c>
-      <c r="AQ37" s="15" t="s">
-        <v>1056</v>
       </c>
       <c r="AR37" s="15" t="s">
         <v>80</v>
@@ -10181,19 +10673,19 @@
         <v>752</v>
       </c>
       <c r="AT37" s="15" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="AU37" s="15" t="s">
         <v>859</v>
       </c>
       <c r="AV37" s="15" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="AW37" s="15" t="s">
         <v>240</v>
       </c>
       <c r="AX37" s="15" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="AY37" s="1" t="s">
         <v>168</v>
@@ -10228,7 +10720,7 @@
         <v>5</v>
       </c>
       <c r="G38" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="H38" t="s">
         <v>243</v>
@@ -10237,25 +10729,25 @@
         <v>5.2</v>
       </c>
       <c r="J38" s="9" t="s">
+        <v>1059</v>
+      </c>
+      <c r="K38" t="s">
+        <v>1060</v>
+      </c>
+      <c r="L38" t="s">
         <v>1061</v>
       </c>
-      <c r="K38" t="s">
+      <c r="M38">
+        <v>999</v>
+      </c>
+      <c r="N38" t="s">
+        <v>1063</v>
+      </c>
+      <c r="O38" t="s">
         <v>1062</v>
       </c>
-      <c r="L38" t="s">
-        <v>1063</v>
-      </c>
-      <c r="M38">
-        <v>999</v>
-      </c>
-      <c r="N38" t="s">
-        <v>1065</v>
-      </c>
-      <c r="O38" t="s">
+      <c r="P38" t="s">
         <v>1064</v>
-      </c>
-      <c r="P38" t="s">
-        <v>1066</v>
       </c>
       <c r="Q38" t="s">
         <v>806</v>
@@ -10267,46 +10759,46 @@
         <v>999</v>
       </c>
       <c r="T38" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="U38" s="1" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="V38" s="12" t="s">
         <v>544</v>
       </c>
       <c r="W38" s="12" t="s">
+        <v>1066</v>
+      </c>
+      <c r="X38" s="12" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y38" s="12" t="s">
         <v>1068</v>
       </c>
-      <c r="X38" s="12" t="s">
+      <c r="Z38" s="12" t="s">
         <v>1069</v>
       </c>
-      <c r="Y38" s="12" t="s">
+      <c r="AA38" s="15" t="s">
         <v>1070</v>
       </c>
-      <c r="Z38" s="12" t="s">
+      <c r="AB38" s="15" t="s">
         <v>1071</v>
       </c>
-      <c r="AA38" s="15" t="s">
-        <v>1072</v>
-      </c>
-      <c r="AB38" s="15" t="s">
-        <v>1073</v>
-      </c>
       <c r="AC38" s="15" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="AD38" s="15" t="s">
         <v>492</v>
       </c>
       <c r="AE38" s="15" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="AF38" s="15" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="AG38" s="15" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="AH38" s="15" t="s">
         <v>496</v>
@@ -10315,49 +10807,49 @@
         <v>263</v>
       </c>
       <c r="AJ38" s="15" t="s">
+        <v>1074</v>
+      </c>
+      <c r="AK38" s="15" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AL38" s="15" t="s">
+        <v>1075</v>
+      </c>
+      <c r="AM38" s="15" t="s">
         <v>1076</v>
       </c>
-      <c r="AK38" s="15" t="s">
-        <v>1022</v>
-      </c>
-      <c r="AL38" s="15" t="s">
+      <c r="AN38" s="15" t="s">
         <v>1077</v>
       </c>
-      <c r="AM38" s="15" t="s">
+      <c r="AO38" s="15" t="s">
         <v>1078</v>
       </c>
-      <c r="AN38" s="15" t="s">
+      <c r="AP38" s="15" t="s">
         <v>1079</v>
       </c>
-      <c r="AO38" s="15" t="s">
+      <c r="AQ38" s="15" t="s">
         <v>1080</v>
-      </c>
-      <c r="AP38" s="15" t="s">
-        <v>1081</v>
-      </c>
-      <c r="AQ38" s="15" t="s">
-        <v>1082</v>
       </c>
       <c r="AR38" s="15" t="s">
         <v>160</v>
       </c>
       <c r="AS38" s="15" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="AT38" s="15" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="AU38" s="15" t="s">
         <v>589</v>
       </c>
       <c r="AV38" s="15" t="s">
+        <v>1085</v>
+      </c>
+      <c r="AW38" s="15" t="s">
+        <v>1086</v>
+      </c>
+      <c r="AX38" s="15" t="s">
         <v>1087</v>
-      </c>
-      <c r="AW38" s="15" t="s">
-        <v>1088</v>
-      </c>
-      <c r="AX38" s="15" t="s">
-        <v>1089</v>
       </c>
       <c r="AY38" s="1" t="s">
         <v>360</v>
@@ -10366,10 +10858,10 @@
         <v>814</v>
       </c>
       <c r="BA38" s="1" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="BB38" s="12" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="39" spans="1:54">
@@ -10392,37 +10884,37 @@
         <v>999</v>
       </c>
       <c r="G39" t="s">
+        <v>1089</v>
+      </c>
+      <c r="H39">
+        <v>999</v>
+      </c>
+      <c r="I39" s="11">
+        <v>999</v>
+      </c>
+      <c r="J39" s="11">
+        <v>999</v>
+      </c>
+      <c r="K39">
+        <v>999</v>
+      </c>
+      <c r="L39" t="s">
         <v>1091</v>
       </c>
-      <c r="H39">
-        <v>999</v>
-      </c>
-      <c r="I39" s="11">
-        <v>999</v>
-      </c>
-      <c r="J39" s="11">
-        <v>999</v>
-      </c>
-      <c r="K39">
-        <v>999</v>
-      </c>
-      <c r="L39" t="s">
+      <c r="M39">
+        <v>999</v>
+      </c>
+      <c r="N39" t="s">
+        <v>1090</v>
+      </c>
+      <c r="O39">
+        <v>999</v>
+      </c>
+      <c r="P39" t="s">
+        <v>1092</v>
+      </c>
+      <c r="Q39" t="s">
         <v>1093</v>
-      </c>
-      <c r="M39">
-        <v>999</v>
-      </c>
-      <c r="N39" t="s">
-        <v>1092</v>
-      </c>
-      <c r="O39">
-        <v>999</v>
-      </c>
-      <c r="P39" t="s">
-        <v>1094</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>1095</v>
       </c>
       <c r="R39">
         <v>999</v>
@@ -10437,16 +10929,16 @@
         <v>999</v>
       </c>
       <c r="V39" s="12" t="s">
+        <v>1094</v>
+      </c>
+      <c r="W39" s="12" t="s">
+        <v>1037</v>
+      </c>
+      <c r="X39" s="12" t="s">
+        <v>1095</v>
+      </c>
+      <c r="Y39" s="12" t="s">
         <v>1096</v>
-      </c>
-      <c r="W39" s="12" t="s">
-        <v>1039</v>
-      </c>
-      <c r="X39" s="12" t="s">
-        <v>1097</v>
-      </c>
-      <c r="Y39" s="12" t="s">
-        <v>1098</v>
       </c>
       <c r="Z39">
         <v>999</v>
@@ -10455,85 +10947,85 @@
         <v>601</v>
       </c>
       <c r="AB39" s="15" t="s">
+        <v>1097</v>
+      </c>
+      <c r="AC39" s="15" t="s">
+        <v>1098</v>
+      </c>
+      <c r="AD39" s="15" t="s">
         <v>1099</v>
       </c>
-      <c r="AC39" s="15" t="s">
+      <c r="AE39" s="15" t="s">
+        <v>968</v>
+      </c>
+      <c r="AF39" s="15" t="s">
         <v>1100</v>
-      </c>
-      <c r="AD39" s="15" t="s">
-        <v>1101</v>
-      </c>
-      <c r="AE39" s="15" t="s">
-        <v>970</v>
-      </c>
-      <c r="AF39" s="15" t="s">
-        <v>1102</v>
       </c>
       <c r="AG39" s="15" t="s">
         <v>726</v>
       </c>
       <c r="AH39" s="15" t="s">
+        <v>1101</v>
+      </c>
+      <c r="AI39" s="15" t="s">
         <v>1103</v>
       </c>
-      <c r="AI39" s="15" t="s">
+      <c r="AJ39" s="15" t="s">
+        <v>1104</v>
+      </c>
+      <c r="AK39" s="15" t="s">
         <v>1105</v>
       </c>
-      <c r="AJ39" s="15" t="s">
+      <c r="AL39" s="15" t="s">
         <v>1106</v>
-      </c>
-      <c r="AK39" s="15" t="s">
-        <v>1107</v>
-      </c>
-      <c r="AL39" s="15" t="s">
-        <v>1108</v>
       </c>
       <c r="AM39" s="15" t="s">
         <v>327</v>
       </c>
       <c r="AN39" s="15" t="s">
+        <v>1051</v>
+      </c>
+      <c r="AO39" s="15" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AP39" s="15" t="s">
         <v>1053</v>
       </c>
-      <c r="AO39" s="15" t="s">
-        <v>1003</v>
-      </c>
-      <c r="AP39" s="15" t="s">
-        <v>1055</v>
-      </c>
       <c r="AQ39" s="15" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="AR39" s="15" t="s">
         <v>80</v>
       </c>
       <c r="AS39" s="15" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="AT39" s="15" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="AU39" s="15" t="s">
         <v>413</v>
       </c>
       <c r="AV39" s="15" t="s">
+        <v>1110</v>
+      </c>
+      <c r="AW39" s="15" t="s">
+        <v>1111</v>
+      </c>
+      <c r="AX39" s="15" t="s">
         <v>1112</v>
-      </c>
-      <c r="AW39" s="15" t="s">
-        <v>1113</v>
-      </c>
-      <c r="AX39" s="15" t="s">
-        <v>1114</v>
       </c>
       <c r="AY39" s="1" t="s">
         <v>168</v>
       </c>
       <c r="AZ39" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="BA39" s="1" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="BB39" s="12" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="40" spans="1:54">
@@ -10556,37 +11048,37 @@
         <v>999</v>
       </c>
       <c r="G40" t="s">
+        <v>1114</v>
+      </c>
+      <c r="H40">
+        <v>999</v>
+      </c>
+      <c r="I40" s="11">
+        <v>999</v>
+      </c>
+      <c r="J40" s="11">
+        <v>999</v>
+      </c>
+      <c r="K40" s="11">
+        <v>999</v>
+      </c>
+      <c r="L40" t="s">
+        <v>1091</v>
+      </c>
+      <c r="M40">
+        <v>999</v>
+      </c>
+      <c r="N40" t="s">
+        <v>1090</v>
+      </c>
+      <c r="O40">
+        <v>999</v>
+      </c>
+      <c r="P40" t="s">
+        <v>1115</v>
+      </c>
+      <c r="Q40" t="s">
         <v>1116</v>
-      </c>
-      <c r="H40">
-        <v>999</v>
-      </c>
-      <c r="I40" s="11">
-        <v>999</v>
-      </c>
-      <c r="J40" s="11">
-        <v>999</v>
-      </c>
-      <c r="K40" s="11">
-        <v>999</v>
-      </c>
-      <c r="L40" t="s">
-        <v>1093</v>
-      </c>
-      <c r="M40">
-        <v>999</v>
-      </c>
-      <c r="N40" t="s">
-        <v>1092</v>
-      </c>
-      <c r="O40">
-        <v>999</v>
-      </c>
-      <c r="P40" t="s">
-        <v>1117</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>1118</v>
       </c>
       <c r="R40">
         <v>999</v>
@@ -10601,16 +11093,16 @@
         <v>999</v>
       </c>
       <c r="V40" s="12" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="W40" s="12" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="X40" s="12" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="Y40" s="12" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="Z40">
         <v>999</v>
@@ -10619,85 +11111,85 @@
         <v>601</v>
       </c>
       <c r="AB40" s="15" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="AC40" s="15" t="s">
+        <v>1119</v>
+      </c>
+      <c r="AD40" s="15" t="s">
+        <v>1120</v>
+      </c>
+      <c r="AE40" s="15" t="s">
+        <v>968</v>
+      </c>
+      <c r="AF40" s="15" t="s">
         <v>1121</v>
       </c>
-      <c r="AD40" s="15" t="s">
+      <c r="AG40" s="15" t="s">
         <v>1122</v>
       </c>
-      <c r="AE40" s="15" t="s">
-        <v>970</v>
-      </c>
-      <c r="AF40" s="15" t="s">
+      <c r="AH40" s="15" t="s">
         <v>1123</v>
       </c>
-      <c r="AG40" s="15" t="s">
-        <v>1124</v>
-      </c>
-      <c r="AH40" s="15" t="s">
+      <c r="AI40" s="15" t="s">
         <v>1125</v>
       </c>
-      <c r="AI40" s="15" t="s">
+      <c r="AJ40" s="15" t="s">
+        <v>1104</v>
+      </c>
+      <c r="AK40" s="15" t="s">
+        <v>1126</v>
+      </c>
+      <c r="AL40" s="15" t="s">
         <v>1127</v>
-      </c>
-      <c r="AJ40" s="15" t="s">
-        <v>1106</v>
-      </c>
-      <c r="AK40" s="15" t="s">
-        <v>1128</v>
-      </c>
-      <c r="AL40" s="15" t="s">
-        <v>1129</v>
       </c>
       <c r="AM40" s="15" t="s">
         <v>327</v>
       </c>
       <c r="AN40" s="15" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="AO40" s="15" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="AP40" s="15" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="AQ40" s="15" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="AR40" s="15" t="s">
         <v>80</v>
       </c>
       <c r="AS40" s="15" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="AT40" s="15" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="AU40" s="15" t="s">
         <v>413</v>
       </c>
       <c r="AV40" s="15" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="AW40" s="15" t="s">
+        <v>1111</v>
+      </c>
+      <c r="AX40" s="15" t="s">
+        <v>1112</v>
+      </c>
+      <c r="AY40" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="AZ40" t="s">
+        <v>1124</v>
+      </c>
+      <c r="BA40" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="BB40" s="12" t="s">
         <v>1113</v>
-      </c>
-      <c r="AX40" s="15" t="s">
-        <v>1114</v>
-      </c>
-      <c r="AY40" s="1" t="s">
-        <v>1134</v>
-      </c>
-      <c r="AZ40" t="s">
-        <v>1126</v>
-      </c>
-      <c r="BA40" s="1" t="s">
-        <v>1109</v>
-      </c>
-      <c r="BB40" s="12" t="s">
-        <v>1115</v>
       </c>
     </row>
     <row r="41" spans="1:54">
@@ -10720,7 +11212,7 @@
         <v>1</v>
       </c>
       <c r="G41" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="H41" t="s">
         <v>243</v>
@@ -10732,25 +11224,25 @@
         <v>7.3</v>
       </c>
       <c r="K41" s="11" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="L41" s="11" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="M41">
         <v>999</v>
       </c>
       <c r="N41" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="O41" t="s">
         <v>366</v>
       </c>
       <c r="P41" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="Q41" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="R41">
         <v>999</v>
@@ -10765,94 +11257,94 @@
         <v>999</v>
       </c>
       <c r="V41" s="12" t="s">
+        <v>1138</v>
+      </c>
+      <c r="W41" s="12" t="s">
+        <v>1139</v>
+      </c>
+      <c r="X41" s="12" t="s">
         <v>1140</v>
       </c>
-      <c r="W41" s="12" t="s">
+      <c r="Y41" s="12" t="s">
+        <v>1143</v>
+      </c>
+      <c r="Z41" s="12" t="s">
         <v>1141</v>
       </c>
-      <c r="X41" s="12" t="s">
+      <c r="AA41" s="12" t="s">
         <v>1142</v>
       </c>
-      <c r="Y41" s="12" t="s">
+      <c r="AB41" s="15" t="s">
+        <v>1144</v>
+      </c>
+      <c r="AC41" s="15" t="s">
         <v>1145</v>
       </c>
-      <c r="Z41" s="12" t="s">
-        <v>1143</v>
-      </c>
-      <c r="AA41" s="12" t="s">
-        <v>1144</v>
-      </c>
-      <c r="AB41" s="15" t="s">
+      <c r="AD41" s="15" t="s">
         <v>1146</v>
       </c>
-      <c r="AC41" s="15" t="s">
+      <c r="AE41" s="15" t="s">
         <v>1147</v>
       </c>
-      <c r="AD41" s="15" t="s">
+      <c r="AF41" s="15" t="s">
+        <v>996</v>
+      </c>
+      <c r="AG41" s="15" t="s">
         <v>1148</v>
-      </c>
-      <c r="AE41" s="15" t="s">
-        <v>1149</v>
-      </c>
-      <c r="AF41" s="15" t="s">
-        <v>998</v>
-      </c>
-      <c r="AG41" s="15" t="s">
-        <v>1150</v>
       </c>
       <c r="AH41" s="15" t="s">
         <v>149</v>
       </c>
       <c r="AI41" s="15" t="s">
+        <v>1149</v>
+      </c>
+      <c r="AJ41" s="15" t="s">
+        <v>1150</v>
+      </c>
+      <c r="AK41" s="15" t="s">
+        <v>1048</v>
+      </c>
+      <c r="AL41" s="15" t="s">
         <v>1151</v>
-      </c>
-      <c r="AJ41" s="15" t="s">
-        <v>1152</v>
-      </c>
-      <c r="AK41" s="15" t="s">
-        <v>1050</v>
-      </c>
-      <c r="AL41" s="15" t="s">
-        <v>1153</v>
       </c>
       <c r="AM41" s="15" t="s">
         <v>437</v>
       </c>
       <c r="AN41" s="15" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="AO41" s="15" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="AP41" s="15" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="AQ41" s="15" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="AR41" s="15" t="s">
         <v>80</v>
       </c>
       <c r="AS41" s="15" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="AT41" s="15" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="AU41" s="15" t="s">
         <v>413</v>
       </c>
       <c r="AV41" s="15" t="s">
+        <v>1156</v>
+      </c>
+      <c r="AW41" s="15" t="s">
+        <v>1157</v>
+      </c>
+      <c r="AX41" s="15" t="s">
         <v>1158</v>
       </c>
-      <c r="AW41" s="15" t="s">
+      <c r="AY41" s="1" t="s">
         <v>1159</v>
-      </c>
-      <c r="AX41" s="15" t="s">
-        <v>1160</v>
-      </c>
-      <c r="AY41" s="1" t="s">
-        <v>1161</v>
       </c>
       <c r="AZ41" t="s">
         <v>323</v>
@@ -10861,7 +11353,7 @@
         <v>235</v>
       </c>
       <c r="BB41" s="12" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="42" spans="1:54">
@@ -10884,7 +11376,7 @@
         <v>2</v>
       </c>
       <c r="G42" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="H42" t="s">
         <v>57</v>
@@ -10896,31 +11388,31 @@
         <v>730</v>
       </c>
       <c r="K42" s="11" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="L42" s="11" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="M42">
         <v>999</v>
       </c>
       <c r="N42" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="O42" t="s">
         <v>366</v>
       </c>
       <c r="P42" t="s">
+        <v>1162</v>
+      </c>
+      <c r="Q42" t="s">
         <v>1164</v>
       </c>
-      <c r="Q42" t="s">
-        <v>1166</v>
-      </c>
       <c r="R42">
         <v>999</v>
       </c>
       <c r="S42" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="T42" t="s">
         <v>97</v>
@@ -10929,79 +11421,79 @@
         <v>999</v>
       </c>
       <c r="V42" s="12" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="W42" s="12" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="X42" s="12" t="s">
         <v>743</v>
       </c>
       <c r="Y42" s="12" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="Z42" s="12" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="AA42" s="12" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="AB42" s="15" t="s">
         <v>600</v>
       </c>
       <c r="AC42" s="15" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="AD42" s="15" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="AE42" s="15" t="s">
         <v>848</v>
       </c>
       <c r="AF42" s="15" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="AG42" s="15" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="AH42" s="15" t="s">
         <v>190</v>
       </c>
       <c r="AI42" s="15" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="AJ42" s="15" t="s">
+        <v>1172</v>
+      </c>
+      <c r="AK42" s="15" t="s">
+        <v>1173</v>
+      </c>
+      <c r="AL42" s="15" t="s">
         <v>1174</v>
       </c>
-      <c r="AK42" s="15" t="s">
+      <c r="AM42" s="15" t="s">
         <v>1175</v>
       </c>
-      <c r="AL42" s="15" t="s">
+      <c r="AN42" s="15" t="s">
+        <v>1051</v>
+      </c>
+      <c r="AO42" s="15" t="s">
         <v>1176</v>
       </c>
-      <c r="AM42" s="15" t="s">
+      <c r="AP42" s="15" t="s">
+        <v>1053</v>
+      </c>
+      <c r="AQ42" s="15" t="s">
+        <v>1054</v>
+      </c>
+      <c r="AR42" s="15" t="s">
         <v>1177</v>
-      </c>
-      <c r="AN42" s="15" t="s">
-        <v>1053</v>
-      </c>
-      <c r="AO42" s="15" t="s">
-        <v>1178</v>
-      </c>
-      <c r="AP42" s="15" t="s">
-        <v>1055</v>
-      </c>
-      <c r="AQ42" s="15" t="s">
-        <v>1056</v>
-      </c>
-      <c r="AR42" s="15" t="s">
-        <v>1179</v>
       </c>
       <c r="AS42" s="15" t="s">
         <v>752</v>
       </c>
       <c r="AT42" s="15" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="AU42" s="15" t="s">
         <v>413</v>
@@ -11010,10 +11502,10 @@
         <v>239</v>
       </c>
       <c r="AW42" s="15" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="AX42" s="15" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="AY42" s="1" t="s">
         <v>86</v>
@@ -11025,7 +11517,7 @@
         <v>235</v>
       </c>
       <c r="BB42" s="12" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="43" spans="1:54">
@@ -11048,7 +11540,7 @@
         <v>2</v>
       </c>
       <c r="G43" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="H43" t="s">
         <v>243</v>
@@ -11060,25 +11552,25 @@
         <v>47.3</v>
       </c>
       <c r="K43" s="11" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="L43" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="M43">
         <v>999</v>
       </c>
       <c r="N43" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="O43">
         <v>999</v>
       </c>
       <c r="P43" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="Q43" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="R43">
         <v>999</v>
@@ -11093,37 +11585,37 @@
         <v>999</v>
       </c>
       <c r="V43" s="12" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="W43" s="12" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="X43" s="12" t="s">
         <v>743</v>
       </c>
       <c r="Y43" s="12" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="Z43" s="12" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="AA43" s="12" t="s">
         <v>397</v>
       </c>
       <c r="AB43" s="15" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="AC43" s="15" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="AD43" s="15" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="AE43" s="15" t="s">
         <v>848</v>
       </c>
       <c r="AF43" s="15" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="AG43" s="15" t="s">
         <v>850</v>
@@ -11132,52 +11624,52 @@
         <v>190</v>
       </c>
       <c r="AI43" s="15" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="AJ43" s="15" t="s">
         <v>227</v>
       </c>
       <c r="AK43" s="15" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="AL43" s="15" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="AM43" s="15" t="s">
         <v>327</v>
       </c>
       <c r="AN43" s="15" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="AO43" s="15" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="AP43" s="15" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="AQ43" s="15" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="AR43" s="15" t="s">
         <v>80</v>
       </c>
       <c r="AS43" s="15" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="AT43" s="15" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="AU43" s="15" t="s">
         <v>413</v>
       </c>
       <c r="AV43" s="15" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="AW43" s="15" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="AX43" s="15" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="AY43" s="1" t="s">
         <v>168</v>
@@ -11186,9 +11678,1649 @@
         <v>323</v>
       </c>
       <c r="BA43" s="1" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="BB43">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:54">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="14">
+        <v>44746</v>
+      </c>
+      <c r="C44" t="s">
+        <v>54</v>
+      </c>
+      <c r="D44" t="s">
+        <v>55</v>
+      </c>
+      <c r="E44">
+        <v>14</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="G44" t="s">
+        <v>1193</v>
+      </c>
+      <c r="H44" t="s">
+        <v>243</v>
+      </c>
+      <c r="I44" s="9">
+        <v>5.3</v>
+      </c>
+      <c r="J44" s="9">
+        <v>7.3</v>
+      </c>
+      <c r="K44" s="11" t="s">
+        <v>1161</v>
+      </c>
+      <c r="L44" s="11" t="s">
+        <v>1090</v>
+      </c>
+      <c r="M44">
+        <v>999</v>
+      </c>
+      <c r="N44" t="s">
+        <v>1090</v>
+      </c>
+      <c r="O44" t="s">
+        <v>366</v>
+      </c>
+      <c r="P44" t="s">
+        <v>1317</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>1194</v>
+      </c>
+      <c r="R44" t="s">
+        <v>1195</v>
+      </c>
+      <c r="S44">
+        <v>999</v>
+      </c>
+      <c r="T44" t="s">
+        <v>178</v>
+      </c>
+      <c r="U44" s="1">
+        <v>999</v>
+      </c>
+      <c r="V44" s="12" t="s">
+        <v>1217</v>
+      </c>
+      <c r="W44" s="12" t="s">
+        <v>1196</v>
+      </c>
+      <c r="X44" s="12" t="s">
+        <v>1197</v>
+      </c>
+      <c r="Y44" s="12" t="s">
+        <v>1198</v>
+      </c>
+      <c r="Z44" s="12" t="s">
+        <v>1199</v>
+      </c>
+      <c r="AA44" s="12" t="s">
+        <v>1041</v>
+      </c>
+      <c r="AB44" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="AC44" s="15" t="s">
+        <v>652</v>
+      </c>
+      <c r="AD44" s="15" t="s">
+        <v>995</v>
+      </c>
+      <c r="AE44" s="15" t="s">
+        <v>1200</v>
+      </c>
+      <c r="AF44" s="15" t="s">
+        <v>1201</v>
+      </c>
+      <c r="AG44" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="AH44" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="AI44" s="15" t="s">
+        <v>1202</v>
+      </c>
+      <c r="AJ44" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="AK44" s="15" t="s">
+        <v>1173</v>
+      </c>
+      <c r="AL44" s="15" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AM44" s="15" t="s">
+        <v>1204</v>
+      </c>
+      <c r="AN44" s="15" t="s">
+        <v>1051</v>
+      </c>
+      <c r="AO44" s="15" t="s">
+        <v>1205</v>
+      </c>
+      <c r="AP44" s="15" t="s">
+        <v>1053</v>
+      </c>
+      <c r="AQ44" s="15" t="s">
+        <v>1206</v>
+      </c>
+      <c r="AR44" s="15" t="s">
+        <v>1207</v>
+      </c>
+      <c r="AS44" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="AT44" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU44" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="AV44" s="15" t="s">
+        <v>1208</v>
+      </c>
+      <c r="AW44" s="15" t="s">
+        <v>1209</v>
+      </c>
+      <c r="AX44" s="15" t="s">
+        <v>1210</v>
+      </c>
+      <c r="AY44" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="AZ44" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="BA44" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="BB44" s="12" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="45" spans="1:54">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="14">
+        <v>44746</v>
+      </c>
+      <c r="C45" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45" t="s">
+        <v>55</v>
+      </c>
+      <c r="E45">
+        <v>14</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="G45" t="s">
+        <v>1213</v>
+      </c>
+      <c r="H45" t="s">
+        <v>57</v>
+      </c>
+      <c r="I45" s="11">
+        <v>530</v>
+      </c>
+      <c r="J45" s="11">
+        <v>730</v>
+      </c>
+      <c r="K45" s="11" t="s">
+        <v>1161</v>
+      </c>
+      <c r="L45" s="11" t="s">
+        <v>1090</v>
+      </c>
+      <c r="M45">
+        <v>999</v>
+      </c>
+      <c r="N45" t="s">
+        <v>1214</v>
+      </c>
+      <c r="O45" t="s">
+        <v>366</v>
+      </c>
+      <c r="P45" t="s">
+        <v>1215</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>1194</v>
+      </c>
+      <c r="R45">
+        <v>999</v>
+      </c>
+      <c r="S45">
+        <v>999</v>
+      </c>
+      <c r="T45" t="s">
+        <v>97</v>
+      </c>
+      <c r="U45" s="1">
+        <v>999</v>
+      </c>
+      <c r="V45" s="12" t="s">
+        <v>1216</v>
+      </c>
+      <c r="W45" s="12" t="s">
+        <v>1218</v>
+      </c>
+      <c r="X45" s="12" t="s">
+        <v>743</v>
+      </c>
+      <c r="Y45" s="12" t="s">
+        <v>1198</v>
+      </c>
+      <c r="Z45" s="12" t="s">
+        <v>809</v>
+      </c>
+      <c r="AA45" s="12" t="s">
+        <v>1041</v>
+      </c>
+      <c r="AB45" s="15" t="s">
+        <v>1219</v>
+      </c>
+      <c r="AC45" s="15" t="s">
+        <v>1145</v>
+      </c>
+      <c r="AD45" s="15" t="s">
+        <v>995</v>
+      </c>
+      <c r="AE45" s="15" t="s">
+        <v>968</v>
+      </c>
+      <c r="AF45" s="15" t="s">
+        <v>1170</v>
+      </c>
+      <c r="AG45" s="15" t="s">
+        <v>1220</v>
+      </c>
+      <c r="AH45" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="AI45" s="15" t="s">
+        <v>1103</v>
+      </c>
+      <c r="AJ45" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="AK45" s="15" t="s">
+        <v>1221</v>
+      </c>
+      <c r="AL45" s="15" t="s">
+        <v>1222</v>
+      </c>
+      <c r="AM45" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="AN45" s="15" t="s">
+        <v>1223</v>
+      </c>
+      <c r="AO45" s="15" t="s">
+        <v>1224</v>
+      </c>
+      <c r="AP45" s="15" t="s">
+        <v>1053</v>
+      </c>
+      <c r="AQ45" s="15" t="s">
+        <v>1225</v>
+      </c>
+      <c r="AR45" s="15" t="s">
+        <v>1226</v>
+      </c>
+      <c r="AS45" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="AT45" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="AU45" s="15" t="s">
+        <v>1228</v>
+      </c>
+      <c r="AV45" s="15" t="s">
+        <v>1229</v>
+      </c>
+      <c r="AW45" s="15" t="s">
+        <v>1230</v>
+      </c>
+      <c r="AX45" s="15" t="s">
+        <v>1231</v>
+      </c>
+      <c r="AY45" s="1" t="s">
+        <v>1232</v>
+      </c>
+      <c r="AZ45" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="BA45" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="BB45">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:54">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="14">
+        <v>44746</v>
+      </c>
+      <c r="C46" t="s">
+        <v>54</v>
+      </c>
+      <c r="D46" t="s">
+        <v>55</v>
+      </c>
+      <c r="E46">
+        <v>14</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="G46" t="s">
+        <v>1213</v>
+      </c>
+      <c r="H46" t="s">
+        <v>57</v>
+      </c>
+      <c r="I46" s="11">
+        <v>530</v>
+      </c>
+      <c r="J46" s="11">
+        <v>730</v>
+      </c>
+      <c r="K46" s="11" t="s">
+        <v>1161</v>
+      </c>
+      <c r="L46" s="11" t="s">
+        <v>1090</v>
+      </c>
+      <c r="M46">
+        <v>999</v>
+      </c>
+      <c r="N46" t="s">
+        <v>1214</v>
+      </c>
+      <c r="O46" t="s">
+        <v>366</v>
+      </c>
+      <c r="P46" t="s">
+        <v>1215</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>1194</v>
+      </c>
+      <c r="R46">
+        <v>999</v>
+      </c>
+      <c r="S46">
+        <v>999</v>
+      </c>
+      <c r="T46" t="s">
+        <v>97</v>
+      </c>
+      <c r="U46" s="1">
+        <v>999</v>
+      </c>
+      <c r="V46" s="12" t="s">
+        <v>1216</v>
+      </c>
+      <c r="W46" s="12" t="s">
+        <v>807</v>
+      </c>
+      <c r="X46" s="12" t="s">
+        <v>1197</v>
+      </c>
+      <c r="Y46" s="12" t="s">
+        <v>1198</v>
+      </c>
+      <c r="Z46" s="12" t="s">
+        <v>1233</v>
+      </c>
+      <c r="AA46" s="12" t="s">
+        <v>1041</v>
+      </c>
+      <c r="AB46" s="15" t="s">
+        <v>1234</v>
+      </c>
+      <c r="AC46" s="15" t="s">
+        <v>652</v>
+      </c>
+      <c r="AD46" s="15" t="s">
+        <v>995</v>
+      </c>
+      <c r="AE46" s="15" t="s">
+        <v>968</v>
+      </c>
+      <c r="AF46" s="15" t="s">
+        <v>996</v>
+      </c>
+      <c r="AG46" s="15" t="s">
+        <v>1045</v>
+      </c>
+      <c r="AH46" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="AI46" s="15" t="s">
+        <v>1125</v>
+      </c>
+      <c r="AJ46" s="15" t="s">
+        <v>1235</v>
+      </c>
+      <c r="AK46" s="15" t="s">
+        <v>1236</v>
+      </c>
+      <c r="AL46" s="15" t="s">
+        <v>1237</v>
+      </c>
+      <c r="AM46" s="15" t="s">
+        <v>437</v>
+      </c>
+      <c r="AN46" s="15" t="s">
+        <v>1223</v>
+      </c>
+      <c r="AO46" s="15" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AP46" s="15" t="s">
+        <v>1238</v>
+      </c>
+      <c r="AQ46" s="15" t="s">
+        <v>1054</v>
+      </c>
+      <c r="AR46" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS46" s="15" t="s">
+        <v>752</v>
+      </c>
+      <c r="AT46" s="15" t="s">
+        <v>1242</v>
+      </c>
+      <c r="AU46" s="15" t="s">
+        <v>1239</v>
+      </c>
+      <c r="AV46" s="15" t="s">
+        <v>1240</v>
+      </c>
+      <c r="AW46" s="15" t="s">
+        <v>1241</v>
+      </c>
+      <c r="AX46" s="15" t="s">
+        <v>1057</v>
+      </c>
+      <c r="AY46" s="1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AZ46" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="BA46" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="BB46">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:54">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="14">
+        <v>44746</v>
+      </c>
+      <c r="C47" t="s">
+        <v>54</v>
+      </c>
+      <c r="D47" t="s">
+        <v>55</v>
+      </c>
+      <c r="E47">
+        <v>14</v>
+      </c>
+      <c r="F47">
+        <v>2</v>
+      </c>
+      <c r="G47" t="s">
+        <v>1244</v>
+      </c>
+      <c r="H47" t="s">
+        <v>57</v>
+      </c>
+      <c r="I47" s="11">
+        <v>530</v>
+      </c>
+      <c r="J47" s="11">
+        <v>730</v>
+      </c>
+      <c r="K47" s="11" t="s">
+        <v>1161</v>
+      </c>
+      <c r="L47" s="11" t="s">
+        <v>1090</v>
+      </c>
+      <c r="M47">
+        <v>999</v>
+      </c>
+      <c r="N47" t="s">
+        <v>1214</v>
+      </c>
+      <c r="O47" t="s">
+        <v>366</v>
+      </c>
+      <c r="P47" t="s">
+        <v>1215</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>1194</v>
+      </c>
+      <c r="R47">
+        <v>9999</v>
+      </c>
+      <c r="S47">
+        <v>999</v>
+      </c>
+      <c r="T47" t="s">
+        <v>97</v>
+      </c>
+      <c r="U47" s="1">
+        <v>999</v>
+      </c>
+      <c r="V47" s="12" t="s">
+        <v>1216</v>
+      </c>
+      <c r="W47" s="12" t="s">
+        <v>1245</v>
+      </c>
+      <c r="X47" s="12" t="s">
+        <v>1197</v>
+      </c>
+      <c r="Y47" s="12" t="s">
+        <v>1198</v>
+      </c>
+      <c r="Z47" s="12" t="s">
+        <v>1233</v>
+      </c>
+      <c r="AA47" s="12" t="s">
+        <v>1041</v>
+      </c>
+      <c r="AB47" s="15" t="s">
+        <v>600</v>
+      </c>
+      <c r="AC47" s="15" t="s">
+        <v>652</v>
+      </c>
+      <c r="AD47" s="15" t="s">
+        <v>995</v>
+      </c>
+      <c r="AE47" s="15" t="s">
+        <v>968</v>
+      </c>
+      <c r="AF47" s="15" t="s">
+        <v>996</v>
+      </c>
+      <c r="AG47" s="15" t="s">
+        <v>1246</v>
+      </c>
+      <c r="AH47" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="AI47" s="15" t="s">
+        <v>1125</v>
+      </c>
+      <c r="AJ47" s="15" t="s">
+        <v>1235</v>
+      </c>
+      <c r="AK47" s="15" t="s">
+        <v>1236</v>
+      </c>
+      <c r="AL47" s="15" t="s">
+        <v>1247</v>
+      </c>
+      <c r="AM47" s="15" t="s">
+        <v>437</v>
+      </c>
+      <c r="AN47" s="15" t="s">
+        <v>1223</v>
+      </c>
+      <c r="AO47" s="15" t="s">
+        <v>1248</v>
+      </c>
+      <c r="AP47" s="15" t="s">
+        <v>1238</v>
+      </c>
+      <c r="AQ47" s="15" t="s">
+        <v>1054</v>
+      </c>
+      <c r="AR47" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS47" s="15" t="s">
+        <v>1249</v>
+      </c>
+      <c r="AT47" s="15" t="s">
+        <v>1250</v>
+      </c>
+      <c r="AU47" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="AV47" s="15" t="s">
+        <v>1240</v>
+      </c>
+      <c r="AW47" s="15" t="s">
+        <v>1241</v>
+      </c>
+      <c r="AX47" s="15" t="s">
+        <v>1057</v>
+      </c>
+      <c r="AY47" s="1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="AZ47" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="BA47" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="BB47">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:54">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="14">
+        <v>44746</v>
+      </c>
+      <c r="C48" t="s">
+        <v>54</v>
+      </c>
+      <c r="D48" t="s">
+        <v>55</v>
+      </c>
+      <c r="E48">
+        <v>14</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+      <c r="G48" t="s">
+        <v>1252</v>
+      </c>
+      <c r="H48" t="s">
+        <v>57</v>
+      </c>
+      <c r="I48" s="11">
+        <v>530</v>
+      </c>
+      <c r="J48" s="11">
+        <v>730</v>
+      </c>
+      <c r="K48" s="11" t="s">
+        <v>1161</v>
+      </c>
+      <c r="L48" s="11" t="s">
+        <v>1090</v>
+      </c>
+      <c r="M48">
+        <v>999</v>
+      </c>
+      <c r="N48" t="s">
+        <v>1214</v>
+      </c>
+      <c r="O48" t="s">
+        <v>366</v>
+      </c>
+      <c r="P48" t="s">
+        <v>1215</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>1194</v>
+      </c>
+      <c r="R48">
+        <v>999</v>
+      </c>
+      <c r="S48">
+        <v>999</v>
+      </c>
+      <c r="T48" t="s">
+        <v>97</v>
+      </c>
+      <c r="U48" s="1">
+        <v>999</v>
+      </c>
+      <c r="V48" s="12" t="s">
+        <v>1216</v>
+      </c>
+      <c r="W48" s="12" t="s">
+        <v>1253</v>
+      </c>
+      <c r="X48" s="12" t="s">
+        <v>743</v>
+      </c>
+      <c r="Y48" s="12" t="s">
+        <v>1198</v>
+      </c>
+      <c r="Z48" s="12" t="s">
+        <v>809</v>
+      </c>
+      <c r="AA48" s="12" t="s">
+        <v>1041</v>
+      </c>
+      <c r="AB48" s="15" t="s">
+        <v>1254</v>
+      </c>
+      <c r="AC48" s="15" t="s">
+        <v>1145</v>
+      </c>
+      <c r="AD48" s="15" t="s">
+        <v>995</v>
+      </c>
+      <c r="AE48" s="15" t="s">
+        <v>968</v>
+      </c>
+      <c r="AF48" s="15" t="s">
+        <v>1170</v>
+      </c>
+      <c r="AG48" s="15" t="s">
+        <v>1045</v>
+      </c>
+      <c r="AH48" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="AI48" s="15" t="s">
+        <v>1149</v>
+      </c>
+      <c r="AJ48" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="AK48" s="15" t="s">
+        <v>1221</v>
+      </c>
+      <c r="AL48" s="15" t="s">
+        <v>1255</v>
+      </c>
+      <c r="AM48" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="AN48" s="15" t="s">
+        <v>1223</v>
+      </c>
+      <c r="AO48" s="15" t="s">
+        <v>1224</v>
+      </c>
+      <c r="AP48" s="15" t="s">
+        <v>1053</v>
+      </c>
+      <c r="AQ48" s="15" t="s">
+        <v>1225</v>
+      </c>
+      <c r="AR48" s="15" t="s">
+        <v>1226</v>
+      </c>
+      <c r="AS48" s="15" t="s">
+        <v>752</v>
+      </c>
+      <c r="AT48" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="AU48" s="15" t="s">
+        <v>1256</v>
+      </c>
+      <c r="AV48" s="15" t="s">
+        <v>1257</v>
+      </c>
+      <c r="AW48" s="15" t="s">
+        <v>1230</v>
+      </c>
+      <c r="AX48" s="15" t="s">
+        <v>1231</v>
+      </c>
+      <c r="AY48" s="1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="AZ48" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="BA48" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="BB48">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:54">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="14">
+        <v>44746</v>
+      </c>
+      <c r="C49" t="s">
+        <v>54</v>
+      </c>
+      <c r="D49" t="s">
+        <v>55</v>
+      </c>
+      <c r="E49">
+        <v>14</v>
+      </c>
+      <c r="F49">
+        <v>2</v>
+      </c>
+      <c r="G49" t="s">
+        <v>1258</v>
+      </c>
+      <c r="H49" t="s">
+        <v>57</v>
+      </c>
+      <c r="I49" s="11">
+        <v>530</v>
+      </c>
+      <c r="J49" s="11">
+        <v>730</v>
+      </c>
+      <c r="K49" s="11" t="s">
+        <v>1161</v>
+      </c>
+      <c r="L49" s="11" t="s">
+        <v>1090</v>
+      </c>
+      <c r="M49" s="11">
+        <v>999</v>
+      </c>
+      <c r="N49" t="s">
+        <v>1090</v>
+      </c>
+      <c r="O49" t="s">
+        <v>366</v>
+      </c>
+      <c r="P49" t="s">
+        <v>1259</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>1164</v>
+      </c>
+      <c r="R49">
+        <v>999</v>
+      </c>
+      <c r="S49" t="s">
+        <v>1260</v>
+      </c>
+      <c r="T49" t="s">
+        <v>97</v>
+      </c>
+      <c r="U49" s="1">
+        <v>999</v>
+      </c>
+      <c r="V49" s="12" t="s">
+        <v>1165</v>
+      </c>
+      <c r="W49" s="12" t="s">
+        <v>1166</v>
+      </c>
+      <c r="X49" s="12" t="s">
+        <v>743</v>
+      </c>
+      <c r="Y49" s="12" t="s">
+        <v>1096</v>
+      </c>
+      <c r="Z49" s="12" t="s">
+        <v>1261</v>
+      </c>
+      <c r="AA49" s="12" t="s">
+        <v>1041</v>
+      </c>
+      <c r="AB49" s="15" t="s">
+        <v>600</v>
+      </c>
+      <c r="AC49" s="15" t="s">
+        <v>1168</v>
+      </c>
+      <c r="AD49" s="15" t="s">
+        <v>1169</v>
+      </c>
+      <c r="AE49" s="15" t="s">
+        <v>848</v>
+      </c>
+      <c r="AF49" s="15" t="s">
+        <v>1170</v>
+      </c>
+      <c r="AG49" s="15" t="s">
+        <v>1045</v>
+      </c>
+      <c r="AH49" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="AI49" s="15" t="s">
+        <v>1103</v>
+      </c>
+      <c r="AJ49" s="15" t="s">
+        <v>1172</v>
+      </c>
+      <c r="AK49" s="15" t="s">
+        <v>1173</v>
+      </c>
+      <c r="AL49" s="15" t="s">
+        <v>1174</v>
+      </c>
+      <c r="AM49" s="15" t="s">
+        <v>1175</v>
+      </c>
+      <c r="AN49" s="15" t="s">
+        <v>1051</v>
+      </c>
+      <c r="AO49" s="15" t="s">
+        <v>1176</v>
+      </c>
+      <c r="AP49" s="15" t="s">
+        <v>1053</v>
+      </c>
+      <c r="AQ49" s="15" t="s">
+        <v>1054</v>
+      </c>
+      <c r="AR49" s="15" t="s">
+        <v>1177</v>
+      </c>
+      <c r="AS49" s="15" t="s">
+        <v>752</v>
+      </c>
+      <c r="AT49" s="15" t="s">
+        <v>1109</v>
+      </c>
+      <c r="AU49" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="AV49" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="AW49" s="15" t="s">
+        <v>1111</v>
+      </c>
+      <c r="AX49" s="15" t="s">
+        <v>1178</v>
+      </c>
+      <c r="AY49" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AZ49" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="BA49" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="BB49">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:54">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="14">
+        <v>44746</v>
+      </c>
+      <c r="C50" t="s">
+        <v>54</v>
+      </c>
+      <c r="D50" t="s">
+        <v>55</v>
+      </c>
+      <c r="E50">
+        <v>15</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50" t="s">
+        <v>1262</v>
+      </c>
+      <c r="H50" t="s">
+        <v>243</v>
+      </c>
+      <c r="I50" s="9">
+        <v>5.4</v>
+      </c>
+      <c r="J50" s="9">
+        <v>7.3</v>
+      </c>
+      <c r="K50" s="11" t="s">
+        <v>1263</v>
+      </c>
+      <c r="L50" s="11" t="s">
+        <v>1181</v>
+      </c>
+      <c r="M50" s="11">
+        <v>999</v>
+      </c>
+      <c r="N50" t="s">
+        <v>1090</v>
+      </c>
+      <c r="O50" t="s">
+        <v>366</v>
+      </c>
+      <c r="P50" t="s">
+        <v>1265</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>1264</v>
+      </c>
+      <c r="R50">
+        <v>999</v>
+      </c>
+      <c r="S50">
+        <v>999</v>
+      </c>
+      <c r="T50" t="s">
+        <v>313</v>
+      </c>
+      <c r="U50" s="16" t="s">
+        <v>1265</v>
+      </c>
+      <c r="V50" s="12" t="s">
+        <v>544</v>
+      </c>
+      <c r="W50" s="12" t="s">
+        <v>1266</v>
+      </c>
+      <c r="X50" s="12" t="s">
+        <v>765</v>
+      </c>
+      <c r="Y50" s="12" t="s">
+        <v>1267</v>
+      </c>
+      <c r="Z50" s="12" t="s">
+        <v>1268</v>
+      </c>
+      <c r="AA50">
+        <v>999</v>
+      </c>
+      <c r="AB50" s="15" t="s">
+        <v>1269</v>
+      </c>
+      <c r="AC50" s="15" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AD50" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="AE50" s="15" t="s">
+        <v>493</v>
+      </c>
+      <c r="AF50" s="15" t="s">
+        <v>1271</v>
+      </c>
+      <c r="AG50" s="15" t="s">
+        <v>1272</v>
+      </c>
+      <c r="AH50" s="15" t="s">
+        <v>1273</v>
+      </c>
+      <c r="AI50" s="15" t="s">
+        <v>1274</v>
+      </c>
+      <c r="AJ50" s="15" t="s">
+        <v>1275</v>
+      </c>
+      <c r="AK50" s="15" t="s">
+        <v>1276</v>
+      </c>
+      <c r="AL50" s="15" t="s">
+        <v>1277</v>
+      </c>
+      <c r="AM50" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="AN50" s="15" t="s">
+        <v>1278</v>
+      </c>
+      <c r="AO50" s="15" t="s">
+        <v>1279</v>
+      </c>
+      <c r="AP50" s="15" t="s">
+        <v>1280</v>
+      </c>
+      <c r="AQ50" s="15" t="s">
+        <v>1054</v>
+      </c>
+      <c r="AR50" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="AS50" s="15" t="s">
+        <v>1281</v>
+      </c>
+      <c r="AT50" s="15" t="s">
+        <v>1282</v>
+      </c>
+      <c r="AU50" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="AV50" s="15" t="s">
+        <v>1283</v>
+      </c>
+      <c r="AW50" s="15" t="s">
+        <v>1284</v>
+      </c>
+      <c r="AX50" s="15" t="s">
+        <v>1057</v>
+      </c>
+      <c r="AY50" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="AZ50" s="15" t="s">
+        <v>814</v>
+      </c>
+      <c r="BA50" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="BB50">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:54">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="14">
+        <v>44746</v>
+      </c>
+      <c r="C51" t="s">
+        <v>54</v>
+      </c>
+      <c r="D51" t="s">
+        <v>55</v>
+      </c>
+      <c r="E51">
+        <v>15</v>
+      </c>
+      <c r="F51">
+        <v>2</v>
+      </c>
+      <c r="G51" t="s">
+        <v>1285</v>
+      </c>
+      <c r="H51" t="s">
+        <v>243</v>
+      </c>
+      <c r="I51" s="9">
+        <v>5.4</v>
+      </c>
+      <c r="J51" s="9">
+        <v>7.3</v>
+      </c>
+      <c r="K51" s="11" t="s">
+        <v>1286</v>
+      </c>
+      <c r="L51" s="11" t="s">
+        <v>1287</v>
+      </c>
+      <c r="M51" s="11">
+        <v>999</v>
+      </c>
+      <c r="N51" t="s">
+        <v>1214</v>
+      </c>
+      <c r="O51" t="s">
+        <v>1008</v>
+      </c>
+      <c r="P51" t="s">
+        <v>1288</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>1289</v>
+      </c>
+      <c r="R51">
+        <v>999</v>
+      </c>
+      <c r="S51">
+        <v>999</v>
+      </c>
+      <c r="T51" t="s">
+        <v>1291</v>
+      </c>
+      <c r="U51" s="1" t="s">
+        <v>1290</v>
+      </c>
+      <c r="V51" s="12" t="s">
+        <v>1292</v>
+      </c>
+      <c r="W51" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="X51" s="12" t="s">
+        <v>1293</v>
+      </c>
+      <c r="Y51" s="12" t="s">
+        <v>1012</v>
+      </c>
+      <c r="Z51" s="12" t="s">
+        <v>1294</v>
+      </c>
+      <c r="AA51">
+        <v>999</v>
+      </c>
+      <c r="AB51" s="15" t="s">
+        <v>1295</v>
+      </c>
+      <c r="AC51" s="15" t="s">
+        <v>1015</v>
+      </c>
+      <c r="AD51" s="15" t="s">
+        <v>492</v>
+      </c>
+      <c r="AE51" s="15" t="s">
+        <v>1296</v>
+      </c>
+      <c r="AF51" s="15" t="s">
+        <v>1297</v>
+      </c>
+      <c r="AG51" s="15" t="s">
+        <v>1298</v>
+      </c>
+      <c r="AH51" s="15" t="s">
+        <v>1299</v>
+      </c>
+      <c r="AI51" s="15" t="s">
+        <v>1274</v>
+      </c>
+      <c r="AJ51" s="15" t="s">
+        <v>1300</v>
+      </c>
+      <c r="AK51" s="15" t="s">
+        <v>1301</v>
+      </c>
+      <c r="AL51" s="15" t="s">
+        <v>1302</v>
+      </c>
+      <c r="AM51" s="15" t="s">
+        <v>1303</v>
+      </c>
+      <c r="AN51" s="15" t="s">
+        <v>1304</v>
+      </c>
+      <c r="AO51" s="15" t="s">
+        <v>1305</v>
+      </c>
+      <c r="AP51" s="15" t="s">
+        <v>1280</v>
+      </c>
+      <c r="AQ51" s="15" t="s">
+        <v>1054</v>
+      </c>
+      <c r="AR51" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="AS51" s="15" t="s">
+        <v>1307</v>
+      </c>
+      <c r="AT51" s="15" t="s">
+        <v>1308</v>
+      </c>
+      <c r="AU51" s="15" t="s">
+        <v>1309</v>
+      </c>
+      <c r="AV51" s="15" t="s">
+        <v>1310</v>
+      </c>
+      <c r="AW51" s="15" t="s">
+        <v>1311</v>
+      </c>
+      <c r="AX51" s="15" t="s">
+        <v>1312</v>
+      </c>
+      <c r="AY51" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="AZ51" s="15" t="s">
+        <v>814</v>
+      </c>
+      <c r="BA51" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="BB51">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:54">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="14">
+        <v>44746</v>
+      </c>
+      <c r="C52" t="s">
+        <v>54</v>
+      </c>
+      <c r="D52" t="s">
+        <v>55</v>
+      </c>
+      <c r="E52">
+        <v>15</v>
+      </c>
+      <c r="F52">
+        <v>4</v>
+      </c>
+      <c r="G52" t="s">
+        <v>1313</v>
+      </c>
+      <c r="H52" t="s">
+        <v>243</v>
+      </c>
+      <c r="I52" s="9">
+        <v>25.4</v>
+      </c>
+      <c r="J52" s="9">
+        <v>47.3</v>
+      </c>
+      <c r="K52" s="11" t="s">
+        <v>1314</v>
+      </c>
+      <c r="L52" s="11" t="s">
+        <v>1315</v>
+      </c>
+      <c r="M52" t="s">
+        <v>366</v>
+      </c>
+      <c r="N52" t="s">
+        <v>1090</v>
+      </c>
+      <c r="O52" t="s">
+        <v>366</v>
+      </c>
+      <c r="P52" t="s">
+        <v>1316</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>1318</v>
+      </c>
+      <c r="R52">
+        <v>999</v>
+      </c>
+      <c r="S52">
+        <v>999</v>
+      </c>
+      <c r="T52" t="s">
+        <v>313</v>
+      </c>
+      <c r="U52" s="1">
+        <v>999</v>
+      </c>
+      <c r="V52" s="12" t="s">
+        <v>1320</v>
+      </c>
+      <c r="W52" s="12" t="s">
+        <v>1321</v>
+      </c>
+      <c r="X52" s="12" t="s">
+        <v>1322</v>
+      </c>
+      <c r="Y52" s="12" t="s">
+        <v>1267</v>
+      </c>
+      <c r="Z52" s="12" t="s">
+        <v>677</v>
+      </c>
+      <c r="AA52" s="12" t="s">
+        <v>1070</v>
+      </c>
+      <c r="AB52" s="15" t="s">
+        <v>1071</v>
+      </c>
+      <c r="AC52" s="15" t="s">
+        <v>1323</v>
+      </c>
+      <c r="AD52" s="15" t="s">
+        <v>1324</v>
+      </c>
+      <c r="AE52" s="15" t="s">
+        <v>1325</v>
+      </c>
+      <c r="AF52" s="15" t="s">
+        <v>1326</v>
+      </c>
+      <c r="AG52" s="15" t="s">
+        <v>1327</v>
+      </c>
+      <c r="AH52" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="AI52" s="15" t="s">
+        <v>1329</v>
+      </c>
+      <c r="AJ52" s="15" t="s">
+        <v>1330</v>
+      </c>
+      <c r="AK52" s="15" t="s">
+        <v>1331</v>
+      </c>
+      <c r="AL52" s="15" t="s">
+        <v>1332</v>
+      </c>
+      <c r="AM52" s="15" t="s">
+        <v>468</v>
+      </c>
+      <c r="AN52" s="15" t="s">
+        <v>501</v>
+      </c>
+      <c r="AO52" s="15" t="s">
+        <v>1333</v>
+      </c>
+      <c r="AP52" s="15" t="s">
+        <v>1053</v>
+      </c>
+      <c r="AQ52" s="15" t="s">
+        <v>1054</v>
+      </c>
+      <c r="AR52" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="AS52" s="15" t="s">
+        <v>1335</v>
+      </c>
+      <c r="AT52" s="15" t="s">
+        <v>1336</v>
+      </c>
+      <c r="AU52" s="15" t="s">
+        <v>1337</v>
+      </c>
+      <c r="AV52" s="15" t="s">
+        <v>1338</v>
+      </c>
+      <c r="AW52" s="15" t="s">
+        <v>510</v>
+      </c>
+      <c r="AX52">
+        <v>999</v>
+      </c>
+      <c r="AY52" s="1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="AZ52" s="15" t="s">
+        <v>1328</v>
+      </c>
+      <c r="BA52" s="1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="BB52">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:54">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="14">
+        <v>44746</v>
+      </c>
+      <c r="C53" t="s">
+        <v>54</v>
+      </c>
+      <c r="D53" t="s">
+        <v>55</v>
+      </c>
+      <c r="E53">
+        <v>15</v>
+      </c>
+      <c r="F53">
+        <v>5</v>
+      </c>
+      <c r="G53" t="s">
+        <v>1340</v>
+      </c>
+      <c r="H53" t="s">
+        <v>57</v>
+      </c>
+      <c r="I53" s="9">
+        <v>25.4</v>
+      </c>
+      <c r="J53" s="9">
+        <v>47.3</v>
+      </c>
+      <c r="K53" s="11" t="s">
+        <v>1341</v>
+      </c>
+      <c r="L53" s="11" t="s">
+        <v>1342</v>
+      </c>
+      <c r="M53">
+        <v>999</v>
+      </c>
+      <c r="N53" t="s">
+        <v>1214</v>
+      </c>
+      <c r="O53" t="s">
+        <v>366</v>
+      </c>
+      <c r="P53" t="s">
+        <v>1343</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>1344</v>
+      </c>
+      <c r="R53">
+        <v>999</v>
+      </c>
+      <c r="S53">
+        <v>999</v>
+      </c>
+      <c r="T53" t="s">
+        <v>313</v>
+      </c>
+      <c r="U53" s="1">
+        <v>9999</v>
+      </c>
+      <c r="V53" s="12" t="s">
+        <v>1345</v>
+      </c>
+      <c r="W53" s="12" t="s">
+        <v>1066</v>
+      </c>
+      <c r="X53" s="12" t="s">
+        <v>765</v>
+      </c>
+      <c r="Y53" s="12" t="s">
+        <v>1346</v>
+      </c>
+      <c r="Z53" s="12" t="s">
+        <v>1069</v>
+      </c>
+      <c r="AA53" s="12" t="s">
+        <v>1070</v>
+      </c>
+      <c r="AB53" s="15" t="s">
+        <v>1347</v>
+      </c>
+      <c r="AC53" s="15" t="s">
+        <v>1015</v>
+      </c>
+      <c r="AD53" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="AE53" s="15" t="s">
+        <v>1348</v>
+      </c>
+      <c r="AF53" s="15" t="s">
+        <v>1017</v>
+      </c>
+      <c r="AG53" s="15" t="s">
+        <v>1349</v>
+      </c>
+      <c r="AH53" s="15" t="s">
+        <v>1350</v>
+      </c>
+      <c r="AI53" s="15" t="s">
+        <v>1351</v>
+      </c>
+      <c r="AJ53" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="AK53" s="15" t="s">
+        <v>1352</v>
+      </c>
+      <c r="AL53" s="15" t="s">
+        <v>1353</v>
+      </c>
+      <c r="AM53" s="15" t="s">
+        <v>468</v>
+      </c>
+      <c r="AN53" s="15" t="s">
+        <v>501</v>
+      </c>
+      <c r="AO53" s="15" t="s">
+        <v>1354</v>
+      </c>
+      <c r="AP53" s="15" t="s">
+        <v>1023</v>
+      </c>
+      <c r="AQ53" s="15" t="s">
+        <v>1002</v>
+      </c>
+      <c r="AR53" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="AS53" s="15" t="s">
+        <v>506</v>
+      </c>
+      <c r="AT53" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="AU53" s="15" t="s">
+        <v>1355</v>
+      </c>
+      <c r="AV53" s="15" t="s">
+        <v>1356</v>
+      </c>
+      <c r="AW53" s="15" t="s">
+        <v>510</v>
+      </c>
+      <c r="AX53" s="15" t="s">
+        <v>1357</v>
+      </c>
+      <c r="AY53" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="AZ53" s="15" t="s">
+        <v>814</v>
+      </c>
+      <c r="BA53" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="BB53">
         <v>999</v>
       </c>
     </row>

--- a/Data/DWA_FS.xlsx
+++ b/Data/DWA_FS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2307" uniqueCount="1358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2960" uniqueCount="1697">
   <si>
     <t>ID</t>
   </si>
@@ -4138,6 +4138,1023 @@
   </si>
   <si>
     <t>zweien</t>
+  </si>
+  <si>
+    <t>III_17_0063</t>
+  </si>
+  <si>
+    <t>b''</t>
+  </si>
+  <si>
+    <t>y-[t] {könnte auch A sein}</t>
+  </si>
+  <si>
+    <t>Dürlinsdorf</t>
+  </si>
+  <si>
+    <t>Altkirch Ob. Els.</t>
+  </si>
+  <si>
+    <t>W. Wechlin</t>
+  </si>
+  <si>
+    <t>Laicht {e in Klammern}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ägerschde  </t>
+  </si>
+  <si>
+    <t>Rätsch {e in Klammern]</t>
+  </si>
+  <si>
+    <t>Mugge {e in Klammern}</t>
+  </si>
+  <si>
+    <t>Guggel, Huehn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Härdepfel  </t>
+  </si>
+  <si>
+    <t>Rolli {e in Klammern}</t>
+  </si>
+  <si>
+    <t>Schär {unleserliche Buchstabe vor dem Wort}</t>
+  </si>
+  <si>
+    <t>Gälrüeble</t>
+  </si>
+  <si>
+    <t>Mohr {e in Klammern}</t>
+  </si>
+  <si>
+    <t>Geisle {e in Klammern}</t>
+  </si>
+  <si>
+    <t>brüele</t>
+  </si>
+  <si>
+    <t>Stachelbäre</t>
+  </si>
+  <si>
+    <t>Schissele {Tasse halb durchgestrichen}</t>
+  </si>
+  <si>
+    <t>III_17_0064</t>
+  </si>
+  <si>
+    <t>y-u</t>
+  </si>
+  <si>
+    <t>Bendorf</t>
+  </si>
+  <si>
+    <t>Josef H[ä]tzlerunner</t>
+  </si>
+  <si>
+    <t>Bergholz</t>
+  </si>
+  <si>
+    <t>Gebweiler</t>
+  </si>
+  <si>
+    <t>Licht (d', w), Begräbnis (s', s)</t>
+  </si>
+  <si>
+    <t>Bromwa (w)</t>
+  </si>
+  <si>
+    <t>Agerscht (m)</t>
+  </si>
+  <si>
+    <t>Fliaga, Mücka (w)</t>
+  </si>
+  <si>
+    <t>Ämtgraß (s)</t>
+  </si>
+  <si>
+    <t>Gagummra (w)</t>
+  </si>
+  <si>
+    <t>B[u]da (w) {könnte auch ü sein}</t>
+  </si>
+  <si>
+    <t>Gückel (m), Hüan (d', w))</t>
+  </si>
+  <si>
+    <t>Hebama (d', w)</t>
+  </si>
+  <si>
+    <t>Rolli (d'r, m)</t>
+  </si>
+  <si>
+    <t>Scharmüs (d', w)</t>
+  </si>
+  <si>
+    <t>Säirü[o]be (w)</t>
+  </si>
+  <si>
+    <t>Moora (d', w)</t>
+  </si>
+  <si>
+    <t>Gett[e] (m)</t>
+  </si>
+  <si>
+    <t>Rieama</t>
+  </si>
+  <si>
+    <t>Sohnsfräu (d', w)</t>
+  </si>
+  <si>
+    <t>Spatz (d', w)</t>
+  </si>
+  <si>
+    <t>[Oh]ros[g]ala (s)</t>
+  </si>
+  <si>
+    <t>Strecknodla (w)</t>
+  </si>
+  <si>
+    <t>Dassala (s)</t>
+  </si>
+  <si>
+    <t>Steihafa (m)</t>
+  </si>
+  <si>
+    <t>Geiß (d', w)</t>
+  </si>
+  <si>
+    <t>III_17_0065</t>
+  </si>
+  <si>
+    <t>y-s</t>
+  </si>
+  <si>
+    <t>Dürlinsdorf, Liebsdorf</t>
+  </si>
+  <si>
+    <t>M.-Elsass</t>
+  </si>
+  <si>
+    <t>Wilh. Wechlin</t>
+  </si>
+  <si>
+    <t>i. Brg.</t>
+  </si>
+  <si>
+    <t>&lt;Für Liebsdorf gilt die gleiche Aussprache wie für Dürlinsdorf, ist nur 800m auseinander.&gt;</t>
+  </si>
+  <si>
+    <t>Begräbnis</t>
+  </si>
+  <si>
+    <t>Brumäre</t>
+  </si>
+  <si>
+    <t>Ägerste {e in Klammern)</t>
+  </si>
+  <si>
+    <t>Rätsch (de)</t>
+  </si>
+  <si>
+    <t>Gug[ǔ]mere</t>
+  </si>
+  <si>
+    <t>Budde</t>
+  </si>
+  <si>
+    <t>Gugel, Huen</t>
+  </si>
+  <si>
+    <t>Holere</t>
+  </si>
+  <si>
+    <t>Schär {e in Klammern}</t>
+  </si>
+  <si>
+    <t>Galriebe</t>
+  </si>
+  <si>
+    <t>Gedde, Götte</t>
+  </si>
+  <si>
+    <t>Rie̠me</t>
+  </si>
+  <si>
+    <t>briele</t>
+  </si>
+  <si>
+    <t>Schwiegerdochder</t>
+  </si>
+  <si>
+    <t>Schdachelbeere</t>
+  </si>
+  <si>
+    <t>Schtecknodle</t>
+  </si>
+  <si>
+    <t>Schtricknodle</t>
+  </si>
+  <si>
+    <t>Chaffischissele</t>
+  </si>
+  <si>
+    <t>y-z</t>
+  </si>
+  <si>
+    <t>Lüxdorf</t>
+  </si>
+  <si>
+    <t>Frau Susanne Herr</t>
+  </si>
+  <si>
+    <t>i. E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riedisheim </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mündlich </t>
+  </si>
+  <si>
+    <t>Ameisele</t>
+  </si>
+  <si>
+    <t>Vergräbnis, s' Liecht geh</t>
+  </si>
+  <si>
+    <t>Bromberri</t>
+  </si>
+  <si>
+    <t>Ageschta</t>
+  </si>
+  <si>
+    <t>Anda</t>
+  </si>
+  <si>
+    <t>Ähmt</t>
+  </si>
+  <si>
+    <t>Gugumra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hebåm  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Holra  </t>
+  </si>
+  <si>
+    <t>Düeli'[ps]</t>
+  </si>
+  <si>
+    <t>Sunsfroi</t>
+  </si>
+  <si>
+    <t>Grüselbeera</t>
+  </si>
+  <si>
+    <t>Schtrecknodel</t>
+  </si>
+  <si>
+    <t>Dåssa, Dalerle</t>
+  </si>
+  <si>
+    <t>hardiger Håfa</t>
+  </si>
+  <si>
+    <t>III_17_0066</t>
+  </si>
+  <si>
+    <t>y-A</t>
+  </si>
+  <si>
+    <t>Sondersdorf</t>
+  </si>
+  <si>
+    <t>Rudolf Thomer</t>
+  </si>
+  <si>
+    <t>Todtnau</t>
+  </si>
+  <si>
+    <t>{Stempel Gemeinde Sondersdorf}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omaise  </t>
+  </si>
+  <si>
+    <t>Elschster, Aegerschte</t>
+  </si>
+  <si>
+    <t>Ratsch, Anderich</t>
+  </si>
+  <si>
+    <t>Fl[a]dermus</t>
+  </si>
+  <si>
+    <t>Gockel, Huen</t>
+  </si>
+  <si>
+    <t>Holdere</t>
+  </si>
+  <si>
+    <t>H[ar]depfel</t>
+  </si>
+  <si>
+    <t>Galrüebl[e]</t>
+  </si>
+  <si>
+    <t>schālte</t>
+  </si>
+  <si>
+    <t>Grüselbeer[ē]</t>
+  </si>
+  <si>
+    <t>Tase, Schüssel</t>
+  </si>
+  <si>
+    <t>H[ā]fe</t>
+  </si>
+  <si>
+    <t>III_17_0068</t>
+  </si>
+  <si>
+    <t>III_17_0067</t>
+  </si>
+  <si>
+    <t>y-y</t>
+  </si>
+  <si>
+    <t>Winkel</t>
+  </si>
+  <si>
+    <t>Johann Fi[p]cher</t>
+  </si>
+  <si>
+    <t>Furtwangen, ber. Anstellungsort [888]</t>
+  </si>
+  <si>
+    <t>Älschter</t>
+  </si>
+  <si>
+    <t>Licht {steht bei 11, Informant hat sich in Zeile geirrt}</t>
+  </si>
+  <si>
+    <t>Brumbääre {steht bei 15, Informant hat sich in Zeile geirrt}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fladermus  </t>
+  </si>
+  <si>
+    <t>G[oa]gummere</t>
+  </si>
+  <si>
+    <t>Budda</t>
+  </si>
+  <si>
+    <t>Gugel, Hüa</t>
+  </si>
+  <si>
+    <t>Holl[e]ra</t>
+  </si>
+  <si>
+    <t>Hard[ä]pfel</t>
+  </si>
+  <si>
+    <t>Katzala</t>
+  </si>
+  <si>
+    <t>Galrüeba</t>
+  </si>
+  <si>
+    <t>Getta</t>
+  </si>
+  <si>
+    <t>Riäma</t>
+  </si>
+  <si>
+    <t>Pflüema</t>
+  </si>
+  <si>
+    <t>schempfa, handla</t>
+  </si>
+  <si>
+    <t>Schwägerdochter</t>
+  </si>
+  <si>
+    <t>Spoatz</t>
+  </si>
+  <si>
+    <t>Stoachlbä[m]er {könnte acuh w sein}</t>
+  </si>
+  <si>
+    <t>Schlingufe</t>
+  </si>
+  <si>
+    <t>Schtecknoadla</t>
+  </si>
+  <si>
+    <t>Koaffeet[a]ssal[e]r, Dallarla</t>
+  </si>
+  <si>
+    <t>Hoafa</t>
+  </si>
+  <si>
+    <t>zwi[w]</t>
+  </si>
+  <si>
+    <t>III_17_0069</t>
+  </si>
+  <si>
+    <t>y-r</t>
+  </si>
+  <si>
+    <t>Oberlarg</t>
+  </si>
+  <si>
+    <t>Altkirch Oberelsaß</t>
+  </si>
+  <si>
+    <t>Angela Wohlfromm</t>
+  </si>
+  <si>
+    <t>Dahlenheim</t>
+  </si>
+  <si>
+    <t>Omaisela (w)</t>
+  </si>
+  <si>
+    <t>Vergräbnis (s)</t>
+  </si>
+  <si>
+    <t>Agersta (w)</t>
+  </si>
+  <si>
+    <t>Fladermüß (w)</t>
+  </si>
+  <si>
+    <t>Gågumara (w)</t>
+  </si>
+  <si>
+    <t>Gugel (m), Hüan (w)</t>
+  </si>
+  <si>
+    <t>Hebåm (w)</t>
+  </si>
+  <si>
+    <t>Holara (w)</t>
+  </si>
+  <si>
+    <t>Hardäpfel (w)</t>
+  </si>
+  <si>
+    <t>Stoßmüs (w)</t>
+  </si>
+  <si>
+    <t>Galeriaba (w)</t>
+  </si>
+  <si>
+    <t>schulda</t>
+  </si>
+  <si>
+    <t>Stachebeera (w)</t>
+  </si>
+  <si>
+    <t>Tåssa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Håfa  </t>
+  </si>
+  <si>
+    <t>III_17_0070</t>
+  </si>
+  <si>
+    <t>y-x</t>
+  </si>
+  <si>
+    <t>Felder</t>
+  </si>
+  <si>
+    <t>Natsweiler</t>
+  </si>
+  <si>
+    <t>Brummbäre (w)</t>
+  </si>
+  <si>
+    <t>Alster (m)</t>
+  </si>
+  <si>
+    <t>Ande (w)</t>
+  </si>
+  <si>
+    <t>Flattermüs (w)</t>
+  </si>
+  <si>
+    <t>Gockel (m), Huen (s)</t>
+  </si>
+  <si>
+    <t>Häbamme (w)</t>
+  </si>
+  <si>
+    <t>Katz (w), Rolli (m)</t>
+  </si>
+  <si>
+    <t>Scharmüs (w)</t>
+  </si>
+  <si>
+    <t>Galerueb (w)</t>
+  </si>
+  <si>
+    <t>Mohre (w)</t>
+  </si>
+  <si>
+    <t>Gode (m)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">schalte </t>
+  </si>
+  <si>
+    <t>Schwegertoc[h]ter (w) {könnte auch k sein}</t>
+  </si>
+  <si>
+    <t>Stac[k]elbäre (w) {könnte auch h sein}</t>
+  </si>
+  <si>
+    <t>Gefele (s)</t>
+  </si>
+  <si>
+    <t>Strichnodel (w)</t>
+  </si>
+  <si>
+    <t>Dasele (w)</t>
+  </si>
+  <si>
+    <t>y-F</t>
+  </si>
+  <si>
+    <t>Biedertal</t>
+  </si>
+  <si>
+    <t>Ober-Elsaß</t>
+  </si>
+  <si>
+    <t>&lt;Ort direkt an der schweizer Grenze. Lehrer ist über 14 Jahre im bad Markgräflerland, kennt Mundart. Ist ahnlich wie im bad. Oberland.&gt;</t>
+  </si>
+  <si>
+    <t>Hätzla</t>
+  </si>
+  <si>
+    <t>Rätsch {e in Klammern}</t>
+  </si>
+  <si>
+    <t>Flädermu̠s</t>
+  </si>
+  <si>
+    <t>Muggä</t>
+  </si>
+  <si>
+    <t>Gagumerä</t>
+  </si>
+  <si>
+    <t>Buddä &lt;ä ganz kurz&gt;</t>
+  </si>
+  <si>
+    <t>Giggel, Hüen</t>
+  </si>
+  <si>
+    <t>Hollärä</t>
+  </si>
+  <si>
+    <t>Härdepfel</t>
+  </si>
+  <si>
+    <t>Chatzerolli</t>
+  </si>
+  <si>
+    <t>Galrüebli</t>
+  </si>
+  <si>
+    <t>Rie̠me̠[r]</t>
+  </si>
+  <si>
+    <t>Chrüselbeeri</t>
+  </si>
+  <si>
+    <t>Schricknodle</t>
+  </si>
+  <si>
+    <t>erdige Hafe {e in Klammern}</t>
+  </si>
+  <si>
+    <t>III_17_0072</t>
+  </si>
+  <si>
+    <t>III_17_0071</t>
+  </si>
+  <si>
+    <t>y-G</t>
+  </si>
+  <si>
+    <t>Oltingen</t>
+  </si>
+  <si>
+    <t>Ob. Elsass</t>
+  </si>
+  <si>
+    <t>Josef Haab</t>
+  </si>
+  <si>
+    <t>Leimen O. Elsass</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>&lt;Bemerkung: CH uns ch überall [x] auszusprechen wie ch in nac̠h Loc̠h&gt; {c und h beide unterstrichen}</t>
+  </si>
+  <si>
+    <t>Licht &lt;Liecht&gt;  (s)</t>
+  </si>
+  <si>
+    <t>Brumbeer[i] (w)</t>
+  </si>
+  <si>
+    <t>Agarschta (w)</t>
+  </si>
+  <si>
+    <t>Ratsch (a, m)</t>
+  </si>
+  <si>
+    <t>Muckà (w)</t>
+  </si>
+  <si>
+    <t>Gàgummere (w)</t>
+  </si>
+  <si>
+    <t>Gickel, Huehn</t>
+  </si>
+  <si>
+    <t>Hollara (s)</t>
+  </si>
+  <si>
+    <t>Rollè (m)</t>
+  </si>
+  <si>
+    <t>Schaar (m)</t>
+  </si>
+  <si>
+    <t>Galriabe (w)</t>
+  </si>
+  <si>
+    <t>Gette (m)</t>
+  </si>
+  <si>
+    <t>Riamà (s)</t>
+  </si>
+  <si>
+    <t>abrialla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nb </t>
+  </si>
+  <si>
+    <t>III_17_0073</t>
+  </si>
+  <si>
+    <t>y-[888]</t>
+  </si>
+  <si>
+    <t>Leimen</t>
+  </si>
+  <si>
+    <t>Julius Ueberschlag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neuweiler </t>
+  </si>
+  <si>
+    <t>Liecht (a)</t>
+  </si>
+  <si>
+    <t>Gagummera</t>
+  </si>
+  <si>
+    <t>Geckel, Huhn</t>
+  </si>
+  <si>
+    <t>Schpatz (m)</t>
+  </si>
+  <si>
+    <t>Chrüselbeere (w)</t>
+  </si>
+  <si>
+    <t>Stricknodla (w)</t>
+  </si>
+  <si>
+    <t>Schisselè (s)</t>
+  </si>
+  <si>
+    <t>Hafe, Cherlè (s)</t>
+  </si>
+  <si>
+    <t>Plaume</t>
+  </si>
+  <si>
+    <t>Kreiselbeere</t>
+  </si>
+  <si>
+    <t>III_17_0074</t>
+  </si>
+  <si>
+    <t>y-D</t>
+  </si>
+  <si>
+    <t>Lutter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Altkirch </t>
+  </si>
+  <si>
+    <t>Alfons Schoffit</t>
+  </si>
+  <si>
+    <t>Omeisala (a, w)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Licht (d', w)  </t>
+  </si>
+  <si>
+    <t>Dissel (d'r, m)</t>
+  </si>
+  <si>
+    <t>Agerschta (a, w)</t>
+  </si>
+  <si>
+    <t>Ganker, Ratscher (m)</t>
+  </si>
+  <si>
+    <t>Brombära (a, w)</t>
+  </si>
+  <si>
+    <t>Fladermüs (a, w)</t>
+  </si>
+  <si>
+    <t>Mocka (d', w)</t>
+  </si>
+  <si>
+    <t>Ähmt (s', s)</t>
+  </si>
+  <si>
+    <t>Gakommera (w)</t>
+  </si>
+  <si>
+    <t>Butta (d', w)</t>
+  </si>
+  <si>
+    <t>Gockel (d'r), Glockeri (die)</t>
+  </si>
+  <si>
+    <t>Hebamm (d', w)</t>
+  </si>
+  <si>
+    <t>Hol̠lera (d'r, m)</t>
+  </si>
+  <si>
+    <t>Hardäpfel (a, m)</t>
+  </si>
+  <si>
+    <t>Chatz (d', m)</t>
+  </si>
+  <si>
+    <t>Schar (d'r, m)</t>
+  </si>
+  <si>
+    <t>Rüaba (d'r, m)</t>
+  </si>
+  <si>
+    <t>Moor (a, w)</t>
+  </si>
+  <si>
+    <t>Riama (d'r)</t>
+  </si>
+  <si>
+    <t>abriala</t>
+  </si>
+  <si>
+    <t>Schwegertochter (d', w)</t>
+  </si>
+  <si>
+    <t>Spatz (a, m)</t>
+  </si>
+  <si>
+    <t>Stachelbeeri (d', w)</t>
+  </si>
+  <si>
+    <t>Stecknodle (a, w)</t>
+  </si>
+  <si>
+    <t>Strecknodle (a, w)</t>
+  </si>
+  <si>
+    <t>Schessale (a, s)</t>
+  </si>
+  <si>
+    <t>Hafe (d'r, m)</t>
+  </si>
+  <si>
+    <t>y-C</t>
+  </si>
+  <si>
+    <t>Rädersdorf</t>
+  </si>
+  <si>
+    <t>Schumacher</t>
+  </si>
+  <si>
+    <t>Wolfganzen</t>
+  </si>
+  <si>
+    <t>Ob. Els.</t>
+  </si>
+  <si>
+    <t>&lt;Rädersdorf, 16.Oktober 1941 Schumacher, Lehrer.&gt;</t>
+  </si>
+  <si>
+    <t>Leiche (w), Licht (d', w)</t>
+  </si>
+  <si>
+    <t>Brombeere (w)</t>
+  </si>
+  <si>
+    <t>Deichsel, Dissel (m)</t>
+  </si>
+  <si>
+    <t>Ägerste (w)</t>
+  </si>
+  <si>
+    <t>Retsch (m)</t>
+  </si>
+  <si>
+    <t>Fledermasu (w)</t>
+  </si>
+  <si>
+    <t>Gukummere (w)</t>
+  </si>
+  <si>
+    <t>Schermaus (m), Schar (m)</t>
+  </si>
+  <si>
+    <t>gele Rübe (w)</t>
+  </si>
+  <si>
+    <t>Grüsele (s), &lt;vom fr:groseille&gt;</t>
+  </si>
+  <si>
+    <t>Kaffeeschüssele (w), Tassa (w) &lt;mit Henkel&gt;</t>
+  </si>
+  <si>
+    <t>III_17_0076</t>
+  </si>
+  <si>
+    <t>III_17_0077</t>
+  </si>
+  <si>
+    <t>III_17_0075</t>
+  </si>
+  <si>
+    <t>y-B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rädersdorf </t>
+  </si>
+  <si>
+    <t>Altkirch Ob. Elsaß</t>
+  </si>
+  <si>
+    <t>Karl Schumacher</t>
+  </si>
+  <si>
+    <t>Kiffis</t>
+  </si>
+  <si>
+    <t>Ober Elsass</t>
+  </si>
+  <si>
+    <t>Fräulein Nonnenm[a]eher</t>
+  </si>
+  <si>
+    <t>Niedermichelbach</t>
+  </si>
+  <si>
+    <t>Ameise (die)</t>
+  </si>
+  <si>
+    <t>Licht (die) {Strich über dem i}</t>
+  </si>
+  <si>
+    <t>Brombeere (die)</t>
+  </si>
+  <si>
+    <t>Dissel (d[r])</t>
+  </si>
+  <si>
+    <t>Agerschte (die)</t>
+  </si>
+  <si>
+    <t>Ratsch (der)</t>
+  </si>
+  <si>
+    <t>Ähmd (das)</t>
+  </si>
+  <si>
+    <t>Gugummere (die)</t>
+  </si>
+  <si>
+    <t>Butte (die)</t>
+  </si>
+  <si>
+    <t>Gugel (der), Huhn (die)</t>
+  </si>
+  <si>
+    <t>Hewamme (die)</t>
+  </si>
+  <si>
+    <t>Holdere (der)</t>
+  </si>
+  <si>
+    <t>Hardäpfel (der)</t>
+  </si>
+  <si>
+    <t>Schaar (der)</t>
+  </si>
+  <si>
+    <t>gele Riebe (de)</t>
+  </si>
+  <si>
+    <t>Mohre (die)</t>
+  </si>
+  <si>
+    <t>Rieme (der)</t>
+  </si>
+  <si>
+    <t>Pflüme (die)</t>
+  </si>
+  <si>
+    <t>Sohnsfrau (die)</t>
+  </si>
+  <si>
+    <t>Grüsele (das) &lt;v. französ. Groseille&gt;</t>
+  </si>
+  <si>
+    <t>Gufe (die)</t>
+  </si>
+  <si>
+    <t>Stricknodle (die)</t>
+  </si>
+  <si>
+    <t>Tasse (die) &lt;Untertasse=Tellerle&gt;</t>
+  </si>
+  <si>
+    <t>Hafe (der), erdiger Hafe {e in Klammern}</t>
+  </si>
+  <si>
+    <t>Omaïsa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beardigung  </t>
+  </si>
+  <si>
+    <t>dissel</t>
+  </si>
+  <si>
+    <t>Gugumara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buda  </t>
+  </si>
+  <si>
+    <t>Gugal, huen</t>
+  </si>
+  <si>
+    <t>Hebam</t>
+  </si>
+  <si>
+    <t>Hartäpfel</t>
+  </si>
+  <si>
+    <t>Galariaba</t>
+  </si>
+  <si>
+    <t>Soï</t>
+  </si>
+  <si>
+    <t>Gädi</t>
+  </si>
+  <si>
+    <t>Schisala</t>
+  </si>
+  <si>
+    <t>[h]fluma</t>
   </si>
 </sst>
 </file>
@@ -4240,7 +5257,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -4258,6 +5275,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading" xfId="1"/>
@@ -4576,10 +5594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BB53"/>
+  <dimension ref="A1:BB68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="AP68" sqref="AP68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4612,19 +5630,19 @@
     <col min="26" max="26" width="30.375" customWidth="1"/>
     <col min="27" max="27" width="19" customWidth="1"/>
     <col min="28" max="28" width="16" customWidth="1"/>
-    <col min="29" max="29" width="15.75" customWidth="1"/>
+    <col min="29" max="29" width="20.875" customWidth="1"/>
     <col min="30" max="30" width="28.75" customWidth="1"/>
     <col min="31" max="31" width="28.625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="17.875" customWidth="1"/>
+    <col min="32" max="32" width="28.25" customWidth="1"/>
     <col min="33" max="33" width="25.75" customWidth="1"/>
     <col min="34" max="34" width="57.75" customWidth="1"/>
     <col min="35" max="35" width="21" customWidth="1"/>
     <col min="36" max="36" width="37.25" customWidth="1"/>
-    <col min="37" max="37" width="29.375" customWidth="1"/>
+    <col min="37" max="37" width="39" customWidth="1"/>
     <col min="38" max="38" width="16.875" customWidth="1"/>
     <col min="39" max="39" width="17.875" customWidth="1"/>
     <col min="40" max="40" width="23.625" customWidth="1"/>
-    <col min="41" max="41" width="13.375" customWidth="1"/>
+    <col min="41" max="41" width="20.375" customWidth="1"/>
     <col min="42" max="42" width="32.875" customWidth="1"/>
     <col min="43" max="43" width="30.375" customWidth="1"/>
     <col min="44" max="44" width="42.125" customWidth="1"/>
@@ -4637,7 +5655,7 @@
     <col min="51" max="51" width="20.75" style="1" customWidth="1"/>
     <col min="52" max="52" width="16.5" customWidth="1"/>
     <col min="53" max="53" width="45.5" style="1" customWidth="1"/>
-    <col min="54" max="54" width="103.25" customWidth="1"/>
+    <col min="54" max="54" width="111.125" customWidth="1"/>
     <col min="55" max="1023" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -13321,6 +14339,2466 @@
         <v>1025</v>
       </c>
       <c r="BB53">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:54">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="14">
+        <v>44747</v>
+      </c>
+      <c r="C54" t="s">
+        <v>54</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E54">
+        <v>10</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54" t="s">
+        <v>1358</v>
+      </c>
+      <c r="H54" t="s">
+        <v>57</v>
+      </c>
+      <c r="I54" s="9">
+        <v>24.5</v>
+      </c>
+      <c r="J54" s="9">
+        <v>47.25</v>
+      </c>
+      <c r="K54" s="11" t="s">
+        <v>1360</v>
+      </c>
+      <c r="L54" s="11" t="s">
+        <v>1361</v>
+      </c>
+      <c r="M54">
+        <v>999</v>
+      </c>
+      <c r="N54" t="s">
+        <v>1362</v>
+      </c>
+      <c r="O54" t="s">
+        <v>93</v>
+      </c>
+      <c r="P54" t="s">
+        <v>1363</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>1164</v>
+      </c>
+      <c r="R54">
+        <v>999</v>
+      </c>
+      <c r="S54">
+        <v>999</v>
+      </c>
+      <c r="T54" t="s">
+        <v>178</v>
+      </c>
+      <c r="U54" s="1">
+        <v>999</v>
+      </c>
+      <c r="V54" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="W54" s="17" t="s">
+        <v>1364</v>
+      </c>
+      <c r="X54" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="Y54" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z54" s="12" t="s">
+        <v>1365</v>
+      </c>
+      <c r="AA54" s="12" t="s">
+        <v>1366</v>
+      </c>
+      <c r="AB54" s="15" t="s">
+        <v>1097</v>
+      </c>
+      <c r="AC54" s="15" t="s">
+        <v>1367</v>
+      </c>
+      <c r="AD54" s="15" t="s">
+        <v>899</v>
+      </c>
+      <c r="AE54" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="AF54" s="15" t="s">
+        <v>1170</v>
+      </c>
+      <c r="AG54" s="15" t="s">
+        <v>1368</v>
+      </c>
+      <c r="AH54" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="AI54" s="15" t="s">
+        <v>1369</v>
+      </c>
+      <c r="AJ54" s="15" t="s">
+        <v>1370</v>
+      </c>
+      <c r="AK54" s="15" t="s">
+        <v>1371</v>
+      </c>
+      <c r="AL54" s="15" t="s">
+        <v>1372</v>
+      </c>
+      <c r="AM54" s="15" t="s">
+        <v>1373</v>
+      </c>
+      <c r="AN54" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="AO54" s="15" t="s">
+        <v>1374</v>
+      </c>
+      <c r="AP54" s="15" t="s">
+        <v>1053</v>
+      </c>
+      <c r="AQ54" s="15" t="s">
+        <v>1375</v>
+      </c>
+      <c r="AR54" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS54" s="15" t="s">
+        <v>1376</v>
+      </c>
+      <c r="AT54" s="15" t="s">
+        <v>1109</v>
+      </c>
+      <c r="AU54" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="AV54" s="15" t="s">
+        <v>1377</v>
+      </c>
+      <c r="AW54" s="15" t="s">
+        <v>1111</v>
+      </c>
+      <c r="AX54" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="AY54" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="AZ54" s="15" t="s">
+        <v>851</v>
+      </c>
+      <c r="BA54" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="BB54">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:54">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="14">
+        <v>44747</v>
+      </c>
+      <c r="C55" t="s">
+        <v>54</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E55">
+        <v>10</v>
+      </c>
+      <c r="F55">
+        <v>2</v>
+      </c>
+      <c r="G55" t="s">
+        <v>1378</v>
+      </c>
+      <c r="H55" t="s">
+        <v>243</v>
+      </c>
+      <c r="I55" s="9">
+        <v>24.5</v>
+      </c>
+      <c r="J55" s="9">
+        <v>47.25</v>
+      </c>
+      <c r="K55" s="11" t="s">
+        <v>1379</v>
+      </c>
+      <c r="L55" s="11" t="s">
+        <v>1380</v>
+      </c>
+      <c r="M55">
+        <v>999</v>
+      </c>
+      <c r="N55" t="s">
+        <v>92</v>
+      </c>
+      <c r="O55" t="s">
+        <v>172</v>
+      </c>
+      <c r="P55" t="s">
+        <v>1381</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>1382</v>
+      </c>
+      <c r="R55">
+        <v>999</v>
+      </c>
+      <c r="S55" t="s">
+        <v>1383</v>
+      </c>
+      <c r="T55" t="s">
+        <v>178</v>
+      </c>
+      <c r="U55" s="1">
+        <v>999</v>
+      </c>
+      <c r="V55" s="12" t="s">
+        <v>698</v>
+      </c>
+      <c r="W55" s="12" t="s">
+        <v>1384</v>
+      </c>
+      <c r="X55" s="12" t="s">
+        <v>1385</v>
+      </c>
+      <c r="Y55" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="Z55" s="12" t="s">
+        <v>1386</v>
+      </c>
+      <c r="AA55" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB55" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC55" s="15" t="s">
+        <v>1387</v>
+      </c>
+      <c r="AD55" s="15" t="s">
+        <v>1388</v>
+      </c>
+      <c r="AE55" s="15" t="s">
+        <v>1389</v>
+      </c>
+      <c r="AF55" s="15" t="s">
+        <v>1390</v>
+      </c>
+      <c r="AG55" s="15" t="s">
+        <v>1391</v>
+      </c>
+      <c r="AH55" s="15" t="s">
+        <v>1392</v>
+      </c>
+      <c r="AI55" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="AJ55" s="15" t="s">
+        <v>1393</v>
+      </c>
+      <c r="AK55" s="15" t="s">
+        <v>1394</v>
+      </c>
+      <c r="AL55" s="15" t="s">
+        <v>1395</v>
+      </c>
+      <c r="AM55" s="15" t="s">
+        <v>1396</v>
+      </c>
+      <c r="AN55" s="15" t="s">
+        <v>1397</v>
+      </c>
+      <c r="AO55" s="15" t="s">
+        <v>1398</v>
+      </c>
+      <c r="AP55" s="15" t="s">
+        <v>470</v>
+      </c>
+      <c r="AQ55" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="AR55" s="15" t="s">
+        <v>1400</v>
+      </c>
+      <c r="AS55" s="15" t="s">
+        <v>1401</v>
+      </c>
+      <c r="AT55" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="AU55" s="15" t="s">
+        <v>1402</v>
+      </c>
+      <c r="AV55" s="15" t="s">
+        <v>1403</v>
+      </c>
+      <c r="AW55" s="15" t="s">
+        <v>1404</v>
+      </c>
+      <c r="AX55" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="AY55" s="1" t="s">
+        <v>1405</v>
+      </c>
+      <c r="AZ55" s="15" t="s">
+        <v>526</v>
+      </c>
+      <c r="BA55" s="1" t="s">
+        <v>1399</v>
+      </c>
+      <c r="BB55">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:54">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="14">
+        <v>44747</v>
+      </c>
+      <c r="C56" t="s">
+        <v>54</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E56">
+        <v>10</v>
+      </c>
+      <c r="F56">
+        <v>3</v>
+      </c>
+      <c r="G56" t="s">
+        <v>1406</v>
+      </c>
+      <c r="H56" t="s">
+        <v>90</v>
+      </c>
+      <c r="I56" s="9">
+        <v>24.5</v>
+      </c>
+      <c r="J56" s="9">
+        <v>47.25</v>
+      </c>
+      <c r="K56" s="11" t="s">
+        <v>1407</v>
+      </c>
+      <c r="L56" s="11" t="s">
+        <v>1408</v>
+      </c>
+      <c r="M56">
+        <v>999</v>
+      </c>
+      <c r="N56" t="s">
+        <v>92</v>
+      </c>
+      <c r="O56" t="s">
+        <v>1409</v>
+      </c>
+      <c r="P56" t="s">
+        <v>1410</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>1164</v>
+      </c>
+      <c r="R56">
+        <v>999</v>
+      </c>
+      <c r="S56" t="s">
+        <v>1411</v>
+      </c>
+      <c r="T56" t="s">
+        <v>97</v>
+      </c>
+      <c r="U56" s="1">
+        <v>999</v>
+      </c>
+      <c r="V56" s="12" t="s">
+        <v>597</v>
+      </c>
+      <c r="W56" s="12" t="s">
+        <v>1413</v>
+      </c>
+      <c r="X56" s="12" t="s">
+        <v>1414</v>
+      </c>
+      <c r="Y56" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z56" s="12" t="s">
+        <v>1415</v>
+      </c>
+      <c r="AA56" s="12" t="s">
+        <v>1416</v>
+      </c>
+      <c r="AB56" s="15" t="s">
+        <v>1097</v>
+      </c>
+      <c r="AC56" s="15" t="s">
+        <v>1098</v>
+      </c>
+      <c r="AD56" s="15" t="s">
+        <v>899</v>
+      </c>
+      <c r="AE56" s="15" t="s">
+        <v>1417</v>
+      </c>
+      <c r="AF56" s="15" t="s">
+        <v>1418</v>
+      </c>
+      <c r="AG56" s="15" t="s">
+        <v>1419</v>
+      </c>
+      <c r="AH56" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="AI56" s="15" t="s">
+        <v>728</v>
+      </c>
+      <c r="AJ56" s="15" t="s">
+        <v>1370</v>
+      </c>
+      <c r="AK56" s="15" t="s">
+        <v>1421</v>
+      </c>
+      <c r="AL56" s="15" t="s">
+        <v>1422</v>
+      </c>
+      <c r="AM56" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="AN56" s="15" t="s">
+        <v>1423</v>
+      </c>
+      <c r="AO56" s="15" t="s">
+        <v>1424</v>
+      </c>
+      <c r="AP56" s="15" t="s">
+        <v>1053</v>
+      </c>
+      <c r="AQ56" s="15" t="s">
+        <v>1425</v>
+      </c>
+      <c r="AR56" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS56" s="15" t="s">
+        <v>1427</v>
+      </c>
+      <c r="AT56" s="15" t="s">
+        <v>1428</v>
+      </c>
+      <c r="AU56" s="15" t="s">
+        <v>1429</v>
+      </c>
+      <c r="AV56" s="15" t="s">
+        <v>1430</v>
+      </c>
+      <c r="AW56" s="15" t="s">
+        <v>1111</v>
+      </c>
+      <c r="AX56" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="AY56" s="1">
+        <v>999</v>
+      </c>
+      <c r="AZ56" s="15" t="s">
+        <v>1420</v>
+      </c>
+      <c r="BA56" s="1" t="s">
+        <v>1426</v>
+      </c>
+      <c r="BB56" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="57" spans="1:54">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="14">
+        <v>44747</v>
+      </c>
+      <c r="C57" t="s">
+        <v>54</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E57">
+        <v>10</v>
+      </c>
+      <c r="F57">
+        <v>4</v>
+      </c>
+      <c r="G57" t="s">
+        <v>1452</v>
+      </c>
+      <c r="H57" t="s">
+        <v>57</v>
+      </c>
+      <c r="I57" s="9">
+        <v>24.5</v>
+      </c>
+      <c r="J57" s="9">
+        <v>47.25</v>
+      </c>
+      <c r="K57" s="11" t="s">
+        <v>1431</v>
+      </c>
+      <c r="L57" s="11" t="s">
+        <v>1432</v>
+      </c>
+      <c r="M57">
+        <v>999</v>
+      </c>
+      <c r="N57" t="s">
+        <v>92</v>
+      </c>
+      <c r="O57" t="s">
+        <v>172</v>
+      </c>
+      <c r="P57" t="s">
+        <v>1433</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>1435</v>
+      </c>
+      <c r="R57" t="s">
+        <v>483</v>
+      </c>
+      <c r="S57" t="s">
+        <v>1434</v>
+      </c>
+      <c r="T57" t="s">
+        <v>97</v>
+      </c>
+      <c r="U57" s="1" t="s">
+        <v>1436</v>
+      </c>
+      <c r="V57" s="12" t="s">
+        <v>1437</v>
+      </c>
+      <c r="W57" s="12" t="s">
+        <v>1438</v>
+      </c>
+      <c r="X57" s="12" t="s">
+        <v>1439</v>
+      </c>
+      <c r="Y57" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z57" s="12" t="s">
+        <v>1440</v>
+      </c>
+      <c r="AA57" s="12" t="s">
+        <v>1441</v>
+      </c>
+      <c r="AB57" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC57" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="AD57" s="15" t="s">
+        <v>1442</v>
+      </c>
+      <c r="AE57" s="15" t="s">
+        <v>1443</v>
+      </c>
+      <c r="AF57" s="15" t="s">
+        <v>704</v>
+      </c>
+      <c r="AG57" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="AH57" s="15" t="s">
+        <v>1444</v>
+      </c>
+      <c r="AI57" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="AJ57" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="AK57" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="AL57" s="15" t="s">
+        <v>1446</v>
+      </c>
+      <c r="AM57" s="15" t="s">
+        <v>437</v>
+      </c>
+      <c r="AN57" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="AO57" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP57" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="AQ57" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="AR57" s="15" t="s">
+        <v>440</v>
+      </c>
+      <c r="AS57" s="15" t="s">
+        <v>1448</v>
+      </c>
+      <c r="AT57" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU57" s="15" t="s">
+        <v>1449</v>
+      </c>
+      <c r="AV57" s="15" t="s">
+        <v>1450</v>
+      </c>
+      <c r="AW57" s="15" t="s">
+        <v>1451</v>
+      </c>
+      <c r="AX57" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="AY57" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="AZ57" s="15" t="s">
+        <v>1445</v>
+      </c>
+      <c r="BA57" s="1" t="s">
+        <v>1447</v>
+      </c>
+      <c r="BB57">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:54">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="14">
+        <v>44747</v>
+      </c>
+      <c r="C58" t="s">
+        <v>54</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E58">
+        <v>10</v>
+      </c>
+      <c r="F58">
+        <v>5</v>
+      </c>
+      <c r="G58" t="s">
+        <v>1471</v>
+      </c>
+      <c r="H58" t="s">
+        <v>243</v>
+      </c>
+      <c r="I58" s="9">
+        <v>24.5</v>
+      </c>
+      <c r="J58" s="9">
+        <v>47.25</v>
+      </c>
+      <c r="K58" s="11" t="s">
+        <v>1453</v>
+      </c>
+      <c r="L58" s="11" t="s">
+        <v>1454</v>
+      </c>
+      <c r="M58">
+        <v>999</v>
+      </c>
+      <c r="N58" t="s">
+        <v>92</v>
+      </c>
+      <c r="O58" t="s">
+        <v>172</v>
+      </c>
+      <c r="P58" t="s">
+        <v>1455</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>1456</v>
+      </c>
+      <c r="R58">
+        <v>999</v>
+      </c>
+      <c r="S58">
+        <v>999</v>
+      </c>
+      <c r="T58" t="s">
+        <v>178</v>
+      </c>
+      <c r="U58" s="1" t="s">
+        <v>1457</v>
+      </c>
+      <c r="V58" s="12" t="s">
+        <v>1458</v>
+      </c>
+      <c r="W58" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="X58" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="Y58" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z58" s="12" t="s">
+        <v>1459</v>
+      </c>
+      <c r="AA58" s="12" t="s">
+        <v>1460</v>
+      </c>
+      <c r="AB58" s="15" t="s">
+        <v>1461</v>
+      </c>
+      <c r="AC58" s="15" t="s">
+        <v>1098</v>
+      </c>
+      <c r="AD58" s="15" t="s">
+        <v>653</v>
+      </c>
+      <c r="AE58" s="15" t="s">
+        <v>848</v>
+      </c>
+      <c r="AF58" s="15" t="s">
+        <v>1418</v>
+      </c>
+      <c r="AG58" s="15" t="s">
+        <v>1462</v>
+      </c>
+      <c r="AH58" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="AI58" s="15" t="s">
+        <v>1464</v>
+      </c>
+      <c r="AJ58" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="AK58" s="15" t="s">
+        <v>1236</v>
+      </c>
+      <c r="AL58" s="15" t="s">
+        <v>1465</v>
+      </c>
+      <c r="AM58" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="AN58" s="15" t="s">
+        <v>1051</v>
+      </c>
+      <c r="AO58" s="15" t="s">
+        <v>976</v>
+      </c>
+      <c r="AP58" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="AQ58" s="15" t="s">
+        <v>1466</v>
+      </c>
+      <c r="AR58" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS58" s="15" t="s">
+        <v>1467</v>
+      </c>
+      <c r="AT58" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="AU58" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="AV58" s="15" t="s">
+        <v>1468</v>
+      </c>
+      <c r="AW58" s="15" t="s">
+        <v>1469</v>
+      </c>
+      <c r="AX58" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="AY58" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="AZ58" s="15" t="s">
+        <v>1463</v>
+      </c>
+      <c r="BA58" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="BB58">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:54">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="14">
+        <v>44747</v>
+      </c>
+      <c r="C59" t="s">
+        <v>54</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E59">
+        <v>10</v>
+      </c>
+      <c r="F59">
+        <v>6</v>
+      </c>
+      <c r="G59" t="s">
+        <v>1470</v>
+      </c>
+      <c r="H59" t="s">
+        <v>243</v>
+      </c>
+      <c r="I59" s="9">
+        <v>24.5</v>
+      </c>
+      <c r="J59" s="9">
+        <v>47.25</v>
+      </c>
+      <c r="K59" s="11" t="s">
+        <v>1472</v>
+      </c>
+      <c r="L59" s="11" t="s">
+        <v>1473</v>
+      </c>
+      <c r="M59">
+        <v>999</v>
+      </c>
+      <c r="N59" t="s">
+        <v>92</v>
+      </c>
+      <c r="O59" t="s">
+        <v>516</v>
+      </c>
+      <c r="P59" t="s">
+        <v>1474</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>1475</v>
+      </c>
+      <c r="R59">
+        <v>999</v>
+      </c>
+      <c r="S59">
+        <v>999</v>
+      </c>
+      <c r="T59" t="s">
+        <v>178</v>
+      </c>
+      <c r="U59" s="1">
+        <v>999</v>
+      </c>
+      <c r="V59" s="12" t="s">
+        <v>597</v>
+      </c>
+      <c r="W59" s="12" t="s">
+        <v>1477</v>
+      </c>
+      <c r="X59" s="12" t="s">
+        <v>1478</v>
+      </c>
+      <c r="Y59">
+        <v>999</v>
+      </c>
+      <c r="Z59" s="12" t="s">
+        <v>1476</v>
+      </c>
+      <c r="AA59">
+        <v>999</v>
+      </c>
+      <c r="AB59" s="15" t="s">
+        <v>1479</v>
+      </c>
+      <c r="AC59" s="15" t="s">
+        <v>429</v>
+      </c>
+      <c r="AD59" s="15" t="s">
+        <v>1442</v>
+      </c>
+      <c r="AE59" s="15" t="s">
+        <v>1480</v>
+      </c>
+      <c r="AF59" s="15" t="s">
+        <v>1481</v>
+      </c>
+      <c r="AG59" s="15" t="s">
+        <v>1482</v>
+      </c>
+      <c r="AH59" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="AI59" s="15" t="s">
+        <v>1484</v>
+      </c>
+      <c r="AJ59" s="15" t="s">
+        <v>1485</v>
+      </c>
+      <c r="AK59" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="AL59" s="15" t="s">
+        <v>1486</v>
+      </c>
+      <c r="AM59" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="AN59" s="15" t="s">
+        <v>1487</v>
+      </c>
+      <c r="AO59" s="15" t="s">
+        <v>1488</v>
+      </c>
+      <c r="AP59" s="15" t="s">
+        <v>1489</v>
+      </c>
+      <c r="AQ59" s="15" t="s">
+        <v>1490</v>
+      </c>
+      <c r="AR59" s="15" t="s">
+        <v>1492</v>
+      </c>
+      <c r="AS59" s="15" t="s">
+        <v>1493</v>
+      </c>
+      <c r="AT59" s="15" t="s">
+        <v>1494</v>
+      </c>
+      <c r="AU59" s="15" t="s">
+        <v>1495</v>
+      </c>
+      <c r="AV59" s="15" t="s">
+        <v>1496</v>
+      </c>
+      <c r="AW59" s="15" t="s">
+        <v>1497</v>
+      </c>
+      <c r="AX59" s="15" t="s">
+        <v>1498</v>
+      </c>
+      <c r="AY59" s="1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="AZ59" s="15" t="s">
+        <v>1483</v>
+      </c>
+      <c r="BA59" s="1" t="s">
+        <v>1491</v>
+      </c>
+      <c r="BB59">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:54">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="14">
+        <v>44747</v>
+      </c>
+      <c r="C60" t="s">
+        <v>54</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E60">
+        <v>10</v>
+      </c>
+      <c r="F60">
+        <v>7</v>
+      </c>
+      <c r="G60" t="s">
+        <v>1499</v>
+      </c>
+      <c r="H60" t="s">
+        <v>243</v>
+      </c>
+      <c r="I60" s="9">
+        <v>24.5</v>
+      </c>
+      <c r="J60" s="9">
+        <v>47.25</v>
+      </c>
+      <c r="K60" s="11" t="s">
+        <v>1500</v>
+      </c>
+      <c r="L60" s="11" t="s">
+        <v>1501</v>
+      </c>
+      <c r="M60">
+        <v>999</v>
+      </c>
+      <c r="N60" t="s">
+        <v>1502</v>
+      </c>
+      <c r="O60" t="s">
+        <v>172</v>
+      </c>
+      <c r="P60" t="s">
+        <v>1503</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>1504</v>
+      </c>
+      <c r="R60">
+        <v>999</v>
+      </c>
+      <c r="S60">
+        <v>999</v>
+      </c>
+      <c r="T60" t="s">
+        <v>97</v>
+      </c>
+      <c r="U60" s="1">
+        <v>999</v>
+      </c>
+      <c r="V60" s="12" t="s">
+        <v>1505</v>
+      </c>
+      <c r="W60" s="12" t="s">
+        <v>1506</v>
+      </c>
+      <c r="X60" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="Y60" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="Z60" s="12" t="s">
+        <v>1507</v>
+      </c>
+      <c r="AA60" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB60" s="15" t="s">
+        <v>1508</v>
+      </c>
+      <c r="AC60" s="15" t="s">
+        <v>458</v>
+      </c>
+      <c r="AD60" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="AE60" s="15" t="s">
+        <v>1509</v>
+      </c>
+      <c r="AF60" s="15" t="s">
+        <v>460</v>
+      </c>
+      <c r="AG60" s="15" t="s">
+        <v>1510</v>
+      </c>
+      <c r="AH60" s="15" t="s">
+        <v>1511</v>
+      </c>
+      <c r="AI60" s="15" t="s">
+        <v>1513</v>
+      </c>
+      <c r="AJ60" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="AK60" s="15" t="s">
+        <v>1514</v>
+      </c>
+      <c r="AL60" s="15" t="s">
+        <v>1515</v>
+      </c>
+      <c r="AM60" s="15" t="s">
+        <v>1076</v>
+      </c>
+      <c r="AN60" s="15" t="s">
+        <v>708</v>
+      </c>
+      <c r="AO60" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="AP60" s="15" t="s">
+        <v>470</v>
+      </c>
+      <c r="AQ60" s="15" t="s">
+        <v>1516</v>
+      </c>
+      <c r="AR60" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="AS60" s="15" t="s">
+        <v>1517</v>
+      </c>
+      <c r="AT60" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="AU60" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="AV60" s="15" t="s">
+        <v>1518</v>
+      </c>
+      <c r="AW60" s="15" t="s">
+        <v>1519</v>
+      </c>
+      <c r="AX60" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="AY60" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AZ60" s="15" t="s">
+        <v>1512</v>
+      </c>
+      <c r="BA60" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BB60">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:54">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="14">
+        <v>44747</v>
+      </c>
+      <c r="C61" t="s">
+        <v>54</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E61">
+        <v>10</v>
+      </c>
+      <c r="F61">
+        <v>8</v>
+      </c>
+      <c r="G61" t="s">
+        <v>1520</v>
+      </c>
+      <c r="H61" t="s">
+        <v>90</v>
+      </c>
+      <c r="I61" s="9">
+        <v>24.5</v>
+      </c>
+      <c r="J61" s="9">
+        <v>47.25</v>
+      </c>
+      <c r="K61" s="11" t="s">
+        <v>1521</v>
+      </c>
+      <c r="L61" s="11" t="s">
+        <v>1473</v>
+      </c>
+      <c r="M61">
+        <v>999</v>
+      </c>
+      <c r="N61" t="s">
+        <v>92</v>
+      </c>
+      <c r="O61">
+        <v>999</v>
+      </c>
+      <c r="P61" t="s">
+        <v>1522</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>1523</v>
+      </c>
+      <c r="R61">
+        <v>999</v>
+      </c>
+      <c r="S61">
+        <v>999</v>
+      </c>
+      <c r="T61">
+        <v>999</v>
+      </c>
+      <c r="U61" s="1">
+        <v>999</v>
+      </c>
+      <c r="V61" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="W61" s="12" t="s">
+        <v>1506</v>
+      </c>
+      <c r="X61" s="12" t="s">
+        <v>1524</v>
+      </c>
+      <c r="Y61" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="Z61" s="12" t="s">
+        <v>1525</v>
+      </c>
+      <c r="AA61" s="12" t="s">
+        <v>1526</v>
+      </c>
+      <c r="AB61" s="15" t="s">
+        <v>1527</v>
+      </c>
+      <c r="AC61" s="15" t="s">
+        <v>491</v>
+      </c>
+      <c r="AD61" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="AE61" s="15" t="s">
+        <v>768</v>
+      </c>
+      <c r="AF61" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="AG61" s="15" t="s">
+        <v>1528</v>
+      </c>
+      <c r="AH61" s="15" t="s">
+        <v>1529</v>
+      </c>
+      <c r="AI61" s="15" t="s">
+        <v>628</v>
+      </c>
+      <c r="AJ61" s="15" t="s">
+        <v>1530</v>
+      </c>
+      <c r="AK61" s="15" t="s">
+        <v>1531</v>
+      </c>
+      <c r="AL61" s="15" t="s">
+        <v>1532</v>
+      </c>
+      <c r="AM61" s="15" t="s">
+        <v>1533</v>
+      </c>
+      <c r="AN61" s="15" t="s">
+        <v>1534</v>
+      </c>
+      <c r="AO61" s="15" t="s">
+        <v>502</v>
+      </c>
+      <c r="AP61" s="15" t="s">
+        <v>633</v>
+      </c>
+      <c r="AQ61" s="15" t="s">
+        <v>1535</v>
+      </c>
+      <c r="AR61" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="AS61" s="15" t="s">
+        <v>1537</v>
+      </c>
+      <c r="AT61" s="15" t="s">
+        <v>1538</v>
+      </c>
+      <c r="AU61" s="15" t="s">
+        <v>1539</v>
+      </c>
+      <c r="AV61" s="15" t="s">
+        <v>1540</v>
+      </c>
+      <c r="AW61" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="AX61" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="AY61" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="AZ61" s="15" t="s">
+        <v>582</v>
+      </c>
+      <c r="BA61" s="1" t="s">
+        <v>1536</v>
+      </c>
+      <c r="BB61">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:54">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="14">
+        <v>44747</v>
+      </c>
+      <c r="C62" t="s">
+        <v>54</v>
+      </c>
+      <c r="D62" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E62">
+        <v>11</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62" t="s">
+        <v>1561</v>
+      </c>
+      <c r="H62" t="s">
+        <v>57</v>
+      </c>
+      <c r="I62" s="9">
+        <v>25</v>
+      </c>
+      <c r="J62" s="9">
+        <v>47.25</v>
+      </c>
+      <c r="K62" s="11" t="s">
+        <v>1541</v>
+      </c>
+      <c r="L62" s="11" t="s">
+        <v>1542</v>
+      </c>
+      <c r="M62">
+        <v>999</v>
+      </c>
+      <c r="N62" t="s">
+        <v>92</v>
+      </c>
+      <c r="O62" t="s">
+        <v>422</v>
+      </c>
+      <c r="P62" t="s">
+        <v>1410</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>1164</v>
+      </c>
+      <c r="R62">
+        <v>999</v>
+      </c>
+      <c r="S62" t="s">
+        <v>1260</v>
+      </c>
+      <c r="T62" t="s">
+        <v>97</v>
+      </c>
+      <c r="U62" s="1">
+        <v>999</v>
+      </c>
+      <c r="V62" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="W62" s="12" t="s">
+        <v>1245</v>
+      </c>
+      <c r="X62" s="12" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y62" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z62" s="12" t="s">
+        <v>1545</v>
+      </c>
+      <c r="AA62" s="12" t="s">
+        <v>1546</v>
+      </c>
+      <c r="AB62" s="15" t="s">
+        <v>1547</v>
+      </c>
+      <c r="AC62" s="15" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AD62" s="15" t="s">
+        <v>653</v>
+      </c>
+      <c r="AE62" s="15" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AF62" s="15" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AG62" s="15" t="s">
+        <v>1551</v>
+      </c>
+      <c r="AH62" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="AI62" s="15" t="s">
+        <v>1553</v>
+      </c>
+      <c r="AJ62" s="15" t="s">
+        <v>1554</v>
+      </c>
+      <c r="AK62" s="15" t="s">
+        <v>1221</v>
+      </c>
+      <c r="AL62" s="15" t="s">
+        <v>1555</v>
+      </c>
+      <c r="AM62" s="15" t="s">
+        <v>437</v>
+      </c>
+      <c r="AN62" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="AO62" s="15" t="s">
+        <v>1556</v>
+      </c>
+      <c r="AP62" s="15" t="s">
+        <v>1053</v>
+      </c>
+      <c r="AQ62" s="15" t="s">
+        <v>504</v>
+      </c>
+      <c r="AR62" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS62" s="15" t="s">
+        <v>1557</v>
+      </c>
+      <c r="AT62" s="15" t="s">
+        <v>1109</v>
+      </c>
+      <c r="AU62" s="15" t="s">
+        <v>1558</v>
+      </c>
+      <c r="AV62" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="AW62" s="15" t="s">
+        <v>1559</v>
+      </c>
+      <c r="AX62" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="AY62" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="AZ62" s="15" t="s">
+        <v>1552</v>
+      </c>
+      <c r="BA62" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="BB62" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="63" spans="1:54">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" s="14">
+        <v>44747</v>
+      </c>
+      <c r="C63" t="s">
+        <v>54</v>
+      </c>
+      <c r="D63" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E63">
+        <v>11</v>
+      </c>
+      <c r="F63">
+        <v>2</v>
+      </c>
+      <c r="G63" t="s">
+        <v>1560</v>
+      </c>
+      <c r="H63" t="s">
+        <v>90</v>
+      </c>
+      <c r="I63" s="9">
+        <v>25</v>
+      </c>
+      <c r="J63" s="9">
+        <v>47.25</v>
+      </c>
+      <c r="K63" s="11" t="s">
+        <v>1562</v>
+      </c>
+      <c r="L63" s="11" t="s">
+        <v>1563</v>
+      </c>
+      <c r="M63">
+        <v>999</v>
+      </c>
+      <c r="N63" t="s">
+        <v>92</v>
+      </c>
+      <c r="O63" t="s">
+        <v>1564</v>
+      </c>
+      <c r="P63" t="s">
+        <v>1565</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>1566</v>
+      </c>
+      <c r="R63">
+        <v>999</v>
+      </c>
+      <c r="S63">
+        <v>999</v>
+      </c>
+      <c r="T63" t="s">
+        <v>1567</v>
+      </c>
+      <c r="U63" s="1">
+        <v>999</v>
+      </c>
+      <c r="V63" s="12" t="s">
+        <v>698</v>
+      </c>
+      <c r="W63" s="12" t="s">
+        <v>1569</v>
+      </c>
+      <c r="X63" s="12" t="s">
+        <v>1570</v>
+      </c>
+      <c r="Y63" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="Z63" s="12" t="s">
+        <v>1571</v>
+      </c>
+      <c r="AA63" s="12" t="s">
+        <v>1572</v>
+      </c>
+      <c r="AB63" s="15" t="s">
+        <v>1347</v>
+      </c>
+      <c r="AC63" s="15" t="s">
+        <v>1573</v>
+      </c>
+      <c r="AD63" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="AE63" s="15" t="s">
+        <v>1574</v>
+      </c>
+      <c r="AF63" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="AG63" s="15" t="s">
+        <v>1575</v>
+      </c>
+      <c r="AH63" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="AI63" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="AJ63" s="15" t="s">
+        <v>1577</v>
+      </c>
+      <c r="AK63" s="15" t="s">
+        <v>1578</v>
+      </c>
+      <c r="AL63" s="15" t="s">
+        <v>1579</v>
+      </c>
+      <c r="AM63" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="AN63" s="15" t="s">
+        <v>1580</v>
+      </c>
+      <c r="AO63" s="15" t="s">
+        <v>1581</v>
+      </c>
+      <c r="AP63" s="15" t="s">
+        <v>470</v>
+      </c>
+      <c r="AQ63" s="15" t="s">
+        <v>1582</v>
+      </c>
+      <c r="AR63" s="15" t="s">
+        <v>1592</v>
+      </c>
+      <c r="AS63" s="15" t="s">
+        <v>1593</v>
+      </c>
+      <c r="AT63" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="AU63" s="15" t="s">
+        <v>1594</v>
+      </c>
+      <c r="AV63" s="15" t="s">
+        <v>1595</v>
+      </c>
+      <c r="AW63" s="15" t="s">
+        <v>1596</v>
+      </c>
+      <c r="AX63" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="AY63" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="AZ63" s="15" t="s">
+        <v>1576</v>
+      </c>
+      <c r="BA63" s="1" t="s">
+        <v>1583</v>
+      </c>
+      <c r="BB63" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="64" spans="1:54">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" s="14">
+        <v>44747</v>
+      </c>
+      <c r="C64" t="s">
+        <v>54</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E64">
+        <v>11</v>
+      </c>
+      <c r="F64">
+        <v>3</v>
+      </c>
+      <c r="G64" t="s">
+        <v>1584</v>
+      </c>
+      <c r="H64" t="s">
+        <v>90</v>
+      </c>
+      <c r="I64" s="9">
+        <v>25</v>
+      </c>
+      <c r="J64" s="9">
+        <v>47.25</v>
+      </c>
+      <c r="K64" s="11" t="s">
+        <v>1585</v>
+      </c>
+      <c r="L64" s="11" t="s">
+        <v>1586</v>
+      </c>
+      <c r="M64">
+        <v>999</v>
+      </c>
+      <c r="N64" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="O64" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="P64" s="11" t="s">
+        <v>1587</v>
+      </c>
+      <c r="Q64" s="11" t="s">
+        <v>1588</v>
+      </c>
+      <c r="R64" s="11" t="s">
+        <v>741</v>
+      </c>
+      <c r="S64">
+        <v>999</v>
+      </c>
+      <c r="T64" t="s">
+        <v>313</v>
+      </c>
+      <c r="U64" s="1">
+        <v>999</v>
+      </c>
+      <c r="V64" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="W64" s="12" t="s">
+        <v>1589</v>
+      </c>
+      <c r="X64" s="12" t="s">
+        <v>743</v>
+      </c>
+      <c r="Y64" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z64" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA64" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="AB64" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC64" s="15" t="s">
+        <v>652</v>
+      </c>
+      <c r="AD64" s="15" t="s">
+        <v>1442</v>
+      </c>
+      <c r="AE64" s="15" t="s">
+        <v>1590</v>
+      </c>
+      <c r="AF64" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="AG64" s="15" t="s">
+        <v>1591</v>
+      </c>
+      <c r="AH64" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="AI64" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="AJ64" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="AK64" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="AL64" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="AM64" s="15" t="s">
+        <v>437</v>
+      </c>
+      <c r="AN64" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="AO64" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="AP64" s="15" t="s">
+        <v>1597</v>
+      </c>
+      <c r="AQ64" s="15" t="s">
+        <v>856</v>
+      </c>
+      <c r="AR64" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS64" s="15" t="s">
+        <v>1598</v>
+      </c>
+      <c r="AT64" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU64" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="AV64" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="AW64" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="AX64" s="15" t="s">
+        <v>800</v>
+      </c>
+      <c r="AY64" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="AZ64" s="15" t="s">
+        <v>435</v>
+      </c>
+      <c r="BA64" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="BB64">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:54">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" s="14">
+        <v>44747</v>
+      </c>
+      <c r="C65" t="s">
+        <v>54</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E65">
+        <v>11</v>
+      </c>
+      <c r="F65">
+        <v>5</v>
+      </c>
+      <c r="G65" t="s">
+        <v>1599</v>
+      </c>
+      <c r="H65" t="s">
+        <v>243</v>
+      </c>
+      <c r="I65" s="9">
+        <v>25</v>
+      </c>
+      <c r="J65" s="9">
+        <v>47.25</v>
+      </c>
+      <c r="K65" s="11" t="s">
+        <v>1600</v>
+      </c>
+      <c r="L65" s="11" t="s">
+        <v>1601</v>
+      </c>
+      <c r="M65">
+        <v>999</v>
+      </c>
+      <c r="N65" s="11" t="s">
+        <v>1602</v>
+      </c>
+      <c r="O65" t="s">
+        <v>1543</v>
+      </c>
+      <c r="P65" s="11" t="s">
+        <v>1603</v>
+      </c>
+      <c r="Q65" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="R65" s="11">
+        <v>999</v>
+      </c>
+      <c r="S65">
+        <v>999</v>
+      </c>
+      <c r="T65" t="s">
+        <v>178</v>
+      </c>
+      <c r="U65" s="1">
+        <v>999</v>
+      </c>
+      <c r="V65" s="12" t="s">
+        <v>1604</v>
+      </c>
+      <c r="W65" s="12" t="s">
+        <v>1605</v>
+      </c>
+      <c r="X65" s="12" t="s">
+        <v>1609</v>
+      </c>
+      <c r="Y65" s="12" t="s">
+        <v>1606</v>
+      </c>
+      <c r="Z65" s="12" t="s">
+        <v>1607</v>
+      </c>
+      <c r="AA65" s="12" t="s">
+        <v>1608</v>
+      </c>
+      <c r="AB65" s="15" t="s">
+        <v>1610</v>
+      </c>
+      <c r="AC65" s="15" t="s">
+        <v>1611</v>
+      </c>
+      <c r="AD65" s="15" t="s">
+        <v>1612</v>
+      </c>
+      <c r="AE65" s="15" t="s">
+        <v>1613</v>
+      </c>
+      <c r="AF65" s="15" t="s">
+        <v>1614</v>
+      </c>
+      <c r="AG65" s="15" t="s">
+        <v>1615</v>
+      </c>
+      <c r="AH65" s="15" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AI65" s="15" t="s">
+        <v>1618</v>
+      </c>
+      <c r="AJ65" s="15" t="s">
+        <v>1619</v>
+      </c>
+      <c r="AK65" s="15" t="s">
+        <v>1620</v>
+      </c>
+      <c r="AL65" s="15" t="s">
+        <v>1621</v>
+      </c>
+      <c r="AM65" s="15" t="s">
+        <v>1622</v>
+      </c>
+      <c r="AN65" s="15" t="s">
+        <v>632</v>
+      </c>
+      <c r="AO65" s="15" t="s">
+        <v>1623</v>
+      </c>
+      <c r="AP65" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="AQ65" s="15" t="s">
+        <v>1624</v>
+      </c>
+      <c r="AR65" s="15" t="s">
+        <v>1626</v>
+      </c>
+      <c r="AS65" s="15" t="s">
+        <v>1627</v>
+      </c>
+      <c r="AT65" s="15" t="s">
+        <v>1628</v>
+      </c>
+      <c r="AU65" s="15" t="s">
+        <v>1629</v>
+      </c>
+      <c r="AV65" s="15" t="s">
+        <v>1630</v>
+      </c>
+      <c r="AW65" s="15" t="s">
+        <v>1631</v>
+      </c>
+      <c r="AX65" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="AY65" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="AZ65" s="15" t="s">
+        <v>1617</v>
+      </c>
+      <c r="BA65" s="1" t="s">
+        <v>1625</v>
+      </c>
+      <c r="BB65">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:54">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" s="14">
+        <v>44747</v>
+      </c>
+      <c r="C66" t="s">
+        <v>54</v>
+      </c>
+      <c r="D66" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E66">
+        <v>11</v>
+      </c>
+      <c r="F66">
+        <v>6</v>
+      </c>
+      <c r="G66" t="s">
+        <v>1651</v>
+      </c>
+      <c r="H66" t="s">
+        <v>243</v>
+      </c>
+      <c r="I66" s="9">
+        <v>25</v>
+      </c>
+      <c r="J66" s="9">
+        <v>47.25</v>
+      </c>
+      <c r="K66" s="11" t="s">
+        <v>1632</v>
+      </c>
+      <c r="L66" s="11" t="s">
+        <v>1633</v>
+      </c>
+      <c r="M66">
+        <v>999</v>
+      </c>
+      <c r="N66" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="O66" s="11" t="s">
+        <v>1543</v>
+      </c>
+      <c r="P66" s="11" t="s">
+        <v>1634</v>
+      </c>
+      <c r="Q66" s="11" t="s">
+        <v>1635</v>
+      </c>
+      <c r="R66" s="11">
+        <v>999</v>
+      </c>
+      <c r="S66" t="s">
+        <v>1636</v>
+      </c>
+      <c r="T66" t="s">
+        <v>313</v>
+      </c>
+      <c r="U66" s="1">
+        <v>999</v>
+      </c>
+      <c r="V66" s="12" t="s">
+        <v>544</v>
+      </c>
+      <c r="W66" s="12" t="s">
+        <v>1638</v>
+      </c>
+      <c r="X66" s="12" t="s">
+        <v>1639</v>
+      </c>
+      <c r="Y66" s="12" t="s">
+        <v>1640</v>
+      </c>
+      <c r="Z66" s="12" t="s">
+        <v>1641</v>
+      </c>
+      <c r="AA66" s="12" t="s">
+        <v>1642</v>
+      </c>
+      <c r="AB66" s="15" t="s">
+        <v>1643</v>
+      </c>
+      <c r="AC66" s="15" t="s">
+        <v>491</v>
+      </c>
+      <c r="AD66" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="AE66" s="15" t="s">
+        <v>1644</v>
+      </c>
+      <c r="AF66" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="AG66" s="15" t="s">
+        <v>581</v>
+      </c>
+      <c r="AH66" s="15" t="s">
+        <v>496</v>
+      </c>
+      <c r="AI66" s="15" t="s">
+        <v>498</v>
+      </c>
+      <c r="AJ66" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="AK66" s="15" t="s">
+        <v>1645</v>
+      </c>
+      <c r="AL66" s="15" t="s">
+        <v>1646</v>
+      </c>
+      <c r="AM66" s="15" t="s">
+        <v>1533</v>
+      </c>
+      <c r="AN66" s="15" t="s">
+        <v>632</v>
+      </c>
+      <c r="AO66" s="15" t="s">
+        <v>556</v>
+      </c>
+      <c r="AP66" s="15" t="s">
+        <v>557</v>
+      </c>
+      <c r="AQ66" s="15" t="s">
+        <v>856</v>
+      </c>
+      <c r="AR66" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="AS66" s="15" t="s">
+        <v>1647</v>
+      </c>
+      <c r="AT66" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="AU66" s="15" t="s">
+        <v>589</v>
+      </c>
+      <c r="AV66" s="15" t="s">
+        <v>1648</v>
+      </c>
+      <c r="AW66" s="15" t="s">
+        <v>510</v>
+      </c>
+      <c r="AX66" s="15" t="s">
+        <v>800</v>
+      </c>
+      <c r="AY66" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="AZ66" s="15" t="s">
+        <v>814</v>
+      </c>
+      <c r="BA66" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="BB66" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="67" spans="1:54">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" s="14">
+        <v>44747</v>
+      </c>
+      <c r="C67" t="s">
+        <v>54</v>
+      </c>
+      <c r="D67" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E67">
+        <v>11</v>
+      </c>
+      <c r="F67">
+        <v>6</v>
+      </c>
+      <c r="G67" t="s">
+        <v>1649</v>
+      </c>
+      <c r="H67" t="s">
+        <v>57</v>
+      </c>
+      <c r="I67" s="9">
+        <v>25</v>
+      </c>
+      <c r="J67" s="9">
+        <v>47.25</v>
+      </c>
+      <c r="K67" s="11" t="s">
+        <v>1632</v>
+      </c>
+      <c r="L67" s="11" t="s">
+        <v>1653</v>
+      </c>
+      <c r="M67">
+        <v>999</v>
+      </c>
+      <c r="N67" s="11" t="s">
+        <v>1654</v>
+      </c>
+      <c r="O67" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="P67" s="11" t="s">
+        <v>1655</v>
+      </c>
+      <c r="Q67" s="11" t="s">
+        <v>1635</v>
+      </c>
+      <c r="R67" s="11">
+        <v>999</v>
+      </c>
+      <c r="S67" t="s">
+        <v>839</v>
+      </c>
+      <c r="T67" t="s">
+        <v>313</v>
+      </c>
+      <c r="U67" s="1">
+        <v>999</v>
+      </c>
+      <c r="V67" s="12" t="s">
+        <v>1660</v>
+      </c>
+      <c r="W67" s="12" t="s">
+        <v>1661</v>
+      </c>
+      <c r="X67" s="12" t="s">
+        <v>1662</v>
+      </c>
+      <c r="Y67" s="12" t="s">
+        <v>1663</v>
+      </c>
+      <c r="Z67" s="12" t="s">
+        <v>1664</v>
+      </c>
+      <c r="AA67" s="12" t="s">
+        <v>1665</v>
+      </c>
+      <c r="AB67" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC67" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="AD67" s="15" t="s">
+        <v>1666</v>
+      </c>
+      <c r="AE67" s="15" t="s">
+        <v>1667</v>
+      </c>
+      <c r="AF67" s="15" t="s">
+        <v>1668</v>
+      </c>
+      <c r="AG67" s="15" t="s">
+        <v>1669</v>
+      </c>
+      <c r="AH67" s="15" t="s">
+        <v>1670</v>
+      </c>
+      <c r="AI67" s="15" t="s">
+        <v>1672</v>
+      </c>
+      <c r="AJ67" s="15" t="s">
+        <v>791</v>
+      </c>
+      <c r="AK67" s="15" t="s">
+        <v>1673</v>
+      </c>
+      <c r="AL67" s="15" t="s">
+        <v>1674</v>
+      </c>
+      <c r="AM67" s="15" t="s">
+        <v>1675</v>
+      </c>
+      <c r="AN67" s="15" t="s">
+        <v>794</v>
+      </c>
+      <c r="AO67" s="15" t="s">
+        <v>1676</v>
+      </c>
+      <c r="AP67" s="15" t="s">
+        <v>1677</v>
+      </c>
+      <c r="AQ67" s="15" t="s">
+        <v>408</v>
+      </c>
+      <c r="AR67" s="15" t="s">
+        <v>796</v>
+      </c>
+      <c r="AS67" s="15" t="s">
+        <v>1679</v>
+      </c>
+      <c r="AT67" s="15" t="s">
+        <v>1680</v>
+      </c>
+      <c r="AU67" s="15" t="s">
+        <v>1681</v>
+      </c>
+      <c r="AV67" s="15" t="s">
+        <v>1682</v>
+      </c>
+      <c r="AW67" s="15" t="s">
+        <v>1683</v>
+      </c>
+      <c r="AX67" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="AY67" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="AZ67" s="15" t="s">
+        <v>1671</v>
+      </c>
+      <c r="BA67" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="BB67">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:54">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" s="14">
+        <v>44747</v>
+      </c>
+      <c r="C68" t="s">
+        <v>54</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E68">
+        <v>11</v>
+      </c>
+      <c r="F68">
+        <v>7</v>
+      </c>
+      <c r="G68" t="s">
+        <v>1650</v>
+      </c>
+      <c r="H68" t="s">
+        <v>57</v>
+      </c>
+      <c r="I68" s="9">
+        <v>25</v>
+      </c>
+      <c r="J68" s="9">
+        <v>47.25</v>
+      </c>
+      <c r="K68" s="11" t="s">
+        <v>1652</v>
+      </c>
+      <c r="L68" s="11" t="s">
+        <v>1656</v>
+      </c>
+      <c r="M68">
+        <v>999</v>
+      </c>
+      <c r="N68" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="O68" s="11" t="s">
+        <v>1657</v>
+      </c>
+      <c r="P68" s="11" t="s">
+        <v>1658</v>
+      </c>
+      <c r="Q68" s="11" t="s">
+        <v>1659</v>
+      </c>
+      <c r="R68" s="11">
+        <v>999</v>
+      </c>
+      <c r="S68">
+        <v>999</v>
+      </c>
+      <c r="T68">
+        <v>999</v>
+      </c>
+      <c r="U68" s="1">
+        <v>999</v>
+      </c>
+      <c r="V68" s="12" t="s">
+        <v>1684</v>
+      </c>
+      <c r="W68" s="12" t="s">
+        <v>1685</v>
+      </c>
+      <c r="X68" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y68" s="12" t="s">
+        <v>1686</v>
+      </c>
+      <c r="Z68" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA68" s="12" t="s">
+        <v>963</v>
+      </c>
+      <c r="AB68" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC68" s="15" t="s">
+        <v>745</v>
+      </c>
+      <c r="AD68" s="15" t="s">
+        <v>1099</v>
+      </c>
+      <c r="AE68" s="15" t="s">
+        <v>1687</v>
+      </c>
+      <c r="AF68" s="15" t="s">
+        <v>1688</v>
+      </c>
+      <c r="AG68" s="15" t="s">
+        <v>1689</v>
+      </c>
+      <c r="AH68" s="15" t="s">
+        <v>1690</v>
+      </c>
+      <c r="AI68" s="15" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AJ68" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK68" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="AL68" s="15" t="s">
+        <v>1692</v>
+      </c>
+      <c r="AM68" s="15" t="s">
+        <v>1693</v>
+      </c>
+      <c r="AN68" s="15" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AO68" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP68" s="15" t="s">
+        <v>1696</v>
+      </c>
+      <c r="AQ68" s="15" t="s">
+        <v>471</v>
+      </c>
+      <c r="AR68" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS68" s="15" t="s">
+        <v>1448</v>
+      </c>
+      <c r="AT68" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU68" s="15" t="s">
+        <v>859</v>
+      </c>
+      <c r="AV68" s="15" t="s">
+        <v>1695</v>
+      </c>
+      <c r="AW68" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="AX68" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="AY68" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AZ68" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="BA68" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="BB68">
         <v>999</v>
       </c>
     </row>

--- a/Data/DWA_FS.xlsx
+++ b/Data/DWA_FS.xlsx
@@ -5586,7 +5586,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5594,10 +5594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BB68"/>
+  <dimension ref="A1:BB70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="AP68" sqref="AP68"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -16802,6 +16802,11 @@
         <v>999</v>
       </c>
     </row>
+    <row r="70" spans="1:54">
+      <c r="A70">
+        <v>999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39409448818897641" bottom="0.39409448818897641" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Data/DWA_FS.xlsx
+++ b/Data/DWA_FS.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Envimaster\DWA\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37402483-0D10-4512-90C9-DC76A3922C6C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -5160,8 +5166,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5278,11 +5284,11 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Heading" xfId="1"/>
-    <cellStyle name="Heading1" xfId="2"/>
-    <cellStyle name="Result" xfId="3"/>
-    <cellStyle name="Result2" xfId="4"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="Heading" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Heading1" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="Result" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Result2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5586,80 +5592,80 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BB70"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BB68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
       <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.75" customWidth="1"/>
-    <col min="2" max="2" width="10.75" style="11" customWidth="1"/>
+    <col min="1" max="1" width="10.69921875" customWidth="1"/>
+    <col min="2" max="2" width="10.69921875" style="11" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="17.625" customWidth="1"/>
-    <col min="5" max="5" width="17.375" customWidth="1"/>
-    <col min="6" max="6" width="15.875" customWidth="1"/>
-    <col min="7" max="7" width="10.75" customWidth="1"/>
-    <col min="8" max="8" width="20.375" customWidth="1"/>
-    <col min="9" max="9" width="10.75" style="9" customWidth="1"/>
-    <col min="10" max="10" width="24.875" style="9" customWidth="1"/>
-    <col min="11" max="11" width="43.75" customWidth="1"/>
+    <col min="4" max="4" width="17.59765625" customWidth="1"/>
+    <col min="5" max="5" width="17.3984375" customWidth="1"/>
+    <col min="6" max="6" width="15.8984375" customWidth="1"/>
+    <col min="7" max="7" width="10.69921875" customWidth="1"/>
+    <col min="8" max="8" width="20.3984375" customWidth="1"/>
+    <col min="9" max="9" width="10.69921875" style="9" customWidth="1"/>
+    <col min="10" max="10" width="24.8984375" style="9" customWidth="1"/>
+    <col min="11" max="11" width="43.69921875" customWidth="1"/>
     <col min="12" max="12" width="45" customWidth="1"/>
     <col min="13" max="13" width="19" customWidth="1"/>
-    <col min="14" max="14" width="18.875" customWidth="1"/>
-    <col min="15" max="15" width="15.25" customWidth="1"/>
-    <col min="16" max="16" width="23.75" customWidth="1"/>
-    <col min="17" max="17" width="61.375" customWidth="1"/>
+    <col min="14" max="14" width="18.8984375" customWidth="1"/>
+    <col min="15" max="15" width="15.19921875" customWidth="1"/>
+    <col min="16" max="16" width="23.69921875" customWidth="1"/>
+    <col min="17" max="17" width="61.3984375" customWidth="1"/>
     <col min="18" max="18" width="22.5" customWidth="1"/>
-    <col min="19" max="19" width="23.75" customWidth="1"/>
+    <col min="19" max="19" width="23.69921875" customWidth="1"/>
     <col min="20" max="20" width="15.5" customWidth="1"/>
-    <col min="21" max="21" width="38.75" style="1" customWidth="1"/>
-    <col min="22" max="22" width="31.375" customWidth="1"/>
+    <col min="21" max="21" width="38.69921875" style="1" customWidth="1"/>
+    <col min="22" max="22" width="31.3984375" customWidth="1"/>
     <col min="23" max="23" width="28.5" customWidth="1"/>
     <col min="24" max="24" width="20" customWidth="1"/>
-    <col min="25" max="25" width="25.25" customWidth="1"/>
-    <col min="26" max="26" width="30.375" customWidth="1"/>
+    <col min="25" max="25" width="25.19921875" customWidth="1"/>
+    <col min="26" max="26" width="30.3984375" customWidth="1"/>
     <col min="27" max="27" width="19" customWidth="1"/>
     <col min="28" max="28" width="16" customWidth="1"/>
-    <col min="29" max="29" width="20.875" customWidth="1"/>
-    <col min="30" max="30" width="28.75" customWidth="1"/>
-    <col min="31" max="31" width="28.625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="28.25" customWidth="1"/>
-    <col min="33" max="33" width="25.75" customWidth="1"/>
-    <col min="34" max="34" width="57.75" customWidth="1"/>
+    <col min="29" max="29" width="20.8984375" customWidth="1"/>
+    <col min="30" max="30" width="28.69921875" customWidth="1"/>
+    <col min="31" max="31" width="28.59765625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="28.19921875" customWidth="1"/>
+    <col min="33" max="33" width="25.69921875" customWidth="1"/>
+    <col min="34" max="34" width="57.69921875" customWidth="1"/>
     <col min="35" max="35" width="21" customWidth="1"/>
-    <col min="36" max="36" width="37.25" customWidth="1"/>
+    <col min="36" max="36" width="37.19921875" customWidth="1"/>
     <col min="37" max="37" width="39" customWidth="1"/>
-    <col min="38" max="38" width="16.875" customWidth="1"/>
-    <col min="39" max="39" width="17.875" customWidth="1"/>
-    <col min="40" max="40" width="23.625" customWidth="1"/>
-    <col min="41" max="41" width="20.375" customWidth="1"/>
-    <col min="42" max="42" width="32.875" customWidth="1"/>
-    <col min="43" max="43" width="30.375" customWidth="1"/>
-    <col min="44" max="44" width="42.125" customWidth="1"/>
-    <col min="45" max="45" width="40.875" customWidth="1"/>
-    <col min="46" max="46" width="33.125" customWidth="1"/>
-    <col min="47" max="47" width="15.375" customWidth="1"/>
+    <col min="38" max="38" width="16.8984375" customWidth="1"/>
+    <col min="39" max="39" width="17.8984375" customWidth="1"/>
+    <col min="40" max="40" width="23.59765625" customWidth="1"/>
+    <col min="41" max="41" width="20.3984375" customWidth="1"/>
+    <col min="42" max="42" width="32.8984375" customWidth="1"/>
+    <col min="43" max="43" width="30.3984375" customWidth="1"/>
+    <col min="44" max="44" width="42.09765625" customWidth="1"/>
+    <col min="45" max="45" width="40.8984375" customWidth="1"/>
+    <col min="46" max="46" width="33.09765625" customWidth="1"/>
+    <col min="47" max="47" width="15.3984375" customWidth="1"/>
     <col min="48" max="48" width="47" customWidth="1"/>
-    <col min="49" max="49" width="25.375" customWidth="1"/>
-    <col min="50" max="50" width="31.625" customWidth="1"/>
-    <col min="51" max="51" width="20.75" style="1" customWidth="1"/>
+    <col min="49" max="49" width="25.3984375" customWidth="1"/>
+    <col min="50" max="50" width="31.59765625" customWidth="1"/>
+    <col min="51" max="51" width="20.69921875" style="1" customWidth="1"/>
     <col min="52" max="52" width="16.5" customWidth="1"/>
     <col min="53" max="53" width="45.5" style="1" customWidth="1"/>
-    <col min="54" max="54" width="111.125" customWidth="1"/>
-    <col min="55" max="1023" width="10.75" customWidth="1"/>
+    <col min="54" max="54" width="111.09765625" customWidth="1"/>
+    <col min="55" max="1023" width="10.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" s="2" customFormat="1" ht="15">
+    <row r="1" spans="1:54" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5823,7 +5829,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:54" s="4" customFormat="1">
+    <row r="2" spans="1:54" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -5987,7 +5993,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="3" spans="1:54">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6151,7 +6157,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="4" spans="1:54" ht="15">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6315,7 +6321,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="5" spans="1:54">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6479,7 +6485,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="6" spans="1:54">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6643,7 +6649,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="7" spans="1:54">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6807,7 +6813,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="8" spans="1:54">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6971,7 +6977,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="9" spans="1:54">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -7135,7 +7141,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="10" spans="1:54">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -7299,7 +7305,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="11" spans="1:54">
+    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -7463,7 +7469,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="12" spans="1:54">
+    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -7627,7 +7633,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="13" spans="1:54">
+    <row r="13" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -7791,7 +7797,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="14" spans="1:54">
+    <row r="14" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -7955,7 +7961,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="15" spans="1:54">
+    <row r="15" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -8119,7 +8125,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="16" spans="1:54">
+    <row r="16" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -8283,7 +8289,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="17" spans="1:54">
+    <row r="17" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -8447,7 +8453,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="18" spans="1:54">
+    <row r="18" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -8608,7 +8614,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="19" spans="1:54">
+    <row r="19" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -8769,7 +8775,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="20" spans="1:54">
+    <row r="20" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -8933,7 +8939,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="21" spans="1:54">
+    <row r="21" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -9097,7 +9103,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="22" spans="1:54">
+    <row r="22" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -9261,7 +9267,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="23" spans="1:54">
+    <row r="23" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -9425,7 +9431,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="24" spans="1:54">
+    <row r="24" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -9589,7 +9595,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="25" spans="1:54">
+    <row r="25" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -9753,7 +9759,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="26" spans="1:54">
+    <row r="26" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -9917,7 +9923,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="27" spans="1:54">
+    <row r="27" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -10081,7 +10087,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="28" spans="1:54">
+    <row r="28" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -10245,7 +10251,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="29" spans="1:54">
+    <row r="29" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -10409,7 +10415,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="30" spans="1:54">
+    <row r="30" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -10570,7 +10576,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="31" spans="1:54">
+    <row r="31" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -10734,7 +10740,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="32" spans="1:54">
+    <row r="32" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -10898,7 +10904,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="33" spans="1:54">
+    <row r="33" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -11062,7 +11068,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="34" spans="1:54">
+    <row r="34" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -11226,7 +11232,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="35" spans="1:54">
+    <row r="35" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -11390,7 +11396,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="36" spans="1:54">
+    <row r="36" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -11554,7 +11560,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="37" spans="1:54">
+    <row r="37" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -11718,7 +11724,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="38" spans="1:54">
+    <row r="38" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -11882,7 +11888,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="39" spans="1:54">
+    <row r="39" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -12046,7 +12052,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="40" spans="1:54">
+    <row r="40" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -12210,7 +12216,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="41" spans="1:54">
+    <row r="41" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -12374,7 +12380,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="42" spans="1:54">
+    <row r="42" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -12538,7 +12544,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="43" spans="1:54">
+    <row r="43" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -12702,7 +12708,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="44" spans="1:54">
+    <row r="44" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -12866,7 +12872,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="45" spans="1:54">
+    <row r="45" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -13030,7 +13036,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="46" spans="1:54">
+    <row r="46" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -13194,7 +13200,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="47" spans="1:54">
+    <row r="47" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -13358,7 +13364,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="48" spans="1:54">
+    <row r="48" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -13522,7 +13528,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="49" spans="1:54">
+    <row r="49" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -13686,7 +13692,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="50" spans="1:54">
+    <row r="50" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -13850,7 +13856,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="51" spans="1:54">
+    <row r="51" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -14014,7 +14020,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="52" spans="1:54">
+    <row r="52" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -14178,7 +14184,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="53" spans="1:54">
+    <row r="53" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -14342,7 +14348,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="54" spans="1:54">
+    <row r="54" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -14506,7 +14512,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="55" spans="1:54">
+    <row r="55" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -14670,7 +14676,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="56" spans="1:54">
+    <row r="56" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -14834,7 +14840,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="57" spans="1:54">
+    <row r="57" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -14998,7 +15004,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="58" spans="1:54">
+    <row r="58" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -15162,7 +15168,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="59" spans="1:54">
+    <row r="59" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -15326,7 +15332,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="60" spans="1:54">
+    <row r="60" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -15490,7 +15496,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="61" spans="1:54">
+    <row r="61" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -15654,7 +15660,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="62" spans="1:54">
+    <row r="62" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -15818,7 +15824,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="63" spans="1:54">
+    <row r="63" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -15982,7 +15988,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="64" spans="1:54">
+    <row r="64" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -16146,7 +16152,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="65" spans="1:54">
+    <row r="65" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -16310,7 +16316,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="66" spans="1:54">
+    <row r="66" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -16474,7 +16480,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="67" spans="1:54">
+    <row r="67" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -16638,7 +16644,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="68" spans="1:54">
+    <row r="68" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -16799,11 +16805,6 @@
         <v>235</v>
       </c>
       <c r="BB68">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="70" spans="1:54">
-      <c r="A70">
         <v>999</v>
       </c>
     </row>
@@ -16818,14 +16819,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="1" max="1" width="10.69921875" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0" right="0" top="0.39409448818897641" bottom="0.39409448818897641" header="0" footer="0"/>
@@ -16837,14 +16838,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="1" max="1" width="10.69921875" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0" right="0" top="0.39409448818897641" bottom="0.39409448818897641" header="0" footer="0"/>

--- a/Data/DWA_FS.xlsx
+++ b/Data/DWA_FS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Envimaster\DWA\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37402483-0D10-4512-90C9-DC76A3922C6C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE663AA-2881-4513-9461-DEEE76C9B2EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2960" uniqueCount="1697">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2961" uniqueCount="1698">
   <si>
     <t>ID</t>
   </si>
@@ -5161,6 +5161,9 @@
   </si>
   <si>
     <t>[h]fluma</t>
+  </si>
+  <si>
+    <t>wtf</t>
   </si>
 </sst>
 </file>
@@ -5346,7 +5349,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -5398,7 +5401,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -5600,10 +5603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BB68"/>
+  <dimension ref="A1:BB69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -16808,6 +16811,11 @@
         <v>999</v>
       </c>
     </row>
+    <row r="69" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>1697</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39409448818897641" bottom="0.39409448818897641" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Data/DWA_FS.xlsx
+++ b/Data/DWA_FS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Envimaster\DWA\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE663AA-2881-4513-9461-DEEE76C9B2EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B82A4F-ECF8-44A6-B06C-AAD2FB33331B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2961" uniqueCount="1698">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2960" uniqueCount="1697">
   <si>
     <t>ID</t>
   </si>
@@ -5161,9 +5161,6 @@
   </si>
   <si>
     <t>[h]fluma</t>
-  </si>
-  <si>
-    <t>wtf</t>
   </si>
 </sst>
 </file>
@@ -5603,7 +5600,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BB69"/>
+  <dimension ref="A1:BB68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
       <selection activeCell="A69" sqref="A69"/>
@@ -16811,11 +16808,6 @@
         <v>999</v>
       </c>
     </row>
-    <row r="69" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>1697</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39409448818897641" bottom="0.39409448818897641" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Data/DWA_FS.xlsx
+++ b/Data/DWA_FS.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Envimaster\DWA\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE663AA-2881-4513-9461-DEEE76C9B2EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2961" uniqueCount="1698">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2960" uniqueCount="1697">
   <si>
     <t>ID</t>
   </si>
@@ -5162,15 +5156,12 @@
   <si>
     <t>[h]fluma</t>
   </si>
-  <si>
-    <t>wtf</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5287,11 +5278,11 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Heading" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Heading1" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Result" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Result2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Heading" xfId="1"/>
+    <cellStyle name="Heading1" xfId="2"/>
+    <cellStyle name="Result" xfId="3"/>
+    <cellStyle name="Result2" xfId="4"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5349,7 +5340,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -5401,7 +5392,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -5595,80 +5586,80 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BB69"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:BB68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
       <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="10.69921875" customWidth="1"/>
-    <col min="2" max="2" width="10.69921875" style="11" customWidth="1"/>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="2" max="2" width="10.75" style="11" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="17.59765625" customWidth="1"/>
-    <col min="5" max="5" width="17.3984375" customWidth="1"/>
-    <col min="6" max="6" width="15.8984375" customWidth="1"/>
-    <col min="7" max="7" width="10.69921875" customWidth="1"/>
-    <col min="8" max="8" width="20.3984375" customWidth="1"/>
-    <col min="9" max="9" width="10.69921875" style="9" customWidth="1"/>
-    <col min="10" max="10" width="24.8984375" style="9" customWidth="1"/>
-    <col min="11" max="11" width="43.69921875" customWidth="1"/>
+    <col min="4" max="4" width="17.625" customWidth="1"/>
+    <col min="5" max="5" width="17.375" customWidth="1"/>
+    <col min="6" max="6" width="15.875" customWidth="1"/>
+    <col min="7" max="7" width="10.75" customWidth="1"/>
+    <col min="8" max="8" width="20.375" customWidth="1"/>
+    <col min="9" max="9" width="10.75" style="9" customWidth="1"/>
+    <col min="10" max="10" width="24.875" style="9" customWidth="1"/>
+    <col min="11" max="11" width="43.75" customWidth="1"/>
     <col min="12" max="12" width="45" customWidth="1"/>
     <col min="13" max="13" width="19" customWidth="1"/>
-    <col min="14" max="14" width="18.8984375" customWidth="1"/>
-    <col min="15" max="15" width="15.19921875" customWidth="1"/>
-    <col min="16" max="16" width="23.69921875" customWidth="1"/>
-    <col min="17" max="17" width="61.3984375" customWidth="1"/>
+    <col min="14" max="14" width="18.875" customWidth="1"/>
+    <col min="15" max="15" width="15.25" customWidth="1"/>
+    <col min="16" max="16" width="23.75" customWidth="1"/>
+    <col min="17" max="17" width="61.375" customWidth="1"/>
     <col min="18" max="18" width="22.5" customWidth="1"/>
-    <col min="19" max="19" width="23.69921875" customWidth="1"/>
+    <col min="19" max="19" width="23.75" customWidth="1"/>
     <col min="20" max="20" width="15.5" customWidth="1"/>
-    <col min="21" max="21" width="38.69921875" style="1" customWidth="1"/>
-    <col min="22" max="22" width="31.3984375" customWidth="1"/>
+    <col min="21" max="21" width="38.75" style="1" customWidth="1"/>
+    <col min="22" max="22" width="31.375" customWidth="1"/>
     <col min="23" max="23" width="28.5" customWidth="1"/>
     <col min="24" max="24" width="20" customWidth="1"/>
-    <col min="25" max="25" width="25.19921875" customWidth="1"/>
-    <col min="26" max="26" width="30.3984375" customWidth="1"/>
+    <col min="25" max="25" width="25.25" customWidth="1"/>
+    <col min="26" max="26" width="30.375" customWidth="1"/>
     <col min="27" max="27" width="19" customWidth="1"/>
     <col min="28" max="28" width="16" customWidth="1"/>
-    <col min="29" max="29" width="20.8984375" customWidth="1"/>
-    <col min="30" max="30" width="28.69921875" customWidth="1"/>
-    <col min="31" max="31" width="28.59765625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="28.19921875" customWidth="1"/>
-    <col min="33" max="33" width="25.69921875" customWidth="1"/>
-    <col min="34" max="34" width="57.69921875" customWidth="1"/>
+    <col min="29" max="29" width="20.875" customWidth="1"/>
+    <col min="30" max="30" width="28.75" customWidth="1"/>
+    <col min="31" max="31" width="28.625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="28.25" customWidth="1"/>
+    <col min="33" max="33" width="25.75" customWidth="1"/>
+    <col min="34" max="34" width="57.75" customWidth="1"/>
     <col min="35" max="35" width="21" customWidth="1"/>
-    <col min="36" max="36" width="37.19921875" customWidth="1"/>
+    <col min="36" max="36" width="37.25" customWidth="1"/>
     <col min="37" max="37" width="39" customWidth="1"/>
-    <col min="38" max="38" width="16.8984375" customWidth="1"/>
-    <col min="39" max="39" width="17.8984375" customWidth="1"/>
-    <col min="40" max="40" width="23.59765625" customWidth="1"/>
-    <col min="41" max="41" width="20.3984375" customWidth="1"/>
-    <col min="42" max="42" width="32.8984375" customWidth="1"/>
-    <col min="43" max="43" width="30.3984375" customWidth="1"/>
-    <col min="44" max="44" width="42.09765625" customWidth="1"/>
-    <col min="45" max="45" width="40.8984375" customWidth="1"/>
-    <col min="46" max="46" width="33.09765625" customWidth="1"/>
-    <col min="47" max="47" width="15.3984375" customWidth="1"/>
+    <col min="38" max="38" width="16.875" customWidth="1"/>
+    <col min="39" max="39" width="17.875" customWidth="1"/>
+    <col min="40" max="40" width="23.625" customWidth="1"/>
+    <col min="41" max="41" width="20.375" customWidth="1"/>
+    <col min="42" max="42" width="32.875" customWidth="1"/>
+    <col min="43" max="43" width="30.375" customWidth="1"/>
+    <col min="44" max="44" width="42.125" customWidth="1"/>
+    <col min="45" max="45" width="40.875" customWidth="1"/>
+    <col min="46" max="46" width="33.125" customWidth="1"/>
+    <col min="47" max="47" width="15.375" customWidth="1"/>
     <col min="48" max="48" width="47" customWidth="1"/>
-    <col min="49" max="49" width="25.3984375" customWidth="1"/>
-    <col min="50" max="50" width="31.59765625" customWidth="1"/>
-    <col min="51" max="51" width="20.69921875" style="1" customWidth="1"/>
+    <col min="49" max="49" width="25.375" customWidth="1"/>
+    <col min="50" max="50" width="31.625" customWidth="1"/>
+    <col min="51" max="51" width="20.75" style="1" customWidth="1"/>
     <col min="52" max="52" width="16.5" customWidth="1"/>
     <col min="53" max="53" width="45.5" style="1" customWidth="1"/>
-    <col min="54" max="54" width="111.09765625" customWidth="1"/>
-    <col min="55" max="1023" width="10.69921875" customWidth="1"/>
+    <col min="54" max="54" width="111.125" customWidth="1"/>
+    <col min="55" max="1023" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:54" s="2" customFormat="1" ht="15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5832,7 +5823,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:54" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:54" s="4" customFormat="1">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -5996,7 +5987,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:54">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6160,7 +6151,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:54" ht="15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6324,7 +6315,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:54">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6488,7 +6479,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:54">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6652,7 +6643,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:54">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6816,7 +6807,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:54">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6980,7 +6971,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:54">
       <c r="A9">
         <v>8</v>
       </c>
@@ -7144,7 +7135,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:54">
       <c r="A10">
         <v>9</v>
       </c>
@@ -7308,7 +7299,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:54">
       <c r="A11">
         <v>10</v>
       </c>
@@ -7472,7 +7463,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:54">
       <c r="A12">
         <v>11</v>
       </c>
@@ -7636,7 +7627,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:54">
       <c r="A13">
         <v>12</v>
       </c>
@@ -7800,7 +7791,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="14" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:54">
       <c r="A14">
         <v>13</v>
       </c>
@@ -7964,7 +7955,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="15" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:54">
       <c r="A15">
         <v>14</v>
       </c>
@@ -8128,7 +8119,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:54">
       <c r="A16">
         <v>15</v>
       </c>
@@ -8292,7 +8283,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="17" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:54">
       <c r="A17">
         <v>16</v>
       </c>
@@ -8456,7 +8447,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="18" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:54">
       <c r="A18">
         <v>17</v>
       </c>
@@ -8617,7 +8608,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="19" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:54">
       <c r="A19">
         <v>18</v>
       </c>
@@ -8778,7 +8769,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="20" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:54">
       <c r="A20">
         <v>19</v>
       </c>
@@ -8942,7 +8933,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="21" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:54">
       <c r="A21">
         <v>20</v>
       </c>
@@ -9106,7 +9097,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="22" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:54">
       <c r="A22">
         <v>21</v>
       </c>
@@ -9270,7 +9261,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="23" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:54">
       <c r="A23">
         <v>22</v>
       </c>
@@ -9434,7 +9425,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="24" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:54">
       <c r="A24">
         <v>23</v>
       </c>
@@ -9598,7 +9589,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="25" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:54">
       <c r="A25">
         <v>24</v>
       </c>
@@ -9762,7 +9753,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="26" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:54">
       <c r="A26">
         <v>25</v>
       </c>
@@ -9926,7 +9917,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="27" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:54">
       <c r="A27">
         <v>26</v>
       </c>
@@ -10090,7 +10081,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="28" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:54">
       <c r="A28">
         <v>27</v>
       </c>
@@ -10254,7 +10245,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="29" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:54">
       <c r="A29">
         <v>28</v>
       </c>
@@ -10418,7 +10409,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="30" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:54">
       <c r="A30">
         <v>29</v>
       </c>
@@ -10579,7 +10570,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="31" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:54">
       <c r="A31">
         <v>30</v>
       </c>
@@ -10743,7 +10734,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="32" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:54">
       <c r="A32">
         <v>31</v>
       </c>
@@ -10907,7 +10898,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="33" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:54">
       <c r="A33">
         <v>32</v>
       </c>
@@ -11071,7 +11062,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="34" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:54">
       <c r="A34">
         <v>33</v>
       </c>
@@ -11235,7 +11226,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="35" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:54">
       <c r="A35">
         <v>34</v>
       </c>
@@ -11399,7 +11390,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="36" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:54">
       <c r="A36">
         <v>35</v>
       </c>
@@ -11563,7 +11554,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="37" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:54">
       <c r="A37">
         <v>36</v>
       </c>
@@ -11727,7 +11718,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="38" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:54">
       <c r="A38">
         <v>37</v>
       </c>
@@ -11891,7 +11882,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="39" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:54">
       <c r="A39">
         <v>38</v>
       </c>
@@ -12055,7 +12046,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="40" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:54">
       <c r="A40">
         <v>39</v>
       </c>
@@ -12219,7 +12210,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="41" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:54">
       <c r="A41">
         <v>40</v>
       </c>
@@ -12383,7 +12374,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="42" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:54">
       <c r="A42">
         <v>41</v>
       </c>
@@ -12547,7 +12538,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="43" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:54">
       <c r="A43">
         <v>42</v>
       </c>
@@ -12711,7 +12702,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="44" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:54">
       <c r="A44">
         <v>43</v>
       </c>
@@ -12875,7 +12866,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="45" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:54">
       <c r="A45">
         <v>44</v>
       </c>
@@ -13039,7 +13030,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="46" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:54">
       <c r="A46">
         <v>45</v>
       </c>
@@ -13203,7 +13194,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="47" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:54">
       <c r="A47">
         <v>46</v>
       </c>
@@ -13367,7 +13358,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="48" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:54">
       <c r="A48">
         <v>47</v>
       </c>
@@ -13531,7 +13522,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="49" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:54">
       <c r="A49">
         <v>48</v>
       </c>
@@ -13695,7 +13686,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="50" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:54">
       <c r="A50">
         <v>49</v>
       </c>
@@ -13859,7 +13850,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="51" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:54">
       <c r="A51">
         <v>50</v>
       </c>
@@ -14023,7 +14014,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="52" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:54">
       <c r="A52">
         <v>51</v>
       </c>
@@ -14187,7 +14178,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="53" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:54">
       <c r="A53">
         <v>52</v>
       </c>
@@ -14351,7 +14342,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="54" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:54">
       <c r="A54">
         <v>53</v>
       </c>
@@ -14515,7 +14506,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="55" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:54">
       <c r="A55">
         <v>54</v>
       </c>
@@ -14679,7 +14670,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="56" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:54">
       <c r="A56">
         <v>55</v>
       </c>
@@ -14843,7 +14834,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="57" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:54">
       <c r="A57">
         <v>56</v>
       </c>
@@ -15007,7 +14998,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="58" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:54">
       <c r="A58">
         <v>57</v>
       </c>
@@ -15171,7 +15162,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="59" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:54">
       <c r="A59">
         <v>58</v>
       </c>
@@ -15335,7 +15326,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="60" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:54">
       <c r="A60">
         <v>59</v>
       </c>
@@ -15499,7 +15490,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="61" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:54">
       <c r="A61">
         <v>60</v>
       </c>
@@ -15663,7 +15654,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="62" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:54">
       <c r="A62">
         <v>61</v>
       </c>
@@ -15827,7 +15818,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="63" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:54">
       <c r="A63">
         <v>62</v>
       </c>
@@ -15991,7 +15982,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="64" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:54">
       <c r="A64">
         <v>63</v>
       </c>
@@ -16155,7 +16146,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="65" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:54">
       <c r="A65">
         <v>64</v>
       </c>
@@ -16319,7 +16310,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="66" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:54">
       <c r="A66">
         <v>65</v>
       </c>
@@ -16483,7 +16474,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="67" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:54">
       <c r="A67">
         <v>66</v>
       </c>
@@ -16647,7 +16638,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="68" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:54">
       <c r="A68">
         <v>67</v>
       </c>
@@ -16809,11 +16800,6 @@
       </c>
       <c r="BB68">
         <v>999</v>
-      </c>
-    </row>
-    <row r="69" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>1697</v>
       </c>
     </row>
   </sheetData>
@@ -16827,14 +16813,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="10.69921875" customWidth="1"/>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0" right="0" top="0.39409448818897641" bottom="0.39409448818897641" header="0" footer="0"/>
@@ -16846,14 +16832,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="10.69921875" customWidth="1"/>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0" right="0" top="0.39409448818897641" bottom="0.39409448818897641" header="0" footer="0"/>

--- a/Data/DWA_FS.xlsx
+++ b/Data/DWA_FS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Envimaster\DWA\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B82A4F-ECF8-44A6-B06C-AAD2FB33331B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0EDE6F-2027-4267-9D49-7EF2186A9494}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2960" uniqueCount="1697">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2961" uniqueCount="1698">
   <si>
     <t>ID</t>
   </si>
@@ -5161,6 +5161,9 @@
   </si>
   <si>
     <t>[h]fluma</t>
+  </si>
+  <si>
+    <t>test version</t>
   </si>
 </sst>
 </file>
@@ -5600,7 +5603,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BB68"/>
+  <dimension ref="A1:BB69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
       <selection activeCell="A69" sqref="A69"/>
@@ -16808,6 +16811,11 @@
         <v>999</v>
       </c>
     </row>
+    <row r="69" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>1697</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39409448818897641" bottom="0.39409448818897641" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Data/DWA_FS.xlsx
+++ b/Data/DWA_FS.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Envimaster\DWA\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0EDE6F-2027-4267-9D49-7EF2186A9494}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2961" uniqueCount="1698">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2960" uniqueCount="1697">
   <si>
     <t>ID</t>
   </si>
@@ -5162,15 +5156,12 @@
   <si>
     <t>[h]fluma</t>
   </si>
-  <si>
-    <t>test version</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5287,11 +5278,11 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Heading" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Heading1" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Result" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Result2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Heading" xfId="1"/>
+    <cellStyle name="Heading1" xfId="2"/>
+    <cellStyle name="Result" xfId="3"/>
+    <cellStyle name="Result2" xfId="4"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5349,7 +5340,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -5401,7 +5392,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -5595,80 +5586,80 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BB69"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:BB68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
       <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="10.69921875" customWidth="1"/>
-    <col min="2" max="2" width="10.69921875" style="11" customWidth="1"/>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="2" max="2" width="10.75" style="11" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="17.59765625" customWidth="1"/>
-    <col min="5" max="5" width="17.3984375" customWidth="1"/>
-    <col min="6" max="6" width="15.8984375" customWidth="1"/>
-    <col min="7" max="7" width="10.69921875" customWidth="1"/>
-    <col min="8" max="8" width="20.3984375" customWidth="1"/>
-    <col min="9" max="9" width="10.69921875" style="9" customWidth="1"/>
-    <col min="10" max="10" width="24.8984375" style="9" customWidth="1"/>
-    <col min="11" max="11" width="43.69921875" customWidth="1"/>
+    <col min="4" max="4" width="17.625" customWidth="1"/>
+    <col min="5" max="5" width="17.375" customWidth="1"/>
+    <col min="6" max="6" width="15.875" customWidth="1"/>
+    <col min="7" max="7" width="10.75" customWidth="1"/>
+    <col min="8" max="8" width="20.375" customWidth="1"/>
+    <col min="9" max="9" width="10.75" style="9" customWidth="1"/>
+    <col min="10" max="10" width="24.875" style="9" customWidth="1"/>
+    <col min="11" max="11" width="43.75" customWidth="1"/>
     <col min="12" max="12" width="45" customWidth="1"/>
     <col min="13" max="13" width="19" customWidth="1"/>
-    <col min="14" max="14" width="18.8984375" customWidth="1"/>
-    <col min="15" max="15" width="15.19921875" customWidth="1"/>
-    <col min="16" max="16" width="23.69921875" customWidth="1"/>
-    <col min="17" max="17" width="61.3984375" customWidth="1"/>
+    <col min="14" max="14" width="18.875" customWidth="1"/>
+    <col min="15" max="15" width="15.25" customWidth="1"/>
+    <col min="16" max="16" width="23.75" customWidth="1"/>
+    <col min="17" max="17" width="61.375" customWidth="1"/>
     <col min="18" max="18" width="22.5" customWidth="1"/>
-    <col min="19" max="19" width="23.69921875" customWidth="1"/>
+    <col min="19" max="19" width="23.75" customWidth="1"/>
     <col min="20" max="20" width="15.5" customWidth="1"/>
-    <col min="21" max="21" width="38.69921875" style="1" customWidth="1"/>
-    <col min="22" max="22" width="31.3984375" customWidth="1"/>
+    <col min="21" max="21" width="38.75" style="1" customWidth="1"/>
+    <col min="22" max="22" width="31.375" customWidth="1"/>
     <col min="23" max="23" width="28.5" customWidth="1"/>
     <col min="24" max="24" width="20" customWidth="1"/>
-    <col min="25" max="25" width="25.19921875" customWidth="1"/>
-    <col min="26" max="26" width="30.3984375" customWidth="1"/>
+    <col min="25" max="25" width="25.25" customWidth="1"/>
+    <col min="26" max="26" width="30.375" customWidth="1"/>
     <col min="27" max="27" width="19" customWidth="1"/>
     <col min="28" max="28" width="16" customWidth="1"/>
-    <col min="29" max="29" width="20.8984375" customWidth="1"/>
-    <col min="30" max="30" width="28.69921875" customWidth="1"/>
-    <col min="31" max="31" width="28.59765625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="28.19921875" customWidth="1"/>
-    <col min="33" max="33" width="25.69921875" customWidth="1"/>
-    <col min="34" max="34" width="57.69921875" customWidth="1"/>
+    <col min="29" max="29" width="20.875" customWidth="1"/>
+    <col min="30" max="30" width="28.75" customWidth="1"/>
+    <col min="31" max="31" width="28.625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="28.25" customWidth="1"/>
+    <col min="33" max="33" width="25.75" customWidth="1"/>
+    <col min="34" max="34" width="57.75" customWidth="1"/>
     <col min="35" max="35" width="21" customWidth="1"/>
-    <col min="36" max="36" width="37.19921875" customWidth="1"/>
+    <col min="36" max="36" width="37.25" customWidth="1"/>
     <col min="37" max="37" width="39" customWidth="1"/>
-    <col min="38" max="38" width="16.8984375" customWidth="1"/>
-    <col min="39" max="39" width="17.8984375" customWidth="1"/>
-    <col min="40" max="40" width="23.59765625" customWidth="1"/>
-    <col min="41" max="41" width="20.3984375" customWidth="1"/>
-    <col min="42" max="42" width="32.8984375" customWidth="1"/>
-    <col min="43" max="43" width="30.3984375" customWidth="1"/>
-    <col min="44" max="44" width="42.09765625" customWidth="1"/>
-    <col min="45" max="45" width="40.8984375" customWidth="1"/>
-    <col min="46" max="46" width="33.09765625" customWidth="1"/>
-    <col min="47" max="47" width="15.3984375" customWidth="1"/>
+    <col min="38" max="38" width="16.875" customWidth="1"/>
+    <col min="39" max="39" width="17.875" customWidth="1"/>
+    <col min="40" max="40" width="23.625" customWidth="1"/>
+    <col min="41" max="41" width="20.375" customWidth="1"/>
+    <col min="42" max="42" width="32.875" customWidth="1"/>
+    <col min="43" max="43" width="30.375" customWidth="1"/>
+    <col min="44" max="44" width="42.125" customWidth="1"/>
+    <col min="45" max="45" width="40.875" customWidth="1"/>
+    <col min="46" max="46" width="33.125" customWidth="1"/>
+    <col min="47" max="47" width="15.375" customWidth="1"/>
     <col min="48" max="48" width="47" customWidth="1"/>
-    <col min="49" max="49" width="25.3984375" customWidth="1"/>
-    <col min="50" max="50" width="31.59765625" customWidth="1"/>
-    <col min="51" max="51" width="20.69921875" style="1" customWidth="1"/>
+    <col min="49" max="49" width="25.375" customWidth="1"/>
+    <col min="50" max="50" width="31.625" customWidth="1"/>
+    <col min="51" max="51" width="20.75" style="1" customWidth="1"/>
     <col min="52" max="52" width="16.5" customWidth="1"/>
     <col min="53" max="53" width="45.5" style="1" customWidth="1"/>
-    <col min="54" max="54" width="111.09765625" customWidth="1"/>
-    <col min="55" max="1023" width="10.69921875" customWidth="1"/>
+    <col min="54" max="54" width="111.125" customWidth="1"/>
+    <col min="55" max="1023" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:54" s="2" customFormat="1" ht="15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5832,7 +5823,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:54" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:54" s="4" customFormat="1">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -5996,7 +5987,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:54">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6160,7 +6151,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:54" ht="15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6324,7 +6315,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:54">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6488,7 +6479,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:54">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6652,7 +6643,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:54">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6816,7 +6807,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:54">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6980,7 +6971,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:54">
       <c r="A9">
         <v>8</v>
       </c>
@@ -7144,7 +7135,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:54">
       <c r="A10">
         <v>9</v>
       </c>
@@ -7308,7 +7299,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:54">
       <c r="A11">
         <v>10</v>
       </c>
@@ -7472,7 +7463,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:54">
       <c r="A12">
         <v>11</v>
       </c>
@@ -7636,7 +7627,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:54">
       <c r="A13">
         <v>12</v>
       </c>
@@ -7800,7 +7791,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="14" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:54">
       <c r="A14">
         <v>13</v>
       </c>
@@ -7964,7 +7955,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="15" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:54">
       <c r="A15">
         <v>14</v>
       </c>
@@ -8128,7 +8119,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:54">
       <c r="A16">
         <v>15</v>
       </c>
@@ -8292,7 +8283,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="17" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:54">
       <c r="A17">
         <v>16</v>
       </c>
@@ -8456,7 +8447,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="18" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:54">
       <c r="A18">
         <v>17</v>
       </c>
@@ -8617,7 +8608,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="19" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:54">
       <c r="A19">
         <v>18</v>
       </c>
@@ -8778,7 +8769,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="20" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:54">
       <c r="A20">
         <v>19</v>
       </c>
@@ -8942,7 +8933,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="21" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:54">
       <c r="A21">
         <v>20</v>
       </c>
@@ -9106,7 +9097,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="22" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:54">
       <c r="A22">
         <v>21</v>
       </c>
@@ -9270,7 +9261,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="23" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:54">
       <c r="A23">
         <v>22</v>
       </c>
@@ -9434,7 +9425,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="24" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:54">
       <c r="A24">
         <v>23</v>
       </c>
@@ -9598,7 +9589,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="25" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:54">
       <c r="A25">
         <v>24</v>
       </c>
@@ -9762,7 +9753,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="26" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:54">
       <c r="A26">
         <v>25</v>
       </c>
@@ -9926,7 +9917,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="27" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:54">
       <c r="A27">
         <v>26</v>
       </c>
@@ -10090,7 +10081,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="28" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:54">
       <c r="A28">
         <v>27</v>
       </c>
@@ -10254,7 +10245,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="29" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:54">
       <c r="A29">
         <v>28</v>
       </c>
@@ -10418,7 +10409,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="30" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:54">
       <c r="A30">
         <v>29</v>
       </c>
@@ -10579,7 +10570,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="31" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:54">
       <c r="A31">
         <v>30</v>
       </c>
@@ -10743,7 +10734,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="32" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:54">
       <c r="A32">
         <v>31</v>
       </c>
@@ -10907,7 +10898,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="33" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:54">
       <c r="A33">
         <v>32</v>
       </c>
@@ -11071,7 +11062,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="34" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:54">
       <c r="A34">
         <v>33</v>
       </c>
@@ -11235,7 +11226,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="35" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:54">
       <c r="A35">
         <v>34</v>
       </c>
@@ -11399,7 +11390,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="36" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:54">
       <c r="A36">
         <v>35</v>
       </c>
@@ -11563,7 +11554,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="37" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:54">
       <c r="A37">
         <v>36</v>
       </c>
@@ -11727,7 +11718,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="38" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:54">
       <c r="A38">
         <v>37</v>
       </c>
@@ -11891,7 +11882,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="39" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:54">
       <c r="A39">
         <v>38</v>
       </c>
@@ -12055,7 +12046,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="40" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:54">
       <c r="A40">
         <v>39</v>
       </c>
@@ -12219,7 +12210,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="41" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:54">
       <c r="A41">
         <v>40</v>
       </c>
@@ -12383,7 +12374,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="42" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:54">
       <c r="A42">
         <v>41</v>
       </c>
@@ -12547,7 +12538,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="43" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:54">
       <c r="A43">
         <v>42</v>
       </c>
@@ -12711,7 +12702,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="44" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:54">
       <c r="A44">
         <v>43</v>
       </c>
@@ -12875,7 +12866,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="45" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:54">
       <c r="A45">
         <v>44</v>
       </c>
@@ -13039,7 +13030,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="46" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:54">
       <c r="A46">
         <v>45</v>
       </c>
@@ -13203,7 +13194,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="47" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:54">
       <c r="A47">
         <v>46</v>
       </c>
@@ -13367,7 +13358,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="48" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:54">
       <c r="A48">
         <v>47</v>
       </c>
@@ -13531,7 +13522,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="49" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:54">
       <c r="A49">
         <v>48</v>
       </c>
@@ -13695,7 +13686,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="50" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:54">
       <c r="A50">
         <v>49</v>
       </c>
@@ -13859,7 +13850,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="51" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:54">
       <c r="A51">
         <v>50</v>
       </c>
@@ -14023,7 +14014,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="52" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:54">
       <c r="A52">
         <v>51</v>
       </c>
@@ -14187,7 +14178,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="53" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:54">
       <c r="A53">
         <v>52</v>
       </c>
@@ -14351,7 +14342,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="54" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:54">
       <c r="A54">
         <v>53</v>
       </c>
@@ -14515,7 +14506,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="55" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:54">
       <c r="A55">
         <v>54</v>
       </c>
@@ -14679,7 +14670,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="56" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:54">
       <c r="A56">
         <v>55</v>
       </c>
@@ -14843,7 +14834,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="57" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:54">
       <c r="A57">
         <v>56</v>
       </c>
@@ -15007,7 +14998,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="58" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:54">
       <c r="A58">
         <v>57</v>
       </c>
@@ -15171,7 +15162,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="59" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:54">
       <c r="A59">
         <v>58</v>
       </c>
@@ -15335,7 +15326,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="60" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:54">
       <c r="A60">
         <v>59</v>
       </c>
@@ -15499,7 +15490,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="61" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:54">
       <c r="A61">
         <v>60</v>
       </c>
@@ -15663,7 +15654,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="62" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:54">
       <c r="A62">
         <v>61</v>
       </c>
@@ -15827,7 +15818,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="63" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:54">
       <c r="A63">
         <v>62</v>
       </c>
@@ -15991,7 +15982,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="64" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:54">
       <c r="A64">
         <v>63</v>
       </c>
@@ -16155,7 +16146,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="65" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:54">
       <c r="A65">
         <v>64</v>
       </c>
@@ -16319,7 +16310,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="66" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:54">
       <c r="A66">
         <v>65</v>
       </c>
@@ -16483,7 +16474,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="67" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:54">
       <c r="A67">
         <v>66</v>
       </c>
@@ -16647,7 +16638,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="68" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:54">
       <c r="A68">
         <v>67</v>
       </c>
@@ -16809,11 +16800,6 @@
       </c>
       <c r="BB68">
         <v>999</v>
-      </c>
-    </row>
-    <row r="69" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>1697</v>
       </c>
     </row>
   </sheetData>
@@ -16827,14 +16813,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="10.69921875" customWidth="1"/>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0" right="0" top="0.39409448818897641" bottom="0.39409448818897641" header="0" footer="0"/>
@@ -16846,14 +16832,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="10.69921875" customWidth="1"/>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0" right="0" top="0.39409448818897641" bottom="0.39409448818897641" header="0" footer="0"/>

--- a/Data/DWA_FS.xlsx
+++ b/Data/DWA_FS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2960" uniqueCount="1697">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3400" uniqueCount="1926">
   <si>
     <t>ID</t>
   </si>
@@ -5155,6 +5155,693 @@
   </si>
   <si>
     <t>Furtwangen, ber. Anstellungsort Wirden</t>
+  </si>
+  <si>
+    <t>Z' {könnte auch z sein}</t>
+  </si>
+  <si>
+    <t>III_16_0001</t>
+  </si>
+  <si>
+    <t>u-U</t>
+  </si>
+  <si>
+    <t>Obertraubach</t>
+  </si>
+  <si>
+    <t>Emil [D]ürr</t>
+  </si>
+  <si>
+    <t>Großrinderfeld</t>
+  </si>
+  <si>
+    <t>durch ältere Leute u. Lehrer</t>
+  </si>
+  <si>
+    <t>vergrawe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alster  </t>
+  </si>
+  <si>
+    <t>Mügge</t>
+  </si>
+  <si>
+    <t>Gummere</t>
+  </si>
+  <si>
+    <t>Guggel, Hüen</t>
+  </si>
+  <si>
+    <t>Holdera</t>
+  </si>
+  <si>
+    <t>Galrüwe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soi  </t>
+  </si>
+  <si>
+    <t>Riamä</t>
+  </si>
+  <si>
+    <t>balga</t>
+  </si>
+  <si>
+    <t>Sohnfrau</t>
+  </si>
+  <si>
+    <t>Grüselbärä</t>
+  </si>
+  <si>
+    <t>Guve</t>
+  </si>
+  <si>
+    <t>Schtricknadle</t>
+  </si>
+  <si>
+    <t>Schüssela</t>
+  </si>
+  <si>
+    <t>Spalierobst {Informant offensichtlich in Zeile verrutscht, aber richtiges Wort nicht gefunden}</t>
+  </si>
+  <si>
+    <t>III_16_0002</t>
+  </si>
+  <si>
+    <t>u-a</t>
+  </si>
+  <si>
+    <t>St. Ulrich &lt;Nachbarort&gt;</t>
+  </si>
+  <si>
+    <t>[Altenach, St. Ulrich]</t>
+  </si>
+  <si>
+    <t>Fr. Grieh[s]ha[b]er</t>
+  </si>
+  <si>
+    <t>Schönau</t>
+  </si>
+  <si>
+    <t>b. Heidelberg</t>
+  </si>
+  <si>
+    <t>Omeisa (w)</t>
+  </si>
+  <si>
+    <t>Hågabutta</t>
+  </si>
+  <si>
+    <t>Guckel, Hüen</t>
+  </si>
+  <si>
+    <t>Holdara</t>
+  </si>
+  <si>
+    <t>Ardäpfel, Hardäpfel</t>
+  </si>
+  <si>
+    <t>Galarüwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mora </t>
+  </si>
+  <si>
+    <t>Riema, Peitscha</t>
+  </si>
+  <si>
+    <t>schålda</t>
+  </si>
+  <si>
+    <t>Tassa, Tassala</t>
+  </si>
+  <si>
+    <t>Håfa</t>
+  </si>
+  <si>
+    <t>veredla</t>
+  </si>
+  <si>
+    <t>u-R</t>
+  </si>
+  <si>
+    <t>Jos. Roll</t>
+  </si>
+  <si>
+    <t>Emmendingen</t>
+  </si>
+  <si>
+    <t>vermutlich der Bogen von Altenach, da nur Altenach mit Bleistift oben auf den Seiten steht</t>
+  </si>
+  <si>
+    <t>vermutlich der Bogen von St. Ulrich, da nur St. Ulrich mit Bleistift oben auf den Seiten steht</t>
+  </si>
+  <si>
+    <t>Ōmaisa (w)</t>
+  </si>
+  <si>
+    <t>Begräbnis, Vrgräbnis (w)</t>
+  </si>
+  <si>
+    <t>Dissl (w)</t>
+  </si>
+  <si>
+    <t>Āgerschda (w) {e über dem zweiten a}</t>
+  </si>
+  <si>
+    <t>Raedsch (m) {e ist seltsam schräg über dem a, vielleicht als Variante gedacht}</t>
+  </si>
+  <si>
+    <t>Flaedermüüs (w)</t>
+  </si>
+  <si>
+    <t>Āhmd (s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gågummara (w)   </t>
+  </si>
+  <si>
+    <t>Hågabudda (w)</t>
+  </si>
+  <si>
+    <t>Guggl (m), Huehn (w) {e ist seltsam schräg über dem a, vielleicht als Variante gedacht}</t>
+  </si>
+  <si>
+    <t>Hebåmma (w)</t>
+  </si>
+  <si>
+    <t>Hóldara</t>
+  </si>
+  <si>
+    <t>Hāerdepfl (m) {e ist seltsam schräg über dem a, vielleicht als Variante gedacht}</t>
+  </si>
+  <si>
+    <t>Schaermūes {e ist seltsam schräg über dem a, vielleicht als Variante gedacht}</t>
+  </si>
+  <si>
+    <t>Gaelriebla (s) {e ist seltsam schräg über dem a, vielleicht als Variante gedacht}</t>
+  </si>
+  <si>
+    <t>Mohra (w)</t>
+  </si>
+  <si>
+    <t>Pflṻma (w)</t>
+  </si>
+  <si>
+    <t>Riema (m) {e ist seltsam schräg über dem a, vielleicht als Variante gedacht}</t>
+  </si>
+  <si>
+    <t>haendla  {e ist seltsam schräg über dem a, vielleicht als Variante gedacht}</t>
+  </si>
+  <si>
+    <t>Grüslbära (w)</t>
+  </si>
+  <si>
+    <t>Schdeckōdla (w)</t>
+  </si>
+  <si>
+    <t>Schdricknōdla (w)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Håfa (m)   </t>
+  </si>
+  <si>
+    <t>zwiiga</t>
+  </si>
+  <si>
+    <t>Gais (w)</t>
+  </si>
+  <si>
+    <t>Daesala, Daellrla (s) cc</t>
+  </si>
+  <si>
+    <t>Gais (w)  {i ist seltsam schräg über dem a, vielleicht als Variante gedacht}</t>
+  </si>
+  <si>
+    <t>Schwiegrdōchdr (w)  {e ist seltsam schräg über dem a, vielleicht als Variante gedacht}</t>
+  </si>
+  <si>
+    <t>III_16_0003</t>
+  </si>
+  <si>
+    <t>III_16_0004</t>
+  </si>
+  <si>
+    <t>u-O</t>
+  </si>
+  <si>
+    <t>Gommersdorf</t>
+  </si>
+  <si>
+    <t>Kl. Mosser</t>
+  </si>
+  <si>
+    <t>Kr. Altkirch</t>
+  </si>
+  <si>
+    <t>Omaisala (w)</t>
+  </si>
+  <si>
+    <t>Begräbnis (m), Vergräbnis (m), Lic̄ht (w)</t>
+  </si>
+  <si>
+    <t>Bromala (w), Brumbera (w)</t>
+  </si>
+  <si>
+    <t>Fladermüss (w)</t>
+  </si>
+  <si>
+    <t>Gâgummara (w) &lt;â=nasal&gt;</t>
+  </si>
+  <si>
+    <t>Guckel (m), Höan (w)</t>
+  </si>
+  <si>
+    <t>Hebâm (w) &lt;â=nasal&gt;</t>
+  </si>
+  <si>
+    <t>Hardäpfl (m), Grumbeera (w)</t>
+  </si>
+  <si>
+    <t>Châtz (w) &lt;Ch=Kehllaut, â=nasal&gt;</t>
+  </si>
+  <si>
+    <t>Galriawa (w)</t>
+  </si>
+  <si>
+    <t>Suhnsfräu, Schwegertochter, Schwartochter (w)</t>
+  </si>
+  <si>
+    <t>Spâtz (m) &lt;â=nasal&gt;</t>
+  </si>
+  <si>
+    <t>Chrüsala (w)</t>
+  </si>
+  <si>
+    <t>Gufa (w), Gefale (w)</t>
+  </si>
+  <si>
+    <t>Tassala (w)</t>
+  </si>
+  <si>
+    <t>Hâfa (m) &lt;â=nasal&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gais (w)    </t>
+  </si>
+  <si>
+    <t>III_16_0005</t>
+  </si>
+  <si>
+    <t>u-S</t>
+  </si>
+  <si>
+    <t>Füllern</t>
+  </si>
+  <si>
+    <t>[Ra]ssang</t>
+  </si>
+  <si>
+    <t>[Merzen, Füllern]</t>
+  </si>
+  <si>
+    <t>Füllern steht auf Seite 4, Merzen und füllern auf Seite 1, Merzen in bleistift über allen Seiten</t>
+  </si>
+  <si>
+    <t>Omeise (w)</t>
+  </si>
+  <si>
+    <t>Licht (a, w)</t>
+  </si>
+  <si>
+    <t>Bromara (d', w)</t>
+  </si>
+  <si>
+    <t>Ratsch (a)</t>
+  </si>
+  <si>
+    <t>Ahmt (s', s)</t>
+  </si>
+  <si>
+    <t>Gogammer[a] (d', w)</t>
+  </si>
+  <si>
+    <t>Hagebutta (w)</t>
+  </si>
+  <si>
+    <t>Guckel (dr, m), Hen[?]e (a, w)</t>
+  </si>
+  <si>
+    <t>Hewamma (d', w)</t>
+  </si>
+  <si>
+    <t>Holdera (d', w)</t>
+  </si>
+  <si>
+    <t>Rolli (a, m)</t>
+  </si>
+  <si>
+    <t>Scharr (a, m)</t>
+  </si>
+  <si>
+    <t>Rewa (w)</t>
+  </si>
+  <si>
+    <t>Getta (dr, m)</t>
+  </si>
+  <si>
+    <t>Pflüma (w), Spaltlang (m)</t>
+  </si>
+  <si>
+    <t>Sohnsfroi (w)</t>
+  </si>
+  <si>
+    <t>Grüßelbeera (w)</t>
+  </si>
+  <si>
+    <t>Strecknodel (w)</t>
+  </si>
+  <si>
+    <t>Kehrla (a, s)</t>
+  </si>
+  <si>
+    <t>Gaiß (a, w)</t>
+  </si>
+  <si>
+    <t>III_16_0006</t>
+  </si>
+  <si>
+    <t>u-T</t>
+  </si>
+  <si>
+    <t>Karl Hossaine</t>
+  </si>
+  <si>
+    <t>Kaysersberg</t>
+  </si>
+  <si>
+    <t>Ameisala (s)</t>
+  </si>
+  <si>
+    <t>Licht (d', w)</t>
+  </si>
+  <si>
+    <t>Bromara (w)</t>
+  </si>
+  <si>
+    <t>nb {Fragezeichen}</t>
+  </si>
+  <si>
+    <t>Dissel (dr, m)</t>
+  </si>
+  <si>
+    <t>Gogom[a]ra (d', w)</t>
+  </si>
+  <si>
+    <t>Gockel (dr, m), Glugara (d', w)</t>
+  </si>
+  <si>
+    <t>–</t>
+  </si>
+  <si>
+    <t>Schaar (a, m) &lt;von scharren&gt;</t>
+  </si>
+  <si>
+    <t>Kohlrawa (w)</t>
+  </si>
+  <si>
+    <t>Mohra (d', w)</t>
+  </si>
+  <si>
+    <t>Getta (m)</t>
+  </si>
+  <si>
+    <t>Re[h]ma (m)</t>
+  </si>
+  <si>
+    <t>Re[ls]ma (dr, m) &lt;Riemen&gt;</t>
+  </si>
+  <si>
+    <t>Spaltl[e]ng (a, m)</t>
+  </si>
+  <si>
+    <t>Tassala (s)</t>
+  </si>
+  <si>
+    <t>Mahlkehrla (s)</t>
+  </si>
+  <si>
+    <t>III_16_0007</t>
+  </si>
+  <si>
+    <t>u-Ob</t>
+  </si>
+  <si>
+    <t>Wolfersdorf</t>
+  </si>
+  <si>
+    <t>Frau M. Gebert</t>
+  </si>
+  <si>
+    <t>[O]b. Elsaß</t>
+  </si>
+  <si>
+    <t>z' Grâbta geh, Begräbnis</t>
+  </si>
+  <si>
+    <t>Ratsch (d'r)</t>
+  </si>
+  <si>
+    <t>Gâgumra</t>
+  </si>
+  <si>
+    <t>Gugel, Hüan</t>
+  </si>
+  <si>
+    <t>Hewâmma</t>
+  </si>
+  <si>
+    <t>Galrüawa</t>
+  </si>
+  <si>
+    <t>Môra</t>
+  </si>
+  <si>
+    <t>Strecknôdel</t>
+  </si>
+  <si>
+    <t>Dasala, Dallerla</t>
+  </si>
+  <si>
+    <t>ardener Hâfa</t>
+  </si>
+  <si>
+    <t>Sôhnsfroi</t>
+  </si>
+  <si>
+    <t>u-W</t>
+  </si>
+  <si>
+    <t>III_16_0008</t>
+  </si>
+  <si>
+    <t>Bütweiler</t>
+  </si>
+  <si>
+    <t>Johann Simler</t>
+  </si>
+  <si>
+    <t>Boesenbiesen</t>
+  </si>
+  <si>
+    <t>U.-Els.</t>
+  </si>
+  <si>
+    <t>zu Grabse gehen</t>
+  </si>
+  <si>
+    <t>Egerste (w)</t>
+  </si>
+  <si>
+    <t>Ohmd (s)</t>
+  </si>
+  <si>
+    <t>Gagumer (w) &lt;von franz. Concombre&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guggel (m)  </t>
+  </si>
+  <si>
+    <t>Hewamm (w)</t>
+  </si>
+  <si>
+    <t>Erdäpfel (m)</t>
+  </si>
+  <si>
+    <t>Roller (m)</t>
+  </si>
+  <si>
+    <t>gelbe Rübe (w)</t>
+  </si>
+  <si>
+    <t>Gede (m)</t>
+  </si>
+  <si>
+    <t>Grüßelbeere (w)</t>
+  </si>
+  <si>
+    <t>Tasse (w)</t>
+  </si>
+  <si>
+    <t>Steintopf (m)</t>
+  </si>
+  <si>
+    <t>veredeln, zweigen</t>
+  </si>
+  <si>
+    <t>III_16_0009</t>
+  </si>
+  <si>
+    <t>u-X</t>
+  </si>
+  <si>
+    <t>Hagenbach</t>
+  </si>
+  <si>
+    <t>Otto Bücheler</t>
+  </si>
+  <si>
+    <t>Krauchenwies</t>
+  </si>
+  <si>
+    <t>Lehrer und Ratschreiber</t>
+  </si>
+  <si>
+    <t>Omeisa</t>
+  </si>
+  <si>
+    <t>Brumbera</t>
+  </si>
+  <si>
+    <t>Fladrmus</t>
+  </si>
+  <si>
+    <t>Amd</t>
+  </si>
+  <si>
+    <t>Buta</t>
+  </si>
+  <si>
+    <t>Guggl, Gluggera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hewamma  </t>
+  </si>
+  <si>
+    <t>Ardepfel</t>
+  </si>
+  <si>
+    <t>Katz</t>
+  </si>
+  <si>
+    <t>Galrüebe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moora </t>
+  </si>
+  <si>
+    <t>Riema</t>
+  </si>
+  <si>
+    <t>schelta</t>
+  </si>
+  <si>
+    <t>Sohnsfröi</t>
+  </si>
+  <si>
+    <t>Guva</t>
+  </si>
+  <si>
+    <t>Tasela</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gaiss </t>
+  </si>
+  <si>
+    <t>u-Z</t>
+  </si>
+  <si>
+    <t>Iii_16_0010</t>
+  </si>
+  <si>
+    <t>Ballersdorf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sundgau  </t>
+  </si>
+  <si>
+    <t>Justin [H]eyer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obersept </t>
+  </si>
+  <si>
+    <t>Kr. Altk.</t>
+  </si>
+  <si>
+    <t>z' Graabta &lt;gehen&gt;</t>
+  </si>
+  <si>
+    <t>Broombähra (w)</t>
+  </si>
+  <si>
+    <t>Amd (s)</t>
+  </si>
+  <si>
+    <t>Kukumera (w)</t>
+  </si>
+  <si>
+    <t>Haagabutta (w)</t>
+  </si>
+  <si>
+    <t>Guckel (m), Gluggera (w)</t>
+  </si>
+  <si>
+    <t>Häbaamma (w)</t>
+  </si>
+  <si>
+    <t>Holdera (w)</t>
+  </si>
+  <si>
+    <t>Scharmüs (m)</t>
+  </si>
+  <si>
+    <t>Mora (w)</t>
+  </si>
+  <si>
+    <t>Gäta (m)</t>
+  </si>
+  <si>
+    <t>Schwégertochter (w)</t>
+  </si>
+  <si>
+    <t>Spaatz (m)</t>
+  </si>
+  <si>
+    <t>Grüsselbähra (w)</t>
+  </si>
+  <si>
+    <t>[G]uffa (w)</t>
+  </si>
+  <si>
+    <t>Strécknodla (w)</t>
+  </si>
+  <si>
+    <t>Dépfi</t>
+  </si>
+  <si>
+    <t>Geis (w)</t>
   </si>
 </sst>
 </file>
@@ -5588,7 +6275,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5596,10 +6283,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BB68"/>
+  <dimension ref="A1:BB78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AX1" workbookViewId="0">
-      <selection activeCell="Q56" sqref="Q56"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5607,7 +6294,7 @@
     <col min="1" max="1" width="10.75" customWidth="1"/>
     <col min="2" max="2" width="10.75" style="11" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="17.625" customWidth="1"/>
+    <col min="4" max="4" width="20.125" customWidth="1"/>
     <col min="5" max="5" width="17.375" customWidth="1"/>
     <col min="6" max="6" width="15.875" customWidth="1"/>
     <col min="7" max="7" width="10.75" customWidth="1"/>
@@ -5626,8 +6313,8 @@
     <col min="20" max="20" width="15.5" customWidth="1"/>
     <col min="21" max="21" width="45.125" style="1" customWidth="1"/>
     <col min="22" max="22" width="31.375" customWidth="1"/>
-    <col min="23" max="23" width="28.5" customWidth="1"/>
-    <col min="24" max="24" width="20" customWidth="1"/>
+    <col min="23" max="23" width="33.625" customWidth="1"/>
+    <col min="24" max="24" width="24" customWidth="1"/>
     <col min="25" max="25" width="25.25" customWidth="1"/>
     <col min="26" max="26" width="30.375" customWidth="1"/>
     <col min="27" max="27" width="19" customWidth="1"/>
@@ -5638,7 +6325,7 @@
     <col min="32" max="32" width="28.25" customWidth="1"/>
     <col min="33" max="33" width="25.75" customWidth="1"/>
     <col min="34" max="34" width="57.75" customWidth="1"/>
-    <col min="35" max="35" width="21" customWidth="1"/>
+    <col min="35" max="35" width="24.75" customWidth="1"/>
     <col min="36" max="36" width="37.25" customWidth="1"/>
     <col min="37" max="37" width="39" customWidth="1"/>
     <col min="38" max="38" width="16.875" customWidth="1"/>
@@ -5650,7 +6337,7 @@
     <col min="44" max="44" width="42.125" customWidth="1"/>
     <col min="45" max="45" width="40.875" customWidth="1"/>
     <col min="46" max="46" width="33.125" customWidth="1"/>
-    <col min="47" max="47" width="15.375" customWidth="1"/>
+    <col min="47" max="47" width="16.375" customWidth="1"/>
     <col min="48" max="48" width="47" customWidth="1"/>
     <col min="49" max="49" width="25.375" customWidth="1"/>
     <col min="50" max="50" width="31.625" customWidth="1"/>
@@ -16801,6 +17488,1646 @@
         <v>233</v>
       </c>
       <c r="BB68">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:54">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" s="14">
+        <v>44754</v>
+      </c>
+      <c r="C69" t="s">
+        <v>54</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E69">
+        <v>9</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69" t="s">
+        <v>1698</v>
+      </c>
+      <c r="H69" t="s">
+        <v>90</v>
+      </c>
+      <c r="I69" s="9">
+        <v>24.4</v>
+      </c>
+      <c r="J69" s="9">
+        <v>47.35</v>
+      </c>
+      <c r="K69" s="11" t="s">
+        <v>1699</v>
+      </c>
+      <c r="L69" s="11" t="s">
+        <v>1700</v>
+      </c>
+      <c r="M69">
+        <v>999</v>
+      </c>
+      <c r="N69" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="O69">
+        <v>999</v>
+      </c>
+      <c r="P69" s="11" t="s">
+        <v>1701</v>
+      </c>
+      <c r="Q69" s="11" t="s">
+        <v>1702</v>
+      </c>
+      <c r="R69" s="11">
+        <v>999</v>
+      </c>
+      <c r="S69">
+        <v>999</v>
+      </c>
+      <c r="T69" t="s">
+        <v>538</v>
+      </c>
+      <c r="U69" s="1" t="s">
+        <v>1703</v>
+      </c>
+      <c r="V69" s="12" t="s">
+        <v>593</v>
+      </c>
+      <c r="W69" s="12" t="s">
+        <v>1704</v>
+      </c>
+      <c r="X69" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="Y69" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="Z69" s="12" t="s">
+        <v>1705</v>
+      </c>
+      <c r="AA69" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="AB69" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC69" s="15" t="s">
+        <v>1706</v>
+      </c>
+      <c r="AD69" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="AE69" s="15" t="s">
+        <v>1707</v>
+      </c>
+      <c r="AF69" s="15" t="s">
+        <v>1409</v>
+      </c>
+      <c r="AG69" s="15" t="s">
+        <v>1708</v>
+      </c>
+      <c r="AH69" s="15" t="s">
+        <v>845</v>
+      </c>
+      <c r="AI69" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="AJ69" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="AK69" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="AL69" s="15" t="s">
+        <v>1710</v>
+      </c>
+      <c r="AM69" s="15" t="s">
+        <v>1711</v>
+      </c>
+      <c r="AN69" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="AO69" s="15" t="s">
+        <v>1712</v>
+      </c>
+      <c r="AP69" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="AQ69" s="15" t="s">
+        <v>1713</v>
+      </c>
+      <c r="AR69" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS69" s="15" t="s">
+        <v>1715</v>
+      </c>
+      <c r="AT69" s="15" t="s">
+        <v>1716</v>
+      </c>
+      <c r="AU69" s="15" t="s">
+        <v>1717</v>
+      </c>
+      <c r="AV69" s="15" t="s">
+        <v>1718</v>
+      </c>
+      <c r="AW69" s="15" t="s">
+        <v>384</v>
+      </c>
+      <c r="AX69" s="15" t="s">
+        <v>1719</v>
+      </c>
+      <c r="AY69" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="AZ69" s="15" t="s">
+        <v>1709</v>
+      </c>
+      <c r="BA69" s="1" t="s">
+        <v>1714</v>
+      </c>
+      <c r="BB69">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:54">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70" s="14">
+        <v>44754</v>
+      </c>
+      <c r="C70" t="s">
+        <v>54</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E70">
+        <v>9</v>
+      </c>
+      <c r="F70">
+        <v>10</v>
+      </c>
+      <c r="G70" t="s">
+        <v>1720</v>
+      </c>
+      <c r="H70" t="s">
+        <v>57</v>
+      </c>
+      <c r="I70" s="9">
+        <v>24.4</v>
+      </c>
+      <c r="J70" s="9">
+        <v>47.35</v>
+      </c>
+      <c r="K70" s="11" t="s">
+        <v>1721</v>
+      </c>
+      <c r="L70" s="11" t="s">
+        <v>1723</v>
+      </c>
+      <c r="M70" s="11" t="s">
+        <v>1722</v>
+      </c>
+      <c r="N70" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="O70" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="P70" s="11" t="s">
+        <v>1724</v>
+      </c>
+      <c r="Q70" s="11" t="s">
+        <v>1725</v>
+      </c>
+      <c r="R70" s="11" t="s">
+        <v>1726</v>
+      </c>
+      <c r="S70" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="T70" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="U70" s="1">
+        <v>999</v>
+      </c>
+      <c r="V70" s="12" t="s">
+        <v>1727</v>
+      </c>
+      <c r="W70" s="12" t="s">
+        <v>1404</v>
+      </c>
+      <c r="X70" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y70" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="Z70" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA70" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="AB70" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC70" s="15" t="s">
+        <v>426</v>
+      </c>
+      <c r="AD70" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="AE70" s="15" t="s">
+        <v>1676</v>
+      </c>
+      <c r="AF70" s="15" t="s">
+        <v>1728</v>
+      </c>
+      <c r="AG70" s="15" t="s">
+        <v>1729</v>
+      </c>
+      <c r="AH70" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI70" s="15" t="s">
+        <v>1731</v>
+      </c>
+      <c r="AJ70" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="AK70" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="AL70" s="15" t="s">
+        <v>1732</v>
+      </c>
+      <c r="AM70" s="15" t="s">
+        <v>1733</v>
+      </c>
+      <c r="AN70" s="15" t="s">
+        <v>1477</v>
+      </c>
+      <c r="AO70" s="15" t="s">
+        <v>1734</v>
+      </c>
+      <c r="AP70" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="AQ70" s="15" t="s">
+        <v>1735</v>
+      </c>
+      <c r="AR70" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS70" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="AT70" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="AU70" s="15" t="s">
+        <v>902</v>
+      </c>
+      <c r="AV70" s="15" t="s">
+        <v>1736</v>
+      </c>
+      <c r="AW70" s="15" t="s">
+        <v>1737</v>
+      </c>
+      <c r="AX70" s="15" t="s">
+        <v>1738</v>
+      </c>
+      <c r="AY70" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AZ70" s="15" t="s">
+        <v>1730</v>
+      </c>
+      <c r="BA70" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="BB70" t="s">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="71" spans="1:54">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71" s="14">
+        <v>44754</v>
+      </c>
+      <c r="C71" t="s">
+        <v>54</v>
+      </c>
+      <c r="D71" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E71">
+        <v>9</v>
+      </c>
+      <c r="F71">
+        <v>11</v>
+      </c>
+      <c r="G71" t="s">
+        <v>1772</v>
+      </c>
+      <c r="H71" t="s">
+        <v>90</v>
+      </c>
+      <c r="I71" s="9">
+        <v>24.4</v>
+      </c>
+      <c r="J71" s="9">
+        <v>47.35</v>
+      </c>
+      <c r="K71" s="11" t="s">
+        <v>1739</v>
+      </c>
+      <c r="L71" s="11" t="s">
+        <v>1723</v>
+      </c>
+      <c r="M71" s="11">
+        <v>999</v>
+      </c>
+      <c r="N71" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="O71" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="P71" s="11" t="s">
+        <v>1740</v>
+      </c>
+      <c r="Q71" s="11" t="s">
+        <v>1741</v>
+      </c>
+      <c r="R71" s="11">
+        <v>999</v>
+      </c>
+      <c r="S71" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="T71" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="U71" s="1">
+        <v>999</v>
+      </c>
+      <c r="V71" s="12" t="s">
+        <v>1744</v>
+      </c>
+      <c r="W71" s="12" t="s">
+        <v>1745</v>
+      </c>
+      <c r="X71" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="Y71" s="12" t="s">
+        <v>1746</v>
+      </c>
+      <c r="Z71" s="12" t="s">
+        <v>1747</v>
+      </c>
+      <c r="AA71" s="12" t="s">
+        <v>1748</v>
+      </c>
+      <c r="AB71" s="15" t="s">
+        <v>1749</v>
+      </c>
+      <c r="AC71" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="AD71" s="15" t="s">
+        <v>1750</v>
+      </c>
+      <c r="AE71" s="15" t="s">
+        <v>1751</v>
+      </c>
+      <c r="AF71" s="15" t="s">
+        <v>1752</v>
+      </c>
+      <c r="AG71" s="15" t="s">
+        <v>1753</v>
+      </c>
+      <c r="AH71" s="15" t="s">
+        <v>1754</v>
+      </c>
+      <c r="AI71" s="15" t="s">
+        <v>1756</v>
+      </c>
+      <c r="AJ71" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="AK71" s="15" t="s">
+        <v>1757</v>
+      </c>
+      <c r="AL71" s="15" t="s">
+        <v>1758</v>
+      </c>
+      <c r="AM71" s="15" t="s">
+        <v>1759</v>
+      </c>
+      <c r="AN71" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="AO71" s="15" t="s">
+        <v>1761</v>
+      </c>
+      <c r="AP71" s="15" t="s">
+        <v>1760</v>
+      </c>
+      <c r="AQ71" s="15" t="s">
+        <v>1762</v>
+      </c>
+      <c r="AR71" s="15" t="s">
+        <v>705</v>
+      </c>
+      <c r="AS71" s="15" t="s">
+        <v>1763</v>
+      </c>
+      <c r="AT71" s="15" t="s">
+        <v>1764</v>
+      </c>
+      <c r="AU71" s="15" t="s">
+        <v>1765</v>
+      </c>
+      <c r="AV71" s="15" t="s">
+        <v>1769</v>
+      </c>
+      <c r="AW71" s="15" t="s">
+        <v>1766</v>
+      </c>
+      <c r="AX71" s="15" t="s">
+        <v>1767</v>
+      </c>
+      <c r="AY71" s="1" t="s">
+        <v>1770</v>
+      </c>
+      <c r="AZ71" s="15" t="s">
+        <v>1755</v>
+      </c>
+      <c r="BA71" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="BB71" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="72" spans="1:54">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72" s="14">
+        <v>44754</v>
+      </c>
+      <c r="C72" t="s">
+        <v>54</v>
+      </c>
+      <c r="D72" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E72">
+        <v>9</v>
+      </c>
+      <c r="F72">
+        <v>12</v>
+      </c>
+      <c r="G72" t="s">
+        <v>1773</v>
+      </c>
+      <c r="H72" t="s">
+        <v>241</v>
+      </c>
+      <c r="I72" s="9">
+        <v>24.4</v>
+      </c>
+      <c r="J72" s="9">
+        <v>47.35</v>
+      </c>
+      <c r="K72" s="11" t="s">
+        <v>1774</v>
+      </c>
+      <c r="L72" s="11" t="s">
+        <v>1775</v>
+      </c>
+      <c r="M72" s="11">
+        <v>999</v>
+      </c>
+      <c r="N72" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="O72" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="P72" s="11" t="s">
+        <v>1776</v>
+      </c>
+      <c r="Q72" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="R72" s="11" t="s">
+        <v>1777</v>
+      </c>
+      <c r="S72">
+        <v>999</v>
+      </c>
+      <c r="T72" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="U72" s="1">
+        <v>999</v>
+      </c>
+      <c r="V72" s="12" t="s">
+        <v>1778</v>
+      </c>
+      <c r="W72" s="12" t="s">
+        <v>1779</v>
+      </c>
+      <c r="X72" s="12" t="s">
+        <v>1780</v>
+      </c>
+      <c r="Y72" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z72" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="AA72" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB72" s="15" t="s">
+        <v>1781</v>
+      </c>
+      <c r="AC72" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="AD72" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="AE72" s="15" t="s">
+        <v>1782</v>
+      </c>
+      <c r="AF72" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="AG72" s="15" t="s">
+        <v>1783</v>
+      </c>
+      <c r="AH72" s="15" t="s">
+        <v>1784</v>
+      </c>
+      <c r="AI72" s="15" t="s">
+        <v>1785</v>
+      </c>
+      <c r="AJ72" s="15" t="s">
+        <v>1786</v>
+      </c>
+      <c r="AK72" s="15" t="s">
+        <v>1568</v>
+      </c>
+      <c r="AL72" s="15" t="s">
+        <v>1787</v>
+      </c>
+      <c r="AM72" s="15" t="s">
+        <v>464</v>
+      </c>
+      <c r="AN72" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="AO72" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="AP72" s="15" t="s">
+        <v>466</v>
+      </c>
+      <c r="AQ72" s="15" t="s">
+        <v>467</v>
+      </c>
+      <c r="AR72" s="15" t="s">
+        <v>1789</v>
+      </c>
+      <c r="AS72" s="15" t="s">
+        <v>1790</v>
+      </c>
+      <c r="AT72" s="15" t="s">
+        <v>1791</v>
+      </c>
+      <c r="AU72" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="AV72" s="15" t="s">
+        <v>1792</v>
+      </c>
+      <c r="AW72" s="15" t="s">
+        <v>1793</v>
+      </c>
+      <c r="AX72" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="AY72" s="1" t="s">
+        <v>1794</v>
+      </c>
+      <c r="AZ72" s="15" t="s">
+        <v>522</v>
+      </c>
+      <c r="BA72" s="1" t="s">
+        <v>1788</v>
+      </c>
+      <c r="BB72">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:54">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73" s="14">
+        <v>44754</v>
+      </c>
+      <c r="C73" t="s">
+        <v>54</v>
+      </c>
+      <c r="D73" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E73">
+        <v>9</v>
+      </c>
+      <c r="F73">
+        <v>13</v>
+      </c>
+      <c r="G73" t="s">
+        <v>1795</v>
+      </c>
+      <c r="H73" t="s">
+        <v>90</v>
+      </c>
+      <c r="I73" s="9">
+        <v>24.4</v>
+      </c>
+      <c r="J73" s="9">
+        <v>47.35</v>
+      </c>
+      <c r="K73" s="11" t="s">
+        <v>1796</v>
+      </c>
+      <c r="L73" s="11" t="s">
+        <v>1799</v>
+      </c>
+      <c r="M73" s="11">
+        <v>999</v>
+      </c>
+      <c r="N73" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="O73" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="P73" s="11" t="s">
+        <v>1798</v>
+      </c>
+      <c r="Q73" s="11" t="s">
+        <v>1824</v>
+      </c>
+      <c r="R73" s="11">
+        <v>999</v>
+      </c>
+      <c r="S73">
+        <v>999</v>
+      </c>
+      <c r="T73" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="U73" s="1">
+        <v>999</v>
+      </c>
+      <c r="V73" s="12" t="s">
+        <v>1801</v>
+      </c>
+      <c r="W73" s="12" t="s">
+        <v>1802</v>
+      </c>
+      <c r="X73" s="12" t="s">
+        <v>1803</v>
+      </c>
+      <c r="Y73" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z73" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="AA73" s="12" t="s">
+        <v>1804</v>
+      </c>
+      <c r="AB73" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC73" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="AD73" s="15" t="s">
+        <v>1805</v>
+      </c>
+      <c r="AE73" s="15" t="s">
+        <v>1806</v>
+      </c>
+      <c r="AF73" s="15" t="s">
+        <v>1807</v>
+      </c>
+      <c r="AG73" s="15" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AH73" s="15" t="s">
+        <v>1809</v>
+      </c>
+      <c r="AI73" s="15" t="s">
+        <v>1607</v>
+      </c>
+      <c r="AJ73" s="15" t="s">
+        <v>1811</v>
+      </c>
+      <c r="AK73" s="15" t="s">
+        <v>1812</v>
+      </c>
+      <c r="AL73" s="15" t="s">
+        <v>1813</v>
+      </c>
+      <c r="AM73" s="15" t="s">
+        <v>1759</v>
+      </c>
+      <c r="AN73" s="15" t="s">
+        <v>1814</v>
+      </c>
+      <c r="AO73" s="15" t="s">
+        <v>1837</v>
+      </c>
+      <c r="AP73" s="15" t="s">
+        <v>1815</v>
+      </c>
+      <c r="AQ73" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR73" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="AS73" s="15" t="s">
+        <v>1817</v>
+      </c>
+      <c r="AT73" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="AU73" s="15" t="s">
+        <v>1818</v>
+      </c>
+      <c r="AV73" s="15" t="s">
+        <v>1394</v>
+      </c>
+      <c r="AW73" s="15" t="s">
+        <v>1819</v>
+      </c>
+      <c r="AX73" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="AY73" s="1" t="s">
+        <v>1820</v>
+      </c>
+      <c r="AZ73" s="15" t="s">
+        <v>1810</v>
+      </c>
+      <c r="BA73" s="1" t="s">
+        <v>1816</v>
+      </c>
+      <c r="BB73" t="s">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="74" spans="1:54">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74" s="14">
+        <v>44754</v>
+      </c>
+      <c r="C74" t="s">
+        <v>54</v>
+      </c>
+      <c r="D74" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E74">
+        <v>9</v>
+      </c>
+      <c r="F74">
+        <v>14</v>
+      </c>
+      <c r="G74" t="s">
+        <v>1821</v>
+      </c>
+      <c r="H74" t="s">
+        <v>241</v>
+      </c>
+      <c r="I74" s="9">
+        <v>24.4</v>
+      </c>
+      <c r="J74" s="9">
+        <v>47.35</v>
+      </c>
+      <c r="K74" s="11" t="s">
+        <v>1822</v>
+      </c>
+      <c r="L74" s="11" t="s">
+        <v>1797</v>
+      </c>
+      <c r="M74" s="11">
+        <v>999</v>
+      </c>
+      <c r="N74" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="O74" s="11" t="s">
+        <v>1533</v>
+      </c>
+      <c r="P74" s="11" t="s">
+        <v>1823</v>
+      </c>
+      <c r="Q74" s="11" t="s">
+        <v>1824</v>
+      </c>
+      <c r="R74" s="11">
+        <v>999</v>
+      </c>
+      <c r="S74">
+        <v>999</v>
+      </c>
+      <c r="T74" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="U74" s="1">
+        <v>999</v>
+      </c>
+      <c r="V74" s="12" t="s">
+        <v>1825</v>
+      </c>
+      <c r="W74" s="12" t="s">
+        <v>1826</v>
+      </c>
+      <c r="X74" s="12" t="s">
+        <v>1827</v>
+      </c>
+      <c r="Y74" s="12" t="s">
+        <v>1829</v>
+      </c>
+      <c r="Z74" s="12" t="s">
+        <v>1828</v>
+      </c>
+      <c r="AA74" s="12" t="s">
+        <v>1562</v>
+      </c>
+      <c r="AB74" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC74" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD74" s="15" t="s">
+        <v>1805</v>
+      </c>
+      <c r="AE74" s="15" t="s">
+        <v>1830</v>
+      </c>
+      <c r="AF74" s="15" t="s">
+        <v>1603</v>
+      </c>
+      <c r="AG74" s="15" t="s">
+        <v>1831</v>
+      </c>
+      <c r="AH74" s="15" t="s">
+        <v>1809</v>
+      </c>
+      <c r="AI74" s="15" t="s">
+        <v>1503</v>
+      </c>
+      <c r="AJ74" s="15" t="s">
+        <v>1811</v>
+      </c>
+      <c r="AK74" s="15" t="s">
+        <v>1833</v>
+      </c>
+      <c r="AL74" s="15" t="s">
+        <v>1834</v>
+      </c>
+      <c r="AM74" s="15" t="s">
+        <v>1835</v>
+      </c>
+      <c r="AN74" s="15" t="s">
+        <v>1836</v>
+      </c>
+      <c r="AO74" s="15" t="s">
+        <v>1838</v>
+      </c>
+      <c r="AP74" s="15" t="s">
+        <v>1839</v>
+      </c>
+      <c r="AQ74" s="15" t="s">
+        <v>467</v>
+      </c>
+      <c r="AR74" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="AS74" s="15" t="s">
+        <v>1817</v>
+      </c>
+      <c r="AT74" t="s">
+        <v>300</v>
+      </c>
+      <c r="AU74" s="15" t="s">
+        <v>1818</v>
+      </c>
+      <c r="AV74" s="15" t="s">
+        <v>1840</v>
+      </c>
+      <c r="AW74" s="15" t="s">
+        <v>1841</v>
+      </c>
+      <c r="AX74" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="AY74" s="1" t="s">
+        <v>1768</v>
+      </c>
+      <c r="AZ74" s="15" t="s">
+        <v>1832</v>
+      </c>
+      <c r="BA74" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="BB74">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:54">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75" s="14">
+        <v>44754</v>
+      </c>
+      <c r="C75" t="s">
+        <v>54</v>
+      </c>
+      <c r="D75" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E75">
+        <v>9</v>
+      </c>
+      <c r="F75">
+        <v>15</v>
+      </c>
+      <c r="G75" t="s">
+        <v>1842</v>
+      </c>
+      <c r="H75" t="s">
+        <v>241</v>
+      </c>
+      <c r="I75" s="9">
+        <v>24.4</v>
+      </c>
+      <c r="J75" s="9">
+        <v>47.35</v>
+      </c>
+      <c r="K75" s="11" t="s">
+        <v>1843</v>
+      </c>
+      <c r="L75" s="11" t="s">
+        <v>1844</v>
+      </c>
+      <c r="M75" s="11">
+        <v>999</v>
+      </c>
+      <c r="N75" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="O75" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="P75" s="11" t="s">
+        <v>1845</v>
+      </c>
+      <c r="Q75" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="R75" s="11">
+        <v>999</v>
+      </c>
+      <c r="S75" s="11" t="s">
+        <v>1846</v>
+      </c>
+      <c r="T75" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="U75" s="1">
+        <v>999</v>
+      </c>
+      <c r="V75" s="12" t="s">
+        <v>1673</v>
+      </c>
+      <c r="W75" s="12" t="s">
+        <v>1847</v>
+      </c>
+      <c r="X75" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y75" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="Z75" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA75" s="12" t="s">
+        <v>1848</v>
+      </c>
+      <c r="AB75" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC75" s="15" t="s">
+        <v>426</v>
+      </c>
+      <c r="AD75" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="AE75" s="15" t="s">
+        <v>1849</v>
+      </c>
+      <c r="AF75" s="15" t="s">
+        <v>1471</v>
+      </c>
+      <c r="AG75" s="15" t="s">
+        <v>1850</v>
+      </c>
+      <c r="AH75" s="15" t="s">
+        <v>1851</v>
+      </c>
+      <c r="AI75" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="AJ75" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="AK75" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="AL75" s="15" t="s">
+        <v>1852</v>
+      </c>
+      <c r="AM75" s="15" t="s">
+        <v>1853</v>
+      </c>
+      <c r="AN75" s="15" t="s">
+        <v>435</v>
+      </c>
+      <c r="AO75" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP75" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="AQ75" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR75" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS75" s="15" t="s">
+        <v>1439</v>
+      </c>
+      <c r="AT75" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU75" s="15" t="s">
+        <v>1854</v>
+      </c>
+      <c r="AV75" s="15" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AW75" s="15" t="s">
+        <v>1856</v>
+      </c>
+      <c r="AX75" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="AY75" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="AZ75" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="BA75" s="1" t="s">
+        <v>1857</v>
+      </c>
+      <c r="BB75">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:54">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76" s="14">
+        <v>44754</v>
+      </c>
+      <c r="C76" t="s">
+        <v>54</v>
+      </c>
+      <c r="D76" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E76">
+        <v>9</v>
+      </c>
+      <c r="F76">
+        <v>16</v>
+      </c>
+      <c r="G76" t="s">
+        <v>1859</v>
+      </c>
+      <c r="H76" t="s">
+        <v>241</v>
+      </c>
+      <c r="I76" s="9">
+        <v>24.4</v>
+      </c>
+      <c r="J76" s="9">
+        <v>47.35</v>
+      </c>
+      <c r="K76" s="11" t="s">
+        <v>1858</v>
+      </c>
+      <c r="L76" s="11" t="s">
+        <v>1860</v>
+      </c>
+      <c r="M76" s="11">
+        <v>999</v>
+      </c>
+      <c r="N76" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="O76" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="P76" s="11" t="s">
+        <v>1861</v>
+      </c>
+      <c r="Q76" s="11" t="s">
+        <v>1862</v>
+      </c>
+      <c r="R76" s="11">
+        <v>999</v>
+      </c>
+      <c r="S76" s="11" t="s">
+        <v>1863</v>
+      </c>
+      <c r="T76" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="U76" s="1">
+        <v>999</v>
+      </c>
+      <c r="V76" s="12" t="s">
+        <v>955</v>
+      </c>
+      <c r="W76" s="12" t="s">
+        <v>1864</v>
+      </c>
+      <c r="X76" s="12" t="s">
+        <v>1628</v>
+      </c>
+      <c r="Y76" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z76" s="12" t="s">
+        <v>1865</v>
+      </c>
+      <c r="AA76" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB76" s="15" t="s">
+        <v>543</v>
+      </c>
+      <c r="AC76" s="15" t="s">
+        <v>544</v>
+      </c>
+      <c r="AD76" s="15" t="s">
+        <v>1866</v>
+      </c>
+      <c r="AE76" s="15" t="s">
+        <v>1867</v>
+      </c>
+      <c r="AF76" s="15" t="s">
+        <v>490</v>
+      </c>
+      <c r="AG76" s="15" t="s">
+        <v>1868</v>
+      </c>
+      <c r="AH76" s="15" t="s">
+        <v>1869</v>
+      </c>
+      <c r="AI76" s="15" t="s">
+        <v>1870</v>
+      </c>
+      <c r="AJ76" s="15" t="s">
+        <v>1871</v>
+      </c>
+      <c r="AK76" s="15" t="s">
+        <v>549</v>
+      </c>
+      <c r="AL76" s="15" t="s">
+        <v>1872</v>
+      </c>
+      <c r="AM76" s="15" t="s">
+        <v>1523</v>
+      </c>
+      <c r="AN76" s="15" t="s">
+        <v>1873</v>
+      </c>
+      <c r="AO76" s="15" t="s">
+        <v>552</v>
+      </c>
+      <c r="AP76" s="15" t="s">
+        <v>553</v>
+      </c>
+      <c r="AQ76" s="15" t="s">
+        <v>852</v>
+      </c>
+      <c r="AR76" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="AS76" s="15" t="s">
+        <v>1874</v>
+      </c>
+      <c r="AT76" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="AU76" s="15" t="s">
+        <v>557</v>
+      </c>
+      <c r="AV76" s="15" t="s">
+        <v>1875</v>
+      </c>
+      <c r="AW76" s="15" t="s">
+        <v>1876</v>
+      </c>
+      <c r="AX76" s="15" t="s">
+        <v>1877</v>
+      </c>
+      <c r="AY76" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="AZ76" s="15" t="s">
+        <v>548</v>
+      </c>
+      <c r="BA76" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="BB76">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:54">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77" s="14">
+        <v>44754</v>
+      </c>
+      <c r="C77" t="s">
+        <v>54</v>
+      </c>
+      <c r="D77" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E77">
+        <v>9</v>
+      </c>
+      <c r="F77">
+        <v>17</v>
+      </c>
+      <c r="G77" t="s">
+        <v>1878</v>
+      </c>
+      <c r="H77" t="s">
+        <v>241</v>
+      </c>
+      <c r="I77" s="9">
+        <v>24.4</v>
+      </c>
+      <c r="J77" s="9">
+        <v>47.35</v>
+      </c>
+      <c r="K77" s="11" t="s">
+        <v>1879</v>
+      </c>
+      <c r="L77" s="11" t="s">
+        <v>1880</v>
+      </c>
+      <c r="M77" s="11">
+        <v>999</v>
+      </c>
+      <c r="N77" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="O77" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="P77" s="11" t="s">
+        <v>1881</v>
+      </c>
+      <c r="Q77" s="11" t="s">
+        <v>1882</v>
+      </c>
+      <c r="R77" s="11">
+        <v>999</v>
+      </c>
+      <c r="S77" s="11">
+        <v>999</v>
+      </c>
+      <c r="T77" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="U77" s="1" t="s">
+        <v>1883</v>
+      </c>
+      <c r="V77" s="12" t="s">
+        <v>1884</v>
+      </c>
+      <c r="W77" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="X77" s="12" t="s">
+        <v>1885</v>
+      </c>
+      <c r="Y77" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="Z77" s="12" t="s">
+        <v>841</v>
+      </c>
+      <c r="AA77" s="12" t="s">
+        <v>959</v>
+      </c>
+      <c r="AB77" s="15" t="s">
+        <v>1886</v>
+      </c>
+      <c r="AC77" s="15" t="s">
+        <v>426</v>
+      </c>
+      <c r="AD77" s="15" t="s">
+        <v>1887</v>
+      </c>
+      <c r="AE77" s="15" t="s">
+        <v>1579</v>
+      </c>
+      <c r="AF77" s="15" t="s">
+        <v>1888</v>
+      </c>
+      <c r="AG77" s="15" t="s">
+        <v>1889</v>
+      </c>
+      <c r="AH77" s="15" t="s">
+        <v>1890</v>
+      </c>
+      <c r="AI77" s="15" t="s">
+        <v>1891</v>
+      </c>
+      <c r="AJ77" s="15" t="s">
+        <v>1892</v>
+      </c>
+      <c r="AK77" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="AL77" s="15" t="s">
+        <v>1893</v>
+      </c>
+      <c r="AM77" s="15" t="s">
+        <v>1894</v>
+      </c>
+      <c r="AN77" s="15" t="s">
+        <v>1477</v>
+      </c>
+      <c r="AO77" s="15" t="s">
+        <v>1895</v>
+      </c>
+      <c r="AP77" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="AQ77" s="15" t="s">
+        <v>1896</v>
+      </c>
+      <c r="AR77" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS77" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="AT77" s="15" t="s">
+        <v>1898</v>
+      </c>
+      <c r="AU77" s="15" t="s">
+        <v>902</v>
+      </c>
+      <c r="AV77" s="15" t="s">
+        <v>1899</v>
+      </c>
+      <c r="AW77" s="15" t="s">
+        <v>384</v>
+      </c>
+      <c r="AX77" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="AY77" s="1" t="s">
+        <v>1900</v>
+      </c>
+      <c r="AZ77" s="15" t="s">
+        <v>1709</v>
+      </c>
+      <c r="BA77" s="1" t="s">
+        <v>1897</v>
+      </c>
+      <c r="BB77">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:54">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78" s="14">
+        <v>44754</v>
+      </c>
+      <c r="C78" t="s">
+        <v>54</v>
+      </c>
+      <c r="D78" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E78">
+        <v>8</v>
+      </c>
+      <c r="F78">
+        <v>18</v>
+      </c>
+      <c r="G78" t="s">
+        <v>1902</v>
+      </c>
+      <c r="H78" t="s">
+        <v>241</v>
+      </c>
+      <c r="I78" s="9">
+        <v>24.4</v>
+      </c>
+      <c r="J78" s="9">
+        <v>47.35</v>
+      </c>
+      <c r="K78" s="11" t="s">
+        <v>1901</v>
+      </c>
+      <c r="L78" s="11" t="s">
+        <v>1903</v>
+      </c>
+      <c r="M78" s="11">
+        <v>999</v>
+      </c>
+      <c r="N78" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="O78" s="11" t="s">
+        <v>1904</v>
+      </c>
+      <c r="P78" s="11" t="s">
+        <v>1905</v>
+      </c>
+      <c r="Q78" s="11" t="s">
+        <v>1906</v>
+      </c>
+      <c r="R78" s="11" t="s">
+        <v>1907</v>
+      </c>
+      <c r="S78" s="11">
+        <v>999</v>
+      </c>
+      <c r="T78">
+        <v>999</v>
+      </c>
+      <c r="U78" s="1">
+        <v>999</v>
+      </c>
+      <c r="V78" s="12" t="s">
+        <v>1727</v>
+      </c>
+      <c r="W78" s="12" t="s">
+        <v>1908</v>
+      </c>
+      <c r="X78" s="12" t="s">
+        <v>1909</v>
+      </c>
+      <c r="Y78" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z78" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="AA78">
+        <v>999</v>
+      </c>
+      <c r="AB78" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC78" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="AD78" s="15" t="s">
+        <v>1910</v>
+      </c>
+      <c r="AE78" s="15" t="s">
+        <v>1911</v>
+      </c>
+      <c r="AF78" s="15" t="s">
+        <v>1912</v>
+      </c>
+      <c r="AG78" s="15" t="s">
+        <v>1913</v>
+      </c>
+      <c r="AH78" s="15" t="s">
+        <v>1914</v>
+      </c>
+      <c r="AI78" s="15" t="s">
+        <v>1015</v>
+      </c>
+      <c r="AJ78" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="AK78" s="15" t="s">
+        <v>1916</v>
+      </c>
+      <c r="AL78" s="15" t="s">
+        <v>1832</v>
+      </c>
+      <c r="AM78" s="15" t="s">
+        <v>1917</v>
+      </c>
+      <c r="AN78" s="15" t="s">
+        <v>1918</v>
+      </c>
+      <c r="AO78" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="AP78" s="15" t="s">
+        <v>466</v>
+      </c>
+      <c r="AQ78" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR78" s="15" t="s">
+        <v>1920</v>
+      </c>
+      <c r="AS78" s="15" t="s">
+        <v>1921</v>
+      </c>
+      <c r="AT78" s="15" t="s">
+        <v>1922</v>
+      </c>
+      <c r="AU78" s="15" t="s">
+        <v>1923</v>
+      </c>
+      <c r="AV78" s="15" t="s">
+        <v>1840</v>
+      </c>
+      <c r="AW78" s="15" t="s">
+        <v>1924</v>
+      </c>
+      <c r="AX78" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="AY78" s="1" t="s">
+        <v>1925</v>
+      </c>
+      <c r="AZ78" s="15" t="s">
+        <v>1915</v>
+      </c>
+      <c r="BA78" s="1" t="s">
+        <v>1919</v>
+      </c>
+      <c r="BB78">
         <v>999</v>
       </c>
     </row>

--- a/Data/DWA_FS.xlsx
+++ b/Data/DWA_FS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3400" uniqueCount="1926">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4084" uniqueCount="2217">
   <si>
     <t>ID</t>
   </si>
@@ -5772,9 +5772,6 @@
     <t>u-Z</t>
   </si>
   <si>
-    <t>Iii_16_0010</t>
-  </si>
-  <si>
     <t>Ballersdorf</t>
   </si>
   <si>
@@ -5842,6 +5839,882 @@
   </si>
   <si>
     <t>Geis (w)</t>
+  </si>
+  <si>
+    <t>III_16_0011</t>
+  </si>
+  <si>
+    <t>III_16_0010</t>
+  </si>
+  <si>
+    <t>x-i</t>
+  </si>
+  <si>
+    <t>Hindingen</t>
+  </si>
+  <si>
+    <t>Ernst Hinnenberger</t>
+  </si>
+  <si>
+    <t>Niederwihl</t>
+  </si>
+  <si>
+    <t>u. Johanna Müller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omaisala  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brombära  </t>
+  </si>
+  <si>
+    <t>Ähgerschta</t>
+  </si>
+  <si>
+    <t>Rätch (w)</t>
+  </si>
+  <si>
+    <t>Gakumara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buttla  </t>
+  </si>
+  <si>
+    <t>Holundera</t>
+  </si>
+  <si>
+    <t>artäpfel</t>
+  </si>
+  <si>
+    <t>Char</t>
+  </si>
+  <si>
+    <t>Mohra</t>
+  </si>
+  <si>
+    <t>Kätta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pflühma  </t>
+  </si>
+  <si>
+    <t>Crüsselbära</t>
+  </si>
+  <si>
+    <t>Strecknotla</t>
+  </si>
+  <si>
+    <t>Tassala</t>
+  </si>
+  <si>
+    <t>hahfa</t>
+  </si>
+  <si>
+    <t>zwieka</t>
+  </si>
+  <si>
+    <t>u-V</t>
+  </si>
+  <si>
+    <t>Niedertraubach</t>
+  </si>
+  <si>
+    <t>Elisabeth Bühr</t>
+  </si>
+  <si>
+    <t>i. Breisgau</t>
+  </si>
+  <si>
+    <t>Vergraben, Lich</t>
+  </si>
+  <si>
+    <t>Dissele</t>
+  </si>
+  <si>
+    <t>Āgester</t>
+  </si>
+  <si>
+    <t>Fladermaus</t>
+  </si>
+  <si>
+    <t>Ardäpfel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gelberübe  </t>
+  </si>
+  <si>
+    <t>Möhrle</t>
+  </si>
+  <si>
+    <t>Kufe</t>
+  </si>
+  <si>
+    <t>Schüssele</t>
+  </si>
+  <si>
+    <t>Geihs</t>
+  </si>
+  <si>
+    <t>III_16_0013</t>
+  </si>
+  <si>
+    <t>III_16_0012</t>
+  </si>
+  <si>
+    <t>u-[W]</t>
+  </si>
+  <si>
+    <t>Retzweiler-Elbach</t>
+  </si>
+  <si>
+    <t>O/ Elsaß</t>
+  </si>
+  <si>
+    <t>Albert Mutz</t>
+  </si>
+  <si>
+    <t>Omaisa (w)</t>
+  </si>
+  <si>
+    <t>Lïcht (A, w)</t>
+  </si>
+  <si>
+    <t>Brümbeera (w)</t>
+  </si>
+  <si>
+    <t>Dissel (A, m)</t>
+  </si>
+  <si>
+    <t>Agerschta (A, w)</t>
+  </si>
+  <si>
+    <t>Ratsch (A, m)</t>
+  </si>
+  <si>
+    <t>Fladermǖs (w)</t>
+  </si>
+  <si>
+    <t>Muka (D', w)</t>
+  </si>
+  <si>
+    <t>Amt (s', s)</t>
+  </si>
+  <si>
+    <t>Gāgummera (w)</t>
+  </si>
+  <si>
+    <t>HagaButta (w)</t>
+  </si>
+  <si>
+    <t>Kuggel (m), Hüan (w)</t>
+  </si>
+  <si>
+    <t>Hehmamma</t>
+  </si>
+  <si>
+    <t>Rolli (m), Katz (D')</t>
+  </si>
+  <si>
+    <t>Scharmüß</t>
+  </si>
+  <si>
+    <t>Mōra (D', w)</t>
+  </si>
+  <si>
+    <t>Getti (Dr', m)</t>
+  </si>
+  <si>
+    <t>Riama (Dr', m)</t>
+  </si>
+  <si>
+    <t>Stachelbeera</t>
+  </si>
+  <si>
+    <t>Schissala (s)</t>
+  </si>
+  <si>
+    <t>Ardiger Hafa (m)</t>
+  </si>
+  <si>
+    <t>III_16_0014</t>
+  </si>
+  <si>
+    <t>u-Ma</t>
+  </si>
+  <si>
+    <t>Gottestal</t>
+  </si>
+  <si>
+    <t>Moritz Emmenecker</t>
+  </si>
+  <si>
+    <t>Sulz</t>
+  </si>
+  <si>
+    <t>Omeis (w)</t>
+  </si>
+  <si>
+    <t>Brombeer (w)</t>
+  </si>
+  <si>
+    <t>Agerst (m)</t>
+  </si>
+  <si>
+    <t>Antaratscher (m)</t>
+  </si>
+  <si>
+    <t>Ahmt (s)</t>
+  </si>
+  <si>
+    <t>Gagummer (w)</t>
+  </si>
+  <si>
+    <t>Gockel (m), Huhn (w)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Holdra (w)  </t>
+  </si>
+  <si>
+    <t>Holdra (w)</t>
+  </si>
+  <si>
+    <t>Katzarolli (m)</t>
+  </si>
+  <si>
+    <t>Gelbrüben (w)</t>
+  </si>
+  <si>
+    <t>Mahra (w)</t>
+  </si>
+  <si>
+    <t>Pfetter (m)</t>
+  </si>
+  <si>
+    <t>Grüselbeera (w)</t>
+  </si>
+  <si>
+    <t>Guf (w)</t>
+  </si>
+  <si>
+    <t>Tassa (w), Schissala (s)</t>
+  </si>
+  <si>
+    <t>III_16_0016</t>
+  </si>
+  <si>
+    <t>u-Mc</t>
+  </si>
+  <si>
+    <t>Willern</t>
+  </si>
+  <si>
+    <t>Jasper Ruth</t>
+  </si>
+  <si>
+    <t>die Schüler Robert Wasser u. Luzian Stemmelin mit Hilfe der Eltern</t>
+  </si>
+  <si>
+    <t>Ōmaisǎ (w)</t>
+  </si>
+  <si>
+    <t>Begrōbnis {a über dem o, Strich geht über ganze Silbe}</t>
+  </si>
+  <si>
+    <t>Brūmbeerǎ (w)</t>
+  </si>
+  <si>
+    <t>Dissl (m) {Strich über dem i}</t>
+  </si>
+  <si>
+    <t>Āgeschdǎ (w)</t>
+  </si>
+  <si>
+    <t>Āndǎ (w)</t>
+  </si>
+  <si>
+    <t>Flādermüs (w)</t>
+  </si>
+  <si>
+    <t>Mūggǎ (w)</t>
+  </si>
+  <si>
+    <t>Gogūmmerǎ (w) {a über dem o}</t>
+  </si>
+  <si>
+    <t>Būddǎ (w)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gūggl (m), Hǖähn (w) </t>
+  </si>
+  <si>
+    <t>Hebomm[e] (w) {strich über der ersten Silbe, a über dem o}</t>
+  </si>
+  <si>
+    <t>Düweknopf (m) {Strich über der ersten Silbe}</t>
+  </si>
+  <si>
+    <t>Hartäpfel (m) {Strich über der ersten Silbe}</t>
+  </si>
+  <si>
+    <t>Koātzerolli (m)</t>
+  </si>
+  <si>
+    <t>Schārmǖs (w)</t>
+  </si>
+  <si>
+    <t>wilde R̄iěwǎ (w, m)</t>
+  </si>
+  <si>
+    <t>Söi [w]</t>
+  </si>
+  <si>
+    <t>Gǒtt[e] (m)</t>
+  </si>
+  <si>
+    <t>Riǎmǎ, Peitschǎ (m, w) {jeweils Strich über der ersten Silbe}</t>
+  </si>
+  <si>
+    <t>Pflǖmǎ (w) {a über dem ü}</t>
+  </si>
+  <si>
+    <t>handlǎ, schoaldǎ {Strich über der ersten Silbe, Strich über oa}</t>
+  </si>
+  <si>
+    <t>Schwiegǎdochǎ (w) {Strich über wie, och}</t>
+  </si>
+  <si>
+    <t>Sparliňg (m) {Strich über dem ar}</t>
+  </si>
+  <si>
+    <t>Grüslbärǎ (w) {Strich über dem rüs}</t>
+  </si>
+  <si>
+    <t>Stācknoādlǎ (w)</t>
+  </si>
+  <si>
+    <t>Stricknoadlǎ (w) {Strich über dem oa und dem ric}</t>
+  </si>
+  <si>
+    <t>Tossǎ &lt;Ober&gt;, Dāllǎrlǎ &lt;Unter&gt; (s) {Tsrich über dem os}</t>
+  </si>
+  <si>
+    <t>Hōfǎ (m) {a über dem o}</t>
+  </si>
+  <si>
+    <t>věrādlǎ, zwiagǎ {Strich über dem wia}</t>
+  </si>
+  <si>
+    <t>III_16_0017</t>
+  </si>
+  <si>
+    <t>u-N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retzweiler  </t>
+  </si>
+  <si>
+    <t>Klemens Mosser</t>
+  </si>
+  <si>
+    <t>Begräbnis (m), Vergräbnis (m), Lîcht (w)</t>
+  </si>
+  <si>
+    <t>Agersta (w) &lt;s=sch&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gȃgummara (w)   </t>
+  </si>
+  <si>
+    <t>Hebâm (w)</t>
+  </si>
+  <si>
+    <t>Hardäpfel (m), Grumbeera (w)</t>
+  </si>
+  <si>
+    <t>Chatz (w)</t>
+  </si>
+  <si>
+    <t>Spȃtz (m)</t>
+  </si>
+  <si>
+    <t>Krüsala (w)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hâfa (m)   </t>
+  </si>
+  <si>
+    <t>Suhnsfräu, Schwigertochter, Schwartochter (w)</t>
+  </si>
+  <si>
+    <t>III_16_0018</t>
+  </si>
+  <si>
+    <t>Dammerkirch</t>
+  </si>
+  <si>
+    <t>Hörner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Freiburg  </t>
+  </si>
+  <si>
+    <t>i.B.</t>
+  </si>
+  <si>
+    <t>ortsansässig</t>
+  </si>
+  <si>
+    <t>Omeisa &lt;ei nach ai klingend&gt;</t>
+  </si>
+  <si>
+    <t>Begräbnis, Licht</t>
+  </si>
+  <si>
+    <t>Agesta &lt;erste Silbe betont&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hagabutta  </t>
+  </si>
+  <si>
+    <t>Guckel, Hüan</t>
+  </si>
+  <si>
+    <t>Hollunder</t>
+  </si>
+  <si>
+    <t>Gallariawa</t>
+  </si>
+  <si>
+    <t>Mora</t>
+  </si>
+  <si>
+    <t>Suhnfraü</t>
+  </si>
+  <si>
+    <t>Spatz &lt;Schbats&gt;</t>
+  </si>
+  <si>
+    <t>Schdricknodla</t>
+  </si>
+  <si>
+    <t>Tassla</t>
+  </si>
+  <si>
+    <t>Gaiss</t>
+  </si>
+  <si>
+    <t>u-P</t>
+  </si>
+  <si>
+    <t>III_16_0019</t>
+  </si>
+  <si>
+    <t>Berta Brobeck</t>
+  </si>
+  <si>
+    <t>Horburg</t>
+  </si>
+  <si>
+    <t>bei Kolmar</t>
+  </si>
+  <si>
+    <t>Ma[n]sbach</t>
+  </si>
+  <si>
+    <t>Hebamma (w)</t>
+  </si>
+  <si>
+    <t>Holldra (w)</t>
+  </si>
+  <si>
+    <t>Rolly (m)</t>
+  </si>
+  <si>
+    <t>Gala Riawla (s)</t>
+  </si>
+  <si>
+    <t>Spaltling, Zwatschga (m, w)</t>
+  </si>
+  <si>
+    <t>Grüselbära (w)</t>
+  </si>
+  <si>
+    <t>Schtricknodla (w)</t>
+  </si>
+  <si>
+    <t>Dasala (w)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hafa (m)   </t>
+  </si>
+  <si>
+    <t>III_16_0020</t>
+  </si>
+  <si>
+    <t>[u]-n {könnte auch v sein}</t>
+  </si>
+  <si>
+    <t>Hirzbach</t>
+  </si>
+  <si>
+    <t>O/E</t>
+  </si>
+  <si>
+    <t>Omeisela (s)</t>
+  </si>
+  <si>
+    <t>Agerschte (w)</t>
+  </si>
+  <si>
+    <t>Ahmd (s)</t>
+  </si>
+  <si>
+    <t>Guckel (m), Gluckere (w)</t>
+  </si>
+  <si>
+    <t>Galrüwa (w)</t>
+  </si>
+  <si>
+    <t>Gätte (m)</t>
+  </si>
+  <si>
+    <t>schalt &lt;handle&gt;</t>
+  </si>
+  <si>
+    <t>Schwiegertochter (w), Suhnsfrau (w)</t>
+  </si>
+  <si>
+    <t>Grüselbeere (w)</t>
+  </si>
+  <si>
+    <t>&lt;Ober-T.&gt; Tassele (s), &lt;Unter-T.&gt; Tallerle (s)</t>
+  </si>
+  <si>
+    <t>Hafa (m)</t>
+  </si>
+  <si>
+    <t>III_16_0021</t>
+  </si>
+  <si>
+    <t>Alois Emberger</t>
+  </si>
+  <si>
+    <t>Werzen</t>
+  </si>
+  <si>
+    <t>[W]erzen</t>
+  </si>
+  <si>
+    <t>Li̠cht (w)</t>
+  </si>
+  <si>
+    <t>Egerschte (w)</t>
+  </si>
+  <si>
+    <t>Gager &lt;Ratsch&gt; (m)</t>
+  </si>
+  <si>
+    <t>Fledermüs (w)</t>
+  </si>
+  <si>
+    <t>Krieche (w)</t>
+  </si>
+  <si>
+    <t>händeln</t>
+  </si>
+  <si>
+    <t>Kaffeeschüsselchen (s)</t>
+  </si>
+  <si>
+    <t>III_16_0022</t>
+  </si>
+  <si>
+    <t>Heidweiler</t>
+  </si>
+  <si>
+    <t>Wilhelm Steiner</t>
+  </si>
+  <si>
+    <t>Bargen</t>
+  </si>
+  <si>
+    <t>Kr. Heidelberg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omeisa </t>
+  </si>
+  <si>
+    <t>Begrebnis</t>
+  </si>
+  <si>
+    <t>Dissl</t>
+  </si>
+  <si>
+    <t>Fladrmüs</t>
+  </si>
+  <si>
+    <t>Gågumra</t>
+  </si>
+  <si>
+    <t>Gugl, Hüen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hebåmma  </t>
+  </si>
+  <si>
+    <t>Hardäpfl</t>
+  </si>
+  <si>
+    <t>Galriaba</t>
+  </si>
+  <si>
+    <t>Moora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geddi  </t>
+  </si>
+  <si>
+    <t>Schwegrtochtr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spåtz  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grüslbeera  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schtrecknodla  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dassala  </t>
+  </si>
+  <si>
+    <t>[u]-d {könnte auch v sein}</t>
+  </si>
+  <si>
+    <t>[u]-b {könnte auch v sein}</t>
+  </si>
+  <si>
+    <t>III_16_0023</t>
+  </si>
+  <si>
+    <t>Tagolsheim</t>
+  </si>
+  <si>
+    <t>Oberelsass &lt;Sundgau&gt;</t>
+  </si>
+  <si>
+    <t>Franz [Z]eller</t>
+  </si>
+  <si>
+    <t>Konstanz</t>
+  </si>
+  <si>
+    <t>Omaise</t>
+  </si>
+  <si>
+    <t>Ageste</t>
+  </si>
+  <si>
+    <t>Ante</t>
+  </si>
+  <si>
+    <t>Gugumera</t>
+  </si>
+  <si>
+    <t>Guckel, Huën</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hardäpfel </t>
+  </si>
+  <si>
+    <t>Schar &lt;=mus&gt;</t>
+  </si>
+  <si>
+    <t>Göta</t>
+  </si>
+  <si>
+    <t>Krüsselbeera</t>
+  </si>
+  <si>
+    <t>Tasse, Tellerla</t>
+  </si>
+  <si>
+    <t>zwiga {Strich über dem i}</t>
+  </si>
+  <si>
+    <t>[u]-e {könnte auch v sein}</t>
+  </si>
+  <si>
+    <t>III_16_0024</t>
+  </si>
+  <si>
+    <t>Lümschweiler</t>
+  </si>
+  <si>
+    <t>Deutschler</t>
+  </si>
+  <si>
+    <t>St. Moritz</t>
+  </si>
+  <si>
+    <t>Lehrer mit Schülern</t>
+  </si>
+  <si>
+    <t>Egerste (w) {Ä über dem ersten E}</t>
+  </si>
+  <si>
+    <t>Ohmt (s)</t>
+  </si>
+  <si>
+    <t>Gugen, Hahn (m)</t>
+  </si>
+  <si>
+    <t>Holder (m) &lt;[nur] in Mehr. ange[?].&gt;</t>
+  </si>
+  <si>
+    <t>Sau (w)</t>
+  </si>
+  <si>
+    <t>Gruselbeere (w)</t>
+  </si>
+  <si>
+    <t>III_16_0025</t>
+  </si>
+  <si>
+    <t>[u]-f {könnte auch v sein}</t>
+  </si>
+  <si>
+    <t>Obermorschweiler</t>
+  </si>
+  <si>
+    <t>Kretz</t>
+  </si>
+  <si>
+    <t>Bindernheim</t>
+  </si>
+  <si>
+    <t>Kreis Sell[elt]stadt</t>
+  </si>
+  <si>
+    <t>zu Grabe gehen</t>
+  </si>
+  <si>
+    <t>Ohmet (das)</t>
+  </si>
+  <si>
+    <t>Gockel (do)</t>
+  </si>
+  <si>
+    <t>Holderbeere (die)</t>
+  </si>
+  <si>
+    <t>Roller (der)</t>
+  </si>
+  <si>
+    <t>Scharmaus (die)</t>
+  </si>
+  <si>
+    <t>[u]-c {könnte auch v sein}</t>
+  </si>
+  <si>
+    <t>III_16_0026</t>
+  </si>
+  <si>
+    <t>Walheim</t>
+  </si>
+  <si>
+    <t>Jos. Roll, Hptl.</t>
+  </si>
+  <si>
+    <t>Omaise (w)</t>
+  </si>
+  <si>
+    <t>Ageschde (w) {o über dem A}</t>
+  </si>
+  <si>
+    <t>Radsch (m)</t>
+  </si>
+  <si>
+    <t>Flādrmüs (w)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gågúmmara (w)   </t>
+  </si>
+  <si>
+    <t>Hågebudda</t>
+  </si>
+  <si>
+    <t>Guggl (m), Huhn (w) {e zwische u und h}</t>
+  </si>
+  <si>
+    <t>Hardäpfl (m) {e zwischen a und r}</t>
+  </si>
+  <si>
+    <t>Katzerolli (m)</t>
+  </si>
+  <si>
+    <t>Scharmuus (w) {e zwischen a und r}</t>
+  </si>
+  <si>
+    <t>Galribla (s) {e zwischen i und b}</t>
+  </si>
+  <si>
+    <t>Gedda (m) {e hinter dem a}</t>
+  </si>
+  <si>
+    <t>Riima [m] {e zwischen i und m}</t>
+  </si>
+  <si>
+    <t>schalda, handla {jeweils e hinter dem ersten a}</t>
+  </si>
+  <si>
+    <t>Schwigrdōchdr (w) {e hinter dem i}</t>
+  </si>
+  <si>
+    <t>Schtricknådla (w)</t>
+  </si>
+  <si>
+    <t>Schdecknådl, Gufa (w)</t>
+  </si>
+  <si>
+    <t>Dásala, Dállrla (s)</t>
+  </si>
+  <si>
+    <t>[u]-i {könnte auch v sein}</t>
+  </si>
+  <si>
+    <t>III_16_0027</t>
+  </si>
+  <si>
+    <t>Altkirch-Aspach</t>
+  </si>
+  <si>
+    <t>Lehmann</t>
+  </si>
+  <si>
+    <t>Ziflisheim</t>
+  </si>
+  <si>
+    <t>Fledermüs</t>
+  </si>
+  <si>
+    <t>Gukel, Hüan</t>
+  </si>
+  <si>
+    <t>Hastäpfel</t>
+  </si>
+  <si>
+    <t>Mohriewa</t>
+  </si>
+  <si>
+    <t>Suhnsfrau</t>
+  </si>
+  <si>
+    <t>[T]assala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ardiger Hafa  </t>
   </si>
 </sst>
 </file>
@@ -6283,10 +7156,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BB78"/>
+  <dimension ref="A1:BB94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6342,7 +7215,7 @@
     <col min="49" max="49" width="25.375" customWidth="1"/>
     <col min="50" max="50" width="31.625" customWidth="1"/>
     <col min="51" max="51" width="20.75" style="1" customWidth="1"/>
-    <col min="52" max="52" width="16.5" customWidth="1"/>
+    <col min="52" max="52" width="27.25" customWidth="1"/>
     <col min="53" max="53" width="45.5" style="1" customWidth="1"/>
     <col min="54" max="54" width="111.125" customWidth="1"/>
     <col min="55" max="1023" width="10.75" customWidth="1"/>
@@ -18981,13 +19854,13 @@
         <v>1697</v>
       </c>
       <c r="E78">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F78">
         <v>18</v>
       </c>
       <c r="G78" t="s">
-        <v>1902</v>
+        <v>1926</v>
       </c>
       <c r="H78" t="s">
         <v>241</v>
@@ -19002,7 +19875,7 @@
         <v>1901</v>
       </c>
       <c r="L78" s="11" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="M78" s="11">
         <v>999</v>
@@ -19011,16 +19884,16 @@
         <v>92</v>
       </c>
       <c r="O78" s="11" t="s">
+        <v>1903</v>
+      </c>
+      <c r="P78" s="11" t="s">
         <v>1904</v>
       </c>
-      <c r="P78" s="11" t="s">
+      <c r="Q78" s="11" t="s">
         <v>1905</v>
       </c>
-      <c r="Q78" s="11" t="s">
+      <c r="R78" s="11" t="s">
         <v>1906</v>
-      </c>
-      <c r="R78" s="11" t="s">
-        <v>1907</v>
       </c>
       <c r="S78" s="11">
         <v>999</v>
@@ -19035,10 +19908,10 @@
         <v>1727</v>
       </c>
       <c r="W78" s="12" t="s">
+        <v>1907</v>
+      </c>
+      <c r="X78" s="12" t="s">
         <v>1908</v>
-      </c>
-      <c r="X78" s="12" t="s">
-        <v>1909</v>
       </c>
       <c r="Y78" s="12" t="s">
         <v>254</v>
@@ -19056,19 +19929,19 @@
         <v>454</v>
       </c>
       <c r="AD78" s="15" t="s">
+        <v>1909</v>
+      </c>
+      <c r="AE78" s="15" t="s">
         <v>1910</v>
       </c>
-      <c r="AE78" s="15" t="s">
+      <c r="AF78" s="15" t="s">
         <v>1911</v>
       </c>
-      <c r="AF78" s="15" t="s">
+      <c r="AG78" s="15" t="s">
         <v>1912</v>
       </c>
-      <c r="AG78" s="15" t="s">
+      <c r="AH78" s="15" t="s">
         <v>1913</v>
-      </c>
-      <c r="AH78" s="15" t="s">
-        <v>1914</v>
       </c>
       <c r="AI78" s="15" t="s">
         <v>1015</v>
@@ -19077,16 +19950,16 @@
         <v>262</v>
       </c>
       <c r="AK78" s="15" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="AL78" s="15" t="s">
         <v>1832</v>
       </c>
       <c r="AM78" s="15" t="s">
+        <v>1916</v>
+      </c>
+      <c r="AN78" s="15" t="s">
         <v>1917</v>
-      </c>
-      <c r="AN78" s="15" t="s">
-        <v>1918</v>
       </c>
       <c r="AO78" s="15" t="s">
         <v>267</v>
@@ -19098,36 +19971,2660 @@
         <v>79</v>
       </c>
       <c r="AR78" s="15" t="s">
+        <v>1919</v>
+      </c>
+      <c r="AS78" s="15" t="s">
         <v>1920</v>
       </c>
-      <c r="AS78" s="15" t="s">
+      <c r="AT78" s="15" t="s">
         <v>1921</v>
       </c>
-      <c r="AT78" s="15" t="s">
+      <c r="AU78" s="15" t="s">
         <v>1922</v>
-      </c>
-      <c r="AU78" s="15" t="s">
-        <v>1923</v>
       </c>
       <c r="AV78" s="15" t="s">
         <v>1840</v>
       </c>
       <c r="AW78" s="15" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="AX78" s="15" t="s">
         <v>204</v>
       </c>
       <c r="AY78" s="1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="AZ78" s="15" t="s">
+        <v>1914</v>
+      </c>
+      <c r="BA78" s="1" t="s">
+        <v>1918</v>
+      </c>
+      <c r="BB78">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:54">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79" s="14">
+        <v>44755</v>
+      </c>
+      <c r="C79" t="s">
+        <v>54</v>
+      </c>
+      <c r="D79" t="s">
+        <v>55</v>
+      </c>
+      <c r="E79">
+        <v>9</v>
+      </c>
+      <c r="F79">
+        <v>2</v>
+      </c>
+      <c r="G79" t="s">
         <v>1925</v>
       </c>
-      <c r="AZ78" s="15" t="s">
-        <v>1915</v>
-      </c>
-      <c r="BA78" s="1" t="s">
-        <v>1919</v>
-      </c>
-      <c r="BB78">
+      <c r="H79" t="s">
+        <v>241</v>
+      </c>
+      <c r="I79" s="9">
+        <v>24.4</v>
+      </c>
+      <c r="J79" s="9">
+        <v>47.3</v>
+      </c>
+      <c r="K79" s="11" t="s">
+        <v>1927</v>
+      </c>
+      <c r="L79" s="11" t="s">
+        <v>1928</v>
+      </c>
+      <c r="M79" s="11">
+        <v>999</v>
+      </c>
+      <c r="N79" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="O79" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="P79" s="11" t="s">
+        <v>1929</v>
+      </c>
+      <c r="Q79" s="11" t="s">
+        <v>1930</v>
+      </c>
+      <c r="R79" s="11">
+        <v>999</v>
+      </c>
+      <c r="S79" s="11">
+        <v>999</v>
+      </c>
+      <c r="T79" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="U79" s="1" t="s">
+        <v>1931</v>
+      </c>
+      <c r="V79" s="12" t="s">
+        <v>1932</v>
+      </c>
+      <c r="W79" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="X79" s="12" t="s">
+        <v>1933</v>
+      </c>
+      <c r="Y79" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="Z79" s="12" t="s">
+        <v>1934</v>
+      </c>
+      <c r="AA79" s="12" t="s">
+        <v>1935</v>
+      </c>
+      <c r="AB79" s="15" t="s">
+        <v>806</v>
+      </c>
+      <c r="AC79" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD79" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE79" s="15" t="s">
+        <v>1936</v>
+      </c>
+      <c r="AF79" s="15" t="s">
+        <v>1937</v>
+      </c>
+      <c r="AG79" s="15" t="s">
+        <v>1850</v>
+      </c>
+      <c r="AH79" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI79" s="15" t="s">
+        <v>1939</v>
+      </c>
+      <c r="AJ79" s="15" t="s">
+        <v>1892</v>
+      </c>
+      <c r="AK79" s="15" t="s">
+        <v>1940</v>
+      </c>
+      <c r="AL79" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="AM79" s="15" t="s">
+        <v>1941</v>
+      </c>
+      <c r="AN79" s="15" t="s">
+        <v>1942</v>
+      </c>
+      <c r="AO79" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP79" s="15" t="s">
+        <v>1943</v>
+      </c>
+      <c r="AQ79" s="15" t="s">
+        <v>467</v>
+      </c>
+      <c r="AR79" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS79" s="15" t="s">
+        <v>1944</v>
+      </c>
+      <c r="AT79" s="15" t="s">
+        <v>1051</v>
+      </c>
+      <c r="AU79" s="15" t="s">
+        <v>1945</v>
+      </c>
+      <c r="AV79" s="15" t="s">
+        <v>1946</v>
+      </c>
+      <c r="AW79" s="15" t="s">
+        <v>1947</v>
+      </c>
+      <c r="AX79" s="15" t="s">
+        <v>1948</v>
+      </c>
+      <c r="AY79" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="AZ79" s="15" t="s">
+        <v>1938</v>
+      </c>
+      <c r="BA79" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BB79">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:54">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80" s="14">
+        <v>44755</v>
+      </c>
+      <c r="C80" t="s">
+        <v>54</v>
+      </c>
+      <c r="D80" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E80">
+        <v>9</v>
+      </c>
+      <c r="F80">
+        <v>2</v>
+      </c>
+      <c r="G80" t="s">
+        <v>1964</v>
+      </c>
+      <c r="H80" t="s">
+        <v>241</v>
+      </c>
+      <c r="I80" s="9">
+        <v>24.4</v>
+      </c>
+      <c r="J80" s="9">
+        <v>47.35</v>
+      </c>
+      <c r="K80" s="11" t="s">
+        <v>1949</v>
+      </c>
+      <c r="L80" s="11" t="s">
+        <v>1950</v>
+      </c>
+      <c r="M80" s="11">
+        <v>999</v>
+      </c>
+      <c r="N80" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="O80" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="P80" s="11" t="s">
+        <v>1951</v>
+      </c>
+      <c r="Q80" s="11" t="s">
+        <v>1157</v>
+      </c>
+      <c r="R80" s="11">
+        <v>999</v>
+      </c>
+      <c r="S80" s="11" t="s">
+        <v>1952</v>
+      </c>
+      <c r="T80" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="U80" s="1">
+        <v>999</v>
+      </c>
+      <c r="V80" s="12" t="s">
+        <v>955</v>
+      </c>
+      <c r="W80" s="12" t="s">
+        <v>1953</v>
+      </c>
+      <c r="X80" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y80" s="12" t="s">
+        <v>1954</v>
+      </c>
+      <c r="Z80" s="12" t="s">
+        <v>1955</v>
+      </c>
+      <c r="AA80" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="AB80" s="15" t="s">
+        <v>1956</v>
+      </c>
+      <c r="AC80" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="AD80" s="15" t="s">
+        <v>807</v>
+      </c>
+      <c r="AE80" s="15" t="s">
+        <v>576</v>
+      </c>
+      <c r="AF80" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="AG80" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="AH80" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="AI80" s="15" t="s">
+        <v>1957</v>
+      </c>
+      <c r="AJ80" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="AK80" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL80" s="15" t="s">
+        <v>1958</v>
+      </c>
+      <c r="AM80" s="15" t="s">
+        <v>1959</v>
+      </c>
+      <c r="AN80" s="15" t="s">
+        <v>1047</v>
+      </c>
+      <c r="AO80" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="AP80" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="AQ80" s="15" t="s">
+        <v>852</v>
+      </c>
+      <c r="AR80" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS80" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="AT80" s="15" t="s">
+        <v>1960</v>
+      </c>
+      <c r="AU80" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="AV80" s="15" t="s">
+        <v>1961</v>
+      </c>
+      <c r="AW80" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="AX80" s="15" t="s">
+        <v>796</v>
+      </c>
+      <c r="AY80" s="1" t="s">
+        <v>1962</v>
+      </c>
+      <c r="AZ80" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="BA80" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="BB80">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:54">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81" s="14">
+        <v>44755</v>
+      </c>
+      <c r="C81" t="s">
+        <v>54</v>
+      </c>
+      <c r="D81" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E81">
+        <v>9</v>
+      </c>
+      <c r="F81">
+        <v>3</v>
+      </c>
+      <c r="G81" t="s">
+        <v>1963</v>
+      </c>
+      <c r="H81" t="s">
+        <v>90</v>
+      </c>
+      <c r="I81" s="9">
+        <v>24.4</v>
+      </c>
+      <c r="J81" s="9">
+        <v>47.35</v>
+      </c>
+      <c r="K81" s="11" t="s">
+        <v>1965</v>
+      </c>
+      <c r="L81" s="11" t="s">
+        <v>1966</v>
+      </c>
+      <c r="M81" s="11">
+        <v>999</v>
+      </c>
+      <c r="N81" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="O81" s="11" t="s">
+        <v>1967</v>
+      </c>
+      <c r="P81" s="11" t="s">
+        <v>1968</v>
+      </c>
+      <c r="Q81" s="11" t="s">
+        <v>1700</v>
+      </c>
+      <c r="R81" s="11" t="s">
+        <v>1777</v>
+      </c>
+      <c r="S81" s="11">
+        <v>999</v>
+      </c>
+      <c r="T81" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="U81" s="1">
+        <v>999</v>
+      </c>
+      <c r="V81" s="12" t="s">
+        <v>1969</v>
+      </c>
+      <c r="W81" s="12" t="s">
+        <v>1970</v>
+      </c>
+      <c r="X81" s="12" t="s">
+        <v>1971</v>
+      </c>
+      <c r="Y81" s="12" t="s">
+        <v>1972</v>
+      </c>
+      <c r="Z81" s="12" t="s">
+        <v>1973</v>
+      </c>
+      <c r="AA81" s="12" t="s">
+        <v>1974</v>
+      </c>
+      <c r="AB81" s="15" t="s">
+        <v>1975</v>
+      </c>
+      <c r="AC81" s="15" t="s">
+        <v>1976</v>
+      </c>
+      <c r="AD81" s="15" t="s">
+        <v>1977</v>
+      </c>
+      <c r="AE81" s="15" t="s">
+        <v>1978</v>
+      </c>
+      <c r="AF81" s="15" t="s">
+        <v>1979</v>
+      </c>
+      <c r="AG81" s="15" t="s">
+        <v>1980</v>
+      </c>
+      <c r="AH81" s="15" t="s">
+        <v>1981</v>
+      </c>
+      <c r="AI81" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="AJ81" s="15" t="s">
+        <v>1982</v>
+      </c>
+      <c r="AK81" s="15" t="s">
+        <v>1983</v>
+      </c>
+      <c r="AL81" s="15" t="s">
+        <v>1787</v>
+      </c>
+      <c r="AM81" s="15" t="s">
+        <v>1984</v>
+      </c>
+      <c r="AN81" s="15" t="s">
+        <v>1985</v>
+      </c>
+      <c r="AO81" s="15" t="s">
+        <v>1986</v>
+      </c>
+      <c r="AP81" s="15" t="s">
+        <v>466</v>
+      </c>
+      <c r="AQ81" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR81" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="AS81" s="15" t="s">
+        <v>1987</v>
+      </c>
+      <c r="AT81" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="AU81" s="15" t="s">
+        <v>1583</v>
+      </c>
+      <c r="AV81" s="15" t="s">
+        <v>1988</v>
+      </c>
+      <c r="AW81" s="15" t="s">
+        <v>1989</v>
+      </c>
+      <c r="AX81" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="AY81" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="AZ81" s="15" t="s">
+        <v>2003</v>
+      </c>
+      <c r="BA81" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="BB81">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:54">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82" s="14">
+        <v>44755</v>
+      </c>
+      <c r="C82" t="s">
+        <v>54</v>
+      </c>
+      <c r="D82" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E82">
+        <v>9</v>
+      </c>
+      <c r="F82">
+        <v>4</v>
+      </c>
+      <c r="G82" t="s">
+        <v>1990</v>
+      </c>
+      <c r="H82" t="s">
+        <v>241</v>
+      </c>
+      <c r="I82" s="9">
+        <v>24.4</v>
+      </c>
+      <c r="J82" s="9">
+        <v>47.35</v>
+      </c>
+      <c r="K82" s="11" t="s">
+        <v>1991</v>
+      </c>
+      <c r="L82" s="11" t="s">
+        <v>1992</v>
+      </c>
+      <c r="M82" s="11">
+        <v>999</v>
+      </c>
+      <c r="N82" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="O82" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="P82" s="11" t="s">
+        <v>1993</v>
+      </c>
+      <c r="Q82" s="11" t="s">
+        <v>1994</v>
+      </c>
+      <c r="R82" s="11">
+        <v>999</v>
+      </c>
+      <c r="S82" s="11" t="s">
+        <v>1533</v>
+      </c>
+      <c r="T82" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="U82" s="1">
+        <v>999</v>
+      </c>
+      <c r="V82" s="12" t="s">
+        <v>1995</v>
+      </c>
+      <c r="W82" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="X82" s="12" t="s">
+        <v>1996</v>
+      </c>
+      <c r="Y82" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z82" s="12" t="s">
+        <v>1997</v>
+      </c>
+      <c r="AA82" s="12" t="s">
+        <v>1998</v>
+      </c>
+      <c r="AB82" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC82" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="AD82" s="15" t="s">
+        <v>1999</v>
+      </c>
+      <c r="AE82" s="15" t="s">
+        <v>2000</v>
+      </c>
+      <c r="AF82" s="15" t="s">
+        <v>456</v>
+      </c>
+      <c r="AG82" s="15" t="s">
+        <v>2001</v>
+      </c>
+      <c r="AH82" s="15" t="s">
+        <v>492</v>
+      </c>
+      <c r="AI82" s="15" t="s">
+        <v>1870</v>
+      </c>
+      <c r="AJ82" s="15" t="s">
+        <v>2004</v>
+      </c>
+      <c r="AK82" s="15" t="s">
+        <v>1521</v>
+      </c>
+      <c r="AL82" s="15" t="s">
+        <v>2005</v>
+      </c>
+      <c r="AM82" s="15" t="s">
+        <v>2006</v>
+      </c>
+      <c r="AN82" s="15" t="s">
+        <v>2007</v>
+      </c>
+      <c r="AO82" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="AP82" s="15" t="s">
+        <v>553</v>
+      </c>
+      <c r="AQ82" s="15" t="s">
+        <v>467</v>
+      </c>
+      <c r="AR82" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="AS82" s="15" t="s">
+        <v>2008</v>
+      </c>
+      <c r="AT82" s="15" t="s">
+        <v>2009</v>
+      </c>
+      <c r="AU82" s="15" t="s">
+        <v>557</v>
+      </c>
+      <c r="AV82" s="15" t="s">
+        <v>2010</v>
+      </c>
+      <c r="AW82" s="15" t="s">
+        <v>506</v>
+      </c>
+      <c r="AX82" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="AY82" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="AZ82" s="15" t="s">
+        <v>2002</v>
+      </c>
+      <c r="BA82" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="BB82">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:54">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83" s="14">
+        <v>44755</v>
+      </c>
+      <c r="C83" t="s">
+        <v>54</v>
+      </c>
+      <c r="D83" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E83">
+        <v>9</v>
+      </c>
+      <c r="F83">
+        <v>6</v>
+      </c>
+      <c r="G83" t="s">
+        <v>2011</v>
+      </c>
+      <c r="H83" t="s">
+        <v>241</v>
+      </c>
+      <c r="I83" s="9">
+        <v>24.4</v>
+      </c>
+      <c r="J83" s="9">
+        <v>47.35</v>
+      </c>
+      <c r="K83" s="11" t="s">
+        <v>2012</v>
+      </c>
+      <c r="L83" s="11" t="s">
+        <v>2013</v>
+      </c>
+      <c r="M83" s="11">
+        <v>999</v>
+      </c>
+      <c r="N83" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="O83" s="11" t="s">
+        <v>1533</v>
+      </c>
+      <c r="P83" s="11" t="s">
+        <v>2014</v>
+      </c>
+      <c r="Q83" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="R83" s="11">
+        <v>999</v>
+      </c>
+      <c r="S83" s="11">
+        <v>999</v>
+      </c>
+      <c r="T83" s="11" t="s">
+        <v>692</v>
+      </c>
+      <c r="U83" s="1" t="s">
+        <v>2015</v>
+      </c>
+      <c r="V83" s="12" t="s">
+        <v>2016</v>
+      </c>
+      <c r="W83" s="12" t="s">
+        <v>2017</v>
+      </c>
+      <c r="X83" s="12" t="s">
+        <v>2018</v>
+      </c>
+      <c r="Y83" s="12" t="s">
+        <v>2019</v>
+      </c>
+      <c r="Z83" s="12" t="s">
+        <v>2020</v>
+      </c>
+      <c r="AA83" s="12" t="s">
+        <v>2021</v>
+      </c>
+      <c r="AB83" s="15" t="s">
+        <v>2022</v>
+      </c>
+      <c r="AC83" s="15" t="s">
+        <v>2023</v>
+      </c>
+      <c r="AD83" s="15" t="s">
+        <v>1750</v>
+      </c>
+      <c r="AE83" s="15" t="s">
+        <v>2024</v>
+      </c>
+      <c r="AF83" s="15" t="s">
+        <v>2025</v>
+      </c>
+      <c r="AG83" s="15" t="s">
+        <v>2026</v>
+      </c>
+      <c r="AH83" s="15" t="s">
+        <v>2027</v>
+      </c>
+      <c r="AI83" s="15" t="s">
+        <v>2029</v>
+      </c>
+      <c r="AJ83" s="15" t="s">
+        <v>2030</v>
+      </c>
+      <c r="AK83" s="15" t="s">
+        <v>2031</v>
+      </c>
+      <c r="AL83" s="15" t="s">
+        <v>2032</v>
+      </c>
+      <c r="AM83" s="15" t="s">
+        <v>2033</v>
+      </c>
+      <c r="AN83" s="15" t="s">
+        <v>2034</v>
+      </c>
+      <c r="AO83" s="15" t="s">
+        <v>2035</v>
+      </c>
+      <c r="AP83" s="15" t="s">
+        <v>2036</v>
+      </c>
+      <c r="AQ83" s="15" t="s">
+        <v>2037</v>
+      </c>
+      <c r="AR83" s="15" t="s">
+        <v>2039</v>
+      </c>
+      <c r="AS83" s="15" t="s">
+        <v>2040</v>
+      </c>
+      <c r="AT83" s="15" t="s">
+        <v>2041</v>
+      </c>
+      <c r="AU83" s="15" t="s">
+        <v>2042</v>
+      </c>
+      <c r="AV83" s="15" t="s">
+        <v>2043</v>
+      </c>
+      <c r="AW83" s="15" t="s">
+        <v>2044</v>
+      </c>
+      <c r="AX83" s="15" t="s">
+        <v>2045</v>
+      </c>
+      <c r="AY83" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="AZ83" s="15" t="s">
+        <v>2028</v>
+      </c>
+      <c r="BA83" s="1" t="s">
+        <v>2038</v>
+      </c>
+      <c r="BB83">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:54">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84" s="14">
+        <v>44755</v>
+      </c>
+      <c r="C84" t="s">
+        <v>54</v>
+      </c>
+      <c r="D84" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E84">
+        <v>9</v>
+      </c>
+      <c r="F84">
+        <v>7</v>
+      </c>
+      <c r="G84" t="s">
+        <v>2046</v>
+      </c>
+      <c r="H84" t="s">
+        <v>241</v>
+      </c>
+      <c r="I84" s="9">
+        <v>24.4</v>
+      </c>
+      <c r="J84" s="9">
+        <v>47.35</v>
+      </c>
+      <c r="K84" s="11" t="s">
+        <v>2047</v>
+      </c>
+      <c r="L84" s="11" t="s">
+        <v>2048</v>
+      </c>
+      <c r="M84" s="11">
+        <v>999</v>
+      </c>
+      <c r="N84" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="O84" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="P84" s="11" t="s">
+        <v>2049</v>
+      </c>
+      <c r="Q84" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="R84" s="11">
+        <v>999</v>
+      </c>
+      <c r="S84" s="11" t="s">
+        <v>1533</v>
+      </c>
+      <c r="T84" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="U84" s="1" t="s">
+        <v>1776</v>
+      </c>
+      <c r="V84" s="12" t="s">
+        <v>1778</v>
+      </c>
+      <c r="W84" s="12" t="s">
+        <v>2050</v>
+      </c>
+      <c r="X84" s="12" t="s">
+        <v>1780</v>
+      </c>
+      <c r="Y84" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z84" s="12" t="s">
+        <v>2051</v>
+      </c>
+      <c r="AA84" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB84" s="15" t="s">
+        <v>1781</v>
+      </c>
+      <c r="AC84" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="AD84" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="AE84" s="15" t="s">
+        <v>2052</v>
+      </c>
+      <c r="AF84" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="AG84" s="15" t="s">
+        <v>1783</v>
+      </c>
+      <c r="AH84" s="15" t="s">
+        <v>2053</v>
+      </c>
+      <c r="AI84" s="15" t="s">
+        <v>2054</v>
+      </c>
+      <c r="AJ84" s="15" t="s">
+        <v>2055</v>
+      </c>
+      <c r="AK84" s="15" t="s">
+        <v>1568</v>
+      </c>
+      <c r="AL84" s="15" t="s">
+        <v>1787</v>
+      </c>
+      <c r="AM84" s="15" t="s">
+        <v>464</v>
+      </c>
+      <c r="AN84" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="AO84" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="AP84" s="15" t="s">
+        <v>466</v>
+      </c>
+      <c r="AQ84" s="15" t="s">
+        <v>467</v>
+      </c>
+      <c r="AR84" s="15" t="s">
+        <v>2056</v>
+      </c>
+      <c r="AS84" s="15" t="s">
+        <v>2057</v>
+      </c>
+      <c r="AT84" s="15" t="s">
+        <v>1791</v>
+      </c>
+      <c r="AU84" s="15" t="s">
+        <v>1393</v>
+      </c>
+      <c r="AV84" s="15" t="s">
+        <v>1840</v>
+      </c>
+      <c r="AW84" s="15" t="s">
+        <v>2058</v>
+      </c>
+      <c r="AX84" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="AY84" s="1" t="s">
+        <v>1768</v>
+      </c>
+      <c r="AZ84" s="15" t="s">
+        <v>522</v>
+      </c>
+      <c r="BA84" s="1" t="s">
+        <v>2059</v>
+      </c>
+      <c r="BB84">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:54">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85" s="14">
+        <v>44767</v>
+      </c>
+      <c r="C85" t="s">
+        <v>54</v>
+      </c>
+      <c r="D85" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E85">
+        <v>9</v>
+      </c>
+      <c r="F85">
+        <v>8</v>
+      </c>
+      <c r="G85" t="s">
+        <v>2060</v>
+      </c>
+      <c r="H85" t="s">
+        <v>57</v>
+      </c>
+      <c r="I85" s="9">
+        <v>24.4</v>
+      </c>
+      <c r="J85" s="9">
+        <v>47.35</v>
+      </c>
+      <c r="K85" s="11" t="s">
+        <v>1774</v>
+      </c>
+      <c r="L85" s="11" t="s">
+        <v>2061</v>
+      </c>
+      <c r="M85" s="11">
+        <v>999</v>
+      </c>
+      <c r="N85" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="O85" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="P85" s="11" t="s">
+        <v>2062</v>
+      </c>
+      <c r="Q85" s="11" t="s">
+        <v>2063</v>
+      </c>
+      <c r="R85" s="11">
+        <v>999</v>
+      </c>
+      <c r="S85" s="11" t="s">
+        <v>2064</v>
+      </c>
+      <c r="T85" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="U85" s="1" t="s">
+        <v>2065</v>
+      </c>
+      <c r="V85" s="12" t="s">
+        <v>2066</v>
+      </c>
+      <c r="W85" s="12" t="s">
+        <v>2067</v>
+      </c>
+      <c r="X85" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y85" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="Z85" s="12" t="s">
+        <v>2068</v>
+      </c>
+      <c r="AA85" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="AB85" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC85" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD85" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE85" s="15" t="s">
+        <v>1579</v>
+      </c>
+      <c r="AF85" s="15" t="s">
+        <v>2069</v>
+      </c>
+      <c r="AG85" s="15" t="s">
+        <v>2070</v>
+      </c>
+      <c r="AH85" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI85" s="15" t="s">
+        <v>724</v>
+      </c>
+      <c r="AJ85" s="15" t="s">
+        <v>1892</v>
+      </c>
+      <c r="AK85" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="AL85" s="15" t="s">
+        <v>2072</v>
+      </c>
+      <c r="AM85" s="15" t="s">
+        <v>2073</v>
+      </c>
+      <c r="AN85" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="AO85" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP85" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="AQ85" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR85" s="15" t="s">
+        <v>2075</v>
+      </c>
+      <c r="AS85" s="15" t="s">
+        <v>1439</v>
+      </c>
+      <c r="AT85" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU85" s="15" t="s">
+        <v>2076</v>
+      </c>
+      <c r="AV85" s="15" t="s">
+        <v>2077</v>
+      </c>
+      <c r="AW85" s="15" t="s">
+        <v>384</v>
+      </c>
+      <c r="AX85" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="AY85" s="1" t="s">
+        <v>2078</v>
+      </c>
+      <c r="AZ85" s="15" t="s">
+        <v>2071</v>
+      </c>
+      <c r="BA85" s="1" t="s">
+        <v>2074</v>
+      </c>
+      <c r="BB85">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:54">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86" s="14">
+        <v>44767</v>
+      </c>
+      <c r="C86" t="s">
+        <v>54</v>
+      </c>
+      <c r="D86" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E86">
+        <v>9</v>
+      </c>
+      <c r="F86">
+        <v>9</v>
+      </c>
+      <c r="G86" t="s">
+        <v>2080</v>
+      </c>
+      <c r="H86" t="s">
+        <v>90</v>
+      </c>
+      <c r="I86" s="9">
+        <v>24.4</v>
+      </c>
+      <c r="J86" s="9">
+        <v>47.35</v>
+      </c>
+      <c r="K86" s="11" t="s">
+        <v>2079</v>
+      </c>
+      <c r="L86" s="11" t="s">
+        <v>2084</v>
+      </c>
+      <c r="M86" s="11">
+        <v>999</v>
+      </c>
+      <c r="N86" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="O86">
+        <v>999</v>
+      </c>
+      <c r="P86" s="11" t="s">
+        <v>2081</v>
+      </c>
+      <c r="Q86" s="11" t="s">
+        <v>2082</v>
+      </c>
+      <c r="R86" t="s">
+        <v>2083</v>
+      </c>
+      <c r="S86">
+        <v>999</v>
+      </c>
+      <c r="T86" t="s">
+        <v>310</v>
+      </c>
+      <c r="U86" s="1">
+        <v>999</v>
+      </c>
+      <c r="V86" s="12" t="s">
+        <v>1801</v>
+      </c>
+      <c r="W86" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="X86" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="Y86" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z86" s="12" t="s">
+        <v>1497</v>
+      </c>
+      <c r="AA86">
+        <v>999</v>
+      </c>
+      <c r="AB86" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC86" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="AD86" s="15" t="s">
+        <v>1999</v>
+      </c>
+      <c r="AE86" s="15" t="s">
+        <v>1380</v>
+      </c>
+      <c r="AF86" s="15" t="s">
+        <v>456</v>
+      </c>
+      <c r="AG86" s="15" t="s">
+        <v>1850</v>
+      </c>
+      <c r="AH86" s="15" t="s">
+        <v>2085</v>
+      </c>
+      <c r="AI86" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="AJ86" s="15" t="s">
+        <v>2087</v>
+      </c>
+      <c r="AK86" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="AL86" s="15" t="s">
+        <v>2088</v>
+      </c>
+      <c r="AM86" s="15" t="s">
+        <v>1916</v>
+      </c>
+      <c r="AN86" s="15" t="s">
+        <v>1836</v>
+      </c>
+      <c r="AO86" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="AP86" s="15" t="s">
+        <v>2089</v>
+      </c>
+      <c r="AQ86" s="15" t="s">
+        <v>467</v>
+      </c>
+      <c r="AR86" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="AS86" s="15" t="s">
+        <v>2090</v>
+      </c>
+      <c r="AT86" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="AU86" s="15" t="s">
+        <v>2091</v>
+      </c>
+      <c r="AV86" s="15" t="s">
+        <v>2092</v>
+      </c>
+      <c r="AW86" s="15" t="s">
+        <v>2093</v>
+      </c>
+      <c r="AX86" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="AY86" s="1" t="s">
+        <v>1768</v>
+      </c>
+      <c r="AZ86" s="15" t="s">
+        <v>2086</v>
+      </c>
+      <c r="BA86" s="1" t="s">
+        <v>1297</v>
+      </c>
+      <c r="BB86">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:54">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87" s="14">
+        <v>44767</v>
+      </c>
+      <c r="C87" t="s">
+        <v>54</v>
+      </c>
+      <c r="D87" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E87">
+        <v>10</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87" t="s">
+        <v>2094</v>
+      </c>
+      <c r="H87" t="s">
+        <v>57</v>
+      </c>
+      <c r="I87" s="9">
+        <v>24.5</v>
+      </c>
+      <c r="J87" s="9">
+        <v>47.35</v>
+      </c>
+      <c r="K87" s="11" t="s">
+        <v>2095</v>
+      </c>
+      <c r="L87" s="11" t="s">
+        <v>2096</v>
+      </c>
+      <c r="M87" s="11">
+        <v>999</v>
+      </c>
+      <c r="N87" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="O87" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="P87" s="11" t="s">
+        <v>2110</v>
+      </c>
+      <c r="Q87" s="11" t="s">
+        <v>2112</v>
+      </c>
+      <c r="R87" t="s">
+        <v>1777</v>
+      </c>
+      <c r="S87" t="s">
+        <v>2097</v>
+      </c>
+      <c r="T87" t="s">
+        <v>310</v>
+      </c>
+      <c r="U87" s="1">
+        <v>999</v>
+      </c>
+      <c r="V87" s="12" t="s">
+        <v>2098</v>
+      </c>
+      <c r="W87" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="X87" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="Y87" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z87" s="12" t="s">
+        <v>2099</v>
+      </c>
+      <c r="AA87" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB87" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC87" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="AD87" s="15" t="s">
+        <v>2100</v>
+      </c>
+      <c r="AE87" s="15" t="s">
+        <v>764</v>
+      </c>
+      <c r="AF87" s="15" t="s">
+        <v>1013</v>
+      </c>
+      <c r="AG87" s="15" t="s">
+        <v>2101</v>
+      </c>
+      <c r="AH87" s="15" t="s">
+        <v>492</v>
+      </c>
+      <c r="AI87" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="AJ87" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="AK87" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="AL87" s="15" t="s">
+        <v>2102</v>
+      </c>
+      <c r="AM87" s="15" t="s">
+        <v>1523</v>
+      </c>
+      <c r="AN87" s="15" t="s">
+        <v>2103</v>
+      </c>
+      <c r="AO87" s="15" t="s">
+        <v>498</v>
+      </c>
+      <c r="AP87" s="15" t="s">
+        <v>629</v>
+      </c>
+      <c r="AQ87" s="15" t="s">
+        <v>2104</v>
+      </c>
+      <c r="AR87" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="AS87" s="15" t="s">
+        <v>2106</v>
+      </c>
+      <c r="AT87" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="AU87" s="15" t="s">
+        <v>1328</v>
+      </c>
+      <c r="AV87" s="15" t="s">
+        <v>2107</v>
+      </c>
+      <c r="AW87" s="15" t="s">
+        <v>2108</v>
+      </c>
+      <c r="AX87" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="AY87" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="AZ87" s="15" t="s">
+        <v>548</v>
+      </c>
+      <c r="BA87" s="1" t="s">
+        <v>2105</v>
+      </c>
+      <c r="BB87">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:54">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88" s="14">
+        <v>44767</v>
+      </c>
+      <c r="C88" t="s">
+        <v>54</v>
+      </c>
+      <c r="D88" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E88">
+        <v>10</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88" t="s">
+        <v>2109</v>
+      </c>
+      <c r="H88" t="s">
+        <v>241</v>
+      </c>
+      <c r="I88" s="9">
+        <v>24.5</v>
+      </c>
+      <c r="J88" s="9">
+        <v>47.35</v>
+      </c>
+      <c r="K88" s="11" t="s">
+        <v>2095</v>
+      </c>
+      <c r="L88" s="11" t="s">
+        <v>2096</v>
+      </c>
+      <c r="M88" s="11">
+        <v>999</v>
+      </c>
+      <c r="N88" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="O88" s="11">
+        <v>999</v>
+      </c>
+      <c r="P88" s="11" t="s">
+        <v>2110</v>
+      </c>
+      <c r="Q88" s="11" t="s">
+        <v>2111</v>
+      </c>
+      <c r="R88" t="s">
+        <v>1777</v>
+      </c>
+      <c r="S88" t="s">
+        <v>2097</v>
+      </c>
+      <c r="T88" t="s">
+        <v>310</v>
+      </c>
+      <c r="U88" s="1">
+        <v>999</v>
+      </c>
+      <c r="V88" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="W88" s="12" t="s">
+        <v>2113</v>
+      </c>
+      <c r="X88" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="Y88" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z88" s="12" t="s">
+        <v>2114</v>
+      </c>
+      <c r="AA88" s="12" t="s">
+        <v>2115</v>
+      </c>
+      <c r="AB88" s="15" t="s">
+        <v>2116</v>
+      </c>
+      <c r="AC88" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="AD88" s="15" t="s">
+        <v>2100</v>
+      </c>
+      <c r="AE88" s="15" t="s">
+        <v>2000</v>
+      </c>
+      <c r="AF88" s="15" t="s">
+        <v>1013</v>
+      </c>
+      <c r="AG88" s="15" t="s">
+        <v>2101</v>
+      </c>
+      <c r="AH88" s="15" t="s">
+        <v>492</v>
+      </c>
+      <c r="AI88" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="AJ88" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="AK88" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="AL88" s="15" t="s">
+        <v>626</v>
+      </c>
+      <c r="AM88" s="15" t="s">
+        <v>1523</v>
+      </c>
+      <c r="AN88" s="15" t="s">
+        <v>2103</v>
+      </c>
+      <c r="AO88" s="15" t="s">
+        <v>552</v>
+      </c>
+      <c r="AP88" s="15" t="s">
+        <v>2117</v>
+      </c>
+      <c r="AQ88" s="15" t="s">
+        <v>2118</v>
+      </c>
+      <c r="AR88" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="AS88" s="15" t="s">
+        <v>1874</v>
+      </c>
+      <c r="AT88" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="AU88" s="15" t="s">
+        <v>585</v>
+      </c>
+      <c r="AV88" s="15" t="s">
+        <v>2119</v>
+      </c>
+      <c r="AW88" s="15" t="s">
+        <v>506</v>
+      </c>
+      <c r="AX88" s="15" t="s">
+        <v>796</v>
+      </c>
+      <c r="AY88" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="AZ88" s="15" t="s">
+        <v>810</v>
+      </c>
+      <c r="BA88" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="BB88">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:54">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89" s="14">
+        <v>44767</v>
+      </c>
+      <c r="C89" t="s">
+        <v>54</v>
+      </c>
+      <c r="D89" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E89">
+        <v>10</v>
+      </c>
+      <c r="F89">
+        <v>2</v>
+      </c>
+      <c r="G89" t="s">
+        <v>2120</v>
+      </c>
+      <c r="H89" t="s">
+        <v>90</v>
+      </c>
+      <c r="I89" s="9">
+        <v>24.5</v>
+      </c>
+      <c r="J89" s="9">
+        <v>47.35</v>
+      </c>
+      <c r="K89" s="11" t="s">
+        <v>2142</v>
+      </c>
+      <c r="L89" s="11" t="s">
+        <v>2121</v>
+      </c>
+      <c r="M89" s="11">
+        <v>999</v>
+      </c>
+      <c r="N89" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="O89" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="P89" s="11" t="s">
+        <v>2122</v>
+      </c>
+      <c r="Q89" s="11" t="s">
+        <v>2123</v>
+      </c>
+      <c r="R89" s="11" t="s">
+        <v>2124</v>
+      </c>
+      <c r="S89">
+        <v>999</v>
+      </c>
+      <c r="T89" t="s">
+        <v>176</v>
+      </c>
+      <c r="U89" s="1">
+        <v>999</v>
+      </c>
+      <c r="V89" s="12" t="s">
+        <v>2125</v>
+      </c>
+      <c r="W89" s="12" t="s">
+        <v>2126</v>
+      </c>
+      <c r="X89" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y89" s="12" t="s">
+        <v>2127</v>
+      </c>
+      <c r="Z89" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA89" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="AB89" s="15" t="s">
+        <v>2128</v>
+      </c>
+      <c r="AC89" s="15" t="s">
+        <v>426</v>
+      </c>
+      <c r="AD89" s="15" t="s">
+        <v>807</v>
+      </c>
+      <c r="AE89" s="15" t="s">
+        <v>2129</v>
+      </c>
+      <c r="AF89" s="15" t="s">
+        <v>1471</v>
+      </c>
+      <c r="AG89" s="15" t="s">
+        <v>2130</v>
+      </c>
+      <c r="AH89" s="15" t="s">
+        <v>2131</v>
+      </c>
+      <c r="AI89" s="15" t="s">
+        <v>2132</v>
+      </c>
+      <c r="AJ89" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="AK89" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="AL89" s="15" t="s">
+        <v>2133</v>
+      </c>
+      <c r="AM89" s="15" t="s">
+        <v>2134</v>
+      </c>
+      <c r="AN89" s="15" t="s">
+        <v>2135</v>
+      </c>
+      <c r="AO89" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP89" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="AQ89" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="AR89" s="15" t="s">
+        <v>2137</v>
+      </c>
+      <c r="AS89" s="15" t="s">
+        <v>2138</v>
+      </c>
+      <c r="AT89" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU89" s="15" t="s">
+        <v>2139</v>
+      </c>
+      <c r="AV89" s="15" t="s">
+        <v>2140</v>
+      </c>
+      <c r="AW89" s="15" t="s">
+        <v>1737</v>
+      </c>
+      <c r="AX89" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="AY89" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="AZ89" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="BA89" s="1" t="s">
+        <v>2136</v>
+      </c>
+      <c r="BB89">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:54">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90" s="14">
+        <v>44767</v>
+      </c>
+      <c r="C90" t="s">
+        <v>54</v>
+      </c>
+      <c r="D90" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E90">
+        <v>10</v>
+      </c>
+      <c r="F90">
+        <v>3</v>
+      </c>
+      <c r="G90" t="s">
+        <v>2143</v>
+      </c>
+      <c r="H90" t="s">
+        <v>57</v>
+      </c>
+      <c r="I90" s="9">
+        <v>24.5</v>
+      </c>
+      <c r="J90" s="9">
+        <v>47.35</v>
+      </c>
+      <c r="K90" s="11" t="s">
+        <v>2141</v>
+      </c>
+      <c r="L90" s="11" t="s">
+        <v>2144</v>
+      </c>
+      <c r="M90" s="11">
+        <v>999</v>
+      </c>
+      <c r="N90" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="O90" s="11" t="s">
+        <v>2145</v>
+      </c>
+      <c r="P90" s="11" t="s">
+        <v>2146</v>
+      </c>
+      <c r="Q90" s="11" t="s">
+        <v>2147</v>
+      </c>
+      <c r="R90" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="S90">
+        <v>999</v>
+      </c>
+      <c r="T90" t="s">
+        <v>97</v>
+      </c>
+      <c r="U90" s="1">
+        <v>999</v>
+      </c>
+      <c r="V90" s="12" t="s">
+        <v>2148</v>
+      </c>
+      <c r="W90" s="12" t="s">
+        <v>1237</v>
+      </c>
+      <c r="X90" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y90" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="Z90" s="12" t="s">
+        <v>2149</v>
+      </c>
+      <c r="AA90" s="12" t="s">
+        <v>2150</v>
+      </c>
+      <c r="AB90" s="15" t="s">
+        <v>596</v>
+      </c>
+      <c r="AC90" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD90" s="15" t="s">
+        <v>1433</v>
+      </c>
+      <c r="AE90" s="15" t="s">
+        <v>2151</v>
+      </c>
+      <c r="AF90" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="AG90" s="15" t="s">
+        <v>2152</v>
+      </c>
+      <c r="AH90" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="AI90" s="15" t="s">
+        <v>2153</v>
+      </c>
+      <c r="AJ90" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="AK90" s="15" t="s">
+        <v>2154</v>
+      </c>
+      <c r="AL90" s="15" t="s">
+        <v>1832</v>
+      </c>
+      <c r="AM90" s="15" t="s">
+        <v>1941</v>
+      </c>
+      <c r="AN90" s="15" t="s">
+        <v>2155</v>
+      </c>
+      <c r="AO90" s="15" t="s">
+        <v>1895</v>
+      </c>
+      <c r="AP90" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ90" s="15" t="s">
+        <v>467</v>
+      </c>
+      <c r="AR90" s="15" t="s">
+        <v>674</v>
+      </c>
+      <c r="AS90" s="15" t="s">
+        <v>2156</v>
+      </c>
+      <c r="AT90" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU90" s="15" t="s">
+        <v>902</v>
+      </c>
+      <c r="AV90" s="15" t="s">
+        <v>2157</v>
+      </c>
+      <c r="AW90" s="15" t="s">
+        <v>384</v>
+      </c>
+      <c r="AX90" s="15" t="s">
+        <v>2158</v>
+      </c>
+      <c r="AY90" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="AZ90" s="15" t="s">
+        <v>1709</v>
+      </c>
+      <c r="BA90" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="BB90">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:54">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91" s="14">
+        <v>44767</v>
+      </c>
+      <c r="C91" t="s">
+        <v>54</v>
+      </c>
+      <c r="D91" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E91">
+        <v>10</v>
+      </c>
+      <c r="F91">
+        <v>4</v>
+      </c>
+      <c r="G91" t="s">
+        <v>2160</v>
+      </c>
+      <c r="H91" t="s">
+        <v>241</v>
+      </c>
+      <c r="I91" s="9">
+        <v>24.5</v>
+      </c>
+      <c r="J91" s="9">
+        <v>47.35</v>
+      </c>
+      <c r="K91" s="11" t="s">
+        <v>2159</v>
+      </c>
+      <c r="L91" s="11" t="s">
+        <v>2161</v>
+      </c>
+      <c r="M91" s="11">
+        <v>999</v>
+      </c>
+      <c r="N91" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="O91" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="P91" s="11" t="s">
+        <v>2162</v>
+      </c>
+      <c r="Q91" s="11" t="s">
+        <v>2163</v>
+      </c>
+      <c r="R91">
+        <v>999</v>
+      </c>
+      <c r="S91">
+        <v>999</v>
+      </c>
+      <c r="T91" t="s">
+        <v>176</v>
+      </c>
+      <c r="U91" s="1" t="s">
+        <v>2164</v>
+      </c>
+      <c r="V91">
+        <v>999</v>
+      </c>
+      <c r="W91">
+        <v>999</v>
+      </c>
+      <c r="X91">
+        <v>999</v>
+      </c>
+      <c r="Y91">
+        <v>9999</v>
+      </c>
+      <c r="Z91" s="12" t="s">
+        <v>2165</v>
+      </c>
+      <c r="AA91" s="12">
+        <v>999</v>
+      </c>
+      <c r="AB91" s="12">
+        <v>999</v>
+      </c>
+      <c r="AC91" s="15" t="s">
+        <v>544</v>
+      </c>
+      <c r="AD91" s="15" t="s">
+        <v>2166</v>
+      </c>
+      <c r="AE91" s="15" t="s">
+        <v>1067</v>
+      </c>
+      <c r="AF91">
+        <v>999</v>
+      </c>
+      <c r="AG91" s="15" t="s">
+        <v>2167</v>
+      </c>
+      <c r="AH91">
+        <v>999</v>
+      </c>
+      <c r="AI91" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="AJ91" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="AK91">
+        <v>999</v>
+      </c>
+      <c r="AL91" s="15" t="s">
+        <v>1872</v>
+      </c>
+      <c r="AM91" s="15" t="s">
+        <v>2169</v>
+      </c>
+      <c r="AN91" s="15" t="s">
+        <v>1836</v>
+      </c>
+      <c r="AO91" s="15" t="s">
+        <v>552</v>
+      </c>
+      <c r="AP91">
+        <v>999</v>
+      </c>
+      <c r="AQ91">
+        <v>999</v>
+      </c>
+      <c r="AR91" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="AS91" s="15" t="s">
+        <v>2170</v>
+      </c>
+      <c r="AT91" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="AU91">
+        <v>999</v>
+      </c>
+      <c r="AV91">
+        <v>999</v>
+      </c>
+      <c r="AW91" s="15" t="s">
+        <v>506</v>
+      </c>
+      <c r="AX91" s="15" t="s">
+        <v>796</v>
+      </c>
+      <c r="AY91" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="AZ91" s="15" t="s">
+        <v>2168</v>
+      </c>
+      <c r="BA91" s="1">
+        <v>999</v>
+      </c>
+      <c r="BB91">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:54">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92" s="14">
+        <v>44767</v>
+      </c>
+      <c r="C92" t="s">
+        <v>54</v>
+      </c>
+      <c r="D92" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E92">
+        <v>10</v>
+      </c>
+      <c r="F92">
+        <v>5</v>
+      </c>
+      <c r="G92" t="s">
+        <v>2171</v>
+      </c>
+      <c r="H92" t="s">
+        <v>90</v>
+      </c>
+      <c r="I92" s="9">
+        <v>24.5</v>
+      </c>
+      <c r="J92" s="9">
+        <v>47.35</v>
+      </c>
+      <c r="K92" s="11" t="s">
+        <v>2172</v>
+      </c>
+      <c r="L92" s="11" t="s">
+        <v>2173</v>
+      </c>
+      <c r="M92" s="11">
+        <v>999</v>
+      </c>
+      <c r="N92" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="O92" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="P92" s="11" t="s">
+        <v>2174</v>
+      </c>
+      <c r="Q92" s="11" t="s">
+        <v>2175</v>
+      </c>
+      <c r="R92" s="11" t="s">
+        <v>2176</v>
+      </c>
+      <c r="S92">
+        <v>999</v>
+      </c>
+      <c r="T92">
+        <v>999</v>
+      </c>
+      <c r="U92" s="1">
+        <v>999</v>
+      </c>
+      <c r="V92" t="s">
+        <v>1832</v>
+      </c>
+      <c r="W92" t="s">
+        <v>2177</v>
+      </c>
+      <c r="X92" t="s">
+        <v>1832</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>1832</v>
+      </c>
+      <c r="Z92">
+        <v>999</v>
+      </c>
+      <c r="AA92" s="12" t="s">
+        <v>1654</v>
+      </c>
+      <c r="AB92" s="12" t="s">
+        <v>1832</v>
+      </c>
+      <c r="AC92" s="15" t="s">
+        <v>781</v>
+      </c>
+      <c r="AD92" s="15" t="s">
+        <v>2178</v>
+      </c>
+      <c r="AE92" s="15" t="s">
+        <v>1832</v>
+      </c>
+      <c r="AF92" s="15" t="s">
+        <v>1832</v>
+      </c>
+      <c r="AG92" s="15" t="s">
+        <v>2179</v>
+      </c>
+      <c r="AH92" s="15" t="s">
+        <v>1832</v>
+      </c>
+      <c r="AI92" s="15" t="s">
+        <v>1832</v>
+      </c>
+      <c r="AJ92" s="15" t="s">
+        <v>2181</v>
+      </c>
+      <c r="AK92" s="15" t="s">
+        <v>2182</v>
+      </c>
+      <c r="AL92" s="15" t="s">
+        <v>1832</v>
+      </c>
+      <c r="AM92" s="15" t="s">
+        <v>1832</v>
+      </c>
+      <c r="AN92" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="AO92" s="15" t="s">
+        <v>791</v>
+      </c>
+      <c r="AP92" s="15" t="s">
+        <v>1832</v>
+      </c>
+      <c r="AQ92" s="15" t="s">
+        <v>1832</v>
+      </c>
+      <c r="AR92">
+        <v>999</v>
+      </c>
+      <c r="AS92">
+        <v>999</v>
+      </c>
+      <c r="AT92">
+        <v>999</v>
+      </c>
+      <c r="AU92" t="s">
+        <v>1832</v>
+      </c>
+      <c r="AV92" t="s">
+        <v>1832</v>
+      </c>
+      <c r="AW92" s="15" t="s">
+        <v>1832</v>
+      </c>
+      <c r="AX92" s="15" t="s">
+        <v>796</v>
+      </c>
+      <c r="AY92" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="AZ92" s="15" t="s">
+        <v>2180</v>
+      </c>
+      <c r="BA92" s="1">
+        <v>999</v>
+      </c>
+      <c r="BB92">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:54">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93" s="14">
+        <v>44767</v>
+      </c>
+      <c r="C93" t="s">
+        <v>54</v>
+      </c>
+      <c r="D93" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E93">
+        <v>10</v>
+      </c>
+      <c r="F93">
+        <v>6</v>
+      </c>
+      <c r="G93" t="s">
+        <v>2184</v>
+      </c>
+      <c r="H93" t="s">
+        <v>57</v>
+      </c>
+      <c r="I93" s="9">
+        <v>24.5</v>
+      </c>
+      <c r="J93" s="9">
+        <v>47.35</v>
+      </c>
+      <c r="K93" s="11" t="s">
+        <v>2183</v>
+      </c>
+      <c r="L93" s="11" t="s">
+        <v>2185</v>
+      </c>
+      <c r="M93" s="11">
+        <v>999</v>
+      </c>
+      <c r="N93" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="O93" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="P93" s="11" t="s">
+        <v>2186</v>
+      </c>
+      <c r="Q93" s="11" t="s">
+        <v>1741</v>
+      </c>
+      <c r="R93">
+        <v>999</v>
+      </c>
+      <c r="S93" t="s">
+        <v>363</v>
+      </c>
+      <c r="T93" t="s">
+        <v>176</v>
+      </c>
+      <c r="U93" s="1">
+        <v>999</v>
+      </c>
+      <c r="V93" s="12" t="s">
+        <v>2187</v>
+      </c>
+      <c r="W93" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="X93" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="Y93" s="12" t="s">
+        <v>1746</v>
+      </c>
+      <c r="Z93" s="12" t="s">
+        <v>2188</v>
+      </c>
+      <c r="AA93" s="12" t="s">
+        <v>2189</v>
+      </c>
+      <c r="AB93" s="12" t="s">
+        <v>2190</v>
+      </c>
+      <c r="AC93" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="AD93" s="15" t="s">
+        <v>1750</v>
+      </c>
+      <c r="AE93" s="15" t="s">
+        <v>2191</v>
+      </c>
+      <c r="AF93" s="15" t="s">
+        <v>2192</v>
+      </c>
+      <c r="AG93" s="15" t="s">
+        <v>2193</v>
+      </c>
+      <c r="AH93" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="AI93" s="15" t="s">
+        <v>2194</v>
+      </c>
+      <c r="AJ93" s="15" t="s">
+        <v>2195</v>
+      </c>
+      <c r="AK93" s="15" t="s">
+        <v>2196</v>
+      </c>
+      <c r="AL93" s="15" t="s">
+        <v>2197</v>
+      </c>
+      <c r="AM93" s="15" t="s">
+        <v>464</v>
+      </c>
+      <c r="AN93" s="15" t="s">
+        <v>2198</v>
+      </c>
+      <c r="AO93" s="15" t="s">
+        <v>2199</v>
+      </c>
+      <c r="AP93" s="15" t="s">
+        <v>466</v>
+      </c>
+      <c r="AQ93" s="15" t="s">
+        <v>2200</v>
+      </c>
+      <c r="AR93" s="15" t="s">
+        <v>935</v>
+      </c>
+      <c r="AS93" s="15" t="s">
+        <v>1763</v>
+      </c>
+      <c r="AT93" s="15" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AU93" s="15" t="s">
+        <v>2202</v>
+      </c>
+      <c r="AV93" s="15" t="s">
+        <v>2204</v>
+      </c>
+      <c r="AW93" s="15" t="s">
+        <v>937</v>
+      </c>
+      <c r="AX93" s="15" t="s">
+        <v>1767</v>
+      </c>
+      <c r="AY93" s="1" t="s">
+        <v>1768</v>
+      </c>
+      <c r="AZ93" s="15" t="s">
+        <v>1755</v>
+      </c>
+      <c r="BA93" s="1" t="s">
+        <v>2201</v>
+      </c>
+      <c r="BB93">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:54">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94" s="14">
+        <v>44767</v>
+      </c>
+      <c r="C94" t="s">
+        <v>54</v>
+      </c>
+      <c r="D94" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E94">
+        <v>10</v>
+      </c>
+      <c r="F94">
+        <v>7</v>
+      </c>
+      <c r="G94" t="s">
+        <v>2206</v>
+      </c>
+      <c r="H94" t="s">
+        <v>90</v>
+      </c>
+      <c r="I94" s="9">
+        <v>24.5</v>
+      </c>
+      <c r="J94" s="9">
+        <v>47.35</v>
+      </c>
+      <c r="K94" s="11" t="s">
+        <v>2205</v>
+      </c>
+      <c r="L94" s="11" t="s">
+        <v>2207</v>
+      </c>
+      <c r="M94" s="11">
+        <v>999</v>
+      </c>
+      <c r="N94" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="O94" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="P94" s="11" t="s">
+        <v>2208</v>
+      </c>
+      <c r="Q94" s="11" t="s">
+        <v>2209</v>
+      </c>
+      <c r="R94">
+        <v>999</v>
+      </c>
+      <c r="S94">
+        <v>999</v>
+      </c>
+      <c r="T94" t="s">
+        <v>310</v>
+      </c>
+      <c r="U94" s="1">
+        <v>999</v>
+      </c>
+      <c r="V94" s="12" t="s">
+        <v>1884</v>
+      </c>
+      <c r="W94" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="X94" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y94" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="Z94" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA94" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="AB94" s="12" t="s">
+        <v>2210</v>
+      </c>
+      <c r="AC94" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD94" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE94" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="AF94" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="AG94" s="15" t="s">
+        <v>2211</v>
+      </c>
+      <c r="AH94" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI94" s="15" t="s">
+        <v>2212</v>
+      </c>
+      <c r="AJ94" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="AK94" s="15" t="s">
+        <v>1983</v>
+      </c>
+      <c r="AL94" s="15" t="s">
+        <v>2213</v>
+      </c>
+      <c r="AM94" s="15" t="s">
+        <v>1941</v>
+      </c>
+      <c r="AN94" s="15" t="s">
+        <v>1477</v>
+      </c>
+      <c r="AO94" s="15" t="s">
+        <v>1895</v>
+      </c>
+      <c r="AP94" s="15" t="s">
+        <v>1479</v>
+      </c>
+      <c r="AQ94" s="15" t="s">
+        <v>1896</v>
+      </c>
+      <c r="AR94" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS94" s="15" t="s">
+        <v>1987</v>
+      </c>
+      <c r="AT94" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="AU94" s="15" t="s">
+        <v>902</v>
+      </c>
+      <c r="AV94" s="15" t="s">
+        <v>2215</v>
+      </c>
+      <c r="AW94" s="15" t="s">
+        <v>2216</v>
+      </c>
+      <c r="AX94" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="AY94" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="AZ94" s="15" t="s">
+        <v>1709</v>
+      </c>
+      <c r="BA94" s="1" t="s">
+        <v>2214</v>
+      </c>
+      <c r="BB94">
         <v>999</v>
       </c>
     </row>

--- a/Data/DWA_FS.xlsx
+++ b/Data/DWA_FS.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4084" uniqueCount="2217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4755" uniqueCount="2476">
   <si>
     <t>ID</t>
   </si>
@@ -6715,6 +6715,783 @@
   </si>
   <si>
     <t xml:space="preserve">ardiger Hafa  </t>
+  </si>
+  <si>
+    <t>[u]-g {könnte auch v sein}</t>
+  </si>
+  <si>
+    <t>III_16_0028</t>
+  </si>
+  <si>
+    <t>Karspach</t>
+  </si>
+  <si>
+    <t>Paul Ochs</t>
+  </si>
+  <si>
+    <t>Hohenwart</t>
+  </si>
+  <si>
+    <t>b/ Pforzheim</t>
+  </si>
+  <si>
+    <t>Omaisala</t>
+  </si>
+  <si>
+    <t>Liecht</t>
+  </si>
+  <si>
+    <t>Di[c]sel</t>
+  </si>
+  <si>
+    <t>Gogumnere</t>
+  </si>
+  <si>
+    <t>Gugel, Glugera</t>
+  </si>
+  <si>
+    <t>Hebomme</t>
+  </si>
+  <si>
+    <t>Riewe</t>
+  </si>
+  <si>
+    <t>Gedde</t>
+  </si>
+  <si>
+    <t>Sp[a]tz</t>
+  </si>
+  <si>
+    <t>Stochelbäre</t>
+  </si>
+  <si>
+    <t>Glufa</t>
+  </si>
+  <si>
+    <t>Strignodle</t>
+  </si>
+  <si>
+    <t>T[o]ssa</t>
+  </si>
+  <si>
+    <t>Depfi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schwiegerdochde  </t>
+  </si>
+  <si>
+    <t>III_16_0029</t>
+  </si>
+  <si>
+    <t>[u]-h {könnte auch v sein}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Altkirch  </t>
+  </si>
+  <si>
+    <t>Leodegar Bach</t>
+  </si>
+  <si>
+    <t>Brummbähre (w)</t>
+  </si>
+  <si>
+    <t>Rattsch (m)</t>
+  </si>
+  <si>
+    <t>Flaadermühs (w)</t>
+  </si>
+  <si>
+    <t>Ahmt (w)</t>
+  </si>
+  <si>
+    <t>Gǎgummere (w)</t>
+  </si>
+  <si>
+    <t>Guggel (m), Hüen (w), &lt;Bruthenne =&gt; Gluggere (w)</t>
+  </si>
+  <si>
+    <t>Hebǎmm (w)</t>
+  </si>
+  <si>
+    <t>Holldere (w)</t>
+  </si>
+  <si>
+    <t>Schaarmühs (w)</t>
+  </si>
+  <si>
+    <t>Galleriewle (s), Galleriewe (w)</t>
+  </si>
+  <si>
+    <t>Moore (w)</t>
+  </si>
+  <si>
+    <t>parrain &lt;fränzösisch&gt;</t>
+  </si>
+  <si>
+    <t>Pflühme (w)</t>
+  </si>
+  <si>
+    <t>handle</t>
+  </si>
+  <si>
+    <t>Spǎtz (m)</t>
+  </si>
+  <si>
+    <t>Grüselbähre (w)</t>
+  </si>
+  <si>
+    <t>Strechnoodle (w)</t>
+  </si>
+  <si>
+    <t>Tǎsse (w)</t>
+  </si>
+  <si>
+    <t>Haafe (m) {nach oben offener Bogen über aa}</t>
+  </si>
+  <si>
+    <t>[u]-k {könnte auch v sein}</t>
+  </si>
+  <si>
+    <t>III_16_0030</t>
+  </si>
+  <si>
+    <t>Wittersdorf</t>
+  </si>
+  <si>
+    <t>Altkirch i. Els.</t>
+  </si>
+  <si>
+    <t>Karls Schäfer</t>
+  </si>
+  <si>
+    <t>Oberacheim</t>
+  </si>
+  <si>
+    <t>Kr. Bühl</t>
+  </si>
+  <si>
+    <t>durch den Lehrer unter Mithilfe der Schüler</t>
+  </si>
+  <si>
+    <t>Omeisa (w), Omeisala</t>
+  </si>
+  <si>
+    <t>Li[s]cht (w)</t>
+  </si>
+  <si>
+    <t>Guckel (m), Hüan (w)</t>
+  </si>
+  <si>
+    <t>Galrüba (w)</t>
+  </si>
+  <si>
+    <t>Riama (w)</t>
+  </si>
+  <si>
+    <t>Spåtz</t>
+  </si>
+  <si>
+    <t>Stricknodl (w)</t>
+  </si>
+  <si>
+    <t>Tasla (s)</t>
+  </si>
+  <si>
+    <t>Hāfa (m)</t>
+  </si>
+  <si>
+    <t>Gaihs (w)</t>
+  </si>
+  <si>
+    <t>Schwiegerdochtr (w)</t>
+  </si>
+  <si>
+    <t>III_16_0031</t>
+  </si>
+  <si>
+    <t>[u]-l {könnte auch v sein}</t>
+  </si>
+  <si>
+    <t>Emlingen</t>
+  </si>
+  <si>
+    <t>Maria Keller</t>
+  </si>
+  <si>
+    <t>Hirzfelden</t>
+  </si>
+  <si>
+    <t>Hewåmm (w)</t>
+  </si>
+  <si>
+    <t>Galriewa (w)</t>
+  </si>
+  <si>
+    <t>Tassla (s)</t>
+  </si>
+  <si>
+    <t>Schwiegrdochter (w)</t>
+  </si>
+  <si>
+    <t>[u]-m {könnte auch v sein}</t>
+  </si>
+  <si>
+    <t>III_16_0032</t>
+  </si>
+  <si>
+    <t>Tagsdorf</t>
+  </si>
+  <si>
+    <t>Ob./Els.</t>
+  </si>
+  <si>
+    <t>[J]ul. Stehle</t>
+  </si>
+  <si>
+    <t>Umeise</t>
+  </si>
+  <si>
+    <t>sich tummeln</t>
+  </si>
+  <si>
+    <t>Hold[e]re</t>
+  </si>
+  <si>
+    <t>Scherrmaus</t>
+  </si>
+  <si>
+    <t>Mure</t>
+  </si>
+  <si>
+    <t>Parrain &lt;franz.&gt;</t>
+  </si>
+  <si>
+    <t>Käwle</t>
+  </si>
+  <si>
+    <t>äugln</t>
+  </si>
+  <si>
+    <t>[u]-s {könnte auch v sein}</t>
+  </si>
+  <si>
+    <t>III_16_0033</t>
+  </si>
+  <si>
+    <t>Hundsbach</t>
+  </si>
+  <si>
+    <t>Luise Grienenberger</t>
+  </si>
+  <si>
+    <t>Omaisala (s)</t>
+  </si>
+  <si>
+    <t>Disel (m)</t>
+  </si>
+  <si>
+    <t>Emdet (m)</t>
+  </si>
+  <si>
+    <t>Kagumera (w)</t>
+  </si>
+  <si>
+    <t>Hebāmm (w)</t>
+  </si>
+  <si>
+    <t>Holdara (w)</t>
+  </si>
+  <si>
+    <t>Kātz (w)</t>
+  </si>
+  <si>
+    <t>Roßgalariaba (w)</t>
+  </si>
+  <si>
+    <t>Gäda (m)</t>
+  </si>
+  <si>
+    <t>larma</t>
+  </si>
+  <si>
+    <t>Stachnodla (w)</t>
+  </si>
+  <si>
+    <t>Schtrignodla (w)</t>
+  </si>
+  <si>
+    <t>Dassa (w)</t>
+  </si>
+  <si>
+    <t>Hǎfa (m)</t>
+  </si>
+  <si>
+    <t>Schwigertochter (w)</t>
+  </si>
+  <si>
+    <t>[u]-o {könnte auch v sein}</t>
+  </si>
+  <si>
+    <t>III_16_0034</t>
+  </si>
+  <si>
+    <t>Hirsingen</t>
+  </si>
+  <si>
+    <t>&lt;?&gt; Heidelberg</t>
+  </si>
+  <si>
+    <t>i. B.</t>
+  </si>
+  <si>
+    <t>Frau B. Meger und durch Schüler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agersta </t>
+  </si>
+  <si>
+    <t>Mugga, Fliega (w)</t>
+  </si>
+  <si>
+    <t>Hagabuta</t>
+  </si>
+  <si>
+    <t>Gügel, Hühan</t>
+  </si>
+  <si>
+    <t>Hebam (w)</t>
+  </si>
+  <si>
+    <t>Holunder, Holdera</t>
+  </si>
+  <si>
+    <t>Rossgalrüwa, Galrüwla &lt;[küml]&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">schalda, handla   </t>
+  </si>
+  <si>
+    <t>Tasse, Tass[a]la</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schwegerdochter  </t>
+  </si>
+  <si>
+    <t>III_16_0035</t>
+  </si>
+  <si>
+    <t>[u]-q {könnte auch v sein}</t>
+  </si>
+  <si>
+    <t>Weiler</t>
+  </si>
+  <si>
+    <t>Reinhart Morgen</t>
+  </si>
+  <si>
+    <t>Hagabutta</t>
+  </si>
+  <si>
+    <t>Gugel, Hühen</t>
+  </si>
+  <si>
+    <t>Hartäepfel</t>
+  </si>
+  <si>
+    <t>Schaarmüss</t>
+  </si>
+  <si>
+    <t>Mohrriaba</t>
+  </si>
+  <si>
+    <t>Moohr</t>
+  </si>
+  <si>
+    <t>Spaß</t>
+  </si>
+  <si>
+    <t>Stachelbärra</t>
+  </si>
+  <si>
+    <t>[u]-p {könnte auch v sein}</t>
+  </si>
+  <si>
+    <t>III_16_0036</t>
+  </si>
+  <si>
+    <t>Bettendorf</t>
+  </si>
+  <si>
+    <t>Schmidt</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Bruumbeera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agerschda  </t>
+  </si>
+  <si>
+    <t>Ämt</t>
+  </si>
+  <si>
+    <t>Gangumera</t>
+  </si>
+  <si>
+    <t>Ardeppfel</t>
+  </si>
+  <si>
+    <t>Kalerriaba</t>
+  </si>
+  <si>
+    <t>Schparbel</t>
+  </si>
+  <si>
+    <t>Grüsselbära</t>
+  </si>
+  <si>
+    <t>Stecknotla</t>
+  </si>
+  <si>
+    <t>Tasala</t>
+  </si>
+  <si>
+    <t>Hanfa &lt;an Nasallaut&gt;</t>
+  </si>
+  <si>
+    <t>III_16_0037</t>
+  </si>
+  <si>
+    <t>[u]-N {könnte auch v sein}</t>
+  </si>
+  <si>
+    <t>Waltenheim</t>
+  </si>
+  <si>
+    <t>A. Eckenstein</t>
+  </si>
+  <si>
+    <t>Egringen</t>
+  </si>
+  <si>
+    <t>Kr. Lörrach</t>
+  </si>
+  <si>
+    <t>Aumeisa</t>
+  </si>
+  <si>
+    <t>Laicht</t>
+  </si>
+  <si>
+    <t>Blaumara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gagummara  </t>
+  </si>
+  <si>
+    <t>Gugel, Hüehn</t>
+  </si>
+  <si>
+    <t>Schaurmüs</t>
+  </si>
+  <si>
+    <t>Maur</t>
+  </si>
+  <si>
+    <t>Spats</t>
+  </si>
+  <si>
+    <t>Grüsale</t>
+  </si>
+  <si>
+    <t>Gufa {o über dem u}</t>
+  </si>
+  <si>
+    <t>Schtrecknaudla</t>
+  </si>
+  <si>
+    <t>Tepfi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gei[ß]  </t>
+  </si>
+  <si>
+    <t>III_16_0038</t>
+  </si>
+  <si>
+    <t>[u]-z {könnte auch v sein}</t>
+  </si>
+  <si>
+    <t>Niederranspach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. F[öc]hterle </t>
+  </si>
+  <si>
+    <t>Straßburg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Licht (die)  </t>
+  </si>
+  <si>
+    <t>Mucke, Fliege &lt;beide&gt;</t>
+  </si>
+  <si>
+    <t>Gockel, Hühn</t>
+  </si>
+  <si>
+    <t>III_16_0039</t>
+  </si>
+  <si>
+    <t>[u]-B {könnte auch v sein}</t>
+  </si>
+  <si>
+    <t>Blotzheim</t>
+  </si>
+  <si>
+    <t>Ignaz Flesch</t>
+  </si>
+  <si>
+    <t>Pfaffenheim</t>
+  </si>
+  <si>
+    <t>Bromala</t>
+  </si>
+  <si>
+    <t>Diesel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agerschta </t>
+  </si>
+  <si>
+    <t>Gugumer</t>
+  </si>
+  <si>
+    <t>Hollerbeera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katzarolli  </t>
+  </si>
+  <si>
+    <t>Galrüab</t>
+  </si>
+  <si>
+    <t>Stricknod[e]la</t>
+  </si>
+  <si>
+    <t>zwiega, [zfwzfa]</t>
+  </si>
+  <si>
+    <t>III_16_0040</t>
+  </si>
+  <si>
+    <t>Blotzheim-Neuweg</t>
+  </si>
+  <si>
+    <t>Mülhausen i/E. Sundgau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mülhausen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mülhausen  </t>
+  </si>
+  <si>
+    <t>Friedrich Meyfarth</t>
+  </si>
+  <si>
+    <t>Meyfarth u. Schüler der 7/8 Klasse</t>
+  </si>
+  <si>
+    <t>Aumeise (w)</t>
+  </si>
+  <si>
+    <t>Liach (w)</t>
+  </si>
+  <si>
+    <t>Aegeste (m)</t>
+  </si>
+  <si>
+    <t>Raetsch (m)</t>
+  </si>
+  <si>
+    <t>Muggä (w)</t>
+  </si>
+  <si>
+    <t>Fleadermus (w)</t>
+  </si>
+  <si>
+    <t>Gogummere (w)</t>
+  </si>
+  <si>
+    <t>Hogäpfele (mrhz)</t>
+  </si>
+  <si>
+    <t>Guggel (m)</t>
+  </si>
+  <si>
+    <t>Scheermus (w)</t>
+  </si>
+  <si>
+    <t>Gälerüwe (w)</t>
+  </si>
+  <si>
+    <t>Mo&lt;au&gt;re (w)</t>
+  </si>
+  <si>
+    <t>Riēme (m)</t>
+  </si>
+  <si>
+    <t>wüscht sagen</t>
+  </si>
+  <si>
+    <t>Stachelbeeere (w)</t>
+  </si>
+  <si>
+    <t>Schüssele (s)</t>
+  </si>
+  <si>
+    <t>zwiege {Strich über dem i}</t>
+  </si>
+  <si>
+    <t>III_16_0041</t>
+  </si>
+  <si>
+    <t>[u]-t {könnte auch v sein}</t>
+  </si>
+  <si>
+    <t>Wahlbach</t>
+  </si>
+  <si>
+    <t>Edwin Baumann</t>
+  </si>
+  <si>
+    <t>Gagǔmmere (w))</t>
+  </si>
+  <si>
+    <t>Guggel (m), Huen (w)</t>
+  </si>
+  <si>
+    <t>hebamm (w)</t>
+  </si>
+  <si>
+    <t>Herdepfel (m)</t>
+  </si>
+  <si>
+    <t>Gelberüebla (w)</t>
+  </si>
+  <si>
+    <t>Kruselbeere (w)</t>
+  </si>
+  <si>
+    <t>Schüssele (w)</t>
+  </si>
+  <si>
+    <t>Steinhafa (m)</t>
+  </si>
+  <si>
+    <t>abzwiga {Strich über dem i}</t>
+  </si>
+  <si>
+    <t>v-u</t>
+  </si>
+  <si>
+    <t>III_16_0042</t>
+  </si>
+  <si>
+    <t>Zässingen</t>
+  </si>
+  <si>
+    <t>Sundgau</t>
+  </si>
+  <si>
+    <t>Josef Rumelhard</t>
+  </si>
+  <si>
+    <t>Gildweiler</t>
+  </si>
+  <si>
+    <t>Schüler von Zässingen</t>
+  </si>
+  <si>
+    <t>Licht (w), Begräbnis (s)</t>
+  </si>
+  <si>
+    <t>Ähmt (s), Ahmt (s)</t>
+  </si>
+  <si>
+    <t>Gagummera (w)</t>
+  </si>
+  <si>
+    <t>Guckel, Hüan, Gluckera</t>
+  </si>
+  <si>
+    <t>Hewamma (w)</t>
+  </si>
+  <si>
+    <t>Hartepfel (m)</t>
+  </si>
+  <si>
+    <t>Scharmus {Trennstrich zwischen Schar und Mus}</t>
+  </si>
+  <si>
+    <t>Gedi (m)</t>
+  </si>
+  <si>
+    <t>&lt;ver&gt;schatla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tassale </t>
+  </si>
+  <si>
+    <t>Hafa &lt;ardig&gt; (m)</t>
+  </si>
+  <si>
+    <t>v-v</t>
+  </si>
+  <si>
+    <t>III_16_0043</t>
+  </si>
+  <si>
+    <t>Franken</t>
+  </si>
+  <si>
+    <t>[T]reue Burger</t>
+  </si>
+  <si>
+    <t>Urach</t>
+  </si>
+  <si>
+    <t>Omaisele</t>
+  </si>
+  <si>
+    <t>Licht (s)</t>
+  </si>
+  <si>
+    <t>Brombeera (w)</t>
+  </si>
+  <si>
+    <t>Ahgerschda (w)</t>
+  </si>
+  <si>
+    <t>Gugel, Huahn</t>
+  </si>
+  <si>
+    <t>Kāhlerriawla</t>
+  </si>
+  <si>
+    <t>Schessala</t>
+  </si>
+  <si>
+    <t>Hāfa</t>
+  </si>
+  <si>
+    <t>Veiala</t>
+  </si>
+  <si>
+    <t>Schwegera</t>
   </si>
 </sst>
 </file>
@@ -6848,14 +7625,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -7148,7 +7917,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7156,10 +7925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BB94"/>
+  <dimension ref="A1:BB110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A95" sqref="A95"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -7196,12 +7965,12 @@
     <col min="30" max="30" width="28.75" customWidth="1"/>
     <col min="31" max="31" width="28.625" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="28.25" customWidth="1"/>
-    <col min="33" max="33" width="25.75" customWidth="1"/>
+    <col min="33" max="33" width="46" customWidth="1"/>
     <col min="34" max="34" width="57.75" customWidth="1"/>
     <col min="35" max="35" width="24.75" customWidth="1"/>
     <col min="36" max="36" width="37.25" customWidth="1"/>
     <col min="37" max="37" width="39" customWidth="1"/>
-    <col min="38" max="38" width="16.875" customWidth="1"/>
+    <col min="38" max="38" width="25.375" customWidth="1"/>
     <col min="39" max="39" width="17.875" customWidth="1"/>
     <col min="40" max="40" width="23.625" customWidth="1"/>
     <col min="41" max="41" width="20.375" customWidth="1"/>
@@ -22625,6 +23394,2630 @@
         <v>2214</v>
       </c>
       <c r="BB94">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:54">
+      <c r="A95">
+        <v>92</v>
+      </c>
+      <c r="B95" s="14">
+        <v>44768</v>
+      </c>
+      <c r="C95" t="s">
+        <v>54</v>
+      </c>
+      <c r="D95" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E95">
+        <v>10</v>
+      </c>
+      <c r="F95">
+        <v>8</v>
+      </c>
+      <c r="G95" t="s">
+        <v>2218</v>
+      </c>
+      <c r="H95" t="s">
+        <v>90</v>
+      </c>
+      <c r="I95" s="9">
+        <v>24.5</v>
+      </c>
+      <c r="J95" s="9">
+        <v>47.35</v>
+      </c>
+      <c r="K95" s="11" t="s">
+        <v>2217</v>
+      </c>
+      <c r="L95" s="11" t="s">
+        <v>2219</v>
+      </c>
+      <c r="M95" s="11">
+        <v>999</v>
+      </c>
+      <c r="N95" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="O95" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="P95" s="11" t="s">
+        <v>2220</v>
+      </c>
+      <c r="Q95" s="11" t="s">
+        <v>2221</v>
+      </c>
+      <c r="R95" s="11" t="s">
+        <v>2222</v>
+      </c>
+      <c r="S95">
+        <v>999</v>
+      </c>
+      <c r="T95" t="s">
+        <v>176</v>
+      </c>
+      <c r="U95" s="1">
+        <v>999</v>
+      </c>
+      <c r="V95" s="12" t="s">
+        <v>2223</v>
+      </c>
+      <c r="W95" s="12" t="s">
+        <v>2224</v>
+      </c>
+      <c r="X95" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="Y95" s="12" t="s">
+        <v>2225</v>
+      </c>
+      <c r="Z95" s="12" t="s">
+        <v>826</v>
+      </c>
+      <c r="AA95" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="AB95" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC95" s="15" t="s">
+        <v>426</v>
+      </c>
+      <c r="AD95" s="15" t="s">
+        <v>807</v>
+      </c>
+      <c r="AE95" s="15" t="s">
+        <v>2226</v>
+      </c>
+      <c r="AF95" s="15" t="s">
+        <v>1471</v>
+      </c>
+      <c r="AG95" s="15" t="s">
+        <v>2227</v>
+      </c>
+      <c r="AH95" s="15" t="s">
+        <v>2228</v>
+      </c>
+      <c r="AI95" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="AJ95" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="AK95" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="AL95" s="15" t="s">
+        <v>2229</v>
+      </c>
+      <c r="AM95" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="AN95" s="15" t="s">
+        <v>2230</v>
+      </c>
+      <c r="AO95" s="15" t="s">
+        <v>972</v>
+      </c>
+      <c r="AP95" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="AQ95" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="AR95" s="15" t="s">
+        <v>2231</v>
+      </c>
+      <c r="AS95" s="15" t="s">
+        <v>2232</v>
+      </c>
+      <c r="AT95" s="15" t="s">
+        <v>2233</v>
+      </c>
+      <c r="AU95" s="15" t="s">
+        <v>2234</v>
+      </c>
+      <c r="AV95" s="15" t="s">
+        <v>2235</v>
+      </c>
+      <c r="AW95" s="15" t="s">
+        <v>2236</v>
+      </c>
+      <c r="AX95" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="AY95" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="AZ95" s="15" t="s">
+        <v>1730</v>
+      </c>
+      <c r="BA95" s="1" t="s">
+        <v>2237</v>
+      </c>
+      <c r="BB95">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:54">
+      <c r="A96">
+        <v>93</v>
+      </c>
+      <c r="B96" s="14">
+        <v>44769</v>
+      </c>
+      <c r="C96" t="s">
+        <v>54</v>
+      </c>
+      <c r="D96" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E96">
+        <v>10</v>
+      </c>
+      <c r="F96">
+        <v>9</v>
+      </c>
+      <c r="G96" t="s">
+        <v>2238</v>
+      </c>
+      <c r="H96" t="s">
+        <v>241</v>
+      </c>
+      <c r="I96" s="9">
+        <v>24.5</v>
+      </c>
+      <c r="J96" s="9">
+        <v>47.35</v>
+      </c>
+      <c r="K96" s="11" t="s">
+        <v>2239</v>
+      </c>
+      <c r="L96" s="11" t="s">
+        <v>2240</v>
+      </c>
+      <c r="M96" s="11">
+        <v>999</v>
+      </c>
+      <c r="N96" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="O96" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="P96" s="11" t="s">
+        <v>2241</v>
+      </c>
+      <c r="Q96" s="11" t="s">
+        <v>2144</v>
+      </c>
+      <c r="R96" s="11">
+        <v>999</v>
+      </c>
+      <c r="S96">
+        <v>999</v>
+      </c>
+      <c r="T96" t="s">
+        <v>176</v>
+      </c>
+      <c r="U96" s="1">
+        <v>999</v>
+      </c>
+      <c r="V96" s="12" t="s">
+        <v>1801</v>
+      </c>
+      <c r="W96" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="X96" s="12" t="s">
+        <v>2242</v>
+      </c>
+      <c r="Y96" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z96" s="12" t="s">
+        <v>2099</v>
+      </c>
+      <c r="AA96" s="12" t="s">
+        <v>2243</v>
+      </c>
+      <c r="AB96" s="12" t="s">
+        <v>2244</v>
+      </c>
+      <c r="AC96" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD96" s="15" t="s">
+        <v>2245</v>
+      </c>
+      <c r="AE96" s="15" t="s">
+        <v>2246</v>
+      </c>
+      <c r="AF96" s="15" t="s">
+        <v>808</v>
+      </c>
+      <c r="AG96" s="15" t="s">
+        <v>2247</v>
+      </c>
+      <c r="AH96" s="15" t="s">
+        <v>2248</v>
+      </c>
+      <c r="AI96" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="AJ96" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="AK96" s="15" t="s">
+        <v>2250</v>
+      </c>
+      <c r="AL96" s="15" t="s">
+        <v>2251</v>
+      </c>
+      <c r="AM96" s="15" t="s">
+        <v>2252</v>
+      </c>
+      <c r="AN96" s="15" t="s">
+        <v>2253</v>
+      </c>
+      <c r="AO96" s="15" t="s">
+        <v>498</v>
+      </c>
+      <c r="AP96" s="15" t="s">
+        <v>2254</v>
+      </c>
+      <c r="AQ96" s="15" t="s">
+        <v>2255</v>
+      </c>
+      <c r="AR96" s="15" t="s">
+        <v>2256</v>
+      </c>
+      <c r="AS96" s="15" t="s">
+        <v>2257</v>
+      </c>
+      <c r="AT96" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="AU96" s="15" t="s">
+        <v>2258</v>
+      </c>
+      <c r="AV96" s="15" t="s">
+        <v>2259</v>
+      </c>
+      <c r="AW96" s="15" t="s">
+        <v>2260</v>
+      </c>
+      <c r="AX96" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="AY96" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="AZ96" s="15" t="s">
+        <v>2249</v>
+      </c>
+      <c r="BA96" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="BB96">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:54">
+      <c r="A97">
+        <v>94</v>
+      </c>
+      <c r="B97" s="14">
+        <v>44769</v>
+      </c>
+      <c r="C97" t="s">
+        <v>54</v>
+      </c>
+      <c r="D97" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E97">
+        <v>10</v>
+      </c>
+      <c r="F97">
+        <v>10</v>
+      </c>
+      <c r="G97" t="s">
+        <v>2262</v>
+      </c>
+      <c r="H97" t="s">
+        <v>90</v>
+      </c>
+      <c r="I97" s="9">
+        <v>24.5</v>
+      </c>
+      <c r="J97" s="9">
+        <v>47.35</v>
+      </c>
+      <c r="K97" s="11" t="s">
+        <v>2261</v>
+      </c>
+      <c r="L97" s="11" t="s">
+        <v>2263</v>
+      </c>
+      <c r="M97" s="11">
+        <v>999</v>
+      </c>
+      <c r="N97" s="11" t="s">
+        <v>2264</v>
+      </c>
+      <c r="O97">
+        <v>999</v>
+      </c>
+      <c r="P97" s="11" t="s">
+        <v>2265</v>
+      </c>
+      <c r="Q97" s="11" t="s">
+        <v>2266</v>
+      </c>
+      <c r="R97" s="11" t="s">
+        <v>2267</v>
+      </c>
+      <c r="S97" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="T97" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="U97" s="1" t="s">
+        <v>2268</v>
+      </c>
+      <c r="V97" s="12" t="s">
+        <v>2269</v>
+      </c>
+      <c r="W97" s="12" t="s">
+        <v>2270</v>
+      </c>
+      <c r="X97" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="Y97" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z97" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="AA97" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="AB97" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC97" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="AD97" s="15" t="s">
+        <v>2100</v>
+      </c>
+      <c r="AE97" s="15" t="s">
+        <v>1380</v>
+      </c>
+      <c r="AF97" s="15" t="s">
+        <v>700</v>
+      </c>
+      <c r="AG97" s="15" t="s">
+        <v>2271</v>
+      </c>
+      <c r="AH97" s="15" t="s">
+        <v>845</v>
+      </c>
+      <c r="AI97" s="15" t="s">
+        <v>1015</v>
+      </c>
+      <c r="AJ97" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="AK97" s="15" t="s">
+        <v>1521</v>
+      </c>
+      <c r="AL97" s="15" t="s">
+        <v>2272</v>
+      </c>
+      <c r="AM97" s="15" t="s">
+        <v>434</v>
+      </c>
+      <c r="AN97" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="AO97" s="15" t="s">
+        <v>2273</v>
+      </c>
+      <c r="AP97" s="15" t="s">
+        <v>466</v>
+      </c>
+      <c r="AQ97" s="15" t="s">
+        <v>467</v>
+      </c>
+      <c r="AR97" s="15" t="s">
+        <v>2274</v>
+      </c>
+      <c r="AS97" s="15" t="s">
+        <v>2008</v>
+      </c>
+      <c r="AT97" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="AU97" s="15" t="s">
+        <v>2275</v>
+      </c>
+      <c r="AV97" s="15" t="s">
+        <v>2276</v>
+      </c>
+      <c r="AW97" s="15" t="s">
+        <v>2277</v>
+      </c>
+      <c r="AX97" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="AY97" s="1" t="s">
+        <v>2278</v>
+      </c>
+      <c r="AZ97" s="15" t="s">
+        <v>2003</v>
+      </c>
+      <c r="BA97" s="1" t="s">
+        <v>2279</v>
+      </c>
+      <c r="BB97">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:54">
+      <c r="A98">
+        <v>95</v>
+      </c>
+      <c r="B98" s="14">
+        <v>44769</v>
+      </c>
+      <c r="C98" t="s">
+        <v>54</v>
+      </c>
+      <c r="D98" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E98">
+        <v>10</v>
+      </c>
+      <c r="F98">
+        <v>11</v>
+      </c>
+      <c r="G98" t="s">
+        <v>2280</v>
+      </c>
+      <c r="H98" t="s">
+        <v>90</v>
+      </c>
+      <c r="I98" s="9">
+        <v>24.5</v>
+      </c>
+      <c r="J98" s="9">
+        <v>47.35</v>
+      </c>
+      <c r="K98" s="11" t="s">
+        <v>2281</v>
+      </c>
+      <c r="L98" s="11" t="s">
+        <v>2282</v>
+      </c>
+      <c r="M98" s="11">
+        <v>999</v>
+      </c>
+      <c r="N98" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="O98">
+        <v>999</v>
+      </c>
+      <c r="P98" s="11" t="s">
+        <v>2283</v>
+      </c>
+      <c r="Q98" s="11" t="s">
+        <v>2284</v>
+      </c>
+      <c r="R98" s="11">
+        <v>999</v>
+      </c>
+      <c r="S98" s="11">
+        <v>999</v>
+      </c>
+      <c r="T98" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="U98" s="1">
+        <v>999</v>
+      </c>
+      <c r="V98" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="W98" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="X98" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="Y98" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z98" s="12" t="s">
+        <v>696</v>
+      </c>
+      <c r="AA98" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="AB98" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC98" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="AD98" s="15" t="s">
+        <v>2100</v>
+      </c>
+      <c r="AE98" s="15" t="s">
+        <v>933</v>
+      </c>
+      <c r="AF98" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="AG98" s="15" t="s">
+        <v>2271</v>
+      </c>
+      <c r="AH98" s="15" t="s">
+        <v>2285</v>
+      </c>
+      <c r="AI98" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="AJ98" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="AK98" s="15" t="s">
+        <v>1521</v>
+      </c>
+      <c r="AL98" s="15" t="s">
+        <v>2286</v>
+      </c>
+      <c r="AM98" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="AN98" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="AO98" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="AP98" s="15" t="s">
+        <v>466</v>
+      </c>
+      <c r="AQ98" s="15" t="s">
+        <v>467</v>
+      </c>
+      <c r="AR98" s="15" t="s">
+        <v>935</v>
+      </c>
+      <c r="AS98" s="15" t="s">
+        <v>2008</v>
+      </c>
+      <c r="AT98" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="AU98" s="15" t="s">
+        <v>2275</v>
+      </c>
+      <c r="AV98" s="15" t="s">
+        <v>2287</v>
+      </c>
+      <c r="AW98" s="15" t="s">
+        <v>937</v>
+      </c>
+      <c r="AX98" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="AY98" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="AZ98" s="15" t="s">
+        <v>2003</v>
+      </c>
+      <c r="BA98" s="1" t="s">
+        <v>2288</v>
+      </c>
+      <c r="BB98">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:54">
+      <c r="A99">
+        <v>96</v>
+      </c>
+      <c r="B99" s="14">
+        <v>44769</v>
+      </c>
+      <c r="C99" t="s">
+        <v>54</v>
+      </c>
+      <c r="D99" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E99">
+        <v>10</v>
+      </c>
+      <c r="F99">
+        <v>12</v>
+      </c>
+      <c r="G99" t="s">
+        <v>2290</v>
+      </c>
+      <c r="H99" t="s">
+        <v>241</v>
+      </c>
+      <c r="I99" s="9">
+        <v>24.5</v>
+      </c>
+      <c r="J99" s="9">
+        <v>47.35</v>
+      </c>
+      <c r="K99" s="11" t="s">
+        <v>2289</v>
+      </c>
+      <c r="L99" s="11" t="s">
+        <v>2291</v>
+      </c>
+      <c r="M99" s="11">
+        <v>999</v>
+      </c>
+      <c r="N99" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="O99" s="11" t="s">
+        <v>2292</v>
+      </c>
+      <c r="P99" s="11" t="s">
+        <v>2293</v>
+      </c>
+      <c r="Q99" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="R99" s="11">
+        <v>999</v>
+      </c>
+      <c r="S99" s="11">
+        <v>999</v>
+      </c>
+      <c r="T99" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="U99" s="1">
+        <v>999</v>
+      </c>
+      <c r="V99" s="12" t="s">
+        <v>2294</v>
+      </c>
+      <c r="W99" s="12" t="s">
+        <v>2295</v>
+      </c>
+      <c r="X99">
+        <v>999</v>
+      </c>
+      <c r="Y99" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="Z99" s="12" t="s">
+        <v>841</v>
+      </c>
+      <c r="AA99" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="AB99" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC99" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="AD99" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="AE99" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="AF99" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="AG99" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="AH99">
+        <v>999</v>
+      </c>
+      <c r="AI99" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="AJ99" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="AK99" s="15" t="s">
+        <v>2297</v>
+      </c>
+      <c r="AL99">
+        <v>999</v>
+      </c>
+      <c r="AM99" s="15" t="s">
+        <v>2298</v>
+      </c>
+      <c r="AN99" s="15" t="s">
+        <v>2299</v>
+      </c>
+      <c r="AO99" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="AP99" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="AQ99">
+        <v>999</v>
+      </c>
+      <c r="AR99" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS99" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="AT99" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU99">
+        <v>999</v>
+      </c>
+      <c r="AV99">
+        <v>999</v>
+      </c>
+      <c r="AW99" s="15" t="s">
+        <v>2300</v>
+      </c>
+      <c r="AX99" s="15" t="s">
+        <v>2301</v>
+      </c>
+      <c r="AY99" s="1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AZ99" s="15" t="s">
+        <v>2296</v>
+      </c>
+      <c r="BA99" s="1">
+        <v>999</v>
+      </c>
+      <c r="BB99">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:54">
+      <c r="A100">
+        <v>97</v>
+      </c>
+      <c r="B100" s="14">
+        <v>44769</v>
+      </c>
+      <c r="C100" t="s">
+        <v>54</v>
+      </c>
+      <c r="D100" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E100">
+        <v>10</v>
+      </c>
+      <c r="F100">
+        <v>13</v>
+      </c>
+      <c r="G100" t="s">
+        <v>2303</v>
+      </c>
+      <c r="H100" t="s">
+        <v>57</v>
+      </c>
+      <c r="I100" s="9">
+        <v>24.5</v>
+      </c>
+      <c r="J100" s="9">
+        <v>47.35</v>
+      </c>
+      <c r="K100" s="11" t="s">
+        <v>2302</v>
+      </c>
+      <c r="L100" s="11" t="s">
+        <v>2304</v>
+      </c>
+      <c r="M100" s="11">
+        <v>999</v>
+      </c>
+      <c r="N100" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="O100" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="P100">
+        <v>999</v>
+      </c>
+      <c r="Q100">
+        <v>999</v>
+      </c>
+      <c r="R100" s="11">
+        <v>999</v>
+      </c>
+      <c r="S100" s="11">
+        <v>999</v>
+      </c>
+      <c r="T100" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="U100" s="1" t="s">
+        <v>2305</v>
+      </c>
+      <c r="V100" s="12" t="s">
+        <v>2306</v>
+      </c>
+      <c r="W100" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="X100" s="12" t="s">
+        <v>695</v>
+      </c>
+      <c r="Y100" s="12" t="s">
+        <v>2307</v>
+      </c>
+      <c r="Z100" s="12" t="s">
+        <v>696</v>
+      </c>
+      <c r="AA100" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB100" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC100" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="AD100" s="15" t="s">
+        <v>2308</v>
+      </c>
+      <c r="AE100" s="15" t="s">
+        <v>2309</v>
+      </c>
+      <c r="AF100" s="15" t="s">
+        <v>456</v>
+      </c>
+      <c r="AG100" s="15" t="s">
+        <v>1500</v>
+      </c>
+      <c r="AH100" s="15" t="s">
+        <v>2310</v>
+      </c>
+      <c r="AI100" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="AJ100" s="15" t="s">
+        <v>2312</v>
+      </c>
+      <c r="AK100" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="AL100" s="15" t="s">
+        <v>2313</v>
+      </c>
+      <c r="AM100" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="AN100" s="15" t="s">
+        <v>2314</v>
+      </c>
+      <c r="AO100" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="AP100" s="15" t="s">
+        <v>466</v>
+      </c>
+      <c r="AQ100" s="15" t="s">
+        <v>2315</v>
+      </c>
+      <c r="AR100" s="15" t="s">
+        <v>1581</v>
+      </c>
+      <c r="AS100" s="15" t="s">
+        <v>2090</v>
+      </c>
+      <c r="AT100" s="15" t="s">
+        <v>2316</v>
+      </c>
+      <c r="AU100" s="15" t="s">
+        <v>2317</v>
+      </c>
+      <c r="AV100" s="15" t="s">
+        <v>2318</v>
+      </c>
+      <c r="AW100" s="15" t="s">
+        <v>2319</v>
+      </c>
+      <c r="AX100" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="AY100" s="1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="AZ100" s="15" t="s">
+        <v>2311</v>
+      </c>
+      <c r="BA100" s="1" t="s">
+        <v>2320</v>
+      </c>
+      <c r="BB100">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:54">
+      <c r="A101">
+        <v>98</v>
+      </c>
+      <c r="B101" s="14">
+        <v>44769</v>
+      </c>
+      <c r="C101" t="s">
+        <v>54</v>
+      </c>
+      <c r="D101" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E101">
+        <v>10</v>
+      </c>
+      <c r="F101">
+        <v>14</v>
+      </c>
+      <c r="G101" t="s">
+        <v>2322</v>
+      </c>
+      <c r="H101" t="s">
+        <v>241</v>
+      </c>
+      <c r="I101" s="9">
+        <v>24.5</v>
+      </c>
+      <c r="J101" s="9">
+        <v>47.35</v>
+      </c>
+      <c r="K101" s="11" t="s">
+        <v>2321</v>
+      </c>
+      <c r="L101" s="11" t="s">
+        <v>2323</v>
+      </c>
+      <c r="M101" s="11">
+        <v>999</v>
+      </c>
+      <c r="N101" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="O101" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="P101" s="11">
+        <v>888</v>
+      </c>
+      <c r="Q101" s="11" t="s">
+        <v>2324</v>
+      </c>
+      <c r="R101" s="11">
+        <v>999</v>
+      </c>
+      <c r="S101" t="s">
+        <v>2325</v>
+      </c>
+      <c r="T101" s="11" t="s">
+        <v>692</v>
+      </c>
+      <c r="U101" s="1" t="s">
+        <v>2326</v>
+      </c>
+      <c r="V101" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="W101" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="X101" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y101" s="12" t="s">
+        <v>2127</v>
+      </c>
+      <c r="Z101" s="12" t="s">
+        <v>2327</v>
+      </c>
+      <c r="AA101" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="AB101" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC101" s="15" t="s">
+        <v>2328</v>
+      </c>
+      <c r="AD101" s="15" t="s">
+        <v>807</v>
+      </c>
+      <c r="AE101" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF101" s="15" t="s">
+        <v>2329</v>
+      </c>
+      <c r="AG101" s="15" t="s">
+        <v>2330</v>
+      </c>
+      <c r="AH101" t="s">
+        <v>2331</v>
+      </c>
+      <c r="AI101" s="15" t="s">
+        <v>724</v>
+      </c>
+      <c r="AJ101" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="AK101" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="AL101" s="15" t="s">
+        <v>2333</v>
+      </c>
+      <c r="AM101" s="15" t="s">
+        <v>1916</v>
+      </c>
+      <c r="AN101" s="15" t="s">
+        <v>1477</v>
+      </c>
+      <c r="AO101" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="AP101" s="15" t="s">
+        <v>466</v>
+      </c>
+      <c r="AQ101" s="15" t="s">
+        <v>2334</v>
+      </c>
+      <c r="AR101" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS101" s="15" t="s">
+        <v>2138</v>
+      </c>
+      <c r="AT101" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU101" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="AV101" s="15" t="s">
+        <v>2335</v>
+      </c>
+      <c r="AW101" s="15" t="s">
+        <v>384</v>
+      </c>
+      <c r="AX101" s="15" t="s">
+        <v>904</v>
+      </c>
+      <c r="AY101" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="AZ101" s="15" t="s">
+        <v>2332</v>
+      </c>
+      <c r="BA101" s="1" t="s">
+        <v>2336</v>
+      </c>
+      <c r="BB101">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:54">
+      <c r="A102">
+        <v>99</v>
+      </c>
+      <c r="B102" s="14">
+        <v>44770</v>
+      </c>
+      <c r="C102" t="s">
+        <v>54</v>
+      </c>
+      <c r="D102" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E102">
+        <v>10</v>
+      </c>
+      <c r="F102">
+        <v>15</v>
+      </c>
+      <c r="G102" t="s">
+        <v>2337</v>
+      </c>
+      <c r="H102" t="s">
+        <v>57</v>
+      </c>
+      <c r="I102" s="9">
+        <v>24.5</v>
+      </c>
+      <c r="J102" s="9">
+        <v>47.35</v>
+      </c>
+      <c r="K102" s="11" t="s">
+        <v>2338</v>
+      </c>
+      <c r="L102" s="11" t="s">
+        <v>2339</v>
+      </c>
+      <c r="M102" s="11">
+        <v>999</v>
+      </c>
+      <c r="N102" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="O102" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="P102">
+        <v>999</v>
+      </c>
+      <c r="Q102">
+        <v>999</v>
+      </c>
+      <c r="R102" s="11">
+        <v>999</v>
+      </c>
+      <c r="S102" s="11">
+        <v>999</v>
+      </c>
+      <c r="T102" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="U102" s="1" t="s">
+        <v>2340</v>
+      </c>
+      <c r="V102" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="W102" s="12" t="s">
+        <v>1404</v>
+      </c>
+      <c r="X102" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y102" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="Z102" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="AA102" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="AB102" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC102" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD102" s="15" t="s">
+        <v>1092</v>
+      </c>
+      <c r="AE102" s="15" t="s">
+        <v>721</v>
+      </c>
+      <c r="AF102" s="15" t="s">
+        <v>2341</v>
+      </c>
+      <c r="AG102" s="15" t="s">
+        <v>2342</v>
+      </c>
+      <c r="AH102" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="AI102" s="15" t="s">
+        <v>2343</v>
+      </c>
+      <c r="AJ102" s="15" t="s">
+        <v>1892</v>
+      </c>
+      <c r="AK102" s="15" t="s">
+        <v>2344</v>
+      </c>
+      <c r="AL102" s="15" t="s">
+        <v>2345</v>
+      </c>
+      <c r="AM102" s="15" t="s">
+        <v>2346</v>
+      </c>
+      <c r="AN102" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="AO102" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP102" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="AQ102" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR102" s="15" t="s">
+        <v>2347</v>
+      </c>
+      <c r="AS102" s="15" t="s">
+        <v>2348</v>
+      </c>
+      <c r="AT102" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="AU102" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="AV102" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="AW102" s="15" t="s">
+        <v>384</v>
+      </c>
+      <c r="AX102" s="15" t="s">
+        <v>1738</v>
+      </c>
+      <c r="AY102" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AZ102" s="15" t="s">
+        <v>1730</v>
+      </c>
+      <c r="BA102" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="BB102">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="103" spans="1:54">
+      <c r="A103">
+        <v>100</v>
+      </c>
+      <c r="B103" s="14">
+        <v>44770</v>
+      </c>
+      <c r="C103" t="s">
+        <v>54</v>
+      </c>
+      <c r="D103" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E103">
+        <v>10</v>
+      </c>
+      <c r="F103">
+        <v>16</v>
+      </c>
+      <c r="G103" t="s">
+        <v>2350</v>
+      </c>
+      <c r="H103" t="s">
+        <v>241</v>
+      </c>
+      <c r="I103" s="9">
+        <v>24.5</v>
+      </c>
+      <c r="J103" s="9">
+        <v>47.35</v>
+      </c>
+      <c r="K103" s="11" t="s">
+        <v>2349</v>
+      </c>
+      <c r="L103" s="11" t="s">
+        <v>2351</v>
+      </c>
+      <c r="M103" s="11">
+        <v>999</v>
+      </c>
+      <c r="N103" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="O103" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="P103" s="11" t="s">
+        <v>2352</v>
+      </c>
+      <c r="Q103" s="11" t="s">
+        <v>2353</v>
+      </c>
+      <c r="R103" s="11">
+        <v>999</v>
+      </c>
+      <c r="S103" s="11">
+        <v>999</v>
+      </c>
+      <c r="T103" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="U103" s="1">
+        <v>999</v>
+      </c>
+      <c r="V103" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="W103" s="12" t="s">
+        <v>1404</v>
+      </c>
+      <c r="X103" s="12" t="s">
+        <v>2354</v>
+      </c>
+      <c r="Y103" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="Z103" s="12" t="s">
+        <v>2355</v>
+      </c>
+      <c r="AA103" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="AB103" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC103" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD103" s="15" t="s">
+        <v>2356</v>
+      </c>
+      <c r="AE103" s="15" t="s">
+        <v>2357</v>
+      </c>
+      <c r="AF103" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="AG103" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="AH103" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="AI103" s="15" t="s">
+        <v>2358</v>
+      </c>
+      <c r="AJ103" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="AK103" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL103" s="15" t="s">
+        <v>2359</v>
+      </c>
+      <c r="AM103" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="AN103" s="15" t="s">
+        <v>1942</v>
+      </c>
+      <c r="AO103" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP103" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="AQ103" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="AR103" s="15" t="s">
+        <v>2360</v>
+      </c>
+      <c r="AS103" s="15" t="s">
+        <v>2361</v>
+      </c>
+      <c r="AT103" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="AU103" s="15" t="s">
+        <v>2362</v>
+      </c>
+      <c r="AV103" s="15" t="s">
+        <v>2363</v>
+      </c>
+      <c r="AW103" s="15" t="s">
+        <v>2364</v>
+      </c>
+      <c r="AX103" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="AY103" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AZ103" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="BA103" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BB103">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:54">
+      <c r="A104">
+        <v>101</v>
+      </c>
+      <c r="B104" s="14">
+        <v>44770</v>
+      </c>
+      <c r="C104" t="s">
+        <v>54</v>
+      </c>
+      <c r="D104" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E104">
+        <v>11</v>
+      </c>
+      <c r="F104">
+        <v>1</v>
+      </c>
+      <c r="G104" t="s">
+        <v>2365</v>
+      </c>
+      <c r="H104" t="s">
+        <v>90</v>
+      </c>
+      <c r="I104" s="9">
+        <v>25</v>
+      </c>
+      <c r="J104" s="9">
+        <v>47.35</v>
+      </c>
+      <c r="K104" s="11" t="s">
+        <v>2366</v>
+      </c>
+      <c r="L104" s="11" t="s">
+        <v>2367</v>
+      </c>
+      <c r="M104" s="11">
+        <v>999</v>
+      </c>
+      <c r="N104" s="11" t="s">
+        <v>689</v>
+      </c>
+      <c r="O104">
+        <v>999</v>
+      </c>
+      <c r="P104" s="11" t="s">
+        <v>2368</v>
+      </c>
+      <c r="Q104" s="11" t="s">
+        <v>2369</v>
+      </c>
+      <c r="R104" s="11" t="s">
+        <v>2370</v>
+      </c>
+      <c r="S104" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="T104" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="U104" s="1">
+        <v>999</v>
+      </c>
+      <c r="V104" s="12" t="s">
+        <v>2371</v>
+      </c>
+      <c r="W104" s="12" t="s">
+        <v>2372</v>
+      </c>
+      <c r="X104" s="12" t="s">
+        <v>2373</v>
+      </c>
+      <c r="Y104" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="Z104" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA104" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="AB104" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC104" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD104" s="15" t="s">
+        <v>1433</v>
+      </c>
+      <c r="AE104" s="15" t="s">
+        <v>2374</v>
+      </c>
+      <c r="AF104" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="AG104" s="15" t="s">
+        <v>2375</v>
+      </c>
+      <c r="AH104" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="AI104" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="AJ104" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="AK104" s="15" t="s">
+        <v>2376</v>
+      </c>
+      <c r="AL104" s="15" t="s">
+        <v>1832</v>
+      </c>
+      <c r="AM104" s="15" t="s">
+        <v>2377</v>
+      </c>
+      <c r="AN104" s="15" t="s">
+        <v>435</v>
+      </c>
+      <c r="AO104" s="15" t="s">
+        <v>1895</v>
+      </c>
+      <c r="AP104" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="AQ104" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR104" s="15" t="s">
+        <v>2378</v>
+      </c>
+      <c r="AS104" s="15" t="s">
+        <v>2379</v>
+      </c>
+      <c r="AT104" s="15" t="s">
+        <v>2380</v>
+      </c>
+      <c r="AU104" s="15" t="s">
+        <v>2381</v>
+      </c>
+      <c r="AV104" s="15" t="s">
+        <v>1946</v>
+      </c>
+      <c r="AW104" s="15" t="s">
+        <v>2382</v>
+      </c>
+      <c r="AX104" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="AY104" s="1" t="s">
+        <v>2383</v>
+      </c>
+      <c r="AZ104" s="15" t="s">
+        <v>1730</v>
+      </c>
+      <c r="BA104" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BB104">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:54">
+      <c r="A105">
+        <v>102</v>
+      </c>
+      <c r="B105" s="14">
+        <v>44770</v>
+      </c>
+      <c r="C105" t="s">
+        <v>54</v>
+      </c>
+      <c r="D105" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E105">
+        <v>11</v>
+      </c>
+      <c r="F105">
+        <v>2</v>
+      </c>
+      <c r="G105" t="s">
+        <v>2384</v>
+      </c>
+      <c r="H105" t="s">
+        <v>241</v>
+      </c>
+      <c r="I105" s="9">
+        <v>25</v>
+      </c>
+      <c r="J105" s="9">
+        <v>47.35</v>
+      </c>
+      <c r="K105" s="11" t="s">
+        <v>2385</v>
+      </c>
+      <c r="L105" s="11" t="s">
+        <v>2386</v>
+      </c>
+      <c r="M105" s="11">
+        <v>999</v>
+      </c>
+      <c r="N105" s="11" t="s">
+        <v>2410</v>
+      </c>
+      <c r="O105" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="P105" s="11" t="s">
+        <v>2387</v>
+      </c>
+      <c r="Q105" s="11" t="s">
+        <v>2388</v>
+      </c>
+      <c r="R105" s="11">
+        <v>999</v>
+      </c>
+      <c r="S105" s="11">
+        <v>999</v>
+      </c>
+      <c r="T105" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="U105" s="1">
+        <v>999</v>
+      </c>
+      <c r="V105" s="12">
+        <v>999</v>
+      </c>
+      <c r="W105" s="12" t="s">
+        <v>2389</v>
+      </c>
+      <c r="X105" s="12">
+        <v>999</v>
+      </c>
+      <c r="Y105" s="12">
+        <v>999</v>
+      </c>
+      <c r="Z105" s="12" t="s">
+        <v>826</v>
+      </c>
+      <c r="AA105" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="AB105">
+        <v>999</v>
+      </c>
+      <c r="AC105" s="15" t="s">
+        <v>2390</v>
+      </c>
+      <c r="AD105" s="15" t="s">
+        <v>1433</v>
+      </c>
+      <c r="AE105">
+        <v>999</v>
+      </c>
+      <c r="AF105">
+        <v>999</v>
+      </c>
+      <c r="AG105" s="15" t="s">
+        <v>2391</v>
+      </c>
+      <c r="AH105">
+        <v>999</v>
+      </c>
+      <c r="AI105" t="s">
+        <v>680</v>
+      </c>
+      <c r="AJ105" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="AK105" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="AL105">
+        <v>999</v>
+      </c>
+      <c r="AM105" s="15" t="s">
+        <v>434</v>
+      </c>
+      <c r="AN105" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="AO105" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="AP105">
+        <v>999</v>
+      </c>
+      <c r="AQ105">
+        <v>999</v>
+      </c>
+      <c r="AR105" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS105">
+        <v>999</v>
+      </c>
+      <c r="AT105" s="15" t="s">
+        <v>409</v>
+      </c>
+      <c r="AU105" s="15">
+        <v>999</v>
+      </c>
+      <c r="AV105" s="15">
+        <v>999</v>
+      </c>
+      <c r="AW105" s="15">
+        <v>999</v>
+      </c>
+      <c r="AX105" s="15" t="s">
+        <v>796</v>
+      </c>
+      <c r="AY105" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="AZ105">
+        <v>999</v>
+      </c>
+      <c r="BA105" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="BB105">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:54">
+      <c r="A106">
+        <v>103</v>
+      </c>
+      <c r="B106" s="14">
+        <v>44771</v>
+      </c>
+      <c r="C106" t="s">
+        <v>54</v>
+      </c>
+      <c r="D106" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E106">
+        <v>11</v>
+      </c>
+      <c r="F106">
+        <v>3</v>
+      </c>
+      <c r="G106" t="s">
+        <v>2392</v>
+      </c>
+      <c r="H106" t="s">
+        <v>241</v>
+      </c>
+      <c r="I106" s="9">
+        <v>25</v>
+      </c>
+      <c r="J106" s="9">
+        <v>47.35</v>
+      </c>
+      <c r="K106" s="11" t="s">
+        <v>2393</v>
+      </c>
+      <c r="L106" s="11" t="s">
+        <v>2394</v>
+      </c>
+      <c r="M106" s="11">
+        <v>999</v>
+      </c>
+      <c r="N106" s="11" t="s">
+        <v>2409</v>
+      </c>
+      <c r="O106" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="P106" s="11" t="s">
+        <v>2395</v>
+      </c>
+      <c r="Q106" s="11" t="s">
+        <v>2396</v>
+      </c>
+      <c r="R106" s="11">
+        <v>999</v>
+      </c>
+      <c r="S106" s="11">
+        <v>999</v>
+      </c>
+      <c r="T106" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="U106" s="1">
+        <v>999</v>
+      </c>
+      <c r="V106" s="12" t="s">
+        <v>1884</v>
+      </c>
+      <c r="W106" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="X106" s="12" t="s">
+        <v>2397</v>
+      </c>
+      <c r="Y106" s="12" t="s">
+        <v>2398</v>
+      </c>
+      <c r="Z106" s="12" t="s">
+        <v>2399</v>
+      </c>
+      <c r="AA106" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="AB106" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC106" s="15" t="s">
+        <v>426</v>
+      </c>
+      <c r="AD106" s="15" t="s">
+        <v>1433</v>
+      </c>
+      <c r="AE106" s="15" t="s">
+        <v>2400</v>
+      </c>
+      <c r="AF106" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="AG106" s="15" t="s">
+        <v>2070</v>
+      </c>
+      <c r="AH106" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI106" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="AJ106" s="15" t="s">
+        <v>2402</v>
+      </c>
+      <c r="AK106" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="AL106" s="15" t="s">
+        <v>2403</v>
+      </c>
+      <c r="AM106" s="15" t="s">
+        <v>2134</v>
+      </c>
+      <c r="AN106" s="15" t="s">
+        <v>435</v>
+      </c>
+      <c r="AO106" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP106" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="AQ106" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR106" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS106" s="15" t="s">
+        <v>1439</v>
+      </c>
+      <c r="AT106" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU106" s="15" t="s">
+        <v>2404</v>
+      </c>
+      <c r="AV106" t="s">
+        <v>1718</v>
+      </c>
+      <c r="AW106" s="15" t="s">
+        <v>384</v>
+      </c>
+      <c r="AX106" s="15" t="s">
+        <v>2405</v>
+      </c>
+      <c r="AY106" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="AZ106" t="s">
+        <v>2401</v>
+      </c>
+      <c r="BA106" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="BB106">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:54">
+      <c r="A107">
+        <v>104</v>
+      </c>
+      <c r="B107" s="14">
+        <v>44771</v>
+      </c>
+      <c r="C107" t="s">
+        <v>54</v>
+      </c>
+      <c r="D107" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E107">
+        <v>11</v>
+      </c>
+      <c r="F107">
+        <v>3</v>
+      </c>
+      <c r="G107" t="s">
+        <v>2406</v>
+      </c>
+      <c r="H107" t="s">
+        <v>241</v>
+      </c>
+      <c r="I107" s="9">
+        <v>25</v>
+      </c>
+      <c r="J107" s="9">
+        <v>47.35</v>
+      </c>
+      <c r="K107" s="11" t="s">
+        <v>2393</v>
+      </c>
+      <c r="L107" s="11" t="s">
+        <v>2407</v>
+      </c>
+      <c r="M107" s="11">
+        <v>999</v>
+      </c>
+      <c r="N107" s="11" t="s">
+        <v>2408</v>
+      </c>
+      <c r="O107" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="P107" s="11" t="s">
+        <v>2411</v>
+      </c>
+      <c r="Q107" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="R107" s="11">
+        <v>999</v>
+      </c>
+      <c r="S107" s="11">
+        <v>999</v>
+      </c>
+      <c r="T107" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="U107" s="1" t="s">
+        <v>2412</v>
+      </c>
+      <c r="V107" s="12" t="s">
+        <v>2413</v>
+      </c>
+      <c r="W107" s="12" t="s">
+        <v>2414</v>
+      </c>
+      <c r="X107" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="Y107" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z107" s="12" t="s">
+        <v>2415</v>
+      </c>
+      <c r="AA107" s="12" t="s">
+        <v>2416</v>
+      </c>
+      <c r="AB107" s="12" t="s">
+        <v>2418</v>
+      </c>
+      <c r="AC107" t="s">
+        <v>2417</v>
+      </c>
+      <c r="AD107" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="AE107" s="15" t="s">
+        <v>2419</v>
+      </c>
+      <c r="AF107" s="15" t="s">
+        <v>2420</v>
+      </c>
+      <c r="AG107" s="15" t="s">
+        <v>2421</v>
+      </c>
+      <c r="AH107" s="15" t="s">
+        <v>492</v>
+      </c>
+      <c r="AI107" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="AJ107" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="AK107" s="15" t="s">
+        <v>2422</v>
+      </c>
+      <c r="AL107" s="15" t="s">
+        <v>2423</v>
+      </c>
+      <c r="AM107" s="15" t="s">
+        <v>2424</v>
+      </c>
+      <c r="AN107" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="AO107" s="15" t="s">
+        <v>2425</v>
+      </c>
+      <c r="AP107" s="15" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AQ107" s="15" t="s">
+        <v>2426</v>
+      </c>
+      <c r="AR107" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="AS107" s="15" t="s">
+        <v>2427</v>
+      </c>
+      <c r="AT107" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="AU107" s="15" t="s">
+        <v>585</v>
+      </c>
+      <c r="AV107" s="15" t="s">
+        <v>2428</v>
+      </c>
+      <c r="AW107" s="15" t="s">
+        <v>637</v>
+      </c>
+      <c r="AX107" s="15" t="s">
+        <v>2429</v>
+      </c>
+      <c r="AY107" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="AZ107" t="s">
+        <v>320</v>
+      </c>
+      <c r="BA107" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="BB107">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:54">
+      <c r="A108">
+        <v>105</v>
+      </c>
+      <c r="B108" s="14">
+        <v>44771</v>
+      </c>
+      <c r="C108" t="s">
+        <v>54</v>
+      </c>
+      <c r="D108" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E108">
+        <v>11</v>
+      </c>
+      <c r="F108">
+        <v>4</v>
+      </c>
+      <c r="G108" t="s">
+        <v>2430</v>
+      </c>
+      <c r="H108" t="s">
+        <v>241</v>
+      </c>
+      <c r="I108" s="9">
+        <v>25</v>
+      </c>
+      <c r="J108" s="9">
+        <v>47.35</v>
+      </c>
+      <c r="K108" s="11" t="s">
+        <v>2431</v>
+      </c>
+      <c r="L108" s="11" t="s">
+        <v>2432</v>
+      </c>
+      <c r="M108" s="11">
+        <v>999</v>
+      </c>
+      <c r="N108" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="O108" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="P108" s="11" t="s">
+        <v>2433</v>
+      </c>
+      <c r="Q108" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="R108" s="11">
+        <v>999</v>
+      </c>
+      <c r="S108" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="T108" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="U108" s="1">
+        <v>999</v>
+      </c>
+      <c r="V108" s="12" t="s">
+        <v>1801</v>
+      </c>
+      <c r="W108" s="12" t="s">
+        <v>571</v>
+      </c>
+      <c r="X108" s="12" t="s">
+        <v>541</v>
+      </c>
+      <c r="Y108" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z108" s="12" t="s">
+        <v>1630</v>
+      </c>
+      <c r="AA108" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="AB108" s="12" t="s">
+        <v>1260</v>
+      </c>
+      <c r="AC108" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="AD108" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="AE108" s="15" t="s">
+        <v>2434</v>
+      </c>
+      <c r="AF108" s="15" t="s">
+        <v>490</v>
+      </c>
+      <c r="AG108" s="15" t="s">
+        <v>2435</v>
+      </c>
+      <c r="AH108" s="15" t="s">
+        <v>2436</v>
+      </c>
+      <c r="AI108" s="15" t="s">
+        <v>2437</v>
+      </c>
+      <c r="AJ108" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="AK108" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="AL108" s="15" t="s">
+        <v>2438</v>
+      </c>
+      <c r="AM108" s="15" t="s">
+        <v>464</v>
+      </c>
+      <c r="AN108" s="15" t="s">
+        <v>1072</v>
+      </c>
+      <c r="AO108" s="15" t="s">
+        <v>498</v>
+      </c>
+      <c r="AP108" s="15" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AQ108" s="15" t="s">
+        <v>852</v>
+      </c>
+      <c r="AR108" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="AS108" s="15" t="s">
+        <v>2439</v>
+      </c>
+      <c r="AT108" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="AU108" s="15" t="s">
+        <v>1328</v>
+      </c>
+      <c r="AV108" s="15" t="s">
+        <v>2440</v>
+      </c>
+      <c r="AW108" s="15" t="s">
+        <v>2441</v>
+      </c>
+      <c r="AX108" s="15" t="s">
+        <v>2442</v>
+      </c>
+      <c r="AY108" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="AZ108" t="s">
+        <v>623</v>
+      </c>
+      <c r="BA108" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="BB108">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="109" spans="1:54">
+      <c r="A109">
+        <v>106</v>
+      </c>
+      <c r="B109" s="14">
+        <v>44771</v>
+      </c>
+      <c r="C109" t="s">
+        <v>54</v>
+      </c>
+      <c r="D109" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E109">
+        <v>11</v>
+      </c>
+      <c r="F109">
+        <v>5</v>
+      </c>
+      <c r="G109" t="s">
+        <v>2444</v>
+      </c>
+      <c r="H109" t="s">
+        <v>90</v>
+      </c>
+      <c r="I109" s="9">
+        <v>25</v>
+      </c>
+      <c r="J109" s="9">
+        <v>47.35</v>
+      </c>
+      <c r="K109" s="11" t="s">
+        <v>2443</v>
+      </c>
+      <c r="L109" s="11" t="s">
+        <v>2445</v>
+      </c>
+      <c r="M109" s="11">
+        <v>999</v>
+      </c>
+      <c r="N109" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="O109" s="11" t="s">
+        <v>2446</v>
+      </c>
+      <c r="P109" s="11" t="s">
+        <v>2447</v>
+      </c>
+      <c r="Q109" s="11" t="s">
+        <v>2448</v>
+      </c>
+      <c r="R109" s="11" t="s">
+        <v>568</v>
+      </c>
+      <c r="S109" s="11">
+        <v>999</v>
+      </c>
+      <c r="T109" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="U109" s="1" t="s">
+        <v>2449</v>
+      </c>
+      <c r="V109" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="W109" s="12" t="s">
+        <v>2450</v>
+      </c>
+      <c r="X109" s="12" t="s">
+        <v>695</v>
+      </c>
+      <c r="Y109" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z109" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="AA109" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB109" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC109" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="AD109" s="15" t="s">
+        <v>2451</v>
+      </c>
+      <c r="AE109" s="15" t="s">
+        <v>2452</v>
+      </c>
+      <c r="AF109" s="15" t="s">
+        <v>456</v>
+      </c>
+      <c r="AG109" s="15" t="s">
+        <v>2453</v>
+      </c>
+      <c r="AH109" s="15" t="s">
+        <v>2454</v>
+      </c>
+      <c r="AI109" s="15" t="s">
+        <v>2455</v>
+      </c>
+      <c r="AJ109" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="AK109" s="15" t="s">
+        <v>2456</v>
+      </c>
+      <c r="AL109">
+        <v>999</v>
+      </c>
+      <c r="AM109" s="15" t="s">
+        <v>1071</v>
+      </c>
+      <c r="AN109" s="15" t="s">
+        <v>2457</v>
+      </c>
+      <c r="AO109" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="AP109" s="15" t="s">
+        <v>657</v>
+      </c>
+      <c r="AQ109" s="15" t="s">
+        <v>2458</v>
+      </c>
+      <c r="AR109" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="AS109" s="15" t="s">
+        <v>502</v>
+      </c>
+      <c r="AT109" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="AU109" s="15" t="s">
+        <v>1583</v>
+      </c>
+      <c r="AV109" s="15" t="s">
+        <v>2459</v>
+      </c>
+      <c r="AW109" s="15" t="s">
+        <v>2460</v>
+      </c>
+      <c r="AX109" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="AY109" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="AZ109" t="s">
+        <v>1914</v>
+      </c>
+      <c r="BA109" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="BB109">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:54">
+      <c r="A110">
+        <v>107</v>
+      </c>
+      <c r="B110" s="14">
+        <v>44771</v>
+      </c>
+      <c r="C110" t="s">
+        <v>54</v>
+      </c>
+      <c r="D110" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E110">
+        <v>11</v>
+      </c>
+      <c r="F110">
+        <v>6</v>
+      </c>
+      <c r="G110" t="s">
+        <v>2462</v>
+      </c>
+      <c r="H110" t="s">
+        <v>57</v>
+      </c>
+      <c r="I110" s="9">
+        <v>25</v>
+      </c>
+      <c r="J110" s="9">
+        <v>47.35</v>
+      </c>
+      <c r="K110" s="11" t="s">
+        <v>2461</v>
+      </c>
+      <c r="L110" s="11" t="s">
+        <v>2463</v>
+      </c>
+      <c r="M110" s="11">
+        <v>999</v>
+      </c>
+      <c r="N110" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="O110" s="11" t="s">
+        <v>1646</v>
+      </c>
+      <c r="P110" s="11" t="s">
+        <v>2464</v>
+      </c>
+      <c r="Q110" s="11" t="s">
+        <v>2465</v>
+      </c>
+      <c r="R110" s="11">
+        <v>999</v>
+      </c>
+      <c r="S110" s="11">
+        <v>999</v>
+      </c>
+      <c r="T110" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="U110" s="1">
+        <v>999</v>
+      </c>
+      <c r="V110" s="12" t="s">
+        <v>2466</v>
+      </c>
+      <c r="W110" s="12" t="s">
+        <v>2467</v>
+      </c>
+      <c r="X110" s="12" t="s">
+        <v>2468</v>
+      </c>
+      <c r="Y110" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z110" s="12" t="s">
+        <v>2469</v>
+      </c>
+      <c r="AA110" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB110" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC110" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="AD110" s="15" t="s">
+        <v>1092</v>
+      </c>
+      <c r="AE110" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF110" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="AG110" s="15" t="s">
+        <v>2470</v>
+      </c>
+      <c r="AH110" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI110" s="15" t="s">
+        <v>1680</v>
+      </c>
+      <c r="AJ110" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="AK110" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="AL110" s="15" t="s">
+        <v>2471</v>
+      </c>
+      <c r="AM110" s="15" t="s">
+        <v>434</v>
+      </c>
+      <c r="AN110" s="15" t="s">
+        <v>1477</v>
+      </c>
+      <c r="AO110" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP110" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="AQ110" s="15" t="s">
+        <v>467</v>
+      </c>
+      <c r="AR110" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS110" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="AT110" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU110" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="AV110" s="15" t="s">
+        <v>2472</v>
+      </c>
+      <c r="AW110" s="15" t="s">
+        <v>2473</v>
+      </c>
+      <c r="AX110" s="15" t="s">
+        <v>2474</v>
+      </c>
+      <c r="AY110" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AZ110" t="s">
+        <v>1709</v>
+      </c>
+      <c r="BA110" s="1" t="s">
+        <v>2475</v>
+      </c>
+      <c r="BB110">
         <v>999</v>
       </c>
     </row>

--- a/Data/DWA_FS.xlsx
+++ b/Data/DWA_FS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4755" uniqueCount="2476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5326" uniqueCount="2722">
   <si>
     <t>ID</t>
   </si>
@@ -6351,9 +6351,6 @@
     <t>III_16_0020</t>
   </si>
   <si>
-    <t>[u]-n {könnte auch v sein}</t>
-  </si>
-  <si>
     <t>Hirzbach</t>
   </si>
   <si>
@@ -6489,12 +6486,6 @@
     <t xml:space="preserve">Dassala  </t>
   </si>
   <si>
-    <t>[u]-d {könnte auch v sein}</t>
-  </si>
-  <si>
-    <t>[u]-b {könnte auch v sein}</t>
-  </si>
-  <si>
     <t>III_16_0023</t>
   </si>
   <si>
@@ -6543,9 +6534,6 @@
     <t>zwiga {Strich über dem i}</t>
   </si>
   <si>
-    <t>[u]-e {könnte auch v sein}</t>
-  </si>
-  <si>
     <t>III_16_0024</t>
   </si>
   <si>
@@ -6582,9 +6570,6 @@
     <t>III_16_0025</t>
   </si>
   <si>
-    <t>[u]-f {könnte auch v sein}</t>
-  </si>
-  <si>
     <t>Obermorschweiler</t>
   </si>
   <si>
@@ -6615,9 +6600,6 @@
     <t>Scharmaus (die)</t>
   </si>
   <si>
-    <t>[u]-c {könnte auch v sein}</t>
-  </si>
-  <si>
     <t>III_16_0026</t>
   </si>
   <si>
@@ -6681,9 +6663,6 @@
     <t>Dásala, Dállrla (s)</t>
   </si>
   <si>
-    <t>[u]-i {könnte auch v sein}</t>
-  </si>
-  <si>
     <t>III_16_0027</t>
   </si>
   <si>
@@ -6717,9 +6696,6 @@
     <t xml:space="preserve">ardiger Hafa  </t>
   </si>
   <si>
-    <t>[u]-g {könnte auch v sein}</t>
-  </si>
-  <si>
     <t>III_16_0028</t>
   </si>
   <si>
@@ -6783,9 +6759,6 @@
     <t>III_16_0029</t>
   </si>
   <si>
-    <t>[u]-h {könnte auch v sein}</t>
-  </si>
-  <si>
     <t xml:space="preserve">Altkirch  </t>
   </si>
   <si>
@@ -6849,9 +6822,6 @@
     <t>Haafe (m) {nach oben offener Bogen über aa}</t>
   </si>
   <si>
-    <t>[u]-k {könnte auch v sein}</t>
-  </si>
-  <si>
     <t>III_16_0030</t>
   </si>
   <si>
@@ -6909,9 +6879,6 @@
     <t>III_16_0031</t>
   </si>
   <si>
-    <t>[u]-l {könnte auch v sein}</t>
-  </si>
-  <si>
     <t>Emlingen</t>
   </si>
   <si>
@@ -6933,9 +6900,6 @@
     <t>Schwiegrdochter (w)</t>
   </si>
   <si>
-    <t>[u]-m {könnte auch v sein}</t>
-  </si>
-  <si>
     <t>III_16_0032</t>
   </si>
   <si>
@@ -6972,9 +6936,6 @@
     <t>äugln</t>
   </si>
   <si>
-    <t>[u]-s {könnte auch v sein}</t>
-  </si>
-  <si>
     <t>III_16_0033</t>
   </si>
   <si>
@@ -7029,9 +6990,6 @@
     <t>Schwigertochter (w)</t>
   </si>
   <si>
-    <t>[u]-o {könnte auch v sein}</t>
-  </si>
-  <si>
     <t>III_16_0034</t>
   </si>
   <si>
@@ -7080,9 +7038,6 @@
     <t>III_16_0035</t>
   </si>
   <si>
-    <t>[u]-q {könnte auch v sein}</t>
-  </si>
-  <si>
     <t>Weiler</t>
   </si>
   <si>
@@ -7113,9 +7068,6 @@
     <t>Stachelbärra</t>
   </si>
   <si>
-    <t>[u]-p {könnte auch v sein}</t>
-  </si>
-  <si>
     <t>III_16_0036</t>
   </si>
   <si>
@@ -7164,9 +7116,6 @@
     <t>III_16_0037</t>
   </si>
   <si>
-    <t>[u]-N {könnte auch v sein}</t>
-  </si>
-  <si>
     <t>Waltenheim</t>
   </si>
   <si>
@@ -7221,9 +7170,6 @@
     <t>III_16_0038</t>
   </si>
   <si>
-    <t>[u]-z {könnte auch v sein}</t>
-  </si>
-  <si>
     <t>Niederranspach</t>
   </si>
   <si>
@@ -7245,9 +7191,6 @@
     <t>III_16_0039</t>
   </si>
   <si>
-    <t>[u]-B {könnte auch v sein}</t>
-  </si>
-  <si>
     <t>Blotzheim</t>
   </si>
   <si>
@@ -7359,9 +7302,6 @@
     <t>III_16_0041</t>
   </si>
   <si>
-    <t>[u]-t {könnte auch v sein}</t>
-  </si>
-  <si>
     <t>Wahlbach</t>
   </si>
   <si>
@@ -7492,6 +7432,804 @@
   </si>
   <si>
     <t>Schwegera</t>
+  </si>
+  <si>
+    <t>III_16_0044</t>
+  </si>
+  <si>
+    <t>Jettingen</t>
+  </si>
+  <si>
+    <t>Lehrer mit den Schülern</t>
+  </si>
+  <si>
+    <t>Andaratsch</t>
+  </si>
+  <si>
+    <t>Flatamüs</t>
+  </si>
+  <si>
+    <t>Gågumara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ehmd </t>
+  </si>
+  <si>
+    <t>Guggl, Hüan</t>
+  </si>
+  <si>
+    <t>Hebåmm</t>
+  </si>
+  <si>
+    <t>Geddi</t>
+  </si>
+  <si>
+    <t>Chrüslbeeri</t>
+  </si>
+  <si>
+    <t>Streggnodla</t>
+  </si>
+  <si>
+    <t>Schwegertochtr</t>
+  </si>
+  <si>
+    <t>III_16_0045</t>
+  </si>
+  <si>
+    <t>[v]-n {könnte auch u sein}</t>
+  </si>
+  <si>
+    <t>[v]-b {könnte auch u sein}</t>
+  </si>
+  <si>
+    <t>[v]-d {könnte auch u sein}</t>
+  </si>
+  <si>
+    <t>[v]-f {könnte auch u sein}</t>
+  </si>
+  <si>
+    <t>[v]-c {könnte auch u sein}</t>
+  </si>
+  <si>
+    <t>[v]-i {könnte auch u sein}</t>
+  </si>
+  <si>
+    <t>[v]-g {könnte auch u sein}</t>
+  </si>
+  <si>
+    <t>[v]-h {könnte auch u sein}</t>
+  </si>
+  <si>
+    <t>[v]-k {könnte auch u sein}</t>
+  </si>
+  <si>
+    <t>[v]-l {könnte auch u sein}</t>
+  </si>
+  <si>
+    <t>[v]-m {könnte auch u sein}</t>
+  </si>
+  <si>
+    <t>[v]-s {könnte auch u sein}</t>
+  </si>
+  <si>
+    <t>[v]-o {könnte auch u sein}</t>
+  </si>
+  <si>
+    <t>[v]-q {könnte auch u sein}</t>
+  </si>
+  <si>
+    <t>[v]-p {könnte auch u sein}</t>
+  </si>
+  <si>
+    <t>[v]-N {könnte auch u sein}</t>
+  </si>
+  <si>
+    <t>[v]-z {könnte auch u sein}</t>
+  </si>
+  <si>
+    <t>[v]-B {könnte auch u sein}</t>
+  </si>
+  <si>
+    <t>[v]-t {könnte auch u sein}</t>
+  </si>
+  <si>
+    <t>[v]-e {könnte auch u sein}</t>
+  </si>
+  <si>
+    <t>[v]-w {könnte auch u sein}</t>
+  </si>
+  <si>
+    <t>[v]-x {könnte auch u sein}</t>
+  </si>
+  <si>
+    <t>Berenzweiler</t>
+  </si>
+  <si>
+    <t>Gerh. F[u]ther</t>
+  </si>
+  <si>
+    <t>a. Kaiserstuhl</t>
+  </si>
+  <si>
+    <t>Achkarren</t>
+  </si>
+  <si>
+    <t>Omeisälä (w)</t>
+  </si>
+  <si>
+    <t>Liichd (w)</t>
+  </si>
+  <si>
+    <t>Broomäla (w)</t>
+  </si>
+  <si>
+    <t>Diss'l (w)</t>
+  </si>
+  <si>
+    <t>Äg[r]schdä (w)</t>
+  </si>
+  <si>
+    <t>Fläd'rmüüs (w)</t>
+  </si>
+  <si>
+    <t>Ähmd (w)</t>
+  </si>
+  <si>
+    <t>Gagummärä (w)</t>
+  </si>
+  <si>
+    <t>Gug'l (m), Hüehn (w)</t>
+  </si>
+  <si>
+    <t>Hollärä (w)</t>
+  </si>
+  <si>
+    <t>Härdepf'l (m)</t>
+  </si>
+  <si>
+    <t>Galriäbbe (s) {Kreuz über dem e}</t>
+  </si>
+  <si>
+    <t>Moor (m)</t>
+  </si>
+  <si>
+    <t>Riämä (m)</t>
+  </si>
+  <si>
+    <t>Pflümä (w)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">schäldä </t>
+  </si>
+  <si>
+    <t>Chrüs'lbäri (w)</t>
+  </si>
+  <si>
+    <t>Schtreggnodlä (w)</t>
+  </si>
+  <si>
+    <t>Schissale (s), Däll['r]le (s)</t>
+  </si>
+  <si>
+    <t>ärdigä Hafä</t>
+  </si>
+  <si>
+    <t>zwiigä</t>
+  </si>
+  <si>
+    <t>Suhnsfr[å]ü (w)</t>
+  </si>
+  <si>
+    <t>III_16_0047</t>
+  </si>
+  <si>
+    <t>[v]-A {könnte auch u sein}</t>
+  </si>
+  <si>
+    <t>Mülhausen i/Elsass</t>
+  </si>
+  <si>
+    <t>Oberrhein</t>
+  </si>
+  <si>
+    <t>Emil Kieffer</t>
+  </si>
+  <si>
+    <t>Nothalten</t>
+  </si>
+  <si>
+    <t>u/Elsass</t>
+  </si>
+  <si>
+    <t>Omeisle (s)</t>
+  </si>
+  <si>
+    <t>Vergräbnis (s), Licht (w)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guggel (m), Hüen (w)  </t>
+  </si>
+  <si>
+    <t>[K]atzerolli (m)</t>
+  </si>
+  <si>
+    <t>Rie̠be (w)</t>
+  </si>
+  <si>
+    <t>Rie̠me (m)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">handle </t>
+  </si>
+  <si>
+    <t>Grüselbeere  (w)</t>
+  </si>
+  <si>
+    <t>Streckn[u]dle (w)</t>
+  </si>
+  <si>
+    <t>Tassela (s), Dallerle (s)</t>
+  </si>
+  <si>
+    <t>Haf[a] (m)</t>
+  </si>
+  <si>
+    <t>Schwegertochter (w)</t>
+  </si>
+  <si>
+    <t>III_16_0048</t>
+  </si>
+  <si>
+    <t>[v]-C {könnte auch u sein}</t>
+  </si>
+  <si>
+    <t>Obersteinbrunn</t>
+  </si>
+  <si>
+    <t>Mülhausen i. Els.</t>
+  </si>
+  <si>
+    <t>[Ark]ur Knuh[s]</t>
+  </si>
+  <si>
+    <t>bei Karlsruhe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mörsch </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aumeise </t>
+  </si>
+  <si>
+    <t>Liēch</t>
+  </si>
+  <si>
+    <t>Blaumërë</t>
+  </si>
+  <si>
+    <t>Agestä</t>
+  </si>
+  <si>
+    <t>Fladärmüs</t>
+  </si>
+  <si>
+    <t>Kogummere</t>
+  </si>
+  <si>
+    <t>Buddä</t>
+  </si>
+  <si>
+    <t>Guggél, Hühän</t>
+  </si>
+  <si>
+    <t>Heibom</t>
+  </si>
+  <si>
+    <t>Holdärä</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scharrmüs  </t>
+  </si>
+  <si>
+    <t>Gäddä</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riämä  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pflümä  </t>
+  </si>
+  <si>
+    <t>schaldä</t>
+  </si>
+  <si>
+    <t>Dasela</t>
+  </si>
+  <si>
+    <t>Schwegerdochtr</t>
+  </si>
+  <si>
+    <t>[v]-O {könnte auch u sein}</t>
+  </si>
+  <si>
+    <t>Uffheim</t>
+  </si>
+  <si>
+    <t>Theodor Schäfle</t>
+  </si>
+  <si>
+    <t>Aůmaise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liichd </t>
+  </si>
+  <si>
+    <t>Broumbeeri</t>
+  </si>
+  <si>
+    <t>Agaschda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fladermǖs  </t>
+  </si>
+  <si>
+    <t>Go̊gummere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hågabudda  </t>
+  </si>
+  <si>
+    <t>Guggl, Hǖan</t>
+  </si>
+  <si>
+    <t>Heïbåmm</t>
+  </si>
+  <si>
+    <t>Scharmǖs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riaba </t>
+  </si>
+  <si>
+    <t>Riëma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pflǖma  </t>
+  </si>
+  <si>
+    <t>Schbåtz</t>
+  </si>
+  <si>
+    <t>Chrǖsla</t>
+  </si>
+  <si>
+    <t>Schdreggnoudla</t>
+  </si>
+  <si>
+    <t>Dasseli, Schissal[i]</t>
+  </si>
+  <si>
+    <t>Schwegerdo̊chdr</t>
+  </si>
+  <si>
+    <t>III_16_0049</t>
+  </si>
+  <si>
+    <t>III_16_0050</t>
+  </si>
+  <si>
+    <t>[v]-E {könnte auch u sein}</t>
+  </si>
+  <si>
+    <t>[Kötzingen, Rantzweiler] {Rantzweiler in Rot]</t>
+  </si>
+  <si>
+    <t>Maryell Haber</t>
+  </si>
+  <si>
+    <t>o/Elsass</t>
+  </si>
+  <si>
+    <t>Ostheim</t>
+  </si>
+  <si>
+    <t>[U]meisle</t>
+  </si>
+  <si>
+    <t>Blumera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fladermüss </t>
+  </si>
+  <si>
+    <t>Mukka {Kringel hinter dem k oder über dem a}</t>
+  </si>
+  <si>
+    <t>Buda</t>
+  </si>
+  <si>
+    <t>Gugel,Hüahn</t>
+  </si>
+  <si>
+    <t>Hebamm[a]</t>
+  </si>
+  <si>
+    <t>Ruaba</t>
+  </si>
+  <si>
+    <t>Göti</t>
+  </si>
+  <si>
+    <t>Grüsla</t>
+  </si>
+  <si>
+    <t>Streckno̊dla</t>
+  </si>
+  <si>
+    <t>Tassa</t>
+  </si>
+  <si>
+    <t>Hâfa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So̊hnsfroi  </t>
+  </si>
+  <si>
+    <t>III_16_0051</t>
+  </si>
+  <si>
+    <t>[v]-F {könnte auch u sein}</t>
+  </si>
+  <si>
+    <t>Obermagstatt</t>
+  </si>
+  <si>
+    <t>Mülhausen &lt;Land&gt;</t>
+  </si>
+  <si>
+    <t>Josef Bied[ry]</t>
+  </si>
+  <si>
+    <t>Reiningen</t>
+  </si>
+  <si>
+    <t>Omeisla</t>
+  </si>
+  <si>
+    <t>Bromara</t>
+  </si>
+  <si>
+    <t>Fladermus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gagummra  </t>
+  </si>
+  <si>
+    <t>Guckel, Huahn</t>
+  </si>
+  <si>
+    <t>Hollrara</t>
+  </si>
+  <si>
+    <t>Gallriaba</t>
+  </si>
+  <si>
+    <t>Chriselberi</t>
+  </si>
+  <si>
+    <t>Tassele</t>
+  </si>
+  <si>
+    <t>S[o]hnsfrau</t>
+  </si>
+  <si>
+    <t>III_16_0052</t>
+  </si>
+  <si>
+    <t>[v]-G {könnte auch u sein}</t>
+  </si>
+  <si>
+    <t>Niedermagstatt</t>
+  </si>
+  <si>
+    <t>Al[o]is [??]reun</t>
+  </si>
+  <si>
+    <t>[Sundy???]tihter [J]umstei[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omeisle </t>
+  </si>
+  <si>
+    <t>Bromele</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agerschde  </t>
+  </si>
+  <si>
+    <t>Hel[nm]</t>
+  </si>
+  <si>
+    <t>Gugl, Huen</t>
+  </si>
+  <si>
+    <t>G[ä]tti</t>
+  </si>
+  <si>
+    <t>schelte</t>
+  </si>
+  <si>
+    <t>Schbatz</t>
+  </si>
+  <si>
+    <t>Krüselbeeri</t>
+  </si>
+  <si>
+    <t>Susfrü</t>
+  </si>
+  <si>
+    <t>[v]-H {könnte auch u sein}</t>
+  </si>
+  <si>
+    <t>III_16_0053</t>
+  </si>
+  <si>
+    <t>Stetten {Stempel Volksschule Stetten}</t>
+  </si>
+  <si>
+    <t>Mülhausen Elsaß</t>
+  </si>
+  <si>
+    <t>Wilhelm Gamer</t>
+  </si>
+  <si>
+    <t>Gondelsheim</t>
+  </si>
+  <si>
+    <t>Ldkrs. Bruchsal</t>
+  </si>
+  <si>
+    <t>Maria Herby u. Berta Schweller</t>
+  </si>
+  <si>
+    <t>Omaisla (w)</t>
+  </si>
+  <si>
+    <t>Bromela (w)</t>
+  </si>
+  <si>
+    <t>Hollera (w)</t>
+  </si>
+  <si>
+    <t>Riehama (m)</t>
+  </si>
+  <si>
+    <t>Strec[h]nodla (w)</t>
+  </si>
+  <si>
+    <t>Tassale (s)</t>
+  </si>
+  <si>
+    <t>Ardtopf (m)</t>
+  </si>
+  <si>
+    <t>Schwäigertochter (w)</t>
+  </si>
+  <si>
+    <t>III_16_0054</t>
+  </si>
+  <si>
+    <t>[v]-I {könnte auch u sein}</t>
+  </si>
+  <si>
+    <t>Kappeln</t>
+  </si>
+  <si>
+    <t>J. Hog</t>
+  </si>
+  <si>
+    <t>i. Baden</t>
+  </si>
+  <si>
+    <t>durch Ortseinwohner</t>
+  </si>
+  <si>
+    <t>Omeisle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brumbeeri </t>
+  </si>
+  <si>
+    <t>Reatsch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fleadermus  </t>
+  </si>
+  <si>
+    <t>Gagummerea</t>
+  </si>
+  <si>
+    <t>Buttä</t>
+  </si>
+  <si>
+    <t>Hollerä</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Herdepfel  </t>
+  </si>
+  <si>
+    <t>Riebä</t>
+  </si>
+  <si>
+    <t>Chlepfä</t>
+  </si>
+  <si>
+    <t>Pflumä</t>
+  </si>
+  <si>
+    <t>Gufea</t>
+  </si>
+  <si>
+    <t>Schtrignodlä</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schisseli  </t>
+  </si>
+  <si>
+    <t>Hafea</t>
+  </si>
+  <si>
+    <t>zwigea</t>
+  </si>
+  <si>
+    <t>Schwiegertochtä</t>
+  </si>
+  <si>
+    <t>III_16_0055</t>
+  </si>
+  <si>
+    <t>[v]-P {könnte auch u sein}</t>
+  </si>
+  <si>
+    <t>Sierenz</t>
+  </si>
+  <si>
+    <t>Mälhausen Els.</t>
+  </si>
+  <si>
+    <t>Kamill Gerber</t>
+  </si>
+  <si>
+    <t>Osenbach</t>
+  </si>
+  <si>
+    <t>Licht (w) &lt;Leiche&gt;</t>
+  </si>
+  <si>
+    <t>Bromera (w)</t>
+  </si>
+  <si>
+    <t>Agerste (w)</t>
+  </si>
+  <si>
+    <t>Gugumra (w)</t>
+  </si>
+  <si>
+    <t>Galräwe (w)</t>
+  </si>
+  <si>
+    <t>schelten, händeln</t>
+  </si>
+  <si>
+    <t>Grüsla (w)</t>
+  </si>
+  <si>
+    <t>Tassle (s)</t>
+  </si>
+  <si>
+    <t>III_16_0056</t>
+  </si>
+  <si>
+    <t>[v]-L {könnte auch u sein}</t>
+  </si>
+  <si>
+    <t>Bartenheim</t>
+  </si>
+  <si>
+    <t>Karl Gönner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Herzogenweiler </t>
+  </si>
+  <si>
+    <t>Aumaisa</t>
+  </si>
+  <si>
+    <t>Lichd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bråumala  </t>
+  </si>
+  <si>
+    <t>Rasch</t>
+  </si>
+  <si>
+    <t>[T]ladermüs</t>
+  </si>
+  <si>
+    <t>Gugel, Hüen</t>
+  </si>
+  <si>
+    <t>Heibåm</t>
+  </si>
+  <si>
+    <t>Rieba</t>
+  </si>
+  <si>
+    <t>Måur</t>
+  </si>
+  <si>
+    <t>schalda, handla</t>
+  </si>
+  <si>
+    <t>Schpåtz</t>
+  </si>
+  <si>
+    <t>Schtregnåudla</t>
+  </si>
+  <si>
+    <t>Schtachnåudla</t>
+  </si>
+  <si>
+    <t>Schteinigahåfa</t>
+  </si>
+  <si>
+    <t>Schwegerdochder</t>
+  </si>
+  <si>
+    <t>III_16_0057</t>
+  </si>
+  <si>
+    <t>[v]-M {könnte auch u sein}</t>
+  </si>
+  <si>
+    <t>Bartenheim-Neuweg</t>
+  </si>
+  <si>
+    <t>Paul Urfer</t>
+  </si>
+  <si>
+    <t>Aumeisa (w)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brāumala  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mukka  </t>
+  </si>
+  <si>
+    <t>Gakummra (w)</t>
+  </si>
+  <si>
+    <t>Hēibamma (w)</t>
+  </si>
+  <si>
+    <t>Spātz (m)</t>
+  </si>
+  <si>
+    <t>Stachelbēire, Schlärcha</t>
+  </si>
+  <si>
+    <t>Stacknaudla (w)</t>
+  </si>
+  <si>
+    <t>Strecknaudel (w)</t>
+  </si>
+  <si>
+    <t>Tassle, Tallerle</t>
+  </si>
+  <si>
+    <t>Suhnsfrau (w)</t>
   </si>
 </sst>
 </file>
@@ -7556,7 +8294,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -7582,6 +8320,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -7594,7 +8341,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -7615,6 +8362,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading" xfId="1"/>
@@ -7917,7 +8665,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7925,10 +8673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BB110"/>
+  <dimension ref="A1:BB123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A85" sqref="A85"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A124" sqref="A124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -22117,10 +22865,10 @@
         <v>47.35</v>
       </c>
       <c r="K87" s="11" t="s">
+        <v>2470</v>
+      </c>
+      <c r="L87" s="11" t="s">
         <v>2095</v>
-      </c>
-      <c r="L87" s="11" t="s">
-        <v>2096</v>
       </c>
       <c r="M87" s="11">
         <v>999</v>
@@ -22132,16 +22880,16 @@
         <v>419</v>
       </c>
       <c r="P87" s="11" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="Q87" s="11" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="R87" t="s">
         <v>1777</v>
       </c>
       <c r="S87" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="T87" t="s">
         <v>310</v>
@@ -22150,7 +22898,7 @@
         <v>999</v>
       </c>
       <c r="V87" s="12" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="W87" s="12" t="s">
         <v>338</v>
@@ -22162,7 +22910,7 @@
         <v>254</v>
       </c>
       <c r="Z87" s="12" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="AA87" s="12" t="s">
         <v>140</v>
@@ -22174,7 +22922,7 @@
         <v>487</v>
       </c>
       <c r="AD87" s="15" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="AE87" s="15" t="s">
         <v>764</v>
@@ -22183,7 +22931,7 @@
         <v>1013</v>
       </c>
       <c r="AG87" s="15" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="AH87" s="15" t="s">
         <v>492</v>
@@ -22198,13 +22946,13 @@
         <v>377</v>
       </c>
       <c r="AL87" s="15" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="AM87" s="15" t="s">
         <v>1523</v>
       </c>
       <c r="AN87" s="15" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="AO87" s="15" t="s">
         <v>498</v>
@@ -22213,13 +22961,13 @@
         <v>629</v>
       </c>
       <c r="AQ87" s="15" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="AR87" s="15" t="s">
         <v>158</v>
       </c>
       <c r="AS87" s="15" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="AT87" s="15" t="s">
         <v>160</v>
@@ -22228,10 +22976,10 @@
         <v>1328</v>
       </c>
       <c r="AV87" s="15" t="s">
+        <v>2106</v>
+      </c>
+      <c r="AW87" s="15" t="s">
         <v>2107</v>
-      </c>
-      <c r="AW87" s="15" t="s">
-        <v>2108</v>
       </c>
       <c r="AX87" s="15" t="s">
         <v>165</v>
@@ -22243,7 +22991,7 @@
         <v>548</v>
       </c>
       <c r="BA87" s="1" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="BB87">
         <v>999</v>
@@ -22269,7 +23017,7 @@
         <v>1</v>
       </c>
       <c r="G88" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="H88" t="s">
         <v>241</v>
@@ -22281,10 +23029,10 @@
         <v>47.35</v>
       </c>
       <c r="K88" s="11" t="s">
+        <v>2470</v>
+      </c>
+      <c r="L88" s="11" t="s">
         <v>2095</v>
-      </c>
-      <c r="L88" s="11" t="s">
-        <v>2096</v>
       </c>
       <c r="M88" s="11">
         <v>999</v>
@@ -22296,16 +23044,16 @@
         <v>999</v>
       </c>
       <c r="P88" s="11" t="s">
+        <v>2109</v>
+      </c>
+      <c r="Q88" s="11" t="s">
         <v>2110</v>
-      </c>
-      <c r="Q88" s="11" t="s">
-        <v>2111</v>
       </c>
       <c r="R88" t="s">
         <v>1777</v>
       </c>
       <c r="S88" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="T88" t="s">
         <v>310</v>
@@ -22317,7 +23065,7 @@
         <v>135</v>
       </c>
       <c r="W88" s="12" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="X88" s="12" t="s">
         <v>572</v>
@@ -22326,19 +23074,19 @@
         <v>254</v>
       </c>
       <c r="Z88" s="12" t="s">
+        <v>2113</v>
+      </c>
+      <c r="AA88" s="12" t="s">
         <v>2114</v>
       </c>
-      <c r="AA88" s="12" t="s">
+      <c r="AB88" s="15" t="s">
         <v>2115</v>
-      </c>
-      <c r="AB88" s="15" t="s">
-        <v>2116</v>
       </c>
       <c r="AC88" s="15" t="s">
         <v>487</v>
       </c>
       <c r="AD88" s="15" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="AE88" s="15" t="s">
         <v>2000</v>
@@ -22347,7 +23095,7 @@
         <v>1013</v>
       </c>
       <c r="AG88" s="15" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="AH88" s="15" t="s">
         <v>492</v>
@@ -22368,16 +23116,16 @@
         <v>1523</v>
       </c>
       <c r="AN88" s="15" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="AO88" s="15" t="s">
         <v>552</v>
       </c>
       <c r="AP88" s="15" t="s">
+        <v>2116</v>
+      </c>
+      <c r="AQ88" s="15" t="s">
         <v>2117</v>
-      </c>
-      <c r="AQ88" s="15" t="s">
-        <v>2118</v>
       </c>
       <c r="AR88" s="15" t="s">
         <v>158</v>
@@ -22392,7 +23140,7 @@
         <v>585</v>
       </c>
       <c r="AV88" s="15" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="AW88" s="15" t="s">
         <v>506</v>
@@ -22433,7 +23181,7 @@
         <v>2</v>
       </c>
       <c r="G89" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="H89" t="s">
         <v>90</v>
@@ -22445,10 +23193,10 @@
         <v>47.35</v>
       </c>
       <c r="K89" s="11" t="s">
-        <v>2142</v>
+        <v>2471</v>
       </c>
       <c r="L89" s="11" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="M89" s="11">
         <v>999</v>
@@ -22460,13 +23208,13 @@
         <v>170</v>
       </c>
       <c r="P89" s="11" t="s">
+        <v>2121</v>
+      </c>
+      <c r="Q89" s="11" t="s">
         <v>2122</v>
       </c>
-      <c r="Q89" s="11" t="s">
+      <c r="R89" s="11" t="s">
         <v>2123</v>
-      </c>
-      <c r="R89" s="11" t="s">
-        <v>2124</v>
       </c>
       <c r="S89">
         <v>999</v>
@@ -22478,16 +23226,16 @@
         <v>999</v>
       </c>
       <c r="V89" s="12" t="s">
+        <v>2124</v>
+      </c>
+      <c r="W89" s="12" t="s">
         <v>2125</v>
-      </c>
-      <c r="W89" s="12" t="s">
-        <v>2126</v>
       </c>
       <c r="X89" s="12" t="s">
         <v>63</v>
       </c>
       <c r="Y89" s="12" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="Z89" s="12" t="s">
         <v>65</v>
@@ -22496,7 +23244,7 @@
         <v>314</v>
       </c>
       <c r="AB89" s="15" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="AC89" s="15" t="s">
         <v>426</v>
@@ -22505,19 +23253,19 @@
         <v>807</v>
       </c>
       <c r="AE89" s="15" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="AF89" s="15" t="s">
         <v>1471</v>
       </c>
       <c r="AG89" s="15" t="s">
+        <v>2129</v>
+      </c>
+      <c r="AH89" s="15" t="s">
         <v>2130</v>
       </c>
-      <c r="AH89" s="15" t="s">
+      <c r="AI89" s="15" t="s">
         <v>2131</v>
-      </c>
-      <c r="AI89" s="15" t="s">
-        <v>2132</v>
       </c>
       <c r="AJ89" s="15" t="s">
         <v>225</v>
@@ -22526,13 +23274,13 @@
         <v>377</v>
       </c>
       <c r="AL89" s="15" t="s">
+        <v>2132</v>
+      </c>
+      <c r="AM89" s="15" t="s">
         <v>2133</v>
       </c>
-      <c r="AM89" s="15" t="s">
+      <c r="AN89" s="15" t="s">
         <v>2134</v>
-      </c>
-      <c r="AN89" s="15" t="s">
-        <v>2135</v>
       </c>
       <c r="AO89" s="15" t="s">
         <v>77</v>
@@ -22544,19 +23292,19 @@
         <v>196</v>
       </c>
       <c r="AR89" s="15" t="s">
+        <v>2136</v>
+      </c>
+      <c r="AS89" s="15" t="s">
         <v>2137</v>
-      </c>
-      <c r="AS89" s="15" t="s">
-        <v>2138</v>
       </c>
       <c r="AT89" s="15" t="s">
         <v>82</v>
       </c>
       <c r="AU89" s="15" t="s">
+        <v>2138</v>
+      </c>
+      <c r="AV89" s="15" t="s">
         <v>2139</v>
-      </c>
-      <c r="AV89" s="15" t="s">
-        <v>2140</v>
       </c>
       <c r="AW89" s="15" t="s">
         <v>1737</v>
@@ -22571,7 +23319,7 @@
         <v>87</v>
       </c>
       <c r="BA89" s="1" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="BB89">
         <v>999</v>
@@ -22597,7 +23345,7 @@
         <v>3</v>
       </c>
       <c r="G90" t="s">
-        <v>2143</v>
+        <v>2140</v>
       </c>
       <c r="H90" t="s">
         <v>57</v>
@@ -22609,10 +23357,10 @@
         <v>47.35</v>
       </c>
       <c r="K90" s="11" t="s">
+        <v>2472</v>
+      </c>
+      <c r="L90" s="11" t="s">
         <v>2141</v>
-      </c>
-      <c r="L90" s="11" t="s">
-        <v>2144</v>
       </c>
       <c r="M90" s="11">
         <v>999</v>
@@ -22621,13 +23369,13 @@
         <v>92</v>
       </c>
       <c r="O90" s="11" t="s">
-        <v>2145</v>
+        <v>2142</v>
       </c>
       <c r="P90" s="11" t="s">
-        <v>2146</v>
+        <v>2143</v>
       </c>
       <c r="Q90" s="11" t="s">
-        <v>2147</v>
+        <v>2144</v>
       </c>
       <c r="R90" s="11" t="s">
         <v>591</v>
@@ -22642,7 +23390,7 @@
         <v>999</v>
       </c>
       <c r="V90" s="12" t="s">
-        <v>2148</v>
+        <v>2145</v>
       </c>
       <c r="W90" s="12" t="s">
         <v>1237</v>
@@ -22654,10 +23402,10 @@
         <v>214</v>
       </c>
       <c r="Z90" s="12" t="s">
-        <v>2149</v>
+        <v>2146</v>
       </c>
       <c r="AA90" s="12" t="s">
-        <v>2150</v>
+        <v>2147</v>
       </c>
       <c r="AB90" s="15" t="s">
         <v>596</v>
@@ -22669,25 +23417,25 @@
         <v>1433</v>
       </c>
       <c r="AE90" s="15" t="s">
-        <v>2151</v>
+        <v>2148</v>
       </c>
       <c r="AF90" s="15" t="s">
         <v>372</v>
       </c>
       <c r="AG90" s="15" t="s">
-        <v>2152</v>
+        <v>2149</v>
       </c>
       <c r="AH90" s="15" t="s">
         <v>147</v>
       </c>
       <c r="AI90" s="15" t="s">
-        <v>2153</v>
+        <v>2150</v>
       </c>
       <c r="AJ90" s="15" t="s">
         <v>225</v>
       </c>
       <c r="AK90" s="15" t="s">
-        <v>2154</v>
+        <v>2151</v>
       </c>
       <c r="AL90" s="15" t="s">
         <v>1832</v>
@@ -22696,7 +23444,7 @@
         <v>1941</v>
       </c>
       <c r="AN90" s="15" t="s">
-        <v>2155</v>
+        <v>2152</v>
       </c>
       <c r="AO90" s="15" t="s">
         <v>1895</v>
@@ -22711,7 +23459,7 @@
         <v>674</v>
       </c>
       <c r="AS90" s="15" t="s">
-        <v>2156</v>
+        <v>2153</v>
       </c>
       <c r="AT90" s="15" t="s">
         <v>82</v>
@@ -22720,13 +23468,13 @@
         <v>902</v>
       </c>
       <c r="AV90" s="15" t="s">
-        <v>2157</v>
+        <v>2154</v>
       </c>
       <c r="AW90" s="15" t="s">
         <v>384</v>
       </c>
       <c r="AX90" s="15" t="s">
-        <v>2158</v>
+        <v>2155</v>
       </c>
       <c r="AY90" s="1" t="s">
         <v>414</v>
@@ -22761,7 +23509,7 @@
         <v>4</v>
       </c>
       <c r="G91" t="s">
-        <v>2160</v>
+        <v>2156</v>
       </c>
       <c r="H91" t="s">
         <v>241</v>
@@ -22773,10 +23521,10 @@
         <v>47.35</v>
       </c>
       <c r="K91" s="11" t="s">
-        <v>2159</v>
+        <v>2489</v>
       </c>
       <c r="L91" s="11" t="s">
-        <v>2161</v>
+        <v>2157</v>
       </c>
       <c r="M91" s="11">
         <v>999</v>
@@ -22788,10 +23536,10 @@
         <v>93</v>
       </c>
       <c r="P91" s="11" t="s">
-        <v>2162</v>
+        <v>2158</v>
       </c>
       <c r="Q91" s="11" t="s">
-        <v>2163</v>
+        <v>2159</v>
       </c>
       <c r="R91">
         <v>999</v>
@@ -22803,7 +23551,7 @@
         <v>176</v>
       </c>
       <c r="U91" s="1" t="s">
-        <v>2164</v>
+        <v>2160</v>
       </c>
       <c r="V91">
         <v>999</v>
@@ -22818,7 +23566,7 @@
         <v>9999</v>
       </c>
       <c r="Z91" s="12" t="s">
-        <v>2165</v>
+        <v>2161</v>
       </c>
       <c r="AA91" s="12">
         <v>999</v>
@@ -22830,7 +23578,7 @@
         <v>544</v>
       </c>
       <c r="AD91" s="15" t="s">
-        <v>2166</v>
+        <v>2162</v>
       </c>
       <c r="AE91" s="15" t="s">
         <v>1067</v>
@@ -22839,7 +23587,7 @@
         <v>999</v>
       </c>
       <c r="AG91" s="15" t="s">
-        <v>2167</v>
+        <v>2163</v>
       </c>
       <c r="AH91">
         <v>999</v>
@@ -22857,7 +23605,7 @@
         <v>1872</v>
       </c>
       <c r="AM91" s="15" t="s">
-        <v>2169</v>
+        <v>2165</v>
       </c>
       <c r="AN91" s="15" t="s">
         <v>1836</v>
@@ -22875,7 +23623,7 @@
         <v>158</v>
       </c>
       <c r="AS91" s="15" t="s">
-        <v>2170</v>
+        <v>2166</v>
       </c>
       <c r="AT91" s="15" t="s">
         <v>160</v>
@@ -22896,7 +23644,7 @@
         <v>587</v>
       </c>
       <c r="AZ91" s="15" t="s">
-        <v>2168</v>
+        <v>2164</v>
       </c>
       <c r="BA91" s="1">
         <v>999</v>
@@ -22925,7 +23673,7 @@
         <v>5</v>
       </c>
       <c r="G92" t="s">
-        <v>2171</v>
+        <v>2167</v>
       </c>
       <c r="H92" t="s">
         <v>90</v>
@@ -22937,10 +23685,10 @@
         <v>47.35</v>
       </c>
       <c r="K92" s="11" t="s">
-        <v>2172</v>
+        <v>2473</v>
       </c>
       <c r="L92" s="11" t="s">
-        <v>2173</v>
+        <v>2168</v>
       </c>
       <c r="M92" s="11">
         <v>999</v>
@@ -22952,13 +23700,13 @@
         <v>170</v>
       </c>
       <c r="P92" s="11" t="s">
-        <v>2174</v>
+        <v>2169</v>
       </c>
       <c r="Q92" s="11" t="s">
-        <v>2175</v>
+        <v>2170</v>
       </c>
       <c r="R92" s="11" t="s">
-        <v>2176</v>
+        <v>2171</v>
       </c>
       <c r="S92">
         <v>999</v>
@@ -22973,7 +23721,7 @@
         <v>1832</v>
       </c>
       <c r="W92" t="s">
-        <v>2177</v>
+        <v>2172</v>
       </c>
       <c r="X92" t="s">
         <v>1832</v>
@@ -22994,7 +23742,7 @@
         <v>781</v>
       </c>
       <c r="AD92" s="15" t="s">
-        <v>2178</v>
+        <v>2173</v>
       </c>
       <c r="AE92" s="15" t="s">
         <v>1832</v>
@@ -23003,7 +23751,7 @@
         <v>1832</v>
       </c>
       <c r="AG92" s="15" t="s">
-        <v>2179</v>
+        <v>2174</v>
       </c>
       <c r="AH92" s="15" t="s">
         <v>1832</v>
@@ -23012,10 +23760,10 @@
         <v>1832</v>
       </c>
       <c r="AJ92" s="15" t="s">
-        <v>2181</v>
+        <v>2176</v>
       </c>
       <c r="AK92" s="15" t="s">
-        <v>2182</v>
+        <v>2177</v>
       </c>
       <c r="AL92" s="15" t="s">
         <v>1832</v>
@@ -23060,7 +23808,7 @@
         <v>797</v>
       </c>
       <c r="AZ92" s="15" t="s">
-        <v>2180</v>
+        <v>2175</v>
       </c>
       <c r="BA92" s="1">
         <v>999</v>
@@ -23089,7 +23837,7 @@
         <v>6</v>
       </c>
       <c r="G93" t="s">
-        <v>2184</v>
+        <v>2178</v>
       </c>
       <c r="H93" t="s">
         <v>57</v>
@@ -23101,10 +23849,10 @@
         <v>47.35</v>
       </c>
       <c r="K93" s="11" t="s">
-        <v>2183</v>
+        <v>2474</v>
       </c>
       <c r="L93" s="11" t="s">
-        <v>2185</v>
+        <v>2179</v>
       </c>
       <c r="M93" s="11">
         <v>999</v>
@@ -23116,7 +23864,7 @@
         <v>93</v>
       </c>
       <c r="P93" s="11" t="s">
-        <v>2186</v>
+        <v>2180</v>
       </c>
       <c r="Q93" s="11" t="s">
         <v>1741</v>
@@ -23134,7 +23882,7 @@
         <v>999</v>
       </c>
       <c r="V93" s="12" t="s">
-        <v>2187</v>
+        <v>2181</v>
       </c>
       <c r="W93" s="12" t="s">
         <v>282</v>
@@ -23146,13 +23894,13 @@
         <v>1746</v>
       </c>
       <c r="Z93" s="12" t="s">
-        <v>2188</v>
+        <v>2182</v>
       </c>
       <c r="AA93" s="12" t="s">
-        <v>2189</v>
+        <v>2183</v>
       </c>
       <c r="AB93" s="12" t="s">
-        <v>2190</v>
+        <v>2184</v>
       </c>
       <c r="AC93" s="15" t="s">
         <v>257</v>
@@ -23161,43 +23909,43 @@
         <v>1750</v>
       </c>
       <c r="AE93" s="15" t="s">
-        <v>2191</v>
+        <v>2185</v>
       </c>
       <c r="AF93" s="15" t="s">
-        <v>2192</v>
+        <v>2186</v>
       </c>
       <c r="AG93" s="15" t="s">
-        <v>2193</v>
+        <v>2187</v>
       </c>
       <c r="AH93" s="15" t="s">
         <v>290</v>
       </c>
       <c r="AI93" s="15" t="s">
-        <v>2194</v>
+        <v>2188</v>
       </c>
       <c r="AJ93" s="15" t="s">
-        <v>2195</v>
+        <v>2189</v>
       </c>
       <c r="AK93" s="15" t="s">
-        <v>2196</v>
+        <v>2190</v>
       </c>
       <c r="AL93" s="15" t="s">
-        <v>2197</v>
+        <v>2191</v>
       </c>
       <c r="AM93" s="15" t="s">
         <v>464</v>
       </c>
       <c r="AN93" s="15" t="s">
-        <v>2198</v>
+        <v>2192</v>
       </c>
       <c r="AO93" s="15" t="s">
-        <v>2199</v>
+        <v>2193</v>
       </c>
       <c r="AP93" s="15" t="s">
         <v>466</v>
       </c>
       <c r="AQ93" s="15" t="s">
-        <v>2200</v>
+        <v>2194</v>
       </c>
       <c r="AR93" s="15" t="s">
         <v>935</v>
@@ -23206,13 +23954,13 @@
         <v>1763</v>
       </c>
       <c r="AT93" s="15" t="s">
-        <v>2203</v>
+        <v>2197</v>
       </c>
       <c r="AU93" s="15" t="s">
-        <v>2202</v>
+        <v>2196</v>
       </c>
       <c r="AV93" s="15" t="s">
-        <v>2204</v>
+        <v>2198</v>
       </c>
       <c r="AW93" s="15" t="s">
         <v>937</v>
@@ -23227,7 +23975,7 @@
         <v>1755</v>
       </c>
       <c r="BA93" s="1" t="s">
-        <v>2201</v>
+        <v>2195</v>
       </c>
       <c r="BB93">
         <v>999</v>
@@ -23253,7 +24001,7 @@
         <v>7</v>
       </c>
       <c r="G94" t="s">
-        <v>2206</v>
+        <v>2199</v>
       </c>
       <c r="H94" t="s">
         <v>90</v>
@@ -23265,10 +24013,10 @@
         <v>47.35</v>
       </c>
       <c r="K94" s="11" t="s">
-        <v>2205</v>
+        <v>2475</v>
       </c>
       <c r="L94" s="11" t="s">
-        <v>2207</v>
+        <v>2200</v>
       </c>
       <c r="M94" s="11">
         <v>999</v>
@@ -23280,10 +24028,10 @@
         <v>170</v>
       </c>
       <c r="P94" s="11" t="s">
-        <v>2208</v>
+        <v>2201</v>
       </c>
       <c r="Q94" s="11" t="s">
-        <v>2209</v>
+        <v>2202</v>
       </c>
       <c r="R94">
         <v>999</v>
@@ -23316,7 +24064,7 @@
         <v>314</v>
       </c>
       <c r="AB94" s="12" t="s">
-        <v>2210</v>
+        <v>2203</v>
       </c>
       <c r="AC94" s="15" t="s">
         <v>183</v>
@@ -23331,13 +24079,13 @@
         <v>372</v>
       </c>
       <c r="AG94" s="15" t="s">
-        <v>2211</v>
+        <v>2204</v>
       </c>
       <c r="AH94" s="15" t="s">
         <v>71</v>
       </c>
       <c r="AI94" s="15" t="s">
-        <v>2212</v>
+        <v>2205</v>
       </c>
       <c r="AJ94" s="15" t="s">
         <v>225</v>
@@ -23346,7 +24094,7 @@
         <v>1983</v>
       </c>
       <c r="AL94" s="15" t="s">
-        <v>2213</v>
+        <v>2206</v>
       </c>
       <c r="AM94" s="15" t="s">
         <v>1941</v>
@@ -23376,10 +24124,10 @@
         <v>902</v>
       </c>
       <c r="AV94" s="15" t="s">
-        <v>2215</v>
+        <v>2208</v>
       </c>
       <c r="AW94" s="15" t="s">
-        <v>2216</v>
+        <v>2209</v>
       </c>
       <c r="AX94" s="15" t="s">
         <v>128</v>
@@ -23391,7 +24139,7 @@
         <v>1709</v>
       </c>
       <c r="BA94" s="1" t="s">
-        <v>2214</v>
+        <v>2207</v>
       </c>
       <c r="BB94">
         <v>999</v>
@@ -23417,7 +24165,7 @@
         <v>8</v>
       </c>
       <c r="G95" t="s">
-        <v>2218</v>
+        <v>2210</v>
       </c>
       <c r="H95" t="s">
         <v>90</v>
@@ -23429,10 +24177,10 @@
         <v>47.35</v>
       </c>
       <c r="K95" s="11" t="s">
-        <v>2217</v>
+        <v>2476</v>
       </c>
       <c r="L95" s="11" t="s">
-        <v>2219</v>
+        <v>2211</v>
       </c>
       <c r="M95" s="11">
         <v>999</v>
@@ -23444,13 +24192,13 @@
         <v>93</v>
       </c>
       <c r="P95" s="11" t="s">
-        <v>2220</v>
+        <v>2212</v>
       </c>
       <c r="Q95" s="11" t="s">
-        <v>2221</v>
+        <v>2213</v>
       </c>
       <c r="R95" s="11" t="s">
-        <v>2222</v>
+        <v>2214</v>
       </c>
       <c r="S95">
         <v>999</v>
@@ -23462,16 +24210,16 @@
         <v>999</v>
       </c>
       <c r="V95" s="12" t="s">
-        <v>2223</v>
+        <v>2215</v>
       </c>
       <c r="W95" s="12" t="s">
-        <v>2224</v>
+        <v>2216</v>
       </c>
       <c r="X95" s="12" t="s">
         <v>391</v>
       </c>
       <c r="Y95" s="12" t="s">
-        <v>2225</v>
+        <v>2217</v>
       </c>
       <c r="Z95" s="12" t="s">
         <v>826</v>
@@ -23489,16 +24237,16 @@
         <v>807</v>
       </c>
       <c r="AE95" s="15" t="s">
-        <v>2226</v>
+        <v>2218</v>
       </c>
       <c r="AF95" s="15" t="s">
         <v>1471</v>
       </c>
       <c r="AG95" s="15" t="s">
-        <v>2227</v>
+        <v>2219</v>
       </c>
       <c r="AH95" s="15" t="s">
-        <v>2228</v>
+        <v>2220</v>
       </c>
       <c r="AI95" s="15" t="s">
         <v>399</v>
@@ -23510,13 +24258,13 @@
         <v>377</v>
       </c>
       <c r="AL95" s="15" t="s">
-        <v>2229</v>
+        <v>2221</v>
       </c>
       <c r="AM95" s="15" t="s">
         <v>401</v>
       </c>
       <c r="AN95" s="15" t="s">
-        <v>2230</v>
+        <v>2222</v>
       </c>
       <c r="AO95" s="15" t="s">
         <v>972</v>
@@ -23528,22 +24276,22 @@
         <v>196</v>
       </c>
       <c r="AR95" s="15" t="s">
-        <v>2231</v>
+        <v>2223</v>
       </c>
       <c r="AS95" s="15" t="s">
-        <v>2232</v>
+        <v>2224</v>
       </c>
       <c r="AT95" s="15" t="s">
-        <v>2233</v>
+        <v>2225</v>
       </c>
       <c r="AU95" s="15" t="s">
-        <v>2234</v>
+        <v>2226</v>
       </c>
       <c r="AV95" s="15" t="s">
-        <v>2235</v>
+        <v>2227</v>
       </c>
       <c r="AW95" s="15" t="s">
-        <v>2236</v>
+        <v>2228</v>
       </c>
       <c r="AX95" s="15" t="s">
         <v>128</v>
@@ -23555,7 +24303,7 @@
         <v>1730</v>
       </c>
       <c r="BA95" s="1" t="s">
-        <v>2237</v>
+        <v>2229</v>
       </c>
       <c r="BB95">
         <v>999</v>
@@ -23581,7 +24329,7 @@
         <v>9</v>
       </c>
       <c r="G96" t="s">
-        <v>2238</v>
+        <v>2230</v>
       </c>
       <c r="H96" t="s">
         <v>241</v>
@@ -23593,10 +24341,10 @@
         <v>47.35</v>
       </c>
       <c r="K96" s="11" t="s">
-        <v>2239</v>
+        <v>2477</v>
       </c>
       <c r="L96" s="11" t="s">
-        <v>2240</v>
+        <v>2231</v>
       </c>
       <c r="M96" s="11">
         <v>999</v>
@@ -23608,10 +24356,10 @@
         <v>170</v>
       </c>
       <c r="P96" s="11" t="s">
-        <v>2241</v>
+        <v>2232</v>
       </c>
       <c r="Q96" s="11" t="s">
-        <v>2144</v>
+        <v>2141</v>
       </c>
       <c r="R96" s="11">
         <v>999</v>
@@ -23632,37 +24380,37 @@
         <v>338</v>
       </c>
       <c r="X96" s="12" t="s">
-        <v>2242</v>
+        <v>2233</v>
       </c>
       <c r="Y96" s="12" t="s">
         <v>254</v>
       </c>
       <c r="Z96" s="12" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="AA96" s="12" t="s">
-        <v>2243</v>
+        <v>2234</v>
       </c>
       <c r="AB96" s="12" t="s">
-        <v>2244</v>
+        <v>2235</v>
       </c>
       <c r="AC96" s="15" t="s">
         <v>142</v>
       </c>
       <c r="AD96" s="15" t="s">
-        <v>2245</v>
+        <v>2236</v>
       </c>
       <c r="AE96" s="15" t="s">
-        <v>2246</v>
+        <v>2237</v>
       </c>
       <c r="AF96" s="15" t="s">
         <v>808</v>
       </c>
       <c r="AG96" s="15" t="s">
-        <v>2247</v>
+        <v>2238</v>
       </c>
       <c r="AH96" s="15" t="s">
-        <v>2248</v>
+        <v>2239</v>
       </c>
       <c r="AI96" s="15" t="s">
         <v>261</v>
@@ -23671,43 +24419,43 @@
         <v>262</v>
       </c>
       <c r="AK96" s="15" t="s">
-        <v>2250</v>
+        <v>2241</v>
       </c>
       <c r="AL96" s="15" t="s">
-        <v>2251</v>
+        <v>2242</v>
       </c>
       <c r="AM96" s="15" t="s">
-        <v>2252</v>
+        <v>2243</v>
       </c>
       <c r="AN96" s="15" t="s">
-        <v>2253</v>
+        <v>2244</v>
       </c>
       <c r="AO96" s="15" t="s">
         <v>498</v>
       </c>
       <c r="AP96" s="15" t="s">
-        <v>2254</v>
+        <v>2245</v>
       </c>
       <c r="AQ96" s="15" t="s">
-        <v>2255</v>
+        <v>2246</v>
       </c>
       <c r="AR96" s="15" t="s">
-        <v>2256</v>
+        <v>2247</v>
       </c>
       <c r="AS96" s="15" t="s">
-        <v>2257</v>
+        <v>2248</v>
       </c>
       <c r="AT96" s="15" t="s">
         <v>160</v>
       </c>
       <c r="AU96" s="15" t="s">
-        <v>2258</v>
+        <v>2249</v>
       </c>
       <c r="AV96" s="15" t="s">
-        <v>2259</v>
+        <v>2250</v>
       </c>
       <c r="AW96" s="15" t="s">
-        <v>2260</v>
+        <v>2251</v>
       </c>
       <c r="AX96" s="15" t="s">
         <v>165</v>
@@ -23716,7 +24464,7 @@
         <v>357</v>
       </c>
       <c r="AZ96" s="15" t="s">
-        <v>2249</v>
+        <v>2240</v>
       </c>
       <c r="BA96" s="1" t="s">
         <v>351</v>
@@ -23745,7 +24493,7 @@
         <v>10</v>
       </c>
       <c r="G97" t="s">
-        <v>2262</v>
+        <v>2252</v>
       </c>
       <c r="H97" t="s">
         <v>90</v>
@@ -23757,28 +24505,28 @@
         <v>47.35</v>
       </c>
       <c r="K97" s="11" t="s">
-        <v>2261</v>
+        <v>2478</v>
       </c>
       <c r="L97" s="11" t="s">
-        <v>2263</v>
+        <v>2253</v>
       </c>
       <c r="M97" s="11">
         <v>999</v>
       </c>
       <c r="N97" s="11" t="s">
-        <v>2264</v>
+        <v>2254</v>
       </c>
       <c r="O97">
         <v>999</v>
       </c>
       <c r="P97" s="11" t="s">
-        <v>2265</v>
+        <v>2255</v>
       </c>
       <c r="Q97" s="11" t="s">
-        <v>2266</v>
+        <v>2256</v>
       </c>
       <c r="R97" s="11" t="s">
-        <v>2267</v>
+        <v>2257</v>
       </c>
       <c r="S97" s="11" t="s">
         <v>363</v>
@@ -23787,13 +24535,13 @@
         <v>176</v>
       </c>
       <c r="U97" s="1" t="s">
-        <v>2268</v>
+        <v>2258</v>
       </c>
       <c r="V97" s="12" t="s">
-        <v>2269</v>
+        <v>2259</v>
       </c>
       <c r="W97" s="12" t="s">
-        <v>2270</v>
+        <v>2260</v>
       </c>
       <c r="X97" s="12" t="s">
         <v>339</v>
@@ -23814,7 +24562,7 @@
         <v>454</v>
       </c>
       <c r="AD97" s="15" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="AE97" s="15" t="s">
         <v>1380</v>
@@ -23823,7 +24571,7 @@
         <v>700</v>
       </c>
       <c r="AG97" s="15" t="s">
-        <v>2271</v>
+        <v>2261</v>
       </c>
       <c r="AH97" s="15" t="s">
         <v>845</v>
@@ -23838,7 +24586,7 @@
         <v>1521</v>
       </c>
       <c r="AL97" s="15" t="s">
-        <v>2272</v>
+        <v>2262</v>
       </c>
       <c r="AM97" s="15" t="s">
         <v>434</v>
@@ -23847,7 +24595,7 @@
         <v>293</v>
       </c>
       <c r="AO97" s="15" t="s">
-        <v>2273</v>
+        <v>2263</v>
       </c>
       <c r="AP97" s="15" t="s">
         <v>466</v>
@@ -23856,7 +24604,7 @@
         <v>467</v>
       </c>
       <c r="AR97" s="15" t="s">
-        <v>2274</v>
+        <v>2264</v>
       </c>
       <c r="AS97" s="15" t="s">
         <v>2008</v>
@@ -23865,25 +24613,25 @@
         <v>300</v>
       </c>
       <c r="AU97" s="15" t="s">
-        <v>2275</v>
+        <v>2265</v>
       </c>
       <c r="AV97" s="15" t="s">
-        <v>2276</v>
+        <v>2266</v>
       </c>
       <c r="AW97" s="15" t="s">
-        <v>2277</v>
+        <v>2267</v>
       </c>
       <c r="AX97" s="15" t="s">
         <v>128</v>
       </c>
       <c r="AY97" s="1" t="s">
-        <v>2278</v>
+        <v>2268</v>
       </c>
       <c r="AZ97" s="15" t="s">
         <v>2003</v>
       </c>
       <c r="BA97" s="1" t="s">
-        <v>2279</v>
+        <v>2269</v>
       </c>
       <c r="BB97">
         <v>999</v>
@@ -23909,7 +24657,7 @@
         <v>11</v>
       </c>
       <c r="G98" t="s">
-        <v>2280</v>
+        <v>2270</v>
       </c>
       <c r="H98" t="s">
         <v>90</v>
@@ -23921,10 +24669,10 @@
         <v>47.35</v>
       </c>
       <c r="K98" s="11" t="s">
-        <v>2281</v>
+        <v>2479</v>
       </c>
       <c r="L98" s="11" t="s">
-        <v>2282</v>
+        <v>2271</v>
       </c>
       <c r="M98" s="11">
         <v>999</v>
@@ -23936,10 +24684,10 @@
         <v>999</v>
       </c>
       <c r="P98" s="11" t="s">
-        <v>2283</v>
+        <v>2272</v>
       </c>
       <c r="Q98" s="11" t="s">
-        <v>2284</v>
+        <v>2273</v>
       </c>
       <c r="R98" s="11">
         <v>999</v>
@@ -23978,7 +24726,7 @@
         <v>454</v>
       </c>
       <c r="AD98" s="15" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="AE98" s="15" t="s">
         <v>933</v>
@@ -23987,10 +24735,10 @@
         <v>259</v>
       </c>
       <c r="AG98" s="15" t="s">
-        <v>2271</v>
+        <v>2261</v>
       </c>
       <c r="AH98" s="15" t="s">
-        <v>2285</v>
+        <v>2274</v>
       </c>
       <c r="AI98" s="15" t="s">
         <v>149</v>
@@ -24002,7 +24750,7 @@
         <v>1521</v>
       </c>
       <c r="AL98" s="15" t="s">
-        <v>2286</v>
+        <v>2275</v>
       </c>
       <c r="AM98" s="15" t="s">
         <v>265</v>
@@ -24029,10 +24777,10 @@
         <v>300</v>
       </c>
       <c r="AU98" s="15" t="s">
-        <v>2275</v>
+        <v>2265</v>
       </c>
       <c r="AV98" s="15" t="s">
-        <v>2287</v>
+        <v>2276</v>
       </c>
       <c r="AW98" s="15" t="s">
         <v>937</v>
@@ -24047,7 +24795,7 @@
         <v>2003</v>
       </c>
       <c r="BA98" s="1" t="s">
-        <v>2288</v>
+        <v>2277</v>
       </c>
       <c r="BB98">
         <v>999</v>
@@ -24073,7 +24821,7 @@
         <v>12</v>
       </c>
       <c r="G99" t="s">
-        <v>2290</v>
+        <v>2278</v>
       </c>
       <c r="H99" t="s">
         <v>241</v>
@@ -24085,10 +24833,10 @@
         <v>47.35</v>
       </c>
       <c r="K99" s="11" t="s">
-        <v>2289</v>
+        <v>2480</v>
       </c>
       <c r="L99" s="11" t="s">
-        <v>2291</v>
+        <v>2279</v>
       </c>
       <c r="M99" s="11">
         <v>999</v>
@@ -24097,10 +24845,10 @@
         <v>92</v>
       </c>
       <c r="O99" s="11" t="s">
-        <v>2292</v>
+        <v>2280</v>
       </c>
       <c r="P99" s="11" t="s">
-        <v>2293</v>
+        <v>2281</v>
       </c>
       <c r="Q99" s="11" t="s">
         <v>96</v>
@@ -24118,10 +24866,10 @@
         <v>999</v>
       </c>
       <c r="V99" s="12" t="s">
-        <v>2294</v>
+        <v>2282</v>
       </c>
       <c r="W99" s="12" t="s">
-        <v>2295</v>
+        <v>2283</v>
       </c>
       <c r="X99">
         <v>999</v>
@@ -24163,16 +24911,16 @@
         <v>225</v>
       </c>
       <c r="AK99" s="15" t="s">
-        <v>2297</v>
+        <v>2285</v>
       </c>
       <c r="AL99">
         <v>999</v>
       </c>
       <c r="AM99" s="15" t="s">
-        <v>2298</v>
+        <v>2286</v>
       </c>
       <c r="AN99" s="15" t="s">
-        <v>2299</v>
+        <v>2287</v>
       </c>
       <c r="AO99" s="15" t="s">
         <v>230</v>
@@ -24199,16 +24947,16 @@
         <v>999</v>
       </c>
       <c r="AW99" s="15" t="s">
-        <v>2300</v>
+        <v>2288</v>
       </c>
       <c r="AX99" s="15" t="s">
-        <v>2301</v>
+        <v>2289</v>
       </c>
       <c r="AY99" s="1" t="s">
         <v>1243</v>
       </c>
       <c r="AZ99" s="15" t="s">
-        <v>2296</v>
+        <v>2284</v>
       </c>
       <c r="BA99" s="1">
         <v>999</v>
@@ -24237,7 +24985,7 @@
         <v>13</v>
       </c>
       <c r="G100" t="s">
-        <v>2303</v>
+        <v>2290</v>
       </c>
       <c r="H100" t="s">
         <v>57</v>
@@ -24249,10 +24997,10 @@
         <v>47.35</v>
       </c>
       <c r="K100" s="11" t="s">
-        <v>2302</v>
+        <v>2481</v>
       </c>
       <c r="L100" s="11" t="s">
-        <v>2304</v>
+        <v>2291</v>
       </c>
       <c r="M100" s="11">
         <v>999</v>
@@ -24279,10 +25027,10 @@
         <v>97</v>
       </c>
       <c r="U100" s="1" t="s">
-        <v>2305</v>
+        <v>2292</v>
       </c>
       <c r="V100" s="12" t="s">
-        <v>2306</v>
+        <v>2293</v>
       </c>
       <c r="W100" s="12" t="s">
         <v>282</v>
@@ -24291,7 +25039,7 @@
         <v>695</v>
       </c>
       <c r="Y100" s="12" t="s">
-        <v>2307</v>
+        <v>2294</v>
       </c>
       <c r="Z100" s="12" t="s">
         <v>696</v>
@@ -24306,10 +25054,10 @@
         <v>257</v>
       </c>
       <c r="AD100" s="15" t="s">
-        <v>2308</v>
+        <v>2295</v>
       </c>
       <c r="AE100" s="15" t="s">
-        <v>2309</v>
+        <v>2296</v>
       </c>
       <c r="AF100" s="15" t="s">
         <v>456</v>
@@ -24318,25 +25066,25 @@
         <v>1500</v>
       </c>
       <c r="AH100" s="15" t="s">
-        <v>2310</v>
+        <v>2297</v>
       </c>
       <c r="AI100" s="15" t="s">
         <v>261</v>
       </c>
       <c r="AJ100" s="15" t="s">
-        <v>2312</v>
+        <v>2299</v>
       </c>
       <c r="AK100" s="15" t="s">
         <v>151</v>
       </c>
       <c r="AL100" s="15" t="s">
-        <v>2313</v>
+        <v>2300</v>
       </c>
       <c r="AM100" s="15" t="s">
         <v>265</v>
       </c>
       <c r="AN100" s="15" t="s">
-        <v>2314</v>
+        <v>2301</v>
       </c>
       <c r="AO100" s="15" t="s">
         <v>267</v>
@@ -24345,7 +25093,7 @@
         <v>466</v>
       </c>
       <c r="AQ100" s="15" t="s">
-        <v>2315</v>
+        <v>2302</v>
       </c>
       <c r="AR100" s="15" t="s">
         <v>1581</v>
@@ -24354,16 +25102,16 @@
         <v>2090</v>
       </c>
       <c r="AT100" s="15" t="s">
-        <v>2316</v>
+        <v>2303</v>
       </c>
       <c r="AU100" s="15" t="s">
-        <v>2317</v>
+        <v>2304</v>
       </c>
       <c r="AV100" s="15" t="s">
-        <v>2318</v>
+        <v>2305</v>
       </c>
       <c r="AW100" s="15" t="s">
-        <v>2319</v>
+        <v>2306</v>
       </c>
       <c r="AX100" s="15" t="s">
         <v>204</v>
@@ -24372,10 +25120,10 @@
         <v>1924</v>
       </c>
       <c r="AZ100" s="15" t="s">
-        <v>2311</v>
+        <v>2298</v>
       </c>
       <c r="BA100" s="1" t="s">
-        <v>2320</v>
+        <v>2307</v>
       </c>
       <c r="BB100">
         <v>999</v>
@@ -24401,7 +25149,7 @@
         <v>14</v>
       </c>
       <c r="G101" t="s">
-        <v>2322</v>
+        <v>2308</v>
       </c>
       <c r="H101" t="s">
         <v>241</v>
@@ -24413,10 +25161,10 @@
         <v>47.35</v>
       </c>
       <c r="K101" s="11" t="s">
-        <v>2321</v>
+        <v>2482</v>
       </c>
       <c r="L101" s="11" t="s">
-        <v>2323</v>
+        <v>2309</v>
       </c>
       <c r="M101" s="11">
         <v>999</v>
@@ -24431,19 +25179,19 @@
         <v>888</v>
       </c>
       <c r="Q101" s="11" t="s">
-        <v>2324</v>
+        <v>2310</v>
       </c>
       <c r="R101" s="11">
         <v>999</v>
       </c>
       <c r="S101" t="s">
-        <v>2325</v>
+        <v>2311</v>
       </c>
       <c r="T101" s="11" t="s">
         <v>692</v>
       </c>
       <c r="U101" s="1" t="s">
-        <v>2326</v>
+        <v>2312</v>
       </c>
       <c r="V101" s="12" t="s">
         <v>366</v>
@@ -24455,10 +25203,10 @@
         <v>312</v>
       </c>
       <c r="Y101" s="12" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="Z101" s="12" t="s">
-        <v>2327</v>
+        <v>2313</v>
       </c>
       <c r="AA101" s="12" t="s">
         <v>369</v>
@@ -24467,7 +25215,7 @@
         <v>141</v>
       </c>
       <c r="AC101" s="15" t="s">
-        <v>2328</v>
+        <v>2314</v>
       </c>
       <c r="AD101" s="15" t="s">
         <v>807</v>
@@ -24476,13 +25224,13 @@
         <v>69</v>
       </c>
       <c r="AF101" s="15" t="s">
-        <v>2329</v>
+        <v>2315</v>
       </c>
       <c r="AG101" s="15" t="s">
-        <v>2330</v>
+        <v>2316</v>
       </c>
       <c r="AH101" t="s">
-        <v>2331</v>
+        <v>2317</v>
       </c>
       <c r="AI101" s="15" t="s">
         <v>724</v>
@@ -24494,7 +25242,7 @@
         <v>226</v>
       </c>
       <c r="AL101" s="15" t="s">
-        <v>2333</v>
+        <v>2319</v>
       </c>
       <c r="AM101" s="15" t="s">
         <v>1916</v>
@@ -24509,13 +25257,13 @@
         <v>466</v>
       </c>
       <c r="AQ101" s="15" t="s">
-        <v>2334</v>
+        <v>2320</v>
       </c>
       <c r="AR101" s="15" t="s">
         <v>80</v>
       </c>
       <c r="AS101" s="15" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="AT101" s="15" t="s">
         <v>82</v>
@@ -24524,7 +25272,7 @@
         <v>83</v>
       </c>
       <c r="AV101" s="15" t="s">
-        <v>2335</v>
+        <v>2321</v>
       </c>
       <c r="AW101" s="15" t="s">
         <v>384</v>
@@ -24536,10 +25284,10 @@
         <v>414</v>
       </c>
       <c r="AZ101" s="15" t="s">
-        <v>2332</v>
+        <v>2318</v>
       </c>
       <c r="BA101" s="1" t="s">
-        <v>2336</v>
+        <v>2322</v>
       </c>
       <c r="BB101">
         <v>999</v>
@@ -24565,7 +25313,7 @@
         <v>15</v>
       </c>
       <c r="G102" t="s">
-        <v>2337</v>
+        <v>2323</v>
       </c>
       <c r="H102" t="s">
         <v>57</v>
@@ -24577,10 +25325,10 @@
         <v>47.35</v>
       </c>
       <c r="K102" s="11" t="s">
-        <v>2338</v>
+        <v>2483</v>
       </c>
       <c r="L102" s="11" t="s">
-        <v>2339</v>
+        <v>2324</v>
       </c>
       <c r="M102" s="11">
         <v>999</v>
@@ -24607,7 +25355,7 @@
         <v>97</v>
       </c>
       <c r="U102" s="1" t="s">
-        <v>2340</v>
+        <v>2325</v>
       </c>
       <c r="V102" s="12" t="s">
         <v>366</v>
@@ -24640,28 +25388,28 @@
         <v>721</v>
       </c>
       <c r="AF102" s="15" t="s">
-        <v>2341</v>
+        <v>2326</v>
       </c>
       <c r="AG102" s="15" t="s">
-        <v>2342</v>
+        <v>2327</v>
       </c>
       <c r="AH102" s="15" t="s">
         <v>188</v>
       </c>
       <c r="AI102" s="15" t="s">
-        <v>2343</v>
+        <v>2328</v>
       </c>
       <c r="AJ102" s="15" t="s">
         <v>1892</v>
       </c>
       <c r="AK102" s="15" t="s">
-        <v>2344</v>
+        <v>2329</v>
       </c>
       <c r="AL102" s="15" t="s">
-        <v>2345</v>
+        <v>2330</v>
       </c>
       <c r="AM102" s="15" t="s">
-        <v>2346</v>
+        <v>2331</v>
       </c>
       <c r="AN102" s="15" t="s">
         <v>194</v>
@@ -24676,10 +25424,10 @@
         <v>79</v>
       </c>
       <c r="AR102" s="15" t="s">
-        <v>2347</v>
+        <v>2332</v>
       </c>
       <c r="AS102" s="15" t="s">
-        <v>2348</v>
+        <v>2333</v>
       </c>
       <c r="AT102" s="15" t="s">
         <v>200</v>
@@ -24729,7 +25477,7 @@
         <v>16</v>
       </c>
       <c r="G103" t="s">
-        <v>2350</v>
+        <v>2334</v>
       </c>
       <c r="H103" t="s">
         <v>241</v>
@@ -24741,10 +25489,10 @@
         <v>47.35</v>
       </c>
       <c r="K103" s="11" t="s">
-        <v>2349</v>
+        <v>2484</v>
       </c>
       <c r="L103" s="11" t="s">
-        <v>2351</v>
+        <v>2335</v>
       </c>
       <c r="M103" s="11">
         <v>999</v>
@@ -24756,10 +25504,10 @@
         <v>278</v>
       </c>
       <c r="P103" s="11" t="s">
-        <v>2352</v>
+        <v>2336</v>
       </c>
       <c r="Q103" s="11" t="s">
-        <v>2353</v>
+        <v>2337</v>
       </c>
       <c r="R103" s="11">
         <v>999</v>
@@ -24780,13 +25528,13 @@
         <v>1404</v>
       </c>
       <c r="X103" s="12" t="s">
-        <v>2354</v>
+        <v>2338</v>
       </c>
       <c r="Y103" s="12" t="s">
         <v>214</v>
       </c>
       <c r="Z103" s="12" t="s">
-        <v>2355</v>
+        <v>2339</v>
       </c>
       <c r="AA103" s="12" t="s">
         <v>314</v>
@@ -24798,10 +25546,10 @@
         <v>183</v>
       </c>
       <c r="AD103" s="15" t="s">
-        <v>2356</v>
+        <v>2340</v>
       </c>
       <c r="AE103" s="15" t="s">
-        <v>2357</v>
+        <v>2341</v>
       </c>
       <c r="AF103" s="15" t="s">
         <v>372</v>
@@ -24813,7 +25561,7 @@
         <v>188</v>
       </c>
       <c r="AI103" s="15" t="s">
-        <v>2358</v>
+        <v>2342</v>
       </c>
       <c r="AJ103" s="15" t="s">
         <v>225</v>
@@ -24822,7 +25570,7 @@
         <v>73</v>
       </c>
       <c r="AL103" s="15" t="s">
-        <v>2359</v>
+        <v>2343</v>
       </c>
       <c r="AM103" s="15" t="s">
         <v>379</v>
@@ -24840,22 +25588,22 @@
         <v>196</v>
       </c>
       <c r="AR103" s="15" t="s">
-        <v>2360</v>
+        <v>2344</v>
       </c>
       <c r="AS103" s="15" t="s">
-        <v>2361</v>
+        <v>2345</v>
       </c>
       <c r="AT103" s="15" t="s">
         <v>200</v>
       </c>
       <c r="AU103" s="15" t="s">
-        <v>2362</v>
+        <v>2346</v>
       </c>
       <c r="AV103" s="15" t="s">
-        <v>2363</v>
+        <v>2347</v>
       </c>
       <c r="AW103" s="15" t="s">
-        <v>2364</v>
+        <v>2348</v>
       </c>
       <c r="AX103" s="15" t="s">
         <v>204</v>
@@ -24893,7 +25641,7 @@
         <v>1</v>
       </c>
       <c r="G104" t="s">
-        <v>2365</v>
+        <v>2349</v>
       </c>
       <c r="H104" t="s">
         <v>90</v>
@@ -24905,10 +25653,10 @@
         <v>47.35</v>
       </c>
       <c r="K104" s="11" t="s">
-        <v>2366</v>
+        <v>2485</v>
       </c>
       <c r="L104" s="11" t="s">
-        <v>2367</v>
+        <v>2350</v>
       </c>
       <c r="M104" s="11">
         <v>999</v>
@@ -24920,13 +25668,13 @@
         <v>999</v>
       </c>
       <c r="P104" s="11" t="s">
-        <v>2368</v>
+        <v>2351</v>
       </c>
       <c r="Q104" s="11" t="s">
-        <v>2369</v>
+        <v>2352</v>
       </c>
       <c r="R104" s="11" t="s">
-        <v>2370</v>
+        <v>2353</v>
       </c>
       <c r="S104" s="11" t="s">
         <v>363</v>
@@ -24938,13 +25686,13 @@
         <v>999</v>
       </c>
       <c r="V104" s="12" t="s">
-        <v>2371</v>
+        <v>2354</v>
       </c>
       <c r="W104" s="12" t="s">
-        <v>2372</v>
+        <v>2355</v>
       </c>
       <c r="X104" s="12" t="s">
-        <v>2373</v>
+        <v>2356</v>
       </c>
       <c r="Y104" s="12" t="s">
         <v>214</v>
@@ -24965,13 +25713,13 @@
         <v>1433</v>
       </c>
       <c r="AE104" s="15" t="s">
-        <v>2374</v>
+        <v>2357</v>
       </c>
       <c r="AF104" s="15" t="s">
         <v>372</v>
       </c>
       <c r="AG104" s="15" t="s">
-        <v>2375</v>
+        <v>2358</v>
       </c>
       <c r="AH104" s="15" t="s">
         <v>188</v>
@@ -24983,13 +25731,13 @@
         <v>225</v>
       </c>
       <c r="AK104" s="15" t="s">
-        <v>2376</v>
+        <v>2359</v>
       </c>
       <c r="AL104" s="15" t="s">
         <v>1832</v>
       </c>
       <c r="AM104" s="15" t="s">
-        <v>2377</v>
+        <v>2360</v>
       </c>
       <c r="AN104" s="15" t="s">
         <v>435</v>
@@ -25004,28 +25752,28 @@
         <v>79</v>
       </c>
       <c r="AR104" s="15" t="s">
-        <v>2378</v>
+        <v>2361</v>
       </c>
       <c r="AS104" s="15" t="s">
-        <v>2379</v>
+        <v>2362</v>
       </c>
       <c r="AT104" s="15" t="s">
-        <v>2380</v>
+        <v>2363</v>
       </c>
       <c r="AU104" s="15" t="s">
-        <v>2381</v>
+        <v>2364</v>
       </c>
       <c r="AV104" s="15" t="s">
         <v>1946</v>
       </c>
       <c r="AW104" s="15" t="s">
-        <v>2382</v>
+        <v>2365</v>
       </c>
       <c r="AX104" s="15" t="s">
         <v>128</v>
       </c>
       <c r="AY104" s="1" t="s">
-        <v>2383</v>
+        <v>2366</v>
       </c>
       <c r="AZ104" s="15" t="s">
         <v>1730</v>
@@ -25057,7 +25805,7 @@
         <v>2</v>
       </c>
       <c r="G105" t="s">
-        <v>2384</v>
+        <v>2367</v>
       </c>
       <c r="H105" t="s">
         <v>241</v>
@@ -25069,25 +25817,25 @@
         <v>47.35</v>
       </c>
       <c r="K105" s="11" t="s">
-        <v>2385</v>
+        <v>2486</v>
       </c>
       <c r="L105" s="11" t="s">
-        <v>2386</v>
+        <v>2368</v>
       </c>
       <c r="M105" s="11">
         <v>999</v>
       </c>
       <c r="N105" s="11" t="s">
-        <v>2410</v>
+        <v>2391</v>
       </c>
       <c r="O105" s="11" t="s">
         <v>170</v>
       </c>
       <c r="P105" s="11" t="s">
-        <v>2387</v>
+        <v>2369</v>
       </c>
       <c r="Q105" s="11" t="s">
-        <v>2388</v>
+        <v>2370</v>
       </c>
       <c r="R105" s="11">
         <v>999</v>
@@ -25105,7 +25853,7 @@
         <v>999</v>
       </c>
       <c r="W105" s="12" t="s">
-        <v>2389</v>
+        <v>2371</v>
       </c>
       <c r="X105" s="12">
         <v>999</v>
@@ -25123,7 +25871,7 @@
         <v>999</v>
       </c>
       <c r="AC105" s="15" t="s">
-        <v>2390</v>
+        <v>2372</v>
       </c>
       <c r="AD105" s="15" t="s">
         <v>1433</v>
@@ -25135,7 +25883,7 @@
         <v>999</v>
       </c>
       <c r="AG105" s="15" t="s">
-        <v>2391</v>
+        <v>2373</v>
       </c>
       <c r="AH105">
         <v>999</v>
@@ -25221,7 +25969,7 @@
         <v>3</v>
       </c>
       <c r="G106" t="s">
-        <v>2392</v>
+        <v>2374</v>
       </c>
       <c r="H106" t="s">
         <v>241</v>
@@ -25233,25 +25981,25 @@
         <v>47.35</v>
       </c>
       <c r="K106" s="11" t="s">
-        <v>2393</v>
+        <v>2487</v>
       </c>
       <c r="L106" s="11" t="s">
-        <v>2394</v>
+        <v>2375</v>
       </c>
       <c r="M106" s="11">
         <v>999</v>
       </c>
       <c r="N106" s="11" t="s">
-        <v>2409</v>
+        <v>2390</v>
       </c>
       <c r="O106" s="11" t="s">
         <v>170</v>
       </c>
       <c r="P106" s="11" t="s">
-        <v>2395</v>
+        <v>2376</v>
       </c>
       <c r="Q106" s="11" t="s">
-        <v>2396</v>
+        <v>2377</v>
       </c>
       <c r="R106" s="11">
         <v>999</v>
@@ -25272,13 +26020,13 @@
         <v>367</v>
       </c>
       <c r="X106" s="12" t="s">
-        <v>2397</v>
+        <v>2378</v>
       </c>
       <c r="Y106" s="12" t="s">
-        <v>2398</v>
+        <v>2379</v>
       </c>
       <c r="Z106" s="12" t="s">
-        <v>2399</v>
+        <v>2380</v>
       </c>
       <c r="AA106" s="12" t="s">
         <v>314</v>
@@ -25293,7 +26041,7 @@
         <v>1433</v>
       </c>
       <c r="AE106" s="15" t="s">
-        <v>2400</v>
+        <v>2381</v>
       </c>
       <c r="AF106" s="15" t="s">
         <v>372</v>
@@ -25308,16 +26056,16 @@
         <v>399</v>
       </c>
       <c r="AJ106" s="15" t="s">
-        <v>2402</v>
+        <v>2383</v>
       </c>
       <c r="AK106" s="15" t="s">
         <v>377</v>
       </c>
       <c r="AL106" s="15" t="s">
-        <v>2403</v>
+        <v>2384</v>
       </c>
       <c r="AM106" s="15" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="AN106" s="15" t="s">
         <v>435</v>
@@ -25341,7 +26089,7 @@
         <v>82</v>
       </c>
       <c r="AU106" s="15" t="s">
-        <v>2404</v>
+        <v>2385</v>
       </c>
       <c r="AV106" t="s">
         <v>1718</v>
@@ -25350,13 +26098,13 @@
         <v>384</v>
       </c>
       <c r="AX106" s="15" t="s">
-        <v>2405</v>
+        <v>2386</v>
       </c>
       <c r="AY106" s="1" t="s">
         <v>981</v>
       </c>
       <c r="AZ106" t="s">
-        <v>2401</v>
+        <v>2382</v>
       </c>
       <c r="BA106" s="1" t="s">
         <v>233</v>
@@ -25385,7 +26133,7 @@
         <v>3</v>
       </c>
       <c r="G107" t="s">
-        <v>2406</v>
+        <v>2387</v>
       </c>
       <c r="H107" t="s">
         <v>241</v>
@@ -25397,22 +26145,22 @@
         <v>47.35</v>
       </c>
       <c r="K107" s="11" t="s">
-        <v>2393</v>
+        <v>2487</v>
       </c>
       <c r="L107" s="11" t="s">
-        <v>2407</v>
+        <v>2388</v>
       </c>
       <c r="M107" s="11">
         <v>999</v>
       </c>
       <c r="N107" s="11" t="s">
-        <v>2408</v>
+        <v>2389</v>
       </c>
       <c r="O107" s="11" t="s">
         <v>512</v>
       </c>
       <c r="P107" s="11" t="s">
-        <v>2411</v>
+        <v>2392</v>
       </c>
       <c r="Q107" s="11" t="s">
         <v>802</v>
@@ -25427,13 +26175,13 @@
         <v>176</v>
       </c>
       <c r="U107" s="1" t="s">
-        <v>2412</v>
+        <v>2393</v>
       </c>
       <c r="V107" s="12" t="s">
-        <v>2413</v>
+        <v>2394</v>
       </c>
       <c r="W107" s="12" t="s">
-        <v>2414</v>
+        <v>2395</v>
       </c>
       <c r="X107" s="12" t="s">
         <v>516</v>
@@ -25442,28 +26190,28 @@
         <v>254</v>
       </c>
       <c r="Z107" s="12" t="s">
-        <v>2415</v>
+        <v>2396</v>
       </c>
       <c r="AA107" s="12" t="s">
-        <v>2416</v>
+        <v>2397</v>
       </c>
       <c r="AB107" s="12" t="s">
-        <v>2418</v>
+        <v>2399</v>
       </c>
       <c r="AC107" t="s">
-        <v>2417</v>
+        <v>2398</v>
       </c>
       <c r="AD107" s="15" t="s">
         <v>488</v>
       </c>
       <c r="AE107" s="15" t="s">
-        <v>2419</v>
+        <v>2400</v>
       </c>
       <c r="AF107" s="15" t="s">
-        <v>2420</v>
+        <v>2401</v>
       </c>
       <c r="AG107" s="15" t="s">
-        <v>2421</v>
+        <v>2402</v>
       </c>
       <c r="AH107" s="15" t="s">
         <v>492</v>
@@ -25475,31 +26223,31 @@
         <v>262</v>
       </c>
       <c r="AK107" s="15" t="s">
-        <v>2422</v>
+        <v>2403</v>
       </c>
       <c r="AL107" s="15" t="s">
-        <v>2423</v>
+        <v>2404</v>
       </c>
       <c r="AM107" s="15" t="s">
-        <v>2424</v>
+        <v>2405</v>
       </c>
       <c r="AN107" s="15" t="s">
         <v>465</v>
       </c>
       <c r="AO107" s="15" t="s">
-        <v>2425</v>
+        <v>2406</v>
       </c>
       <c r="AP107" s="15" t="s">
         <v>1019</v>
       </c>
       <c r="AQ107" s="15" t="s">
-        <v>2426</v>
+        <v>2407</v>
       </c>
       <c r="AR107" s="15" t="s">
         <v>158</v>
       </c>
       <c r="AS107" s="15" t="s">
-        <v>2427</v>
+        <v>2408</v>
       </c>
       <c r="AT107" s="15" t="s">
         <v>160</v>
@@ -25508,13 +26256,13 @@
         <v>585</v>
       </c>
       <c r="AV107" s="15" t="s">
-        <v>2428</v>
+        <v>2409</v>
       </c>
       <c r="AW107" s="15" t="s">
         <v>637</v>
       </c>
       <c r="AX107" s="15" t="s">
-        <v>2429</v>
+        <v>2410</v>
       </c>
       <c r="AY107" s="1" t="s">
         <v>357</v>
@@ -25549,7 +26297,7 @@
         <v>4</v>
       </c>
       <c r="G108" t="s">
-        <v>2430</v>
+        <v>2411</v>
       </c>
       <c r="H108" t="s">
         <v>241</v>
@@ -25561,10 +26309,10 @@
         <v>47.35</v>
       </c>
       <c r="K108" s="11" t="s">
-        <v>2431</v>
+        <v>2488</v>
       </c>
       <c r="L108" s="11" t="s">
-        <v>2432</v>
+        <v>2412</v>
       </c>
       <c r="M108" s="11">
         <v>999</v>
@@ -25576,7 +26324,7 @@
         <v>170</v>
       </c>
       <c r="P108" s="11" t="s">
-        <v>2433</v>
+        <v>2413</v>
       </c>
       <c r="Q108" s="11" t="s">
         <v>802</v>
@@ -25621,19 +26369,19 @@
         <v>488</v>
       </c>
       <c r="AE108" s="15" t="s">
-        <v>2434</v>
+        <v>2414</v>
       </c>
       <c r="AF108" s="15" t="s">
         <v>490</v>
       </c>
       <c r="AG108" s="15" t="s">
-        <v>2435</v>
+        <v>2415</v>
       </c>
       <c r="AH108" s="15" t="s">
-        <v>2436</v>
+        <v>2416</v>
       </c>
       <c r="AI108" s="15" t="s">
-        <v>2437</v>
+        <v>2417</v>
       </c>
       <c r="AJ108" s="15" t="s">
         <v>262</v>
@@ -25642,7 +26390,7 @@
         <v>151</v>
       </c>
       <c r="AL108" s="15" t="s">
-        <v>2438</v>
+        <v>2418</v>
       </c>
       <c r="AM108" s="15" t="s">
         <v>464</v>
@@ -25663,7 +26411,7 @@
         <v>158</v>
       </c>
       <c r="AS108" s="15" t="s">
-        <v>2439</v>
+        <v>2419</v>
       </c>
       <c r="AT108" s="15" t="s">
         <v>160</v>
@@ -25672,13 +26420,13 @@
         <v>1328</v>
       </c>
       <c r="AV108" s="15" t="s">
-        <v>2440</v>
+        <v>2420</v>
       </c>
       <c r="AW108" s="15" t="s">
-        <v>2441</v>
+        <v>2421</v>
       </c>
       <c r="AX108" s="15" t="s">
-        <v>2442</v>
+        <v>2422</v>
       </c>
       <c r="AY108" s="1" t="s">
         <v>357</v>
@@ -25713,7 +26461,7 @@
         <v>5</v>
       </c>
       <c r="G109" t="s">
-        <v>2444</v>
+        <v>2424</v>
       </c>
       <c r="H109" t="s">
         <v>90</v>
@@ -25725,10 +26473,10 @@
         <v>47.35</v>
       </c>
       <c r="K109" s="11" t="s">
-        <v>2443</v>
+        <v>2423</v>
       </c>
       <c r="L109" s="11" t="s">
-        <v>2445</v>
+        <v>2425</v>
       </c>
       <c r="M109" s="11">
         <v>999</v>
@@ -25737,13 +26485,13 @@
         <v>479</v>
       </c>
       <c r="O109" s="11" t="s">
-        <v>2446</v>
+        <v>2426</v>
       </c>
       <c r="P109" s="11" t="s">
-        <v>2447</v>
+        <v>2427</v>
       </c>
       <c r="Q109" s="11" t="s">
-        <v>2448</v>
+        <v>2428</v>
       </c>
       <c r="R109" s="11" t="s">
         <v>568</v>
@@ -25755,13 +26503,13 @@
         <v>97</v>
       </c>
       <c r="U109" s="1" t="s">
-        <v>2449</v>
+        <v>2429</v>
       </c>
       <c r="V109" s="12" t="s">
         <v>570</v>
       </c>
       <c r="W109" s="12" t="s">
-        <v>2450</v>
+        <v>2430</v>
       </c>
       <c r="X109" s="12" t="s">
         <v>695</v>
@@ -25782,28 +26530,28 @@
         <v>454</v>
       </c>
       <c r="AD109" s="15" t="s">
-        <v>2451</v>
+        <v>2431</v>
       </c>
       <c r="AE109" s="15" t="s">
-        <v>2452</v>
+        <v>2432</v>
       </c>
       <c r="AF109" s="15" t="s">
         <v>456</v>
       </c>
       <c r="AG109" s="15" t="s">
-        <v>2453</v>
+        <v>2433</v>
       </c>
       <c r="AH109" s="15" t="s">
-        <v>2454</v>
+        <v>2434</v>
       </c>
       <c r="AI109" s="15" t="s">
-        <v>2455</v>
+        <v>2435</v>
       </c>
       <c r="AJ109" s="15" t="s">
         <v>262</v>
       </c>
       <c r="AK109" s="15" t="s">
-        <v>2456</v>
+        <v>2436</v>
       </c>
       <c r="AL109">
         <v>999</v>
@@ -25812,7 +26560,7 @@
         <v>1071</v>
       </c>
       <c r="AN109" s="15" t="s">
-        <v>2457</v>
+        <v>2437</v>
       </c>
       <c r="AO109" s="15" t="s">
         <v>267</v>
@@ -25821,7 +26569,7 @@
         <v>657</v>
       </c>
       <c r="AQ109" s="15" t="s">
-        <v>2458</v>
+        <v>2438</v>
       </c>
       <c r="AR109" s="15" t="s">
         <v>158</v>
@@ -25836,10 +26584,10 @@
         <v>1583</v>
       </c>
       <c r="AV109" s="15" t="s">
-        <v>2459</v>
+        <v>2439</v>
       </c>
       <c r="AW109" s="15" t="s">
-        <v>2460</v>
+        <v>2440</v>
       </c>
       <c r="AX109" s="15" t="s">
         <v>128</v>
@@ -25877,7 +26625,7 @@
         <v>6</v>
       </c>
       <c r="G110" t="s">
-        <v>2462</v>
+        <v>2442</v>
       </c>
       <c r="H110" t="s">
         <v>57</v>
@@ -25889,10 +26637,10 @@
         <v>47.35</v>
       </c>
       <c r="K110" s="11" t="s">
-        <v>2461</v>
+        <v>2441</v>
       </c>
       <c r="L110" s="11" t="s">
-        <v>2463</v>
+        <v>2443</v>
       </c>
       <c r="M110" s="11">
         <v>999</v>
@@ -25904,10 +26652,10 @@
         <v>1646</v>
       </c>
       <c r="P110" s="11" t="s">
-        <v>2464</v>
+        <v>2444</v>
       </c>
       <c r="Q110" s="11" t="s">
-        <v>2465</v>
+        <v>2445</v>
       </c>
       <c r="R110" s="11">
         <v>999</v>
@@ -25922,19 +26670,19 @@
         <v>999</v>
       </c>
       <c r="V110" s="12" t="s">
-        <v>2466</v>
+        <v>2446</v>
       </c>
       <c r="W110" s="12" t="s">
-        <v>2467</v>
+        <v>2447</v>
       </c>
       <c r="X110" s="12" t="s">
-        <v>2468</v>
+        <v>2448</v>
       </c>
       <c r="Y110" s="12" t="s">
         <v>254</v>
       </c>
       <c r="Z110" s="12" t="s">
-        <v>2469</v>
+        <v>2449</v>
       </c>
       <c r="AA110" s="12" t="s">
         <v>140</v>
@@ -25955,7 +26703,7 @@
         <v>372</v>
       </c>
       <c r="AG110" s="15" t="s">
-        <v>2470</v>
+        <v>2450</v>
       </c>
       <c r="AH110" s="15" t="s">
         <v>71</v>
@@ -25970,7 +26718,7 @@
         <v>377</v>
       </c>
       <c r="AL110" s="15" t="s">
-        <v>2471</v>
+        <v>2451</v>
       </c>
       <c r="AM110" s="15" t="s">
         <v>434</v>
@@ -26000,13 +26748,13 @@
         <v>83</v>
       </c>
       <c r="AV110" s="15" t="s">
-        <v>2472</v>
+        <v>2452</v>
       </c>
       <c r="AW110" s="15" t="s">
-        <v>2473</v>
+        <v>2453</v>
       </c>
       <c r="AX110" s="15" t="s">
-        <v>2474</v>
+        <v>2454</v>
       </c>
       <c r="AY110" s="1" t="s">
         <v>86</v>
@@ -26015,9 +26763,2138 @@
         <v>1709</v>
       </c>
       <c r="BA110" s="1" t="s">
-        <v>2475</v>
+        <v>2455</v>
       </c>
       <c r="BB110">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="111" spans="1:54">
+      <c r="A111">
+        <v>108</v>
+      </c>
+      <c r="B111" s="14">
+        <v>44771</v>
+      </c>
+      <c r="C111" t="s">
+        <v>54</v>
+      </c>
+      <c r="D111" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E111">
+        <v>11</v>
+      </c>
+      <c r="F111">
+        <v>7</v>
+      </c>
+      <c r="G111" t="s">
+        <v>2456</v>
+      </c>
+      <c r="H111" t="s">
+        <v>57</v>
+      </c>
+      <c r="I111" s="9">
+        <v>25</v>
+      </c>
+      <c r="J111" s="9">
+        <v>47.35</v>
+      </c>
+      <c r="K111" s="11" t="s">
+        <v>2490</v>
+      </c>
+      <c r="L111" s="11" t="s">
+        <v>2457</v>
+      </c>
+      <c r="M111" s="11">
+        <v>999</v>
+      </c>
+      <c r="N111" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="O111" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="P111" s="11" t="s">
+        <v>2121</v>
+      </c>
+      <c r="Q111" s="11" t="s">
+        <v>2122</v>
+      </c>
+      <c r="R111" s="11">
+        <v>888</v>
+      </c>
+      <c r="S111" s="11">
+        <v>999</v>
+      </c>
+      <c r="T111" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="U111" s="1" t="s">
+        <v>2458</v>
+      </c>
+      <c r="V111" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="W111" s="12" t="s">
+        <v>1404</v>
+      </c>
+      <c r="X111" s="12" t="s">
+        <v>2378</v>
+      </c>
+      <c r="Y111" s="12" t="s">
+        <v>2126</v>
+      </c>
+      <c r="Z111" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA111" s="12" t="s">
+        <v>2459</v>
+      </c>
+      <c r="AB111" s="12" t="s">
+        <v>2460</v>
+      </c>
+      <c r="AC111" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="AD111" s="15" t="s">
+        <v>2462</v>
+      </c>
+      <c r="AE111" s="15" t="s">
+        <v>2461</v>
+      </c>
+      <c r="AF111" s="15" t="s">
+        <v>1471</v>
+      </c>
+      <c r="AG111" s="15" t="s">
+        <v>2463</v>
+      </c>
+      <c r="AH111" s="15" t="s">
+        <v>2464</v>
+      </c>
+      <c r="AI111" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="AJ111" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="AK111" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL111" s="15" t="s">
+        <v>2132</v>
+      </c>
+      <c r="AM111" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="AN111" s="15" t="s">
+        <v>2465</v>
+      </c>
+      <c r="AO111" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP111" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="AQ111" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR111" s="15" t="s">
+        <v>2264</v>
+      </c>
+      <c r="AS111" s="15" t="s">
+        <v>2466</v>
+      </c>
+      <c r="AT111" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU111" s="15" t="s">
+        <v>2467</v>
+      </c>
+      <c r="AV111" s="15" t="s">
+        <v>1946</v>
+      </c>
+      <c r="AW111" s="15" t="s">
+        <v>1737</v>
+      </c>
+      <c r="AX111" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="AY111" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AZ111" t="s">
+        <v>432</v>
+      </c>
+      <c r="BA111" s="1" t="s">
+        <v>2468</v>
+      </c>
+      <c r="BB111">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="112" spans="1:54">
+      <c r="A112">
+        <v>109</v>
+      </c>
+      <c r="B112" s="14">
+        <v>44775</v>
+      </c>
+      <c r="C112" t="s">
+        <v>54</v>
+      </c>
+      <c r="D112" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E112">
+        <v>11</v>
+      </c>
+      <c r="F112">
+        <v>8</v>
+      </c>
+      <c r="G112" t="s">
+        <v>2469</v>
+      </c>
+      <c r="H112" t="s">
+        <v>57</v>
+      </c>
+      <c r="I112" s="9">
+        <v>25</v>
+      </c>
+      <c r="J112" s="9">
+        <v>47.35</v>
+      </c>
+      <c r="K112" s="11" t="s">
+        <v>2491</v>
+      </c>
+      <c r="L112" s="11" t="s">
+        <v>2492</v>
+      </c>
+      <c r="M112" s="11">
+        <v>999</v>
+      </c>
+      <c r="N112" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="O112" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="P112" s="11" t="s">
+        <v>2493</v>
+      </c>
+      <c r="Q112" s="11" t="s">
+        <v>2495</v>
+      </c>
+      <c r="R112" t="s">
+        <v>2494</v>
+      </c>
+      <c r="S112" s="11">
+        <v>999</v>
+      </c>
+      <c r="T112" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="U112" s="1">
+        <v>999</v>
+      </c>
+      <c r="V112" s="12" t="s">
+        <v>2496</v>
+      </c>
+      <c r="W112" s="12" t="s">
+        <v>2497</v>
+      </c>
+      <c r="X112" s="12" t="s">
+        <v>2498</v>
+      </c>
+      <c r="Y112" s="12" t="s">
+        <v>2499</v>
+      </c>
+      <c r="Z112" s="12" t="s">
+        <v>2500</v>
+      </c>
+      <c r="AA112" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="AB112" s="12" t="s">
+        <v>2501</v>
+      </c>
+      <c r="AC112" s="12" t="s">
+        <v>2398</v>
+      </c>
+      <c r="AD112" s="15" t="s">
+        <v>2502</v>
+      </c>
+      <c r="AE112" s="15" t="s">
+        <v>2503</v>
+      </c>
+      <c r="AF112" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="AG112" s="15" t="s">
+        <v>2504</v>
+      </c>
+      <c r="AH112" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="AI112" s="15" t="s">
+        <v>2506</v>
+      </c>
+      <c r="AJ112" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="AK112" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="AL112" s="15" t="s">
+        <v>2507</v>
+      </c>
+      <c r="AM112" s="15" t="s">
+        <v>2508</v>
+      </c>
+      <c r="AN112" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="AO112" s="15" t="s">
+        <v>2509</v>
+      </c>
+      <c r="AP112" s="15" t="s">
+        <v>2510</v>
+      </c>
+      <c r="AQ112" s="15" t="s">
+        <v>2511</v>
+      </c>
+      <c r="AR112" s="15" t="s">
+        <v>1581</v>
+      </c>
+      <c r="AS112" s="15" t="s">
+        <v>2512</v>
+      </c>
+      <c r="AT112" s="15" t="s">
+        <v>771</v>
+      </c>
+      <c r="AU112" s="15" t="s">
+        <v>2513</v>
+      </c>
+      <c r="AV112" s="15" t="s">
+        <v>2514</v>
+      </c>
+      <c r="AW112" s="15" t="s">
+        <v>2515</v>
+      </c>
+      <c r="AX112" s="15" t="s">
+        <v>2516</v>
+      </c>
+      <c r="AY112" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="AZ112" t="s">
+        <v>2505</v>
+      </c>
+      <c r="BA112" s="1" t="s">
+        <v>2517</v>
+      </c>
+      <c r="BB112">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:54">
+      <c r="A113">
+        <v>110</v>
+      </c>
+      <c r="B113" s="14">
+        <v>44775</v>
+      </c>
+      <c r="C113" t="s">
+        <v>54</v>
+      </c>
+      <c r="D113" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E113">
+        <v>11</v>
+      </c>
+      <c r="F113">
+        <v>10</v>
+      </c>
+      <c r="G113" t="s">
+        <v>2518</v>
+      </c>
+      <c r="H113" t="s">
+        <v>241</v>
+      </c>
+      <c r="I113" s="9">
+        <v>25</v>
+      </c>
+      <c r="J113" s="9">
+        <v>47.35</v>
+      </c>
+      <c r="K113" s="11" t="s">
+        <v>2519</v>
+      </c>
+      <c r="L113" s="11" t="s">
+        <v>1648</v>
+      </c>
+      <c r="M113" s="11">
+        <v>999</v>
+      </c>
+      <c r="N113" s="11" t="s">
+        <v>2520</v>
+      </c>
+      <c r="O113" s="11" t="s">
+        <v>2521</v>
+      </c>
+      <c r="P113" s="11" t="s">
+        <v>2522</v>
+      </c>
+      <c r="Q113" s="11" t="s">
+        <v>2523</v>
+      </c>
+      <c r="R113">
+        <v>999</v>
+      </c>
+      <c r="S113" t="s">
+        <v>2524</v>
+      </c>
+      <c r="T113" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="U113" s="1">
+        <v>999</v>
+      </c>
+      <c r="V113" s="12" t="s">
+        <v>2525</v>
+      </c>
+      <c r="W113" s="12" t="s">
+        <v>2526</v>
+      </c>
+      <c r="X113" s="12" t="s">
+        <v>541</v>
+      </c>
+      <c r="Y113" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z113" s="12" t="s">
+        <v>2098</v>
+      </c>
+      <c r="AA113" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB113" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC113" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD113" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="AE113" s="15" t="s">
+        <v>764</v>
+      </c>
+      <c r="AF113" s="15" t="s">
+        <v>490</v>
+      </c>
+      <c r="AG113" s="15" t="s">
+        <v>2527</v>
+      </c>
+      <c r="AH113" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="AI113" s="15" t="s">
+        <v>1503</v>
+      </c>
+      <c r="AJ113" s="15" t="s">
+        <v>2528</v>
+      </c>
+      <c r="AK113" s="15" t="s">
+        <v>1521</v>
+      </c>
+      <c r="AL113" s="15" t="s">
+        <v>2529</v>
+      </c>
+      <c r="AM113" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="AN113" s="15" t="s">
+        <v>628</v>
+      </c>
+      <c r="AO113" s="15" t="s">
+        <v>2530</v>
+      </c>
+      <c r="AP113" s="15" t="s">
+        <v>629</v>
+      </c>
+      <c r="AQ113" s="15" t="s">
+        <v>2531</v>
+      </c>
+      <c r="AR113" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="AS113" s="15" t="s">
+        <v>2532</v>
+      </c>
+      <c r="AT113" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="AU113" s="15" t="s">
+        <v>2533</v>
+      </c>
+      <c r="AV113" s="15" t="s">
+        <v>2534</v>
+      </c>
+      <c r="AW113" s="15" t="s">
+        <v>2535</v>
+      </c>
+      <c r="AX113" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="AY113" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="AZ113" t="s">
+        <v>578</v>
+      </c>
+      <c r="BA113" s="1" t="s">
+        <v>2536</v>
+      </c>
+      <c r="BB113">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:54">
+      <c r="A114">
+        <v>111</v>
+      </c>
+      <c r="B114" s="14">
+        <v>44775</v>
+      </c>
+      <c r="C114" t="s">
+        <v>54</v>
+      </c>
+      <c r="D114" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E114">
+        <v>11</v>
+      </c>
+      <c r="F114">
+        <v>11</v>
+      </c>
+      <c r="G114" t="s">
+        <v>2537</v>
+      </c>
+      <c r="H114" t="s">
+        <v>90</v>
+      </c>
+      <c r="I114" s="9">
+        <v>25</v>
+      </c>
+      <c r="J114" s="9">
+        <v>47.35</v>
+      </c>
+      <c r="K114" s="11" t="s">
+        <v>2538</v>
+      </c>
+      <c r="L114" s="11" t="s">
+        <v>2539</v>
+      </c>
+      <c r="M114" s="11">
+        <v>999</v>
+      </c>
+      <c r="N114" s="11" t="s">
+        <v>2540</v>
+      </c>
+      <c r="O114" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="P114" s="11" t="s">
+        <v>2541</v>
+      </c>
+      <c r="Q114" s="11" t="s">
+        <v>2543</v>
+      </c>
+      <c r="R114" s="11" t="s">
+        <v>2542</v>
+      </c>
+      <c r="S114">
+        <v>999</v>
+      </c>
+      <c r="T114" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="U114" s="1">
+        <v>999</v>
+      </c>
+      <c r="V114" s="12" t="s">
+        <v>2544</v>
+      </c>
+      <c r="W114" s="12" t="s">
+        <v>2545</v>
+      </c>
+      <c r="X114" s="12" t="s">
+        <v>2546</v>
+      </c>
+      <c r="Y114" s="12" t="s">
+        <v>2379</v>
+      </c>
+      <c r="Z114" s="12" t="s">
+        <v>2547</v>
+      </c>
+      <c r="AA114" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="AB114" s="12" t="s">
+        <v>2548</v>
+      </c>
+      <c r="AC114" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="AD114" s="15" t="s">
+        <v>807</v>
+      </c>
+      <c r="AE114" s="15" t="s">
+        <v>2549</v>
+      </c>
+      <c r="AF114" s="15" t="s">
+        <v>2550</v>
+      </c>
+      <c r="AG114" s="15" t="s">
+        <v>2551</v>
+      </c>
+      <c r="AH114" s="15" t="s">
+        <v>2552</v>
+      </c>
+      <c r="AI114" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="AJ114" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="AK114" s="15" t="s">
+        <v>2554</v>
+      </c>
+      <c r="AL114" s="15" t="s">
+        <v>1832</v>
+      </c>
+      <c r="AM114" s="15" t="s">
+        <v>2360</v>
+      </c>
+      <c r="AN114" s="15" t="s">
+        <v>2555</v>
+      </c>
+      <c r="AO114" s="15" t="s">
+        <v>2556</v>
+      </c>
+      <c r="AP114" s="15" t="s">
+        <v>2557</v>
+      </c>
+      <c r="AQ114" s="15" t="s">
+        <v>2558</v>
+      </c>
+      <c r="AR114" s="15" t="s">
+        <v>1832</v>
+      </c>
+      <c r="AS114" s="15" t="s">
+        <v>1832</v>
+      </c>
+      <c r="AT114" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU114" s="15" t="s">
+        <v>902</v>
+      </c>
+      <c r="AV114" s="15" t="s">
+        <v>2559</v>
+      </c>
+      <c r="AW114" s="15" t="s">
+        <v>1832</v>
+      </c>
+      <c r="AX114" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="AY114" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="AZ114" t="s">
+        <v>2553</v>
+      </c>
+      <c r="BA114" s="1" t="s">
+        <v>2560</v>
+      </c>
+      <c r="BB114">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:54">
+      <c r="A115">
+        <v>112</v>
+      </c>
+      <c r="B115" s="14">
+        <v>44775</v>
+      </c>
+      <c r="C115" t="s">
+        <v>54</v>
+      </c>
+      <c r="D115" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E115">
+        <v>11</v>
+      </c>
+      <c r="F115">
+        <v>12</v>
+      </c>
+      <c r="G115" t="s">
+        <v>2582</v>
+      </c>
+      <c r="H115" t="s">
+        <v>90</v>
+      </c>
+      <c r="I115" s="9">
+        <v>25</v>
+      </c>
+      <c r="J115" s="9">
+        <v>47.35</v>
+      </c>
+      <c r="K115" s="11" t="s">
+        <v>2561</v>
+      </c>
+      <c r="L115" s="11" t="s">
+        <v>2562</v>
+      </c>
+      <c r="M115" s="11">
+        <v>999</v>
+      </c>
+      <c r="N115" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="O115" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="P115" s="11" t="s">
+        <v>2563</v>
+      </c>
+      <c r="Q115" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="R115" s="11">
+        <v>999</v>
+      </c>
+      <c r="S115">
+        <v>999</v>
+      </c>
+      <c r="T115" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="U115" s="1">
+        <v>999</v>
+      </c>
+      <c r="V115" s="12" t="s">
+        <v>2564</v>
+      </c>
+      <c r="W115" s="12" t="s">
+        <v>2565</v>
+      </c>
+      <c r="X115" s="12" t="s">
+        <v>2566</v>
+      </c>
+      <c r="Y115" s="12" t="s">
+        <v>2126</v>
+      </c>
+      <c r="Z115" s="12" t="s">
+        <v>2567</v>
+      </c>
+      <c r="AA115" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="AB115" s="12" t="s">
+        <v>2568</v>
+      </c>
+      <c r="AC115" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="AD115" s="15" t="s">
+        <v>649</v>
+      </c>
+      <c r="AE115" s="15" t="s">
+        <v>2569</v>
+      </c>
+      <c r="AF115" s="15" t="s">
+        <v>2570</v>
+      </c>
+      <c r="AG115" s="15" t="s">
+        <v>2571</v>
+      </c>
+      <c r="AH115" s="15" t="s">
+        <v>2572</v>
+      </c>
+      <c r="AI115" s="15" t="s">
+        <v>2131</v>
+      </c>
+      <c r="AJ115" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="AK115" s="15" t="s">
+        <v>2573</v>
+      </c>
+      <c r="AL115" s="15" t="s">
+        <v>2574</v>
+      </c>
+      <c r="AM115" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="AN115" s="15" t="s">
+        <v>2465</v>
+      </c>
+      <c r="AO115" s="15" t="s">
+        <v>2575</v>
+      </c>
+      <c r="AP115" s="15" t="s">
+        <v>2576</v>
+      </c>
+      <c r="AQ115" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="AR115" s="15" t="s">
+        <v>2577</v>
+      </c>
+      <c r="AS115" s="15" t="s">
+        <v>2578</v>
+      </c>
+      <c r="AT115" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU115" s="15" t="s">
+        <v>2579</v>
+      </c>
+      <c r="AV115" s="15" t="s">
+        <v>2580</v>
+      </c>
+      <c r="AW115" s="15" t="s">
+        <v>1737</v>
+      </c>
+      <c r="AX115" s="15" t="s">
+        <v>2155</v>
+      </c>
+      <c r="AY115" s="1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AZ115" t="s">
+        <v>847</v>
+      </c>
+      <c r="BA115" s="1" t="s">
+        <v>2581</v>
+      </c>
+      <c r="BB115">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="116" spans="1:54">
+      <c r="A116">
+        <v>113</v>
+      </c>
+      <c r="B116" s="14">
+        <v>44775</v>
+      </c>
+      <c r="C116" t="s">
+        <v>54</v>
+      </c>
+      <c r="D116" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E116">
+        <v>11</v>
+      </c>
+      <c r="F116">
+        <v>13</v>
+      </c>
+      <c r="G116" t="s">
+        <v>2583</v>
+      </c>
+      <c r="H116" t="s">
+        <v>90</v>
+      </c>
+      <c r="I116" s="9">
+        <v>25</v>
+      </c>
+      <c r="J116" s="9">
+        <v>47.35</v>
+      </c>
+      <c r="K116" s="11" t="s">
+        <v>2584</v>
+      </c>
+      <c r="L116" s="11" t="s">
+        <v>2585</v>
+      </c>
+      <c r="M116" s="11">
+        <v>999</v>
+      </c>
+      <c r="N116" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="O116" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="P116" s="11" t="s">
+        <v>2586</v>
+      </c>
+      <c r="Q116" s="11" t="s">
+        <v>2588</v>
+      </c>
+      <c r="R116" s="11" t="s">
+        <v>2587</v>
+      </c>
+      <c r="S116">
+        <v>999</v>
+      </c>
+      <c r="T116" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="U116" s="1">
+        <v>999</v>
+      </c>
+      <c r="V116" s="12" t="s">
+        <v>2589</v>
+      </c>
+      <c r="W116" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="X116" s="12" t="s">
+        <v>2590</v>
+      </c>
+      <c r="Y116" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="Z116" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="AA116" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="AB116" s="12" t="s">
+        <v>2591</v>
+      </c>
+      <c r="AC116" s="12" t="s">
+        <v>2592</v>
+      </c>
+      <c r="AD116" s="15" t="s">
+        <v>720</v>
+      </c>
+      <c r="AE116" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="AF116" s="15" t="s">
+        <v>2593</v>
+      </c>
+      <c r="AG116" s="15" t="s">
+        <v>2594</v>
+      </c>
+      <c r="AH116" s="15" t="s">
+        <v>2595</v>
+      </c>
+      <c r="AI116" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="AJ116" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="AK116" s="15" t="s">
+        <v>828</v>
+      </c>
+      <c r="AL116" s="15" t="s">
+        <v>2596</v>
+      </c>
+      <c r="AM116" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="AN116" s="15" t="s">
+        <v>2597</v>
+      </c>
+      <c r="AO116" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP116" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="AQ116" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR116" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS116" s="15" t="s">
+        <v>2598</v>
+      </c>
+      <c r="AT116" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU116" s="15" t="s">
+        <v>2599</v>
+      </c>
+      <c r="AV116" s="15" t="s">
+        <v>2600</v>
+      </c>
+      <c r="AW116" s="15" t="s">
+        <v>2601</v>
+      </c>
+      <c r="AX116" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="AY116" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="AZ116" t="s">
+        <v>432</v>
+      </c>
+      <c r="BA116" s="1" t="s">
+        <v>2602</v>
+      </c>
+      <c r="BB116">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="117" spans="1:54">
+      <c r="A117">
+        <v>114</v>
+      </c>
+      <c r="B117" s="14">
+        <v>44775</v>
+      </c>
+      <c r="C117" t="s">
+        <v>54</v>
+      </c>
+      <c r="D117" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E117">
+        <v>11</v>
+      </c>
+      <c r="F117">
+        <v>14</v>
+      </c>
+      <c r="G117" t="s">
+        <v>2603</v>
+      </c>
+      <c r="H117" t="s">
+        <v>90</v>
+      </c>
+      <c r="I117" s="9">
+        <v>25</v>
+      </c>
+      <c r="J117" s="9">
+        <v>47.35</v>
+      </c>
+      <c r="K117" s="11" t="s">
+        <v>2604</v>
+      </c>
+      <c r="L117" s="11" t="s">
+        <v>2605</v>
+      </c>
+      <c r="M117" s="11">
+        <v>999</v>
+      </c>
+      <c r="N117" s="11" t="s">
+        <v>2606</v>
+      </c>
+      <c r="O117" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="P117" s="11" t="s">
+        <v>2607</v>
+      </c>
+      <c r="Q117" s="11" t="s">
+        <v>2608</v>
+      </c>
+      <c r="R117">
+        <v>999</v>
+      </c>
+      <c r="S117">
+        <v>999</v>
+      </c>
+      <c r="T117" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="U117" s="1">
+        <v>999</v>
+      </c>
+      <c r="V117" s="12" t="s">
+        <v>2609</v>
+      </c>
+      <c r="W117" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="X117" s="12" t="s">
+        <v>2610</v>
+      </c>
+      <c r="Y117" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="Z117" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA117" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="AB117" s="12" t="s">
+        <v>2611</v>
+      </c>
+      <c r="AC117" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD117" s="15" t="s">
+        <v>1092</v>
+      </c>
+      <c r="AE117" s="15" t="s">
+        <v>2612</v>
+      </c>
+      <c r="AF117" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="AG117" s="15" t="s">
+        <v>2613</v>
+      </c>
+      <c r="AH117" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="AI117" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="AJ117" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="AK117" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL117" s="15" t="s">
+        <v>2615</v>
+      </c>
+      <c r="AM117" s="15" t="s">
+        <v>434</v>
+      </c>
+      <c r="AN117" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="AO117" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP117" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ117" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR117" s="15" t="s">
+        <v>2264</v>
+      </c>
+      <c r="AS117" s="15" t="s">
+        <v>2616</v>
+      </c>
+      <c r="AT117" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU117" s="15" t="s">
+        <v>902</v>
+      </c>
+      <c r="AV117" s="15" t="s">
+        <v>2617</v>
+      </c>
+      <c r="AW117" s="15" t="s">
+        <v>384</v>
+      </c>
+      <c r="AX117" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="AY117" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="AZ117" t="s">
+        <v>2614</v>
+      </c>
+      <c r="BA117" s="1" t="s">
+        <v>2618</v>
+      </c>
+      <c r="BB117">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:54">
+      <c r="A118">
+        <v>115</v>
+      </c>
+      <c r="B118" s="14">
+        <v>44775</v>
+      </c>
+      <c r="C118" t="s">
+        <v>54</v>
+      </c>
+      <c r="D118" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E118">
+        <v>11</v>
+      </c>
+      <c r="F118">
+        <v>15</v>
+      </c>
+      <c r="G118" t="s">
+        <v>2619</v>
+      </c>
+      <c r="H118" t="s">
+        <v>90</v>
+      </c>
+      <c r="I118" s="9">
+        <v>25</v>
+      </c>
+      <c r="J118" s="9">
+        <v>47.35</v>
+      </c>
+      <c r="K118" s="11" t="s">
+        <v>2620</v>
+      </c>
+      <c r="L118" s="11" t="s">
+        <v>2621</v>
+      </c>
+      <c r="M118" s="11">
+        <v>999</v>
+      </c>
+      <c r="N118" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="O118" s="11" t="s">
+        <v>1832</v>
+      </c>
+      <c r="P118" s="11" t="s">
+        <v>2622</v>
+      </c>
+      <c r="Q118" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="R118">
+        <v>999</v>
+      </c>
+      <c r="S118" t="s">
+        <v>363</v>
+      </c>
+      <c r="T118">
+        <v>888</v>
+      </c>
+      <c r="U118" s="11" t="s">
+        <v>2623</v>
+      </c>
+      <c r="V118" s="20" t="s">
+        <v>2624</v>
+      </c>
+      <c r="W118" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="X118" s="15" t="s">
+        <v>2625</v>
+      </c>
+      <c r="Y118" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="Z118" s="15" t="s">
+        <v>2626</v>
+      </c>
+      <c r="AA118" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="AB118" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC118" s="15" t="s">
+        <v>648</v>
+      </c>
+      <c r="AD118" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="AE118" s="15" t="s">
+        <v>576</v>
+      </c>
+      <c r="AF118" s="15" t="s">
+        <v>1409</v>
+      </c>
+      <c r="AG118" s="15" t="s">
+        <v>2628</v>
+      </c>
+      <c r="AH118" s="15" t="s">
+        <v>2627</v>
+      </c>
+      <c r="AI118" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="AJ118" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="AK118" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL118" s="15" t="s">
+        <v>1893</v>
+      </c>
+      <c r="AM118" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="AN118" s="15" t="s">
+        <v>2629</v>
+      </c>
+      <c r="AO118" s="15" t="s">
+        <v>972</v>
+      </c>
+      <c r="AP118" s="15" t="s">
+        <v>1049</v>
+      </c>
+      <c r="AQ118" s="15" t="s">
+        <v>2630</v>
+      </c>
+      <c r="AR118" s="15" t="s">
+        <v>2631</v>
+      </c>
+      <c r="AS118" s="15" t="s">
+        <v>2632</v>
+      </c>
+      <c r="AT118" s="15" t="s">
+        <v>409</v>
+      </c>
+      <c r="AU118" s="15" t="s">
+        <v>410</v>
+      </c>
+      <c r="AV118" s="15" t="s">
+        <v>1961</v>
+      </c>
+      <c r="AW118" s="15" t="s">
+        <v>1104</v>
+      </c>
+      <c r="AX118" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="AY118" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="AZ118" t="s">
+        <v>1454</v>
+      </c>
+      <c r="BA118" s="1" t="s">
+        <v>2633</v>
+      </c>
+      <c r="BB118">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="119" spans="1:54">
+      <c r="A119">
+        <v>116</v>
+      </c>
+      <c r="B119" s="14">
+        <v>44775</v>
+      </c>
+      <c r="C119" t="s">
+        <v>54</v>
+      </c>
+      <c r="D119" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E119">
+        <v>11</v>
+      </c>
+      <c r="F119">
+        <v>16</v>
+      </c>
+      <c r="G119" t="s">
+        <v>2635</v>
+      </c>
+      <c r="H119" t="s">
+        <v>90</v>
+      </c>
+      <c r="I119" s="9">
+        <v>25</v>
+      </c>
+      <c r="J119" s="9">
+        <v>47.35</v>
+      </c>
+      <c r="K119" s="11" t="s">
+        <v>2634</v>
+      </c>
+      <c r="L119" s="11" t="s">
+        <v>2636</v>
+      </c>
+      <c r="M119" s="11">
+        <v>999</v>
+      </c>
+      <c r="N119" s="11" t="s">
+        <v>2637</v>
+      </c>
+      <c r="O119" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="P119" s="11" t="s">
+        <v>2638</v>
+      </c>
+      <c r="Q119" s="11" t="s">
+        <v>2639</v>
+      </c>
+      <c r="R119" s="11" t="s">
+        <v>2640</v>
+      </c>
+      <c r="S119" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="T119" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="U119" s="1" t="s">
+        <v>2641</v>
+      </c>
+      <c r="V119" s="15" t="s">
+        <v>2642</v>
+      </c>
+      <c r="W119" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="X119" s="15" t="s">
+        <v>2643</v>
+      </c>
+      <c r="Y119" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z119" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="AA119" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB119" s="15" t="s">
+        <v>1781</v>
+      </c>
+      <c r="AC119" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="AD119" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="AE119" s="15" t="s">
+        <v>2432</v>
+      </c>
+      <c r="AF119" s="15" t="s">
+        <v>456</v>
+      </c>
+      <c r="AG119" s="15" t="s">
+        <v>373</v>
+      </c>
+      <c r="AH119" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="AI119" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="AJ119" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="AK119" s="15" t="s">
+        <v>1568</v>
+      </c>
+      <c r="AL119" s="15" t="s">
+        <v>1505</v>
+      </c>
+      <c r="AM119" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="AN119" s="15" t="s">
+        <v>497</v>
+      </c>
+      <c r="AO119" s="15" t="s">
+        <v>2645</v>
+      </c>
+      <c r="AP119" s="15" t="s">
+        <v>466</v>
+      </c>
+      <c r="AQ119" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR119" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="AS119" s="15" t="s">
+        <v>706</v>
+      </c>
+      <c r="AT119" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="AU119" s="15" t="s">
+        <v>2646</v>
+      </c>
+      <c r="AV119" s="15" t="s">
+        <v>2647</v>
+      </c>
+      <c r="AW119" s="15" t="s">
+        <v>2648</v>
+      </c>
+      <c r="AX119" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="AY119" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="AZ119" t="s">
+        <v>2644</v>
+      </c>
+      <c r="BA119" s="1" t="s">
+        <v>2649</v>
+      </c>
+      <c r="BB119">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="120" spans="1:54">
+      <c r="A120">
+        <v>117</v>
+      </c>
+      <c r="B120" s="14">
+        <v>44775</v>
+      </c>
+      <c r="C120" t="s">
+        <v>54</v>
+      </c>
+      <c r="D120" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E120">
+        <v>11</v>
+      </c>
+      <c r="F120">
+        <v>17</v>
+      </c>
+      <c r="G120" t="s">
+        <v>2650</v>
+      </c>
+      <c r="H120" t="s">
+        <v>57</v>
+      </c>
+      <c r="I120" s="9">
+        <v>25</v>
+      </c>
+      <c r="J120" s="9">
+        <v>47.35</v>
+      </c>
+      <c r="K120" s="11" t="s">
+        <v>2651</v>
+      </c>
+      <c r="L120" s="11" t="s">
+        <v>2652</v>
+      </c>
+      <c r="M120" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="N120" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="O120">
+        <v>999</v>
+      </c>
+      <c r="P120" s="11" t="s">
+        <v>2653</v>
+      </c>
+      <c r="Q120" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="S120" t="s">
+        <v>2654</v>
+      </c>
+      <c r="T120" s="11" t="s">
+        <v>1060</v>
+      </c>
+      <c r="U120" s="1" t="s">
+        <v>2655</v>
+      </c>
+      <c r="V120" s="15" t="s">
+        <v>2656</v>
+      </c>
+      <c r="W120" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="X120" s="15" t="s">
+        <v>2657</v>
+      </c>
+      <c r="Y120" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="Z120" s="15" t="s">
+        <v>424</v>
+      </c>
+      <c r="AA120" s="15" t="s">
+        <v>2658</v>
+      </c>
+      <c r="AB120" s="15" t="s">
+        <v>2659</v>
+      </c>
+      <c r="AC120" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="AD120" s="15" t="s">
+        <v>1433</v>
+      </c>
+      <c r="AE120" s="15" t="s">
+        <v>2660</v>
+      </c>
+      <c r="AF120" s="15" t="s">
+        <v>2661</v>
+      </c>
+      <c r="AG120" s="15" t="s">
+        <v>1453</v>
+      </c>
+      <c r="AH120" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="AI120" s="15" t="s">
+        <v>2663</v>
+      </c>
+      <c r="AJ120" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="AK120" s="15" t="s">
+        <v>1228</v>
+      </c>
+      <c r="AL120" s="15" t="s">
+        <v>2664</v>
+      </c>
+      <c r="AM120" s="15" t="s">
+        <v>434</v>
+      </c>
+      <c r="AN120" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="AO120" s="15" t="s">
+        <v>2665</v>
+      </c>
+      <c r="AP120" s="15" t="s">
+        <v>2666</v>
+      </c>
+      <c r="AQ120" s="15" t="s">
+        <v>500</v>
+      </c>
+      <c r="AR120" s="15" t="s">
+        <v>2631</v>
+      </c>
+      <c r="AS120" s="15" t="s">
+        <v>2616</v>
+      </c>
+      <c r="AT120" s="15" t="s">
+        <v>2667</v>
+      </c>
+      <c r="AU120" s="15" t="s">
+        <v>2668</v>
+      </c>
+      <c r="AV120" s="15" t="s">
+        <v>2669</v>
+      </c>
+      <c r="AW120" s="15" t="s">
+        <v>2670</v>
+      </c>
+      <c r="AX120" s="15" t="s">
+        <v>2671</v>
+      </c>
+      <c r="AY120" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="AZ120" t="s">
+        <v>2662</v>
+      </c>
+      <c r="BA120" s="1" t="s">
+        <v>2672</v>
+      </c>
+      <c r="BB120">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="121" spans="1:54">
+      <c r="A121">
+        <v>118</v>
+      </c>
+      <c r="B121" s="14">
+        <v>44775</v>
+      </c>
+      <c r="C121" t="s">
+        <v>54</v>
+      </c>
+      <c r="D121" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E121">
+        <v>11</v>
+      </c>
+      <c r="F121">
+        <v>18</v>
+      </c>
+      <c r="G121" t="s">
+        <v>2673</v>
+      </c>
+      <c r="H121" t="s">
+        <v>241</v>
+      </c>
+      <c r="I121" s="9">
+        <v>25</v>
+      </c>
+      <c r="J121" s="9">
+        <v>47.35</v>
+      </c>
+      <c r="K121" s="11" t="s">
+        <v>2674</v>
+      </c>
+      <c r="L121" s="11" t="s">
+        <v>2675</v>
+      </c>
+      <c r="M121" s="11">
+        <v>999</v>
+      </c>
+      <c r="N121" s="11" t="s">
+        <v>2676</v>
+      </c>
+      <c r="O121" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="P121" s="11" t="s">
+        <v>2677</v>
+      </c>
+      <c r="Q121" s="11" t="s">
+        <v>2678</v>
+      </c>
+      <c r="R121" s="11" t="s">
+        <v>1374</v>
+      </c>
+      <c r="S121">
+        <v>999</v>
+      </c>
+      <c r="T121" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="U121" s="1">
+        <v>999</v>
+      </c>
+      <c r="V121" s="15" t="s">
+        <v>1727</v>
+      </c>
+      <c r="W121" s="15" t="s">
+        <v>2679</v>
+      </c>
+      <c r="X121" s="15" t="s">
+        <v>2680</v>
+      </c>
+      <c r="Y121" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z121" s="15" t="s">
+        <v>2681</v>
+      </c>
+      <c r="AA121" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB121" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC121" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="AD121" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="AE121" s="15" t="s">
+        <v>2682</v>
+      </c>
+      <c r="AF121" s="15" t="s">
+        <v>490</v>
+      </c>
+      <c r="AG121" s="15" t="s">
+        <v>1068</v>
+      </c>
+      <c r="AH121" s="15" t="s">
+        <v>1869</v>
+      </c>
+      <c r="AI121" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="AJ121" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="AK121" s="15" t="s">
+        <v>1521</v>
+      </c>
+      <c r="AL121" s="15" t="s">
+        <v>2683</v>
+      </c>
+      <c r="AM121" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="AN121" s="15" t="s">
+        <v>628</v>
+      </c>
+      <c r="AO121" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="AP121" s="15" t="s">
+        <v>466</v>
+      </c>
+      <c r="AQ121" s="15" t="s">
+        <v>2684</v>
+      </c>
+      <c r="AR121" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="AS121" s="15" t="s">
+        <v>2685</v>
+      </c>
+      <c r="AT121" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="AU121" s="15" t="s">
+        <v>585</v>
+      </c>
+      <c r="AV121" s="15" t="s">
+        <v>2686</v>
+      </c>
+      <c r="AW121" s="15" t="s">
+        <v>2107</v>
+      </c>
+      <c r="AX121" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="AY121" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="AZ121" t="s">
+        <v>810</v>
+      </c>
+      <c r="BA121" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="BB121">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="122" spans="1:54">
+      <c r="A122">
+        <v>119</v>
+      </c>
+      <c r="B122" s="14">
+        <v>44775</v>
+      </c>
+      <c r="C122" t="s">
+        <v>54</v>
+      </c>
+      <c r="D122" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E122">
+        <v>11</v>
+      </c>
+      <c r="F122">
+        <v>19</v>
+      </c>
+      <c r="G122" t="s">
+        <v>2687</v>
+      </c>
+      <c r="H122" t="s">
+        <v>241</v>
+      </c>
+      <c r="I122" s="9">
+        <v>25</v>
+      </c>
+      <c r="J122" s="9">
+        <v>47.35</v>
+      </c>
+      <c r="K122" s="11" t="s">
+        <v>2688</v>
+      </c>
+      <c r="L122" s="11" t="s">
+        <v>2689</v>
+      </c>
+      <c r="M122" s="11">
+        <v>999</v>
+      </c>
+      <c r="N122" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="O122" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="P122" s="11" t="s">
+        <v>2690</v>
+      </c>
+      <c r="Q122" s="11" t="s">
+        <v>2691</v>
+      </c>
+      <c r="R122">
+        <v>999</v>
+      </c>
+      <c r="S122">
+        <v>999</v>
+      </c>
+      <c r="T122" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="U122" s="1">
+        <v>999</v>
+      </c>
+      <c r="V122" s="15" t="s">
+        <v>2692</v>
+      </c>
+      <c r="W122" s="15" t="s">
+        <v>2693</v>
+      </c>
+      <c r="X122" s="15" t="s">
+        <v>2694</v>
+      </c>
+      <c r="Y122" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z122" s="15" t="s">
+        <v>2567</v>
+      </c>
+      <c r="AA122" s="15" t="s">
+        <v>2695</v>
+      </c>
+      <c r="AB122" s="15" t="s">
+        <v>2696</v>
+      </c>
+      <c r="AC122" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD122" s="15" t="s">
+        <v>1433</v>
+      </c>
+      <c r="AE122" s="15" t="s">
+        <v>2461</v>
+      </c>
+      <c r="AF122" s="15" t="s">
+        <v>2593</v>
+      </c>
+      <c r="AG122" s="15" t="s">
+        <v>2697</v>
+      </c>
+      <c r="AH122" s="15" t="s">
+        <v>2698</v>
+      </c>
+      <c r="AI122" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="AJ122" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="AK122" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL122" s="15" t="s">
+        <v>2699</v>
+      </c>
+      <c r="AM122" s="15" t="s">
+        <v>2700</v>
+      </c>
+      <c r="AN122" s="15" t="s">
+        <v>1683</v>
+      </c>
+      <c r="AO122" s="15" t="s">
+        <v>1895</v>
+      </c>
+      <c r="AP122" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="AQ122" s="15" t="s">
+        <v>2701</v>
+      </c>
+      <c r="AR122" s="15" t="s">
+        <v>2702</v>
+      </c>
+      <c r="AS122" s="15" t="s">
+        <v>927</v>
+      </c>
+      <c r="AT122" s="15" t="s">
+        <v>2704</v>
+      </c>
+      <c r="AU122" s="15" t="s">
+        <v>2703</v>
+      </c>
+      <c r="AV122" s="15" t="s">
+        <v>440</v>
+      </c>
+      <c r="AW122" s="15" t="s">
+        <v>2705</v>
+      </c>
+      <c r="AX122" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="AY122" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AZ122" t="s">
+        <v>1730</v>
+      </c>
+      <c r="BA122" s="1" t="s">
+        <v>2706</v>
+      </c>
+      <c r="BB122">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="123" spans="1:54">
+      <c r="A123">
+        <v>120</v>
+      </c>
+      <c r="B123" s="14">
+        <v>44775</v>
+      </c>
+      <c r="C123" t="s">
+        <v>54</v>
+      </c>
+      <c r="D123" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E123">
+        <v>11</v>
+      </c>
+      <c r="F123">
+        <v>20</v>
+      </c>
+      <c r="G123" t="s">
+        <v>2707</v>
+      </c>
+      <c r="H123" t="s">
+        <v>241</v>
+      </c>
+      <c r="I123" s="9">
+        <v>25</v>
+      </c>
+      <c r="J123" s="9">
+        <v>47.35</v>
+      </c>
+      <c r="K123" s="11" t="s">
+        <v>2708</v>
+      </c>
+      <c r="L123" s="11" t="s">
+        <v>2709</v>
+      </c>
+      <c r="M123" s="11">
+        <v>999</v>
+      </c>
+      <c r="N123" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="O123" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="P123" s="11" t="s">
+        <v>2710</v>
+      </c>
+      <c r="Q123" s="11" t="s">
+        <v>1797</v>
+      </c>
+      <c r="R123">
+        <v>999</v>
+      </c>
+      <c r="S123">
+        <v>999</v>
+      </c>
+      <c r="T123" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="U123" s="1">
+        <v>999</v>
+      </c>
+      <c r="V123" s="15" t="s">
+        <v>2711</v>
+      </c>
+      <c r="W123" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="X123" s="15" t="s">
+        <v>2712</v>
+      </c>
+      <c r="Y123" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z123" s="15" t="s">
+        <v>1497</v>
+      </c>
+      <c r="AA123" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB123" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC123" s="15" t="s">
+        <v>2713</v>
+      </c>
+      <c r="AD123" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="AE123" s="15" t="s">
+        <v>2714</v>
+      </c>
+      <c r="AF123" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="AG123" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="AH123" s="15" t="s">
+        <v>2715</v>
+      </c>
+      <c r="AI123" s="15" t="s">
+        <v>2435</v>
+      </c>
+      <c r="AJ123" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="AK123" s="15" t="s">
+        <v>1521</v>
+      </c>
+      <c r="AL123" s="15" t="s">
+        <v>674</v>
+      </c>
+      <c r="AM123" s="15" t="s">
+        <v>525</v>
+      </c>
+      <c r="AN123" s="15" t="s">
+        <v>628</v>
+      </c>
+      <c r="AO123" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="AP123" s="15" t="s">
+        <v>466</v>
+      </c>
+      <c r="AQ123" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR123" s="15" t="s">
+        <v>2716</v>
+      </c>
+      <c r="AS123" s="15" t="s">
+        <v>2717</v>
+      </c>
+      <c r="AT123" s="15" t="s">
+        <v>2718</v>
+      </c>
+      <c r="AU123" s="15" t="s">
+        <v>2719</v>
+      </c>
+      <c r="AV123" s="15" t="s">
+        <v>2720</v>
+      </c>
+      <c r="AW123" s="15" t="s">
+        <v>2107</v>
+      </c>
+      <c r="AX123" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="AY123" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="AZ123" t="s">
+        <v>2003</v>
+      </c>
+      <c r="BA123" s="1" t="s">
+        <v>2721</v>
+      </c>
+      <c r="BB123">
         <v>999</v>
       </c>
     </row>

--- a/Data/DWA_FS.xlsx
+++ b/Data/DWA_FS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5326" uniqueCount="2722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5537" uniqueCount="2816">
   <si>
     <t>ID</t>
   </si>
@@ -8230,6 +8230,288 @@
   </si>
   <si>
     <t>Suhnsfrau (w)</t>
+  </si>
+  <si>
+    <t>III_16_0058</t>
+  </si>
+  <si>
+    <t>[v]-Q {könnte auch u sein}</t>
+  </si>
+  <si>
+    <t>Rosenau</t>
+  </si>
+  <si>
+    <t>Stein</t>
+  </si>
+  <si>
+    <t>Oumeise</t>
+  </si>
+  <si>
+    <t>Ägerschte</t>
+  </si>
+  <si>
+    <t>Rätsch</t>
+  </si>
+  <si>
+    <t>Gagumm[re]</t>
+  </si>
+  <si>
+    <t>Guckel, Huehn</t>
+  </si>
+  <si>
+    <t>Gelabe</t>
+  </si>
+  <si>
+    <t>schälte</t>
+  </si>
+  <si>
+    <t>Schisseli</t>
+  </si>
+  <si>
+    <t>zwiige</t>
+  </si>
+  <si>
+    <t>[G]aiss</t>
+  </si>
+  <si>
+    <t>III_16_0059</t>
+  </si>
+  <si>
+    <t>[v]-Qa {könnte auch u sein}</t>
+  </si>
+  <si>
+    <t>Kembs-Neuweg</t>
+  </si>
+  <si>
+    <t>Mülhausen i/Els</t>
+  </si>
+  <si>
+    <t>Henna</t>
+  </si>
+  <si>
+    <t>Kembs</t>
+  </si>
+  <si>
+    <t>Brumbeiri, Braumele (w)</t>
+  </si>
+  <si>
+    <t>Agarsta (w)</t>
+  </si>
+  <si>
+    <t>Eïmt (s)</t>
+  </si>
+  <si>
+    <t>Gukel (m), Gluckeri (w)</t>
+  </si>
+  <si>
+    <t>Heïbaomm</t>
+  </si>
+  <si>
+    <t>Maor (w)</t>
+  </si>
+  <si>
+    <t>Geißla (w)</t>
+  </si>
+  <si>
+    <t>Spaotz (m)</t>
+  </si>
+  <si>
+    <t>Grüselbäiri</t>
+  </si>
+  <si>
+    <t>Stregnaudla (w)</t>
+  </si>
+  <si>
+    <t>Schessele, Tallerle</t>
+  </si>
+  <si>
+    <t>Haofa</t>
+  </si>
+  <si>
+    <t>Kembs Neuweg</t>
+  </si>
+  <si>
+    <t>Therese Henna</t>
+  </si>
+  <si>
+    <t>Brumbeïri (w)</t>
+  </si>
+  <si>
+    <t>Disssel (m)</t>
+  </si>
+  <si>
+    <t>Ratsch (Dr, m)</t>
+  </si>
+  <si>
+    <t>Eimt</t>
+  </si>
+  <si>
+    <t>Goagumere</t>
+  </si>
+  <si>
+    <t>Gukel, Glukeri</t>
+  </si>
+  <si>
+    <t>Häibaumm (w)</t>
+  </si>
+  <si>
+    <t>Chaots (w)</t>
+  </si>
+  <si>
+    <t>Mohrriäba (w)</t>
+  </si>
+  <si>
+    <t>Maohr (w)</t>
+  </si>
+  <si>
+    <t>Geisla (w)</t>
+  </si>
+  <si>
+    <t>Chrüselbäiri (w)</t>
+  </si>
+  <si>
+    <t>Strecknaodla (w)</t>
+  </si>
+  <si>
+    <t>Taossa (w)</t>
+  </si>
+  <si>
+    <t>[v]-R {könnte auch u sein}</t>
+  </si>
+  <si>
+    <t>III_16_0061</t>
+  </si>
+  <si>
+    <t>III_16_0060</t>
+  </si>
+  <si>
+    <t>Neudorf</t>
+  </si>
+  <si>
+    <t>Kreis Mülhausen {steht bei Schulort}</t>
+  </si>
+  <si>
+    <t>Neudorf &lt;seit 46 Jahren hier tätig&gt;</t>
+  </si>
+  <si>
+    <t>Aumeise (d', w)</t>
+  </si>
+  <si>
+    <t>Br[o]mbeerie (w)</t>
+  </si>
+  <si>
+    <t>sis[c]her Liecht &lt;Leiche&gt;</t>
+  </si>
+  <si>
+    <t>Fladermüs (die)</t>
+  </si>
+  <si>
+    <t>Fliega, Muka (die)</t>
+  </si>
+  <si>
+    <t>K[?], Ohmd (das)</t>
+  </si>
+  <si>
+    <t>Hagabutta (die)</t>
+  </si>
+  <si>
+    <t>Gagumera (die)</t>
+  </si>
+  <si>
+    <t>Gukel (die), Huhn (das)</t>
+  </si>
+  <si>
+    <t>Hebamme (die)</t>
+  </si>
+  <si>
+    <t>Holunder (der)</t>
+  </si>
+  <si>
+    <t>Hardt[a]pfel, Freumberri (die)</t>
+  </si>
+  <si>
+    <t>Chats (die)</t>
+  </si>
+  <si>
+    <t>Mualwurf (der), Scharmüs (die) &lt;beide&gt;</t>
+  </si>
+  <si>
+    <t>Mohrübe (die)</t>
+  </si>
+  <si>
+    <t>Muattersau (die)</t>
+  </si>
+  <si>
+    <t>Chetti, Pfetter (der)</t>
+  </si>
+  <si>
+    <t>Riama (der)</t>
+  </si>
+  <si>
+    <t>Pfluama (die)</t>
+  </si>
+  <si>
+    <t>Stachelbeeri (die)</t>
+  </si>
+  <si>
+    <t>Stacknodel (die)</t>
+  </si>
+  <si>
+    <t>Stricknodla (die)</t>
+  </si>
+  <si>
+    <t>Schissal[e] (das)</t>
+  </si>
+  <si>
+    <t>Täpfi (das)</t>
+  </si>
+  <si>
+    <t>[p]fe[e]pfa</t>
+  </si>
+  <si>
+    <t>Gais (die)</t>
+  </si>
+  <si>
+    <t>Suhnsfrau (die)</t>
+  </si>
+  <si>
+    <t>[v]-Ra {könnte auch u sein}</t>
+  </si>
+  <si>
+    <t>III_16_0062</t>
+  </si>
+  <si>
+    <t>Elise Urfer</t>
+  </si>
+  <si>
+    <t>Holzweier</t>
+  </si>
+  <si>
+    <t>Brāumala (s)</t>
+  </si>
+  <si>
+    <t>Gokummra (w)</t>
+  </si>
+  <si>
+    <t>Guckel (m), Gluckri (w)</t>
+  </si>
+  <si>
+    <t>Heibāmma (w)</t>
+  </si>
+  <si>
+    <t>Mohrrieba (w)</t>
+  </si>
+  <si>
+    <t>M[o]r (w)</t>
+  </si>
+  <si>
+    <t>Stāchelbeeri (w)</t>
+  </si>
+  <si>
+    <t>Strecknaudla (w)</t>
+  </si>
+  <si>
+    <t>Tassle, Tallerla (s)</t>
   </si>
 </sst>
 </file>
@@ -8665,7 +8947,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -8673,10 +8955,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BB123"/>
+  <dimension ref="A1:BB128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A124" sqref="A124"/>
+    <sheetView tabSelected="1" topLeftCell="A98" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A129" sqref="A129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -28898,6 +29180,826 @@
         <v>999</v>
       </c>
     </row>
+    <row r="124" spans="1:54">
+      <c r="A124">
+        <v>121</v>
+      </c>
+      <c r="B124" s="14">
+        <v>44776</v>
+      </c>
+      <c r="C124" t="s">
+        <v>54</v>
+      </c>
+      <c r="D124" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E124">
+        <v>12</v>
+      </c>
+      <c r="F124">
+        <v>1</v>
+      </c>
+      <c r="G124" t="s">
+        <v>2722</v>
+      </c>
+      <c r="H124" t="s">
+        <v>241</v>
+      </c>
+      <c r="I124" s="9">
+        <v>25.1</v>
+      </c>
+      <c r="J124" s="9">
+        <v>47.35</v>
+      </c>
+      <c r="K124" s="11" t="s">
+        <v>2723</v>
+      </c>
+      <c r="L124" s="11" t="s">
+        <v>2724</v>
+      </c>
+      <c r="M124" s="11">
+        <v>999</v>
+      </c>
+      <c r="N124" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="O124" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="P124">
+        <v>888</v>
+      </c>
+      <c r="Q124" s="11" t="s">
+        <v>2725</v>
+      </c>
+      <c r="R124">
+        <v>999</v>
+      </c>
+      <c r="S124">
+        <v>999</v>
+      </c>
+      <c r="T124" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="U124" s="1">
+        <v>999</v>
+      </c>
+      <c r="V124" s="15" t="s">
+        <v>2726</v>
+      </c>
+      <c r="W124" s="15" t="s">
+        <v>2355</v>
+      </c>
+      <c r="X124" s="15" t="s">
+        <v>2625</v>
+      </c>
+      <c r="Y124" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="Z124" s="15" t="s">
+        <v>2727</v>
+      </c>
+      <c r="AA124" s="15" t="s">
+        <v>2728</v>
+      </c>
+      <c r="AB124" s="15" t="s">
+        <v>806</v>
+      </c>
+      <c r="AC124" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="AD124">
+        <v>999</v>
+      </c>
+      <c r="AE124" s="15" t="s">
+        <v>2729</v>
+      </c>
+      <c r="AF124" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="AG124" s="15" t="s">
+        <v>2730</v>
+      </c>
+      <c r="AH124" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="AI124" s="15" t="s">
+        <v>1543</v>
+      </c>
+      <c r="AJ124" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="AK124" s="15" t="s">
+        <v>1228</v>
+      </c>
+      <c r="AL124" s="15" t="s">
+        <v>2731</v>
+      </c>
+      <c r="AM124" s="15" t="s">
+        <v>434</v>
+      </c>
+      <c r="AN124" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="AO124" s="15" t="s">
+        <v>972</v>
+      </c>
+      <c r="AP124" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="AQ124" s="15" t="s">
+        <v>2732</v>
+      </c>
+      <c r="AR124" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS124" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="AT124" s="15" t="s">
+        <v>409</v>
+      </c>
+      <c r="AU124" s="15" t="s">
+        <v>410</v>
+      </c>
+      <c r="AV124" s="15" t="s">
+        <v>2733</v>
+      </c>
+      <c r="AW124" s="15" t="s">
+        <v>1104</v>
+      </c>
+      <c r="AX124" s="15" t="s">
+        <v>2734</v>
+      </c>
+      <c r="AY124" s="1" t="s">
+        <v>2735</v>
+      </c>
+      <c r="AZ124" t="s">
+        <v>1454</v>
+      </c>
+      <c r="BA124" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="BB124">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="125" spans="1:54">
+      <c r="A125">
+        <v>122</v>
+      </c>
+      <c r="B125" s="14">
+        <v>44776</v>
+      </c>
+      <c r="C125" t="s">
+        <v>54</v>
+      </c>
+      <c r="D125" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E125">
+        <v>12</v>
+      </c>
+      <c r="F125">
+        <v>2</v>
+      </c>
+      <c r="G125" t="s">
+        <v>2736</v>
+      </c>
+      <c r="H125" t="s">
+        <v>241</v>
+      </c>
+      <c r="I125" s="9">
+        <v>25</v>
+      </c>
+      <c r="J125" s="9">
+        <v>47.4</v>
+      </c>
+      <c r="K125" s="11" t="s">
+        <v>2737</v>
+      </c>
+      <c r="L125" s="11" t="s">
+        <v>2738</v>
+      </c>
+      <c r="M125" s="11">
+        <v>999</v>
+      </c>
+      <c r="N125" s="11" t="s">
+        <v>2739</v>
+      </c>
+      <c r="O125" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="P125" s="11" t="s">
+        <v>2740</v>
+      </c>
+      <c r="Q125" s="11" t="s">
+        <v>2741</v>
+      </c>
+      <c r="R125">
+        <v>999</v>
+      </c>
+      <c r="S125">
+        <v>999</v>
+      </c>
+      <c r="T125" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="U125" s="1" t="s">
+        <v>2740</v>
+      </c>
+      <c r="V125">
+        <v>999</v>
+      </c>
+      <c r="W125" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="X125" s="15" t="s">
+        <v>2742</v>
+      </c>
+      <c r="Y125" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z125" s="15" t="s">
+        <v>2743</v>
+      </c>
+      <c r="AA125" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB125" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC125" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="AD125" s="15" t="s">
+        <v>2744</v>
+      </c>
+      <c r="AE125" s="15" t="s">
+        <v>2400</v>
+      </c>
+      <c r="AF125" s="15" t="s">
+        <v>456</v>
+      </c>
+      <c r="AG125" s="15" t="s">
+        <v>2745</v>
+      </c>
+      <c r="AH125" s="15" t="s">
+        <v>2746</v>
+      </c>
+      <c r="AI125" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="AJ125" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="AK125" s="15" t="s">
+        <v>1521</v>
+      </c>
+      <c r="AL125" s="15" t="s">
+        <v>1832</v>
+      </c>
+      <c r="AM125" s="15" t="s">
+        <v>2747</v>
+      </c>
+      <c r="AN125" s="15" t="s">
+        <v>628</v>
+      </c>
+      <c r="AO125" s="15" t="s">
+        <v>2748</v>
+      </c>
+      <c r="AP125" s="15" t="s">
+        <v>466</v>
+      </c>
+      <c r="AQ125" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR125" s="15" t="s">
+        <v>2749</v>
+      </c>
+      <c r="AS125" s="15" t="s">
+        <v>2750</v>
+      </c>
+      <c r="AT125" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU125" s="15" t="s">
+        <v>2751</v>
+      </c>
+      <c r="AV125" s="15" t="s">
+        <v>2752</v>
+      </c>
+      <c r="AW125" s="15" t="s">
+        <v>2753</v>
+      </c>
+      <c r="AX125" s="15" t="s">
+        <v>1832</v>
+      </c>
+      <c r="AY125" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="AZ125" t="s">
+        <v>548</v>
+      </c>
+      <c r="BA125" s="1" t="s">
+        <v>1832</v>
+      </c>
+      <c r="BB125">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="126" spans="1:54">
+      <c r="A126">
+        <v>123</v>
+      </c>
+      <c r="B126" s="14">
+        <v>44776</v>
+      </c>
+      <c r="C126" t="s">
+        <v>54</v>
+      </c>
+      <c r="D126" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E126">
+        <v>12</v>
+      </c>
+      <c r="F126">
+        <v>2</v>
+      </c>
+      <c r="G126" t="s">
+        <v>2772</v>
+      </c>
+      <c r="H126" t="s">
+        <v>57</v>
+      </c>
+      <c r="I126" s="9">
+        <v>25.1</v>
+      </c>
+      <c r="J126" s="9">
+        <v>47.35</v>
+      </c>
+      <c r="K126" s="11" t="s">
+        <v>2737</v>
+      </c>
+      <c r="L126" s="11" t="s">
+        <v>2754</v>
+      </c>
+      <c r="M126" s="11">
+        <v>999</v>
+      </c>
+      <c r="N126" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="O126" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="P126" s="11" t="s">
+        <v>2755</v>
+      </c>
+      <c r="Q126" s="11" t="s">
+        <v>2741</v>
+      </c>
+      <c r="R126">
+        <v>999</v>
+      </c>
+      <c r="S126">
+        <v>999</v>
+      </c>
+      <c r="T126" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="U126" s="1">
+        <v>999</v>
+      </c>
+      <c r="V126" t="s">
+        <v>2711</v>
+      </c>
+      <c r="W126" s="15" t="s">
+        <v>2447</v>
+      </c>
+      <c r="X126" s="15" t="s">
+        <v>2756</v>
+      </c>
+      <c r="Y126" s="15" t="s">
+        <v>2757</v>
+      </c>
+      <c r="Z126" s="15" t="s">
+        <v>1497</v>
+      </c>
+      <c r="AA126" s="15" t="s">
+        <v>2758</v>
+      </c>
+      <c r="AB126" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC126" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="AD126" s="15" t="s">
+        <v>2759</v>
+      </c>
+      <c r="AE126" s="15" t="s">
+        <v>2760</v>
+      </c>
+      <c r="AF126" s="15" t="s">
+        <v>456</v>
+      </c>
+      <c r="AG126" s="15" t="s">
+        <v>2761</v>
+      </c>
+      <c r="AH126" s="15" t="s">
+        <v>2762</v>
+      </c>
+      <c r="AI126" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="AJ126" s="15" t="s">
+        <v>2763</v>
+      </c>
+      <c r="AK126" s="15" t="s">
+        <v>1521</v>
+      </c>
+      <c r="AL126" s="15" t="s">
+        <v>2764</v>
+      </c>
+      <c r="AM126" s="15" t="s">
+        <v>2765</v>
+      </c>
+      <c r="AN126" s="15" t="s">
+        <v>628</v>
+      </c>
+      <c r="AO126" s="15" t="s">
+        <v>2766</v>
+      </c>
+      <c r="AP126" s="15" t="s">
+        <v>466</v>
+      </c>
+      <c r="AQ126" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR126" s="15" t="s">
+        <v>2749</v>
+      </c>
+      <c r="AS126" s="15" t="s">
+        <v>2767</v>
+      </c>
+      <c r="AT126" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="AU126" s="15" t="s">
+        <v>2768</v>
+      </c>
+      <c r="AV126" s="15" t="s">
+        <v>2769</v>
+      </c>
+      <c r="AW126" s="15" t="s">
+        <v>663</v>
+      </c>
+      <c r="AX126" s="15" t="s">
+        <v>1738</v>
+      </c>
+      <c r="AY126" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="AZ126" t="s">
+        <v>548</v>
+      </c>
+      <c r="BA126" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BB126">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="127" spans="1:54">
+      <c r="A127">
+        <v>124</v>
+      </c>
+      <c r="B127" s="14">
+        <v>44776</v>
+      </c>
+      <c r="C127" t="s">
+        <v>54</v>
+      </c>
+      <c r="D127" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E127">
+        <v>12</v>
+      </c>
+      <c r="F127">
+        <v>3</v>
+      </c>
+      <c r="G127" t="s">
+        <v>2771</v>
+      </c>
+      <c r="H127" t="s">
+        <v>57</v>
+      </c>
+      <c r="I127" s="9">
+        <v>25.1</v>
+      </c>
+      <c r="J127" s="9">
+        <v>47.35</v>
+      </c>
+      <c r="K127" s="11" t="s">
+        <v>2770</v>
+      </c>
+      <c r="L127" s="11" t="s">
+        <v>2773</v>
+      </c>
+      <c r="M127" s="11">
+        <v>999</v>
+      </c>
+      <c r="N127" s="11" t="s">
+        <v>2774</v>
+      </c>
+      <c r="O127">
+        <v>999</v>
+      </c>
+      <c r="P127">
+        <v>888</v>
+      </c>
+      <c r="Q127" s="11" t="s">
+        <v>2775</v>
+      </c>
+      <c r="R127" s="11">
+        <v>999</v>
+      </c>
+      <c r="S127" s="11">
+        <v>999</v>
+      </c>
+      <c r="T127" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="U127" s="1">
+        <v>999</v>
+      </c>
+      <c r="V127" t="s">
+        <v>2776</v>
+      </c>
+      <c r="W127" s="15" t="s">
+        <v>2778</v>
+      </c>
+      <c r="X127" t="s">
+        <v>2777</v>
+      </c>
+      <c r="Y127" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z127" s="15" t="s">
+        <v>2743</v>
+      </c>
+      <c r="AA127" s="15" t="s">
+        <v>453</v>
+      </c>
+      <c r="AB127" s="15" t="s">
+        <v>2779</v>
+      </c>
+      <c r="AC127" s="15" t="s">
+        <v>2780</v>
+      </c>
+      <c r="AD127" s="15" t="s">
+        <v>2781</v>
+      </c>
+      <c r="AE127" s="15" t="s">
+        <v>2783</v>
+      </c>
+      <c r="AF127" s="15" t="s">
+        <v>2782</v>
+      </c>
+      <c r="AG127" s="15" t="s">
+        <v>2784</v>
+      </c>
+      <c r="AH127" s="15" t="s">
+        <v>2785</v>
+      </c>
+      <c r="AI127" s="15" t="s">
+        <v>2787</v>
+      </c>
+      <c r="AJ127" s="15" t="s">
+        <v>2788</v>
+      </c>
+      <c r="AK127" s="15" t="s">
+        <v>2789</v>
+      </c>
+      <c r="AL127" s="15" t="s">
+        <v>2790</v>
+      </c>
+      <c r="AM127" s="15" t="s">
+        <v>2791</v>
+      </c>
+      <c r="AN127" s="15" t="s">
+        <v>2792</v>
+      </c>
+      <c r="AO127" s="15" t="s">
+        <v>2793</v>
+      </c>
+      <c r="AP127" s="15" t="s">
+        <v>2794</v>
+      </c>
+      <c r="AQ127" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR127" s="15" t="s">
+        <v>792</v>
+      </c>
+      <c r="AS127" s="15" t="s">
+        <v>2795</v>
+      </c>
+      <c r="AT127" s="15" t="s">
+        <v>2796</v>
+      </c>
+      <c r="AU127" s="15" t="s">
+        <v>2797</v>
+      </c>
+      <c r="AV127" s="15" t="s">
+        <v>2798</v>
+      </c>
+      <c r="AW127" s="15" t="s">
+        <v>2799</v>
+      </c>
+      <c r="AX127" s="15" t="s">
+        <v>2800</v>
+      </c>
+      <c r="AY127" s="1" t="s">
+        <v>2801</v>
+      </c>
+      <c r="AZ127" t="s">
+        <v>2786</v>
+      </c>
+      <c r="BA127" s="1" t="s">
+        <v>2802</v>
+      </c>
+      <c r="BB127">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="128" spans="1:54">
+      <c r="A128">
+        <v>125</v>
+      </c>
+      <c r="B128" s="14">
+        <v>44776</v>
+      </c>
+      <c r="C128" t="s">
+        <v>54</v>
+      </c>
+      <c r="D128" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E128">
+        <v>12</v>
+      </c>
+      <c r="F128">
+        <v>4</v>
+      </c>
+      <c r="G128" t="s">
+        <v>2804</v>
+      </c>
+      <c r="H128" t="s">
+        <v>241</v>
+      </c>
+      <c r="I128" s="9">
+        <v>25.1</v>
+      </c>
+      <c r="J128" s="9">
+        <v>47.35</v>
+      </c>
+      <c r="K128" s="11" t="s">
+        <v>2803</v>
+      </c>
+      <c r="L128" s="11" t="s">
+        <v>2388</v>
+      </c>
+      <c r="M128" s="11">
+        <v>999</v>
+      </c>
+      <c r="N128" s="11" t="s">
+        <v>2390</v>
+      </c>
+      <c r="O128" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="P128" s="11" t="s">
+        <v>2805</v>
+      </c>
+      <c r="Q128" s="11" t="s">
+        <v>2806</v>
+      </c>
+      <c r="R128" s="11">
+        <v>999</v>
+      </c>
+      <c r="S128" s="11">
+        <v>999</v>
+      </c>
+      <c r="T128" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="U128" s="1">
+        <v>999</v>
+      </c>
+      <c r="V128" t="s">
+        <v>2711</v>
+      </c>
+      <c r="W128" s="15" t="s">
+        <v>2447</v>
+      </c>
+      <c r="X128" s="15" t="s">
+        <v>2807</v>
+      </c>
+      <c r="Y128" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z128" s="15" t="s">
+        <v>1497</v>
+      </c>
+      <c r="AA128" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB128" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC128" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="AD128" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="AE128" s="15" t="s">
+        <v>2808</v>
+      </c>
+      <c r="AF128" s="15" t="s">
+        <v>456</v>
+      </c>
+      <c r="AG128" s="15" t="s">
+        <v>2809</v>
+      </c>
+      <c r="AH128" s="15" t="s">
+        <v>2810</v>
+      </c>
+      <c r="AI128" s="15" t="s">
+        <v>1015</v>
+      </c>
+      <c r="AJ128" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="AK128" s="15" t="s">
+        <v>1016</v>
+      </c>
+      <c r="AL128" s="15" t="s">
+        <v>2811</v>
+      </c>
+      <c r="AM128" s="15" t="s">
+        <v>2812</v>
+      </c>
+      <c r="AN128" s="15" t="s">
+        <v>628</v>
+      </c>
+      <c r="AO128" s="15" t="s">
+        <v>656</v>
+      </c>
+      <c r="AP128" s="15" t="s">
+        <v>466</v>
+      </c>
+      <c r="AQ128" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR128" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="AS128" s="15" t="s">
+        <v>2813</v>
+      </c>
+      <c r="AT128" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="AU128" s="15" t="s">
+        <v>2814</v>
+      </c>
+      <c r="AV128" s="15" t="s">
+        <v>2815</v>
+      </c>
+      <c r="AW128" s="15" t="s">
+        <v>2267</v>
+      </c>
+      <c r="AX128" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="AY128" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AZ128" t="s">
+        <v>2003</v>
+      </c>
+      <c r="BA128" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="BB128">
+        <v>999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39409448818897641" bottom="0.39409448818897641" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Data/DWA_FS.xlsx
+++ b/Data/DWA_FS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5537" uniqueCount="2816">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5754" uniqueCount="2899">
   <si>
     <t>ID</t>
   </si>
@@ -7428,9 +7428,6 @@
     <t>Hāfa</t>
   </si>
   <si>
-    <t>Veiala</t>
-  </si>
-  <si>
     <t>Schwegera</t>
   </si>
   <si>
@@ -8512,6 +8509,258 @@
   </si>
   <si>
     <t>Tassle, Tallerla (s)</t>
+  </si>
+  <si>
+    <t>III_16_0063</t>
+  </si>
+  <si>
+    <t>[v]-S {könnte auch u sein}</t>
+  </si>
+  <si>
+    <t>Sankt-Ludwig</t>
+  </si>
+  <si>
+    <t>Albert Scherer</t>
+  </si>
+  <si>
+    <t>Wingen</t>
+  </si>
+  <si>
+    <t>Kreis Zabern</t>
+  </si>
+  <si>
+    <t>Brumberi, Bromela (w)</t>
+  </si>
+  <si>
+    <t>Muga (w)</t>
+  </si>
+  <si>
+    <t>Gagumme[r]a (w)</t>
+  </si>
+  <si>
+    <t>Guckel (m), Hüahn (w)</t>
+  </si>
+  <si>
+    <t>Holdara (m)</t>
+  </si>
+  <si>
+    <t>Hardäpfel (m), Grumbera (w)</t>
+  </si>
+  <si>
+    <t>Märriaba (w)</t>
+  </si>
+  <si>
+    <t>Getti, Geddi (m)</t>
+  </si>
+  <si>
+    <t>Riama (m), Peitsch[e] (w)</t>
+  </si>
+  <si>
+    <t>handla, schalta</t>
+  </si>
+  <si>
+    <t>Grüselbere (w)</t>
+  </si>
+  <si>
+    <t>Kerle (s)</t>
+  </si>
+  <si>
+    <t>III_16_0064</t>
+  </si>
+  <si>
+    <t>[v]-R {könnte auch r sein}</t>
+  </si>
+  <si>
+    <t>St. Ludwig</t>
+  </si>
+  <si>
+    <t>Mühlhausen</t>
+  </si>
+  <si>
+    <t>Krs. Zabern</t>
+  </si>
+  <si>
+    <t>Beardigung (w), Licht (w)</t>
+  </si>
+  <si>
+    <t>Brombeeri (w), Bromala (w)</t>
+  </si>
+  <si>
+    <t>Budda (w), Hagebudda (w)</t>
+  </si>
+  <si>
+    <t>Scharmüas (w)</t>
+  </si>
+  <si>
+    <t>gali Rieba (w)</t>
+  </si>
+  <si>
+    <t>Riama (m), Peitschi (m), Geisla (w)</t>
+  </si>
+  <si>
+    <t>schimpfa</t>
+  </si>
+  <si>
+    <t>Grüselbeeri (w)</t>
+  </si>
+  <si>
+    <t>Striknodla (w)</t>
+  </si>
+  <si>
+    <t>Schissele (s), Tassle (s)</t>
+  </si>
+  <si>
+    <t>Suhnsfräu (w), Schwiegertochter</t>
+  </si>
+  <si>
+    <t>III_16_0065</t>
+  </si>
+  <si>
+    <t>St.-Ludwig</t>
+  </si>
+  <si>
+    <t>Emil Schwarz</t>
+  </si>
+  <si>
+    <t>Kehl a Rhein</t>
+  </si>
+  <si>
+    <t>Brombeeri (s)</t>
+  </si>
+  <si>
+    <t>Butte, Hagebutte (w)</t>
+  </si>
+  <si>
+    <t>Guggel (m), Huehn (s)</t>
+  </si>
+  <si>
+    <t>Holdrǎ (m)</t>
+  </si>
+  <si>
+    <t>Schärmüs (w)</t>
+  </si>
+  <si>
+    <t>Gäleriäbe (w)</t>
+  </si>
+  <si>
+    <t>Geissle (w)</t>
+  </si>
+  <si>
+    <t>Zwetschge, Quetsche (w)</t>
+  </si>
+  <si>
+    <t>Krüselbeere (s)</t>
+  </si>
+  <si>
+    <t>[v]-T {könnte auch r sein}</t>
+  </si>
+  <si>
+    <t>III_16_0066</t>
+  </si>
+  <si>
+    <t>Hüningen</t>
+  </si>
+  <si>
+    <t>Keller</t>
+  </si>
+  <si>
+    <t>am Bodensee</t>
+  </si>
+  <si>
+    <t>Ameisa</t>
+  </si>
+  <si>
+    <t>Beardigung, z' Liech</t>
+  </si>
+  <si>
+    <t>Antä</t>
+  </si>
+  <si>
+    <t>Goagummere</t>
+  </si>
+  <si>
+    <t>Guckal, Huan</t>
+  </si>
+  <si>
+    <t>Heebammä</t>
+  </si>
+  <si>
+    <t>Hardäpfel, Grumbi[err]a</t>
+  </si>
+  <si>
+    <t>Kaatz</t>
+  </si>
+  <si>
+    <t>Mülwurf</t>
+  </si>
+  <si>
+    <t>Muatersau</t>
+  </si>
+  <si>
+    <t>Geihsla</t>
+  </si>
+  <si>
+    <t>schälta</t>
+  </si>
+  <si>
+    <t>nodla</t>
+  </si>
+  <si>
+    <t>Tasslä</t>
+  </si>
+  <si>
+    <t>aïgla</t>
+  </si>
+  <si>
+    <t>[v]-U {könnte auch r sein}</t>
+  </si>
+  <si>
+    <t>III_16_0067</t>
+  </si>
+  <si>
+    <t>Istein</t>
+  </si>
+  <si>
+    <t>Schwarzw.</t>
+  </si>
+  <si>
+    <t>Lehrer und Bewohner des Dorfes</t>
+  </si>
+  <si>
+    <t>Ameisi</t>
+  </si>
+  <si>
+    <t>Licht &lt;gedehnt i&gt;</t>
+  </si>
+  <si>
+    <t>Diachsla</t>
+  </si>
+  <si>
+    <t>Ägersta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fliega  </t>
+  </si>
+  <si>
+    <t>Gogel, Huahn</t>
+  </si>
+  <si>
+    <t>Erdapfel, [H]erdäpfel</t>
+  </si>
+  <si>
+    <t>Gelriéba</t>
+  </si>
+  <si>
+    <t>Moahr</t>
+  </si>
+  <si>
+    <t>lärma, brialla, ufbegehra</t>
+  </si>
+  <si>
+    <t>veredla, zwiga, eigla &lt;äugeln&gt;</t>
+  </si>
+  <si>
+    <t>Schwiegert[a]chter</t>
   </si>
 </sst>
 </file>
@@ -8947,7 +9196,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -8955,10 +9204,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BB128"/>
+  <dimension ref="A1:BB133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A129" sqref="A129"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A134" sqref="A134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -23147,7 +23396,7 @@
         <v>47.35</v>
       </c>
       <c r="K87" s="11" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="L87" s="11" t="s">
         <v>2095</v>
@@ -23311,7 +23560,7 @@
         <v>47.35</v>
       </c>
       <c r="K88" s="11" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="L88" s="11" t="s">
         <v>2095</v>
@@ -23475,7 +23724,7 @@
         <v>47.35</v>
       </c>
       <c r="K89" s="11" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="L89" s="11" t="s">
         <v>2120</v>
@@ -23639,7 +23888,7 @@
         <v>47.35</v>
       </c>
       <c r="K90" s="11" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="L90" s="11" t="s">
         <v>2141</v>
@@ -23803,7 +24052,7 @@
         <v>47.35</v>
       </c>
       <c r="K91" s="11" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="L91" s="11" t="s">
         <v>2157</v>
@@ -23967,7 +24216,7 @@
         <v>47.35</v>
       </c>
       <c r="K92" s="11" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="L92" s="11" t="s">
         <v>2168</v>
@@ -24131,7 +24380,7 @@
         <v>47.35</v>
       </c>
       <c r="K93" s="11" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="L93" s="11" t="s">
         <v>2179</v>
@@ -24295,7 +24544,7 @@
         <v>47.35</v>
       </c>
       <c r="K94" s="11" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="L94" s="11" t="s">
         <v>2200</v>
@@ -24459,7 +24708,7 @@
         <v>47.35</v>
       </c>
       <c r="K95" s="11" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="L95" s="11" t="s">
         <v>2211</v>
@@ -24623,7 +24872,7 @@
         <v>47.35</v>
       </c>
       <c r="K96" s="11" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="L96" s="11" t="s">
         <v>2231</v>
@@ -24787,7 +25036,7 @@
         <v>47.35</v>
       </c>
       <c r="K97" s="11" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
       <c r="L97" s="11" t="s">
         <v>2253</v>
@@ -24951,7 +25200,7 @@
         <v>47.35</v>
       </c>
       <c r="K98" s="11" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="L98" s="11" t="s">
         <v>2271</v>
@@ -25115,7 +25364,7 @@
         <v>47.35</v>
       </c>
       <c r="K99" s="11" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="L99" s="11" t="s">
         <v>2279</v>
@@ -25279,7 +25528,7 @@
         <v>47.35</v>
       </c>
       <c r="K100" s="11" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="L100" s="11" t="s">
         <v>2291</v>
@@ -25443,7 +25692,7 @@
         <v>47.35</v>
       </c>
       <c r="K101" s="11" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="L101" s="11" t="s">
         <v>2309</v>
@@ -25607,7 +25856,7 @@
         <v>47.35</v>
       </c>
       <c r="K102" s="11" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="L102" s="11" t="s">
         <v>2324</v>
@@ -25771,7 +26020,7 @@
         <v>47.35</v>
       </c>
       <c r="K103" s="11" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="L103" s="11" t="s">
         <v>2335</v>
@@ -25935,7 +26184,7 @@
         <v>47.35</v>
       </c>
       <c r="K104" s="11" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="L104" s="11" t="s">
         <v>2350</v>
@@ -26099,7 +26348,7 @@
         <v>47.35</v>
       </c>
       <c r="K105" s="11" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="L105" s="11" t="s">
         <v>2368</v>
@@ -26263,7 +26512,7 @@
         <v>47.35</v>
       </c>
       <c r="K106" s="11" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="L106" s="11" t="s">
         <v>2375</v>
@@ -26427,7 +26676,7 @@
         <v>47.35</v>
       </c>
       <c r="K107" s="11" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="L107" s="11" t="s">
         <v>2388</v>
@@ -26591,7 +26840,7 @@
         <v>47.35</v>
       </c>
       <c r="K108" s="11" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="L108" s="11" t="s">
         <v>2412</v>
@@ -27036,7 +27285,7 @@
         <v>2453</v>
       </c>
       <c r="AX110" s="15" t="s">
-        <v>2454</v>
+        <v>204</v>
       </c>
       <c r="AY110" s="1" t="s">
         <v>86</v>
@@ -27045,7 +27294,7 @@
         <v>1709</v>
       </c>
       <c r="BA110" s="1" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="BB110">
         <v>999</v>
@@ -27071,7 +27320,7 @@
         <v>7</v>
       </c>
       <c r="G111" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="H111" t="s">
         <v>57</v>
@@ -27083,10 +27332,10 @@
         <v>47.35</v>
       </c>
       <c r="K111" s="11" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="L111" s="11" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="M111" s="11">
         <v>999</v>
@@ -27113,7 +27362,7 @@
         <v>176</v>
       </c>
       <c r="U111" s="1" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="V111" s="12" t="s">
         <v>366</v>
@@ -27131,28 +27380,28 @@
         <v>65</v>
       </c>
       <c r="AA111" s="12" t="s">
+        <v>2458</v>
+      </c>
+      <c r="AB111" s="12" t="s">
         <v>2459</v>
-      </c>
-      <c r="AB111" s="12" t="s">
-        <v>2460</v>
       </c>
       <c r="AC111" s="12" t="s">
         <v>426</v>
       </c>
       <c r="AD111" s="15" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="AE111" s="15" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="AF111" s="15" t="s">
         <v>1471</v>
       </c>
       <c r="AG111" s="15" t="s">
+        <v>2462</v>
+      </c>
+      <c r="AH111" s="15" t="s">
         <v>2463</v>
-      </c>
-      <c r="AH111" s="15" t="s">
-        <v>2464</v>
       </c>
       <c r="AI111" s="15" t="s">
         <v>399</v>
@@ -27170,7 +27419,7 @@
         <v>324</v>
       </c>
       <c r="AN111" s="15" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="AO111" s="15" t="s">
         <v>77</v>
@@ -27185,13 +27434,13 @@
         <v>2264</v>
       </c>
       <c r="AS111" s="15" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="AT111" s="15" t="s">
         <v>82</v>
       </c>
       <c r="AU111" s="15" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="AV111" s="15" t="s">
         <v>1946</v>
@@ -27209,7 +27458,7 @@
         <v>432</v>
       </c>
       <c r="BA111" s="1" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="BB111">
         <v>999</v>
@@ -27235,7 +27484,7 @@
         <v>8</v>
       </c>
       <c r="G112" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="H112" t="s">
         <v>57</v>
@@ -27247,10 +27496,10 @@
         <v>47.35</v>
       </c>
       <c r="K112" s="11" t="s">
+        <v>2490</v>
+      </c>
+      <c r="L112" s="11" t="s">
         <v>2491</v>
-      </c>
-      <c r="L112" s="11" t="s">
-        <v>2492</v>
       </c>
       <c r="M112" s="11">
         <v>999</v>
@@ -27262,13 +27511,13 @@
         <v>93</v>
       </c>
       <c r="P112" s="11" t="s">
+        <v>2492</v>
+      </c>
+      <c r="Q112" s="11" t="s">
+        <v>2494</v>
+      </c>
+      <c r="R112" t="s">
         <v>2493</v>
-      </c>
-      <c r="Q112" s="11" t="s">
-        <v>2495</v>
-      </c>
-      <c r="R112" t="s">
-        <v>2494</v>
       </c>
       <c r="S112" s="11">
         <v>999</v>
@@ -27280,46 +27529,46 @@
         <v>999</v>
       </c>
       <c r="V112" s="12" t="s">
+        <v>2495</v>
+      </c>
+      <c r="W112" s="12" t="s">
         <v>2496</v>
       </c>
-      <c r="W112" s="12" t="s">
+      <c r="X112" s="12" t="s">
         <v>2497</v>
       </c>
-      <c r="X112" s="12" t="s">
+      <c r="Y112" s="12" t="s">
         <v>2498</v>
       </c>
-      <c r="Y112" s="12" t="s">
+      <c r="Z112" s="12" t="s">
         <v>2499</v>
-      </c>
-      <c r="Z112" s="12" t="s">
-        <v>2500</v>
       </c>
       <c r="AA112" s="12" t="s">
         <v>286</v>
       </c>
       <c r="AB112" s="12" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="AC112" s="12" t="s">
         <v>2398</v>
       </c>
       <c r="AD112" s="15" t="s">
+        <v>2501</v>
+      </c>
+      <c r="AE112" s="15" t="s">
         <v>2502</v>
-      </c>
-      <c r="AE112" s="15" t="s">
-        <v>2503</v>
       </c>
       <c r="AF112" s="15" t="s">
         <v>288</v>
       </c>
       <c r="AG112" s="15" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="AH112" s="15" t="s">
         <v>290</v>
       </c>
       <c r="AI112" s="15" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="AJ112" s="15" t="s">
         <v>262</v>
@@ -27328,52 +27577,52 @@
         <v>292</v>
       </c>
       <c r="AL112" s="15" t="s">
+        <v>2506</v>
+      </c>
+      <c r="AM112" s="15" t="s">
         <v>2507</v>
-      </c>
-      <c r="AM112" s="15" t="s">
-        <v>2508</v>
       </c>
       <c r="AN112" s="15" t="s">
         <v>154</v>
       </c>
       <c r="AO112" s="15" t="s">
+        <v>2508</v>
+      </c>
+      <c r="AP112" s="15" t="s">
         <v>2509</v>
       </c>
-      <c r="AP112" s="15" t="s">
+      <c r="AQ112" s="15" t="s">
         <v>2510</v>
-      </c>
-      <c r="AQ112" s="15" t="s">
-        <v>2511</v>
       </c>
       <c r="AR112" s="15" t="s">
         <v>1581</v>
       </c>
       <c r="AS112" s="15" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="AT112" s="15" t="s">
         <v>771</v>
       </c>
       <c r="AU112" s="15" t="s">
+        <v>2512</v>
+      </c>
+      <c r="AV112" s="15" t="s">
         <v>2513</v>
       </c>
-      <c r="AV112" s="15" t="s">
+      <c r="AW112" s="15" t="s">
         <v>2514</v>
       </c>
-      <c r="AW112" s="15" t="s">
+      <c r="AX112" s="15" t="s">
         <v>2515</v>
-      </c>
-      <c r="AX112" s="15" t="s">
-        <v>2516</v>
       </c>
       <c r="AY112" s="1" t="s">
         <v>304</v>
       </c>
       <c r="AZ112" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="BA112" s="1" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="BB112">
         <v>999</v>
@@ -27399,7 +27648,7 @@
         <v>10</v>
       </c>
       <c r="G113" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
       <c r="H113" t="s">
         <v>241</v>
@@ -27411,7 +27660,7 @@
         <v>47.35</v>
       </c>
       <c r="K113" s="11" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="L113" s="11" t="s">
         <v>1648</v>
@@ -27420,22 +27669,22 @@
         <v>999</v>
       </c>
       <c r="N113" s="11" t="s">
+        <v>2519</v>
+      </c>
+      <c r="O113" s="11" t="s">
         <v>2520</v>
       </c>
-      <c r="O113" s="11" t="s">
+      <c r="P113" s="11" t="s">
         <v>2521</v>
       </c>
-      <c r="P113" s="11" t="s">
+      <c r="Q113" s="11" t="s">
         <v>2522</v>
       </c>
-      <c r="Q113" s="11" t="s">
+      <c r="R113">
+        <v>999</v>
+      </c>
+      <c r="S113" t="s">
         <v>2523</v>
-      </c>
-      <c r="R113">
-        <v>999</v>
-      </c>
-      <c r="S113" t="s">
-        <v>2524</v>
       </c>
       <c r="T113" s="11" t="s">
         <v>176</v>
@@ -27444,10 +27693,10 @@
         <v>999</v>
       </c>
       <c r="V113" s="12" t="s">
+        <v>2524</v>
+      </c>
+      <c r="W113" s="12" t="s">
         <v>2525</v>
-      </c>
-      <c r="W113" s="12" t="s">
-        <v>2526</v>
       </c>
       <c r="X113" s="12" t="s">
         <v>541</v>
@@ -27477,7 +27726,7 @@
         <v>490</v>
       </c>
       <c r="AG113" s="15" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="AH113" s="15" t="s">
         <v>290</v>
@@ -27486,13 +27735,13 @@
         <v>1503</v>
       </c>
       <c r="AJ113" s="15" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="AK113" s="15" t="s">
         <v>1521</v>
       </c>
       <c r="AL113" s="15" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="AM113" s="15" t="s">
         <v>265</v>
@@ -27501,31 +27750,31 @@
         <v>628</v>
       </c>
       <c r="AO113" s="15" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="AP113" s="15" t="s">
         <v>629</v>
       </c>
       <c r="AQ113" s="15" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="AR113" s="15" t="s">
         <v>158</v>
       </c>
       <c r="AS113" s="15" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="AT113" s="15" t="s">
         <v>160</v>
       </c>
       <c r="AU113" s="15" t="s">
+        <v>2532</v>
+      </c>
+      <c r="AV113" s="15" t="s">
         <v>2533</v>
       </c>
-      <c r="AV113" s="15" t="s">
+      <c r="AW113" s="15" t="s">
         <v>2534</v>
-      </c>
-      <c r="AW113" s="15" t="s">
-        <v>2535</v>
       </c>
       <c r="AX113" s="15" t="s">
         <v>413</v>
@@ -27537,7 +27786,7 @@
         <v>578</v>
       </c>
       <c r="BA113" s="1" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="BB113">
         <v>999</v>
@@ -27563,7 +27812,7 @@
         <v>11</v>
       </c>
       <c r="G114" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
       <c r="H114" t="s">
         <v>90</v>
@@ -27575,28 +27824,28 @@
         <v>47.35</v>
       </c>
       <c r="K114" s="11" t="s">
+        <v>2537</v>
+      </c>
+      <c r="L114" s="11" t="s">
         <v>2538</v>
       </c>
-      <c r="L114" s="11" t="s">
+      <c r="M114" s="11">
+        <v>999</v>
+      </c>
+      <c r="N114" s="11" t="s">
         <v>2539</v>
-      </c>
-      <c r="M114" s="11">
-        <v>999</v>
-      </c>
-      <c r="N114" s="11" t="s">
-        <v>2540</v>
       </c>
       <c r="O114" s="11" t="s">
         <v>93</v>
       </c>
       <c r="P114" s="11" t="s">
+        <v>2540</v>
+      </c>
+      <c r="Q114" s="11" t="s">
+        <v>2542</v>
+      </c>
+      <c r="R114" s="11" t="s">
         <v>2541</v>
-      </c>
-      <c r="Q114" s="11" t="s">
-        <v>2543</v>
-      </c>
-      <c r="R114" s="11" t="s">
-        <v>2542</v>
       </c>
       <c r="S114">
         <v>999</v>
@@ -27608,25 +27857,25 @@
         <v>999</v>
       </c>
       <c r="V114" s="12" t="s">
+        <v>2543</v>
+      </c>
+      <c r="W114" s="12" t="s">
         <v>2544</v>
       </c>
-      <c r="W114" s="12" t="s">
+      <c r="X114" s="12" t="s">
         <v>2545</v>
-      </c>
-      <c r="X114" s="12" t="s">
-        <v>2546</v>
       </c>
       <c r="Y114" s="12" t="s">
         <v>2379</v>
       </c>
       <c r="Z114" s="12" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="AA114" s="12" t="s">
         <v>314</v>
       </c>
       <c r="AB114" s="12" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="AC114" s="12" t="s">
         <v>426</v>
@@ -27635,16 +27884,16 @@
         <v>807</v>
       </c>
       <c r="AE114" s="15" t="s">
+        <v>2548</v>
+      </c>
+      <c r="AF114" s="15" t="s">
         <v>2549</v>
       </c>
-      <c r="AF114" s="15" t="s">
+      <c r="AG114" s="15" t="s">
         <v>2550</v>
       </c>
-      <c r="AG114" s="15" t="s">
+      <c r="AH114" s="15" t="s">
         <v>2551</v>
-      </c>
-      <c r="AH114" s="15" t="s">
-        <v>2552</v>
       </c>
       <c r="AI114" s="15" t="s">
         <v>399</v>
@@ -27653,7 +27902,7 @@
         <v>225</v>
       </c>
       <c r="AK114" s="15" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="AL114" s="15" t="s">
         <v>1832</v>
@@ -27662,16 +27911,16 @@
         <v>2360</v>
       </c>
       <c r="AN114" s="15" t="s">
+        <v>2554</v>
+      </c>
+      <c r="AO114" s="15" t="s">
         <v>2555</v>
       </c>
-      <c r="AO114" s="15" t="s">
+      <c r="AP114" s="15" t="s">
         <v>2556</v>
       </c>
-      <c r="AP114" s="15" t="s">
+      <c r="AQ114" s="15" t="s">
         <v>2557</v>
-      </c>
-      <c r="AQ114" s="15" t="s">
-        <v>2558</v>
       </c>
       <c r="AR114" s="15" t="s">
         <v>1832</v>
@@ -27686,7 +27935,7 @@
         <v>902</v>
       </c>
       <c r="AV114" s="15" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
       <c r="AW114" s="15" t="s">
         <v>1832</v>
@@ -27698,10 +27947,10 @@
         <v>166</v>
       </c>
       <c r="AZ114" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="BA114" s="1" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
       <c r="BB114">
         <v>999</v>
@@ -27727,7 +27976,7 @@
         <v>12</v>
       </c>
       <c r="G115" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="H115" t="s">
         <v>90</v>
@@ -27739,10 +27988,10 @@
         <v>47.35</v>
       </c>
       <c r="K115" s="11" t="s">
+        <v>2560</v>
+      </c>
+      <c r="L115" s="11" t="s">
         <v>2561</v>
-      </c>
-      <c r="L115" s="11" t="s">
-        <v>2562</v>
       </c>
       <c r="M115" s="11">
         <v>999</v>
@@ -27754,7 +28003,7 @@
         <v>93</v>
       </c>
       <c r="P115" s="11" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="Q115" s="11" t="s">
         <v>802</v>
@@ -27772,25 +28021,25 @@
         <v>999</v>
       </c>
       <c r="V115" s="12" t="s">
+        <v>2563</v>
+      </c>
+      <c r="W115" s="12" t="s">
         <v>2564</v>
       </c>
-      <c r="W115" s="12" t="s">
+      <c r="X115" s="12" t="s">
         <v>2565</v>
-      </c>
-      <c r="X115" s="12" t="s">
-        <v>2566</v>
       </c>
       <c r="Y115" s="12" t="s">
         <v>2126</v>
       </c>
       <c r="Z115" s="12" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
       <c r="AA115" s="12" t="s">
         <v>314</v>
       </c>
       <c r="AB115" s="12" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
       <c r="AC115" s="12" t="s">
         <v>426</v>
@@ -27799,16 +28048,16 @@
         <v>649</v>
       </c>
       <c r="AE115" s="15" t="s">
+        <v>2568</v>
+      </c>
+      <c r="AF115" s="15" t="s">
         <v>2569</v>
       </c>
-      <c r="AF115" s="15" t="s">
+      <c r="AG115" s="15" t="s">
         <v>2570</v>
       </c>
-      <c r="AG115" s="15" t="s">
+      <c r="AH115" s="15" t="s">
         <v>2571</v>
-      </c>
-      <c r="AH115" s="15" t="s">
-        <v>2572</v>
       </c>
       <c r="AI115" s="15" t="s">
         <v>2131</v>
@@ -27817,40 +28066,40 @@
         <v>225</v>
       </c>
       <c r="AK115" s="15" t="s">
+        <v>2572</v>
+      </c>
+      <c r="AL115" s="15" t="s">
         <v>2573</v>
-      </c>
-      <c r="AL115" s="15" t="s">
-        <v>2574</v>
       </c>
       <c r="AM115" s="15" t="s">
         <v>324</v>
       </c>
       <c r="AN115" s="15" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="AO115" s="15" t="s">
+        <v>2574</v>
+      </c>
+      <c r="AP115" s="15" t="s">
         <v>2575</v>
-      </c>
-      <c r="AP115" s="15" t="s">
-        <v>2576</v>
       </c>
       <c r="AQ115" s="15" t="s">
         <v>196</v>
       </c>
       <c r="AR115" s="15" t="s">
+        <v>2576</v>
+      </c>
+      <c r="AS115" s="15" t="s">
         <v>2577</v>
-      </c>
-      <c r="AS115" s="15" t="s">
-        <v>2578</v>
       </c>
       <c r="AT115" s="15" t="s">
         <v>82</v>
       </c>
       <c r="AU115" s="15" t="s">
+        <v>2578</v>
+      </c>
+      <c r="AV115" s="15" t="s">
         <v>2579</v>
-      </c>
-      <c r="AV115" s="15" t="s">
-        <v>2580</v>
       </c>
       <c r="AW115" s="15" t="s">
         <v>1737</v>
@@ -27865,7 +28114,7 @@
         <v>847</v>
       </c>
       <c r="BA115" s="1" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="BB115">
         <v>999</v>
@@ -27891,7 +28140,7 @@
         <v>13</v>
       </c>
       <c r="G116" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="H116" t="s">
         <v>90</v>
@@ -27903,10 +28152,10 @@
         <v>47.35</v>
       </c>
       <c r="K116" s="11" t="s">
+        <v>2583</v>
+      </c>
+      <c r="L116" s="11" t="s">
         <v>2584</v>
-      </c>
-      <c r="L116" s="11" t="s">
-        <v>2585</v>
       </c>
       <c r="M116" s="11">
         <v>999</v>
@@ -27918,13 +28167,13 @@
         <v>93</v>
       </c>
       <c r="P116" s="11" t="s">
+        <v>2585</v>
+      </c>
+      <c r="Q116" s="11" t="s">
+        <v>2587</v>
+      </c>
+      <c r="R116" s="11" t="s">
         <v>2586</v>
-      </c>
-      <c r="Q116" s="11" t="s">
-        <v>2588</v>
-      </c>
-      <c r="R116" s="11" t="s">
-        <v>2587</v>
       </c>
       <c r="S116">
         <v>999</v>
@@ -27936,13 +28185,13 @@
         <v>999</v>
       </c>
       <c r="V116" s="12" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="W116" s="12" t="s">
         <v>367</v>
       </c>
       <c r="X116" s="12" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
       <c r="Y116" s="12" t="s">
         <v>214</v>
@@ -27954,10 +28203,10 @@
         <v>314</v>
       </c>
       <c r="AB116" s="12" t="s">
+        <v>2590</v>
+      </c>
+      <c r="AC116" s="12" t="s">
         <v>2591</v>
-      </c>
-      <c r="AC116" s="12" t="s">
-        <v>2592</v>
       </c>
       <c r="AD116" s="15" t="s">
         <v>720</v>
@@ -27966,13 +28215,13 @@
         <v>371</v>
       </c>
       <c r="AF116" s="15" t="s">
+        <v>2592</v>
+      </c>
+      <c r="AG116" s="15" t="s">
         <v>2593</v>
       </c>
-      <c r="AG116" s="15" t="s">
+      <c r="AH116" s="15" t="s">
         <v>2594</v>
-      </c>
-      <c r="AH116" s="15" t="s">
-        <v>2595</v>
       </c>
       <c r="AI116" s="15" t="s">
         <v>399</v>
@@ -27984,13 +28233,13 @@
         <v>828</v>
       </c>
       <c r="AL116" s="15" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
       <c r="AM116" s="15" t="s">
         <v>379</v>
       </c>
       <c r="AN116" s="15" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="AO116" s="15" t="s">
         <v>77</v>
@@ -28005,19 +28254,19 @@
         <v>80</v>
       </c>
       <c r="AS116" s="15" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="AT116" s="15" t="s">
         <v>82</v>
       </c>
       <c r="AU116" s="15" t="s">
+        <v>2598</v>
+      </c>
+      <c r="AV116" s="15" t="s">
         <v>2599</v>
       </c>
-      <c r="AV116" s="15" t="s">
+      <c r="AW116" s="15" t="s">
         <v>2600</v>
-      </c>
-      <c r="AW116" s="15" t="s">
-        <v>2601</v>
       </c>
       <c r="AX116" s="15" t="s">
         <v>128</v>
@@ -28029,7 +28278,7 @@
         <v>432</v>
       </c>
       <c r="BA116" s="1" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
       <c r="BB116">
         <v>999</v>
@@ -28055,7 +28304,7 @@
         <v>14</v>
       </c>
       <c r="G117" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
       <c r="H117" t="s">
         <v>90</v>
@@ -28067,25 +28316,25 @@
         <v>47.35</v>
       </c>
       <c r="K117" s="11" t="s">
+        <v>2603</v>
+      </c>
+      <c r="L117" s="11" t="s">
         <v>2604</v>
       </c>
-      <c r="L117" s="11" t="s">
+      <c r="M117" s="11">
+        <v>999</v>
+      </c>
+      <c r="N117" s="11" t="s">
         <v>2605</v>
-      </c>
-      <c r="M117" s="11">
-        <v>999</v>
-      </c>
-      <c r="N117" s="11" t="s">
-        <v>2606</v>
       </c>
       <c r="O117" s="11" t="s">
         <v>170</v>
       </c>
       <c r="P117" s="11" t="s">
+        <v>2606</v>
+      </c>
+      <c r="Q117" s="11" t="s">
         <v>2607</v>
-      </c>
-      <c r="Q117" s="11" t="s">
-        <v>2608</v>
       </c>
       <c r="R117">
         <v>999</v>
@@ -28100,13 +28349,13 @@
         <v>999</v>
       </c>
       <c r="V117" s="12" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
       <c r="W117" s="12" t="s">
         <v>367</v>
       </c>
       <c r="X117" s="12" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="Y117" s="12" t="s">
         <v>214</v>
@@ -28118,7 +28367,7 @@
         <v>314</v>
       </c>
       <c r="AB117" s="12" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="AC117" s="12" t="s">
         <v>183</v>
@@ -28127,13 +28376,13 @@
         <v>1092</v>
       </c>
       <c r="AE117" s="15" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
       <c r="AF117" s="15" t="s">
         <v>372</v>
       </c>
       <c r="AG117" s="15" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="AH117" s="15" t="s">
         <v>188</v>
@@ -28148,7 +28397,7 @@
         <v>73</v>
       </c>
       <c r="AL117" s="15" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
       <c r="AM117" s="15" t="s">
         <v>434</v>
@@ -28169,7 +28418,7 @@
         <v>2264</v>
       </c>
       <c r="AS117" s="15" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="AT117" s="15" t="s">
         <v>82</v>
@@ -28178,7 +28427,7 @@
         <v>902</v>
       </c>
       <c r="AV117" s="15" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
       <c r="AW117" s="15" t="s">
         <v>384</v>
@@ -28190,10 +28439,10 @@
         <v>981</v>
       </c>
       <c r="AZ117" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
       <c r="BA117" s="1" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
       <c r="BB117">
         <v>999</v>
@@ -28219,7 +28468,7 @@
         <v>15</v>
       </c>
       <c r="G118" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
       <c r="H118" t="s">
         <v>90</v>
@@ -28231,10 +28480,10 @@
         <v>47.35</v>
       </c>
       <c r="K118" s="11" t="s">
+        <v>2619</v>
+      </c>
+      <c r="L118" s="11" t="s">
         <v>2620</v>
-      </c>
-      <c r="L118" s="11" t="s">
-        <v>2621</v>
       </c>
       <c r="M118" s="11">
         <v>999</v>
@@ -28246,7 +28495,7 @@
         <v>1832</v>
       </c>
       <c r="P118" s="11" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
       <c r="Q118" s="11" t="s">
         <v>802</v>
@@ -28261,22 +28510,22 @@
         <v>888</v>
       </c>
       <c r="U118" s="11" t="s">
+        <v>2622</v>
+      </c>
+      <c r="V118" s="20" t="s">
         <v>2623</v>
-      </c>
-      <c r="V118" s="20" t="s">
-        <v>2624</v>
       </c>
       <c r="W118" s="15" t="s">
         <v>367</v>
       </c>
       <c r="X118" s="15" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
       <c r="Y118" s="15" t="s">
         <v>214</v>
       </c>
       <c r="Z118" s="15" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
       <c r="AA118" s="15" t="s">
         <v>314</v>
@@ -28297,10 +28546,10 @@
         <v>1409</v>
       </c>
       <c r="AG118" s="15" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="AH118" s="15" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
       <c r="AI118" s="15" t="s">
         <v>399</v>
@@ -28318,7 +28567,7 @@
         <v>324</v>
       </c>
       <c r="AN118" s="15" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="AO118" s="15" t="s">
         <v>972</v>
@@ -28327,13 +28576,13 @@
         <v>1049</v>
       </c>
       <c r="AQ118" s="15" t="s">
+        <v>2629</v>
+      </c>
+      <c r="AR118" s="15" t="s">
         <v>2630</v>
       </c>
-      <c r="AR118" s="15" t="s">
+      <c r="AS118" s="15" t="s">
         <v>2631</v>
-      </c>
-      <c r="AS118" s="15" t="s">
-        <v>2632</v>
       </c>
       <c r="AT118" s="15" t="s">
         <v>409</v>
@@ -28357,7 +28606,7 @@
         <v>1454</v>
       </c>
       <c r="BA118" s="1" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="BB118">
         <v>999</v>
@@ -28383,7 +28632,7 @@
         <v>16</v>
       </c>
       <c r="G119" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="H119" t="s">
         <v>90</v>
@@ -28395,28 +28644,28 @@
         <v>47.35</v>
       </c>
       <c r="K119" s="11" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
       <c r="L119" s="11" t="s">
+        <v>2635</v>
+      </c>
+      <c r="M119" s="11">
+        <v>999</v>
+      </c>
+      <c r="N119" s="11" t="s">
         <v>2636</v>
-      </c>
-      <c r="M119" s="11">
-        <v>999</v>
-      </c>
-      <c r="N119" s="11" t="s">
-        <v>2637</v>
       </c>
       <c r="O119" s="11" t="s">
         <v>170</v>
       </c>
       <c r="P119" s="11" t="s">
+        <v>2637</v>
+      </c>
+      <c r="Q119" s="11" t="s">
         <v>2638</v>
       </c>
-      <c r="Q119" s="11" t="s">
+      <c r="R119" s="11" t="s">
         <v>2639</v>
-      </c>
-      <c r="R119" s="11" t="s">
-        <v>2640</v>
       </c>
       <c r="S119" s="11" t="s">
         <v>363</v>
@@ -28425,16 +28674,16 @@
         <v>97</v>
       </c>
       <c r="U119" s="1" t="s">
+        <v>2640</v>
+      </c>
+      <c r="V119" s="15" t="s">
         <v>2641</v>
-      </c>
-      <c r="V119" s="15" t="s">
-        <v>2642</v>
       </c>
       <c r="W119" s="15" t="s">
         <v>338</v>
       </c>
       <c r="X119" s="15" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
       <c r="Y119" s="15" t="s">
         <v>254</v>
@@ -28485,7 +28734,7 @@
         <v>497</v>
       </c>
       <c r="AO119" s="15" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
       <c r="AP119" s="15" t="s">
         <v>466</v>
@@ -28503,13 +28752,13 @@
         <v>300</v>
       </c>
       <c r="AU119" s="15" t="s">
+        <v>2645</v>
+      </c>
+      <c r="AV119" s="15" t="s">
         <v>2646</v>
       </c>
-      <c r="AV119" s="15" t="s">
+      <c r="AW119" s="15" t="s">
         <v>2647</v>
-      </c>
-      <c r="AW119" s="15" t="s">
-        <v>2648</v>
       </c>
       <c r="AX119" s="15" t="s">
         <v>128</v>
@@ -28518,10 +28767,10 @@
         <v>304</v>
       </c>
       <c r="AZ119" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
       <c r="BA119" s="1" t="s">
-        <v>2649</v>
+        <v>2648</v>
       </c>
       <c r="BB119">
         <v>999</v>
@@ -28547,7 +28796,7 @@
         <v>17</v>
       </c>
       <c r="G120" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
       <c r="H120" t="s">
         <v>57</v>
@@ -28559,10 +28808,10 @@
         <v>47.35</v>
       </c>
       <c r="K120" s="11" t="s">
+        <v>2650</v>
+      </c>
+      <c r="L120" s="11" t="s">
         <v>2651</v>
-      </c>
-      <c r="L120" s="11" t="s">
-        <v>2652</v>
       </c>
       <c r="M120" s="11" t="s">
         <v>93</v>
@@ -28574,28 +28823,28 @@
         <v>999</v>
       </c>
       <c r="P120" s="11" t="s">
-        <v>2653</v>
+        <v>2652</v>
       </c>
       <c r="Q120" s="11" t="s">
         <v>364</v>
       </c>
       <c r="S120" t="s">
-        <v>2654</v>
+        <v>2653</v>
       </c>
       <c r="T120" s="11" t="s">
         <v>1060</v>
       </c>
       <c r="U120" s="1" t="s">
+        <v>2654</v>
+      </c>
+      <c r="V120" s="15" t="s">
         <v>2655</v>
-      </c>
-      <c r="V120" s="15" t="s">
-        <v>2656</v>
       </c>
       <c r="W120" s="15" t="s">
         <v>338</v>
       </c>
       <c r="X120" s="15" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
       <c r="Y120" s="15" t="s">
         <v>214</v>
@@ -28604,10 +28853,10 @@
         <v>424</v>
       </c>
       <c r="AA120" s="15" t="s">
+        <v>2657</v>
+      </c>
+      <c r="AB120" s="15" t="s">
         <v>2658</v>
-      </c>
-      <c r="AB120" s="15" t="s">
-        <v>2659</v>
       </c>
       <c r="AC120" s="15" t="s">
         <v>315</v>
@@ -28616,10 +28865,10 @@
         <v>1433</v>
       </c>
       <c r="AE120" s="15" t="s">
+        <v>2659</v>
+      </c>
+      <c r="AF120" s="15" t="s">
         <v>2660</v>
-      </c>
-      <c r="AF120" s="15" t="s">
-        <v>2661</v>
       </c>
       <c r="AG120" s="15" t="s">
         <v>1453</v>
@@ -28628,7 +28877,7 @@
         <v>188</v>
       </c>
       <c r="AI120" s="15" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
       <c r="AJ120" s="15" t="s">
         <v>225</v>
@@ -28637,7 +28886,7 @@
         <v>1228</v>
       </c>
       <c r="AL120" s="15" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
       <c r="AM120" s="15" t="s">
         <v>434</v>
@@ -28646,43 +28895,43 @@
         <v>325</v>
       </c>
       <c r="AO120" s="15" t="s">
+        <v>2664</v>
+      </c>
+      <c r="AP120" s="15" t="s">
         <v>2665</v>
-      </c>
-      <c r="AP120" s="15" t="s">
-        <v>2666</v>
       </c>
       <c r="AQ120" s="15" t="s">
         <v>500</v>
       </c>
       <c r="AR120" s="15" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
       <c r="AS120" s="15" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="AT120" s="15" t="s">
+        <v>2666</v>
+      </c>
+      <c r="AU120" s="15" t="s">
         <v>2667</v>
       </c>
-      <c r="AU120" s="15" t="s">
+      <c r="AV120" s="15" t="s">
         <v>2668</v>
       </c>
-      <c r="AV120" s="15" t="s">
+      <c r="AW120" s="15" t="s">
         <v>2669</v>
       </c>
-      <c r="AW120" s="15" t="s">
+      <c r="AX120" s="15" t="s">
         <v>2670</v>
-      </c>
-      <c r="AX120" s="15" t="s">
-        <v>2671</v>
       </c>
       <c r="AY120" s="1" t="s">
         <v>981</v>
       </c>
       <c r="AZ120" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
       <c r="BA120" s="1" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
       <c r="BB120">
         <v>999</v>
@@ -28708,7 +28957,7 @@
         <v>18</v>
       </c>
       <c r="G121" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
       <c r="H121" t="s">
         <v>241</v>
@@ -28720,25 +28969,25 @@
         <v>47.35</v>
       </c>
       <c r="K121" s="11" t="s">
+        <v>2673</v>
+      </c>
+      <c r="L121" s="11" t="s">
         <v>2674</v>
       </c>
-      <c r="L121" s="11" t="s">
+      <c r="M121" s="11">
+        <v>999</v>
+      </c>
+      <c r="N121" s="11" t="s">
         <v>2675</v>
-      </c>
-      <c r="M121" s="11">
-        <v>999</v>
-      </c>
-      <c r="N121" s="11" t="s">
-        <v>2676</v>
       </c>
       <c r="O121" s="11" t="s">
         <v>419</v>
       </c>
       <c r="P121" s="11" t="s">
+        <v>2676</v>
+      </c>
+      <c r="Q121" s="11" t="s">
         <v>2677</v>
-      </c>
-      <c r="Q121" s="11" t="s">
-        <v>2678</v>
       </c>
       <c r="R121" s="11" t="s">
         <v>1374</v>
@@ -28756,16 +29005,16 @@
         <v>1727</v>
       </c>
       <c r="W121" s="15" t="s">
+        <v>2678</v>
+      </c>
+      <c r="X121" s="15" t="s">
         <v>2679</v>
-      </c>
-      <c r="X121" s="15" t="s">
-        <v>2680</v>
       </c>
       <c r="Y121" s="15" t="s">
         <v>254</v>
       </c>
       <c r="Z121" s="15" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
       <c r="AA121" s="15" t="s">
         <v>140</v>
@@ -28780,7 +29029,7 @@
         <v>258</v>
       </c>
       <c r="AE121" s="15" t="s">
-        <v>2682</v>
+        <v>2681</v>
       </c>
       <c r="AF121" s="15" t="s">
         <v>490</v>
@@ -28801,7 +29050,7 @@
         <v>1521</v>
       </c>
       <c r="AL121" s="15" t="s">
-        <v>2683</v>
+        <v>2682</v>
       </c>
       <c r="AM121" s="15" t="s">
         <v>265</v>
@@ -28816,13 +29065,13 @@
         <v>466</v>
       </c>
       <c r="AQ121" s="15" t="s">
-        <v>2684</v>
+        <v>2683</v>
       </c>
       <c r="AR121" s="15" t="s">
         <v>158</v>
       </c>
       <c r="AS121" s="15" t="s">
-        <v>2685</v>
+        <v>2684</v>
       </c>
       <c r="AT121" s="15" t="s">
         <v>300</v>
@@ -28831,7 +29080,7 @@
         <v>585</v>
       </c>
       <c r="AV121" s="15" t="s">
-        <v>2686</v>
+        <v>2685</v>
       </c>
       <c r="AW121" s="15" t="s">
         <v>2107</v>
@@ -28872,7 +29121,7 @@
         <v>19</v>
       </c>
       <c r="G122" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
       <c r="H122" t="s">
         <v>241</v>
@@ -28884,10 +29133,10 @@
         <v>47.35</v>
       </c>
       <c r="K122" s="11" t="s">
+        <v>2687</v>
+      </c>
+      <c r="L122" s="11" t="s">
         <v>2688</v>
-      </c>
-      <c r="L122" s="11" t="s">
-        <v>2689</v>
       </c>
       <c r="M122" s="11">
         <v>999</v>
@@ -28899,10 +29148,10 @@
         <v>93</v>
       </c>
       <c r="P122" s="11" t="s">
+        <v>2689</v>
+      </c>
+      <c r="Q122" s="11" t="s">
         <v>2690</v>
-      </c>
-      <c r="Q122" s="11" t="s">
-        <v>2691</v>
       </c>
       <c r="R122">
         <v>999</v>
@@ -28917,25 +29166,25 @@
         <v>999</v>
       </c>
       <c r="V122" s="15" t="s">
+        <v>2691</v>
+      </c>
+      <c r="W122" s="15" t="s">
         <v>2692</v>
       </c>
-      <c r="W122" s="15" t="s">
+      <c r="X122" s="15" t="s">
         <v>2693</v>
-      </c>
-      <c r="X122" s="15" t="s">
-        <v>2694</v>
       </c>
       <c r="Y122" s="15" t="s">
         <v>64</v>
       </c>
       <c r="Z122" s="15" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
       <c r="AA122" s="15" t="s">
+        <v>2694</v>
+      </c>
+      <c r="AB122" s="15" t="s">
         <v>2695</v>
-      </c>
-      <c r="AB122" s="15" t="s">
-        <v>2696</v>
       </c>
       <c r="AC122" s="15" t="s">
         <v>67</v>
@@ -28944,16 +29193,16 @@
         <v>1433</v>
       </c>
       <c r="AE122" s="15" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="AF122" s="15" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
       <c r="AG122" s="15" t="s">
+        <v>2696</v>
+      </c>
+      <c r="AH122" s="15" t="s">
         <v>2697</v>
-      </c>
-      <c r="AH122" s="15" t="s">
-        <v>2698</v>
       </c>
       <c r="AI122" s="15" t="s">
         <v>399</v>
@@ -28965,10 +29214,10 @@
         <v>73</v>
       </c>
       <c r="AL122" s="15" t="s">
+        <v>2698</v>
+      </c>
+      <c r="AM122" s="15" t="s">
         <v>2699</v>
-      </c>
-      <c r="AM122" s="15" t="s">
-        <v>2700</v>
       </c>
       <c r="AN122" s="15" t="s">
         <v>1683</v>
@@ -28980,25 +29229,25 @@
         <v>231</v>
       </c>
       <c r="AQ122" s="15" t="s">
+        <v>2700</v>
+      </c>
+      <c r="AR122" s="15" t="s">
         <v>2701</v>
-      </c>
-      <c r="AR122" s="15" t="s">
-        <v>2702</v>
       </c>
       <c r="AS122" s="15" t="s">
         <v>927</v>
       </c>
       <c r="AT122" s="15" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
       <c r="AU122" s="15" t="s">
-        <v>2703</v>
+        <v>2702</v>
       </c>
       <c r="AV122" s="15" t="s">
         <v>440</v>
       </c>
       <c r="AW122" s="15" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
       <c r="AX122" s="15" t="s">
         <v>204</v>
@@ -29010,7 +29259,7 @@
         <v>1730</v>
       </c>
       <c r="BA122" s="1" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
       <c r="BB122">
         <v>999</v>
@@ -29036,7 +29285,7 @@
         <v>20</v>
       </c>
       <c r="G123" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
       <c r="H123" t="s">
         <v>241</v>
@@ -29048,10 +29297,10 @@
         <v>47.35</v>
       </c>
       <c r="K123" s="11" t="s">
+        <v>2707</v>
+      </c>
+      <c r="L123" s="11" t="s">
         <v>2708</v>
-      </c>
-      <c r="L123" s="11" t="s">
-        <v>2709</v>
       </c>
       <c r="M123" s="11">
         <v>999</v>
@@ -29063,7 +29312,7 @@
         <v>170</v>
       </c>
       <c r="P123" s="11" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
       <c r="Q123" s="11" t="s">
         <v>1797</v>
@@ -29081,13 +29330,13 @@
         <v>999</v>
       </c>
       <c r="V123" s="15" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
       <c r="W123" s="15" t="s">
         <v>338</v>
       </c>
       <c r="X123" s="15" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
       <c r="Y123" s="15" t="s">
         <v>254</v>
@@ -29102,13 +29351,13 @@
         <v>141</v>
       </c>
       <c r="AC123" s="15" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="AD123" s="15" t="s">
         <v>258</v>
       </c>
       <c r="AE123" s="15" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
       <c r="AF123" s="15" t="s">
         <v>372</v>
@@ -29117,7 +29366,7 @@
         <v>260</v>
       </c>
       <c r="AH123" s="15" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
       <c r="AI123" s="15" t="s">
         <v>2435</v>
@@ -29147,19 +29396,19 @@
         <v>79</v>
       </c>
       <c r="AR123" s="15" t="s">
+        <v>2715</v>
+      </c>
+      <c r="AS123" s="15" t="s">
         <v>2716</v>
       </c>
-      <c r="AS123" s="15" t="s">
+      <c r="AT123" s="15" t="s">
         <v>2717</v>
       </c>
-      <c r="AT123" s="15" t="s">
+      <c r="AU123" s="15" t="s">
         <v>2718</v>
       </c>
-      <c r="AU123" s="15" t="s">
+      <c r="AV123" s="15" t="s">
         <v>2719</v>
-      </c>
-      <c r="AV123" s="15" t="s">
-        <v>2720</v>
       </c>
       <c r="AW123" s="15" t="s">
         <v>2107</v>
@@ -29174,7 +29423,7 @@
         <v>2003</v>
       </c>
       <c r="BA123" s="1" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
       <c r="BB123">
         <v>999</v>
@@ -29200,7 +29449,7 @@
         <v>1</v>
       </c>
       <c r="G124" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
       <c r="H124" t="s">
         <v>241</v>
@@ -29212,10 +29461,10 @@
         <v>47.35</v>
       </c>
       <c r="K124" s="11" t="s">
+        <v>2722</v>
+      </c>
+      <c r="L124" s="11" t="s">
         <v>2723</v>
-      </c>
-      <c r="L124" s="11" t="s">
-        <v>2724</v>
       </c>
       <c r="M124" s="11">
         <v>999</v>
@@ -29230,7 +29479,7 @@
         <v>888</v>
       </c>
       <c r="Q124" s="11" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
       <c r="R124">
         <v>999</v>
@@ -29245,22 +29494,22 @@
         <v>999</v>
       </c>
       <c r="V124" s="15" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
       <c r="W124" s="15" t="s">
         <v>2355</v>
       </c>
       <c r="X124" s="15" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
       <c r="Y124" s="15" t="s">
         <v>214</v>
       </c>
       <c r="Z124" s="15" t="s">
+        <v>2726</v>
+      </c>
+      <c r="AA124" s="15" t="s">
         <v>2727</v>
-      </c>
-      <c r="AA124" s="15" t="s">
-        <v>2728</v>
       </c>
       <c r="AB124" s="15" t="s">
         <v>806</v>
@@ -29272,13 +29521,13 @@
         <v>999</v>
       </c>
       <c r="AE124" s="15" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
       <c r="AF124" s="15" t="s">
         <v>396</v>
       </c>
       <c r="AG124" s="15" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
       <c r="AH124" s="15" t="s">
         <v>188</v>
@@ -29293,7 +29542,7 @@
         <v>1228</v>
       </c>
       <c r="AL124" s="15" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
       <c r="AM124" s="15" t="s">
         <v>434</v>
@@ -29308,7 +29557,7 @@
         <v>404</v>
       </c>
       <c r="AQ124" s="15" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
       <c r="AR124" s="15" t="s">
         <v>80</v>
@@ -29323,16 +29572,16 @@
         <v>410</v>
       </c>
       <c r="AV124" s="15" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
       <c r="AW124" s="15" t="s">
         <v>1104</v>
       </c>
       <c r="AX124" s="15" t="s">
+        <v>2733</v>
+      </c>
+      <c r="AY124" s="1" t="s">
         <v>2734</v>
-      </c>
-      <c r="AY124" s="1" t="s">
-        <v>2735</v>
       </c>
       <c r="AZ124" t="s">
         <v>1454</v>
@@ -29364,7 +29613,7 @@
         <v>2</v>
       </c>
       <c r="G125" t="s">
-        <v>2736</v>
+        <v>2735</v>
       </c>
       <c r="H125" t="s">
         <v>241</v>
@@ -29376,25 +29625,25 @@
         <v>47.4</v>
       </c>
       <c r="K125" s="11" t="s">
+        <v>2736</v>
+      </c>
+      <c r="L125" s="11" t="s">
         <v>2737</v>
       </c>
-      <c r="L125" s="11" t="s">
+      <c r="M125" s="11">
+        <v>999</v>
+      </c>
+      <c r="N125" s="11" t="s">
         <v>2738</v>
-      </c>
-      <c r="M125" s="11">
-        <v>999</v>
-      </c>
-      <c r="N125" s="11" t="s">
-        <v>2739</v>
       </c>
       <c r="O125" s="11" t="s">
         <v>93</v>
       </c>
       <c r="P125" s="11" t="s">
+        <v>2739</v>
+      </c>
+      <c r="Q125" s="11" t="s">
         <v>2740</v>
-      </c>
-      <c r="Q125" s="11" t="s">
-        <v>2741</v>
       </c>
       <c r="R125">
         <v>999</v>
@@ -29406,7 +29655,7 @@
         <v>310</v>
       </c>
       <c r="U125" s="1" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
       <c r="V125">
         <v>999</v>
@@ -29415,13 +29664,13 @@
         <v>338</v>
       </c>
       <c r="X125" s="15" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
       <c r="Y125" s="15" t="s">
         <v>254</v>
       </c>
       <c r="Z125" s="15" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
       <c r="AA125" s="15" t="s">
         <v>140</v>
@@ -29433,7 +29682,7 @@
         <v>487</v>
       </c>
       <c r="AD125" s="15" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
       <c r="AE125" s="15" t="s">
         <v>2400</v>
@@ -29442,10 +29691,10 @@
         <v>456</v>
       </c>
       <c r="AG125" s="15" t="s">
+        <v>2744</v>
+      </c>
+      <c r="AH125" s="15" t="s">
         <v>2745</v>
-      </c>
-      <c r="AH125" s="15" t="s">
-        <v>2746</v>
       </c>
       <c r="AI125" s="15" t="s">
         <v>399</v>
@@ -29460,13 +29709,13 @@
         <v>1832</v>
       </c>
       <c r="AM125" s="15" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
       <c r="AN125" s="15" t="s">
         <v>628</v>
       </c>
       <c r="AO125" s="15" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
       <c r="AP125" s="15" t="s">
         <v>466</v>
@@ -29475,22 +29724,22 @@
         <v>79</v>
       </c>
       <c r="AR125" s="15" t="s">
+        <v>2748</v>
+      </c>
+      <c r="AS125" s="15" t="s">
         <v>2749</v>
-      </c>
-      <c r="AS125" s="15" t="s">
-        <v>2750</v>
       </c>
       <c r="AT125" s="15" t="s">
         <v>82</v>
       </c>
       <c r="AU125" s="15" t="s">
+        <v>2750</v>
+      </c>
+      <c r="AV125" s="15" t="s">
         <v>2751</v>
       </c>
-      <c r="AV125" s="15" t="s">
+      <c r="AW125" s="15" t="s">
         <v>2752</v>
-      </c>
-      <c r="AW125" s="15" t="s">
-        <v>2753</v>
       </c>
       <c r="AX125" s="15" t="s">
         <v>1832</v>
@@ -29528,7 +29777,7 @@
         <v>2</v>
       </c>
       <c r="G126" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
       <c r="H126" t="s">
         <v>57</v>
@@ -29540,10 +29789,10 @@
         <v>47.35</v>
       </c>
       <c r="K126" s="11" t="s">
-        <v>2737</v>
+        <v>2736</v>
       </c>
       <c r="L126" s="11" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="M126" s="11">
         <v>999</v>
@@ -29555,10 +29804,10 @@
         <v>93</v>
       </c>
       <c r="P126" s="11" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="Q126" s="11" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
       <c r="R126">
         <v>999</v>
@@ -29573,22 +29822,22 @@
         <v>999</v>
       </c>
       <c r="V126" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
       <c r="W126" s="15" t="s">
         <v>2447</v>
       </c>
       <c r="X126" s="15" t="s">
+        <v>2755</v>
+      </c>
+      <c r="Y126" s="15" t="s">
         <v>2756</v>
-      </c>
-      <c r="Y126" s="15" t="s">
-        <v>2757</v>
       </c>
       <c r="Z126" s="15" t="s">
         <v>1497</v>
       </c>
       <c r="AA126" s="15" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
       <c r="AB126" s="15" t="s">
         <v>141</v>
@@ -29597,40 +29846,40 @@
         <v>454</v>
       </c>
       <c r="AD126" s="15" t="s">
+        <v>2758</v>
+      </c>
+      <c r="AE126" s="15" t="s">
         <v>2759</v>
-      </c>
-      <c r="AE126" s="15" t="s">
-        <v>2760</v>
       </c>
       <c r="AF126" s="15" t="s">
         <v>456</v>
       </c>
       <c r="AG126" s="15" t="s">
+        <v>2760</v>
+      </c>
+      <c r="AH126" s="15" t="s">
         <v>2761</v>
-      </c>
-      <c r="AH126" s="15" t="s">
-        <v>2762</v>
       </c>
       <c r="AI126" s="15" t="s">
         <v>261</v>
       </c>
       <c r="AJ126" s="15" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
       <c r="AK126" s="15" t="s">
         <v>1521</v>
       </c>
       <c r="AL126" s="15" t="s">
+        <v>2763</v>
+      </c>
+      <c r="AM126" s="15" t="s">
         <v>2764</v>
-      </c>
-      <c r="AM126" s="15" t="s">
-        <v>2765</v>
       </c>
       <c r="AN126" s="15" t="s">
         <v>628</v>
       </c>
       <c r="AO126" s="15" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
       <c r="AP126" s="15" t="s">
         <v>466</v>
@@ -29639,19 +29888,19 @@
         <v>79</v>
       </c>
       <c r="AR126" s="15" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
       <c r="AS126" s="15" t="s">
-        <v>2767</v>
+        <v>2766</v>
       </c>
       <c r="AT126" s="15" t="s">
         <v>300</v>
       </c>
       <c r="AU126" s="15" t="s">
+        <v>2767</v>
+      </c>
+      <c r="AV126" s="15" t="s">
         <v>2768</v>
-      </c>
-      <c r="AV126" s="15" t="s">
-        <v>2769</v>
       </c>
       <c r="AW126" s="15" t="s">
         <v>663</v>
@@ -29692,7 +29941,7 @@
         <v>3</v>
       </c>
       <c r="G127" t="s">
-        <v>2771</v>
+        <v>2770</v>
       </c>
       <c r="H127" t="s">
         <v>57</v>
@@ -29704,16 +29953,16 @@
         <v>47.35</v>
       </c>
       <c r="K127" s="11" t="s">
-        <v>2770</v>
+        <v>2769</v>
       </c>
       <c r="L127" s="11" t="s">
+        <v>2772</v>
+      </c>
+      <c r="M127" s="11">
+        <v>999</v>
+      </c>
+      <c r="N127" s="11" t="s">
         <v>2773</v>
-      </c>
-      <c r="M127" s="11">
-        <v>999</v>
-      </c>
-      <c r="N127" s="11" t="s">
-        <v>2774</v>
       </c>
       <c r="O127">
         <v>999</v>
@@ -29722,7 +29971,7 @@
         <v>888</v>
       </c>
       <c r="Q127" s="11" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
       <c r="R127" s="11">
         <v>999</v>
@@ -29737,67 +29986,67 @@
         <v>999</v>
       </c>
       <c r="V127" t="s">
+        <v>2775</v>
+      </c>
+      <c r="W127" s="15" t="s">
+        <v>2777</v>
+      </c>
+      <c r="X127" t="s">
         <v>2776</v>
-      </c>
-      <c r="W127" s="15" t="s">
-        <v>2778</v>
-      </c>
-      <c r="X127" t="s">
-        <v>2777</v>
       </c>
       <c r="Y127" s="15" t="s">
         <v>254</v>
       </c>
       <c r="Z127" s="15" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
       <c r="AA127" s="15" t="s">
         <v>453</v>
       </c>
       <c r="AB127" s="15" t="s">
+        <v>2778</v>
+      </c>
+      <c r="AC127" s="15" t="s">
         <v>2779</v>
       </c>
-      <c r="AC127" s="15" t="s">
+      <c r="AD127" s="15" t="s">
         <v>2780</v>
       </c>
-      <c r="AD127" s="15" t="s">
+      <c r="AE127" s="15" t="s">
+        <v>2782</v>
+      </c>
+      <c r="AF127" s="15" t="s">
         <v>2781</v>
       </c>
-      <c r="AE127" s="15" t="s">
+      <c r="AG127" s="15" t="s">
         <v>2783</v>
       </c>
-      <c r="AF127" s="15" t="s">
-        <v>2782</v>
-      </c>
-      <c r="AG127" s="15" t="s">
+      <c r="AH127" s="15" t="s">
         <v>2784</v>
       </c>
-      <c r="AH127" s="15" t="s">
-        <v>2785</v>
-      </c>
       <c r="AI127" s="15" t="s">
+        <v>2786</v>
+      </c>
+      <c r="AJ127" s="15" t="s">
         <v>2787</v>
       </c>
-      <c r="AJ127" s="15" t="s">
+      <c r="AK127" s="15" t="s">
         <v>2788</v>
       </c>
-      <c r="AK127" s="15" t="s">
+      <c r="AL127" s="15" t="s">
         <v>2789</v>
       </c>
-      <c r="AL127" s="15" t="s">
+      <c r="AM127" s="15" t="s">
         <v>2790</v>
       </c>
-      <c r="AM127" s="15" t="s">
+      <c r="AN127" s="15" t="s">
         <v>2791</v>
       </c>
-      <c r="AN127" s="15" t="s">
+      <c r="AO127" s="15" t="s">
         <v>2792</v>
       </c>
-      <c r="AO127" s="15" t="s">
+      <c r="AP127" s="15" t="s">
         <v>2793</v>
-      </c>
-      <c r="AP127" s="15" t="s">
-        <v>2794</v>
       </c>
       <c r="AQ127" s="15" t="s">
         <v>79</v>
@@ -29806,31 +30055,31 @@
         <v>792</v>
       </c>
       <c r="AS127" s="15" t="s">
+        <v>2794</v>
+      </c>
+      <c r="AT127" s="15" t="s">
         <v>2795</v>
       </c>
-      <c r="AT127" s="15" t="s">
+      <c r="AU127" s="15" t="s">
         <v>2796</v>
       </c>
-      <c r="AU127" s="15" t="s">
+      <c r="AV127" s="15" t="s">
         <v>2797</v>
       </c>
-      <c r="AV127" s="15" t="s">
+      <c r="AW127" s="15" t="s">
         <v>2798</v>
       </c>
-      <c r="AW127" s="15" t="s">
+      <c r="AX127" s="15" t="s">
         <v>2799</v>
       </c>
-      <c r="AX127" s="15" t="s">
+      <c r="AY127" s="1" t="s">
         <v>2800</v>
       </c>
-      <c r="AY127" s="1" t="s">
+      <c r="AZ127" t="s">
+        <v>2785</v>
+      </c>
+      <c r="BA127" s="1" t="s">
         <v>2801</v>
-      </c>
-      <c r="AZ127" t="s">
-        <v>2786</v>
-      </c>
-      <c r="BA127" s="1" t="s">
-        <v>2802</v>
       </c>
       <c r="BB127">
         <v>999</v>
@@ -29856,7 +30105,7 @@
         <v>4</v>
       </c>
       <c r="G128" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
       <c r="H128" t="s">
         <v>241</v>
@@ -29868,7 +30117,7 @@
         <v>47.35</v>
       </c>
       <c r="K128" s="11" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
       <c r="L128" s="11" t="s">
         <v>2388</v>
@@ -29883,10 +30132,10 @@
         <v>170</v>
       </c>
       <c r="P128" s="11" t="s">
+        <v>2804</v>
+      </c>
+      <c r="Q128" s="11" t="s">
         <v>2805</v>
-      </c>
-      <c r="Q128" s="11" t="s">
-        <v>2806</v>
       </c>
       <c r="R128" s="11">
         <v>999</v>
@@ -29901,13 +30150,13 @@
         <v>999</v>
       </c>
       <c r="V128" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
       <c r="W128" s="15" t="s">
         <v>2447</v>
       </c>
       <c r="X128" s="15" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="Y128" s="15" t="s">
         <v>254</v>
@@ -29928,16 +30177,16 @@
         <v>258</v>
       </c>
       <c r="AE128" s="15" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
       <c r="AF128" s="15" t="s">
         <v>456</v>
       </c>
       <c r="AG128" s="15" t="s">
+        <v>2808</v>
+      </c>
+      <c r="AH128" s="15" t="s">
         <v>2809</v>
-      </c>
-      <c r="AH128" s="15" t="s">
-        <v>2810</v>
       </c>
       <c r="AI128" s="15" t="s">
         <v>1015</v>
@@ -29949,10 +30198,10 @@
         <v>1016</v>
       </c>
       <c r="AL128" s="15" t="s">
+        <v>2810</v>
+      </c>
+      <c r="AM128" s="15" t="s">
         <v>2811</v>
-      </c>
-      <c r="AM128" s="15" t="s">
-        <v>2812</v>
       </c>
       <c r="AN128" s="15" t="s">
         <v>628</v>
@@ -29970,16 +30219,16 @@
         <v>158</v>
       </c>
       <c r="AS128" s="15" t="s">
-        <v>2813</v>
+        <v>2812</v>
       </c>
       <c r="AT128" s="15" t="s">
         <v>300</v>
       </c>
       <c r="AU128" s="15" t="s">
+        <v>2813</v>
+      </c>
+      <c r="AV128" s="15" t="s">
         <v>2814</v>
-      </c>
-      <c r="AV128" s="15" t="s">
-        <v>2815</v>
       </c>
       <c r="AW128" s="15" t="s">
         <v>2267</v>
@@ -29997,6 +30246,826 @@
         <v>501</v>
       </c>
       <c r="BB128">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="129" spans="1:54">
+      <c r="A129">
+        <v>126</v>
+      </c>
+      <c r="B129" s="14">
+        <v>44776</v>
+      </c>
+      <c r="C129" t="s">
+        <v>54</v>
+      </c>
+      <c r="D129" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E129">
+        <v>12</v>
+      </c>
+      <c r="F129">
+        <v>5</v>
+      </c>
+      <c r="G129" t="s">
+        <v>2815</v>
+      </c>
+      <c r="H129" t="s">
+        <v>57</v>
+      </c>
+      <c r="I129" s="9">
+        <v>25.1</v>
+      </c>
+      <c r="J129" s="9">
+        <v>47.35</v>
+      </c>
+      <c r="K129" s="11" t="s">
+        <v>2816</v>
+      </c>
+      <c r="L129" s="11" t="s">
+        <v>2817</v>
+      </c>
+      <c r="M129" s="11">
+        <v>999</v>
+      </c>
+      <c r="N129" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="O129" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="P129" s="11" t="s">
+        <v>2818</v>
+      </c>
+      <c r="Q129" s="11" t="s">
+        <v>2819</v>
+      </c>
+      <c r="R129" s="11" t="s">
+        <v>2820</v>
+      </c>
+      <c r="S129" s="11">
+        <v>999</v>
+      </c>
+      <c r="T129" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="U129" s="1">
+        <v>999</v>
+      </c>
+      <c r="V129" s="12" t="s">
+        <v>1801</v>
+      </c>
+      <c r="W129" s="15" t="s">
+        <v>571</v>
+      </c>
+      <c r="X129" s="15" t="s">
+        <v>2821</v>
+      </c>
+      <c r="Y129" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z129" s="15" t="s">
+        <v>1561</v>
+      </c>
+      <c r="AA129" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB129" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC129" s="15" t="s">
+        <v>2822</v>
+      </c>
+      <c r="AD129" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="AE129" s="15" t="s">
+        <v>2823</v>
+      </c>
+      <c r="AF129" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="AG129" s="15" t="s">
+        <v>2824</v>
+      </c>
+      <c r="AH129" s="15" t="s">
+        <v>492</v>
+      </c>
+      <c r="AI129" s="15" t="s">
+        <v>2826</v>
+      </c>
+      <c r="AJ129" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="AK129" s="15" t="s">
+        <v>1521</v>
+      </c>
+      <c r="AL129" s="15" t="s">
+        <v>2827</v>
+      </c>
+      <c r="AM129" s="15" t="s">
+        <v>1759</v>
+      </c>
+      <c r="AN129" s="15" t="s">
+        <v>2828</v>
+      </c>
+      <c r="AO129" s="15" t="s">
+        <v>2829</v>
+      </c>
+      <c r="AP129" s="15" t="s">
+        <v>466</v>
+      </c>
+      <c r="AQ129" s="15" t="s">
+        <v>2830</v>
+      </c>
+      <c r="AR129" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="AS129" s="15" t="s">
+        <v>2831</v>
+      </c>
+      <c r="AT129" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="AU129" s="15" t="s">
+        <v>1583</v>
+      </c>
+      <c r="AV129" s="15" t="s">
+        <v>2305</v>
+      </c>
+      <c r="AW129" s="15" t="s">
+        <v>2832</v>
+      </c>
+      <c r="AX129" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="AY129" s="1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="AZ129" t="s">
+        <v>2825</v>
+      </c>
+      <c r="BA129" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="BB129">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="130" spans="1:54">
+      <c r="A130">
+        <v>127</v>
+      </c>
+      <c r="B130" s="14">
+        <v>44776</v>
+      </c>
+      <c r="C130" t="s">
+        <v>54</v>
+      </c>
+      <c r="D130" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E130">
+        <v>12</v>
+      </c>
+      <c r="F130">
+        <v>5</v>
+      </c>
+      <c r="G130" t="s">
+        <v>2833</v>
+      </c>
+      <c r="H130" t="s">
+        <v>90</v>
+      </c>
+      <c r="I130" s="9">
+        <v>25.1</v>
+      </c>
+      <c r="J130" s="9">
+        <v>47.35</v>
+      </c>
+      <c r="K130" s="11" t="s">
+        <v>2834</v>
+      </c>
+      <c r="L130" s="11" t="s">
+        <v>2835</v>
+      </c>
+      <c r="M130" s="11">
+        <v>999</v>
+      </c>
+      <c r="N130" s="11" t="s">
+        <v>2836</v>
+      </c>
+      <c r="O130" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="P130" s="11" t="s">
+        <v>2818</v>
+      </c>
+      <c r="Q130" s="11" t="s">
+        <v>2819</v>
+      </c>
+      <c r="R130" s="11" t="s">
+        <v>2837</v>
+      </c>
+      <c r="S130" s="11">
+        <v>999</v>
+      </c>
+      <c r="T130" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="U130" s="1">
+        <v>999</v>
+      </c>
+      <c r="V130" s="12" t="s">
+        <v>1727</v>
+      </c>
+      <c r="W130" s="15" t="s">
+        <v>2838</v>
+      </c>
+      <c r="X130" s="15" t="s">
+        <v>2839</v>
+      </c>
+      <c r="Y130" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z130" s="15" t="s">
+        <v>1561</v>
+      </c>
+      <c r="AA130" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB130" s="15" t="s">
+        <v>1338</v>
+      </c>
+      <c r="AC130" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="AD130" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="AE130" s="15" t="s">
+        <v>2000</v>
+      </c>
+      <c r="AF130" s="15" t="s">
+        <v>2840</v>
+      </c>
+      <c r="AG130" s="15" t="s">
+        <v>2261</v>
+      </c>
+      <c r="AH130" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="AI130" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="AJ130" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="AK130" s="15" t="s">
+        <v>2841</v>
+      </c>
+      <c r="AL130" s="15" t="s">
+        <v>2842</v>
+      </c>
+      <c r="AM130" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="AN130" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="AO130" s="15" t="s">
+        <v>2843</v>
+      </c>
+      <c r="AP130" s="15" t="s">
+        <v>466</v>
+      </c>
+      <c r="AQ130" s="15" t="s">
+        <v>2844</v>
+      </c>
+      <c r="AR130" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="AS130" s="15" t="s">
+        <v>2845</v>
+      </c>
+      <c r="AT130" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="AU130" s="15" t="s">
+        <v>2846</v>
+      </c>
+      <c r="AV130" s="15" t="s">
+        <v>2847</v>
+      </c>
+      <c r="AW130" s="15" t="s">
+        <v>1395</v>
+      </c>
+      <c r="AX130" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="AY130" s="1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="AZ130" t="s">
+        <v>2825</v>
+      </c>
+      <c r="BA130" s="1" t="s">
+        <v>2848</v>
+      </c>
+      <c r="BB130">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="131" spans="1:54">
+      <c r="A131">
+        <v>128</v>
+      </c>
+      <c r="B131" s="14">
+        <v>44776</v>
+      </c>
+      <c r="C131" t="s">
+        <v>54</v>
+      </c>
+      <c r="D131" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E131">
+        <v>12</v>
+      </c>
+      <c r="F131">
+        <v>5</v>
+      </c>
+      <c r="G131" t="s">
+        <v>2849</v>
+      </c>
+      <c r="H131">
+        <v>999</v>
+      </c>
+      <c r="I131" s="9">
+        <v>999</v>
+      </c>
+      <c r="J131" s="9">
+        <v>999</v>
+      </c>
+      <c r="K131">
+        <v>999</v>
+      </c>
+      <c r="L131" s="11" t="s">
+        <v>2850</v>
+      </c>
+      <c r="M131" s="11">
+        <v>999</v>
+      </c>
+      <c r="N131" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="O131" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="P131" s="11" t="s">
+        <v>2851</v>
+      </c>
+      <c r="Q131" s="11" t="s">
+        <v>2852</v>
+      </c>
+      <c r="R131" s="11">
+        <v>999</v>
+      </c>
+      <c r="S131" s="11">
+        <v>999</v>
+      </c>
+      <c r="T131" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="U131" s="1">
+        <v>999</v>
+      </c>
+      <c r="V131" s="12" t="s">
+        <v>1727</v>
+      </c>
+      <c r="W131" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="X131" s="15" t="s">
+        <v>2853</v>
+      </c>
+      <c r="Y131" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z131" s="15" t="s">
+        <v>1630</v>
+      </c>
+      <c r="AA131" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="AB131" s="15" t="s">
+        <v>1260</v>
+      </c>
+      <c r="AC131" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="AD131" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="AE131" s="15" t="s">
+        <v>2400</v>
+      </c>
+      <c r="AF131" s="15" t="s">
+        <v>2854</v>
+      </c>
+      <c r="AG131" s="15" t="s">
+        <v>2855</v>
+      </c>
+      <c r="AH131" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="AI131" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="AJ131" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="AK131" s="15" t="s">
+        <v>2857</v>
+      </c>
+      <c r="AL131" s="15" t="s">
+        <v>2858</v>
+      </c>
+      <c r="AM131" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="AN131" s="15" t="s">
+        <v>628</v>
+      </c>
+      <c r="AO131" s="15" t="s">
+        <v>2859</v>
+      </c>
+      <c r="AP131" s="15" t="s">
+        <v>2860</v>
+      </c>
+      <c r="AQ131" s="15" t="s">
+        <v>500</v>
+      </c>
+      <c r="AR131" s="15" t="s">
+        <v>632</v>
+      </c>
+      <c r="AS131" s="15" t="s">
+        <v>2861</v>
+      </c>
+      <c r="AT131" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="AU131" s="15" t="s">
+        <v>1328</v>
+      </c>
+      <c r="AV131" s="15" t="s">
+        <v>1875</v>
+      </c>
+      <c r="AW131" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="AX131" s="15" t="s">
+        <v>2733</v>
+      </c>
+      <c r="AY131" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="AZ131" t="s">
+        <v>2856</v>
+      </c>
+      <c r="BA131" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="BB131">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="132" spans="1:54">
+      <c r="A132">
+        <v>129</v>
+      </c>
+      <c r="B132" s="14">
+        <v>44776</v>
+      </c>
+      <c r="C132" t="s">
+        <v>54</v>
+      </c>
+      <c r="D132" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E132">
+        <v>12</v>
+      </c>
+      <c r="F132">
+        <v>6</v>
+      </c>
+      <c r="G132" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H132" t="s">
+        <v>241</v>
+      </c>
+      <c r="I132" s="9">
+        <v>25.1</v>
+      </c>
+      <c r="J132" s="9">
+        <v>47.35</v>
+      </c>
+      <c r="K132" t="s">
+        <v>2862</v>
+      </c>
+      <c r="L132" s="11" t="s">
+        <v>2864</v>
+      </c>
+      <c r="M132" s="11">
+        <v>999</v>
+      </c>
+      <c r="N132" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="O132" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="P132" s="11" t="s">
+        <v>2865</v>
+      </c>
+      <c r="Q132" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="R132" s="11" t="s">
+        <v>2866</v>
+      </c>
+      <c r="S132" s="11">
+        <v>999</v>
+      </c>
+      <c r="T132" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="U132" s="1">
+        <v>999</v>
+      </c>
+      <c r="V132" s="12" t="s">
+        <v>2867</v>
+      </c>
+      <c r="W132" s="15" t="s">
+        <v>2868</v>
+      </c>
+      <c r="X132" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y132" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="Z132" s="15" t="s">
+        <v>1832</v>
+      </c>
+      <c r="AA132" s="15" t="s">
+        <v>2869</v>
+      </c>
+      <c r="AB132" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC132" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD132">
+        <v>999</v>
+      </c>
+      <c r="AE132" s="15" t="s">
+        <v>2870</v>
+      </c>
+      <c r="AF132" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="AG132" s="15" t="s">
+        <v>2871</v>
+      </c>
+      <c r="AH132" s="15" t="s">
+        <v>2872</v>
+      </c>
+      <c r="AI132" s="15" t="s">
+        <v>2873</v>
+      </c>
+      <c r="AJ132" s="15" t="s">
+        <v>2874</v>
+      </c>
+      <c r="AK132" s="15" t="s">
+        <v>2875</v>
+      </c>
+      <c r="AL132" s="15" t="s">
+        <v>1893</v>
+      </c>
+      <c r="AM132" s="15" t="s">
+        <v>2876</v>
+      </c>
+      <c r="AN132" s="15" t="s">
+        <v>900</v>
+      </c>
+      <c r="AO132" s="15" t="s">
+        <v>2877</v>
+      </c>
+      <c r="AP132" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="AQ132" s="15" t="s">
+        <v>2878</v>
+      </c>
+      <c r="AR132" s="15" t="s">
+        <v>1832</v>
+      </c>
+      <c r="AS132" s="15" t="s">
+        <v>1832</v>
+      </c>
+      <c r="AT132" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU132" s="15" t="s">
+        <v>2879</v>
+      </c>
+      <c r="AV132" s="15" t="s">
+        <v>2880</v>
+      </c>
+      <c r="AW132" s="15" t="s">
+        <v>1185</v>
+      </c>
+      <c r="AX132" s="15" t="s">
+        <v>2881</v>
+      </c>
+      <c r="AY132" s="1" t="s">
+        <v>1962</v>
+      </c>
+      <c r="AZ132" t="s">
+        <v>1709</v>
+      </c>
+      <c r="BA132" s="1" t="s">
+        <v>1832</v>
+      </c>
+      <c r="BB132">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="133" spans="1:54">
+      <c r="A133">
+        <v>130</v>
+      </c>
+      <c r="B133" s="14">
+        <v>44776</v>
+      </c>
+      <c r="C133" t="s">
+        <v>54</v>
+      </c>
+      <c r="D133" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E133">
+        <v>12</v>
+      </c>
+      <c r="F133">
+        <v>7</v>
+      </c>
+      <c r="G133" t="s">
+        <v>2883</v>
+      </c>
+      <c r="H133" t="s">
+        <v>241</v>
+      </c>
+      <c r="I133" s="9">
+        <v>25.1</v>
+      </c>
+      <c r="J133" s="9">
+        <v>47.35</v>
+      </c>
+      <c r="K133" t="s">
+        <v>2882</v>
+      </c>
+      <c r="L133" s="11" t="s">
+        <v>2884</v>
+      </c>
+      <c r="M133" s="11">
+        <v>999</v>
+      </c>
+      <c r="N133" s="11" t="s">
+        <v>984</v>
+      </c>
+      <c r="O133" s="11" t="s">
+        <v>1004</v>
+      </c>
+      <c r="P133" s="11" t="s">
+        <v>2818</v>
+      </c>
+      <c r="Q133" s="11" t="s">
+        <v>1447</v>
+      </c>
+      <c r="R133" s="11" t="s">
+        <v>2885</v>
+      </c>
+      <c r="S133" s="11">
+        <v>999</v>
+      </c>
+      <c r="T133" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="U133" s="1" t="s">
+        <v>2886</v>
+      </c>
+      <c r="V133" s="12" t="s">
+        <v>2887</v>
+      </c>
+      <c r="W133" s="15" t="s">
+        <v>2888</v>
+      </c>
+      <c r="X133" s="15" t="s">
+        <v>1062</v>
+      </c>
+      <c r="Y133" s="15" t="s">
+        <v>2889</v>
+      </c>
+      <c r="Z133" s="15" t="s">
+        <v>2890</v>
+      </c>
+      <c r="AA133" s="15" t="s">
+        <v>2727</v>
+      </c>
+      <c r="AB133" s="15" t="s">
+        <v>596</v>
+      </c>
+      <c r="AC133" s="15" t="s">
+        <v>2891</v>
+      </c>
+      <c r="AD133" s="15" t="s">
+        <v>599</v>
+      </c>
+      <c r="AE133" s="15" t="s">
+        <v>964</v>
+      </c>
+      <c r="AF133" s="15" t="s">
+        <v>456</v>
+      </c>
+      <c r="AG133" s="15" t="s">
+        <v>2892</v>
+      </c>
+      <c r="AH133" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="AI133" s="15" t="s">
+        <v>2893</v>
+      </c>
+      <c r="AJ133" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="AK133" s="15" t="s">
+        <v>1166</v>
+      </c>
+      <c r="AL133" s="15" t="s">
+        <v>2894</v>
+      </c>
+      <c r="AM133" s="15" t="s">
+        <v>2895</v>
+      </c>
+      <c r="AN133" s="15" t="s">
+        <v>435</v>
+      </c>
+      <c r="AO133" s="15" t="s">
+        <v>2877</v>
+      </c>
+      <c r="AP133" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ133" s="15" t="s">
+        <v>2896</v>
+      </c>
+      <c r="AR133" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS133" s="15" t="s">
+        <v>1547</v>
+      </c>
+      <c r="AT133" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU133" s="15" t="s">
+        <v>902</v>
+      </c>
+      <c r="AV133" s="15" t="s">
+        <v>1052</v>
+      </c>
+      <c r="AW133" s="15" t="s">
+        <v>384</v>
+      </c>
+      <c r="AX133" s="15" t="s">
+        <v>2897</v>
+      </c>
+      <c r="AY133" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="AZ133" t="s">
+        <v>1914</v>
+      </c>
+      <c r="BA133" s="1" t="s">
+        <v>2898</v>
+      </c>
+      <c r="BB133">
         <v>999</v>
       </c>
     </row>
